--- a/Civilworks cost/IPC Distribution.xlsx
+++ b/Civilworks cost/IPC Distribution.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -331,7 +331,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -377,13 +377,14 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -672,14 +673,14 @@
       <selection activeCell="D2" sqref="D2:D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="18.28515625" customWidth="1"/>
-    <col min="3" max="3" width="97.5703125" customWidth="1"/>
-    <col min="4" max="4" width="52.85546875" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" customWidth="1"/>
+    <col min="3" max="3" width="97.5546875" customWidth="1"/>
+    <col min="4" max="4" width="52.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -690,7 +691,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>57</v>
       </c>
@@ -705,7 +706,7 @@
         <v>4111306_Construction of Irrigation Inlet (New Haors)</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>58</v>
       </c>
@@ -720,7 +721,7 @@
         <v>4111307_ Re-installation/Construction of Regulator/ Causeway (Rehabilitation Sub-Projects)</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>59</v>
       </c>
@@ -735,7 +736,7 @@
         <v>4111307_ Installation/Construction of New Regulators/ Causeway/Bridge/Box Drainage Outlet) (New Haors)</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>60</v>
       </c>
@@ -750,7 +751,7 @@
         <v xml:space="preserve">4111307_ Re-excavation of Khal/River (New Haors) </v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>61</v>
       </c>
@@ -765,7 +766,7 @@
         <v xml:space="preserve">4111201_ Re-excavation of Khal/River (Rehabilitation Sub-Projects) </v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>62</v>
       </c>
@@ -780,7 +781,7 @@
         <v>4111201_ Rehabilitation of Full Embankment (Resection/ construction) (Rehabilitation Sub-Projects)</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>63</v>
       </c>
@@ -795,7 +796,7 @@
         <v>4111201_ Rehabilitation of Submergible Embankment  (Resection/construction)  (Rehabilitation Sub-Projects)</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>64</v>
       </c>
@@ -810,7 +811,7 @@
         <v>4111201_Construction of Submersible Embankment (New Haors) (Earth Volume: 29.98 lakh cum)</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>65</v>
       </c>
@@ -825,7 +826,7 @@
         <v>4111201_ Rehabilitation of Regulator (New Haors)</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>66</v>
       </c>
@@ -840,7 +841,7 @@
         <v>4111201_Construction of WMG Office</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>67</v>
       </c>
@@ -867,32 +868,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q13"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="M1" zoomScale="55" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="55" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <selection activeCell="T8" sqref="T8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="115.85546875" customWidth="1"/>
-    <col min="2" max="2" width="46.28515625" style="1" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="62.5703125" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="47.140625" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="115.88671875" customWidth="1"/>
+    <col min="2" max="2" width="46.33203125" style="1" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="62.5546875" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="47.109375" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="47" style="1" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="44.42578125" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="47.28515625" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="44.44140625" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="47.33203125" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="56" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="50" customWidth="1"/>
-    <col min="10" max="10" width="61.28515625" customWidth="1"/>
-    <col min="11" max="11" width="43.7109375" customWidth="1"/>
-    <col min="12" max="12" width="51.5703125" customWidth="1"/>
-    <col min="13" max="13" width="49.42578125" customWidth="1"/>
-    <col min="14" max="14" width="45.28515625" customWidth="1"/>
-    <col min="15" max="15" width="56.42578125" style="12" customWidth="1"/>
-    <col min="16" max="16" width="42.42578125" customWidth="1"/>
-    <col min="17" max="17" width="43.28515625" customWidth="1"/>
+    <col min="9" max="9" width="50" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="61.33203125" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="43.6640625" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="51.5546875" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="49.44140625" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="45.33203125" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="56.44140625" style="12" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="42.44140625" customWidth="1"/>
+    <col min="17" max="17" width="43.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="39" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:17" ht="39" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>29</v>
@@ -933,17 +934,17 @@
       <c r="N1" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="O1" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="P1" s="20" t="s">
         <v>74</v>
       </c>
       <c r="Q1" s="19" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="57.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:17" ht="57.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
@@ -960,15 +961,15 @@
         <v>689062.37</v>
       </c>
       <c r="J2" s="19"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
-    </row>
-    <row r="3" spans="1:17" ht="57.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="K2" s="21"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+    </row>
+    <row r="3" spans="1:17" ht="57.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="3" t="s">
         <v>15</v>
       </c>
@@ -981,15 +982,15 @@
       <c r="H3" s="8"/>
       <c r="I3" s="19"/>
       <c r="J3" s="19"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="13"/>
-    </row>
-    <row r="4" spans="1:17" ht="57.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="K3" s="21"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="21"/>
+    </row>
+    <row r="4" spans="1:17" ht="57.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="3" t="s">
         <v>16</v>
       </c>
@@ -1017,20 +1018,20 @@
       <c r="K4" s="19">
         <v>401812</v>
       </c>
-      <c r="L4" s="8">
+      <c r="L4" s="20">
         <v>1255087</v>
       </c>
-      <c r="M4" s="13"/>
-      <c r="N4" s="8">
+      <c r="M4" s="21"/>
+      <c r="N4" s="20">
         <v>973257</v>
       </c>
-      <c r="O4" s="8">
+      <c r="O4" s="20">
         <v>780616.47860000003</v>
       </c>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="13"/>
-    </row>
-    <row r="5" spans="1:17" ht="57.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="P4" s="21"/>
+      <c r="Q4" s="21"/>
+    </row>
+    <row r="5" spans="1:17" ht="57.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="3" t="s">
         <v>17</v>
       </c>
@@ -1051,17 +1052,17 @@
       </c>
       <c r="I5" s="19"/>
       <c r="J5" s="19"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="8">
+      <c r="K5" s="21"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="20">
         <v>712805.52139999997</v>
       </c>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="13"/>
-    </row>
-    <row r="6" spans="1:17" ht="57.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="P5" s="21"/>
+      <c r="Q5" s="21"/>
+    </row>
+    <row r="6" spans="1:17" ht="57.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="3" t="s">
         <v>18</v>
       </c>
@@ -1074,17 +1075,17 @@
       <c r="H6" s="8"/>
       <c r="I6" s="19"/>
       <c r="J6" s="19"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="8">
+      <c r="K6" s="21"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="20">
         <v>1505204</v>
       </c>
-      <c r="N6" s="13"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="13"/>
-    </row>
-    <row r="7" spans="1:17" ht="57.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="N6" s="21"/>
+      <c r="O6" s="20"/>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="21"/>
+    </row>
+    <row r="7" spans="1:17" ht="57.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="3" t="s">
         <v>19</v>
       </c>
@@ -1097,15 +1098,15 @@
       <c r="H7" s="8"/>
       <c r="I7" s="19"/>
       <c r="J7" s="19"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="13"/>
-      <c r="Q7" s="13"/>
-    </row>
-    <row r="8" spans="1:17" ht="57.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="K7" s="21"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="20"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="21"/>
+    </row>
+    <row r="8" spans="1:17" ht="57.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="3" t="s">
         <v>20</v>
       </c>
@@ -1118,15 +1119,15 @@
       <c r="H8" s="8"/>
       <c r="I8" s="19"/>
       <c r="J8" s="19"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="13"/>
-      <c r="Q8" s="13"/>
-    </row>
-    <row r="9" spans="1:17" ht="57.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="K8" s="21"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="20"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="21"/>
+    </row>
+    <row r="9" spans="1:17" ht="57.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="3" t="s">
         <v>21</v>
       </c>
@@ -1147,19 +1148,19 @@
       <c r="J9" s="19">
         <v>591783.80000000005</v>
       </c>
-      <c r="K9" s="13"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8">
+      <c r="K9" s="21"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="20"/>
+      <c r="P9" s="20">
         <v>516199</v>
       </c>
-      <c r="Q9" s="8">
+      <c r="Q9" s="20">
         <v>391128</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="57.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:17" ht="57.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="3" t="s">
         <v>22</v>
       </c>
@@ -1170,17 +1171,17 @@
       <c r="F10" s="13"/>
       <c r="G10" s="13"/>
       <c r="H10" s="8"/>
-      <c r="I10" s="13"/>
+      <c r="I10" s="21"/>
       <c r="J10" s="19"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="21"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="13"/>
-    </row>
-    <row r="11" spans="1:17" ht="57.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="K10" s="21"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="20"/>
+      <c r="P10" s="21"/>
+      <c r="Q10" s="21"/>
+    </row>
+    <row r="11" spans="1:17" ht="57.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="3" t="s">
         <v>23</v>
       </c>
@@ -1191,17 +1192,17 @@
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
       <c r="H11" s="8"/>
-      <c r="I11" s="13"/>
+      <c r="I11" s="21"/>
       <c r="J11" s="19"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="21"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="13"/>
-      <c r="Q11" s="13"/>
-    </row>
-    <row r="12" spans="1:17" ht="57.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="K11" s="21"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="21"/>
+    </row>
+    <row r="12" spans="1:17" ht="57.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="3" t="s">
         <v>24</v>
       </c>
@@ -1212,17 +1213,17 @@
       <c r="F12" s="13"/>
       <c r="G12" s="13"/>
       <c r="H12" s="8"/>
-      <c r="I12" s="13"/>
+      <c r="I12" s="21"/>
       <c r="J12" s="19"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="13"/>
-      <c r="Q12" s="13"/>
-    </row>
-    <row r="13" spans="1:17" ht="43.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="K12" s="21"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="21"/>
+      <c r="O12" s="20"/>
+      <c r="P12" s="21"/>
+      <c r="Q12" s="21"/>
+    </row>
+    <row r="13" spans="1:17" ht="43.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="3" t="s">
         <v>28</v>
       </c>
@@ -1233,15 +1234,15 @@
       <c r="F13" s="13"/>
       <c r="G13" s="13"/>
       <c r="H13" s="8"/>
-      <c r="I13" s="13"/>
+      <c r="I13" s="21"/>
       <c r="J13" s="19"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="13"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="20"/>
+      <c r="P13" s="21"/>
+      <c r="Q13" s="21"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -1257,27 +1258,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q13"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="M1" zoomScale="55" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1"/>
+    <sheetView view="pageBreakPreview" zoomScale="55" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="119" customWidth="1"/>
     <col min="2" max="2" width="39" style="1" hidden="1" customWidth="1"/>
     <col min="3" max="8" width="39" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="47.140625" customWidth="1"/>
-    <col min="10" max="10" width="40.7109375" customWidth="1"/>
-    <col min="11" max="11" width="47.5703125" customWidth="1"/>
-    <col min="12" max="12" width="52" style="12" customWidth="1"/>
-    <col min="13" max="13" width="48.28515625" customWidth="1"/>
-    <col min="14" max="14" width="48.140625" customWidth="1"/>
-    <col min="15" max="15" width="60.28515625" customWidth="1"/>
-    <col min="16" max="16" width="45.7109375" customWidth="1"/>
-    <col min="17" max="17" width="46.140625" customWidth="1"/>
+    <col min="9" max="9" width="47.109375" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="40.6640625" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="47.5546875" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="52" style="12" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="48.33203125" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="48.109375" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="60.33203125" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="45.6640625" customWidth="1"/>
+    <col min="17" max="17" width="46.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="39" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:17" ht="39" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>29</v>
@@ -1328,7 +1329,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
@@ -1341,19 +1342,19 @@
       </c>
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
-      <c r="I2" s="8">
+      <c r="I2" s="20">
         <v>4823437.45</v>
       </c>
-      <c r="J2" s="8"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
-    </row>
-    <row r="3" spans="1:17" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J2" s="20"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+    </row>
+    <row r="3" spans="1:17" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>15</v>
       </c>
@@ -1364,17 +1365,17 @@
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="21"/>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="13"/>
-    </row>
-    <row r="4" spans="1:17" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="21"/>
+    </row>
+    <row r="4" spans="1:17" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>16</v>
       </c>
@@ -1393,29 +1394,29 @@
       </c>
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
-      <c r="I4" s="8">
+      <c r="I4" s="20">
         <v>6037755.4900000002</v>
       </c>
-      <c r="J4" s="8">
+      <c r="J4" s="20">
         <v>3815450.81</v>
       </c>
-      <c r="K4" s="8">
+      <c r="K4" s="20">
         <v>2812680</v>
       </c>
-      <c r="L4" s="8">
+      <c r="L4" s="20">
         <v>8785607</v>
       </c>
-      <c r="M4" s="13"/>
-      <c r="N4" s="8">
+      <c r="M4" s="21"/>
+      <c r="N4" s="20">
         <v>6812796</v>
       </c>
-      <c r="O4" s="8">
+      <c r="O4" s="20">
         <v>5464314.8269999996</v>
       </c>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="13"/>
-    </row>
-    <row r="5" spans="1:17" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P4" s="21"/>
+      <c r="Q4" s="21"/>
+    </row>
+    <row r="5" spans="1:17" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>17</v>
       </c>
@@ -1434,19 +1435,19 @@
       <c r="H5" s="8">
         <v>577518.56000000006</v>
       </c>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="8">
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="20">
         <v>4989638.1730000004</v>
       </c>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="13"/>
-    </row>
-    <row r="6" spans="1:17" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P5" s="21"/>
+      <c r="Q5" s="21"/>
+    </row>
+    <row r="6" spans="1:17" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>18</v>
       </c>
@@ -1457,19 +1458,19 @@
       <c r="F6" s="13"/>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="8">
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="20">
         <v>10537128</v>
       </c>
-      <c r="N6" s="13"/>
-      <c r="O6" s="21"/>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="13"/>
-    </row>
-    <row r="7" spans="1:17" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N6" s="21"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="21"/>
+    </row>
+    <row r="7" spans="1:17" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>19</v>
       </c>
@@ -1480,17 +1481,17 @@
       <c r="F7" s="13"/>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="21"/>
-      <c r="P7" s="13"/>
-      <c r="Q7" s="13"/>
-    </row>
-    <row r="8" spans="1:17" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="21"/>
+    </row>
+    <row r="8" spans="1:17" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>20</v>
       </c>
@@ -1501,17 +1502,17 @@
       <c r="F8" s="13"/>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="21"/>
-      <c r="P8" s="13"/>
-      <c r="Q8" s="13"/>
-    </row>
-    <row r="9" spans="1:17" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="21"/>
+    </row>
+    <row r="9" spans="1:17" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>21</v>
       </c>
@@ -1526,25 +1527,25 @@
       <c r="H9" s="8">
         <v>479330.44</v>
       </c>
-      <c r="I9" s="8">
+      <c r="I9" s="20">
         <v>5386258.0499999998</v>
       </c>
-      <c r="J9" s="8">
+      <c r="J9" s="20">
         <v>4142488.19</v>
       </c>
-      <c r="K9" s="13"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="21"/>
-      <c r="P9" s="8">
+      <c r="K9" s="21"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="22"/>
+      <c r="P9" s="20">
         <v>3613394</v>
       </c>
-      <c r="Q9" s="8">
+      <c r="Q9" s="20">
         <v>2737897</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>22</v>
       </c>
@@ -1555,17 +1556,17 @@
       <c r="F10" s="13"/>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="21"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="21"/>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="13"/>
-    </row>
-    <row r="11" spans="1:17" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="22"/>
+      <c r="P10" s="21"/>
+      <c r="Q10" s="21"/>
+    </row>
+    <row r="11" spans="1:17" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>23</v>
       </c>
@@ -1576,17 +1577,17 @@
       <c r="F11" s="13"/>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="21"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="21"/>
-      <c r="P11" s="13"/>
-      <c r="Q11" s="13"/>
-    </row>
-    <row r="12" spans="1:17" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="22"/>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="21"/>
+    </row>
+    <row r="12" spans="1:17" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>24</v>
       </c>
@@ -1597,17 +1598,17 @@
       <c r="F12" s="13"/>
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="21"/>
-      <c r="P12" s="13"/>
-      <c r="Q12" s="13"/>
-    </row>
-    <row r="13" spans="1:17" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="21"/>
+      <c r="O12" s="22"/>
+      <c r="P12" s="21"/>
+      <c r="Q12" s="21"/>
+    </row>
+    <row r="13" spans="1:17" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>28</v>
       </c>
@@ -1618,15 +1619,15 @@
       <c r="F13" s="13"/>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="21"/>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="13"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="22"/>
+      <c r="P13" s="21"/>
+      <c r="Q13" s="21"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -1646,26 +1647,26 @@
       <selection activeCell="O67" sqref="O67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="20.140625" style="10" customWidth="1"/>
+    <col min="2" max="2" width="20.109375" style="10" customWidth="1"/>
     <col min="3" max="3" width="16" style="10" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" customWidth="1"/>
-    <col min="8" max="8" width="22.85546875" customWidth="1"/>
-    <col min="9" max="9" width="19.42578125" customWidth="1"/>
-    <col min="12" max="12" width="19.42578125" customWidth="1"/>
-    <col min="13" max="13" width="25.140625" style="10" customWidth="1"/>
-    <col min="14" max="14" width="26.28515625" customWidth="1"/>
-    <col min="15" max="15" width="17.7109375" style="10" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" customWidth="1"/>
-    <col min="17" max="17" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.28515625" style="11" customWidth="1"/>
-    <col min="19" max="19" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.28515625" customWidth="1"/>
-    <col min="21" max="21" width="16.5703125" customWidth="1"/>
+    <col min="5" max="5" width="17.109375" customWidth="1"/>
+    <col min="8" max="8" width="22.88671875" customWidth="1"/>
+    <col min="9" max="9" width="19.44140625" customWidth="1"/>
+    <col min="12" max="12" width="19.44140625" customWidth="1"/>
+    <col min="13" max="13" width="25.109375" style="10" customWidth="1"/>
+    <col min="14" max="14" width="26.33203125" customWidth="1"/>
+    <col min="15" max="15" width="17.6640625" style="10" customWidth="1"/>
+    <col min="16" max="16" width="14.88671875" customWidth="1"/>
+    <col min="17" max="17" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.33203125" style="11" customWidth="1"/>
+    <col min="19" max="19" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.33203125" customWidth="1"/>
+    <col min="21" max="21" width="16.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B1" s="12">
         <v>7146.0320000000002</v>
       </c>
@@ -1681,7 +1682,7 @@
       <c r="O1" s="12"/>
       <c r="P1" s="1"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B2" s="12">
         <v>2175338.3840000001</v>
       </c>
@@ -1707,7 +1708,7 @@
       <c r="O2" s="12"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B3" s="12">
         <v>442686.37599999999</v>
       </c>
@@ -1731,7 +1732,7 @@
       <c r="O3" s="12"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B4" s="12">
         <v>25927.940999999999</v>
       </c>
@@ -1758,7 +1759,7 @@
       <c r="O4" s="12"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>32</v>
       </c>
@@ -1793,7 +1794,7 @@
       <c r="O5" s="12"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B6" s="12"/>
       <c r="C6" s="12">
         <v>769684.61699999997</v>
@@ -1818,7 +1819,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C7" s="12">
         <v>776580.14399999997</v>
       </c>
@@ -1842,7 +1843,7 @@
         <v>12285185.104948564</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C8" s="12">
         <f>SUM(C1:C7)</f>
         <v>2491596.338</v>
@@ -1866,7 +1867,7 @@
         <v>901800.89505143708</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="E9" s="12">
         <f>B6+C8</f>
         <v>2491596.338</v>
@@ -1888,12 +1889,12 @@
         <v>15070841</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="L12" s="10" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="L13" s="10" t="s">
         <v>48</v>
       </c>
@@ -1910,7 +1911,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="L14" s="16">
         <v>5478066.2400000002</v>
       </c>
@@ -1936,7 +1937,7 @@
         <v>4313977.0977821741</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="L15" s="16"/>
       <c r="M15" s="12">
         <v>315745.96999999997</v>
@@ -1961,7 +1962,7 @@
         <v>5197670.9022178268</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="K16" t="s">
         <v>25</v>
       </c>
@@ -1987,7 +1988,7 @@
       </c>
       <c r="S16" s="10"/>
     </row>
-    <row r="17" spans="11:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="11:19" x14ac:dyDescent="0.3">
       <c r="K17" t="s">
         <v>49</v>
       </c>
@@ -1997,18 +1998,18 @@
         <v>12078283.359999999</v>
       </c>
     </row>
-    <row r="18" spans="11:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="11:19" x14ac:dyDescent="0.3">
       <c r="L18" s="10"/>
     </row>
-    <row r="19" spans="11:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="11:19" x14ac:dyDescent="0.3">
       <c r="L19" s="10"/>
     </row>
-    <row r="20" spans="11:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="11:19" x14ac:dyDescent="0.3">
       <c r="L20" s="10" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="11:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="11:19" x14ac:dyDescent="0.3">
       <c r="L21" s="10" t="s">
         <v>48</v>
       </c>
@@ -2025,7 +2026,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="11:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="11:19" x14ac:dyDescent="0.3">
       <c r="L22" s="10">
         <v>5478066.2400000002</v>
       </c>
@@ -2050,7 +2051,7 @@
         <v>479330.43588387553</v>
       </c>
     </row>
-    <row r="23" spans="11:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="11:19" x14ac:dyDescent="0.3">
       <c r="L23" s="10"/>
       <c r="M23" s="10">
         <v>315745.96999999997</v>
@@ -2073,7 +2074,7 @@
         <v>577518.56411612465</v>
       </c>
     </row>
-    <row r="24" spans="11:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="11:19" x14ac:dyDescent="0.3">
       <c r="K24" t="s">
         <v>25</v>
       </c>
@@ -2099,7 +2100,7 @@
         <v>1207828.0000000002</v>
       </c>
     </row>
-    <row r="25" spans="11:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="11:19" x14ac:dyDescent="0.3">
       <c r="K25" t="s">
         <v>49</v>
       </c>
@@ -2107,12 +2108,12 @@
         <v>12078283.359999999</v>
       </c>
     </row>
-    <row r="35" spans="14:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="14:21" x14ac:dyDescent="0.3">
       <c r="N35" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="14:21" x14ac:dyDescent="0.25">
+    <row r="36" spans="14:21" x14ac:dyDescent="0.3">
       <c r="N36" t="s">
         <v>48</v>
       </c>
@@ -2120,7 +2121,7 @@
         <v>5923319.2699999996</v>
       </c>
     </row>
-    <row r="37" spans="14:21" x14ac:dyDescent="0.25">
+    <row r="37" spans="14:21" x14ac:dyDescent="0.3">
       <c r="N37" t="s">
         <v>54</v>
       </c>
@@ -2128,7 +2129,7 @@
         <v>317931.49</v>
       </c>
     </row>
-    <row r="38" spans="14:21" x14ac:dyDescent="0.25">
+    <row r="38" spans="14:21" x14ac:dyDescent="0.3">
       <c r="N38" t="s">
         <v>25</v>
       </c>
@@ -2146,7 +2147,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="14:21" x14ac:dyDescent="0.25">
+    <row r="39" spans="14:21" x14ac:dyDescent="0.3">
       <c r="N39" t="s">
         <v>55</v>
       </c>
@@ -2173,7 +2174,7 @@
         <v>5386258.0510686319</v>
       </c>
     </row>
-    <row r="40" spans="14:21" x14ac:dyDescent="0.25">
+    <row r="40" spans="14:21" x14ac:dyDescent="0.3">
       <c r="N40" t="s">
         <v>56</v>
       </c>
@@ -2200,7 +2201,7 @@
         <v>6037755.4941627374</v>
       </c>
     </row>
-    <row r="41" spans="14:21" x14ac:dyDescent="0.25">
+    <row r="41" spans="14:21" x14ac:dyDescent="0.3">
       <c r="N41" t="s">
         <v>57</v>
       </c>
@@ -2227,7 +2228,7 @@
         <v>4823437.4547686297</v>
       </c>
     </row>
-    <row r="42" spans="14:21" x14ac:dyDescent="0.25">
+    <row r="42" spans="14:21" x14ac:dyDescent="0.3">
       <c r="N42" t="s">
         <v>58</v>
       </c>
@@ -2251,7 +2252,7 @@
         <v>16247450.999999998</v>
       </c>
     </row>
-    <row r="43" spans="14:21" x14ac:dyDescent="0.25">
+    <row r="43" spans="14:21" x14ac:dyDescent="0.3">
       <c r="N43" t="s">
         <v>25</v>
       </c>
@@ -2260,7 +2261,7 @@
         <v>12585254.568999998</v>
       </c>
     </row>
-    <row r="44" spans="14:21" x14ac:dyDescent="0.25">
+    <row r="44" spans="14:21" x14ac:dyDescent="0.3">
       <c r="N44" t="s">
         <v>49</v>
       </c>
@@ -2269,7 +2270,7 @@
         <v>18826505.328999996</v>
       </c>
     </row>
-    <row r="48" spans="14:21" x14ac:dyDescent="0.25">
+    <row r="48" spans="14:21" x14ac:dyDescent="0.3">
       <c r="N48" t="s">
         <v>62</v>
       </c>
@@ -2277,7 +2278,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="49" spans="14:20" x14ac:dyDescent="0.25">
+    <row r="49" spans="14:20" x14ac:dyDescent="0.3">
       <c r="N49" t="s">
         <v>63</v>
       </c>
@@ -2297,7 +2298,7 @@
         <v>4142488.1873903489</v>
       </c>
     </row>
-    <row r="50" spans="14:20" x14ac:dyDescent="0.25">
+    <row r="50" spans="14:20" x14ac:dyDescent="0.3">
       <c r="N50" t="s">
         <v>64</v>
       </c>
@@ -2317,7 +2318,7 @@
         <v>3815450.8126096507</v>
       </c>
     </row>
-    <row r="51" spans="14:20" x14ac:dyDescent="0.25">
+    <row r="51" spans="14:20" x14ac:dyDescent="0.3">
       <c r="O51" s="10">
         <f>SUM(O49:O50)</f>
         <v>9094786.5099999998</v>
@@ -2339,7 +2340,7 @@
         <v>9094787</v>
       </c>
     </row>
-    <row r="54" spans="14:20" x14ac:dyDescent="0.25">
+    <row r="54" spans="14:20" x14ac:dyDescent="0.3">
       <c r="N54" t="s">
         <v>66</v>
       </c>
@@ -2347,7 +2348,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="55" spans="14:20" x14ac:dyDescent="0.25">
+    <row r="55" spans="14:20" x14ac:dyDescent="0.3">
       <c r="N55" t="s">
         <v>63</v>
       </c>
@@ -2364,7 +2365,7 @@
         <v>4142488.1873903489</v>
       </c>
     </row>
-    <row r="56" spans="14:20" x14ac:dyDescent="0.25">
+    <row r="56" spans="14:20" x14ac:dyDescent="0.3">
       <c r="N56" t="s">
         <v>64</v>
       </c>
@@ -2381,7 +2382,7 @@
         <v>3815450.8126096507</v>
       </c>
     </row>
-    <row r="57" spans="14:20" x14ac:dyDescent="0.25">
+    <row r="57" spans="14:20" x14ac:dyDescent="0.3">
       <c r="P57">
         <v>1</v>
       </c>
@@ -2395,7 +2396,7 @@
         <v>9094787</v>
       </c>
     </row>
-    <row r="58" spans="14:20" x14ac:dyDescent="0.25">
+    <row r="58" spans="14:20" x14ac:dyDescent="0.3">
       <c r="N58" t="s">
         <v>72</v>
       </c>
@@ -2409,7 +2410,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="59" spans="14:20" x14ac:dyDescent="0.25">
+    <row r="59" spans="14:20" x14ac:dyDescent="0.3">
       <c r="N59" t="s">
         <v>33</v>
       </c>
@@ -2436,7 +2437,7 @@
         <v>4989638.1726636579</v>
       </c>
     </row>
-    <row r="60" spans="14:20" x14ac:dyDescent="0.25">
+    <row r="60" spans="14:20" x14ac:dyDescent="0.3">
       <c r="N60" t="s">
         <v>64</v>
       </c>
@@ -2463,7 +2464,7 @@
         <v>5464314.8273363421</v>
       </c>
     </row>
-    <row r="61" spans="14:20" x14ac:dyDescent="0.25">
+    <row r="61" spans="14:20" x14ac:dyDescent="0.3">
       <c r="N61" t="s">
         <v>73</v>
       </c>
@@ -2483,7 +2484,7 @@
         <v>10453953</v>
       </c>
     </row>
-    <row r="62" spans="14:20" x14ac:dyDescent="0.25">
+    <row r="62" spans="14:20" x14ac:dyDescent="0.3">
       <c r="N62" t="s">
         <v>64</v>
       </c>
@@ -2492,13 +2493,13 @@
         <v>6244931.3999999994</v>
       </c>
     </row>
-    <row r="63" spans="14:20" x14ac:dyDescent="0.25">
+    <row r="63" spans="14:20" x14ac:dyDescent="0.3">
       <c r="O63" s="10">
         <f>SUM(O59,O62)</f>
         <v>11947375.18</v>
       </c>
     </row>
-    <row r="65" spans="14:20" x14ac:dyDescent="0.25">
+    <row r="65" spans="14:20" x14ac:dyDescent="0.3">
       <c r="N65" t="s">
         <v>75</v>
       </c>
@@ -2512,7 +2513,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="66" spans="14:20" x14ac:dyDescent="0.25">
+    <row r="66" spans="14:20" x14ac:dyDescent="0.3">
       <c r="N66" t="s">
         <v>59</v>
       </c>
@@ -2535,7 +2536,7 @@
         <v>4989638.1726636579</v>
       </c>
     </row>
-    <row r="67" spans="14:20" x14ac:dyDescent="0.25">
+    <row r="67" spans="14:20" x14ac:dyDescent="0.3">
       <c r="N67" t="s">
         <v>64</v>
       </c>
@@ -2556,7 +2557,7 @@
         <v>5464314.8273363421</v>
       </c>
     </row>
-    <row r="68" spans="14:20" x14ac:dyDescent="0.25">
+    <row r="68" spans="14:20" x14ac:dyDescent="0.3">
       <c r="N68" t="s">
         <v>73</v>
       </c>
@@ -2573,7 +2574,7 @@
         <v>10453953</v>
       </c>
     </row>
-    <row r="69" spans="14:20" x14ac:dyDescent="0.25">
+    <row r="69" spans="14:20" x14ac:dyDescent="0.3">
       <c r="N69" t="s">
         <v>64</v>
       </c>
@@ -2581,7 +2582,7 @@
         <v>6244931.3999999994</v>
       </c>
     </row>
-    <row r="70" spans="14:20" x14ac:dyDescent="0.25">
+    <row r="70" spans="14:20" x14ac:dyDescent="0.3">
       <c r="O70" s="12">
         <v>11947375.18</v>
       </c>

--- a/Civilworks cost/IPC Distribution.xlsx
+++ b/Civilworks cost/IPC Distribution.xlsx
@@ -4,13 +4,15 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="GoB" sheetId="3" r:id="rId2"/>
     <sheet name="RPA" sheetId="4" r:id="rId3"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId4"/>
+    <sheet name="IPC_Dist" sheetId="6" r:id="rId5"/>
+    <sheet name="Sheet3" sheetId="7" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">GoB!$A$1:$T$16</definedName>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="90">
   <si>
     <t>O&amp;M During Construction</t>
   </si>
@@ -257,6 +259,45 @@
   </si>
   <si>
     <t>158/KISH-13 6th RA BILL</t>
+  </si>
+  <si>
+    <t>Reg_Rehab_Rehab</t>
+  </si>
+  <si>
+    <t>Reg_CW_Box</t>
+  </si>
+  <si>
+    <t>Khal_Riv_New</t>
+  </si>
+  <si>
+    <t>Khal_Riv_Rehab</t>
+  </si>
+  <si>
+    <t>Full_Emb_Rehab</t>
+  </si>
+  <si>
+    <t>Sub_Emb_Rehab</t>
+  </si>
+  <si>
+    <t>Sub_Emb_Const</t>
+  </si>
+  <si>
+    <t>Reg_Rehab_New</t>
+  </si>
+  <si>
+    <t>Wmg_Office</t>
+  </si>
+  <si>
+    <t>IPCNo</t>
+  </si>
+  <si>
+    <t>156/SUNM-01 4th RA Bill</t>
+  </si>
+  <si>
+    <t>Gob</t>
+  </si>
+  <si>
+    <t>Rpa</t>
   </si>
 </sst>
 </file>
@@ -331,7 +372,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -385,6 +426,15 @@
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -867,8 +917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q13"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="M1" zoomScale="55" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1"/>
+    <sheetView view="pageBreakPreview" topLeftCell="M4" zoomScale="55" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1642,7 +1692,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U70"/>
   <sheetViews>
-    <sheetView topLeftCell="M55" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="M13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="O67" sqref="O67"/>
     </sheetView>
   </sheetViews>
@@ -2589,4 +2639,98 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24" customWidth="1"/>
+    <col min="2" max="12" width="13.42578125" customWidth="1"/>
+    <col min="13" max="13" width="11.28515625" customWidth="1"/>
+    <col min="14" max="14" width="16.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="H1" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="I1" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="J1" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="K1" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="L1" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="N1" s="22" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2">
+        <v>10121557.060000001</v>
+      </c>
+      <c r="I2">
+        <v>9416806.852</v>
+      </c>
+      <c r="M2">
+        <v>2442296</v>
+      </c>
+      <c r="N2" s="1">
+        <v>17096068</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Civilworks cost/IPC Distribution.xlsx
+++ b/Civilworks cost/IPC Distribution.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="109">
   <si>
     <t>O&amp;M During Construction</t>
   </si>
@@ -298,6 +298,63 @@
   </si>
   <si>
     <t>Rpa</t>
+  </si>
+  <si>
+    <t>160/(SUNM-01)-05 2nd RA Bill</t>
+  </si>
+  <si>
+    <t>161/Habi-1 5th  RA Bill</t>
+  </si>
+  <si>
+    <t>172/Kish-12 7th  RA Bill</t>
+  </si>
+  <si>
+    <t>161/Kish-16 9th  RA Bill</t>
+  </si>
+  <si>
+    <t>175/Kish-23 2nd  RA Bill</t>
+  </si>
+  <si>
+    <t>174/Netr-01  4th  RA Bill</t>
+  </si>
+  <si>
+    <t>190/Kish-22 2nd  RA Bill</t>
+  </si>
+  <si>
+    <t>191/Kish-26 6th  RA Bill</t>
+  </si>
+  <si>
+    <t>194/(SUNM-01)-06 6th RA Bill</t>
+  </si>
+  <si>
+    <t>192/(SUNM-01)-04 4th RA Bill</t>
+  </si>
+  <si>
+    <t>195/Netr-06 5th RA Bill</t>
+  </si>
+  <si>
+    <t>193/Kish-05 5th  RA Bill</t>
+  </si>
+  <si>
+    <t>199/Kish-17 10th  RA Bill</t>
+  </si>
+  <si>
+    <t>210/(SUNM-01)-06 6th RA final Bill</t>
+  </si>
+  <si>
+    <t>209/(SUNM-01)-05 2nd RA Bill</t>
+  </si>
+  <si>
+    <t>213/Kish-23 3rd  RA Bill</t>
+  </si>
+  <si>
+    <t>212/(SUNM-02)-02 3rd RA Bill</t>
+  </si>
+  <si>
+    <t>159/Kish-28/Lot-4 1st  RA Bill</t>
+  </si>
+  <si>
+    <t>173/Netr-03 4th RA Bill</t>
   </si>
 </sst>
 </file>
@@ -372,7 +429,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -435,6 +492,22 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2643,22 +2716,31 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24" customWidth="1"/>
-    <col min="2" max="12" width="13.42578125" customWidth="1"/>
-    <col min="13" max="13" width="11.28515625" customWidth="1"/>
+    <col min="1" max="1" width="35.5703125" style="31" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" customWidth="1"/>
+    <col min="8" max="8" width="16" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" customWidth="1"/>
+    <col min="10" max="10" width="15.85546875" customWidth="1"/>
+    <col min="11" max="12" width="13.42578125" customWidth="1"/>
+    <col min="13" max="13" width="14" customWidth="1"/>
     <col min="14" max="14" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>86</v>
       </c>
       <c r="B1" s="24" t="s">
@@ -2702,21 +2784,436 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="D2">
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="28">
         <v>10121557.060000001</v>
       </c>
-      <c r="I2">
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="27">
         <v>9416806.852</v>
       </c>
-      <c r="M2">
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="27">
         <v>2442296</v>
       </c>
-      <c r="N2" s="1">
+      <c r="N2" s="27">
         <v>17096068</v>
       </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="27">
+        <v>4153902.9180000001</v>
+      </c>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="27">
+        <v>519238</v>
+      </c>
+      <c r="N3" s="27">
+        <v>3634665</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="27">
+        <v>31435052</v>
+      </c>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28">
+        <v>3929382</v>
+      </c>
+      <c r="N4" s="28">
+        <v>27505670</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="28">
+        <v>7440653</v>
+      </c>
+      <c r="L5" s="28"/>
+      <c r="M5" s="28">
+        <v>930087</v>
+      </c>
+      <c r="N5" s="28">
+        <v>6510571</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28">
+        <v>8773225</v>
+      </c>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="28">
+        <v>1096659</v>
+      </c>
+      <c r="N6" s="28">
+        <v>7676616</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="28">
+        <v>967157.26999999955</v>
+      </c>
+      <c r="E7" s="28">
+        <v>7576934.0999999996</v>
+      </c>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="28">
+        <v>1068011</v>
+      </c>
+      <c r="N7" s="28">
+        <v>7476080</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="28">
+        <v>15300148.25</v>
+      </c>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28">
+        <v>5002242.9400000004</v>
+      </c>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="28"/>
+      <c r="M8" s="28">
+        <v>2537799</v>
+      </c>
+      <c r="N8" s="28">
+        <v>17764592</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28">
+        <v>6272429.75</v>
+      </c>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28">
+        <v>784054</v>
+      </c>
+      <c r="N9" s="28">
+        <v>5488375</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="28">
+        <v>2376584.4930000007</v>
+      </c>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28">
+        <v>5851260.3669999996</v>
+      </c>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="28"/>
+      <c r="M10" s="28">
+        <v>1028481</v>
+      </c>
+      <c r="N10" s="28">
+        <v>7199364</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="28">
+        <v>3951018.61</v>
+      </c>
+      <c r="E11" s="28">
+        <v>1303448.1200000001</v>
+      </c>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28">
+        <v>3401350.1</v>
+      </c>
+      <c r="J11" s="32"/>
+      <c r="K11" s="32"/>
+      <c r="L11" s="32"/>
+      <c r="M11" s="28">
+        <v>1081977</v>
+      </c>
+      <c r="N11" s="28">
+        <v>7573840</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="13"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="13"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2725,12 +3222,49 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="G2:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="7" max="7" width="18.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G2">
+        <v>2913738.14</v>
+      </c>
+    </row>
+    <row r="3" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G3">
+        <v>2230920.327</v>
+      </c>
+    </row>
+    <row r="4" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G4">
+        <v>589267.10400000005</v>
+      </c>
+    </row>
+    <row r="5" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G5">
+        <v>46933.917999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G6">
+        <v>70400.877999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G7">
+        <f>SUM(G2:G6)</f>
+        <v>5851260.3669999996</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Civilworks cost/IPC Distribution.xlsx
+++ b/Civilworks cost/IPC Distribution.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="142">
   <si>
     <t>O&amp;M During Construction</t>
   </si>
@@ -355,6 +355,105 @@
   </si>
   <si>
     <t>173/Netr-03 4th RA Bill</t>
+  </si>
+  <si>
+    <t>214/Kish-26 7th  RA Bill</t>
+  </si>
+  <si>
+    <t>217/Kish-14 8th  RA Bill</t>
+  </si>
+  <si>
+    <t>218/Kish-17  11th  RA Bill</t>
+  </si>
+  <si>
+    <t>220/Kish-03  8th  RA Bill</t>
+  </si>
+  <si>
+    <t>216/Kish-16  10th  RA Bill</t>
+  </si>
+  <si>
+    <t>219/Kish-9  6th  RA Bill</t>
+  </si>
+  <si>
+    <t>225/Kish-21  1st  RA Bill</t>
+  </si>
+  <si>
+    <t>226/(SUNM-01)-05 3rd RA  Bill</t>
+  </si>
+  <si>
+    <t>232/Hobi-2  4th  RA Bill</t>
+  </si>
+  <si>
+    <t>233/Kish-25  6th  RA Bill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">351/(SUNM-02)-02  4th RA Bill </t>
+  </si>
+  <si>
+    <t>248/Kish-01  1st  RA Bill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">250/(SUNM-01)-03 3rd RA Bill </t>
+  </si>
+  <si>
+    <t xml:space="preserve">252/Netr-08 1st RA Bill </t>
+  </si>
+  <si>
+    <t xml:space="preserve">249/(SUNM-01)-04 5th RA Bill </t>
+  </si>
+  <si>
+    <t>246/Kish-11  6th  RA Bill</t>
+  </si>
+  <si>
+    <t>247/Kish-10  5th  RA Bill</t>
+  </si>
+  <si>
+    <t>245/Kish-6  12th  RA Bill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">243/Netr-03 5th RA Bill </t>
+  </si>
+  <si>
+    <t xml:space="preserve">242/Netr-02 4th RA Bill </t>
+  </si>
+  <si>
+    <t xml:space="preserve">241/Netr-01 5th RA Bill </t>
+  </si>
+  <si>
+    <t>240/Hobi-5  3rd RA Bill</t>
+  </si>
+  <si>
+    <t>244/Kish-23  4th  RA Bill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">255/Netr-06  6th RA Bill </t>
+  </si>
+  <si>
+    <t xml:space="preserve">256/Netr-04  4th RA Bill </t>
+  </si>
+  <si>
+    <t>257/Kish-26  8th  RA Bill</t>
+  </si>
+  <si>
+    <t>273/Kish-13  7th  RA Bill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">347/(SUNM-01)-06  7th RA Bill </t>
+  </si>
+  <si>
+    <t>351/Kish-21  2nd  RA Bill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">349/(SUNM-01)-04  6th RA Bill </t>
+  </si>
+  <si>
+    <t xml:space="preserve">348/(SUNM-01)-05  4th RA Bill </t>
+  </si>
+  <si>
+    <t xml:space="preserve">350/(SUNM-02)-01  5th RA Bill </t>
+  </si>
+  <si>
+    <t>352/Hobi-4  5th RA Bill</t>
   </si>
 </sst>
 </file>
@@ -429,7 +528,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -493,7 +592,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -503,12 +601,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1765,8 +1859,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U70"/>
   <sheetViews>
-    <sheetView topLeftCell="M13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="O67" sqref="O67"/>
+    <sheetView topLeftCell="M1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2716,15 +2810,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N21"/>
+  <dimension ref="A1:N54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.5703125" style="31" customWidth="1"/>
+    <col min="1" max="1" width="35.5703125" style="28" customWidth="1"/>
     <col min="2" max="2" width="13.42578125" customWidth="1"/>
     <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.42578125" customWidth="1"/>
@@ -2740,7 +2832,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="22" t="s">
         <v>86</v>
       </c>
       <c r="B1" s="24" t="s">
@@ -2784,436 +2876,1324 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="28">
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27">
         <v>10121557.060000001</v>
       </c>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="27">
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="26">
         <v>9416806.852</v>
       </c>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="27">
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="26">
         <v>2442296</v>
       </c>
-      <c r="N2" s="27">
+      <c r="N2" s="26">
         <v>17096068</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="27">
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="26">
         <v>4153902.9180000001</v>
       </c>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="27">
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="26">
         <v>519238</v>
       </c>
-      <c r="N3" s="27">
+      <c r="N3" s="26">
         <v>3634665</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="27">
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="26">
         <v>31435052</v>
       </c>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28">
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27">
         <v>3929382</v>
       </c>
-      <c r="N4" s="28">
+      <c r="N4" s="27">
         <v>27505670</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="27" t="s">
         <v>107</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="28">
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27">
         <v>7440653</v>
       </c>
-      <c r="L5" s="28"/>
-      <c r="M5" s="28">
+      <c r="L5" s="27"/>
+      <c r="M5" s="27">
         <v>930087</v>
       </c>
-      <c r="N5" s="28">
+      <c r="N5" s="27">
         <v>6510571</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28">
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27">
         <v>8773225</v>
       </c>
-      <c r="J6" s="28"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="28"/>
-      <c r="M6" s="28">
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27">
         <v>1096659</v>
       </c>
-      <c r="N6" s="28">
+      <c r="N6" s="27">
         <v>7676616</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="28">
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27">
         <v>967157.26999999955</v>
       </c>
-      <c r="E7" s="28">
+      <c r="E7" s="27">
         <v>7576934.0999999996</v>
       </c>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="28"/>
-      <c r="M7" s="28">
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27">
         <v>1068011</v>
       </c>
-      <c r="N7" s="28">
+      <c r="N7" s="27">
         <v>7476080</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="28">
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27">
         <v>15300148.25</v>
       </c>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28">
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27">
         <v>5002242.9400000004</v>
       </c>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="28"/>
-      <c r="M8" s="28">
+      <c r="J8" s="27"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27">
         <v>2537799</v>
       </c>
-      <c r="N8" s="28">
+      <c r="N8" s="27">
         <v>17764592</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="29" t="s">
+      <c r="A9" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28">
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27">
         <v>6272429.75</v>
       </c>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28">
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27">
         <v>784054</v>
       </c>
-      <c r="N9" s="28">
+      <c r="N9" s="27">
         <v>5488375</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="28">
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27">
         <v>2376584.4930000007</v>
       </c>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28">
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27">
         <v>5851260.3669999996</v>
       </c>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="28"/>
-      <c r="M10" s="28">
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27">
         <v>1028481</v>
       </c>
-      <c r="N10" s="28">
+      <c r="N10" s="27">
         <v>7199364</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="32" t="s">
+      <c r="A11" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="28">
+      <c r="B11" s="27"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27">
         <v>3951018.61</v>
       </c>
-      <c r="E11" s="28">
+      <c r="E11" s="27">
         <v>1303448.1200000001</v>
       </c>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28">
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27">
         <v>3401350.1</v>
       </c>
-      <c r="J11" s="32"/>
-      <c r="K11" s="32"/>
-      <c r="L11" s="32"/>
-      <c r="M11" s="28">
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27">
         <v>1081977</v>
       </c>
-      <c r="N11" s="28">
+      <c r="N11" s="27">
         <v>7573840</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="30" t="s">
+      <c r="A12" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="13"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27">
+        <v>5018209.87</v>
+      </c>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="27">
+        <v>627276</v>
+      </c>
+      <c r="N12" s="27">
+        <v>4390934</v>
+      </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="30" t="s">
+      <c r="A13" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27">
+        <v>28440949.879999999</v>
+      </c>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="27">
+        <v>2930119</v>
+      </c>
+      <c r="N13" s="27">
+        <v>20510831</v>
+      </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="30" t="s">
+      <c r="A14" s="27" t="s">
         <v>99</v>
       </c>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="13"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27">
+        <v>11803695.960000001</v>
+      </c>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="27"/>
+      <c r="M14" s="27">
+        <v>1475462</v>
+      </c>
+      <c r="N14" s="27">
+        <v>10328234</v>
+      </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="30" t="s">
+      <c r="A15" s="27" t="s">
         <v>100</v>
       </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="30" t="s">
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27">
+        <v>3678989.3829999999</v>
+      </c>
+      <c r="E15" s="27">
+        <v>1997998.9920000001</v>
+      </c>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27">
+        <v>24430.226999999999</v>
+      </c>
+      <c r="K15" s="27"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="27">
+        <v>712677</v>
+      </c>
+      <c r="N15" s="27">
+        <v>4988742</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="13"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27">
+        <v>764582</v>
+      </c>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27">
+        <v>7622328.6999999993</v>
+      </c>
+      <c r="J16" s="27"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="27"/>
+      <c r="M16" s="27">
+        <v>1048364</v>
+      </c>
+      <c r="N16" s="27">
+        <v>7338547</v>
+      </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="30" t="s">
+      <c r="A17" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="13"/>
+      <c r="B17" s="27">
+        <v>4444197.7699999996</v>
+      </c>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27">
+        <v>181114.16399999999</v>
+      </c>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="27">
+        <v>781917</v>
+      </c>
+      <c r="N17" s="27">
+        <v>5473421</v>
+      </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="30" t="s">
+      <c r="A18" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="13"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27">
+        <v>28440949.879999999</v>
+      </c>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="27">
+        <v>625000</v>
+      </c>
+      <c r="N18" s="27">
+        <v>4375000</v>
+      </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="30" t="s">
+      <c r="A19" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="13"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27">
+        <v>31061589.32</v>
+      </c>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="27"/>
+      <c r="L19" s="27"/>
+      <c r="M19" s="27">
+        <v>3882699</v>
+      </c>
+      <c r="N19" s="27">
+        <v>27178890</v>
+      </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="30" t="s">
+      <c r="A20" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="13"/>
-      <c r="N20" s="13"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27">
+        <v>18143506.600000001</v>
+      </c>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="27">
+        <v>644634.19999999995</v>
+      </c>
+      <c r="J20" s="27"/>
+      <c r="K20" s="27"/>
+      <c r="L20" s="27"/>
+      <c r="M20" s="27">
+        <v>2348518</v>
+      </c>
+      <c r="N20" s="27">
+        <v>16439623</v>
+      </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="30" t="s">
+      <c r="A21" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="13"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27">
+        <v>35010947</v>
+      </c>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="27"/>
+      <c r="L21" s="27"/>
+      <c r="M21" s="27">
+        <v>4376368</v>
+      </c>
+      <c r="N21" s="27">
+        <v>30634579</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="B22" s="27"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27">
+        <v>9000456.8900000006</v>
+      </c>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="27"/>
+      <c r="L22" s="27"/>
+      <c r="M22" s="27">
+        <v>1125057</v>
+      </c>
+      <c r="N22" s="27">
+        <v>7875399</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="B23" s="27"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="27">
+        <v>6195501.8360000001</v>
+      </c>
+      <c r="J23" s="27"/>
+      <c r="K23" s="27"/>
+      <c r="L23" s="27"/>
+      <c r="M23" s="27">
+        <v>774438</v>
+      </c>
+      <c r="N23" s="27">
+        <v>5421064</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="B24" s="27">
+        <v>2677161.36</v>
+      </c>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27">
+        <v>6396151.4699999997</v>
+      </c>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="27">
+        <v>686638.29</v>
+      </c>
+      <c r="J24" s="27"/>
+      <c r="K24" s="27"/>
+      <c r="L24" s="27"/>
+      <c r="M24" s="27">
+        <v>1181215</v>
+      </c>
+      <c r="N24" s="27">
+        <v>8268502</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="B25" s="27"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27">
+        <v>333327.88400000002</v>
+      </c>
+      <c r="E25" s="27"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="27">
+        <v>4060359.2289999998</v>
+      </c>
+      <c r="J25" s="27"/>
+      <c r="K25" s="27"/>
+      <c r="L25" s="27"/>
+      <c r="M25" s="27">
+        <v>549211</v>
+      </c>
+      <c r="N25" s="27">
+        <v>3844476</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="B26" s="27"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="27">
+        <v>2275479</v>
+      </c>
+      <c r="J26" s="27"/>
+      <c r="K26" s="27"/>
+      <c r="L26" s="27"/>
+      <c r="M26" s="27">
+        <v>284435</v>
+      </c>
+      <c r="N26" s="27">
+        <v>1991044</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="B27" s="27"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27">
+        <v>8581506.1300000008</v>
+      </c>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="27"/>
+      <c r="K27" s="27"/>
+      <c r="L27" s="27"/>
+      <c r="M27" s="27">
+        <v>1072688</v>
+      </c>
+      <c r="N27" s="27">
+        <v>7508818.1200000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="B28" s="27"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="27">
+        <v>19139634.739999998</v>
+      </c>
+      <c r="J28" s="27"/>
+      <c r="K28" s="27"/>
+      <c r="L28" s="27"/>
+      <c r="M28" s="27">
+        <v>2332454</v>
+      </c>
+      <c r="N28" s="27">
+        <v>16747181</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="B29" s="27"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27">
+        <v>52195699.359999999</v>
+      </c>
+      <c r="E29" s="27"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="27"/>
+      <c r="J29" s="27"/>
+      <c r="K29" s="27"/>
+      <c r="L29" s="27"/>
+      <c r="M29" s="27">
+        <v>6524462</v>
+      </c>
+      <c r="N29" s="27">
+        <v>45671237</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="B30" s="27"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="27">
+        <v>14453370.689999998</v>
+      </c>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="27">
+        <v>6619216.5499999998</v>
+      </c>
+      <c r="J30" s="27"/>
+      <c r="K30" s="27"/>
+      <c r="L30" s="27"/>
+      <c r="M30" s="27">
+        <v>2571157</v>
+      </c>
+      <c r="N30" s="27">
+        <v>17998099</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="B31" s="27"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27">
+        <v>1017606.69</v>
+      </c>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="27">
+        <v>5862363.6399999997</v>
+      </c>
+      <c r="J31" s="27"/>
+      <c r="K31" s="27"/>
+      <c r="L31" s="27"/>
+      <c r="M31" s="27">
+        <v>687997</v>
+      </c>
+      <c r="N31" s="27">
+        <v>4815979</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="B32" s="27"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27">
+        <v>30565887.629999999</v>
+      </c>
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="27"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="27"/>
+      <c r="K32" s="27"/>
+      <c r="L32" s="27"/>
+      <c r="M32" s="27">
+        <v>3820736</v>
+      </c>
+      <c r="N32" s="27">
+        <v>26745152</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="B33" s="27"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="27">
+        <v>5108675.07</v>
+      </c>
+      <c r="G33" s="27"/>
+      <c r="H33" s="27"/>
+      <c r="I33" s="27"/>
+      <c r="J33" s="27"/>
+      <c r="K33" s="27"/>
+      <c r="L33" s="27"/>
+      <c r="M33" s="27">
+        <v>638585</v>
+      </c>
+      <c r="N33" s="27">
+        <v>4470090</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="B34" s="27"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="27">
+        <v>19919089.84</v>
+      </c>
+      <c r="E34" s="27"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="27"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="27"/>
+      <c r="K34" s="27"/>
+      <c r="L34" s="27"/>
+      <c r="M34" s="27">
+        <v>2489886</v>
+      </c>
+      <c r="N34" s="27">
+        <v>17429204</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35" s="27" t="s">
+        <v>122</v>
+      </c>
+      <c r="B35" s="27"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="27">
+        <v>10607590.279999999</v>
+      </c>
+      <c r="E35" s="27"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="27"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="27"/>
+      <c r="K35" s="27"/>
+      <c r="L35" s="27"/>
+      <c r="M35" s="27">
+        <v>1325949</v>
+      </c>
+      <c r="N35" s="27">
+        <v>9281641</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="B36" s="27"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="27"/>
+      <c r="G36" s="27"/>
+      <c r="H36" s="27"/>
+      <c r="I36" s="27">
+        <v>21924820</v>
+      </c>
+      <c r="J36" s="27"/>
+      <c r="K36" s="27"/>
+      <c r="L36" s="27"/>
+      <c r="M36" s="27">
+        <v>2740603</v>
+      </c>
+      <c r="N36" s="27">
+        <v>19184217</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A37" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="B37" s="27"/>
+      <c r="C37" s="27"/>
+      <c r="D37" s="27"/>
+      <c r="E37" s="27"/>
+      <c r="F37" s="27"/>
+      <c r="G37" s="27"/>
+      <c r="H37" s="27"/>
+      <c r="I37" s="27"/>
+      <c r="J37" s="27">
+        <v>3582351.46</v>
+      </c>
+      <c r="K37" s="27"/>
+      <c r="L37" s="27"/>
+      <c r="M37" s="27">
+        <v>447794</v>
+      </c>
+      <c r="N37" s="27">
+        <v>3134557</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="B38" s="27"/>
+      <c r="C38" s="27"/>
+      <c r="D38" s="27"/>
+      <c r="E38" s="27"/>
+      <c r="F38" s="27"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="27"/>
+      <c r="I38" s="27">
+        <v>3940433.72</v>
+      </c>
+      <c r="J38" s="27">
+        <v>3457479.39</v>
+      </c>
+      <c r="K38" s="27"/>
+      <c r="L38" s="27"/>
+      <c r="M38" s="27">
+        <v>924739</v>
+      </c>
+      <c r="N38" s="27">
+        <v>6473174</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A39" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="B39" s="27"/>
+      <c r="C39" s="27"/>
+      <c r="D39" s="27"/>
+      <c r="E39" s="27">
+        <v>3785875.06</v>
+      </c>
+      <c r="F39" s="27"/>
+      <c r="G39" s="27"/>
+      <c r="H39" s="27"/>
+      <c r="I39" s="27"/>
+      <c r="J39" s="27"/>
+      <c r="K39" s="27"/>
+      <c r="L39" s="27"/>
+      <c r="M39" s="27">
+        <v>473234</v>
+      </c>
+      <c r="N39" s="27">
+        <v>3312641</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A40" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="B40" s="27"/>
+      <c r="C40" s="27"/>
+      <c r="D40" s="27"/>
+      <c r="E40" s="27"/>
+      <c r="F40" s="27"/>
+      <c r="G40" s="27"/>
+      <c r="H40" s="27"/>
+      <c r="I40" s="27">
+        <v>10106760.09</v>
+      </c>
+      <c r="J40" s="27"/>
+      <c r="K40" s="27"/>
+      <c r="L40" s="27"/>
+      <c r="M40" s="27">
+        <v>1263345</v>
+      </c>
+      <c r="N40" s="27">
+        <v>8843415</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A41" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="B41" s="27"/>
+      <c r="C41" s="27"/>
+      <c r="D41" s="27"/>
+      <c r="E41" s="27"/>
+      <c r="F41" s="27">
+        <v>9265078.2200000007</v>
+      </c>
+      <c r="G41" s="27"/>
+      <c r="H41" s="27"/>
+      <c r="I41" s="27"/>
+      <c r="J41" s="27"/>
+      <c r="K41" s="27"/>
+      <c r="L41" s="27"/>
+      <c r="M41" s="27">
+        <v>1158135</v>
+      </c>
+      <c r="N41" s="27">
+        <v>8106943</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A42" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="B42" s="27"/>
+      <c r="C42" s="27"/>
+      <c r="D42" s="27"/>
+      <c r="E42" s="27"/>
+      <c r="F42" s="27"/>
+      <c r="G42" s="27">
+        <v>1181164.51</v>
+      </c>
+      <c r="H42" s="27"/>
+      <c r="I42" s="27"/>
+      <c r="J42" s="27"/>
+      <c r="K42" s="27"/>
+      <c r="L42" s="27"/>
+      <c r="M42" s="27">
+        <v>1476471</v>
+      </c>
+      <c r="N42" s="27">
+        <v>10335294</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A43" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="B43" s="27"/>
+      <c r="C43" s="27"/>
+      <c r="D43" s="27"/>
+      <c r="E43" s="27"/>
+      <c r="F43" s="27"/>
+      <c r="G43" s="27"/>
+      <c r="H43" s="27"/>
+      <c r="I43" s="27"/>
+      <c r="J43" s="27">
+        <v>3421028.06</v>
+      </c>
+      <c r="K43" s="27"/>
+      <c r="L43" s="27"/>
+      <c r="M43" s="27">
+        <v>427629</v>
+      </c>
+      <c r="N43" s="27">
+        <v>2993399</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A44" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="B44" s="27"/>
+      <c r="C44" s="27"/>
+      <c r="D44" s="27">
+        <v>10902577.68</v>
+      </c>
+      <c r="E44" s="27"/>
+      <c r="F44" s="27"/>
+      <c r="G44" s="27"/>
+      <c r="H44" s="27"/>
+      <c r="I44" s="27">
+        <v>3276311.75</v>
+      </c>
+      <c r="J44" s="27"/>
+      <c r="K44" s="27"/>
+      <c r="L44" s="27"/>
+      <c r="M44" s="27">
+        <v>1772361</v>
+      </c>
+      <c r="N44" s="27">
+        <v>12406528</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A45" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="B45" s="27"/>
+      <c r="C45" s="27">
+        <v>247168.51</v>
+      </c>
+      <c r="D45" s="27">
+        <v>1774035.071</v>
+      </c>
+      <c r="E45" s="27">
+        <v>356391.45</v>
+      </c>
+      <c r="F45" s="27"/>
+      <c r="G45" s="27"/>
+      <c r="H45" s="27"/>
+      <c r="I45" s="27"/>
+      <c r="J45" s="27"/>
+      <c r="K45" s="27"/>
+      <c r="L45" s="27"/>
+      <c r="M45" s="27">
+        <v>297199</v>
+      </c>
+      <c r="N45" s="27">
+        <v>2080396</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A46" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="B46" s="27"/>
+      <c r="C46" s="27"/>
+      <c r="D46" s="27"/>
+      <c r="E46" s="27"/>
+      <c r="F46" s="27">
+        <v>18663800.670000002</v>
+      </c>
+      <c r="G46" s="27">
+        <v>4842188.09</v>
+      </c>
+      <c r="H46" s="27"/>
+      <c r="I46" s="27"/>
+      <c r="J46" s="27"/>
+      <c r="K46" s="27"/>
+      <c r="L46" s="27"/>
+      <c r="M46" s="27">
+        <v>2938249</v>
+      </c>
+      <c r="N46" s="27">
+        <v>20567740</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A47" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="B47" s="27"/>
+      <c r="C47" s="27"/>
+      <c r="D47" s="27"/>
+      <c r="E47" s="27">
+        <v>9480354.0999999996</v>
+      </c>
+      <c r="F47" s="27"/>
+      <c r="G47" s="27"/>
+      <c r="H47" s="27"/>
+      <c r="I47" s="27">
+        <v>477480.29</v>
+      </c>
+      <c r="J47" s="27"/>
+      <c r="K47" s="27"/>
+      <c r="L47" s="27"/>
+      <c r="M47" s="27">
+        <v>1244729</v>
+      </c>
+      <c r="N47" s="27">
+        <v>8713105</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A48" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="B48" s="27"/>
+      <c r="C48" s="27"/>
+      <c r="D48" s="27"/>
+      <c r="E48" s="27"/>
+      <c r="F48" s="27"/>
+      <c r="G48" s="27"/>
+      <c r="H48" s="27"/>
+      <c r="I48" s="27">
+        <v>7682708.75</v>
+      </c>
+      <c r="J48" s="27"/>
+      <c r="K48" s="27"/>
+      <c r="L48" s="27"/>
+      <c r="M48" s="27">
+        <v>960339</v>
+      </c>
+      <c r="N48" s="27">
+        <v>6722370</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A49" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="B49" s="27"/>
+      <c r="C49" s="27"/>
+      <c r="D49" s="27"/>
+      <c r="E49" s="27">
+        <v>16117256.970000001</v>
+      </c>
+      <c r="F49" s="27"/>
+      <c r="G49" s="27"/>
+      <c r="H49" s="27"/>
+      <c r="I49" s="27"/>
+      <c r="J49" s="27"/>
+      <c r="K49" s="27"/>
+      <c r="L49" s="27"/>
+      <c r="M49" s="27">
+        <v>2014657</v>
+      </c>
+      <c r="N49" s="27">
+        <v>14102600</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A50" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="B50" s="27"/>
+      <c r="C50" s="27"/>
+      <c r="D50" s="27"/>
+      <c r="E50" s="27"/>
+      <c r="F50" s="27"/>
+      <c r="G50" s="27"/>
+      <c r="H50" s="27"/>
+      <c r="I50" s="27">
+        <v>7683514.4699999997</v>
+      </c>
+      <c r="J50" s="27"/>
+      <c r="K50" s="27"/>
+      <c r="L50" s="27"/>
+      <c r="M50" s="27">
+        <v>960439</v>
+      </c>
+      <c r="N50" s="27">
+        <v>6723075</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A51" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="B51" s="27"/>
+      <c r="C51" s="27"/>
+      <c r="D51" s="27"/>
+      <c r="E51" s="27"/>
+      <c r="F51" s="27"/>
+      <c r="G51" s="27"/>
+      <c r="H51" s="27"/>
+      <c r="I51" s="27">
+        <v>14652108</v>
+      </c>
+      <c r="J51" s="27"/>
+      <c r="K51" s="27"/>
+      <c r="L51" s="27"/>
+      <c r="M51" s="27">
+        <v>1831514</v>
+      </c>
+      <c r="N51" s="27">
+        <v>12820594</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A52" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="B52" s="27"/>
+      <c r="C52" s="27"/>
+      <c r="D52" s="27">
+        <v>10164437.199999999</v>
+      </c>
+      <c r="E52" s="27"/>
+      <c r="F52" s="27"/>
+      <c r="G52" s="27"/>
+      <c r="H52" s="27"/>
+      <c r="I52" s="27"/>
+      <c r="J52" s="27"/>
+      <c r="K52" s="27"/>
+      <c r="L52" s="27"/>
+      <c r="M52" s="27">
+        <v>1270555</v>
+      </c>
+      <c r="N52" s="27">
+        <v>8893882</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A53" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="B53" s="27"/>
+      <c r="C53" s="27"/>
+      <c r="D53" s="27">
+        <v>9258302.8699999992</v>
+      </c>
+      <c r="E53" s="27"/>
+      <c r="F53" s="27"/>
+      <c r="G53" s="27"/>
+      <c r="H53" s="27"/>
+      <c r="I53" s="27">
+        <v>544818.16</v>
+      </c>
+      <c r="J53" s="27">
+        <v>203113.3</v>
+      </c>
+      <c r="K53" s="27"/>
+      <c r="L53" s="27"/>
+      <c r="M53" s="27">
+        <v>1250779</v>
+      </c>
+      <c r="N53" s="27">
+        <v>8755455</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A54" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="B54" s="27"/>
+      <c r="C54" s="27"/>
+      <c r="D54" s="27"/>
+      <c r="E54" s="27"/>
+      <c r="F54" s="27"/>
+      <c r="G54" s="27"/>
+      <c r="H54" s="27"/>
+      <c r="I54" s="27">
+        <v>2918327.09</v>
+      </c>
+      <c r="J54" s="27"/>
+      <c r="K54" s="27"/>
+      <c r="L54" s="27"/>
+      <c r="M54" s="27">
+        <v>364791</v>
+      </c>
+      <c r="N54" s="27">
+        <v>2553536</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Civilworks cost/IPC Distribution.xlsx
+++ b/Civilworks cost/IPC Distribution.xlsx
@@ -13,6 +13,7 @@
     <sheet name="Sheet5" sheetId="5" r:id="rId4"/>
     <sheet name="IPC_Dist" sheetId="6" r:id="rId5"/>
     <sheet name="Sheet3" sheetId="7" r:id="rId6"/>
+    <sheet name="Sheet2" sheetId="8" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">GoB!$A$1:$T$16</definedName>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="172">
   <si>
     <t>O&amp;M During Construction</t>
   </si>
@@ -454,12 +455,105 @@
   </si>
   <si>
     <t>352/Hobi-4  5th RA Bill</t>
+  </si>
+  <si>
+    <t>353/Hobi-5 4th RA Bill</t>
+  </si>
+  <si>
+    <t>346/Kish-14  9th  RA Bill</t>
+  </si>
+  <si>
+    <t>345/Kish-12  8th  RA Bill</t>
+  </si>
+  <si>
+    <t>356/Kish-26  9th  RA Final Bill</t>
+  </si>
+  <si>
+    <t>355/Hobi-6 8th RA Bill</t>
+  </si>
+  <si>
+    <t>344/Hobi-1  6th RA Bill</t>
+  </si>
+  <si>
+    <t>354/Hobi-2  5th RA Bill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">370/Netr-04  5th RA Bill </t>
+  </si>
+  <si>
+    <t xml:space="preserve">378/Netr-05  3rd RA Bill </t>
+  </si>
+  <si>
+    <t xml:space="preserve">369/Netr-08  2nd RA Bill </t>
+  </si>
+  <si>
+    <t>371/Kish-28  2nd  RA Bill</t>
+  </si>
+  <si>
+    <t>361/Kish-20  5th  RA Bill</t>
+  </si>
+  <si>
+    <t>362/Kish-17  12th  RA Bill</t>
+  </si>
+  <si>
+    <t>360/Kish-16  11th  RA Bill</t>
+  </si>
+  <si>
+    <t>357/Hobi-7  5th RA Bill</t>
+  </si>
+  <si>
+    <t>375/Kish-04   6th/final RA Bill</t>
+  </si>
+  <si>
+    <t>377/Kish-13  8th  RA Bill</t>
+  </si>
+  <si>
+    <t>374/Kish-09  7th  RA Bill</t>
+  </si>
+  <si>
+    <t>359/Kish-07  9th  RA Bill</t>
+  </si>
+  <si>
+    <t>373/Kish-22  3rd  RA Bill</t>
+  </si>
+  <si>
+    <t>372/Kish-25  7th  RA Bill</t>
+  </si>
+  <si>
+    <t>363/Kish-24  8th/Final  RA Bill</t>
+  </si>
+  <si>
+    <t>358/Kish-06  13th/Final  RA Bill</t>
+  </si>
+  <si>
+    <t>364/Kish-02 7th  RA Bill</t>
+  </si>
+  <si>
+    <t>376/Kish-23 5th  RA Bill</t>
+  </si>
+  <si>
+    <t>365/Kish-19  6th  RA Bill</t>
+  </si>
+  <si>
+    <t>366/Netr-01  6th  RA Bill</t>
+  </si>
+  <si>
+    <t>367/Netr-02  5th  RA Bill</t>
+  </si>
+  <si>
+    <t>368/Netr-03  6th  RA Bill</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -476,7 +570,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -486,6 +580,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -528,7 +640,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -589,20 +701,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="4" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1084,7 +1219,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q13"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="M4" zoomScale="55" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="I4" zoomScale="55" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
@@ -2810,1389 +2945,2346 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N54"/>
+  <dimension ref="A1:R83"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.5703125" style="28" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.5703125" style="1" customWidth="1"/>
+    <col min="2" max="3" width="10.28515625" customWidth="1"/>
     <col min="4" max="4" width="15.42578125" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" customWidth="1"/>
-    <col min="8" max="8" width="16" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" customWidth="1"/>
-    <col min="10" max="10" width="15.85546875" customWidth="1"/>
-    <col min="11" max="12" width="13.42578125" customWidth="1"/>
-    <col min="13" max="13" width="14" customWidth="1"/>
-    <col min="14" max="14" width="16.5703125" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="6" max="8" width="10.28515625" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" customWidth="1"/>
+    <col min="10" max="12" width="10.28515625" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" customWidth="1"/>
+    <col min="14" max="15" width="16.42578125" customWidth="1"/>
+    <col min="16" max="16" width="15" customWidth="1"/>
+    <col min="18" max="18" width="24.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:15" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="H1" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="I1" s="24" t="s">
+      <c r="I1" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="J1" s="24" t="s">
+      <c r="J1" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="K1" s="24" t="s">
+      <c r="K1" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="L1" s="24" t="s">
+      <c r="L1" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="22" t="s">
+      <c r="M1" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="N1" s="22" t="s">
+      <c r="N1" s="29" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+      <c r="O1" s="22"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27">
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30">
         <v>10121557.060000001</v>
       </c>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="26">
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="31">
         <v>9416806.852</v>
       </c>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="26">
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="31">
         <v>2442296</v>
       </c>
-      <c r="N2" s="26">
+      <c r="N2" s="31">
         <v>17096068</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
+      <c r="O2" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="26">
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="31">
         <v>4153902.9180000001</v>
       </c>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="26">
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="31">
         <v>519238</v>
       </c>
-      <c r="N3" s="26">
+      <c r="N3" s="31">
         <v>3634665</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="27" t="s">
+      <c r="O3" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="26">
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="31">
         <v>31435052</v>
       </c>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="27">
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30">
         <v>3929382</v>
       </c>
-      <c r="N4" s="27">
+      <c r="N4" s="30">
         <v>27505670</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="27" t="s">
+      <c r="O4" s="25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="B5" s="27"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="27">
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30">
         <v>7440653</v>
       </c>
-      <c r="L5" s="27"/>
-      <c r="M5" s="27">
+      <c r="L5" s="30"/>
+      <c r="M5" s="30">
         <v>930087</v>
       </c>
-      <c r="N5" s="27">
+      <c r="N5" s="30">
         <v>6510571</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="27" t="s">
+      <c r="O5" s="25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="30" t="s">
         <v>91</v>
       </c>
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27">
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30">
         <v>8773225</v>
       </c>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="27"/>
-      <c r="M6" s="27">
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30">
         <v>1096659</v>
       </c>
-      <c r="N6" s="27">
+      <c r="N6" s="30">
         <v>7676616</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="27" t="s">
+      <c r="O6" s="25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27">
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30">
         <v>967157.26999999955</v>
       </c>
-      <c r="E7" s="27">
+      <c r="E7" s="30">
         <v>7576934.0999999996</v>
       </c>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="27"/>
-      <c r="M7" s="27">
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="30">
         <v>1068011</v>
       </c>
-      <c r="N7" s="27">
+      <c r="N7" s="30">
         <v>7476080</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="27" t="s">
+      <c r="O7" s="25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27">
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30">
         <v>15300148.25</v>
       </c>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27">
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30">
         <v>5002242.9400000004</v>
       </c>
-      <c r="J8" s="27"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="27"/>
-      <c r="M8" s="27">
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="30">
         <v>2537799</v>
       </c>
-      <c r="N8" s="27">
+      <c r="N8" s="30">
         <v>17764592</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="27" t="s">
+      <c r="O8" s="25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27">
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30">
         <v>6272429.75</v>
       </c>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="27"/>
-      <c r="M9" s="27">
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30">
         <v>784054</v>
       </c>
-      <c r="N9" s="27">
+      <c r="N9" s="30">
         <v>5488375</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="27" t="s">
+      <c r="O9" s="25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="30" t="s">
         <v>108</v>
       </c>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27">
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30">
         <v>2376584.4930000007</v>
       </c>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="27">
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30">
         <v>5851260.3669999996</v>
       </c>
-      <c r="J10" s="27"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="27"/>
-      <c r="M10" s="27">
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="30">
         <v>1028481</v>
       </c>
-      <c r="N10" s="27">
+      <c r="N10" s="30">
         <v>7199364</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="27" t="s">
+      <c r="O10" s="25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="B11" s="27"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27">
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30">
         <v>3951018.61</v>
       </c>
-      <c r="E11" s="27">
+      <c r="E11" s="30">
         <v>1303448.1200000001</v>
       </c>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="27">
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30">
         <v>3401350.1</v>
       </c>
-      <c r="J11" s="27"/>
-      <c r="K11" s="27"/>
-      <c r="L11" s="27"/>
-      <c r="M11" s="27">
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="30">
         <v>1081977</v>
       </c>
-      <c r="N11" s="27">
+      <c r="N11" s="30">
         <v>7573840</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="27" t="s">
+      <c r="O11" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="B12" s="27"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27">
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30">
         <v>5018209.87</v>
       </c>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="27"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="27"/>
-      <c r="L12" s="27"/>
-      <c r="M12" s="27">
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="30">
         <v>627276</v>
       </c>
-      <c r="N12" s="27">
+      <c r="N12" s="30">
         <v>4390934</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="27" t="s">
+      <c r="O12" s="25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27">
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30">
         <v>28440949.879999999</v>
       </c>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="27"/>
-      <c r="M13" s="27">
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="30">
         <v>2930119</v>
       </c>
-      <c r="N13" s="27">
+      <c r="N13" s="30">
         <v>20510831</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="27" t="s">
+      <c r="O13" s="25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="27">
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30">
         <v>11803695.960000001</v>
       </c>
-      <c r="J14" s="27"/>
-      <c r="K14" s="27"/>
-      <c r="L14" s="27"/>
-      <c r="M14" s="27">
+      <c r="J14" s="30"/>
+      <c r="K14" s="30"/>
+      <c r="L14" s="30"/>
+      <c r="M14" s="30">
         <v>1475462</v>
       </c>
-      <c r="N14" s="27">
+      <c r="N14" s="30">
         <v>10328234</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="27" t="s">
+      <c r="O14" s="25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="B15" s="27"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27">
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30">
         <v>3678989.3829999999</v>
       </c>
-      <c r="E15" s="27">
+      <c r="E15" s="30">
         <v>1997998.9920000001</v>
       </c>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="27">
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30">
         <v>24430.226999999999</v>
       </c>
-      <c r="K15" s="27"/>
-      <c r="L15" s="27"/>
-      <c r="M15" s="27">
+      <c r="K15" s="30"/>
+      <c r="L15" s="30"/>
+      <c r="M15" s="30">
         <v>712677</v>
       </c>
-      <c r="N15" s="27">
+      <c r="N15" s="30">
         <v>4988742</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="27" t="s">
+      <c r="O15" s="25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="30" t="s">
         <v>101</v>
       </c>
-      <c r="B16" s="27"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27">
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30">
         <v>764582</v>
       </c>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="27">
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="30">
         <v>7622328.6999999993</v>
       </c>
-      <c r="J16" s="27"/>
-      <c r="K16" s="27"/>
-      <c r="L16" s="27"/>
-      <c r="M16" s="27">
+      <c r="J16" s="30"/>
+      <c r="K16" s="30"/>
+      <c r="L16" s="30"/>
+      <c r="M16" s="30">
         <v>1048364</v>
       </c>
-      <c r="N16" s="27">
+      <c r="N16" s="30">
         <v>7338547</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="27" t="s">
+      <c r="O16" s="25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" s="30" t="s">
         <v>102</v>
       </c>
-      <c r="B17" s="27">
+      <c r="B17" s="30">
         <v>4444197.7699999996</v>
       </c>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27">
+      <c r="C17" s="30"/>
+      <c r="D17" s="30">
         <v>181114.16399999999</v>
       </c>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="27"/>
-      <c r="K17" s="27"/>
-      <c r="L17" s="27"/>
-      <c r="M17" s="27">
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="30"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="30">
         <v>781917</v>
       </c>
-      <c r="N17" s="27">
+      <c r="N17" s="30">
         <v>5473421</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="27" t="s">
+      <c r="O17" s="25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="B18" s="27"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27">
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30">
         <v>28440949.879999999</v>
       </c>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="27"/>
-      <c r="K18" s="27"/>
-      <c r="L18" s="27"/>
-      <c r="M18" s="27">
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="30"/>
+      <c r="L18" s="30"/>
+      <c r="M18" s="30">
         <v>625000</v>
       </c>
-      <c r="N18" s="27">
+      <c r="N18" s="30">
         <v>4375000</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="27" t="s">
+      <c r="O18" s="25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="B19" s="27"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27">
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30">
         <v>31061589.32</v>
       </c>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="27"/>
-      <c r="K19" s="27"/>
-      <c r="L19" s="27"/>
-      <c r="M19" s="27">
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="30"/>
+      <c r="L19" s="30"/>
+      <c r="M19" s="30">
         <v>3882699</v>
       </c>
-      <c r="N19" s="27">
+      <c r="N19" s="30">
         <v>27178890</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="27" t="s">
+      <c r="O19" s="25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="B20" s="27"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27">
+      <c r="B20" s="30"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30">
         <v>18143506.600000001</v>
       </c>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="27">
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="30">
         <v>644634.19999999995</v>
       </c>
-      <c r="J20" s="27"/>
-      <c r="K20" s="27"/>
-      <c r="L20" s="27"/>
-      <c r="M20" s="27">
+      <c r="J20" s="30"/>
+      <c r="K20" s="30"/>
+      <c r="L20" s="30"/>
+      <c r="M20" s="30">
         <v>2348518</v>
       </c>
-      <c r="N20" s="27">
+      <c r="N20" s="30">
         <v>16439623</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="27" t="s">
+      <c r="O20" s="25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21" s="30" t="s">
         <v>106</v>
       </c>
-      <c r="B21" s="27"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27">
+      <c r="B21" s="30"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30">
         <v>35010947</v>
       </c>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="27"/>
-      <c r="J21" s="27"/>
-      <c r="K21" s="27"/>
-      <c r="L21" s="27"/>
-      <c r="M21" s="27">
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="30"/>
+      <c r="L21" s="30"/>
+      <c r="M21" s="30">
         <v>4376368</v>
       </c>
-      <c r="N21" s="27">
+      <c r="N21" s="30">
         <v>30634579</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="27" t="s">
+      <c r="O21" s="25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A22" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="B22" s="27"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27">
+      <c r="B22" s="30"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30">
         <v>9000456.8900000006</v>
       </c>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="27"/>
-      <c r="K22" s="27"/>
-      <c r="L22" s="27"/>
-      <c r="M22" s="27">
+      <c r="F22" s="30"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="30"/>
+      <c r="J22" s="30"/>
+      <c r="K22" s="30"/>
+      <c r="L22" s="30"/>
+      <c r="M22" s="30">
         <v>1125057</v>
       </c>
-      <c r="N22" s="27">
+      <c r="N22" s="30">
         <v>7875399</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="27" t="s">
+      <c r="O22" s="25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="B23" s="27"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="27">
+      <c r="B23" s="30"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="30">
         <v>6195501.8360000001</v>
       </c>
-      <c r="J23" s="27"/>
-      <c r="K23" s="27"/>
-      <c r="L23" s="27"/>
-      <c r="M23" s="27">
+      <c r="J23" s="30"/>
+      <c r="K23" s="30"/>
+      <c r="L23" s="30"/>
+      <c r="M23" s="30">
         <v>774438</v>
       </c>
-      <c r="N23" s="27">
+      <c r="N23" s="30">
         <v>5421064</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="27" t="s">
+      <c r="O23" s="25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A24" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="B24" s="27">
+      <c r="B24" s="30">
         <v>2677161.36</v>
       </c>
-      <c r="C24" s="27"/>
-      <c r="D24" s="27">
+      <c r="C24" s="30"/>
+      <c r="D24" s="30">
         <v>6396151.4699999997</v>
       </c>
-      <c r="E24" s="27"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="27"/>
-      <c r="I24" s="27">
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="30">
         <v>686638.29</v>
       </c>
-      <c r="J24" s="27"/>
-      <c r="K24" s="27"/>
-      <c r="L24" s="27"/>
-      <c r="M24" s="27">
+      <c r="J24" s="30"/>
+      <c r="K24" s="30"/>
+      <c r="L24" s="30"/>
+      <c r="M24" s="30">
         <v>1181215</v>
       </c>
-      <c r="N24" s="27">
+      <c r="N24" s="30">
         <v>8268502</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="27" t="s">
+      <c r="O24" s="25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A25" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="B25" s="27"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="27">
+      <c r="B25" s="30"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30">
         <v>333327.88400000002</v>
       </c>
-      <c r="E25" s="27"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="27"/>
-      <c r="I25" s="27">
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="30">
         <v>4060359.2289999998</v>
       </c>
-      <c r="J25" s="27"/>
-      <c r="K25" s="27"/>
-      <c r="L25" s="27"/>
-      <c r="M25" s="27">
+      <c r="J25" s="30"/>
+      <c r="K25" s="30"/>
+      <c r="L25" s="30"/>
+      <c r="M25" s="30">
         <v>549211</v>
       </c>
-      <c r="N25" s="27">
+      <c r="N25" s="30">
         <v>3844476</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="27" t="s">
+      <c r="O25" s="25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A26" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="B26" s="27"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="27"/>
-      <c r="I26" s="27">
+      <c r="B26" s="30"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="30">
         <v>2275479</v>
       </c>
-      <c r="J26" s="27"/>
-      <c r="K26" s="27"/>
-      <c r="L26" s="27"/>
-      <c r="M26" s="27">
+      <c r="J26" s="30"/>
+      <c r="K26" s="30"/>
+      <c r="L26" s="30"/>
+      <c r="M26" s="30">
         <v>284435</v>
       </c>
-      <c r="N26" s="27">
+      <c r="N26" s="30">
         <v>1991044</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="27" t="s">
+      <c r="O26" s="25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A27" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="B27" s="27"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27">
+      <c r="B27" s="30"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30">
         <v>8581506.1300000008</v>
       </c>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="27"/>
-      <c r="I27" s="27"/>
-      <c r="J27" s="27"/>
-      <c r="K27" s="27"/>
-      <c r="L27" s="27"/>
-      <c r="M27" s="27">
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="30"/>
+      <c r="J27" s="30"/>
+      <c r="K27" s="30"/>
+      <c r="L27" s="30"/>
+      <c r="M27" s="30">
         <v>1072688</v>
       </c>
-      <c r="N27" s="27">
+      <c r="N27" s="30">
         <v>7508818.1200000001</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="27" t="s">
+      <c r="O27" s="25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A28" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="B28" s="27"/>
-      <c r="C28" s="27"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="27"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="27"/>
-      <c r="I28" s="27">
+      <c r="B28" s="30"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="30">
         <v>19139634.739999998</v>
       </c>
-      <c r="J28" s="27"/>
-      <c r="K28" s="27"/>
-      <c r="L28" s="27"/>
-      <c r="M28" s="27">
+      <c r="J28" s="30"/>
+      <c r="K28" s="30"/>
+      <c r="L28" s="30"/>
+      <c r="M28" s="30">
         <v>2332454</v>
       </c>
-      <c r="N28" s="27">
+      <c r="N28" s="30">
         <v>16747181</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="27" t="s">
+      <c r="O28" s="25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A29" s="30" t="s">
         <v>116</v>
       </c>
-      <c r="B29" s="27"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="27">
+      <c r="B29" s="30"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30">
         <v>52195699.359999999</v>
       </c>
-      <c r="E29" s="27"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="27"/>
-      <c r="I29" s="27"/>
-      <c r="J29" s="27"/>
-      <c r="K29" s="27"/>
-      <c r="L29" s="27"/>
-      <c r="M29" s="27">
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="30"/>
+      <c r="H29" s="30"/>
+      <c r="I29" s="30"/>
+      <c r="J29" s="30"/>
+      <c r="K29" s="30"/>
+      <c r="L29" s="30"/>
+      <c r="M29" s="30">
         <v>6524462</v>
       </c>
-      <c r="N29" s="27">
+      <c r="N29" s="30">
         <v>45671237</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="27" t="s">
+      <c r="O29" s="25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A30" s="30" t="s">
         <v>117</v>
       </c>
-      <c r="B30" s="27"/>
-      <c r="C30" s="27"/>
-      <c r="D30" s="27">
+      <c r="B30" s="30"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="30">
         <v>14453370.689999998</v>
       </c>
-      <c r="E30" s="27"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="27"/>
-      <c r="I30" s="27">
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="30">
         <v>6619216.5499999998</v>
       </c>
-      <c r="J30" s="27"/>
-      <c r="K30" s="27"/>
-      <c r="L30" s="27"/>
-      <c r="M30" s="27">
+      <c r="J30" s="30"/>
+      <c r="K30" s="30"/>
+      <c r="L30" s="30"/>
+      <c r="M30" s="30">
         <v>2571157</v>
       </c>
-      <c r="N30" s="27">
+      <c r="N30" s="30">
         <v>17998099</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="27" t="s">
+      <c r="O30" s="25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A31" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="B31" s="27"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27">
+      <c r="B31" s="33"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="33"/>
+      <c r="E31" s="33">
         <v>1017606.69</v>
       </c>
-      <c r="F31" s="27"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="27"/>
-      <c r="I31" s="27">
+      <c r="F31" s="33"/>
+      <c r="G31" s="33"/>
+      <c r="H31" s="33"/>
+      <c r="I31" s="33">
         <v>5862363.6399999997</v>
       </c>
-      <c r="J31" s="27"/>
-      <c r="K31" s="27"/>
-      <c r="L31" s="27"/>
-      <c r="M31" s="27">
+      <c r="J31" s="33"/>
+      <c r="K31" s="33"/>
+      <c r="L31" s="33"/>
+      <c r="M31" s="33">
         <v>687997</v>
       </c>
-      <c r="N31" s="27">
-        <v>4815979</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="27" t="s">
+      <c r="N31" s="33">
+        <v>6019973.75</v>
+      </c>
+      <c r="O31" s="25">
+        <v>29</v>
+      </c>
+      <c r="R31" s="1"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A32" s="30" t="s">
         <v>119</v>
       </c>
-      <c r="B32" s="27"/>
-      <c r="C32" s="27"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="27">
+      <c r="B32" s="30"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="30">
         <v>30565887.629999999</v>
       </c>
-      <c r="F32" s="27"/>
-      <c r="G32" s="27"/>
-      <c r="H32" s="27"/>
-      <c r="I32" s="27"/>
-      <c r="J32" s="27"/>
-      <c r="K32" s="27"/>
-      <c r="L32" s="27"/>
-      <c r="M32" s="27">
+      <c r="F32" s="30"/>
+      <c r="G32" s="30"/>
+      <c r="H32" s="30"/>
+      <c r="I32" s="30"/>
+      <c r="J32" s="30"/>
+      <c r="K32" s="30"/>
+      <c r="L32" s="30"/>
+      <c r="M32" s="30">
         <v>3820736</v>
       </c>
-      <c r="N32" s="27">
+      <c r="N32" s="30">
         <v>26745152</v>
       </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="27" t="s">
+      <c r="O32" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33" s="30" t="s">
         <v>120</v>
       </c>
-      <c r="B33" s="27"/>
-      <c r="C33" s="27"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="27">
+      <c r="B33" s="30"/>
+      <c r="C33" s="30"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="30">
         <v>5108675.07</v>
       </c>
-      <c r="G33" s="27"/>
-      <c r="H33" s="27"/>
-      <c r="I33" s="27"/>
-      <c r="J33" s="27"/>
-      <c r="K33" s="27"/>
-      <c r="L33" s="27"/>
-      <c r="M33" s="27">
+      <c r="G33" s="30"/>
+      <c r="H33" s="30"/>
+      <c r="I33" s="30"/>
+      <c r="J33" s="30"/>
+      <c r="K33" s="30"/>
+      <c r="L33" s="30"/>
+      <c r="M33" s="30">
         <v>638585</v>
       </c>
-      <c r="N33" s="27">
+      <c r="N33" s="30">
         <v>4470090</v>
       </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="27" t="s">
+      <c r="O33" s="25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A34" s="30" t="s">
         <v>121</v>
       </c>
-      <c r="B34" s="27"/>
-      <c r="C34" s="27"/>
-      <c r="D34" s="27">
+      <c r="B34" s="30"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="30">
         <v>19919089.84</v>
       </c>
-      <c r="E34" s="27"/>
-      <c r="F34" s="27"/>
-      <c r="G34" s="27"/>
-      <c r="H34" s="27"/>
-      <c r="I34" s="27"/>
-      <c r="J34" s="27"/>
-      <c r="K34" s="27"/>
-      <c r="L34" s="27"/>
-      <c r="M34" s="27">
+      <c r="E34" s="30"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="30"/>
+      <c r="H34" s="30"/>
+      <c r="I34" s="30"/>
+      <c r="J34" s="30"/>
+      <c r="K34" s="30"/>
+      <c r="L34" s="30"/>
+      <c r="M34" s="30">
         <v>2489886</v>
       </c>
-      <c r="N34" s="27">
+      <c r="N34" s="30">
         <v>17429204</v>
       </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="27" t="s">
+      <c r="O34" s="25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35" s="30" t="s">
         <v>122</v>
       </c>
-      <c r="B35" s="27"/>
-      <c r="C35" s="27"/>
-      <c r="D35" s="27">
+      <c r="B35" s="30"/>
+      <c r="C35" s="30"/>
+      <c r="D35" s="30">
         <v>10607590.279999999</v>
       </c>
-      <c r="E35" s="27"/>
-      <c r="F35" s="27"/>
-      <c r="G35" s="27"/>
-      <c r="H35" s="27"/>
-      <c r="I35" s="27"/>
-      <c r="J35" s="27"/>
-      <c r="K35" s="27"/>
-      <c r="L35" s="27"/>
-      <c r="M35" s="27">
+      <c r="E35" s="30"/>
+      <c r="F35" s="30"/>
+      <c r="G35" s="30"/>
+      <c r="H35" s="30"/>
+      <c r="I35" s="30"/>
+      <c r="J35" s="30"/>
+      <c r="K35" s="30"/>
+      <c r="L35" s="30"/>
+      <c r="M35" s="30">
         <v>1325949</v>
       </c>
-      <c r="N35" s="27">
+      <c r="N35" s="30">
         <v>9281641</v>
       </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="27" t="s">
+      <c r="O35" s="25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A36" s="30" t="s">
         <v>123</v>
       </c>
-      <c r="B36" s="27"/>
-      <c r="C36" s="27"/>
-      <c r="D36" s="27"/>
-      <c r="E36" s="27"/>
-      <c r="F36" s="27"/>
-      <c r="G36" s="27"/>
-      <c r="H36" s="27"/>
-      <c r="I36" s="27">
+      <c r="B36" s="30"/>
+      <c r="C36" s="30"/>
+      <c r="D36" s="30"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="30"/>
+      <c r="G36" s="30"/>
+      <c r="H36" s="30"/>
+      <c r="I36" s="30">
         <v>21924820</v>
       </c>
-      <c r="J36" s="27"/>
-      <c r="K36" s="27"/>
-      <c r="L36" s="27"/>
-      <c r="M36" s="27">
+      <c r="J36" s="30"/>
+      <c r="K36" s="30"/>
+      <c r="L36" s="30"/>
+      <c r="M36" s="30">
         <v>2740603</v>
       </c>
-      <c r="N36" s="27">
+      <c r="N36" s="30">
         <v>19184217</v>
       </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="27" t="s">
+      <c r="O36" s="25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A37" s="30" t="s">
         <v>124</v>
       </c>
-      <c r="B37" s="27"/>
-      <c r="C37" s="27"/>
-      <c r="D37" s="27"/>
-      <c r="E37" s="27"/>
-      <c r="F37" s="27"/>
-      <c r="G37" s="27"/>
-      <c r="H37" s="27"/>
-      <c r="I37" s="27"/>
-      <c r="J37" s="27">
+      <c r="B37" s="30"/>
+      <c r="C37" s="30"/>
+      <c r="D37" s="30"/>
+      <c r="E37" s="30"/>
+      <c r="F37" s="30"/>
+      <c r="G37" s="30"/>
+      <c r="H37" s="30"/>
+      <c r="I37" s="30"/>
+      <c r="J37" s="30">
         <v>3582351.46</v>
       </c>
-      <c r="K37" s="27"/>
-      <c r="L37" s="27"/>
-      <c r="M37" s="27">
+      <c r="K37" s="30"/>
+      <c r="L37" s="30"/>
+      <c r="M37" s="30">
         <v>447794</v>
       </c>
-      <c r="N37" s="27">
+      <c r="N37" s="30">
         <v>3134557</v>
       </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="27" t="s">
+      <c r="O37" s="25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A38" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="B38" s="27"/>
-      <c r="C38" s="27"/>
-      <c r="D38" s="27"/>
-      <c r="E38" s="27"/>
-      <c r="F38" s="27"/>
-      <c r="G38" s="27"/>
-      <c r="H38" s="27"/>
-      <c r="I38" s="27">
+      <c r="B38" s="30"/>
+      <c r="C38" s="30"/>
+      <c r="D38" s="30"/>
+      <c r="E38" s="30"/>
+      <c r="F38" s="30"/>
+      <c r="G38" s="30"/>
+      <c r="H38" s="30"/>
+      <c r="I38" s="30">
         <v>3940433.72</v>
       </c>
-      <c r="J38" s="27">
+      <c r="J38" s="30">
         <v>3457479.39</v>
       </c>
-      <c r="K38" s="27"/>
-      <c r="L38" s="27"/>
-      <c r="M38" s="27">
+      <c r="K38" s="30"/>
+      <c r="L38" s="30"/>
+      <c r="M38" s="30">
         <v>924739</v>
       </c>
-      <c r="N38" s="27">
+      <c r="N38" s="30">
         <v>6473174</v>
       </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="27" t="s">
+      <c r="O38" s="25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A39" s="30" t="s">
         <v>126</v>
       </c>
-      <c r="B39" s="27"/>
-      <c r="C39" s="27"/>
-      <c r="D39" s="27"/>
-      <c r="E39" s="27">
+      <c r="B39" s="30"/>
+      <c r="C39" s="30"/>
+      <c r="D39" s="30"/>
+      <c r="E39" s="30">
         <v>3785875.06</v>
       </c>
-      <c r="F39" s="27"/>
-      <c r="G39" s="27"/>
-      <c r="H39" s="27"/>
-      <c r="I39" s="27"/>
-      <c r="J39" s="27"/>
-      <c r="K39" s="27"/>
-      <c r="L39" s="27"/>
-      <c r="M39" s="27">
+      <c r="F39" s="30"/>
+      <c r="G39" s="30"/>
+      <c r="H39" s="30"/>
+      <c r="I39" s="30"/>
+      <c r="J39" s="30"/>
+      <c r="K39" s="30"/>
+      <c r="L39" s="30"/>
+      <c r="M39" s="30">
         <v>473234</v>
       </c>
-      <c r="N39" s="27">
+      <c r="N39" s="30">
         <v>3312641</v>
       </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" s="27" t="s">
+      <c r="O39" s="25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A40" s="30" t="s">
         <v>127</v>
       </c>
-      <c r="B40" s="27"/>
-      <c r="C40" s="27"/>
-      <c r="D40" s="27"/>
-      <c r="E40" s="27"/>
-      <c r="F40" s="27"/>
-      <c r="G40" s="27"/>
-      <c r="H40" s="27"/>
-      <c r="I40" s="27">
+      <c r="B40" s="30"/>
+      <c r="C40" s="30"/>
+      <c r="D40" s="30"/>
+      <c r="E40" s="30"/>
+      <c r="F40" s="30"/>
+      <c r="G40" s="30"/>
+      <c r="H40" s="30"/>
+      <c r="I40" s="30">
         <v>10106760.09</v>
       </c>
-      <c r="J40" s="27"/>
-      <c r="K40" s="27"/>
-      <c r="L40" s="27"/>
-      <c r="M40" s="27">
+      <c r="J40" s="30"/>
+      <c r="K40" s="30"/>
+      <c r="L40" s="30"/>
+      <c r="M40" s="30">
         <v>1263345</v>
       </c>
-      <c r="N40" s="27">
+      <c r="N40" s="30">
         <v>8843415</v>
       </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" s="27" t="s">
+      <c r="O40" s="25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A41" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="B41" s="27"/>
-      <c r="C41" s="27"/>
-      <c r="D41" s="27"/>
-      <c r="E41" s="27"/>
-      <c r="F41" s="27">
+      <c r="B41" s="30"/>
+      <c r="C41" s="30"/>
+      <c r="D41" s="30"/>
+      <c r="E41" s="30"/>
+      <c r="F41" s="30">
         <v>9265078.2200000007</v>
       </c>
-      <c r="G41" s="27"/>
-      <c r="H41" s="27"/>
-      <c r="I41" s="27"/>
-      <c r="J41" s="27"/>
-      <c r="K41" s="27"/>
-      <c r="L41" s="27"/>
-      <c r="M41" s="27">
+      <c r="G41" s="30"/>
+      <c r="H41" s="30"/>
+      <c r="I41" s="30"/>
+      <c r="J41" s="30"/>
+      <c r="K41" s="30"/>
+      <c r="L41" s="30"/>
+      <c r="M41" s="30">
         <v>1158135</v>
       </c>
-      <c r="N41" s="27">
+      <c r="N41" s="30">
         <v>8106943</v>
       </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" s="27" t="s">
+      <c r="O41" s="25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A42" s="30" t="s">
         <v>129</v>
       </c>
-      <c r="B42" s="27"/>
-      <c r="C42" s="27"/>
-      <c r="D42" s="27"/>
-      <c r="E42" s="27"/>
-      <c r="F42" s="27"/>
-      <c r="G42" s="27">
+      <c r="B42" s="30"/>
+      <c r="C42" s="30"/>
+      <c r="D42" s="30"/>
+      <c r="E42" s="30"/>
+      <c r="F42" s="30"/>
+      <c r="G42" s="30">
         <v>1181164.51</v>
       </c>
-      <c r="H42" s="27"/>
-      <c r="I42" s="27"/>
-      <c r="J42" s="27"/>
-      <c r="K42" s="27"/>
-      <c r="L42" s="27"/>
-      <c r="M42" s="27">
+      <c r="H42" s="30"/>
+      <c r="I42" s="30"/>
+      <c r="J42" s="30"/>
+      <c r="K42" s="30"/>
+      <c r="L42" s="30"/>
+      <c r="M42" s="30">
         <v>1476471</v>
       </c>
-      <c r="N42" s="27">
+      <c r="N42" s="30">
         <v>10335294</v>
       </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="27" t="s">
+      <c r="O42" s="25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A43" s="30" t="s">
         <v>130</v>
       </c>
-      <c r="B43" s="27"/>
-      <c r="C43" s="27"/>
-      <c r="D43" s="27"/>
-      <c r="E43" s="27"/>
-      <c r="F43" s="27"/>
-      <c r="G43" s="27"/>
-      <c r="H43" s="27"/>
-      <c r="I43" s="27"/>
-      <c r="J43" s="27">
+      <c r="B43" s="30"/>
+      <c r="C43" s="30"/>
+      <c r="D43" s="30"/>
+      <c r="E43" s="30"/>
+      <c r="F43" s="30"/>
+      <c r="G43" s="30"/>
+      <c r="H43" s="30"/>
+      <c r="I43" s="30"/>
+      <c r="J43" s="30">
         <v>3421028.06</v>
       </c>
-      <c r="K43" s="27"/>
-      <c r="L43" s="27"/>
-      <c r="M43" s="27">
+      <c r="K43" s="30"/>
+      <c r="L43" s="30"/>
+      <c r="M43" s="30">
         <v>427629</v>
       </c>
-      <c r="N43" s="27">
+      <c r="N43" s="30">
         <v>2993399</v>
       </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" s="27" t="s">
+      <c r="O43" s="25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A44" s="30" t="s">
         <v>131</v>
       </c>
-      <c r="B44" s="27"/>
-      <c r="C44" s="27"/>
-      <c r="D44" s="27">
+      <c r="B44" s="30"/>
+      <c r="C44" s="30"/>
+      <c r="D44" s="30">
         <v>10902577.68</v>
       </c>
-      <c r="E44" s="27"/>
-      <c r="F44" s="27"/>
-      <c r="G44" s="27"/>
-      <c r="H44" s="27"/>
-      <c r="I44" s="27">
+      <c r="E44" s="30"/>
+      <c r="F44" s="30"/>
+      <c r="G44" s="30"/>
+      <c r="H44" s="30"/>
+      <c r="I44" s="30">
         <v>3276311.75</v>
       </c>
-      <c r="J44" s="27"/>
-      <c r="K44" s="27"/>
-      <c r="L44" s="27"/>
-      <c r="M44" s="27">
+      <c r="J44" s="30"/>
+      <c r="K44" s="30"/>
+      <c r="L44" s="30"/>
+      <c r="M44" s="30">
         <v>1772361</v>
       </c>
-      <c r="N44" s="27">
+      <c r="N44" s="30">
         <v>12406528</v>
       </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" s="27" t="s">
+      <c r="O44" s="25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A45" s="30" t="s">
         <v>132</v>
       </c>
-      <c r="B45" s="27"/>
-      <c r="C45" s="27">
+      <c r="B45" s="30"/>
+      <c r="C45" s="30">
         <v>247168.51</v>
       </c>
-      <c r="D45" s="27">
+      <c r="D45" s="30">
         <v>1774035.071</v>
       </c>
-      <c r="E45" s="27">
+      <c r="E45" s="30">
         <v>356391.45</v>
       </c>
-      <c r="F45" s="27"/>
-      <c r="G45" s="27"/>
-      <c r="H45" s="27"/>
-      <c r="I45" s="27"/>
-      <c r="J45" s="27"/>
-      <c r="K45" s="27"/>
-      <c r="L45" s="27"/>
-      <c r="M45" s="27">
+      <c r="F45" s="30"/>
+      <c r="G45" s="30"/>
+      <c r="H45" s="30"/>
+      <c r="I45" s="30"/>
+      <c r="J45" s="30"/>
+      <c r="K45" s="30"/>
+      <c r="L45" s="30"/>
+      <c r="M45" s="30">
         <v>297199</v>
       </c>
-      <c r="N45" s="27">
+      <c r="N45" s="30">
         <v>2080396</v>
       </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="27" t="s">
+      <c r="O45" s="25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A46" s="30" t="s">
         <v>133</v>
       </c>
-      <c r="B46" s="27"/>
-      <c r="C46" s="27"/>
-      <c r="D46" s="27"/>
-      <c r="E46" s="27"/>
-      <c r="F46" s="27">
+      <c r="B46" s="30"/>
+      <c r="C46" s="30"/>
+      <c r="D46" s="30"/>
+      <c r="E46" s="30"/>
+      <c r="F46" s="30">
         <v>18663800.670000002</v>
       </c>
-      <c r="G46" s="27">
+      <c r="G46" s="30">
         <v>4842188.09</v>
       </c>
-      <c r="H46" s="27"/>
-      <c r="I46" s="27"/>
-      <c r="J46" s="27"/>
-      <c r="K46" s="27"/>
-      <c r="L46" s="27"/>
-      <c r="M46" s="27">
+      <c r="H46" s="30"/>
+      <c r="I46" s="30"/>
+      <c r="J46" s="30"/>
+      <c r="K46" s="30"/>
+      <c r="L46" s="30"/>
+      <c r="M46" s="30">
         <v>2938249</v>
       </c>
-      <c r="N46" s="27">
+      <c r="N46" s="30">
         <v>20567740</v>
       </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" s="27" t="s">
+      <c r="O46" s="25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A47" s="30" t="s">
         <v>134</v>
       </c>
-      <c r="B47" s="27"/>
-      <c r="C47" s="27"/>
-      <c r="D47" s="27"/>
-      <c r="E47" s="27">
+      <c r="B47" s="30"/>
+      <c r="C47" s="30"/>
+      <c r="D47" s="30"/>
+      <c r="E47" s="30">
         <v>9480354.0999999996</v>
       </c>
-      <c r="F47" s="27"/>
-      <c r="G47" s="27"/>
-      <c r="H47" s="27"/>
-      <c r="I47" s="27">
+      <c r="F47" s="30"/>
+      <c r="G47" s="30"/>
+      <c r="H47" s="30"/>
+      <c r="I47" s="30">
         <v>477480.29</v>
       </c>
-      <c r="J47" s="27"/>
-      <c r="K47" s="27"/>
-      <c r="L47" s="27"/>
-      <c r="M47" s="27">
+      <c r="J47" s="30"/>
+      <c r="K47" s="30"/>
+      <c r="L47" s="30"/>
+      <c r="M47" s="30">
         <v>1244729</v>
       </c>
-      <c r="N47" s="27">
+      <c r="N47" s="30">
         <v>8713105</v>
       </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" s="27" t="s">
+      <c r="O47" s="25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A48" s="30" t="s">
         <v>135</v>
       </c>
-      <c r="B48" s="27"/>
-      <c r="C48" s="27"/>
-      <c r="D48" s="27"/>
-      <c r="E48" s="27"/>
-      <c r="F48" s="27"/>
-      <c r="G48" s="27"/>
-      <c r="H48" s="27"/>
-      <c r="I48" s="27">
+      <c r="B48" s="30"/>
+      <c r="C48" s="30"/>
+      <c r="D48" s="30"/>
+      <c r="E48" s="30"/>
+      <c r="F48" s="30"/>
+      <c r="G48" s="30"/>
+      <c r="H48" s="30"/>
+      <c r="I48" s="30">
         <v>7682708.75</v>
       </c>
-      <c r="J48" s="27"/>
-      <c r="K48" s="27"/>
-      <c r="L48" s="27"/>
-      <c r="M48" s="27">
+      <c r="J48" s="30"/>
+      <c r="K48" s="30"/>
+      <c r="L48" s="30"/>
+      <c r="M48" s="30">
         <v>960339</v>
       </c>
-      <c r="N48" s="27">
+      <c r="N48" s="30">
         <v>6722370</v>
       </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A49" s="27" t="s">
+      <c r="O48" s="25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A49" s="30" t="s">
         <v>136</v>
       </c>
-      <c r="B49" s="27"/>
-      <c r="C49" s="27"/>
-      <c r="D49" s="27"/>
-      <c r="E49" s="27">
+      <c r="B49" s="30"/>
+      <c r="C49" s="30"/>
+      <c r="D49" s="30"/>
+      <c r="E49" s="30">
         <v>16117256.970000001</v>
       </c>
-      <c r="F49" s="27"/>
-      <c r="G49" s="27"/>
-      <c r="H49" s="27"/>
-      <c r="I49" s="27"/>
-      <c r="J49" s="27"/>
-      <c r="K49" s="27"/>
-      <c r="L49" s="27"/>
-      <c r="M49" s="27">
+      <c r="F49" s="30"/>
+      <c r="G49" s="30"/>
+      <c r="H49" s="30"/>
+      <c r="I49" s="30"/>
+      <c r="J49" s="30"/>
+      <c r="K49" s="30"/>
+      <c r="L49" s="30"/>
+      <c r="M49" s="30">
         <v>2014657</v>
       </c>
-      <c r="N49" s="27">
+      <c r="N49" s="30">
         <v>14102600</v>
       </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A50" s="27" t="s">
+      <c r="O49" s="25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A50" s="30" t="s">
         <v>137</v>
       </c>
-      <c r="B50" s="27"/>
-      <c r="C50" s="27"/>
-      <c r="D50" s="27"/>
-      <c r="E50" s="27"/>
-      <c r="F50" s="27"/>
-      <c r="G50" s="27"/>
-      <c r="H50" s="27"/>
-      <c r="I50" s="27">
+      <c r="B50" s="30"/>
+      <c r="C50" s="30"/>
+      <c r="D50" s="30"/>
+      <c r="E50" s="30"/>
+      <c r="F50" s="30"/>
+      <c r="G50" s="30"/>
+      <c r="H50" s="30"/>
+      <c r="I50" s="30">
         <v>7683514.4699999997</v>
       </c>
-      <c r="J50" s="27"/>
-      <c r="K50" s="27"/>
-      <c r="L50" s="27"/>
-      <c r="M50" s="27">
+      <c r="J50" s="30"/>
+      <c r="K50" s="30"/>
+      <c r="L50" s="30"/>
+      <c r="M50" s="30">
         <v>960439</v>
       </c>
-      <c r="N50" s="27">
+      <c r="N50" s="30">
         <v>6723075</v>
       </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A51" s="27" t="s">
+      <c r="O50" s="25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A51" s="30" t="s">
         <v>138</v>
       </c>
-      <c r="B51" s="27"/>
-      <c r="C51" s="27"/>
-      <c r="D51" s="27"/>
-      <c r="E51" s="27"/>
-      <c r="F51" s="27"/>
-      <c r="G51" s="27"/>
-      <c r="H51" s="27"/>
-      <c r="I51" s="27">
+      <c r="B51" s="30"/>
+      <c r="C51" s="30"/>
+      <c r="D51" s="30"/>
+      <c r="E51" s="30"/>
+      <c r="F51" s="30"/>
+      <c r="G51" s="30"/>
+      <c r="H51" s="30"/>
+      <c r="I51" s="30">
         <v>14652108</v>
       </c>
-      <c r="J51" s="27"/>
-      <c r="K51" s="27"/>
-      <c r="L51" s="27"/>
-      <c r="M51" s="27">
+      <c r="J51" s="30"/>
+      <c r="K51" s="30"/>
+      <c r="L51" s="30"/>
+      <c r="M51" s="30">
         <v>1831514</v>
       </c>
-      <c r="N51" s="27">
+      <c r="N51" s="30">
         <v>12820594</v>
       </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A52" s="27" t="s">
+      <c r="O51" s="25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A52" s="30" t="s">
         <v>139</v>
       </c>
-      <c r="B52" s="27"/>
-      <c r="C52" s="27"/>
-      <c r="D52" s="27">
+      <c r="B52" s="30"/>
+      <c r="C52" s="30"/>
+      <c r="D52" s="30">
         <v>10164437.199999999</v>
       </c>
-      <c r="E52" s="27"/>
-      <c r="F52" s="27"/>
-      <c r="G52" s="27"/>
-      <c r="H52" s="27"/>
-      <c r="I52" s="27"/>
-      <c r="J52" s="27"/>
-      <c r="K52" s="27"/>
-      <c r="L52" s="27"/>
-      <c r="M52" s="27">
+      <c r="E52" s="30"/>
+      <c r="F52" s="30"/>
+      <c r="G52" s="30"/>
+      <c r="H52" s="30"/>
+      <c r="I52" s="30"/>
+      <c r="J52" s="30"/>
+      <c r="K52" s="30"/>
+      <c r="L52" s="30"/>
+      <c r="M52" s="30">
         <v>1270555</v>
       </c>
-      <c r="N52" s="27">
+      <c r="N52" s="30">
         <v>8893882</v>
       </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A53" s="27" t="s">
+      <c r="O52" s="25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A53" s="30" t="s">
         <v>140</v>
       </c>
-      <c r="B53" s="27"/>
-      <c r="C53" s="27"/>
-      <c r="D53" s="27">
+      <c r="B53" s="30"/>
+      <c r="C53" s="30"/>
+      <c r="D53" s="30">
         <v>9258302.8699999992</v>
       </c>
-      <c r="E53" s="27"/>
-      <c r="F53" s="27"/>
-      <c r="G53" s="27"/>
-      <c r="H53" s="27"/>
-      <c r="I53" s="27">
+      <c r="E53" s="30"/>
+      <c r="F53" s="30"/>
+      <c r="G53" s="30"/>
+      <c r="H53" s="30"/>
+      <c r="I53" s="30">
         <v>544818.16</v>
       </c>
-      <c r="J53" s="27">
+      <c r="J53" s="30">
         <v>203113.3</v>
       </c>
-      <c r="K53" s="27"/>
-      <c r="L53" s="27"/>
-      <c r="M53" s="27">
+      <c r="K53" s="30"/>
+      <c r="L53" s="30"/>
+      <c r="M53" s="30">
         <v>1250779</v>
       </c>
-      <c r="N53" s="27">
+      <c r="N53" s="30">
         <v>8755455</v>
       </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A54" s="27" t="s">
+      <c r="O53" s="25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A54" s="30" t="s">
         <v>141</v>
       </c>
-      <c r="B54" s="27"/>
-      <c r="C54" s="27"/>
-      <c r="D54" s="27"/>
-      <c r="E54" s="27"/>
-      <c r="F54" s="27"/>
-      <c r="G54" s="27"/>
-      <c r="H54" s="27"/>
-      <c r="I54" s="27">
+      <c r="B54" s="30"/>
+      <c r="C54" s="30"/>
+      <c r="D54" s="30"/>
+      <c r="E54" s="30"/>
+      <c r="F54" s="30"/>
+      <c r="G54" s="30"/>
+      <c r="H54" s="30"/>
+      <c r="I54" s="30">
         <v>2918327.09</v>
       </c>
-      <c r="J54" s="27"/>
-      <c r="K54" s="27"/>
-      <c r="L54" s="27"/>
-      <c r="M54" s="27">
+      <c r="J54" s="30"/>
+      <c r="K54" s="30"/>
+      <c r="L54" s="30"/>
+      <c r="M54" s="30">
         <v>364791</v>
       </c>
-      <c r="N54" s="27">
+      <c r="N54" s="30">
         <v>2553536</v>
+      </c>
+      <c r="O54" s="25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A55" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="B55" s="34"/>
+      <c r="C55" s="34"/>
+      <c r="D55" s="34">
+        <v>4065192.31</v>
+      </c>
+      <c r="E55" s="34"/>
+      <c r="F55" s="34"/>
+      <c r="G55" s="34"/>
+      <c r="H55" s="34"/>
+      <c r="I55" s="34"/>
+      <c r="J55" s="34"/>
+      <c r="K55" s="34"/>
+      <c r="L55" s="34"/>
+      <c r="M55" s="34">
+        <v>508149</v>
+      </c>
+      <c r="N55" s="34">
+        <v>3557343</v>
+      </c>
+      <c r="O55" s="25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A56" s="34" t="s">
+        <v>143</v>
+      </c>
+      <c r="B56" s="34"/>
+      <c r="C56" s="34"/>
+      <c r="D56" s="34">
+        <v>395448</v>
+      </c>
+      <c r="E56" s="34"/>
+      <c r="F56" s="34"/>
+      <c r="G56" s="34"/>
+      <c r="H56" s="34"/>
+      <c r="I56" s="34">
+        <v>6835897.8899999997</v>
+      </c>
+      <c r="J56" s="34"/>
+      <c r="K56" s="34"/>
+      <c r="L56" s="34"/>
+      <c r="M56" s="34">
+        <v>799871</v>
+      </c>
+      <c r="N56" s="34">
+        <v>5599096</v>
+      </c>
+      <c r="O56" s="25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A57" s="34" t="s">
+        <v>144</v>
+      </c>
+      <c r="B57" s="34"/>
+      <c r="C57" s="34"/>
+      <c r="D57" s="34"/>
+      <c r="E57" s="34">
+        <v>7041775.3600000003</v>
+      </c>
+      <c r="F57" s="34"/>
+      <c r="G57" s="34"/>
+      <c r="H57" s="34"/>
+      <c r="I57" s="34">
+        <v>2173969.3199999998</v>
+      </c>
+      <c r="J57" s="34"/>
+      <c r="K57" s="34"/>
+      <c r="L57" s="34"/>
+      <c r="M57" s="34">
+        <v>1151968</v>
+      </c>
+      <c r="N57" s="34">
+        <v>8063777</v>
+      </c>
+      <c r="O57" s="25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A58" s="34" t="s">
+        <v>145</v>
+      </c>
+      <c r="B58" s="34"/>
+      <c r="C58" s="34"/>
+      <c r="D58" s="34"/>
+      <c r="E58" s="34">
+        <v>1333756.3810000001</v>
+      </c>
+      <c r="F58" s="34"/>
+      <c r="G58" s="34"/>
+      <c r="H58" s="34"/>
+      <c r="I58" s="34">
+        <v>3138936.3</v>
+      </c>
+      <c r="J58" s="34"/>
+      <c r="K58" s="34"/>
+      <c r="L58" s="34"/>
+      <c r="M58" s="34">
+        <v>559087</v>
+      </c>
+      <c r="N58" s="34">
+        <v>3913606</v>
+      </c>
+      <c r="O58" s="25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A59" s="34" t="s">
+        <v>146</v>
+      </c>
+      <c r="B59" s="34"/>
+      <c r="C59" s="34"/>
+      <c r="D59" s="34"/>
+      <c r="E59" s="34">
+        <v>7166150.7970000003</v>
+      </c>
+      <c r="F59" s="34"/>
+      <c r="G59" s="34"/>
+      <c r="H59" s="34"/>
+      <c r="I59" s="34"/>
+      <c r="J59" s="34"/>
+      <c r="K59" s="34"/>
+      <c r="L59" s="34"/>
+      <c r="M59" s="34">
+        <v>895769</v>
+      </c>
+      <c r="N59" s="34">
+        <v>6270381</v>
+      </c>
+      <c r="O59" s="25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A60" s="34" t="s">
+        <v>147</v>
+      </c>
+      <c r="B60" s="34"/>
+      <c r="C60" s="34"/>
+      <c r="D60" s="34"/>
+      <c r="E60" s="34">
+        <v>841027.35699999996</v>
+      </c>
+      <c r="F60" s="34"/>
+      <c r="G60" s="34"/>
+      <c r="H60" s="34"/>
+      <c r="I60" s="34">
+        <v>12356769.642999999</v>
+      </c>
+      <c r="J60" s="34"/>
+      <c r="K60" s="34"/>
+      <c r="L60" s="34"/>
+      <c r="M60" s="34">
+        <v>1649725</v>
+      </c>
+      <c r="N60" s="34">
+        <v>11548073</v>
+      </c>
+      <c r="O60" s="25">
+        <v>58</v>
+      </c>
+      <c r="R60" s="10"/>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A61" s="34" t="s">
+        <v>148</v>
+      </c>
+      <c r="B61" s="34"/>
+      <c r="C61" s="34"/>
+      <c r="D61" s="34">
+        <v>5452594.4699999988</v>
+      </c>
+      <c r="E61" s="34"/>
+      <c r="F61" s="34"/>
+      <c r="G61" s="34"/>
+      <c r="H61" s="34"/>
+      <c r="I61" s="34">
+        <v>23284588.450000003</v>
+      </c>
+      <c r="J61" s="34"/>
+      <c r="K61" s="34"/>
+      <c r="L61" s="34"/>
+      <c r="M61" s="34">
+        <v>3522148</v>
+      </c>
+      <c r="N61" s="34">
+        <v>251450352</v>
+      </c>
+      <c r="O61" s="25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A62" s="33" t="s">
+        <v>149</v>
+      </c>
+      <c r="B62" s="33"/>
+      <c r="C62" s="33"/>
+      <c r="D62" s="33"/>
+      <c r="E62" s="33"/>
+      <c r="F62" s="33">
+        <v>6871914.25</v>
+      </c>
+      <c r="G62" s="33"/>
+      <c r="H62" s="33">
+        <v>3134579.898</v>
+      </c>
+      <c r="I62" s="33"/>
+      <c r="J62" s="33"/>
+      <c r="K62" s="33"/>
+      <c r="L62" s="33"/>
+      <c r="M62" s="33">
+        <v>1342829</v>
+      </c>
+      <c r="N62" s="33">
+        <v>9399803</v>
+      </c>
+      <c r="O62" s="25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A63" s="33" t="s">
+        <v>150</v>
+      </c>
+      <c r="B63" s="33"/>
+      <c r="C63" s="33"/>
+      <c r="D63" s="33"/>
+      <c r="E63" s="33"/>
+      <c r="F63" s="33"/>
+      <c r="G63" s="33"/>
+      <c r="H63" s="33"/>
+      <c r="I63" s="33"/>
+      <c r="J63" s="33">
+        <v>20162366.32</v>
+      </c>
+      <c r="K63" s="33"/>
+      <c r="L63" s="33"/>
+      <c r="M63" s="33">
+        <v>2520296</v>
+      </c>
+      <c r="N63" s="33">
+        <v>17642070</v>
+      </c>
+      <c r="O63" s="25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A64" s="33" t="s">
+        <v>151</v>
+      </c>
+      <c r="B64" s="33"/>
+      <c r="C64" s="33"/>
+      <c r="D64" s="33">
+        <v>3038478</v>
+      </c>
+      <c r="E64" s="33"/>
+      <c r="F64" s="33"/>
+      <c r="G64" s="33"/>
+      <c r="H64" s="33"/>
+      <c r="I64" s="33"/>
+      <c r="J64" s="33"/>
+      <c r="K64" s="33"/>
+      <c r="L64" s="33"/>
+      <c r="M64" s="33">
+        <v>379810</v>
+      </c>
+      <c r="N64" s="33">
+        <v>2658668</v>
+      </c>
+      <c r="O64" s="25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A65" s="33" t="s">
+        <v>152</v>
+      </c>
+      <c r="B65" s="33"/>
+      <c r="C65" s="33"/>
+      <c r="D65" s="33"/>
+      <c r="E65" s="33"/>
+      <c r="F65" s="33"/>
+      <c r="G65" s="33"/>
+      <c r="H65" s="33"/>
+      <c r="I65" s="33"/>
+      <c r="J65" s="33"/>
+      <c r="K65" s="33">
+        <v>1890979</v>
+      </c>
+      <c r="L65" s="33"/>
+      <c r="M65" s="33">
+        <v>236372</v>
+      </c>
+      <c r="N65" s="33">
+        <v>1654607</v>
+      </c>
+      <c r="O65" s="25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A66" s="33" t="s">
+        <v>153</v>
+      </c>
+      <c r="B66" s="33"/>
+      <c r="C66" s="33"/>
+      <c r="D66" s="33">
+        <v>11734497.34</v>
+      </c>
+      <c r="E66" s="33"/>
+      <c r="F66" s="33"/>
+      <c r="G66" s="33"/>
+      <c r="H66" s="33"/>
+      <c r="I66" s="33"/>
+      <c r="J66" s="33"/>
+      <c r="K66" s="33"/>
+      <c r="L66" s="33"/>
+      <c r="M66" s="33">
+        <v>1091812</v>
+      </c>
+      <c r="N66" s="33">
+        <v>7642685</v>
+      </c>
+      <c r="O66" s="25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A67" s="33" t="s">
+        <v>154</v>
+      </c>
+      <c r="B67" s="33">
+        <v>237277.17</v>
+      </c>
+      <c r="C67" s="33"/>
+      <c r="D67" s="33">
+        <v>4754324.16</v>
+      </c>
+      <c r="E67" s="33"/>
+      <c r="F67" s="33"/>
+      <c r="G67" s="33"/>
+      <c r="H67" s="33"/>
+      <c r="I67" s="33">
+        <v>3536591.639</v>
+      </c>
+      <c r="J67" s="33"/>
+      <c r="K67" s="33"/>
+      <c r="L67" s="33"/>
+      <c r="M67" s="33">
+        <v>1066024</v>
+      </c>
+      <c r="N67" s="33">
+        <v>7462169</v>
+      </c>
+      <c r="O67" s="25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A68" s="33" t="s">
+        <v>155</v>
+      </c>
+      <c r="B68" s="33"/>
+      <c r="C68" s="33"/>
+      <c r="D68" s="33"/>
+      <c r="E68" s="33"/>
+      <c r="F68" s="33"/>
+      <c r="G68" s="33"/>
+      <c r="H68" s="33"/>
+      <c r="I68" s="33">
+        <v>8566376</v>
+      </c>
+      <c r="J68" s="33"/>
+      <c r="K68" s="33"/>
+      <c r="L68" s="33"/>
+      <c r="M68" s="33">
+        <v>1070797</v>
+      </c>
+      <c r="N68" s="33">
+        <v>7495579</v>
+      </c>
+      <c r="O68" s="25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A69" s="33" t="s">
+        <v>156</v>
+      </c>
+      <c r="B69" s="33"/>
+      <c r="C69" s="33"/>
+      <c r="D69" s="33"/>
+      <c r="E69" s="33"/>
+      <c r="F69" s="33"/>
+      <c r="G69" s="33"/>
+      <c r="H69" s="33"/>
+      <c r="I69" s="33"/>
+      <c r="J69" s="33">
+        <v>21434033</v>
+      </c>
+      <c r="K69" s="33"/>
+      <c r="L69" s="33"/>
+      <c r="M69" s="33">
+        <v>2679254</v>
+      </c>
+      <c r="N69" s="33">
+        <v>18754779</v>
+      </c>
+      <c r="O69" s="25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A70" s="33" t="s">
+        <v>157</v>
+      </c>
+      <c r="B70" s="33"/>
+      <c r="C70" s="33"/>
+      <c r="D70" s="33"/>
+      <c r="E70" s="33"/>
+      <c r="F70" s="33"/>
+      <c r="G70" s="33"/>
+      <c r="H70" s="33"/>
+      <c r="I70" s="33">
+        <v>1869271.878</v>
+      </c>
+      <c r="J70" s="33">
+        <v>3950811.1020000004</v>
+      </c>
+      <c r="K70" s="33"/>
+      <c r="L70" s="33"/>
+      <c r="M70" s="33">
+        <v>711031</v>
+      </c>
+      <c r="N70" s="33">
+        <v>4977219</v>
+      </c>
+      <c r="O70" s="25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A71" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="B71" s="33"/>
+      <c r="C71" s="33"/>
+      <c r="D71" s="33"/>
+      <c r="E71" s="33"/>
+      <c r="F71" s="33"/>
+      <c r="G71" s="33"/>
+      <c r="H71" s="33"/>
+      <c r="I71" s="33"/>
+      <c r="J71" s="33">
+        <v>3715423</v>
+      </c>
+      <c r="K71" s="33"/>
+      <c r="L71" s="33"/>
+      <c r="M71" s="33">
+        <v>464428</v>
+      </c>
+      <c r="N71" s="33">
+        <v>3250995</v>
+      </c>
+      <c r="O71" s="25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A72" s="33" t="s">
+        <v>159</v>
+      </c>
+      <c r="B72" s="33"/>
+      <c r="C72" s="33"/>
+      <c r="D72" s="33">
+        <v>15319532</v>
+      </c>
+      <c r="E72" s="33"/>
+      <c r="F72" s="33"/>
+      <c r="G72" s="33"/>
+      <c r="H72" s="33"/>
+      <c r="I72" s="33"/>
+      <c r="J72" s="33"/>
+      <c r="K72" s="33"/>
+      <c r="L72" s="33"/>
+      <c r="M72" s="33">
+        <v>1914942</v>
+      </c>
+      <c r="N72" s="33">
+        <v>13404590</v>
+      </c>
+      <c r="O72" s="25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A73" s="33" t="s">
+        <v>160</v>
+      </c>
+      <c r="B73" s="33"/>
+      <c r="C73" s="33"/>
+      <c r="D73" s="33"/>
+      <c r="E73" s="33">
+        <v>4972139.51</v>
+      </c>
+      <c r="F73" s="33"/>
+      <c r="G73" s="33"/>
+      <c r="H73" s="33"/>
+      <c r="I73" s="33">
+        <v>112500</v>
+      </c>
+      <c r="J73" s="33"/>
+      <c r="K73" s="33"/>
+      <c r="L73" s="33"/>
+      <c r="M73" s="33">
+        <v>635580</v>
+      </c>
+      <c r="N73" s="33">
+        <v>4449060</v>
+      </c>
+      <c r="O73" s="25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A74" s="33" t="s">
+        <v>161</v>
+      </c>
+      <c r="B74" s="33"/>
+      <c r="C74" s="33"/>
+      <c r="D74" s="33"/>
+      <c r="E74" s="33"/>
+      <c r="F74" s="33"/>
+      <c r="G74" s="33"/>
+      <c r="H74" s="33"/>
+      <c r="I74" s="33">
+        <v>7671622.0999999996</v>
+      </c>
+      <c r="J74" s="33"/>
+      <c r="K74" s="33"/>
+      <c r="L74" s="33"/>
+      <c r="M74" s="33">
+        <v>921416</v>
+      </c>
+      <c r="N74" s="33">
+        <v>6449915</v>
+      </c>
+      <c r="O74" s="25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A75" s="33" t="s">
+        <v>163</v>
+      </c>
+      <c r="B75" s="33"/>
+      <c r="C75" s="33"/>
+      <c r="D75" s="33"/>
+      <c r="E75" s="33"/>
+      <c r="F75" s="33"/>
+      <c r="G75" s="33"/>
+      <c r="H75" s="33"/>
+      <c r="I75" s="35">
+        <v>10277493</v>
+      </c>
+      <c r="J75" s="33"/>
+      <c r="K75" s="33"/>
+      <c r="L75" s="33"/>
+      <c r="M75" s="36">
+        <v>1284687</v>
+      </c>
+      <c r="N75" s="36">
+        <v>8992806</v>
+      </c>
+      <c r="O75" s="25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A76" s="34" t="s">
+        <v>162</v>
+      </c>
+      <c r="B76" s="34"/>
+      <c r="C76" s="34"/>
+      <c r="D76" s="34">
+        <v>2004423.12</v>
+      </c>
+      <c r="E76" s="34">
+        <v>2200388.38</v>
+      </c>
+      <c r="F76" s="34"/>
+      <c r="G76" s="34"/>
+      <c r="H76" s="34"/>
+      <c r="I76" s="34">
+        <v>27775</v>
+      </c>
+      <c r="J76" s="34"/>
+      <c r="K76" s="34"/>
+      <c r="L76" s="34"/>
+      <c r="M76" s="34">
+        <v>529073</v>
+      </c>
+      <c r="N76" s="34">
+        <v>4232587</v>
+      </c>
+      <c r="O76" s="25"/>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A77" s="34" t="s">
+        <v>164</v>
+      </c>
+      <c r="B77" s="34"/>
+      <c r="C77" s="34"/>
+      <c r="D77" s="34"/>
+      <c r="E77" s="34">
+        <v>5035264.49</v>
+      </c>
+      <c r="F77" s="34"/>
+      <c r="G77" s="34"/>
+      <c r="H77" s="34"/>
+      <c r="I77" s="34"/>
+      <c r="J77" s="34">
+        <v>1253692.1100000001</v>
+      </c>
+      <c r="K77" s="34" t="s">
+        <v>171</v>
+      </c>
+      <c r="L77" s="34"/>
+      <c r="M77" s="34">
+        <v>786119.57500000007</v>
+      </c>
+      <c r="N77" s="34">
+        <v>5502837.0250000004</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A78" s="34" t="s">
+        <v>165</v>
+      </c>
+      <c r="B78" s="34"/>
+      <c r="C78" s="34"/>
+      <c r="D78" s="34"/>
+      <c r="E78" s="34">
+        <v>1360415.54</v>
+      </c>
+      <c r="F78" s="34"/>
+      <c r="G78" s="34"/>
+      <c r="H78" s="34"/>
+      <c r="I78" s="34">
+        <v>455742.37</v>
+      </c>
+      <c r="J78" s="34">
+        <v>1831376.254</v>
+      </c>
+      <c r="K78" s="34"/>
+      <c r="L78" s="34"/>
+      <c r="M78" s="34">
+        <v>455942</v>
+      </c>
+      <c r="N78" s="34">
+        <v>3191592</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A79" s="34" t="s">
+        <v>166</v>
+      </c>
+      <c r="B79" s="34"/>
+      <c r="C79" s="34"/>
+      <c r="D79" s="34">
+        <v>5389926.9299999997</v>
+      </c>
+      <c r="E79" s="34">
+        <v>1782400.4</v>
+      </c>
+      <c r="F79" s="34"/>
+      <c r="G79" s="34"/>
+      <c r="H79" s="34"/>
+      <c r="I79" s="34"/>
+      <c r="J79" s="34"/>
+      <c r="K79" s="34"/>
+      <c r="L79" s="34"/>
+      <c r="M79" s="34">
+        <v>896541</v>
+      </c>
+      <c r="N79" s="34">
+        <v>6275786</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A80" s="34" t="s">
+        <v>167</v>
+      </c>
+      <c r="B80" s="34"/>
+      <c r="C80" s="34"/>
+      <c r="D80" s="34"/>
+      <c r="E80" s="34"/>
+      <c r="F80" s="34"/>
+      <c r="G80" s="34"/>
+      <c r="H80" s="34"/>
+      <c r="I80" s="34">
+        <v>3499306</v>
+      </c>
+      <c r="J80" s="34"/>
+      <c r="K80" s="34"/>
+      <c r="L80" s="34"/>
+      <c r="M80" s="34">
+        <v>437413</v>
+      </c>
+      <c r="N80" s="34">
+        <v>3061893</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A81" s="34" t="s">
+        <v>168</v>
+      </c>
+      <c r="B81" s="34"/>
+      <c r="C81" s="34"/>
+      <c r="D81" s="34"/>
+      <c r="E81" s="34"/>
+      <c r="F81" s="34"/>
+      <c r="G81" s="34">
+        <v>20826914</v>
+      </c>
+      <c r="H81" s="34"/>
+      <c r="I81" s="34"/>
+      <c r="J81" s="34"/>
+      <c r="K81" s="34"/>
+      <c r="L81" s="34"/>
+      <c r="M81" s="34">
+        <v>2603364</v>
+      </c>
+      <c r="N81" s="34">
+        <v>18223550</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A82" s="34" t="s">
+        <v>169</v>
+      </c>
+      <c r="B82" s="34"/>
+      <c r="C82" s="34"/>
+      <c r="D82" s="34"/>
+      <c r="E82" s="34"/>
+      <c r="F82" s="34">
+        <v>3669874</v>
+      </c>
+      <c r="G82" s="34"/>
+      <c r="H82" s="34"/>
+      <c r="I82" s="34"/>
+      <c r="J82" s="34"/>
+      <c r="K82" s="34"/>
+      <c r="L82" s="34"/>
+      <c r="M82" s="34">
+        <v>458734</v>
+      </c>
+      <c r="N82" s="34">
+        <v>3211140</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A83" s="34" t="s">
+        <v>170</v>
+      </c>
+      <c r="B83" s="34"/>
+      <c r="C83" s="34"/>
+      <c r="D83" s="34"/>
+      <c r="E83" s="34"/>
+      <c r="F83" s="34"/>
+      <c r="G83" s="34">
+        <v>24327546</v>
+      </c>
+      <c r="H83" s="34"/>
+      <c r="I83" s="34"/>
+      <c r="J83" s="34"/>
+      <c r="K83" s="34"/>
+      <c r="L83" s="34"/>
+      <c r="M83" s="34">
+        <v>3040943</v>
+      </c>
+      <c r="N83" s="34">
+        <v>21286603</v>
       </c>
     </row>
   </sheetData>
@@ -4202,46 +5294,415 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="G2:G7"/>
+  <dimension ref="E2:I22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView topLeftCell="A11" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="18.140625" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G2">
-        <v>2913738.14</v>
-      </c>
-    </row>
-    <row r="3" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G3">
-        <v>2230920.327</v>
-      </c>
-    </row>
-    <row r="4" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G4">
-        <v>589267.10400000005</v>
-      </c>
-    </row>
-    <row r="5" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G5">
-        <v>46933.917999999998</v>
-      </c>
-    </row>
-    <row r="6" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G6">
-        <v>70400.877999999997</v>
-      </c>
-    </row>
-    <row r="7" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G7">
-        <f>SUM(G2:G6)</f>
-        <v>5851260.3669999996</v>
+    <row r="2" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="G2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="G3" s="1">
+        <v>17644936.100000001</v>
+      </c>
+      <c r="I3" s="1">
+        <v>204301.34</v>
+      </c>
+    </row>
+    <row r="4" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="G4" s="1">
+        <v>-166123.07999999999</v>
+      </c>
+      <c r="I4" s="1">
+        <v>98414.79</v>
+      </c>
+    </row>
+    <row r="5" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="G5" s="1">
+        <v>4900152.0999999996</v>
+      </c>
+      <c r="I5" s="1">
+        <v>3557905.85</v>
+      </c>
+    </row>
+    <row r="6" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="G6" s="1">
+        <v>286245</v>
+      </c>
+      <c r="I6" s="1">
+        <v>866744.93</v>
+      </c>
+    </row>
+    <row r="7" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="G7" s="1">
+        <v>619378.32999999996</v>
+      </c>
+      <c r="I7" s="1">
+        <v>161285.35999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="G8" s="12">
+        <f>SUM(G3:G7)</f>
+        <v>23284588.450000003</v>
+      </c>
+      <c r="I8" s="1">
+        <v>15775.98</v>
+      </c>
+    </row>
+    <row r="9" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="G9" s="12">
+        <v>28737182.920000002</v>
+      </c>
+      <c r="I9" s="1">
+        <v>14288.02</v>
+      </c>
+    </row>
+    <row r="10" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="G10" s="12">
+        <f>G9-G8</f>
+        <v>5452594.4699999988</v>
+      </c>
+      <c r="I10" s="1">
+        <v>53423.24</v>
+      </c>
+    </row>
+    <row r="11" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="I11" s="12">
+        <f>SUM(I3:I10)</f>
+        <v>4972139.5100000007</v>
+      </c>
+    </row>
+    <row r="14" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E15">
+        <v>875966.73300000001</v>
+      </c>
+      <c r="G15" s="1">
+        <v>46900.13</v>
+      </c>
+    </row>
+    <row r="16" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E16">
+        <v>906433.66399999999</v>
+      </c>
+      <c r="G16" s="1">
+        <v>2590080.1800000002</v>
+      </c>
+    </row>
+    <row r="17" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E17">
+        <f>SUM(E15:E16)</f>
+        <v>1782400.3969999999</v>
+      </c>
+      <c r="G17" s="1">
+        <v>1949709.13</v>
+      </c>
+    </row>
+    <row r="18" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E18">
+        <v>7172327.3300000001</v>
+      </c>
+      <c r="G18" s="1">
+        <v>1366206.83</v>
+      </c>
+    </row>
+    <row r="19" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E19" s="10">
+        <f>E18-E17</f>
+        <v>5389926.9330000002</v>
+      </c>
+      <c r="G19" s="1">
+        <v>739134.85</v>
+      </c>
+    </row>
+    <row r="20" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="G20" s="1">
+        <v>379009.28000000003</v>
+      </c>
+    </row>
+    <row r="21" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="G21" s="1">
+        <v>600581.69999999995</v>
+      </c>
+    </row>
+    <row r="22" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="G22" s="1">
+        <f>SUM(G15:G21)</f>
+        <v>7671622.0999999996</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N9"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:N9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="33.28515625" customWidth="1"/>
+    <col min="2" max="2" width="28.85546875" customWidth="1"/>
+    <col min="9" max="9" width="21.140625" customWidth="1"/>
+    <col min="13" max="13" width="13.5703125" customWidth="1"/>
+    <col min="14" max="14" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26">
+        <v>2004423.12</v>
+      </c>
+      <c r="E1" s="26">
+        <v>2200388.38</v>
+      </c>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26">
+        <v>27775</v>
+      </c>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26">
+        <v>529073</v>
+      </c>
+      <c r="N1" s="26">
+        <v>4232587</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="27">
+        <v>10277493</v>
+      </c>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="28">
+        <v>1284687</v>
+      </c>
+      <c r="N2" s="28">
+        <v>8992806</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26">
+        <v>5035264.49</v>
+      </c>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26">
+        <v>1253692.1100000001</v>
+      </c>
+      <c r="K3" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26">
+        <v>786119.57500000007</v>
+      </c>
+      <c r="N3" s="26">
+        <v>5502837.0250000004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26">
+        <v>1360415.54</v>
+      </c>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26">
+        <v>455742.37</v>
+      </c>
+      <c r="J4" s="26">
+        <v>1831376.254</v>
+      </c>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26">
+        <v>455942</v>
+      </c>
+      <c r="N4" s="26">
+        <v>3191592</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="26" t="s">
+        <v>166</v>
+      </c>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26">
+        <v>5389926.9299999997</v>
+      </c>
+      <c r="E5" s="26">
+        <v>1782400.4</v>
+      </c>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="26">
+        <v>896541</v>
+      </c>
+      <c r="N5" s="26">
+        <v>6275786</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26">
+        <v>3499306</v>
+      </c>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="26">
+        <v>437413</v>
+      </c>
+      <c r="N6" s="26">
+        <v>3061893</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26">
+        <v>20826914</v>
+      </c>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="26">
+        <v>2603364</v>
+      </c>
+      <c r="N7" s="26">
+        <v>18223550</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="26" t="s">
+        <v>169</v>
+      </c>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26">
+        <v>3669874</v>
+      </c>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="26">
+        <v>458734</v>
+      </c>
+      <c r="N8" s="26">
+        <v>3211140</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="26" t="s">
+        <v>170</v>
+      </c>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26">
+        <v>24327546</v>
+      </c>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="26">
+        <v>3040943</v>
+      </c>
+      <c r="N9" s="26">
+        <v>21286603</v>
       </c>
     </row>
   </sheetData>

--- a/Civilworks cost/IPC Distribution.xlsx
+++ b/Civilworks cost/IPC Distribution.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="279">
   <si>
     <t>O&amp;M During Construction</t>
   </si>
@@ -304,147 +304,36 @@
     <t>160/(SUNM-01)-05 2nd RA Bill</t>
   </si>
   <si>
-    <t>161/Habi-1 5th  RA Bill</t>
-  </si>
-  <si>
-    <t>172/Kish-12 7th  RA Bill</t>
-  </si>
-  <si>
-    <t>161/Kish-16 9th  RA Bill</t>
-  </si>
-  <si>
-    <t>175/Kish-23 2nd  RA Bill</t>
-  </si>
-  <si>
-    <t>174/Netr-01  4th  RA Bill</t>
-  </si>
-  <si>
-    <t>190/Kish-22 2nd  RA Bill</t>
-  </si>
-  <si>
-    <t>191/Kish-26 6th  RA Bill</t>
-  </si>
-  <si>
     <t>194/(SUNM-01)-06 6th RA Bill</t>
   </si>
   <si>
     <t>192/(SUNM-01)-04 4th RA Bill</t>
   </si>
   <si>
-    <t>195/Netr-06 5th RA Bill</t>
-  </si>
-  <si>
-    <t>193/Kish-05 5th  RA Bill</t>
-  </si>
-  <si>
-    <t>199/Kish-17 10th  RA Bill</t>
-  </si>
-  <si>
     <t>210/(SUNM-01)-06 6th RA final Bill</t>
   </si>
   <si>
     <t>209/(SUNM-01)-05 2nd RA Bill</t>
   </si>
   <si>
-    <t>213/Kish-23 3rd  RA Bill</t>
-  </si>
-  <si>
     <t>212/(SUNM-02)-02 3rd RA Bill</t>
   </si>
   <si>
-    <t>159/Kish-28/Lot-4 1st  RA Bill</t>
-  </si>
-  <si>
-    <t>173/Netr-03 4th RA Bill</t>
-  </si>
-  <si>
-    <t>214/Kish-26 7th  RA Bill</t>
-  </si>
-  <si>
-    <t>217/Kish-14 8th  RA Bill</t>
-  </si>
-  <si>
-    <t>218/Kish-17  11th  RA Bill</t>
-  </si>
-  <si>
-    <t>220/Kish-03  8th  RA Bill</t>
-  </si>
-  <si>
-    <t>216/Kish-16  10th  RA Bill</t>
-  </si>
-  <si>
-    <t>219/Kish-9  6th  RA Bill</t>
-  </si>
-  <si>
-    <t>225/Kish-21  1st  RA Bill</t>
-  </si>
-  <si>
     <t>226/(SUNM-01)-05 3rd RA  Bill</t>
   </si>
   <si>
-    <t>232/Hobi-2  4th  RA Bill</t>
-  </si>
-  <si>
-    <t>233/Kish-25  6th  RA Bill</t>
-  </si>
-  <si>
     <t xml:space="preserve">351/(SUNM-02)-02  4th RA Bill </t>
   </si>
   <si>
-    <t>248/Kish-01  1st  RA Bill</t>
-  </si>
-  <si>
     <t xml:space="preserve">250/(SUNM-01)-03 3rd RA Bill </t>
   </si>
   <si>
-    <t xml:space="preserve">252/Netr-08 1st RA Bill </t>
-  </si>
-  <si>
     <t xml:space="preserve">249/(SUNM-01)-04 5th RA Bill </t>
   </si>
   <si>
-    <t>246/Kish-11  6th  RA Bill</t>
-  </si>
-  <si>
-    <t>247/Kish-10  5th  RA Bill</t>
-  </si>
-  <si>
-    <t>245/Kish-6  12th  RA Bill</t>
-  </si>
-  <si>
-    <t xml:space="preserve">243/Netr-03 5th RA Bill </t>
-  </si>
-  <si>
-    <t xml:space="preserve">242/Netr-02 4th RA Bill </t>
-  </si>
-  <si>
-    <t xml:space="preserve">241/Netr-01 5th RA Bill </t>
-  </si>
-  <si>
-    <t>240/Hobi-5  3rd RA Bill</t>
-  </si>
-  <si>
-    <t>244/Kish-23  4th  RA Bill</t>
-  </si>
-  <si>
-    <t xml:space="preserve">255/Netr-06  6th RA Bill </t>
-  </si>
-  <si>
-    <t xml:space="preserve">256/Netr-04  4th RA Bill </t>
-  </si>
-  <si>
-    <t>257/Kish-26  8th  RA Bill</t>
-  </si>
-  <si>
-    <t>273/Kish-13  7th  RA Bill</t>
-  </si>
-  <si>
     <t xml:space="preserve">347/(SUNM-01)-06  7th RA Bill </t>
   </si>
   <si>
-    <t>351/Kish-21  2nd  RA Bill</t>
-  </si>
-  <si>
     <t xml:space="preserve">349/(SUNM-01)-04  6th RA Bill </t>
   </si>
   <si>
@@ -454,69 +343,6 @@
     <t xml:space="preserve">350/(SUNM-02)-01  5th RA Bill </t>
   </si>
   <si>
-    <t>352/Hobi-4  5th RA Bill</t>
-  </si>
-  <si>
-    <t>353/Hobi-5 4th RA Bill</t>
-  </si>
-  <si>
-    <t>346/Kish-14  9th  RA Bill</t>
-  </si>
-  <si>
-    <t>345/Kish-12  8th  RA Bill</t>
-  </si>
-  <si>
-    <t>356/Kish-26  9th  RA Final Bill</t>
-  </si>
-  <si>
-    <t>355/Hobi-6 8th RA Bill</t>
-  </si>
-  <si>
-    <t>344/Hobi-1  6th RA Bill</t>
-  </si>
-  <si>
-    <t>354/Hobi-2  5th RA Bill</t>
-  </si>
-  <si>
-    <t xml:space="preserve">370/Netr-04  5th RA Bill </t>
-  </si>
-  <si>
-    <t xml:space="preserve">378/Netr-05  3rd RA Bill </t>
-  </si>
-  <si>
-    <t xml:space="preserve">369/Netr-08  2nd RA Bill </t>
-  </si>
-  <si>
-    <t>371/Kish-28  2nd  RA Bill</t>
-  </si>
-  <si>
-    <t>361/Kish-20  5th  RA Bill</t>
-  </si>
-  <si>
-    <t>362/Kish-17  12th  RA Bill</t>
-  </si>
-  <si>
-    <t>360/Kish-16  11th  RA Bill</t>
-  </si>
-  <si>
-    <t>357/Hobi-7  5th RA Bill</t>
-  </si>
-  <si>
-    <t>375/Kish-04   6th/final RA Bill</t>
-  </si>
-  <si>
-    <t>377/Kish-13  8th  RA Bill</t>
-  </si>
-  <si>
-    <t>374/Kish-09  7th  RA Bill</t>
-  </si>
-  <si>
-    <t>359/Kish-07  9th  RA Bill</t>
-  </si>
-  <si>
-    <t>373/Kish-22  3rd  RA Bill</t>
-  </si>
-  <si>
     <t>372/Kish-25  7th  RA Bill</t>
   </si>
   <si>
@@ -545,6 +371,501 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>84/(SUNM-01)-05 1st RA Bill</t>
+  </si>
+  <si>
+    <t>132/(SUNM-01)-06  5th RA Bill</t>
+  </si>
+  <si>
+    <t>154/(SUNM-02)-02  2nd RA Bill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sl No </t>
+  </si>
+  <si>
+    <t>Gate_Repair</t>
+  </si>
+  <si>
+    <t>Package No</t>
+  </si>
+  <si>
+    <t>IPC No</t>
+  </si>
+  <si>
+    <t>60/NETR-Gate Replacement final  Bill</t>
+  </si>
+  <si>
+    <t>GT-01</t>
+  </si>
+  <si>
+    <t>76/NETR-Gate Replacement 1st RA  Bill</t>
+  </si>
+  <si>
+    <t>GT-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUNM-05 </t>
+  </si>
+  <si>
+    <t>92/NETR-Gate Replacement 2nd RA  Bill</t>
+  </si>
+  <si>
+    <t>110/NETR-05  1st  RA Bill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NETR-05  </t>
+  </si>
+  <si>
+    <t>111/KISH-23 1st  RA Bill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KISH-23 </t>
+  </si>
+  <si>
+    <t>120/NETR-06  4th  RA Bill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NETR-06 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUNM-06 </t>
+  </si>
+  <si>
+    <t>131/KISH-20 4th  RA Bill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KISH-20 </t>
+  </si>
+  <si>
+    <t>133/KISH-22 1st  RA Bill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KISH-22 </t>
+  </si>
+  <si>
+    <t>138/KISH-22 2nd  RA Bill</t>
+  </si>
+  <si>
+    <t>KISH-22</t>
+  </si>
+  <si>
+    <t>142/KISH-17  9th  RA Bill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KISH-17  </t>
+  </si>
+  <si>
+    <t>144/KISH-10  4th  RA Bill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KISH-10 </t>
+  </si>
+  <si>
+    <t>143/KISH-11  5th  RA Bill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KISH-11 </t>
+  </si>
+  <si>
+    <t>152/HABI-6  7th  RA Bill</t>
+  </si>
+  <si>
+    <t>HABI-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUNM-02 </t>
+  </si>
+  <si>
+    <t>153/KISH-09  5th  RA Bill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KISH-09  </t>
+  </si>
+  <si>
+    <t>155/KISH-25  5th  RA Bill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KISH-25 </t>
+  </si>
+  <si>
+    <t>157/KISH-13  5th  RA Bill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KISH-13  </t>
+  </si>
+  <si>
+    <t>158/KISH-13  6th  RA Bill</t>
+  </si>
+  <si>
+    <t>SUNM-01</t>
+  </si>
+  <si>
+    <t>161/KISH-16 9th  RA Bill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KISH-16 </t>
+  </si>
+  <si>
+    <t>159/KISH-28/Lot-4 1st  RA Bill</t>
+  </si>
+  <si>
+    <t>KISH-28/Lot-4</t>
+  </si>
+  <si>
+    <t>161/HABI-1 5th  RA Bill</t>
+  </si>
+  <si>
+    <t>HABI-01</t>
+  </si>
+  <si>
+    <t>172/KISH-12 7th  RA Bill</t>
+  </si>
+  <si>
+    <t>KISH-12</t>
+  </si>
+  <si>
+    <t>175/KISH-23 2nd  RA Bill</t>
+  </si>
+  <si>
+    <t>174/NETR-01  4th  RA Bill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NETR-01  </t>
+  </si>
+  <si>
+    <t>173/NETR-03 4th RA Bill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NETR-03 </t>
+  </si>
+  <si>
+    <t>190/KISH-22 2nd  RA Bill</t>
+  </si>
+  <si>
+    <t>191/KISH-26 6th  RA Bill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KISH-26 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUNM-04 </t>
+  </si>
+  <si>
+    <t>195/NETR-06 5th RA Bill</t>
+  </si>
+  <si>
+    <t>193/KISH-05 5th  RA Bill</t>
+  </si>
+  <si>
+    <t>KISH-05</t>
+  </si>
+  <si>
+    <t>199/KISH-17 10th  RA Bill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KISH-17 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUNM--06 </t>
+  </si>
+  <si>
+    <t>SUNM-05</t>
+  </si>
+  <si>
+    <t>213/KISH-23 3rd  RA Bill</t>
+  </si>
+  <si>
+    <t>KISH-23</t>
+  </si>
+  <si>
+    <t>SUNM-02</t>
+  </si>
+  <si>
+    <t>214/KISH-26 7th  RA Bill</t>
+  </si>
+  <si>
+    <t>217/KISH-14 8th  RA Bill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KISH-14 </t>
+  </si>
+  <si>
+    <t>218/KISH-17  11th  RA Bill</t>
+  </si>
+  <si>
+    <t>220/KISH-03  8th  RA Bill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KISH-03  </t>
+  </si>
+  <si>
+    <t>216/KISH-16  10th  RA Bill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KISH-16  </t>
+  </si>
+  <si>
+    <t>219/KISH-9  6th  RA Bill</t>
+  </si>
+  <si>
+    <t>225/KISH-21  1st  RA Bill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KISH-21  </t>
+  </si>
+  <si>
+    <t>232/HOBI-2  4th  RA Bill</t>
+  </si>
+  <si>
+    <t>HOBI-02</t>
+  </si>
+  <si>
+    <t>233/KISH-25  6th  RA Bill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUNM-02  </t>
+  </si>
+  <si>
+    <t>248/KISH-01  1st  RA Bill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KISH-01 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUNM-03 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">252/NETR-08 1st RA Bill </t>
+  </si>
+  <si>
+    <t>NETR-08</t>
+  </si>
+  <si>
+    <t>246/KISH-11  6th  RA Bill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KISH-11  </t>
+  </si>
+  <si>
+    <t>247/KISH-10  5th  RA Bill</t>
+  </si>
+  <si>
+    <t>245/KISH-6  12th  RA Bill</t>
+  </si>
+  <si>
+    <t>KISH-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">243/NETR-03 5th RA Bill </t>
+  </si>
+  <si>
+    <t xml:space="preserve">242/NETR-02 4th RA Bill </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NETR-02 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">241/NETR-01 5th RA Bill </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NETR-01 </t>
+  </si>
+  <si>
+    <t>240/HOBI-5  3rd RA Bill</t>
+  </si>
+  <si>
+    <t>HOBI-05</t>
+  </si>
+  <si>
+    <t>244/KISH-23  4th  RA Bill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KISH-23  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">255/NETR-06  6th RA Bill </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NETR-06  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">256/NETR-04  4th RA Bill </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NETR-04  </t>
+  </si>
+  <si>
+    <t>257/KISH-26  8th  RA Bill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KISH-26  </t>
+  </si>
+  <si>
+    <t>273/KISH-13  7th  RA Bill</t>
+  </si>
+  <si>
+    <t>351/KISH-21  2nd  RA Bill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KISH-21 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUNM-04  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUNM-01 </t>
+  </si>
+  <si>
+    <t>352/HOBI-4  5th RA Bill</t>
+  </si>
+  <si>
+    <t>HOBI-04</t>
+  </si>
+  <si>
+    <t>353/HOBI-5 4th RA Bill</t>
+  </si>
+  <si>
+    <t>346/KISH-14  9th  RA Bill</t>
+  </si>
+  <si>
+    <t>345/KISH-12  8th  RA Bill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KISH-12  </t>
+  </si>
+  <si>
+    <t>356/KISH-26  9th  RA Final Bill</t>
+  </si>
+  <si>
+    <t>355/HOBI-6 8th RA Bill</t>
+  </si>
+  <si>
+    <t>HOBI-06</t>
+  </si>
+  <si>
+    <t>344/HOBI-1  6th RA Bill</t>
+  </si>
+  <si>
+    <t>HOBI-01</t>
+  </si>
+  <si>
+    <t>354/HOBI-2  5th RA Bill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">370/NETR-04  5th RA Bill </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NETR-04 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">378/NETR-05  3rd RA Bill </t>
+  </si>
+  <si>
+    <t xml:space="preserve">369/NETR-08  2nd RA Bill </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NETR-08 </t>
+  </si>
+  <si>
+    <t>371/KISH-28  2nd  RA Bill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KISH-28  </t>
+  </si>
+  <si>
+    <t>361/KISH-20  5th  RA Bill</t>
+  </si>
+  <si>
+    <t>362/KISH-17  12th  RA Bill</t>
+  </si>
+  <si>
+    <t>KISH-17</t>
+  </si>
+  <si>
+    <t>360/KISH-16  11th  RA Bill</t>
+  </si>
+  <si>
+    <t>357/HOBI-7  5th RA Bill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HOBI-07 </t>
+  </si>
+  <si>
+    <t>375/KISH-04   6th/final RA Bill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KISH-04  </t>
+  </si>
+  <si>
+    <t>377/KISH-13  8th  RA Bill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KISH-13 </t>
+  </si>
+  <si>
+    <t>374/KISH-09  7th  RA Bill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KISH-09 </t>
+  </si>
+  <si>
+    <t>359/KISH-07  9th  RA Bill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KISH-07  </t>
+  </si>
+  <si>
+    <t>373/KISH-22  3rd  RA Bill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KISH-22  </t>
+  </si>
+  <si>
+    <t>372/KISH-25  7th  RA Bill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KISH-25  </t>
+  </si>
+  <si>
+    <t>363/KISH-24  8th/Final  RA Bill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KISH-24  </t>
+  </si>
+  <si>
+    <t>358/KISH-06  13th/Final  RA Bill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KISH-06  </t>
+  </si>
+  <si>
+    <t>364/KISH-02 7th  RA Bill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KISH-02 </t>
+  </si>
+  <si>
+    <t>376/KISH-23 5th  RA Bill</t>
+  </si>
+  <si>
+    <t>365/KISH-19  6th  RA Bill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KISH-19 </t>
+  </si>
+  <si>
+    <t>366/NETR-01  6th  RA Bill</t>
+  </si>
+  <si>
+    <t>367/NETR-02  5th  RA Bill</t>
+  </si>
+  <si>
+    <t>368/NETR-03  6th  RA Bill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NETR-03  </t>
   </si>
 </sst>
 </file>
@@ -640,7 +961,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -696,14 +1017,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -717,25 +1031,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2945,2366 +3275,3685 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R83"/>
+  <dimension ref="A1:S103"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.5703125" style="1" customWidth="1"/>
-    <col min="2" max="3" width="10.28515625" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" customWidth="1"/>
-    <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="6" max="8" width="10.28515625" customWidth="1"/>
-    <col min="9" max="9" width="15.7109375" customWidth="1"/>
-    <col min="10" max="12" width="10.28515625" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" customWidth="1"/>
-    <col min="14" max="15" width="16.42578125" customWidth="1"/>
-    <col min="16" max="16" width="15" customWidth="1"/>
-    <col min="18" max="18" width="24.28515625" customWidth="1"/>
+    <col min="2" max="2" width="49.42578125" style="1" customWidth="1"/>
+    <col min="3" max="4" width="10.28515625" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" customWidth="1"/>
+    <col min="6" max="6" width="15" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" customWidth="1"/>
+    <col min="12" max="12" width="10.28515625" customWidth="1"/>
+    <col min="13" max="13" width="14" customWidth="1"/>
+    <col min="14" max="14" width="10.28515625" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" customWidth="1"/>
+    <col min="16" max="17" width="16.42578125" customWidth="1"/>
+    <col min="18" max="18" width="15" customWidth="1"/>
+    <col min="19" max="19" width="24.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:18" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="C1" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="D1" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="E1" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="F1" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="G1" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="G1" s="29" t="s">
+      <c r="H1" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="H1" s="29" t="s">
+      <c r="I1" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="I1" s="29" t="s">
+      <c r="J1" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="J1" s="29" t="s">
+      <c r="K1" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="K1" s="29" t="s">
+      <c r="L1" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="L1" s="29" t="s">
+      <c r="M1" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="N1" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="29" t="s">
+      <c r="O1" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="N1" s="29" t="s">
+      <c r="P1" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="O1" s="22"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+      <c r="Q1" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="R1" s="31" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="29">
+        <v>1</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34">
+        <v>224805</v>
+      </c>
+      <c r="N2" s="34"/>
+      <c r="O2" s="35">
+        <v>28740</v>
+      </c>
+      <c r="P2" s="35">
+        <v>196065</v>
+      </c>
+      <c r="Q2" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="R2" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="29">
+        <v>2</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="34">
+        <v>2260946</v>
+      </c>
+      <c r="N3" s="34"/>
+      <c r="O3" s="35">
+        <v>237399</v>
+      </c>
+      <c r="P3" s="35">
+        <v>2023547</v>
+      </c>
+      <c r="Q3" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="R3" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="29">
+        <v>3</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="32">
+        <v>11767769.699999999</v>
+      </c>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="34"/>
+      <c r="O4" s="32">
+        <v>1548390.75</v>
+      </c>
+      <c r="P4" s="32">
+        <v>10838735.25</v>
+      </c>
+      <c r="Q4" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="R4" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="29">
+        <v>4</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>126</v>
+      </c>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34">
+        <v>831186</v>
+      </c>
+      <c r="N5" s="34"/>
+      <c r="O5" s="35">
+        <v>104719</v>
+      </c>
+      <c r="P5" s="35">
+        <v>726467</v>
+      </c>
+      <c r="Q5" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="R5" s="29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="29">
+        <v>5</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>127</v>
+      </c>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="34">
+        <v>12310799</v>
+      </c>
+      <c r="F6" s="35"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="34"/>
+      <c r="M6" s="34"/>
+      <c r="N6" s="34"/>
+      <c r="O6" s="34">
+        <v>1538850</v>
+      </c>
+      <c r="P6" s="34">
+        <v>10771949</v>
+      </c>
+      <c r="Q6" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="R6" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="29">
+        <v>6</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="34">
+        <v>11592350</v>
+      </c>
+      <c r="F7" s="35"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="34"/>
+      <c r="M7" s="34"/>
+      <c r="N7" s="34"/>
+      <c r="O7" s="34">
+        <v>1449044</v>
+      </c>
+      <c r="P7" s="34">
+        <v>10143306</v>
+      </c>
+      <c r="Q7" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="R7" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="29">
+        <v>7</v>
+      </c>
+      <c r="B8" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="32">
+        <v>3807686.27</v>
+      </c>
+      <c r="F8" s="34">
+        <v>2651098.73</v>
+      </c>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="34"/>
+      <c r="M8" s="34"/>
+      <c r="N8" s="34"/>
+      <c r="O8" s="32">
+        <v>807349</v>
+      </c>
+      <c r="P8" s="32">
+        <v>5651436</v>
+      </c>
+      <c r="Q8" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="R8" s="29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="29">
+        <v>8</v>
+      </c>
+      <c r="B9" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34">
+        <v>13531309</v>
+      </c>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="34"/>
+      <c r="M9" s="34"/>
+      <c r="N9" s="34"/>
+      <c r="O9" s="34">
+        <v>1691414</v>
+      </c>
+      <c r="P9" s="34">
+        <v>11839895</v>
+      </c>
+      <c r="Q9" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="R9" s="29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="29">
+        <v>9</v>
+      </c>
+      <c r="B10" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="C10" s="34">
+        <v>1030629.59</v>
+      </c>
+      <c r="D10" s="34"/>
+      <c r="E10" s="32">
+        <v>14040211.41</v>
+      </c>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="34"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="34"/>
+      <c r="N10" s="34"/>
+      <c r="O10" s="35">
+        <v>1883855</v>
+      </c>
+      <c r="P10" s="35">
+        <v>13186986</v>
+      </c>
+      <c r="Q10" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="R10" s="29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="29">
+        <v>10</v>
+      </c>
+      <c r="B11" s="32" t="s">
+        <v>136</v>
+      </c>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="32">
+        <v>5940195.3899999997</v>
+      </c>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="34">
+        <v>4930259.62</v>
+      </c>
+      <c r="K11" s="34"/>
+      <c r="L11" s="34"/>
+      <c r="M11" s="34"/>
+      <c r="N11" s="34"/>
+      <c r="O11" s="34">
+        <v>1358807</v>
+      </c>
+      <c r="P11" s="34">
+        <v>9511648</v>
+      </c>
+      <c r="Q11" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="R11" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="29">
+        <v>11</v>
+      </c>
+      <c r="B12" s="32" t="s">
+        <v>138</v>
+      </c>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="32">
+        <v>660021.52</v>
+      </c>
+      <c r="G12" s="35"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="32">
+        <v>547806.48</v>
+      </c>
+      <c r="K12" s="34"/>
+      <c r="L12" s="34"/>
+      <c r="M12" s="34"/>
+      <c r="N12" s="34"/>
+      <c r="O12" s="35">
+        <v>150979</v>
+      </c>
+      <c r="P12" s="35">
+        <v>1056849</v>
+      </c>
+      <c r="Q12" s="30" t="s">
+        <v>139</v>
+      </c>
+      <c r="R12" s="29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="29">
+        <v>12</v>
+      </c>
+      <c r="B13" s="32" t="s">
+        <v>140</v>
+      </c>
+      <c r="C13" s="32">
+        <v>5512499.8200000003</v>
+      </c>
+      <c r="D13" s="34"/>
+      <c r="E13" s="32">
+        <v>6900291.8300000001</v>
+      </c>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="32">
+        <v>6155723.3499999996</v>
+      </c>
+      <c r="K13" s="34"/>
+      <c r="L13" s="34"/>
+      <c r="M13" s="34"/>
+      <c r="N13" s="34"/>
+      <c r="O13" s="35">
+        <v>2321064</v>
+      </c>
+      <c r="P13" s="35">
+        <v>16247451</v>
+      </c>
+      <c r="Q13" s="30" t="s">
+        <v>141</v>
+      </c>
+      <c r="R13" s="29">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="29">
+        <v>13</v>
+      </c>
+      <c r="B14" s="32" t="s">
+        <v>142</v>
+      </c>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="32">
+        <v>4360515.01</v>
+      </c>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="32">
+        <v>4734271.99</v>
+      </c>
+      <c r="K14" s="34"/>
+      <c r="L14" s="34"/>
+      <c r="M14" s="34"/>
+      <c r="N14" s="34"/>
+      <c r="O14" s="35">
+        <v>1136848</v>
+      </c>
+      <c r="P14" s="35">
+        <v>7957939</v>
+      </c>
+      <c r="Q14" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="R14" s="29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="29">
+        <v>14</v>
+      </c>
+      <c r="B15" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="34">
+        <v>3214492</v>
+      </c>
+      <c r="F15" s="35"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="34"/>
+      <c r="K15" s="34"/>
+      <c r="L15" s="34"/>
+      <c r="M15" s="34"/>
+      <c r="N15" s="34"/>
+      <c r="O15" s="34">
+        <v>401812</v>
+      </c>
+      <c r="P15" s="34">
+        <v>2812680</v>
+      </c>
+      <c r="Q15" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="R15" s="29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="32">
+        <v>15</v>
+      </c>
+      <c r="B16" s="32" t="s">
+        <v>146</v>
+      </c>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="34">
+        <v>10040694</v>
+      </c>
+      <c r="F16" s="35"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="34"/>
+      <c r="K16" s="34"/>
+      <c r="L16" s="34"/>
+      <c r="M16" s="34"/>
+      <c r="N16" s="34"/>
+      <c r="O16" s="34">
+        <v>1255087</v>
+      </c>
+      <c r="P16" s="34">
+        <v>8785607</v>
+      </c>
+      <c r="Q16" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="R16" s="32">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17" s="29">
+        <v>16</v>
+      </c>
+      <c r="B17" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="34">
+        <v>0</v>
+      </c>
+      <c r="F17" s="34">
+        <v>12042332</v>
+      </c>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="34"/>
+      <c r="L17" s="34"/>
+      <c r="M17" s="34"/>
+      <c r="N17" s="34"/>
+      <c r="O17" s="34">
+        <v>1505304</v>
+      </c>
+      <c r="P17" s="34">
+        <v>10537128</v>
+      </c>
+      <c r="Q17" s="30" t="s">
+        <v>148</v>
+      </c>
+      <c r="R17" s="29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A18" s="29">
+        <v>17</v>
+      </c>
+      <c r="B18" s="32" t="s">
+        <v>149</v>
+      </c>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="34">
+        <v>7786053</v>
+      </c>
+      <c r="F18" s="35"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="34"/>
+      <c r="L18" s="34"/>
+      <c r="M18" s="34"/>
+      <c r="N18" s="34"/>
+      <c r="O18" s="34">
+        <v>973257</v>
+      </c>
+      <c r="P18" s="34">
+        <v>6812796</v>
+      </c>
+      <c r="Q18" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="R18" s="29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19" s="29">
+        <v>18</v>
+      </c>
+      <c r="B19" s="32" t="s">
+        <v>151</v>
+      </c>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="32">
+        <v>6244931.3099999996</v>
+      </c>
+      <c r="F19" s="32">
+        <v>5702443.6900000004</v>
+      </c>
+      <c r="G19" s="34"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="34"/>
+      <c r="K19" s="34"/>
+      <c r="L19" s="34"/>
+      <c r="M19" s="34"/>
+      <c r="N19" s="34"/>
+      <c r="O19" s="35">
+        <v>1493422</v>
+      </c>
+      <c r="P19" s="35">
+        <v>10453953</v>
+      </c>
+      <c r="Q19" s="30" t="s">
+        <v>152</v>
+      </c>
+      <c r="R19" s="29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A20" s="29">
+        <v>19</v>
+      </c>
+      <c r="B20" s="32" t="s">
+        <v>153</v>
+      </c>
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="34">
+        <v>4129593</v>
+      </c>
+      <c r="K20" s="34"/>
+      <c r="L20" s="34"/>
+      <c r="M20" s="34"/>
+      <c r="N20" s="34"/>
+      <c r="O20" s="34">
+        <v>516199</v>
+      </c>
+      <c r="P20" s="34">
+        <v>3613394</v>
+      </c>
+      <c r="Q20" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="R20" s="29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A21" s="29">
+        <v>20</v>
+      </c>
+      <c r="B21" s="32" t="s">
+        <v>155</v>
+      </c>
+      <c r="C21" s="34"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="34"/>
+      <c r="J21" s="34">
+        <v>3129025</v>
+      </c>
+      <c r="K21" s="34"/>
+      <c r="L21" s="34"/>
+      <c r="M21" s="34"/>
+      <c r="N21" s="34"/>
+      <c r="O21" s="34">
+        <v>391128</v>
+      </c>
+      <c r="P21" s="34">
+        <v>2737897</v>
+      </c>
+      <c r="Q21" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="R21" s="29">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A22" s="29">
+        <v>21</v>
+      </c>
+      <c r="B22" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30">
+      <c r="C22" s="36"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36">
         <v>10121557.060000001</v>
       </c>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="31">
+      <c r="F22" s="36"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="36"/>
+      <c r="J22" s="37">
         <v>9416806.852</v>
       </c>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="31">
+      <c r="K22" s="38"/>
+      <c r="L22" s="38"/>
+      <c r="M22" s="38"/>
+      <c r="N22" s="38"/>
+      <c r="O22" s="37">
         <v>2442296</v>
       </c>
-      <c r="N2" s="31">
+      <c r="P22" s="37">
         <v>17096068</v>
       </c>
-      <c r="O2" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="30" t="s">
+      <c r="Q22" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="R22" s="29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A23" s="29">
+        <v>22</v>
+      </c>
+      <c r="B23" s="36" t="s">
+        <v>157</v>
+      </c>
+      <c r="C23" s="36"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="37">
+        <v>4153902.9180000001</v>
+      </c>
+      <c r="K23" s="38"/>
+      <c r="L23" s="38"/>
+      <c r="M23" s="38"/>
+      <c r="N23" s="38"/>
+      <c r="O23" s="37">
+        <v>519238</v>
+      </c>
+      <c r="P23" s="37">
+        <v>3634665</v>
+      </c>
+      <c r="Q23" s="30" t="s">
+        <v>158</v>
+      </c>
+      <c r="R23" s="29">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A24" s="29">
+        <v>23</v>
+      </c>
+      <c r="B24" s="36" t="s">
+        <v>90</v>
+      </c>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="37">
+        <v>31435052</v>
+      </c>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="36"/>
+      <c r="K24" s="36"/>
+      <c r="L24" s="36"/>
+      <c r="M24" s="36"/>
+      <c r="N24" s="36"/>
+      <c r="O24" s="36">
+        <v>3929382</v>
+      </c>
+      <c r="P24" s="36">
+        <v>27505670</v>
+      </c>
+      <c r="Q24" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="R24" s="29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A25" s="29">
+        <v>24</v>
+      </c>
+      <c r="B25" s="36" t="s">
+        <v>159</v>
+      </c>
+      <c r="C25" s="36"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="36"/>
+      <c r="I25" s="36"/>
+      <c r="J25" s="36"/>
+      <c r="K25" s="36"/>
+      <c r="L25" s="36">
+        <v>7440653</v>
+      </c>
+      <c r="M25" s="36"/>
+      <c r="N25" s="36"/>
+      <c r="O25" s="36">
+        <v>930082</v>
+      </c>
+      <c r="P25" s="36">
+        <v>6510571</v>
+      </c>
+      <c r="Q25" s="30" t="s">
+        <v>160</v>
+      </c>
+      <c r="R25" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A26" s="29">
+        <v>25</v>
+      </c>
+      <c r="B26" s="36" t="s">
+        <v>161</v>
+      </c>
+      <c r="C26" s="36"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="36"/>
+      <c r="I26" s="36"/>
+      <c r="J26" s="36">
+        <v>8773225</v>
+      </c>
+      <c r="K26" s="36"/>
+      <c r="L26" s="36"/>
+      <c r="M26" s="36"/>
+      <c r="N26" s="36"/>
+      <c r="O26" s="36">
+        <v>1096659</v>
+      </c>
+      <c r="P26" s="36">
+        <v>7676616</v>
+      </c>
+      <c r="Q26" s="30" t="s">
+        <v>162</v>
+      </c>
+      <c r="R26" s="29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A27" s="29">
+        <v>26</v>
+      </c>
+      <c r="B27" s="36" t="s">
+        <v>163</v>
+      </c>
+      <c r="C27" s="36"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="36">
+        <v>967157.26999999955</v>
+      </c>
+      <c r="F27" s="36">
+        <v>7576934.0999999996</v>
+      </c>
+      <c r="G27" s="36"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="36"/>
+      <c r="J27" s="36"/>
+      <c r="K27" s="36"/>
+      <c r="L27" s="36"/>
+      <c r="M27" s="36"/>
+      <c r="N27" s="36"/>
+      <c r="O27" s="36">
+        <v>1068011</v>
+      </c>
+      <c r="P27" s="36">
+        <v>7476080</v>
+      </c>
+      <c r="Q27" s="30" t="s">
+        <v>164</v>
+      </c>
+      <c r="R27" s="29">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A28" s="29">
+        <v>27</v>
+      </c>
+      <c r="B28" s="36" t="s">
+        <v>165</v>
+      </c>
+      <c r="C28" s="36"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36">
+        <v>15300148.25</v>
+      </c>
+      <c r="F28" s="36"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="36"/>
+      <c r="J28" s="36">
+        <v>5002242.9400000004</v>
+      </c>
+      <c r="K28" s="36"/>
+      <c r="L28" s="36"/>
+      <c r="M28" s="36"/>
+      <c r="N28" s="36"/>
+      <c r="O28" s="36">
+        <v>2537799</v>
+      </c>
+      <c r="P28" s="36">
+        <v>17764592</v>
+      </c>
+      <c r="Q28" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="R28" s="29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A29" s="29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="36" t="s">
+        <v>166</v>
+      </c>
+      <c r="C29" s="36"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="36"/>
+      <c r="I29" s="36"/>
+      <c r="J29" s="36">
+        <v>6272429.75</v>
+      </c>
+      <c r="K29" s="36"/>
+      <c r="L29" s="36"/>
+      <c r="M29" s="36"/>
+      <c r="N29" s="36"/>
+      <c r="O29" s="36">
+        <v>784054</v>
+      </c>
+      <c r="P29" s="36">
+        <v>5488375</v>
+      </c>
+      <c r="Q29" s="30" t="s">
+        <v>167</v>
+      </c>
+      <c r="R29" s="29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A30" s="29">
+        <v>29</v>
+      </c>
+      <c r="B30" s="36" t="s">
+        <v>168</v>
+      </c>
+      <c r="C30" s="36"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="36">
+        <v>2376584.4930000007</v>
+      </c>
+      <c r="F30" s="36"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="36"/>
+      <c r="I30" s="36"/>
+      <c r="J30" s="36">
+        <v>5851260.3669999996</v>
+      </c>
+      <c r="K30" s="36"/>
+      <c r="L30" s="36"/>
+      <c r="M30" s="36"/>
+      <c r="N30" s="36"/>
+      <c r="O30" s="36">
+        <v>1028481</v>
+      </c>
+      <c r="P30" s="36">
+        <v>7199364</v>
+      </c>
+      <c r="Q30" s="30" t="s">
+        <v>169</v>
+      </c>
+      <c r="R30" s="29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A31" s="29">
+        <v>30</v>
+      </c>
+      <c r="B31" s="36" t="s">
+        <v>170</v>
+      </c>
+      <c r="C31" s="36"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="36">
+        <v>3951018.61</v>
+      </c>
+      <c r="F31" s="36">
+        <v>1303448.1200000001</v>
+      </c>
+      <c r="G31" s="36"/>
+      <c r="H31" s="36"/>
+      <c r="I31" s="36"/>
+      <c r="J31" s="36">
+        <v>3401350.1</v>
+      </c>
+      <c r="K31" s="36"/>
+      <c r="L31" s="36"/>
+      <c r="M31" s="36"/>
+      <c r="N31" s="36"/>
+      <c r="O31" s="36">
+        <v>1081977</v>
+      </c>
+      <c r="P31" s="36">
+        <v>7573840</v>
+      </c>
+      <c r="Q31" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="R31" s="29">
+        <v>2</v>
+      </c>
+      <c r="S31" s="1"/>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A32" s="29">
+        <v>31</v>
+      </c>
+      <c r="B32" s="36" t="s">
+        <v>171</v>
+      </c>
+      <c r="C32" s="36"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="36"/>
+      <c r="F32" s="36">
+        <v>5018209.87</v>
+      </c>
+      <c r="G32" s="36"/>
+      <c r="H32" s="36"/>
+      <c r="I32" s="36"/>
+      <c r="J32" s="36"/>
+      <c r="K32" s="36"/>
+      <c r="L32" s="36"/>
+      <c r="M32" s="36"/>
+      <c r="N32" s="36"/>
+      <c r="O32" s="36">
+        <v>627276</v>
+      </c>
+      <c r="P32" s="36">
+        <v>4390934</v>
+      </c>
+      <c r="Q32" s="30" t="s">
+        <v>172</v>
+      </c>
+      <c r="R32" s="29">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A33" s="29">
+        <v>32</v>
+      </c>
+      <c r="B33" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="C33" s="36"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="36">
+        <v>28440949.879999999</v>
+      </c>
+      <c r="G33" s="36"/>
+      <c r="H33" s="36"/>
+      <c r="I33" s="36"/>
+      <c r="J33" s="36"/>
+      <c r="K33" s="36"/>
+      <c r="L33" s="36"/>
+      <c r="M33" s="36"/>
+      <c r="N33" s="36"/>
+      <c r="O33" s="36">
+        <v>2930119</v>
+      </c>
+      <c r="P33" s="36">
+        <v>20510831</v>
+      </c>
+      <c r="Q33" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="R33" s="29">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A34" s="29">
+        <v>33</v>
+      </c>
+      <c r="B34" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="C34" s="36"/>
+      <c r="D34" s="36"/>
+      <c r="E34" s="36"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="36"/>
+      <c r="H34" s="36"/>
+      <c r="I34" s="36"/>
+      <c r="J34" s="36">
+        <v>11803695.960000001</v>
+      </c>
+      <c r="K34" s="36"/>
+      <c r="L34" s="36"/>
+      <c r="M34" s="36"/>
+      <c r="N34" s="36"/>
+      <c r="O34" s="36">
+        <v>1475462</v>
+      </c>
+      <c r="P34" s="36">
+        <v>10328234</v>
+      </c>
+      <c r="Q34" s="30" t="s">
+        <v>173</v>
+      </c>
+      <c r="R34" s="29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A35" s="29">
+        <v>34</v>
+      </c>
+      <c r="B35" s="36" t="s">
+        <v>174</v>
+      </c>
+      <c r="C35" s="36"/>
+      <c r="D35" s="36"/>
+      <c r="E35" s="36">
+        <v>3678989.3829999999</v>
+      </c>
+      <c r="F35" s="36">
+        <v>1997998.9920000001</v>
+      </c>
+      <c r="G35" s="36"/>
+      <c r="H35" s="36"/>
+      <c r="I35" s="36"/>
+      <c r="J35" s="36"/>
+      <c r="K35" s="36">
+        <v>24430.226999999999</v>
+      </c>
+      <c r="L35" s="36"/>
+      <c r="M35" s="36"/>
+      <c r="N35" s="36"/>
+      <c r="O35" s="36">
+        <v>712677</v>
+      </c>
+      <c r="P35" s="36">
+        <v>4988742</v>
+      </c>
+      <c r="Q35" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="R35" s="29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A36" s="32">
+        <v>35</v>
+      </c>
+      <c r="B36" s="36" t="s">
+        <v>175</v>
+      </c>
+      <c r="C36" s="36"/>
+      <c r="D36" s="36"/>
+      <c r="E36" s="36">
+        <v>764582</v>
+      </c>
+      <c r="F36" s="36"/>
+      <c r="G36" s="36"/>
+      <c r="H36" s="36"/>
+      <c r="I36" s="36"/>
+      <c r="J36" s="36">
+        <v>7622328.6999999993</v>
+      </c>
+      <c r="K36" s="36"/>
+      <c r="L36" s="36"/>
+      <c r="M36" s="36"/>
+      <c r="N36" s="36"/>
+      <c r="O36" s="36">
+        <v>1048364</v>
+      </c>
+      <c r="P36" s="36">
+        <v>7338547</v>
+      </c>
+      <c r="Q36" s="30" t="s">
+        <v>176</v>
+      </c>
+      <c r="R36" s="29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A37" s="29">
+        <v>36</v>
+      </c>
+      <c r="B37" s="36" t="s">
+        <v>177</v>
+      </c>
+      <c r="C37" s="36">
+        <v>4444197.7699999996</v>
+      </c>
+      <c r="D37" s="36"/>
+      <c r="E37" s="36">
+        <v>181114.16399999999</v>
+      </c>
+      <c r="F37" s="36"/>
+      <c r="G37" s="36"/>
+      <c r="H37" s="36"/>
+      <c r="I37" s="36"/>
+      <c r="J37" s="36"/>
+      <c r="K37" s="36"/>
+      <c r="L37" s="36"/>
+      <c r="M37" s="36"/>
+      <c r="N37" s="36"/>
+      <c r="O37" s="36">
+        <v>781917</v>
+      </c>
+      <c r="P37" s="36">
+        <v>5473421</v>
+      </c>
+      <c r="Q37" s="30" t="s">
+        <v>178</v>
+      </c>
+      <c r="R37" s="29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A38" s="29">
+        <v>37</v>
+      </c>
+      <c r="B38" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="31">
-        <v>4153902.9180000001</v>
-      </c>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="31">
-        <v>519238</v>
-      </c>
-      <c r="N3" s="31">
-        <v>3634665</v>
-      </c>
-      <c r="O3" s="25">
+      <c r="C38" s="36"/>
+      <c r="D38" s="36"/>
+      <c r="E38" s="36"/>
+      <c r="F38" s="36">
+        <v>28440949.879999999</v>
+      </c>
+      <c r="G38" s="36"/>
+      <c r="H38" s="36"/>
+      <c r="I38" s="36"/>
+      <c r="J38" s="36"/>
+      <c r="K38" s="36"/>
+      <c r="L38" s="36"/>
+      <c r="M38" s="36"/>
+      <c r="N38" s="36"/>
+      <c r="O38" s="36">
+        <v>625000</v>
+      </c>
+      <c r="P38" s="36">
+        <v>4375000</v>
+      </c>
+      <c r="Q38" s="30" t="s">
+        <v>179</v>
+      </c>
+      <c r="R38" s="29">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A39" s="29">
+        <v>38</v>
+      </c>
+      <c r="B39" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="C39" s="36"/>
+      <c r="D39" s="36"/>
+      <c r="E39" s="36">
+        <v>31061589.32</v>
+      </c>
+      <c r="F39" s="36"/>
+      <c r="G39" s="36"/>
+      <c r="H39" s="36"/>
+      <c r="I39" s="36"/>
+      <c r="J39" s="36"/>
+      <c r="K39" s="36"/>
+      <c r="L39" s="36"/>
+      <c r="M39" s="36"/>
+      <c r="N39" s="36"/>
+      <c r="O39" s="36">
+        <v>3882699</v>
+      </c>
+      <c r="P39" s="36">
+        <v>27178890</v>
+      </c>
+      <c r="Q39" s="30" t="s">
+        <v>180</v>
+      </c>
+      <c r="R39" s="29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A40" s="29">
+        <v>39</v>
+      </c>
+      <c r="B40" s="36" t="s">
+        <v>181</v>
+      </c>
+      <c r="C40" s="36"/>
+      <c r="D40" s="36"/>
+      <c r="E40" s="36">
+        <v>18143506.600000001</v>
+      </c>
+      <c r="F40" s="36"/>
+      <c r="G40" s="36"/>
+      <c r="H40" s="36"/>
+      <c r="I40" s="36"/>
+      <c r="J40" s="36">
+        <v>644634.19999999995</v>
+      </c>
+      <c r="K40" s="36"/>
+      <c r="L40" s="36"/>
+      <c r="M40" s="36"/>
+      <c r="N40" s="36"/>
+      <c r="O40" s="36">
+        <v>2348518</v>
+      </c>
+      <c r="P40" s="36">
+        <v>16439623</v>
+      </c>
+      <c r="Q40" s="30" t="s">
+        <v>182</v>
+      </c>
+      <c r="R40" s="29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A41" s="29">
+        <v>40</v>
+      </c>
+      <c r="B41" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="C41" s="36"/>
+      <c r="D41" s="36"/>
+      <c r="E41" s="36"/>
+      <c r="F41" s="36">
+        <v>35010947</v>
+      </c>
+      <c r="G41" s="36"/>
+      <c r="H41" s="36"/>
+      <c r="I41" s="36"/>
+      <c r="J41" s="36"/>
+      <c r="K41" s="36"/>
+      <c r="L41" s="36"/>
+      <c r="M41" s="36"/>
+      <c r="N41" s="36"/>
+      <c r="O41" s="36">
+        <v>4376368</v>
+      </c>
+      <c r="P41" s="36">
+        <v>30634579</v>
+      </c>
+      <c r="Q41" s="30" t="s">
+        <v>183</v>
+      </c>
+      <c r="R41" s="29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A42" s="29">
+        <v>41</v>
+      </c>
+      <c r="B42" s="36" t="s">
+        <v>184</v>
+      </c>
+      <c r="C42" s="36"/>
+      <c r="D42" s="36"/>
+      <c r="E42" s="36"/>
+      <c r="F42" s="36">
+        <v>9000456.8900000006</v>
+      </c>
+      <c r="G42" s="36"/>
+      <c r="H42" s="36"/>
+      <c r="I42" s="36"/>
+      <c r="J42" s="36"/>
+      <c r="K42" s="36"/>
+      <c r="L42" s="36"/>
+      <c r="M42" s="36"/>
+      <c r="N42" s="36"/>
+      <c r="O42" s="36">
+        <v>1125057</v>
+      </c>
+      <c r="P42" s="36">
+        <v>7875399</v>
+      </c>
+      <c r="Q42" s="30" t="s">
+        <v>172</v>
+      </c>
+      <c r="R42" s="29">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A43" s="29">
+        <v>42</v>
+      </c>
+      <c r="B43" s="36" t="s">
+        <v>185</v>
+      </c>
+      <c r="C43" s="36"/>
+      <c r="D43" s="36"/>
+      <c r="E43" s="36"/>
+      <c r="F43" s="36"/>
+      <c r="G43" s="36"/>
+      <c r="H43" s="36"/>
+      <c r="I43" s="36"/>
+      <c r="J43" s="36">
+        <v>6195501.8360000001</v>
+      </c>
+      <c r="K43" s="36"/>
+      <c r="L43" s="36"/>
+      <c r="M43" s="36"/>
+      <c r="N43" s="36"/>
+      <c r="O43" s="36">
+        <v>774438</v>
+      </c>
+      <c r="P43" s="36">
+        <v>5421064</v>
+      </c>
+      <c r="Q43" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="R43" s="29">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A44" s="29">
+        <v>43</v>
+      </c>
+      <c r="B44" s="36" t="s">
+        <v>187</v>
+      </c>
+      <c r="C44" s="36">
+        <v>2677161.36</v>
+      </c>
+      <c r="D44" s="36"/>
+      <c r="E44" s="36">
+        <v>6396151.4699999997</v>
+      </c>
+      <c r="F44" s="36"/>
+      <c r="G44" s="36"/>
+      <c r="H44" s="36"/>
+      <c r="I44" s="36"/>
+      <c r="J44" s="36">
+        <v>686638.29</v>
+      </c>
+      <c r="K44" s="36"/>
+      <c r="L44" s="36"/>
+      <c r="M44" s="36"/>
+      <c r="N44" s="36"/>
+      <c r="O44" s="36">
+        <v>1181215</v>
+      </c>
+      <c r="P44" s="36">
+        <v>8268502</v>
+      </c>
+      <c r="Q44" s="30" t="s">
+        <v>141</v>
+      </c>
+      <c r="R44" s="29">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A45" s="29">
+        <v>44</v>
+      </c>
+      <c r="B45" s="36" t="s">
+        <v>188</v>
+      </c>
+      <c r="C45" s="36"/>
+      <c r="D45" s="36"/>
+      <c r="E45" s="36">
+        <v>333327.88400000002</v>
+      </c>
+      <c r="F45" s="36"/>
+      <c r="G45" s="36"/>
+      <c r="H45" s="36"/>
+      <c r="I45" s="36"/>
+      <c r="J45" s="36">
+        <v>4060359.2289999998</v>
+      </c>
+      <c r="K45" s="36"/>
+      <c r="L45" s="36"/>
+      <c r="M45" s="36"/>
+      <c r="N45" s="36"/>
+      <c r="O45" s="36">
+        <v>549211</v>
+      </c>
+      <c r="P45" s="36">
+        <v>3844476</v>
+      </c>
+      <c r="Q45" s="30" t="s">
+        <v>189</v>
+      </c>
+      <c r="R45" s="29">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A46" s="29">
+        <v>45</v>
+      </c>
+      <c r="B46" s="36" t="s">
+        <v>190</v>
+      </c>
+      <c r="C46" s="36"/>
+      <c r="D46" s="36"/>
+      <c r="E46" s="36"/>
+      <c r="F46" s="36"/>
+      <c r="G46" s="36"/>
+      <c r="H46" s="36"/>
+      <c r="I46" s="36"/>
+      <c r="J46" s="36">
+        <v>2275479</v>
+      </c>
+      <c r="K46" s="36"/>
+      <c r="L46" s="36"/>
+      <c r="M46" s="36"/>
+      <c r="N46" s="36"/>
+      <c r="O46" s="36">
+        <v>284435</v>
+      </c>
+      <c r="P46" s="36">
+        <v>1991044</v>
+      </c>
+      <c r="Q46" s="30" t="s">
+        <v>191</v>
+      </c>
+      <c r="R46" s="29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A47" s="29">
+        <v>46</v>
+      </c>
+      <c r="B47" s="36" t="s">
+        <v>192</v>
+      </c>
+      <c r="C47" s="36"/>
+      <c r="D47" s="36"/>
+      <c r="E47" s="36">
+        <v>8581506.1300000008</v>
+      </c>
+      <c r="F47" s="36"/>
+      <c r="G47" s="36"/>
+      <c r="H47" s="36"/>
+      <c r="I47" s="36"/>
+      <c r="J47" s="36"/>
+      <c r="K47" s="36"/>
+      <c r="L47" s="36"/>
+      <c r="M47" s="36"/>
+      <c r="N47" s="36"/>
+      <c r="O47" s="36">
+        <v>1072688</v>
+      </c>
+      <c r="P47" s="36">
+        <v>7508818</v>
+      </c>
+      <c r="Q47" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="R47" s="29">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A48" s="29">
+        <v>47</v>
+      </c>
+      <c r="B48" s="36" t="s">
+        <v>193</v>
+      </c>
+      <c r="C48" s="36"/>
+      <c r="D48" s="36"/>
+      <c r="E48" s="36"/>
+      <c r="F48" s="36"/>
+      <c r="G48" s="36"/>
+      <c r="H48" s="36"/>
+      <c r="I48" s="36"/>
+      <c r="J48" s="36">
+        <v>19139634.739999998</v>
+      </c>
+      <c r="K48" s="36"/>
+      <c r="L48" s="36"/>
+      <c r="M48" s="36"/>
+      <c r="N48" s="36"/>
+      <c r="O48" s="36">
+        <v>2392454</v>
+      </c>
+      <c r="P48" s="36">
+        <v>16747181</v>
+      </c>
+      <c r="Q48" s="30" t="s">
+        <v>194</v>
+      </c>
+      <c r="R48" s="29">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="30" t="s">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A49" s="29">
+        <v>48</v>
+      </c>
+      <c r="B49" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="C49" s="36"/>
+      <c r="D49" s="36"/>
+      <c r="E49" s="36">
+        <v>52195699.359999999</v>
+      </c>
+      <c r="F49" s="36"/>
+      <c r="G49" s="36"/>
+      <c r="H49" s="36"/>
+      <c r="I49" s="36"/>
+      <c r="J49" s="36"/>
+      <c r="K49" s="36"/>
+      <c r="L49" s="36"/>
+      <c r="M49" s="36"/>
+      <c r="N49" s="36"/>
+      <c r="O49" s="36">
+        <v>6524462</v>
+      </c>
+      <c r="P49" s="36">
+        <v>45671237</v>
+      </c>
+      <c r="Q49" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="R49" s="29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A50" s="29">
+        <v>49</v>
+      </c>
+      <c r="B50" s="36" t="s">
+        <v>195</v>
+      </c>
+      <c r="C50" s="36"/>
+      <c r="D50" s="36"/>
+      <c r="E50" s="36">
+        <v>14453370.689999998</v>
+      </c>
+      <c r="F50" s="36"/>
+      <c r="G50" s="36"/>
+      <c r="H50" s="36"/>
+      <c r="I50" s="36"/>
+      <c r="J50" s="36">
+        <v>6619216.5499999998</v>
+      </c>
+      <c r="K50" s="36"/>
+      <c r="L50" s="36"/>
+      <c r="M50" s="36"/>
+      <c r="N50" s="36"/>
+      <c r="O50" s="36">
+        <v>2571157</v>
+      </c>
+      <c r="P50" s="36">
+        <v>17998099</v>
+      </c>
+      <c r="Q50" s="30" t="s">
+        <v>196</v>
+      </c>
+      <c r="R50" s="29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A51" s="29">
+        <v>50</v>
+      </c>
+      <c r="B51" s="36" t="s">
+        <v>197</v>
+      </c>
+      <c r="C51" s="36"/>
+      <c r="D51" s="36"/>
+      <c r="E51" s="36"/>
+      <c r="F51" s="36">
+        <v>1017606.69</v>
+      </c>
+      <c r="G51" s="36"/>
+      <c r="H51" s="36"/>
+      <c r="I51" s="36"/>
+      <c r="J51" s="36">
+        <v>5862363.6399999997</v>
+      </c>
+      <c r="K51" s="36"/>
+      <c r="L51" s="36"/>
+      <c r="M51" s="36"/>
+      <c r="N51" s="36"/>
+      <c r="O51" s="36">
+        <v>687997</v>
+      </c>
+      <c r="P51" s="36">
+        <v>4815979</v>
+      </c>
+      <c r="Q51" s="30" t="s">
+        <v>152</v>
+      </c>
+      <c r="R51" s="29">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A52" s="29">
+        <v>51</v>
+      </c>
+      <c r="B52" s="36" t="s">
+        <v>97</v>
+      </c>
+      <c r="C52" s="36"/>
+      <c r="D52" s="36"/>
+      <c r="E52" s="36"/>
+      <c r="F52" s="36">
+        <v>30565887.629999999</v>
+      </c>
+      <c r="G52" s="36"/>
+      <c r="H52" s="36"/>
+      <c r="I52" s="36"/>
+      <c r="J52" s="36"/>
+      <c r="K52" s="36"/>
+      <c r="L52" s="36"/>
+      <c r="M52" s="36"/>
+      <c r="N52" s="36"/>
+      <c r="O52" s="36">
+        <v>3820736</v>
+      </c>
+      <c r="P52" s="36">
+        <v>26745152</v>
+      </c>
+      <c r="Q52" s="30" t="s">
+        <v>198</v>
+      </c>
+      <c r="R52" s="29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A53" s="29">
+        <v>52</v>
+      </c>
+      <c r="B53" s="36" t="s">
+        <v>199</v>
+      </c>
+      <c r="C53" s="36"/>
+      <c r="D53" s="36"/>
+      <c r="E53" s="36"/>
+      <c r="F53" s="36"/>
+      <c r="G53" s="36">
+        <v>5108675.07</v>
+      </c>
+      <c r="H53" s="36"/>
+      <c r="I53" s="36"/>
+      <c r="J53" s="36"/>
+      <c r="K53" s="36"/>
+      <c r="L53" s="36"/>
+      <c r="M53" s="36"/>
+      <c r="N53" s="36"/>
+      <c r="O53" s="36">
+        <v>638585</v>
+      </c>
+      <c r="P53" s="36">
+        <v>4470090</v>
+      </c>
+      <c r="Q53" s="30" t="s">
+        <v>200</v>
+      </c>
+      <c r="R53" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A54" s="29">
+        <v>53</v>
+      </c>
+      <c r="B54" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="C54" s="36"/>
+      <c r="D54" s="36"/>
+      <c r="E54" s="36">
+        <v>19919089.84</v>
+      </c>
+      <c r="F54" s="36"/>
+      <c r="G54" s="36"/>
+      <c r="H54" s="36"/>
+      <c r="I54" s="36"/>
+      <c r="J54" s="36"/>
+      <c r="K54" s="36"/>
+      <c r="L54" s="36"/>
+      <c r="M54" s="36"/>
+      <c r="N54" s="36"/>
+      <c r="O54" s="36">
+        <v>2489886</v>
+      </c>
+      <c r="P54" s="36">
+        <v>17429204</v>
+      </c>
+      <c r="Q54" s="30" t="s">
+        <v>201</v>
+      </c>
+      <c r="R54" s="29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A55" s="29">
+        <v>54</v>
+      </c>
+      <c r="B55" s="36" t="s">
+        <v>202</v>
+      </c>
+      <c r="C55" s="36"/>
+      <c r="D55" s="36"/>
+      <c r="E55" s="36">
+        <v>10607590.279999999</v>
+      </c>
+      <c r="F55" s="36"/>
+      <c r="G55" s="36"/>
+      <c r="H55" s="36"/>
+      <c r="I55" s="36"/>
+      <c r="J55" s="36"/>
+      <c r="K55" s="36"/>
+      <c r="L55" s="36"/>
+      <c r="M55" s="36"/>
+      <c r="N55" s="36"/>
+      <c r="O55" s="36">
+        <v>1325949</v>
+      </c>
+      <c r="P55" s="36">
+        <v>9281641</v>
+      </c>
+      <c r="Q55" s="30" t="s">
+        <v>203</v>
+      </c>
+      <c r="R55" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A56" s="29">
+        <v>55</v>
+      </c>
+      <c r="B56" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="C56" s="36"/>
+      <c r="D56" s="36"/>
+      <c r="E56" s="36"/>
+      <c r="F56" s="36"/>
+      <c r="G56" s="36"/>
+      <c r="H56" s="36"/>
+      <c r="I56" s="36"/>
+      <c r="J56" s="36">
+        <v>21924820</v>
+      </c>
+      <c r="K56" s="36"/>
+      <c r="L56" s="36"/>
+      <c r="M56" s="36"/>
+      <c r="N56" s="36"/>
+      <c r="O56" s="36">
+        <v>2740603</v>
+      </c>
+      <c r="P56" s="36">
+        <v>19184217</v>
+      </c>
+      <c r="Q56" s="30" t="s">
+        <v>173</v>
+      </c>
+      <c r="R56" s="29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A57" s="29">
+        <v>56</v>
+      </c>
+      <c r="B57" s="36" t="s">
+        <v>204</v>
+      </c>
+      <c r="C57" s="36"/>
+      <c r="D57" s="36"/>
+      <c r="E57" s="36"/>
+      <c r="F57" s="36"/>
+      <c r="G57" s="36"/>
+      <c r="H57" s="36"/>
+      <c r="I57" s="36"/>
+      <c r="J57" s="36"/>
+      <c r="K57" s="36">
+        <v>3582351.46</v>
+      </c>
+      <c r="L57" s="36"/>
+      <c r="M57" s="36"/>
+      <c r="N57" s="36"/>
+      <c r="O57" s="36">
+        <v>447794</v>
+      </c>
+      <c r="P57" s="36">
+        <v>3134557</v>
+      </c>
+      <c r="Q57" s="30" t="s">
+        <v>205</v>
+      </c>
+      <c r="R57" s="29">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A58" s="29">
+        <v>57</v>
+      </c>
+      <c r="B58" s="36" t="s">
+        <v>206</v>
+      </c>
+      <c r="C58" s="36"/>
+      <c r="D58" s="36"/>
+      <c r="E58" s="36"/>
+      <c r="F58" s="36"/>
+      <c r="G58" s="36"/>
+      <c r="H58" s="36"/>
+      <c r="I58" s="36"/>
+      <c r="J58" s="36">
+        <v>3940433.72</v>
+      </c>
+      <c r="K58" s="36">
+        <v>3457479.39</v>
+      </c>
+      <c r="L58" s="36"/>
+      <c r="M58" s="36"/>
+      <c r="N58" s="36"/>
+      <c r="O58" s="36">
+        <v>924739</v>
+      </c>
+      <c r="P58" s="36">
+        <v>6473174</v>
+      </c>
+      <c r="Q58" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="R58" s="29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A59" s="29">
+        <v>58</v>
+      </c>
+      <c r="B59" s="36" t="s">
+        <v>207</v>
+      </c>
+      <c r="C59" s="36"/>
+      <c r="D59" s="36"/>
+      <c r="E59" s="36"/>
+      <c r="F59" s="36">
+        <v>3785875.06</v>
+      </c>
+      <c r="G59" s="36"/>
+      <c r="H59" s="36"/>
+      <c r="I59" s="36"/>
+      <c r="J59" s="36"/>
+      <c r="K59" s="36"/>
+      <c r="L59" s="36"/>
+      <c r="M59" s="36"/>
+      <c r="N59" s="36"/>
+      <c r="O59" s="36">
+        <v>473234</v>
+      </c>
+      <c r="P59" s="36">
+        <v>3312641</v>
+      </c>
+      <c r="Q59" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="R59" s="29">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A60" s="29">
+        <v>59</v>
+      </c>
+      <c r="B60" s="36" t="s">
+        <v>209</v>
+      </c>
+      <c r="C60" s="36"/>
+      <c r="D60" s="36"/>
+      <c r="E60" s="36"/>
+      <c r="F60" s="36"/>
+      <c r="G60" s="36"/>
+      <c r="H60" s="36"/>
+      <c r="I60" s="36"/>
+      <c r="J60" s="36">
+        <v>10106760.09</v>
+      </c>
+      <c r="K60" s="36"/>
+      <c r="L60" s="36"/>
+      <c r="M60" s="36"/>
+      <c r="N60" s="36"/>
+      <c r="O60" s="36">
+        <v>1263345</v>
+      </c>
+      <c r="P60" s="36">
+        <v>8843415</v>
+      </c>
+      <c r="Q60" s="30" t="s">
+        <v>169</v>
+      </c>
+      <c r="R60" s="29">
+        <v>5</v>
+      </c>
+      <c r="S60" s="10"/>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A61" s="29">
+        <v>60</v>
+      </c>
+      <c r="B61" s="36" t="s">
+        <v>210</v>
+      </c>
+      <c r="C61" s="36"/>
+      <c r="D61" s="36"/>
+      <c r="E61" s="36"/>
+      <c r="F61" s="36"/>
+      <c r="G61" s="36">
+        <v>9265078.2200000007</v>
+      </c>
+      <c r="H61" s="36"/>
+      <c r="I61" s="36"/>
+      <c r="J61" s="36"/>
+      <c r="K61" s="36"/>
+      <c r="L61" s="36"/>
+      <c r="M61" s="36"/>
+      <c r="N61" s="36"/>
+      <c r="O61" s="36">
+        <v>1158135</v>
+      </c>
+      <c r="P61" s="36">
+        <v>8106943</v>
+      </c>
+      <c r="Q61" s="30" t="s">
+        <v>211</v>
+      </c>
+      <c r="R61" s="29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A62" s="29">
+        <v>61</v>
+      </c>
+      <c r="B62" s="36" t="s">
+        <v>212</v>
+      </c>
+      <c r="C62" s="36"/>
+      <c r="D62" s="36"/>
+      <c r="E62" s="36"/>
+      <c r="F62" s="36"/>
+      <c r="G62" s="36"/>
+      <c r="H62" s="36">
+        <v>1181164.51</v>
+      </c>
+      <c r="I62" s="36"/>
+      <c r="J62" s="36"/>
+      <c r="K62" s="36"/>
+      <c r="L62" s="36"/>
+      <c r="M62" s="36"/>
+      <c r="N62" s="36"/>
+      <c r="O62" s="36">
+        <v>1476471</v>
+      </c>
+      <c r="P62" s="36">
+        <v>10335294</v>
+      </c>
+      <c r="Q62" s="30" t="s">
+        <v>213</v>
+      </c>
+      <c r="R62" s="29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A63" s="29">
+        <v>62</v>
+      </c>
+      <c r="B63" s="36" t="s">
+        <v>214</v>
+      </c>
+      <c r="C63" s="36"/>
+      <c r="D63" s="36"/>
+      <c r="E63" s="36"/>
+      <c r="F63" s="36"/>
+      <c r="G63" s="36"/>
+      <c r="H63" s="36"/>
+      <c r="I63" s="36"/>
+      <c r="J63" s="36"/>
+      <c r="K63" s="36">
+        <v>3421028.06</v>
+      </c>
+      <c r="L63" s="36"/>
+      <c r="M63" s="36"/>
+      <c r="N63" s="36"/>
+      <c r="O63" s="36">
+        <v>427629</v>
+      </c>
+      <c r="P63" s="36">
+        <v>2993399</v>
+      </c>
+      <c r="Q63" s="30" t="s">
+        <v>215</v>
+      </c>
+      <c r="R63" s="29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A64" s="29">
+        <v>63</v>
+      </c>
+      <c r="B64" s="36" t="s">
+        <v>216</v>
+      </c>
+      <c r="C64" s="36"/>
+      <c r="D64" s="36"/>
+      <c r="E64" s="36">
+        <v>10902577.68</v>
+      </c>
+      <c r="F64" s="36"/>
+      <c r="G64" s="36"/>
+      <c r="H64" s="36"/>
+      <c r="I64" s="36"/>
+      <c r="J64" s="36">
+        <v>3276311.75</v>
+      </c>
+      <c r="K64" s="36"/>
+      <c r="L64" s="36"/>
+      <c r="M64" s="36"/>
+      <c r="N64" s="36"/>
+      <c r="O64" s="36">
+        <v>1772361</v>
+      </c>
+      <c r="P64" s="36">
+        <v>12406528</v>
+      </c>
+      <c r="Q64" s="30" t="s">
+        <v>217</v>
+      </c>
+      <c r="R64" s="29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A65" s="29">
+        <v>64</v>
+      </c>
+      <c r="B65" s="36" t="s">
+        <v>218</v>
+      </c>
+      <c r="C65" s="36"/>
+      <c r="D65" s="36">
+        <v>247168.51</v>
+      </c>
+      <c r="E65" s="36">
+        <v>1774035.071</v>
+      </c>
+      <c r="F65" s="36">
+        <v>356391.45</v>
+      </c>
+      <c r="G65" s="36"/>
+      <c r="H65" s="36"/>
+      <c r="I65" s="36"/>
+      <c r="J65" s="36"/>
+      <c r="K65" s="36"/>
+      <c r="L65" s="36"/>
+      <c r="M65" s="36"/>
+      <c r="N65" s="36"/>
+      <c r="O65" s="36">
+        <v>297199</v>
+      </c>
+      <c r="P65" s="36">
+        <v>2080396</v>
+      </c>
+      <c r="Q65" s="30" t="s">
+        <v>219</v>
+      </c>
+      <c r="R65" s="29">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A66" s="29">
+        <v>65</v>
+      </c>
+      <c r="B66" s="36" t="s">
+        <v>220</v>
+      </c>
+      <c r="C66" s="36"/>
+      <c r="D66" s="36"/>
+      <c r="E66" s="36"/>
+      <c r="F66" s="36"/>
+      <c r="G66" s="36">
+        <v>18663800.670000002</v>
+      </c>
+      <c r="H66" s="36">
+        <v>4842188.09</v>
+      </c>
+      <c r="I66" s="36"/>
+      <c r="J66" s="36"/>
+      <c r="K66" s="36"/>
+      <c r="L66" s="36"/>
+      <c r="M66" s="36"/>
+      <c r="N66" s="36"/>
+      <c r="O66" s="36">
+        <v>2938249</v>
+      </c>
+      <c r="P66" s="36">
+        <v>20567740</v>
+      </c>
+      <c r="Q66" s="30" t="s">
+        <v>221</v>
+      </c>
+      <c r="R66" s="29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A67" s="29">
+        <v>66</v>
+      </c>
+      <c r="B67" s="36" t="s">
+        <v>222</v>
+      </c>
+      <c r="C67" s="36"/>
+      <c r="D67" s="36"/>
+      <c r="E67" s="36"/>
+      <c r="F67" s="36">
+        <v>9480354.0999999996</v>
+      </c>
+      <c r="G67" s="36"/>
+      <c r="H67" s="36"/>
+      <c r="I67" s="36"/>
+      <c r="J67" s="36">
+        <v>477480.29</v>
+      </c>
+      <c r="K67" s="36"/>
+      <c r="L67" s="36"/>
+      <c r="M67" s="36"/>
+      <c r="N67" s="36"/>
+      <c r="O67" s="36">
+        <v>1244729</v>
+      </c>
+      <c r="P67" s="36">
+        <v>8713105</v>
+      </c>
+      <c r="Q67" s="30" t="s">
+        <v>223</v>
+      </c>
+      <c r="R67" s="29">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A68" s="29">
+        <v>67</v>
+      </c>
+      <c r="B68" s="36" t="s">
+        <v>224</v>
+      </c>
+      <c r="C68" s="36"/>
+      <c r="D68" s="36"/>
+      <c r="E68" s="36"/>
+      <c r="F68" s="36"/>
+      <c r="G68" s="36"/>
+      <c r="H68" s="36"/>
+      <c r="I68" s="36"/>
+      <c r="J68" s="36">
+        <v>7682708.75</v>
+      </c>
+      <c r="K68" s="36"/>
+      <c r="L68" s="36"/>
+      <c r="M68" s="36"/>
+      <c r="N68" s="36"/>
+      <c r="O68" s="36">
+        <v>960339</v>
+      </c>
+      <c r="P68" s="36">
+        <v>6722370</v>
+      </c>
+      <c r="Q68" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="R68" s="29">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A69" s="29">
+        <v>68</v>
+      </c>
+      <c r="B69" s="36" t="s">
+        <v>100</v>
+      </c>
+      <c r="C69" s="36"/>
+      <c r="D69" s="36"/>
+      <c r="E69" s="36"/>
+      <c r="F69" s="36">
+        <v>16117256.970000001</v>
+      </c>
+      <c r="G69" s="36"/>
+      <c r="H69" s="36"/>
+      <c r="I69" s="36"/>
+      <c r="J69" s="36"/>
+      <c r="K69" s="36"/>
+      <c r="L69" s="36"/>
+      <c r="M69" s="36"/>
+      <c r="N69" s="36"/>
+      <c r="O69" s="36">
+        <v>2014657</v>
+      </c>
+      <c r="P69" s="36">
+        <v>14102600</v>
+      </c>
+      <c r="Q69" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="R69" s="29">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A70" s="29">
+        <v>69</v>
+      </c>
+      <c r="B70" s="36" t="s">
+        <v>225</v>
+      </c>
+      <c r="C70" s="36"/>
+      <c r="D70" s="36"/>
+      <c r="E70" s="36"/>
+      <c r="F70" s="36"/>
+      <c r="G70" s="36"/>
+      <c r="H70" s="36"/>
+      <c r="I70" s="36"/>
+      <c r="J70" s="36">
+        <v>7683514.4699999997</v>
+      </c>
+      <c r="K70" s="36"/>
+      <c r="L70" s="36"/>
+      <c r="M70" s="36"/>
+      <c r="N70" s="36"/>
+      <c r="O70" s="36">
+        <v>960439</v>
+      </c>
+      <c r="P70" s="36">
+        <v>6723075</v>
+      </c>
+      <c r="Q70" s="30" t="s">
+        <v>226</v>
+      </c>
+      <c r="R70" s="29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A71" s="29">
+        <v>70</v>
+      </c>
+      <c r="B71" s="36" t="s">
+        <v>101</v>
+      </c>
+      <c r="C71" s="36"/>
+      <c r="D71" s="36"/>
+      <c r="E71" s="36"/>
+      <c r="F71" s="36"/>
+      <c r="G71" s="36"/>
+      <c r="H71" s="36"/>
+      <c r="I71" s="36"/>
+      <c r="J71" s="36">
+        <v>14652108</v>
+      </c>
+      <c r="K71" s="36"/>
+      <c r="L71" s="36"/>
+      <c r="M71" s="36"/>
+      <c r="N71" s="36"/>
+      <c r="O71" s="36">
+        <v>1831514</v>
+      </c>
+      <c r="P71" s="36">
+        <v>12820594</v>
+      </c>
+      <c r="Q71" s="30" t="s">
+        <v>227</v>
+      </c>
+      <c r="R71" s="29">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A72" s="29">
+        <v>71</v>
+      </c>
+      <c r="B72" s="36" t="s">
+        <v>102</v>
+      </c>
+      <c r="C72" s="36"/>
+      <c r="D72" s="36"/>
+      <c r="E72" s="36">
+        <v>10164437.199999999</v>
+      </c>
+      <c r="F72" s="36"/>
+      <c r="G72" s="36"/>
+      <c r="H72" s="36"/>
+      <c r="I72" s="36"/>
+      <c r="J72" s="36"/>
+      <c r="K72" s="36"/>
+      <c r="L72" s="36"/>
+      <c r="M72" s="36"/>
+      <c r="N72" s="36"/>
+      <c r="O72" s="36">
+        <v>1270555</v>
+      </c>
+      <c r="P72" s="36">
+        <v>8893882</v>
+      </c>
+      <c r="Q72" s="30" t="s">
+        <v>180</v>
+      </c>
+      <c r="R72" s="29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A73" s="29">
+        <v>72</v>
+      </c>
+      <c r="B73" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="C73" s="36"/>
+      <c r="D73" s="36"/>
+      <c r="E73" s="36">
+        <v>9258302.8699999992</v>
+      </c>
+      <c r="F73" s="36"/>
+      <c r="G73" s="36"/>
+      <c r="H73" s="36"/>
+      <c r="I73" s="36"/>
+      <c r="J73" s="36">
+        <v>544818.16</v>
+      </c>
+      <c r="K73" s="36">
+        <v>203113.3</v>
+      </c>
+      <c r="L73" s="36"/>
+      <c r="M73" s="36"/>
+      <c r="N73" s="36"/>
+      <c r="O73" s="36">
+        <v>1250779</v>
+      </c>
+      <c r="P73" s="36">
+        <v>8755455</v>
+      </c>
+      <c r="Q73" s="30" t="s">
+        <v>228</v>
+      </c>
+      <c r="R73" s="29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A74" s="29">
+        <v>73</v>
+      </c>
+      <c r="B74" s="36" t="s">
+        <v>229</v>
+      </c>
+      <c r="C74" s="36"/>
+      <c r="D74" s="36"/>
+      <c r="E74" s="36"/>
+      <c r="F74" s="36"/>
+      <c r="G74" s="36"/>
+      <c r="H74" s="36"/>
+      <c r="I74" s="36"/>
+      <c r="J74" s="36">
+        <v>2918327.09</v>
+      </c>
+      <c r="K74" s="36"/>
+      <c r="L74" s="36"/>
+      <c r="M74" s="36"/>
+      <c r="N74" s="36"/>
+      <c r="O74" s="36">
+        <v>364791</v>
+      </c>
+      <c r="P74" s="36">
+        <v>2553536</v>
+      </c>
+      <c r="Q74" s="30" t="s">
+        <v>230</v>
+      </c>
+      <c r="R74" s="29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A75" s="29">
+        <v>74</v>
+      </c>
+      <c r="B75" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="C75" s="36"/>
+      <c r="D75" s="36"/>
+      <c r="E75" s="36">
+        <v>4065192.31</v>
+      </c>
+      <c r="F75" s="36"/>
+      <c r="G75" s="36"/>
+      <c r="H75" s="36"/>
+      <c r="I75" s="36"/>
+      <c r="J75" s="36"/>
+      <c r="K75" s="36"/>
+      <c r="L75" s="36"/>
+      <c r="M75" s="36"/>
+      <c r="N75" s="36"/>
+      <c r="O75" s="36">
+        <v>508149</v>
+      </c>
+      <c r="P75" s="36">
+        <v>3557043</v>
+      </c>
+      <c r="Q75" s="30" t="s">
+        <v>215</v>
+      </c>
+      <c r="R75" s="29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A76" s="29">
+        <v>75</v>
+      </c>
+      <c r="B76" s="36" t="s">
+        <v>232</v>
+      </c>
+      <c r="C76" s="36"/>
+      <c r="D76" s="36"/>
+      <c r="E76" s="36">
+        <v>395448</v>
+      </c>
+      <c r="F76" s="36"/>
+      <c r="G76" s="36"/>
+      <c r="H76" s="36"/>
+      <c r="I76" s="36"/>
+      <c r="J76" s="36">
+        <v>6835897.8899999997</v>
+      </c>
+      <c r="K76" s="36"/>
+      <c r="L76" s="36"/>
+      <c r="M76" s="36"/>
+      <c r="N76" s="36"/>
+      <c r="O76" s="36">
+        <v>799871</v>
+      </c>
+      <c r="P76" s="36">
+        <v>5599096</v>
+      </c>
+      <c r="Q76" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="R76" s="29">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="29">
+        <v>76</v>
+      </c>
+      <c r="B77" s="36" t="s">
+        <v>233</v>
+      </c>
+      <c r="C77" s="36"/>
+      <c r="D77" s="36"/>
+      <c r="E77" s="36"/>
+      <c r="F77" s="36">
+        <v>7041775.3600000003</v>
+      </c>
+      <c r="G77" s="36"/>
+      <c r="H77" s="36"/>
+      <c r="I77" s="36"/>
+      <c r="J77" s="36">
+        <v>2173969.3199999998</v>
+      </c>
+      <c r="K77" s="36"/>
+      <c r="L77" s="36"/>
+      <c r="M77" s="36"/>
+      <c r="N77" s="36"/>
+      <c r="O77" s="36">
+        <v>1151968</v>
+      </c>
+      <c r="P77" s="36">
+        <v>8063777</v>
+      </c>
+      <c r="Q77" s="30" t="s">
+        <v>234</v>
+      </c>
+      <c r="R77" s="29">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A78" s="29">
+        <v>77</v>
+      </c>
+      <c r="B78" s="36" t="s">
+        <v>235</v>
+      </c>
+      <c r="C78" s="36"/>
+      <c r="D78" s="36"/>
+      <c r="E78" s="36"/>
+      <c r="F78" s="36">
+        <v>1333756.3810000001</v>
+      </c>
+      <c r="G78" s="36"/>
+      <c r="H78" s="36"/>
+      <c r="I78" s="36"/>
+      <c r="J78" s="36">
+        <v>3138936.3</v>
+      </c>
+      <c r="K78" s="36"/>
+      <c r="L78" s="36"/>
+      <c r="M78" s="36"/>
+      <c r="N78" s="36"/>
+      <c r="O78" s="36">
+        <v>559087</v>
+      </c>
+      <c r="P78" s="36">
+        <v>3913606</v>
+      </c>
+      <c r="Q78" s="30" t="s">
+        <v>223</v>
+      </c>
+      <c r="R78" s="29">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A79" s="29">
+        <v>78</v>
+      </c>
+      <c r="B79" s="36" t="s">
+        <v>236</v>
+      </c>
+      <c r="C79" s="36"/>
+      <c r="D79" s="36"/>
+      <c r="E79" s="36"/>
+      <c r="F79" s="36">
+        <v>7166150.7970000003</v>
+      </c>
+      <c r="G79" s="36"/>
+      <c r="H79" s="36"/>
+      <c r="I79" s="36"/>
+      <c r="J79" s="36"/>
+      <c r="K79" s="36"/>
+      <c r="L79" s="36"/>
+      <c r="M79" s="36"/>
+      <c r="N79" s="36"/>
+      <c r="O79" s="36">
+        <v>895769</v>
+      </c>
+      <c r="P79" s="36">
+        <v>6270381</v>
+      </c>
+      <c r="Q79" s="30" t="s">
+        <v>237</v>
+      </c>
+      <c r="R79" s="29">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A80" s="29">
+        <v>79</v>
+      </c>
+      <c r="B80" s="36" t="s">
+        <v>238</v>
+      </c>
+      <c r="C80" s="36"/>
+      <c r="D80" s="36"/>
+      <c r="E80" s="36"/>
+      <c r="F80" s="36">
+        <v>841027.35699999996</v>
+      </c>
+      <c r="G80" s="36"/>
+      <c r="H80" s="36"/>
+      <c r="I80" s="36"/>
+      <c r="J80" s="36">
+        <v>12356769.642999999</v>
+      </c>
+      <c r="K80" s="36"/>
+      <c r="L80" s="36"/>
+      <c r="M80" s="36"/>
+      <c r="N80" s="36"/>
+      <c r="O80" s="36">
+        <v>1649725</v>
+      </c>
+      <c r="P80" s="36">
+        <v>11548073</v>
+      </c>
+      <c r="Q80" s="30" t="s">
+        <v>239</v>
+      </c>
+      <c r="R80" s="29">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A81" s="29">
+        <v>80</v>
+      </c>
+      <c r="B81" s="36" t="s">
+        <v>240</v>
+      </c>
+      <c r="C81" s="36"/>
+      <c r="D81" s="36"/>
+      <c r="E81" s="36">
+        <v>5452594.4699999988</v>
+      </c>
+      <c r="F81" s="36"/>
+      <c r="G81" s="36"/>
+      <c r="H81" s="36"/>
+      <c r="I81" s="36"/>
+      <c r="J81" s="36">
+        <v>23284588.450000003</v>
+      </c>
+      <c r="K81" s="36"/>
+      <c r="L81" s="36"/>
+      <c r="M81" s="36"/>
+      <c r="N81" s="36"/>
+      <c r="O81" s="36">
+        <v>3592148</v>
+      </c>
+      <c r="P81" s="36">
+        <v>25145035</v>
+      </c>
+      <c r="Q81" s="30" t="s">
+        <v>196</v>
+      </c>
+      <c r="R81" s="29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A82" s="29">
+        <v>81</v>
+      </c>
+      <c r="B82" s="36" t="s">
+        <v>241</v>
+      </c>
+      <c r="C82" s="36"/>
+      <c r="D82" s="36"/>
+      <c r="E82" s="36"/>
+      <c r="F82" s="36"/>
+      <c r="G82" s="36">
+        <v>6871914.25</v>
+      </c>
+      <c r="H82" s="36"/>
+      <c r="I82" s="36">
+        <v>3134579.898</v>
+      </c>
+      <c r="J82" s="36"/>
+      <c r="K82" s="36"/>
+      <c r="L82" s="36"/>
+      <c r="M82" s="36"/>
+      <c r="N82" s="36"/>
+      <c r="O82" s="36">
+        <v>1342829</v>
+      </c>
+      <c r="P82" s="36">
+        <v>9399803</v>
+      </c>
+      <c r="Q82" s="30" t="s">
+        <v>242</v>
+      </c>
+      <c r="R82" s="29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A83" s="29">
+        <v>82</v>
+      </c>
+      <c r="B83" s="36" t="s">
+        <v>243</v>
+      </c>
+      <c r="C83" s="36"/>
+      <c r="D83" s="36"/>
+      <c r="E83" s="36"/>
+      <c r="F83" s="36"/>
+      <c r="G83" s="36"/>
+      <c r="H83" s="36"/>
+      <c r="I83" s="36"/>
+      <c r="J83" s="36"/>
+      <c r="K83" s="36">
+        <v>20162366.32</v>
+      </c>
+      <c r="L83" s="36"/>
+      <c r="M83" s="36"/>
+      <c r="N83" s="36"/>
+      <c r="O83" s="36">
+        <v>2520296</v>
+      </c>
+      <c r="P83" s="36">
+        <v>17642070</v>
+      </c>
+      <c r="Q83" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="R83" s="29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A84" s="29">
+        <v>83</v>
+      </c>
+      <c r="B84" s="36" t="s">
+        <v>244</v>
+      </c>
+      <c r="C84" s="36"/>
+      <c r="D84" s="36"/>
+      <c r="E84" s="36">
+        <v>3038478</v>
+      </c>
+      <c r="F84" s="36"/>
+      <c r="G84" s="36"/>
+      <c r="H84" s="36"/>
+      <c r="I84" s="36"/>
+      <c r="J84" s="36"/>
+      <c r="K84" s="36"/>
+      <c r="L84" s="36"/>
+      <c r="M84" s="36"/>
+      <c r="N84" s="36"/>
+      <c r="O84" s="36">
+        <v>379810</v>
+      </c>
+      <c r="P84" s="36">
+        <v>2658668</v>
+      </c>
+      <c r="Q84" s="30" t="s">
+        <v>245</v>
+      </c>
+      <c r="R84" s="29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A85" s="29">
+        <v>84</v>
+      </c>
+      <c r="B85" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="C85" s="36"/>
+      <c r="D85" s="36"/>
+      <c r="E85" s="36"/>
+      <c r="F85" s="36"/>
+      <c r="G85" s="36"/>
+      <c r="H85" s="36"/>
+      <c r="I85" s="36"/>
+      <c r="J85" s="36"/>
+      <c r="K85" s="36"/>
+      <c r="L85" s="36">
+        <v>1890979</v>
+      </c>
+      <c r="M85" s="36"/>
+      <c r="N85" s="36"/>
+      <c r="O85" s="36">
+        <v>236372</v>
+      </c>
+      <c r="P85" s="36">
+        <v>1654607</v>
+      </c>
+      <c r="Q85" s="30" t="s">
+        <v>247</v>
+      </c>
+      <c r="R85" s="29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A86" s="29">
+        <v>85</v>
+      </c>
+      <c r="B86" s="36" t="s">
+        <v>248</v>
+      </c>
+      <c r="C86" s="36"/>
+      <c r="D86" s="36"/>
+      <c r="E86" s="36">
+        <v>11734497.34</v>
+      </c>
+      <c r="F86" s="36"/>
+      <c r="G86" s="36"/>
+      <c r="H86" s="36"/>
+      <c r="I86" s="36"/>
+      <c r="J86" s="36"/>
+      <c r="K86" s="36"/>
+      <c r="L86" s="36"/>
+      <c r="M86" s="36"/>
+      <c r="N86" s="36"/>
+      <c r="O86" s="36">
+        <v>1091812</v>
+      </c>
+      <c r="P86" s="36">
+        <v>7642685</v>
+      </c>
+      <c r="Q86" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="R86" s="29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A87" s="29">
+        <v>86</v>
+      </c>
+      <c r="B87" s="36" t="s">
+        <v>249</v>
+      </c>
+      <c r="C87" s="36">
+        <v>237277.17</v>
+      </c>
+      <c r="D87" s="36"/>
+      <c r="E87" s="36">
+        <v>4754324.16</v>
+      </c>
+      <c r="F87" s="36"/>
+      <c r="G87" s="36"/>
+      <c r="H87" s="36"/>
+      <c r="I87" s="36"/>
+      <c r="J87" s="36">
+        <v>3536591.639</v>
+      </c>
+      <c r="K87" s="36"/>
+      <c r="L87" s="36"/>
+      <c r="M87" s="36"/>
+      <c r="N87" s="36"/>
+      <c r="O87" s="36">
+        <v>1066024</v>
+      </c>
+      <c r="P87" s="36">
+        <v>7462169</v>
+      </c>
+      <c r="Q87" s="30" t="s">
+        <v>250</v>
+      </c>
+      <c r="R87" s="29">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A88" s="29">
+        <v>87</v>
+      </c>
+      <c r="B88" s="36" t="s">
+        <v>251</v>
+      </c>
+      <c r="C88" s="36"/>
+      <c r="D88" s="36"/>
+      <c r="E88" s="36"/>
+      <c r="F88" s="36"/>
+      <c r="G88" s="36"/>
+      <c r="H88" s="36"/>
+      <c r="I88" s="36"/>
+      <c r="J88" s="36">
+        <v>8566376</v>
+      </c>
+      <c r="K88" s="36"/>
+      <c r="L88" s="36"/>
+      <c r="M88" s="36"/>
+      <c r="N88" s="36"/>
+      <c r="O88" s="36">
+        <v>1070797</v>
+      </c>
+      <c r="P88" s="36">
+        <v>7495579</v>
+      </c>
+      <c r="Q88" s="30" t="s">
+        <v>158</v>
+      </c>
+      <c r="R88" s="29">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A89" s="29">
+        <v>88</v>
+      </c>
+      <c r="B89" s="36" t="s">
+        <v>252</v>
+      </c>
+      <c r="C89" s="36"/>
+      <c r="D89" s="36"/>
+      <c r="E89" s="36"/>
+      <c r="F89" s="36"/>
+      <c r="G89" s="36"/>
+      <c r="H89" s="36"/>
+      <c r="I89" s="36"/>
+      <c r="J89" s="36"/>
+      <c r="K89" s="36">
+        <v>21434033</v>
+      </c>
+      <c r="L89" s="36"/>
+      <c r="M89" s="36"/>
+      <c r="N89" s="36"/>
+      <c r="O89" s="36">
+        <v>2602548</v>
+      </c>
+      <c r="P89" s="36">
+        <v>18217838</v>
+      </c>
+      <c r="Q89" s="30" t="s">
+        <v>253</v>
+      </c>
+      <c r="R89" s="29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A90" s="29">
+        <v>89</v>
+      </c>
+      <c r="B90" s="36" t="s">
+        <v>254</v>
+      </c>
+      <c r="C90" s="36"/>
+      <c r="D90" s="36"/>
+      <c r="E90" s="36"/>
+      <c r="F90" s="36"/>
+      <c r="G90" s="36"/>
+      <c r="H90" s="36"/>
+      <c r="I90" s="36"/>
+      <c r="J90" s="36">
+        <v>1869271.878</v>
+      </c>
+      <c r="K90" s="36">
+        <v>3950811.1020000004</v>
+      </c>
+      <c r="L90" s="36"/>
+      <c r="M90" s="36"/>
+      <c r="N90" s="36"/>
+      <c r="O90" s="36">
+        <v>711031</v>
+      </c>
+      <c r="P90" s="36">
+        <v>4977219</v>
+      </c>
+      <c r="Q90" s="30" t="s">
+        <v>255</v>
+      </c>
+      <c r="R90" s="29">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A91" s="29">
         <v>90</v>
       </c>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="31">
-        <v>31435052</v>
-      </c>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
-      <c r="M4" s="30">
-        <v>3929382</v>
-      </c>
-      <c r="N4" s="30">
-        <v>27505670</v>
-      </c>
-      <c r="O4" s="25">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="30" t="s">
-        <v>107</v>
-      </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="30">
-        <v>7440653</v>
-      </c>
-      <c r="L5" s="30"/>
-      <c r="M5" s="30">
-        <v>930087</v>
-      </c>
-      <c r="N5" s="30">
-        <v>6510571</v>
-      </c>
-      <c r="O5" s="25">
+      <c r="B91" s="36" t="s">
+        <v>256</v>
+      </c>
+      <c r="C91" s="36"/>
+      <c r="D91" s="36"/>
+      <c r="E91" s="36"/>
+      <c r="F91" s="36"/>
+      <c r="G91" s="36"/>
+      <c r="H91" s="36"/>
+      <c r="I91" s="36"/>
+      <c r="J91" s="36"/>
+      <c r="K91" s="36">
+        <v>3715423</v>
+      </c>
+      <c r="L91" s="36"/>
+      <c r="M91" s="36"/>
+      <c r="N91" s="36"/>
+      <c r="O91" s="36">
+        <v>464428</v>
+      </c>
+      <c r="P91" s="36">
+        <v>3250995</v>
+      </c>
+      <c r="Q91" s="30" t="s">
+        <v>257</v>
+      </c>
+      <c r="R91" s="29">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A92" s="29">
+        <v>91</v>
+      </c>
+      <c r="B92" s="36" t="s">
+        <v>258</v>
+      </c>
+      <c r="C92" s="36"/>
+      <c r="D92" s="36"/>
+      <c r="E92" s="36">
+        <v>15319532</v>
+      </c>
+      <c r="F92" s="36"/>
+      <c r="G92" s="36"/>
+      <c r="H92" s="36"/>
+      <c r="I92" s="36"/>
+      <c r="J92" s="36"/>
+      <c r="K92" s="36"/>
+      <c r="L92" s="36"/>
+      <c r="M92" s="36"/>
+      <c r="N92" s="36"/>
+      <c r="O92" s="36">
+        <v>1914942</v>
+      </c>
+      <c r="P92" s="36">
+        <v>13404590</v>
+      </c>
+      <c r="Q92" s="30" t="s">
+        <v>259</v>
+      </c>
+      <c r="R92" s="29">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A93" s="29">
+        <v>92</v>
+      </c>
+      <c r="B93" s="36" t="s">
+        <v>260</v>
+      </c>
+      <c r="C93" s="36"/>
+      <c r="D93" s="36"/>
+      <c r="E93" s="36"/>
+      <c r="F93" s="36">
+        <v>4972139.51</v>
+      </c>
+      <c r="G93" s="36"/>
+      <c r="H93" s="36"/>
+      <c r="I93" s="36"/>
+      <c r="J93" s="36">
+        <v>112500</v>
+      </c>
+      <c r="K93" s="36"/>
+      <c r="L93" s="36"/>
+      <c r="M93" s="36"/>
+      <c r="N93" s="36"/>
+      <c r="O93" s="36">
+        <v>635580</v>
+      </c>
+      <c r="P93" s="36">
+        <v>4449060</v>
+      </c>
+      <c r="Q93" s="30" t="s">
+        <v>261</v>
+      </c>
+      <c r="R93" s="29">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A94" s="29">
+        <v>93</v>
+      </c>
+      <c r="B94" s="36" t="s">
+        <v>262</v>
+      </c>
+      <c r="C94" s="36"/>
+      <c r="D94" s="36"/>
+      <c r="E94" s="36"/>
+      <c r="F94" s="36"/>
+      <c r="G94" s="36"/>
+      <c r="H94" s="36"/>
+      <c r="I94" s="36"/>
+      <c r="J94" s="36">
+        <v>7671622.0999999996</v>
+      </c>
+      <c r="K94" s="36"/>
+      <c r="L94" s="36"/>
+      <c r="M94" s="36"/>
+      <c r="N94" s="36"/>
+      <c r="O94" s="36">
+        <v>921416</v>
+      </c>
+      <c r="P94" s="36">
+        <v>6449915</v>
+      </c>
+      <c r="Q94" s="30" t="s">
+        <v>263</v>
+      </c>
+      <c r="R94" s="29">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="30" t="s">
-        <v>91</v>
-      </c>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30">
-        <v>8773225</v>
-      </c>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30">
-        <v>1096659</v>
-      </c>
-      <c r="N6" s="30">
-        <v>7676616</v>
-      </c>
-      <c r="O6" s="25">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="30" t="s">
-        <v>92</v>
-      </c>
-      <c r="B7" s="30"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30">
-        <v>967157.26999999955</v>
-      </c>
-      <c r="E7" s="30">
-        <v>7576934.0999999996</v>
-      </c>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="30"/>
-      <c r="L7" s="30"/>
-      <c r="M7" s="30">
-        <v>1068011</v>
-      </c>
-      <c r="N7" s="30">
-        <v>7476080</v>
-      </c>
-      <c r="O7" s="25">
+    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A95" s="29">
+        <v>94</v>
+      </c>
+      <c r="B95" s="36" t="s">
+        <v>264</v>
+      </c>
+      <c r="C95" s="36"/>
+      <c r="D95" s="36"/>
+      <c r="E95" s="36">
+        <v>2004423.12</v>
+      </c>
+      <c r="F95" s="36">
+        <v>2200388.38</v>
+      </c>
+      <c r="G95" s="36"/>
+      <c r="H95" s="36"/>
+      <c r="I95" s="36"/>
+      <c r="J95" s="39">
+        <v>27775</v>
+      </c>
+      <c r="K95" s="36"/>
+      <c r="L95" s="36"/>
+      <c r="M95" s="36"/>
+      <c r="N95" s="36"/>
+      <c r="O95" s="37">
+        <v>701073</v>
+      </c>
+      <c r="P95" s="37">
+        <v>4907507</v>
+      </c>
+      <c r="Q95" s="30" t="s">
+        <v>265</v>
+      </c>
+      <c r="R95" s="29">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A96" s="29">
+        <v>95</v>
+      </c>
+      <c r="B96" s="36" t="s">
+        <v>266</v>
+      </c>
+      <c r="C96" s="36"/>
+      <c r="D96" s="36"/>
+      <c r="E96" s="36"/>
+      <c r="F96" s="36"/>
+      <c r="G96" s="36"/>
+      <c r="H96" s="36"/>
+      <c r="I96" s="36"/>
+      <c r="J96" s="36">
+        <v>10277493</v>
+      </c>
+      <c r="K96" s="36"/>
+      <c r="L96" s="36"/>
+      <c r="M96" s="36"/>
+      <c r="N96" s="36"/>
+      <c r="O96" s="36">
+        <v>1284687</v>
+      </c>
+      <c r="P96" s="36">
+        <v>8992806</v>
+      </c>
+      <c r="Q96" s="30" t="s">
+        <v>267</v>
+      </c>
+      <c r="R96" s="29">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A97" s="29">
+        <v>96</v>
+      </c>
+      <c r="B97" s="36" t="s">
+        <v>268</v>
+      </c>
+      <c r="C97" s="36"/>
+      <c r="D97" s="36"/>
+      <c r="E97" s="36">
+        <v>1253692.1100000001</v>
+      </c>
+      <c r="F97" s="37">
+        <v>5035264.49</v>
+      </c>
+      <c r="G97" s="36"/>
+      <c r="H97" s="36"/>
+      <c r="I97" s="36"/>
+      <c r="J97" s="37"/>
+      <c r="K97" s="37"/>
+      <c r="L97" s="36"/>
+      <c r="M97" s="36"/>
+      <c r="N97" s="36"/>
+      <c r="O97" s="36">
+        <v>994457</v>
+      </c>
+      <c r="P97" s="36">
+        <v>6961196</v>
+      </c>
+      <c r="Q97" s="30" t="s">
+        <v>269</v>
+      </c>
+      <c r="R97" s="29">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A98" s="29">
+        <v>97</v>
+      </c>
+      <c r="B98" s="36" t="s">
+        <v>270</v>
+      </c>
+      <c r="C98" s="36"/>
+      <c r="D98" s="36"/>
+      <c r="E98" s="36"/>
+      <c r="F98" s="36">
+        <v>1360415.54</v>
+      </c>
+      <c r="G98" s="36"/>
+      <c r="H98" s="36"/>
+      <c r="I98" s="36"/>
+      <c r="J98" s="36">
+        <v>455742.37</v>
+      </c>
+      <c r="K98" s="36">
+        <v>1831376.254</v>
+      </c>
+      <c r="L98" s="36"/>
+      <c r="M98" s="36"/>
+      <c r="N98" s="36"/>
+      <c r="O98" s="36">
+        <v>455942</v>
+      </c>
+      <c r="P98" s="36">
+        <v>3191592</v>
+      </c>
+      <c r="Q98" s="30" t="s">
+        <v>271</v>
+      </c>
+      <c r="R98" s="29">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A99" s="29">
+        <v>98</v>
+      </c>
+      <c r="B99" s="36" t="s">
+        <v>272</v>
+      </c>
+      <c r="C99" s="36"/>
+      <c r="D99" s="36"/>
+      <c r="E99" s="36">
+        <v>5389926.9299999997</v>
+      </c>
+      <c r="F99" s="36">
+        <v>1782400.4</v>
+      </c>
+      <c r="G99" s="36"/>
+      <c r="H99" s="36"/>
+      <c r="I99" s="36"/>
+      <c r="J99" s="36"/>
+      <c r="K99" s="36"/>
+      <c r="L99" s="36"/>
+      <c r="M99" s="36"/>
+      <c r="N99" s="36"/>
+      <c r="O99" s="36">
+        <v>896541</v>
+      </c>
+      <c r="P99" s="36">
+        <v>6275786</v>
+      </c>
+      <c r="Q99" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="R99" s="29">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="30" t="s">
-        <v>94</v>
-      </c>
-      <c r="B8" s="30"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30">
-        <v>15300148.25</v>
-      </c>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="30">
-        <v>5002242.9400000004</v>
-      </c>
-      <c r="J8" s="30"/>
-      <c r="K8" s="30"/>
-      <c r="L8" s="30"/>
-      <c r="M8" s="30">
-        <v>2537799</v>
-      </c>
-      <c r="N8" s="30">
-        <v>17764592</v>
-      </c>
-      <c r="O8" s="25">
+    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A100" s="29">
+        <v>99</v>
+      </c>
+      <c r="B100" s="36" t="s">
+        <v>273</v>
+      </c>
+      <c r="C100" s="36"/>
+      <c r="D100" s="36"/>
+      <c r="E100" s="36"/>
+      <c r="F100" s="36"/>
+      <c r="G100" s="36"/>
+      <c r="H100" s="36"/>
+      <c r="I100" s="36"/>
+      <c r="J100" s="36">
+        <v>3499306</v>
+      </c>
+      <c r="K100" s="36"/>
+      <c r="L100" s="36"/>
+      <c r="M100" s="36"/>
+      <c r="N100" s="36"/>
+      <c r="O100" s="36">
+        <v>437413</v>
+      </c>
+      <c r="P100" s="36">
+        <v>3061893</v>
+      </c>
+      <c r="Q100" s="30" t="s">
+        <v>274</v>
+      </c>
+      <c r="R100" s="29">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="30" t="s">
-        <v>95</v>
-      </c>
-      <c r="B9" s="30"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30">
-        <v>6272429.75</v>
-      </c>
-      <c r="J9" s="30"/>
-      <c r="K9" s="30"/>
-      <c r="L9" s="30"/>
-      <c r="M9" s="30">
-        <v>784054</v>
-      </c>
-      <c r="N9" s="30">
-        <v>5488375</v>
-      </c>
-      <c r="O9" s="25">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="30" t="s">
-        <v>108</v>
-      </c>
-      <c r="B10" s="30"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30">
-        <v>2376584.4930000007</v>
-      </c>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30">
-        <v>5851260.3669999996</v>
-      </c>
-      <c r="J10" s="30"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="30"/>
-      <c r="M10" s="30">
-        <v>1028481</v>
-      </c>
-      <c r="N10" s="30">
-        <v>7199364</v>
-      </c>
-      <c r="O10" s="25">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="30" t="s">
-        <v>96</v>
-      </c>
-      <c r="B11" s="30"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30">
-        <v>3951018.61</v>
-      </c>
-      <c r="E11" s="30">
-        <v>1303448.1200000001</v>
-      </c>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="30">
-        <v>3401350.1</v>
-      </c>
-      <c r="J11" s="30"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="30">
-        <v>1081977</v>
-      </c>
-      <c r="N11" s="30">
-        <v>7573840</v>
-      </c>
-      <c r="O11" s="25">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="30" t="s">
-        <v>97</v>
-      </c>
-      <c r="B12" s="30"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30">
-        <v>5018209.87</v>
-      </c>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="30"/>
-      <c r="L12" s="30"/>
-      <c r="M12" s="30">
-        <v>627276</v>
-      </c>
-      <c r="N12" s="30">
-        <v>4390934</v>
-      </c>
-      <c r="O12" s="25">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="B13" s="30"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30">
-        <v>28440949.879999999</v>
-      </c>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="30"/>
-      <c r="M13" s="30">
-        <v>2930119</v>
-      </c>
-      <c r="N13" s="30">
-        <v>20510831</v>
-      </c>
-      <c r="O13" s="25">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="30" t="s">
-        <v>99</v>
-      </c>
-      <c r="B14" s="30"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="30">
-        <v>11803695.960000001</v>
-      </c>
-      <c r="J14" s="30"/>
-      <c r="K14" s="30"/>
-      <c r="L14" s="30"/>
-      <c r="M14" s="30">
-        <v>1475462</v>
-      </c>
-      <c r="N14" s="30">
-        <v>10328234</v>
-      </c>
-      <c r="O14" s="25">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="30" t="s">
+    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A101" s="29">
         <v>100</v>
       </c>
-      <c r="B15" s="30"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30">
-        <v>3678989.3829999999</v>
-      </c>
-      <c r="E15" s="30">
-        <v>1997998.9920000001</v>
-      </c>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="30">
-        <v>24430.226999999999</v>
-      </c>
-      <c r="K15" s="30"/>
-      <c r="L15" s="30"/>
-      <c r="M15" s="30">
-        <v>712677</v>
-      </c>
-      <c r="N15" s="30">
-        <v>4988742</v>
-      </c>
-      <c r="O15" s="25">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="30" t="s">
+      <c r="B101" s="36" t="s">
+        <v>275</v>
+      </c>
+      <c r="C101" s="36"/>
+      <c r="D101" s="36"/>
+      <c r="E101" s="36"/>
+      <c r="F101" s="36"/>
+      <c r="G101" s="36"/>
+      <c r="H101" s="36">
+        <v>20826914</v>
+      </c>
+      <c r="I101" s="36"/>
+      <c r="J101" s="36"/>
+      <c r="K101" s="36"/>
+      <c r="L101" s="36"/>
+      <c r="M101" s="36"/>
+      <c r="N101" s="36"/>
+      <c r="O101" s="36">
+        <v>2603364</v>
+      </c>
+      <c r="P101" s="36">
+        <v>18223550</v>
+      </c>
+      <c r="Q101" s="30" t="s">
+        <v>167</v>
+      </c>
+      <c r="R101" s="29">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="102" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A102" s="29">
         <v>101</v>
       </c>
-      <c r="B16" s="30"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30">
-        <v>764582</v>
-      </c>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="30">
-        <v>7622328.6999999993</v>
-      </c>
-      <c r="J16" s="30"/>
-      <c r="K16" s="30"/>
-      <c r="L16" s="30"/>
-      <c r="M16" s="30">
-        <v>1048364</v>
-      </c>
-      <c r="N16" s="30">
-        <v>7338547</v>
-      </c>
-      <c r="O16" s="25">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="30" t="s">
+      <c r="B102" s="36" t="s">
+        <v>276</v>
+      </c>
+      <c r="C102" s="36"/>
+      <c r="D102" s="36"/>
+      <c r="E102" s="36"/>
+      <c r="F102" s="36"/>
+      <c r="G102" s="36">
+        <v>3669874</v>
+      </c>
+      <c r="H102" s="36"/>
+      <c r="I102" s="36"/>
+      <c r="J102" s="36"/>
+      <c r="K102" s="36"/>
+      <c r="L102" s="36"/>
+      <c r="M102" s="36"/>
+      <c r="N102" s="36"/>
+      <c r="O102" s="36">
+        <v>458734</v>
+      </c>
+      <c r="P102" s="36">
+        <v>3211140</v>
+      </c>
+      <c r="Q102" s="30" t="s">
+        <v>211</v>
+      </c>
+      <c r="R102" s="29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A103" s="29">
         <v>102</v>
       </c>
-      <c r="B17" s="30">
-        <v>4444197.7699999996</v>
-      </c>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30">
-        <v>181114.16399999999</v>
-      </c>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="30"/>
-      <c r="K17" s="30"/>
-      <c r="L17" s="30"/>
-      <c r="M17" s="30">
-        <v>781917</v>
-      </c>
-      <c r="N17" s="30">
-        <v>5473421</v>
-      </c>
-      <c r="O17" s="25">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="30" t="s">
-        <v>103</v>
-      </c>
-      <c r="B18" s="30"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30">
-        <v>28440949.879999999</v>
-      </c>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="30"/>
-      <c r="L18" s="30"/>
-      <c r="M18" s="30">
-        <v>625000</v>
-      </c>
-      <c r="N18" s="30">
-        <v>4375000</v>
-      </c>
-      <c r="O18" s="25">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="30" t="s">
-        <v>104</v>
-      </c>
-      <c r="B19" s="30"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30">
-        <v>31061589.32</v>
-      </c>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="30"/>
-      <c r="L19" s="30"/>
-      <c r="M19" s="30">
-        <v>3882699</v>
-      </c>
-      <c r="N19" s="30">
-        <v>27178890</v>
-      </c>
-      <c r="O19" s="25">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="30" t="s">
-        <v>105</v>
-      </c>
-      <c r="B20" s="30"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30">
-        <v>18143506.600000001</v>
-      </c>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="30">
-        <v>644634.19999999995</v>
-      </c>
-      <c r="J20" s="30"/>
-      <c r="K20" s="30"/>
-      <c r="L20" s="30"/>
-      <c r="M20" s="30">
-        <v>2348518</v>
-      </c>
-      <c r="N20" s="30">
-        <v>16439623</v>
-      </c>
-      <c r="O20" s="25">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="30" t="s">
-        <v>106</v>
-      </c>
-      <c r="B21" s="30"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30">
-        <v>35010947</v>
-      </c>
-      <c r="F21" s="30"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="30"/>
-      <c r="J21" s="30"/>
-      <c r="K21" s="30"/>
-      <c r="L21" s="30"/>
-      <c r="M21" s="30">
-        <v>4376368</v>
-      </c>
-      <c r="N21" s="30">
-        <v>30634579</v>
-      </c>
-      <c r="O21" s="25">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" s="30" t="s">
-        <v>109</v>
-      </c>
-      <c r="B22" s="30"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30">
-        <v>9000456.8900000006</v>
-      </c>
-      <c r="F22" s="30"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="30"/>
-      <c r="K22" s="30"/>
-      <c r="L22" s="30"/>
-      <c r="M22" s="30">
-        <v>1125057</v>
-      </c>
-      <c r="N22" s="30">
-        <v>7875399</v>
-      </c>
-      <c r="O22" s="25">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="30" t="s">
-        <v>110</v>
-      </c>
-      <c r="B23" s="30"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="30">
-        <v>6195501.8360000001</v>
-      </c>
-      <c r="J23" s="30"/>
-      <c r="K23" s="30"/>
-      <c r="L23" s="30"/>
-      <c r="M23" s="30">
-        <v>774438</v>
-      </c>
-      <c r="N23" s="30">
-        <v>5421064</v>
-      </c>
-      <c r="O23" s="25">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="30" t="s">
-        <v>111</v>
-      </c>
-      <c r="B24" s="30">
-        <v>2677161.36</v>
-      </c>
-      <c r="C24" s="30"/>
-      <c r="D24" s="30">
-        <v>6396151.4699999997</v>
-      </c>
-      <c r="E24" s="30"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="30"/>
-      <c r="H24" s="30"/>
-      <c r="I24" s="30">
-        <v>686638.29</v>
-      </c>
-      <c r="J24" s="30"/>
-      <c r="K24" s="30"/>
-      <c r="L24" s="30"/>
-      <c r="M24" s="30">
-        <v>1181215</v>
-      </c>
-      <c r="N24" s="30">
-        <v>8268502</v>
-      </c>
-      <c r="O24" s="25">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A25" s="30" t="s">
-        <v>112</v>
-      </c>
-      <c r="B25" s="30"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="30">
-        <v>333327.88400000002</v>
-      </c>
-      <c r="E25" s="30"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="30"/>
-      <c r="H25" s="30"/>
-      <c r="I25" s="30">
-        <v>4060359.2289999998</v>
-      </c>
-      <c r="J25" s="30"/>
-      <c r="K25" s="30"/>
-      <c r="L25" s="30"/>
-      <c r="M25" s="30">
-        <v>549211</v>
-      </c>
-      <c r="N25" s="30">
-        <v>3844476</v>
-      </c>
-      <c r="O25" s="25">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A26" s="30" t="s">
-        <v>113</v>
-      </c>
-      <c r="B26" s="30"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="30"/>
-      <c r="H26" s="30"/>
-      <c r="I26" s="30">
-        <v>2275479</v>
-      </c>
-      <c r="J26" s="30"/>
-      <c r="K26" s="30"/>
-      <c r="L26" s="30"/>
-      <c r="M26" s="30">
-        <v>284435</v>
-      </c>
-      <c r="N26" s="30">
-        <v>1991044</v>
-      </c>
-      <c r="O26" s="25">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A27" s="30" t="s">
-        <v>114</v>
-      </c>
-      <c r="B27" s="30"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30">
-        <v>8581506.1300000008</v>
-      </c>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="30"/>
-      <c r="I27" s="30"/>
-      <c r="J27" s="30"/>
-      <c r="K27" s="30"/>
-      <c r="L27" s="30"/>
-      <c r="M27" s="30">
-        <v>1072688</v>
-      </c>
-      <c r="N27" s="30">
-        <v>7508818.1200000001</v>
-      </c>
-      <c r="O27" s="25">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A28" s="30" t="s">
-        <v>115</v>
-      </c>
-      <c r="B28" s="30"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="30"/>
-      <c r="G28" s="30"/>
-      <c r="H28" s="30"/>
-      <c r="I28" s="30">
-        <v>19139634.739999998</v>
-      </c>
-      <c r="J28" s="30"/>
-      <c r="K28" s="30"/>
-      <c r="L28" s="30"/>
-      <c r="M28" s="30">
-        <v>2332454</v>
-      </c>
-      <c r="N28" s="30">
-        <v>16747181</v>
-      </c>
-      <c r="O28" s="25">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A29" s="30" t="s">
-        <v>116</v>
-      </c>
-      <c r="B29" s="30"/>
-      <c r="C29" s="30"/>
-      <c r="D29" s="30">
-        <v>52195699.359999999</v>
-      </c>
-      <c r="E29" s="30"/>
-      <c r="F29" s="30"/>
-      <c r="G29" s="30"/>
-      <c r="H29" s="30"/>
-      <c r="I29" s="30"/>
-      <c r="J29" s="30"/>
-      <c r="K29" s="30"/>
-      <c r="L29" s="30"/>
-      <c r="M29" s="30">
-        <v>6524462</v>
-      </c>
-      <c r="N29" s="30">
-        <v>45671237</v>
-      </c>
-      <c r="O29" s="25">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A30" s="30" t="s">
-        <v>117</v>
-      </c>
-      <c r="B30" s="30"/>
-      <c r="C30" s="30"/>
-      <c r="D30" s="30">
-        <v>14453370.689999998</v>
-      </c>
-      <c r="E30" s="30"/>
-      <c r="F30" s="30"/>
-      <c r="G30" s="30"/>
-      <c r="H30" s="30"/>
-      <c r="I30" s="30">
-        <v>6619216.5499999998</v>
-      </c>
-      <c r="J30" s="30"/>
-      <c r="K30" s="30"/>
-      <c r="L30" s="30"/>
-      <c r="M30" s="30">
-        <v>2571157</v>
-      </c>
-      <c r="N30" s="30">
-        <v>17998099</v>
-      </c>
-      <c r="O30" s="25">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31" s="33" t="s">
-        <v>118</v>
-      </c>
-      <c r="B31" s="33"/>
-      <c r="C31" s="33"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="33">
-        <v>1017606.69</v>
-      </c>
-      <c r="F31" s="33"/>
-      <c r="G31" s="33"/>
-      <c r="H31" s="33"/>
-      <c r="I31" s="33">
-        <v>5862363.6399999997</v>
-      </c>
-      <c r="J31" s="33"/>
-      <c r="K31" s="33"/>
-      <c r="L31" s="33"/>
-      <c r="M31" s="33">
-        <v>687997</v>
-      </c>
-      <c r="N31" s="33">
-        <v>6019973.75</v>
-      </c>
-      <c r="O31" s="25">
-        <v>29</v>
-      </c>
-      <c r="R31" s="1"/>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A32" s="30" t="s">
-        <v>119</v>
-      </c>
-      <c r="B32" s="30"/>
-      <c r="C32" s="30"/>
-      <c r="D32" s="30"/>
-      <c r="E32" s="30">
-        <v>30565887.629999999</v>
-      </c>
-      <c r="F32" s="30"/>
-      <c r="G32" s="30"/>
-      <c r="H32" s="30"/>
-      <c r="I32" s="30"/>
-      <c r="J32" s="30"/>
-      <c r="K32" s="30"/>
-      <c r="L32" s="30"/>
-      <c r="M32" s="30">
-        <v>3820736</v>
-      </c>
-      <c r="N32" s="30">
-        <v>26745152</v>
-      </c>
-      <c r="O32" s="25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A33" s="30" t="s">
-        <v>120</v>
-      </c>
-      <c r="B33" s="30"/>
-      <c r="C33" s="30"/>
-      <c r="D33" s="30"/>
-      <c r="E33" s="30"/>
-      <c r="F33" s="30">
-        <v>5108675.07</v>
-      </c>
-      <c r="G33" s="30"/>
-      <c r="H33" s="30"/>
-      <c r="I33" s="30"/>
-      <c r="J33" s="30"/>
-      <c r="K33" s="30"/>
-      <c r="L33" s="30"/>
-      <c r="M33" s="30">
-        <v>638585</v>
-      </c>
-      <c r="N33" s="30">
-        <v>4470090</v>
-      </c>
-      <c r="O33" s="25">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34" s="30" t="s">
-        <v>121</v>
-      </c>
-      <c r="B34" s="30"/>
-      <c r="C34" s="30"/>
-      <c r="D34" s="30">
-        <v>19919089.84</v>
-      </c>
-      <c r="E34" s="30"/>
-      <c r="F34" s="30"/>
-      <c r="G34" s="30"/>
-      <c r="H34" s="30"/>
-      <c r="I34" s="30"/>
-      <c r="J34" s="30"/>
-      <c r="K34" s="30"/>
-      <c r="L34" s="30"/>
-      <c r="M34" s="30">
-        <v>2489886</v>
-      </c>
-      <c r="N34" s="30">
-        <v>17429204</v>
-      </c>
-      <c r="O34" s="25">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A35" s="30" t="s">
-        <v>122</v>
-      </c>
-      <c r="B35" s="30"/>
-      <c r="C35" s="30"/>
-      <c r="D35" s="30">
-        <v>10607590.279999999</v>
-      </c>
-      <c r="E35" s="30"/>
-      <c r="F35" s="30"/>
-      <c r="G35" s="30"/>
-      <c r="H35" s="30"/>
-      <c r="I35" s="30"/>
-      <c r="J35" s="30"/>
-      <c r="K35" s="30"/>
-      <c r="L35" s="30"/>
-      <c r="M35" s="30">
-        <v>1325949</v>
-      </c>
-      <c r="N35" s="30">
-        <v>9281641</v>
-      </c>
-      <c r="O35" s="25">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A36" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="B36" s="30"/>
-      <c r="C36" s="30"/>
-      <c r="D36" s="30"/>
-      <c r="E36" s="30"/>
-      <c r="F36" s="30"/>
-      <c r="G36" s="30"/>
-      <c r="H36" s="30"/>
-      <c r="I36" s="30">
-        <v>21924820</v>
-      </c>
-      <c r="J36" s="30"/>
-      <c r="K36" s="30"/>
-      <c r="L36" s="30"/>
-      <c r="M36" s="30">
-        <v>2740603</v>
-      </c>
-      <c r="N36" s="30">
-        <v>19184217</v>
-      </c>
-      <c r="O36" s="25">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A37" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="B37" s="30"/>
-      <c r="C37" s="30"/>
-      <c r="D37" s="30"/>
-      <c r="E37" s="30"/>
-      <c r="F37" s="30"/>
-      <c r="G37" s="30"/>
-      <c r="H37" s="30"/>
-      <c r="I37" s="30"/>
-      <c r="J37" s="30">
-        <v>3582351.46</v>
-      </c>
-      <c r="K37" s="30"/>
-      <c r="L37" s="30"/>
-      <c r="M37" s="30">
-        <v>447794</v>
-      </c>
-      <c r="N37" s="30">
-        <v>3134557</v>
-      </c>
-      <c r="O37" s="25">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A38" s="30" t="s">
-        <v>125</v>
-      </c>
-      <c r="B38" s="30"/>
-      <c r="C38" s="30"/>
-      <c r="D38" s="30"/>
-      <c r="E38" s="30"/>
-      <c r="F38" s="30"/>
-      <c r="G38" s="30"/>
-      <c r="H38" s="30"/>
-      <c r="I38" s="30">
-        <v>3940433.72</v>
-      </c>
-      <c r="J38" s="30">
-        <v>3457479.39</v>
-      </c>
-      <c r="K38" s="30"/>
-      <c r="L38" s="30"/>
-      <c r="M38" s="30">
-        <v>924739</v>
-      </c>
-      <c r="N38" s="30">
-        <v>6473174</v>
-      </c>
-      <c r="O38" s="25">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A39" s="30" t="s">
-        <v>126</v>
-      </c>
-      <c r="B39" s="30"/>
-      <c r="C39" s="30"/>
-      <c r="D39" s="30"/>
-      <c r="E39" s="30">
-        <v>3785875.06</v>
-      </c>
-      <c r="F39" s="30"/>
-      <c r="G39" s="30"/>
-      <c r="H39" s="30"/>
-      <c r="I39" s="30"/>
-      <c r="J39" s="30"/>
-      <c r="K39" s="30"/>
-      <c r="L39" s="30"/>
-      <c r="M39" s="30">
-        <v>473234</v>
-      </c>
-      <c r="N39" s="30">
-        <v>3312641</v>
-      </c>
-      <c r="O39" s="25">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A40" s="30" t="s">
-        <v>127</v>
-      </c>
-      <c r="B40" s="30"/>
-      <c r="C40" s="30"/>
-      <c r="D40" s="30"/>
-      <c r="E40" s="30"/>
-      <c r="F40" s="30"/>
-      <c r="G40" s="30"/>
-      <c r="H40" s="30"/>
-      <c r="I40" s="30">
-        <v>10106760.09</v>
-      </c>
-      <c r="J40" s="30"/>
-      <c r="K40" s="30"/>
-      <c r="L40" s="30"/>
-      <c r="M40" s="30">
-        <v>1263345</v>
-      </c>
-      <c r="N40" s="30">
-        <v>8843415</v>
-      </c>
-      <c r="O40" s="25">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A41" s="30" t="s">
-        <v>128</v>
-      </c>
-      <c r="B41" s="30"/>
-      <c r="C41" s="30"/>
-      <c r="D41" s="30"/>
-      <c r="E41" s="30"/>
-      <c r="F41" s="30">
-        <v>9265078.2200000007</v>
-      </c>
-      <c r="G41" s="30"/>
-      <c r="H41" s="30"/>
-      <c r="I41" s="30"/>
-      <c r="J41" s="30"/>
-      <c r="K41" s="30"/>
-      <c r="L41" s="30"/>
-      <c r="M41" s="30">
-        <v>1158135</v>
-      </c>
-      <c r="N41" s="30">
-        <v>8106943</v>
-      </c>
-      <c r="O41" s="25">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A42" s="30" t="s">
-        <v>129</v>
-      </c>
-      <c r="B42" s="30"/>
-      <c r="C42" s="30"/>
-      <c r="D42" s="30"/>
-      <c r="E42" s="30"/>
-      <c r="F42" s="30"/>
-      <c r="G42" s="30">
-        <v>1181164.51</v>
-      </c>
-      <c r="H42" s="30"/>
-      <c r="I42" s="30"/>
-      <c r="J42" s="30"/>
-      <c r="K42" s="30"/>
-      <c r="L42" s="30"/>
-      <c r="M42" s="30">
-        <v>1476471</v>
-      </c>
-      <c r="N42" s="30">
-        <v>10335294</v>
-      </c>
-      <c r="O42" s="25">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A43" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="B43" s="30"/>
-      <c r="C43" s="30"/>
-      <c r="D43" s="30"/>
-      <c r="E43" s="30"/>
-      <c r="F43" s="30"/>
-      <c r="G43" s="30"/>
-      <c r="H43" s="30"/>
-      <c r="I43" s="30"/>
-      <c r="J43" s="30">
-        <v>3421028.06</v>
-      </c>
-      <c r="K43" s="30"/>
-      <c r="L43" s="30"/>
-      <c r="M43" s="30">
-        <v>427629</v>
-      </c>
-      <c r="N43" s="30">
-        <v>2993399</v>
-      </c>
-      <c r="O43" s="25">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A44" s="30" t="s">
-        <v>131</v>
-      </c>
-      <c r="B44" s="30"/>
-      <c r="C44" s="30"/>
-      <c r="D44" s="30">
-        <v>10902577.68</v>
-      </c>
-      <c r="E44" s="30"/>
-      <c r="F44" s="30"/>
-      <c r="G44" s="30"/>
-      <c r="H44" s="30"/>
-      <c r="I44" s="30">
-        <v>3276311.75</v>
-      </c>
-      <c r="J44" s="30"/>
-      <c r="K44" s="30"/>
-      <c r="L44" s="30"/>
-      <c r="M44" s="30">
-        <v>1772361</v>
-      </c>
-      <c r="N44" s="30">
-        <v>12406528</v>
-      </c>
-      <c r="O44" s="25">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A45" s="30" t="s">
-        <v>132</v>
-      </c>
-      <c r="B45" s="30"/>
-      <c r="C45" s="30">
-        <v>247168.51</v>
-      </c>
-      <c r="D45" s="30">
-        <v>1774035.071</v>
-      </c>
-      <c r="E45" s="30">
-        <v>356391.45</v>
-      </c>
-      <c r="F45" s="30"/>
-      <c r="G45" s="30"/>
-      <c r="H45" s="30"/>
-      <c r="I45" s="30"/>
-      <c r="J45" s="30"/>
-      <c r="K45" s="30"/>
-      <c r="L45" s="30"/>
-      <c r="M45" s="30">
-        <v>297199</v>
-      </c>
-      <c r="N45" s="30">
-        <v>2080396</v>
-      </c>
-      <c r="O45" s="25">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A46" s="30" t="s">
-        <v>133</v>
-      </c>
-      <c r="B46" s="30"/>
-      <c r="C46" s="30"/>
-      <c r="D46" s="30"/>
-      <c r="E46" s="30"/>
-      <c r="F46" s="30">
-        <v>18663800.670000002</v>
-      </c>
-      <c r="G46" s="30">
-        <v>4842188.09</v>
-      </c>
-      <c r="H46" s="30"/>
-      <c r="I46" s="30"/>
-      <c r="J46" s="30"/>
-      <c r="K46" s="30"/>
-      <c r="L46" s="30"/>
-      <c r="M46" s="30">
-        <v>2938249</v>
-      </c>
-      <c r="N46" s="30">
-        <v>20567740</v>
-      </c>
-      <c r="O46" s="25">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A47" s="30" t="s">
-        <v>134</v>
-      </c>
-      <c r="B47" s="30"/>
-      <c r="C47" s="30"/>
-      <c r="D47" s="30"/>
-      <c r="E47" s="30">
-        <v>9480354.0999999996</v>
-      </c>
-      <c r="F47" s="30"/>
-      <c r="G47" s="30"/>
-      <c r="H47" s="30"/>
-      <c r="I47" s="30">
-        <v>477480.29</v>
-      </c>
-      <c r="J47" s="30"/>
-      <c r="K47" s="30"/>
-      <c r="L47" s="30"/>
-      <c r="M47" s="30">
-        <v>1244729</v>
-      </c>
-      <c r="N47" s="30">
-        <v>8713105</v>
-      </c>
-      <c r="O47" s="25">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A48" s="30" t="s">
-        <v>135</v>
-      </c>
-      <c r="B48" s="30"/>
-      <c r="C48" s="30"/>
-      <c r="D48" s="30"/>
-      <c r="E48" s="30"/>
-      <c r="F48" s="30"/>
-      <c r="G48" s="30"/>
-      <c r="H48" s="30"/>
-      <c r="I48" s="30">
-        <v>7682708.75</v>
-      </c>
-      <c r="J48" s="30"/>
-      <c r="K48" s="30"/>
-      <c r="L48" s="30"/>
-      <c r="M48" s="30">
-        <v>960339</v>
-      </c>
-      <c r="N48" s="30">
-        <v>6722370</v>
-      </c>
-      <c r="O48" s="25">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A49" s="30" t="s">
-        <v>136</v>
-      </c>
-      <c r="B49" s="30"/>
-      <c r="C49" s="30"/>
-      <c r="D49" s="30"/>
-      <c r="E49" s="30">
-        <v>16117256.970000001</v>
-      </c>
-      <c r="F49" s="30"/>
-      <c r="G49" s="30"/>
-      <c r="H49" s="30"/>
-      <c r="I49" s="30"/>
-      <c r="J49" s="30"/>
-      <c r="K49" s="30"/>
-      <c r="L49" s="30"/>
-      <c r="M49" s="30">
-        <v>2014657</v>
-      </c>
-      <c r="N49" s="30">
-        <v>14102600</v>
-      </c>
-      <c r="O49" s="25">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A50" s="30" t="s">
-        <v>137</v>
-      </c>
-      <c r="B50" s="30"/>
-      <c r="C50" s="30"/>
-      <c r="D50" s="30"/>
-      <c r="E50" s="30"/>
-      <c r="F50" s="30"/>
-      <c r="G50" s="30"/>
-      <c r="H50" s="30"/>
-      <c r="I50" s="30">
-        <v>7683514.4699999997</v>
-      </c>
-      <c r="J50" s="30"/>
-      <c r="K50" s="30"/>
-      <c r="L50" s="30"/>
-      <c r="M50" s="30">
-        <v>960439</v>
-      </c>
-      <c r="N50" s="30">
-        <v>6723075</v>
-      </c>
-      <c r="O50" s="25">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A51" s="30" t="s">
-        <v>138</v>
-      </c>
-      <c r="B51" s="30"/>
-      <c r="C51" s="30"/>
-      <c r="D51" s="30"/>
-      <c r="E51" s="30"/>
-      <c r="F51" s="30"/>
-      <c r="G51" s="30"/>
-      <c r="H51" s="30"/>
-      <c r="I51" s="30">
-        <v>14652108</v>
-      </c>
-      <c r="J51" s="30"/>
-      <c r="K51" s="30"/>
-      <c r="L51" s="30"/>
-      <c r="M51" s="30">
-        <v>1831514</v>
-      </c>
-      <c r="N51" s="30">
-        <v>12820594</v>
-      </c>
-      <c r="O51" s="25">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A52" s="30" t="s">
-        <v>139</v>
-      </c>
-      <c r="B52" s="30"/>
-      <c r="C52" s="30"/>
-      <c r="D52" s="30">
-        <v>10164437.199999999</v>
-      </c>
-      <c r="E52" s="30"/>
-      <c r="F52" s="30"/>
-      <c r="G52" s="30"/>
-      <c r="H52" s="30"/>
-      <c r="I52" s="30"/>
-      <c r="J52" s="30"/>
-      <c r="K52" s="30"/>
-      <c r="L52" s="30"/>
-      <c r="M52" s="30">
-        <v>1270555</v>
-      </c>
-      <c r="N52" s="30">
-        <v>8893882</v>
-      </c>
-      <c r="O52" s="25">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A53" s="30" t="s">
-        <v>140</v>
-      </c>
-      <c r="B53" s="30"/>
-      <c r="C53" s="30"/>
-      <c r="D53" s="30">
-        <v>9258302.8699999992</v>
-      </c>
-      <c r="E53" s="30"/>
-      <c r="F53" s="30"/>
-      <c r="G53" s="30"/>
-      <c r="H53" s="30"/>
-      <c r="I53" s="30">
-        <v>544818.16</v>
-      </c>
-      <c r="J53" s="30">
-        <v>203113.3</v>
-      </c>
-      <c r="K53" s="30"/>
-      <c r="L53" s="30"/>
-      <c r="M53" s="30">
-        <v>1250779</v>
-      </c>
-      <c r="N53" s="30">
-        <v>8755455</v>
-      </c>
-      <c r="O53" s="25">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A54" s="30" t="s">
-        <v>141</v>
-      </c>
-      <c r="B54" s="30"/>
-      <c r="C54" s="30"/>
-      <c r="D54" s="30"/>
-      <c r="E54" s="30"/>
-      <c r="F54" s="30"/>
-      <c r="G54" s="30"/>
-      <c r="H54" s="30"/>
-      <c r="I54" s="30">
-        <v>2918327.09</v>
-      </c>
-      <c r="J54" s="30"/>
-      <c r="K54" s="30"/>
-      <c r="L54" s="30"/>
-      <c r="M54" s="30">
-        <v>364791</v>
-      </c>
-      <c r="N54" s="30">
-        <v>2553536</v>
-      </c>
-      <c r="O54" s="25">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A55" s="34" t="s">
-        <v>142</v>
-      </c>
-      <c r="B55" s="34"/>
-      <c r="C55" s="34"/>
-      <c r="D55" s="34">
-        <v>4065192.31</v>
-      </c>
-      <c r="E55" s="34"/>
-      <c r="F55" s="34"/>
-      <c r="G55" s="34"/>
-      <c r="H55" s="34"/>
-      <c r="I55" s="34"/>
-      <c r="J55" s="34"/>
-      <c r="K55" s="34"/>
-      <c r="L55" s="34"/>
-      <c r="M55" s="34">
-        <v>508149</v>
-      </c>
-      <c r="N55" s="34">
-        <v>3557343</v>
-      </c>
-      <c r="O55" s="25">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A56" s="34" t="s">
-        <v>143</v>
-      </c>
-      <c r="B56" s="34"/>
-      <c r="C56" s="34"/>
-      <c r="D56" s="34">
-        <v>395448</v>
-      </c>
-      <c r="E56" s="34"/>
-      <c r="F56" s="34"/>
-      <c r="G56" s="34"/>
-      <c r="H56" s="34"/>
-      <c r="I56" s="34">
-        <v>6835897.8899999997</v>
-      </c>
-      <c r="J56" s="34"/>
-      <c r="K56" s="34"/>
-      <c r="L56" s="34"/>
-      <c r="M56" s="34">
-        <v>799871</v>
-      </c>
-      <c r="N56" s="34">
-        <v>5599096</v>
-      </c>
-      <c r="O56" s="25">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A57" s="34" t="s">
-        <v>144</v>
-      </c>
-      <c r="B57" s="34"/>
-      <c r="C57" s="34"/>
-      <c r="D57" s="34"/>
-      <c r="E57" s="34">
-        <v>7041775.3600000003</v>
-      </c>
-      <c r="F57" s="34"/>
-      <c r="G57" s="34"/>
-      <c r="H57" s="34"/>
-      <c r="I57" s="34">
-        <v>2173969.3199999998</v>
-      </c>
-      <c r="J57" s="34"/>
-      <c r="K57" s="34"/>
-      <c r="L57" s="34"/>
-      <c r="M57" s="34">
-        <v>1151968</v>
-      </c>
-      <c r="N57" s="34">
-        <v>8063777</v>
-      </c>
-      <c r="O57" s="25">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A58" s="34" t="s">
-        <v>145</v>
-      </c>
-      <c r="B58" s="34"/>
-      <c r="C58" s="34"/>
-      <c r="D58" s="34"/>
-      <c r="E58" s="34">
-        <v>1333756.3810000001</v>
-      </c>
-      <c r="F58" s="34"/>
-      <c r="G58" s="34"/>
-      <c r="H58" s="34"/>
-      <c r="I58" s="34">
-        <v>3138936.3</v>
-      </c>
-      <c r="J58" s="34"/>
-      <c r="K58" s="34"/>
-      <c r="L58" s="34"/>
-      <c r="M58" s="34">
-        <v>559087</v>
-      </c>
-      <c r="N58" s="34">
-        <v>3913606</v>
-      </c>
-      <c r="O58" s="25">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A59" s="34" t="s">
-        <v>146</v>
-      </c>
-      <c r="B59" s="34"/>
-      <c r="C59" s="34"/>
-      <c r="D59" s="34"/>
-      <c r="E59" s="34">
-        <v>7166150.7970000003</v>
-      </c>
-      <c r="F59" s="34"/>
-      <c r="G59" s="34"/>
-      <c r="H59" s="34"/>
-      <c r="I59" s="34"/>
-      <c r="J59" s="34"/>
-      <c r="K59" s="34"/>
-      <c r="L59" s="34"/>
-      <c r="M59" s="34">
-        <v>895769</v>
-      </c>
-      <c r="N59" s="34">
-        <v>6270381</v>
-      </c>
-      <c r="O59" s="25">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A60" s="34" t="s">
-        <v>147</v>
-      </c>
-      <c r="B60" s="34"/>
-      <c r="C60" s="34"/>
-      <c r="D60" s="34"/>
-      <c r="E60" s="34">
-        <v>841027.35699999996</v>
-      </c>
-      <c r="F60" s="34"/>
-      <c r="G60" s="34"/>
-      <c r="H60" s="34"/>
-      <c r="I60" s="34">
-        <v>12356769.642999999</v>
-      </c>
-      <c r="J60" s="34"/>
-      <c r="K60" s="34"/>
-      <c r="L60" s="34"/>
-      <c r="M60" s="34">
-        <v>1649725</v>
-      </c>
-      <c r="N60" s="34">
-        <v>11548073</v>
-      </c>
-      <c r="O60" s="25">
-        <v>58</v>
-      </c>
-      <c r="R60" s="10"/>
-    </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A61" s="34" t="s">
-        <v>148</v>
-      </c>
-      <c r="B61" s="34"/>
-      <c r="C61" s="34"/>
-      <c r="D61" s="34">
-        <v>5452594.4699999988</v>
-      </c>
-      <c r="E61" s="34"/>
-      <c r="F61" s="34"/>
-      <c r="G61" s="34"/>
-      <c r="H61" s="34"/>
-      <c r="I61" s="34">
-        <v>23284588.450000003</v>
-      </c>
-      <c r="J61" s="34"/>
-      <c r="K61" s="34"/>
-      <c r="L61" s="34"/>
-      <c r="M61" s="34">
-        <v>3522148</v>
-      </c>
-      <c r="N61" s="34">
-        <v>251450352</v>
-      </c>
-      <c r="O61" s="25">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A62" s="33" t="s">
-        <v>149</v>
-      </c>
-      <c r="B62" s="33"/>
-      <c r="C62" s="33"/>
-      <c r="D62" s="33"/>
-      <c r="E62" s="33"/>
-      <c r="F62" s="33">
-        <v>6871914.25</v>
-      </c>
-      <c r="G62" s="33"/>
-      <c r="H62" s="33">
-        <v>3134579.898</v>
-      </c>
-      <c r="I62" s="33"/>
-      <c r="J62" s="33"/>
-      <c r="K62" s="33"/>
-      <c r="L62" s="33"/>
-      <c r="M62" s="33">
-        <v>1342829</v>
-      </c>
-      <c r="N62" s="33">
-        <v>9399803</v>
-      </c>
-      <c r="O62" s="25">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A63" s="33" t="s">
-        <v>150</v>
-      </c>
-      <c r="B63" s="33"/>
-      <c r="C63" s="33"/>
-      <c r="D63" s="33"/>
-      <c r="E63" s="33"/>
-      <c r="F63" s="33"/>
-      <c r="G63" s="33"/>
-      <c r="H63" s="33"/>
-      <c r="I63" s="33"/>
-      <c r="J63" s="33">
-        <v>20162366.32</v>
-      </c>
-      <c r="K63" s="33"/>
-      <c r="L63" s="33"/>
-      <c r="M63" s="33">
-        <v>2520296</v>
-      </c>
-      <c r="N63" s="33">
-        <v>17642070</v>
-      </c>
-      <c r="O63" s="25">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A64" s="33" t="s">
-        <v>151</v>
-      </c>
-      <c r="B64" s="33"/>
-      <c r="C64" s="33"/>
-      <c r="D64" s="33">
-        <v>3038478</v>
-      </c>
-      <c r="E64" s="33"/>
-      <c r="F64" s="33"/>
-      <c r="G64" s="33"/>
-      <c r="H64" s="33"/>
-      <c r="I64" s="33"/>
-      <c r="J64" s="33"/>
-      <c r="K64" s="33"/>
-      <c r="L64" s="33"/>
-      <c r="M64" s="33">
-        <v>379810</v>
-      </c>
-      <c r="N64" s="33">
-        <v>2658668</v>
-      </c>
-      <c r="O64" s="25">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A65" s="33" t="s">
-        <v>152</v>
-      </c>
-      <c r="B65" s="33"/>
-      <c r="C65" s="33"/>
-      <c r="D65" s="33"/>
-      <c r="E65" s="33"/>
-      <c r="F65" s="33"/>
-      <c r="G65" s="33"/>
-      <c r="H65" s="33"/>
-      <c r="I65" s="33"/>
-      <c r="J65" s="33"/>
-      <c r="K65" s="33">
-        <v>1890979</v>
-      </c>
-      <c r="L65" s="33"/>
-      <c r="M65" s="33">
-        <v>236372</v>
-      </c>
-      <c r="N65" s="33">
-        <v>1654607</v>
-      </c>
-      <c r="O65" s="25">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A66" s="33" t="s">
-        <v>153</v>
-      </c>
-      <c r="B66" s="33"/>
-      <c r="C66" s="33"/>
-      <c r="D66" s="33">
-        <v>11734497.34</v>
-      </c>
-      <c r="E66" s="33"/>
-      <c r="F66" s="33"/>
-      <c r="G66" s="33"/>
-      <c r="H66" s="33"/>
-      <c r="I66" s="33"/>
-      <c r="J66" s="33"/>
-      <c r="K66" s="33"/>
-      <c r="L66" s="33"/>
-      <c r="M66" s="33">
-        <v>1091812</v>
-      </c>
-      <c r="N66" s="33">
-        <v>7642685</v>
-      </c>
-      <c r="O66" s="25">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A67" s="33" t="s">
-        <v>154</v>
-      </c>
-      <c r="B67" s="33">
-        <v>237277.17</v>
-      </c>
-      <c r="C67" s="33"/>
-      <c r="D67" s="33">
-        <v>4754324.16</v>
-      </c>
-      <c r="E67" s="33"/>
-      <c r="F67" s="33"/>
-      <c r="G67" s="33"/>
-      <c r="H67" s="33"/>
-      <c r="I67" s="33">
-        <v>3536591.639</v>
-      </c>
-      <c r="J67" s="33"/>
-      <c r="K67" s="33"/>
-      <c r="L67" s="33"/>
-      <c r="M67" s="33">
-        <v>1066024</v>
-      </c>
-      <c r="N67" s="33">
-        <v>7462169</v>
-      </c>
-      <c r="O67" s="25">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A68" s="33" t="s">
-        <v>155</v>
-      </c>
-      <c r="B68" s="33"/>
-      <c r="C68" s="33"/>
-      <c r="D68" s="33"/>
-      <c r="E68" s="33"/>
-      <c r="F68" s="33"/>
-      <c r="G68" s="33"/>
-      <c r="H68" s="33"/>
-      <c r="I68" s="33">
-        <v>8566376</v>
-      </c>
-      <c r="J68" s="33"/>
-      <c r="K68" s="33"/>
-      <c r="L68" s="33"/>
-      <c r="M68" s="33">
-        <v>1070797</v>
-      </c>
-      <c r="N68" s="33">
-        <v>7495579</v>
-      </c>
-      <c r="O68" s="25">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A69" s="33" t="s">
-        <v>156</v>
-      </c>
-      <c r="B69" s="33"/>
-      <c r="C69" s="33"/>
-      <c r="D69" s="33"/>
-      <c r="E69" s="33"/>
-      <c r="F69" s="33"/>
-      <c r="G69" s="33"/>
-      <c r="H69" s="33"/>
-      <c r="I69" s="33"/>
-      <c r="J69" s="33">
-        <v>21434033</v>
-      </c>
-      <c r="K69" s="33"/>
-      <c r="L69" s="33"/>
-      <c r="M69" s="33">
-        <v>2679254</v>
-      </c>
-      <c r="N69" s="33">
-        <v>18754779</v>
-      </c>
-      <c r="O69" s="25">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A70" s="33" t="s">
-        <v>157</v>
-      </c>
-      <c r="B70" s="33"/>
-      <c r="C70" s="33"/>
-      <c r="D70" s="33"/>
-      <c r="E70" s="33"/>
-      <c r="F70" s="33"/>
-      <c r="G70" s="33"/>
-      <c r="H70" s="33"/>
-      <c r="I70" s="33">
-        <v>1869271.878</v>
-      </c>
-      <c r="J70" s="33">
-        <v>3950811.1020000004</v>
-      </c>
-      <c r="K70" s="33"/>
-      <c r="L70" s="33"/>
-      <c r="M70" s="33">
-        <v>711031</v>
-      </c>
-      <c r="N70" s="33">
-        <v>4977219</v>
-      </c>
-      <c r="O70" s="25">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A71" s="33" t="s">
-        <v>158</v>
-      </c>
-      <c r="B71" s="33"/>
-      <c r="C71" s="33"/>
-      <c r="D71" s="33"/>
-      <c r="E71" s="33"/>
-      <c r="F71" s="33"/>
-      <c r="G71" s="33"/>
-      <c r="H71" s="33"/>
-      <c r="I71" s="33"/>
-      <c r="J71" s="33">
-        <v>3715423</v>
-      </c>
-      <c r="K71" s="33"/>
-      <c r="L71" s="33"/>
-      <c r="M71" s="33">
-        <v>464428</v>
-      </c>
-      <c r="N71" s="33">
-        <v>3250995</v>
-      </c>
-      <c r="O71" s="25">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A72" s="33" t="s">
-        <v>159</v>
-      </c>
-      <c r="B72" s="33"/>
-      <c r="C72" s="33"/>
-      <c r="D72" s="33">
-        <v>15319532</v>
-      </c>
-      <c r="E72" s="33"/>
-      <c r="F72" s="33"/>
-      <c r="G72" s="33"/>
-      <c r="H72" s="33"/>
-      <c r="I72" s="33"/>
-      <c r="J72" s="33"/>
-      <c r="K72" s="33"/>
-      <c r="L72" s="33"/>
-      <c r="M72" s="33">
-        <v>1914942</v>
-      </c>
-      <c r="N72" s="33">
-        <v>13404590</v>
-      </c>
-      <c r="O72" s="25">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A73" s="33" t="s">
-        <v>160</v>
-      </c>
-      <c r="B73" s="33"/>
-      <c r="C73" s="33"/>
-      <c r="D73" s="33"/>
-      <c r="E73" s="33">
-        <v>4972139.51</v>
-      </c>
-      <c r="F73" s="33"/>
-      <c r="G73" s="33"/>
-      <c r="H73" s="33"/>
-      <c r="I73" s="33">
-        <v>112500</v>
-      </c>
-      <c r="J73" s="33"/>
-      <c r="K73" s="33"/>
-      <c r="L73" s="33"/>
-      <c r="M73" s="33">
-        <v>635580</v>
-      </c>
-      <c r="N73" s="33">
-        <v>4449060</v>
-      </c>
-      <c r="O73" s="25">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A74" s="33" t="s">
-        <v>161</v>
-      </c>
-      <c r="B74" s="33"/>
-      <c r="C74" s="33"/>
-      <c r="D74" s="33"/>
-      <c r="E74" s="33"/>
-      <c r="F74" s="33"/>
-      <c r="G74" s="33"/>
-      <c r="H74" s="33"/>
-      <c r="I74" s="33">
-        <v>7671622.0999999996</v>
-      </c>
-      <c r="J74" s="33"/>
-      <c r="K74" s="33"/>
-      <c r="L74" s="33"/>
-      <c r="M74" s="33">
-        <v>921416</v>
-      </c>
-      <c r="N74" s="33">
-        <v>6449915</v>
-      </c>
-      <c r="O74" s="25">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A75" s="33" t="s">
-        <v>163</v>
-      </c>
-      <c r="B75" s="33"/>
-      <c r="C75" s="33"/>
-      <c r="D75" s="33"/>
-      <c r="E75" s="33"/>
-      <c r="F75" s="33"/>
-      <c r="G75" s="33"/>
-      <c r="H75" s="33"/>
-      <c r="I75" s="35">
-        <v>10277493</v>
-      </c>
-      <c r="J75" s="33"/>
-      <c r="K75" s="33"/>
-      <c r="L75" s="33"/>
-      <c r="M75" s="36">
-        <v>1284687</v>
-      </c>
-      <c r="N75" s="36">
-        <v>8992806</v>
-      </c>
-      <c r="O75" s="25">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A76" s="34" t="s">
-        <v>162</v>
-      </c>
-      <c r="B76" s="34"/>
-      <c r="C76" s="34"/>
-      <c r="D76" s="34">
-        <v>2004423.12</v>
-      </c>
-      <c r="E76" s="34">
-        <v>2200388.38</v>
-      </c>
-      <c r="F76" s="34"/>
-      <c r="G76" s="34"/>
-      <c r="H76" s="34"/>
-      <c r="I76" s="34">
-        <v>27775</v>
-      </c>
-      <c r="J76" s="34"/>
-      <c r="K76" s="34"/>
-      <c r="L76" s="34"/>
-      <c r="M76" s="34">
-        <v>529073</v>
-      </c>
-      <c r="N76" s="34">
-        <v>4232587</v>
-      </c>
-      <c r="O76" s="25"/>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A77" s="34" t="s">
-        <v>164</v>
-      </c>
-      <c r="B77" s="34"/>
-      <c r="C77" s="34"/>
-      <c r="D77" s="34"/>
-      <c r="E77" s="34">
-        <v>5035264.49</v>
-      </c>
-      <c r="F77" s="34"/>
-      <c r="G77" s="34"/>
-      <c r="H77" s="34"/>
-      <c r="I77" s="34"/>
-      <c r="J77" s="34">
-        <v>1253692.1100000001</v>
-      </c>
-      <c r="K77" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="L77" s="34"/>
-      <c r="M77" s="34">
-        <v>786119.57500000007</v>
-      </c>
-      <c r="N77" s="34">
-        <v>5502837.0250000004</v>
-      </c>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A78" s="34" t="s">
-        <v>165</v>
-      </c>
-      <c r="B78" s="34"/>
-      <c r="C78" s="34"/>
-      <c r="D78" s="34"/>
-      <c r="E78" s="34">
-        <v>1360415.54</v>
-      </c>
-      <c r="F78" s="34"/>
-      <c r="G78" s="34"/>
-      <c r="H78" s="34"/>
-      <c r="I78" s="34">
-        <v>455742.37</v>
-      </c>
-      <c r="J78" s="34">
-        <v>1831376.254</v>
-      </c>
-      <c r="K78" s="34"/>
-      <c r="L78" s="34"/>
-      <c r="M78" s="34">
-        <v>455942</v>
-      </c>
-      <c r="N78" s="34">
-        <v>3191592</v>
-      </c>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A79" s="34" t="s">
-        <v>166</v>
-      </c>
-      <c r="B79" s="34"/>
-      <c r="C79" s="34"/>
-      <c r="D79" s="34">
-        <v>5389926.9299999997</v>
-      </c>
-      <c r="E79" s="34">
-        <v>1782400.4</v>
-      </c>
-      <c r="F79" s="34"/>
-      <c r="G79" s="34"/>
-      <c r="H79" s="34"/>
-      <c r="I79" s="34"/>
-      <c r="J79" s="34"/>
-      <c r="K79" s="34"/>
-      <c r="L79" s="34"/>
-      <c r="M79" s="34">
-        <v>896541</v>
-      </c>
-      <c r="N79" s="34">
-        <v>6275786</v>
-      </c>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A80" s="34" t="s">
-        <v>167</v>
-      </c>
-      <c r="B80" s="34"/>
-      <c r="C80" s="34"/>
-      <c r="D80" s="34"/>
-      <c r="E80" s="34"/>
-      <c r="F80" s="34"/>
-      <c r="G80" s="34"/>
-      <c r="H80" s="34"/>
-      <c r="I80" s="34">
-        <v>3499306</v>
-      </c>
-      <c r="J80" s="34"/>
-      <c r="K80" s="34"/>
-      <c r="L80" s="34"/>
-      <c r="M80" s="34">
-        <v>437413</v>
-      </c>
-      <c r="N80" s="34">
-        <v>3061893</v>
-      </c>
-    </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A81" s="34" t="s">
-        <v>168</v>
-      </c>
-      <c r="B81" s="34"/>
-      <c r="C81" s="34"/>
-      <c r="D81" s="34"/>
-      <c r="E81" s="34"/>
-      <c r="F81" s="34"/>
-      <c r="G81" s="34">
-        <v>20826914</v>
-      </c>
-      <c r="H81" s="34"/>
-      <c r="I81" s="34"/>
-      <c r="J81" s="34"/>
-      <c r="K81" s="34"/>
-      <c r="L81" s="34"/>
-      <c r="M81" s="34">
-        <v>2603364</v>
-      </c>
-      <c r="N81" s="34">
-        <v>18223550</v>
-      </c>
-    </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A82" s="34" t="s">
-        <v>169</v>
-      </c>
-      <c r="B82" s="34"/>
-      <c r="C82" s="34"/>
-      <c r="D82" s="34"/>
-      <c r="E82" s="34"/>
-      <c r="F82" s="34">
-        <v>3669874</v>
-      </c>
-      <c r="G82" s="34"/>
-      <c r="H82" s="34"/>
-      <c r="I82" s="34"/>
-      <c r="J82" s="34"/>
-      <c r="K82" s="34"/>
-      <c r="L82" s="34"/>
-      <c r="M82" s="34">
-        <v>458734</v>
-      </c>
-      <c r="N82" s="34">
-        <v>3211140</v>
-      </c>
-    </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A83" s="34" t="s">
-        <v>170</v>
-      </c>
-      <c r="B83" s="34"/>
-      <c r="C83" s="34"/>
-      <c r="D83" s="34"/>
-      <c r="E83" s="34"/>
-      <c r="F83" s="34"/>
-      <c r="G83" s="34">
+      <c r="B103" s="32" t="s">
+        <v>277</v>
+      </c>
+      <c r="C103" s="32"/>
+      <c r="D103" s="32"/>
+      <c r="E103" s="32"/>
+      <c r="F103" s="32"/>
+      <c r="G103" s="32"/>
+      <c r="H103" s="32">
         <v>24327546</v>
       </c>
-      <c r="H83" s="34"/>
-      <c r="I83" s="34"/>
-      <c r="J83" s="34"/>
-      <c r="K83" s="34"/>
-      <c r="L83" s="34"/>
-      <c r="M83" s="34">
+      <c r="I103" s="32"/>
+      <c r="J103" s="32"/>
+      <c r="K103" s="32"/>
+      <c r="L103" s="32"/>
+      <c r="M103" s="32"/>
+      <c r="N103" s="32"/>
+      <c r="O103" s="32">
         <v>3040943</v>
       </c>
-      <c r="N83" s="34">
+      <c r="P103" s="32">
         <v>21286603</v>
       </c>
+      <c r="Q103" s="30" t="s">
+        <v>278</v>
+      </c>
+      <c r="R103" s="29">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
+  <sortState ref="A2:O103">
+    <sortCondition ref="A2:A103"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E2:I22"/>
+  <dimension ref="A2:N27"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="14.140625" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" customWidth="1"/>
+    <col min="2" max="2" width="6.140625" customWidth="1"/>
+    <col min="3" max="3" width="5.42578125" customWidth="1"/>
+    <col min="4" max="4" width="3.85546875" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" style="1" customWidth="1"/>
     <col min="7" max="7" width="19.5703125" style="1" customWidth="1"/>
     <col min="9" max="9" width="13" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" customWidth="1"/>
+    <col min="13" max="13" width="10.85546875" customWidth="1"/>
+    <col min="14" max="14" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="5:9" x14ac:dyDescent="0.25">
@@ -5388,7 +7037,7 @@
       </c>
     </row>
     <row r="14" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E14" t="s">
+      <c r="E14" s="1" t="s">
         <v>33</v>
       </c>
       <c r="G14" s="1" t="s">
@@ -5396,7 +7045,7 @@
       </c>
     </row>
     <row r="15" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E15">
+      <c r="E15" s="1">
         <v>875966.73300000001</v>
       </c>
       <c r="G15" s="1">
@@ -5404,15 +7053,15 @@
       </c>
     </row>
     <row r="16" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E16">
+      <c r="E16" s="1">
         <v>906433.66399999999</v>
       </c>
       <c r="G16" s="1">
         <v>2590080.1800000002</v>
       </c>
     </row>
-    <row r="17" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E17">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E17" s="1">
         <f>SUM(E15:E16)</f>
         <v>1782400.3969999999</v>
       </c>
@@ -5420,16 +7069,16 @@
         <v>1949709.13</v>
       </c>
     </row>
-    <row r="18" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E18">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E18" s="1">
         <v>7172327.3300000001</v>
       </c>
       <c r="G18" s="1">
         <v>1366206.83</v>
       </c>
     </row>
-    <row r="19" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E19" s="10">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E19" s="12">
         <f>E18-E17</f>
         <v>5389926.9330000002</v>
       </c>
@@ -5437,20 +7086,48 @@
         <v>739134.85</v>
       </c>
     </row>
-    <row r="20" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="G20" s="1">
         <v>379009.28000000003</v>
       </c>
     </row>
-    <row r="21" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="G21" s="1">
         <v>600581.69999999995</v>
       </c>
     </row>
-    <row r="22" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="G22" s="1">
         <f>SUM(G15:G21)</f>
         <v>7671622.0999999996</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="B27" s="27"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27">
+        <v>5035264.49</v>
+      </c>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="27">
+        <v>1253692.1100000001</v>
+      </c>
+      <c r="K27" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="L27" s="27"/>
+      <c r="M27" s="28">
+        <v>786119.57500000007</v>
+      </c>
+      <c r="N27" s="28">
+        <v>5502837.0250000004</v>
       </c>
     </row>
   </sheetData>
@@ -5476,232 +7153,232 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
-        <v>162</v>
-      </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26">
+      <c r="A1" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23">
         <v>2004423.12</v>
       </c>
-      <c r="E1" s="26">
+      <c r="E1" s="23">
         <v>2200388.38</v>
       </c>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26">
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23">
         <v>27775</v>
       </c>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26">
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23">
         <v>529073</v>
       </c>
-      <c r="N1" s="26">
+      <c r="N1" s="23">
         <v>4232587</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
-        <v>163</v>
-      </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="27">
+      <c r="A2" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="24">
         <v>10277493</v>
       </c>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="28">
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="25">
         <v>1284687</v>
       </c>
-      <c r="N2" s="28">
+      <c r="N2" s="25">
         <v>8992806</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
-        <v>164</v>
-      </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26">
+      <c r="A3" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23">
         <v>5035264.49</v>
       </c>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26">
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23">
         <v>1253692.1100000001</v>
       </c>
-      <c r="K3" s="26" t="s">
-        <v>171</v>
-      </c>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26">
+      <c r="K3" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23">
         <v>786119.57500000007</v>
       </c>
-      <c r="N3" s="26">
+      <c r="N3" s="23">
         <v>5502837.0250000004</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
-        <v>165</v>
-      </c>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26">
+      <c r="A4" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23">
         <v>1360415.54</v>
       </c>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26">
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23">
         <v>455742.37</v>
       </c>
-      <c r="J4" s="26">
+      <c r="J4" s="23">
         <v>1831376.254</v>
       </c>
-      <c r="K4" s="26"/>
-      <c r="L4" s="26"/>
-      <c r="M4" s="26">
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="23">
         <v>455942</v>
       </c>
-      <c r="N4" s="26">
+      <c r="N4" s="23">
         <v>3191592</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="26" t="s">
-        <v>166</v>
-      </c>
-      <c r="B5" s="26"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26">
+      <c r="A5" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23">
         <v>5389926.9299999997</v>
       </c>
-      <c r="E5" s="26">
+      <c r="E5" s="23">
         <v>1782400.4</v>
       </c>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="26">
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="23">
         <v>896541</v>
       </c>
-      <c r="N5" s="26">
+      <c r="N5" s="23">
         <v>6275786</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="26" t="s">
-        <v>167</v>
-      </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26">
+      <c r="A6" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23">
         <v>3499306</v>
       </c>
-      <c r="J6" s="26"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="26"/>
-      <c r="M6" s="26">
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23">
         <v>437413</v>
       </c>
-      <c r="N6" s="26">
+      <c r="N6" s="23">
         <v>3061893</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26">
+      <c r="A7" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23">
         <v>20826914</v>
       </c>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="26">
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="23">
         <v>2603364</v>
       </c>
-      <c r="N7" s="26">
+      <c r="N7" s="23">
         <v>18223550</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="26" t="s">
-        <v>169</v>
-      </c>
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26">
+      <c r="A8" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23">
         <v>3669874</v>
       </c>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="26">
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="23">
         <v>458734</v>
       </c>
-      <c r="N8" s="26">
+      <c r="N8" s="23">
         <v>3211140</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26">
+      <c r="A9" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23">
         <v>24327546</v>
       </c>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="26"/>
-      <c r="M9" s="26">
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="23">
         <v>3040943</v>
       </c>
-      <c r="N9" s="26">
+      <c r="N9" s="23">
         <v>21286603</v>
       </c>
     </row>

--- a/Civilworks cost/IPC Distribution.xlsx
+++ b/Civilworks cost/IPC Distribution.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20736" windowHeight="11760" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1354,14 +1354,14 @@
       <selection activeCell="D2" sqref="D2:D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="18.28515625" customWidth="1"/>
-    <col min="3" max="3" width="97.5703125" customWidth="1"/>
-    <col min="4" max="4" width="52.85546875" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" customWidth="1"/>
+    <col min="3" max="3" width="97.5546875" customWidth="1"/>
+    <col min="4" max="4" width="52.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -1372,7 +1372,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>57</v>
       </c>
@@ -1387,7 +1387,7 @@
         <v>4111306_Construction of Irrigation Inlet (New Haors)</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>58</v>
       </c>
@@ -1402,7 +1402,7 @@
         <v>4111307_ Re-installation/Construction of Regulator/ Causeway (Rehabilitation Sub-Projects)</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>59</v>
       </c>
@@ -1417,7 +1417,7 @@
         <v>4111307_ Installation/Construction of New Regulators/ Causeway/Bridge/Box Drainage Outlet) (New Haors)</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>60</v>
       </c>
@@ -1432,7 +1432,7 @@
         <v xml:space="preserve">4111307_ Re-excavation of Khal/River (New Haors) </v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>61</v>
       </c>
@@ -1447,7 +1447,7 @@
         <v xml:space="preserve">4111201_ Re-excavation of Khal/River (Rehabilitation Sub-Projects) </v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>62</v>
       </c>
@@ -1462,7 +1462,7 @@
         <v>4111201_ Rehabilitation of Full Embankment (Resection/ construction) (Rehabilitation Sub-Projects)</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>63</v>
       </c>
@@ -1477,7 +1477,7 @@
         <v>4111201_ Rehabilitation of Submergible Embankment  (Resection/construction)  (Rehabilitation Sub-Projects)</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>64</v>
       </c>
@@ -1492,7 +1492,7 @@
         <v>4111201_Construction of Submersible Embankment (New Haors) (Earth Volume: 29.98 lakh cum)</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>65</v>
       </c>
@@ -1507,7 +1507,7 @@
         <v>4111201_ Rehabilitation of Regulator (New Haors)</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>66</v>
       </c>
@@ -1522,7 +1522,7 @@
         <v>4111201_Construction of WMG Office</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>67</v>
       </c>
@@ -1553,28 +1553,28 @@
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="115.85546875" customWidth="1"/>
-    <col min="2" max="2" width="46.28515625" style="1" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="62.5703125" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="47.140625" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="115.88671875" customWidth="1"/>
+    <col min="2" max="2" width="46.33203125" style="1" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="62.5546875" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="47.109375" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="47" style="1" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="44.42578125" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="47.28515625" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="44.44140625" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="47.33203125" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="56" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="50" customWidth="1"/>
-    <col min="10" max="10" width="61.28515625" customWidth="1"/>
-    <col min="11" max="11" width="43.7109375" customWidth="1"/>
-    <col min="12" max="12" width="51.5703125" customWidth="1"/>
-    <col min="13" max="13" width="49.42578125" customWidth="1"/>
-    <col min="14" max="14" width="45.28515625" customWidth="1"/>
-    <col min="15" max="15" width="56.42578125" style="12" customWidth="1"/>
-    <col min="16" max="16" width="42.42578125" customWidth="1"/>
-    <col min="17" max="17" width="43.28515625" customWidth="1"/>
+    <col min="10" max="10" width="61.33203125" customWidth="1"/>
+    <col min="11" max="11" width="43.6640625" customWidth="1"/>
+    <col min="12" max="12" width="51.5546875" customWidth="1"/>
+    <col min="13" max="13" width="49.44140625" customWidth="1"/>
+    <col min="14" max="14" width="45.33203125" customWidth="1"/>
+    <col min="15" max="15" width="56.44140625" style="12" customWidth="1"/>
+    <col min="16" max="16" width="42.44140625" customWidth="1"/>
+    <col min="17" max="17" width="43.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="39" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:17" ht="39" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>29</v>
@@ -1625,7 +1625,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="57.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:17" ht="57.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
@@ -1650,7 +1650,7 @@
       <c r="P2" s="13"/>
       <c r="Q2" s="13"/>
     </row>
-    <row r="3" spans="1:17" ht="57.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:17" ht="57.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="3" t="s">
         <v>15</v>
       </c>
@@ -1671,7 +1671,7 @@
       <c r="P3" s="13"/>
       <c r="Q3" s="13"/>
     </row>
-    <row r="4" spans="1:17" ht="57.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:17" ht="57.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="3" t="s">
         <v>16</v>
       </c>
@@ -1712,7 +1712,7 @@
       <c r="P4" s="13"/>
       <c r="Q4" s="13"/>
     </row>
-    <row r="5" spans="1:17" ht="57.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:17" ht="57.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="3" t="s">
         <v>17</v>
       </c>
@@ -1743,7 +1743,7 @@
       <c r="P5" s="13"/>
       <c r="Q5" s="13"/>
     </row>
-    <row r="6" spans="1:17" ht="57.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:17" ht="57.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="3" t="s">
         <v>18</v>
       </c>
@@ -1766,7 +1766,7 @@
       <c r="P6" s="13"/>
       <c r="Q6" s="13"/>
     </row>
-    <row r="7" spans="1:17" ht="57.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:17" ht="57.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="3" t="s">
         <v>19</v>
       </c>
@@ -1787,7 +1787,7 @@
       <c r="P7" s="13"/>
       <c r="Q7" s="13"/>
     </row>
-    <row r="8" spans="1:17" ht="57.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:17" ht="57.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="3" t="s">
         <v>20</v>
       </c>
@@ -1808,7 +1808,7 @@
       <c r="P8" s="13"/>
       <c r="Q8" s="13"/>
     </row>
-    <row r="9" spans="1:17" ht="57.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:17" ht="57.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="3" t="s">
         <v>21</v>
       </c>
@@ -1841,7 +1841,7 @@
         <v>391128</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="57.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:17" ht="57.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="3" t="s">
         <v>22</v>
       </c>
@@ -1862,7 +1862,7 @@
       <c r="P10" s="13"/>
       <c r="Q10" s="13"/>
     </row>
-    <row r="11" spans="1:17" ht="57.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:17" ht="57.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="3" t="s">
         <v>23</v>
       </c>
@@ -1883,7 +1883,7 @@
       <c r="P11" s="13"/>
       <c r="Q11" s="13"/>
     </row>
-    <row r="12" spans="1:17" ht="57.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:17" ht="57.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="3" t="s">
         <v>24</v>
       </c>
@@ -1904,7 +1904,7 @@
       <c r="P12" s="13"/>
       <c r="Q12" s="13"/>
     </row>
-    <row r="13" spans="1:17" ht="43.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:17" ht="43.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="3" t="s">
         <v>28</v>
       </c>
@@ -1943,23 +1943,23 @@
       <selection activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="119" customWidth="1"/>
     <col min="2" max="2" width="39" style="1" hidden="1" customWidth="1"/>
     <col min="3" max="8" width="39" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="47.140625" customWidth="1"/>
-    <col min="10" max="10" width="40.7109375" customWidth="1"/>
-    <col min="11" max="11" width="47.5703125" customWidth="1"/>
+    <col min="9" max="9" width="47.109375" customWidth="1"/>
+    <col min="10" max="10" width="40.6640625" customWidth="1"/>
+    <col min="11" max="11" width="47.5546875" customWidth="1"/>
     <col min="12" max="12" width="52" style="12" customWidth="1"/>
-    <col min="13" max="13" width="48.28515625" customWidth="1"/>
-    <col min="14" max="14" width="48.140625" customWidth="1"/>
-    <col min="15" max="15" width="60.28515625" customWidth="1"/>
-    <col min="16" max="16" width="45.7109375" customWidth="1"/>
-    <col min="17" max="17" width="46.140625" customWidth="1"/>
+    <col min="13" max="13" width="48.33203125" customWidth="1"/>
+    <col min="14" max="14" width="48.109375" customWidth="1"/>
+    <col min="15" max="15" width="60.33203125" customWidth="1"/>
+    <col min="16" max="16" width="45.6640625" customWidth="1"/>
+    <col min="17" max="17" width="46.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="39" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:17" ht="39" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>29</v>
@@ -2010,7 +2010,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
@@ -2035,7 +2035,7 @@
       <c r="P2" s="13"/>
       <c r="Q2" s="13"/>
     </row>
-    <row r="3" spans="1:17" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>15</v>
       </c>
@@ -2056,7 +2056,7 @@
       <c r="P3" s="13"/>
       <c r="Q3" s="13"/>
     </row>
-    <row r="4" spans="1:17" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>16</v>
       </c>
@@ -2097,7 +2097,7 @@
       <c r="P4" s="13"/>
       <c r="Q4" s="13"/>
     </row>
-    <row r="5" spans="1:17" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>17</v>
       </c>
@@ -2128,7 +2128,7 @@
       <c r="P5" s="13"/>
       <c r="Q5" s="13"/>
     </row>
-    <row r="6" spans="1:17" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>18</v>
       </c>
@@ -2151,7 +2151,7 @@
       <c r="P6" s="13"/>
       <c r="Q6" s="13"/>
     </row>
-    <row r="7" spans="1:17" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>19</v>
       </c>
@@ -2172,7 +2172,7 @@
       <c r="P7" s="13"/>
       <c r="Q7" s="13"/>
     </row>
-    <row r="8" spans="1:17" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>20</v>
       </c>
@@ -2193,7 +2193,7 @@
       <c r="P8" s="13"/>
       <c r="Q8" s="13"/>
     </row>
-    <row r="9" spans="1:17" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>21</v>
       </c>
@@ -2226,7 +2226,7 @@
         <v>2737897</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>22</v>
       </c>
@@ -2247,7 +2247,7 @@
       <c r="P10" s="13"/>
       <c r="Q10" s="13"/>
     </row>
-    <row r="11" spans="1:17" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>23</v>
       </c>
@@ -2268,7 +2268,7 @@
       <c r="P11" s="13"/>
       <c r="Q11" s="13"/>
     </row>
-    <row r="12" spans="1:17" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>24</v>
       </c>
@@ -2289,7 +2289,7 @@
       <c r="P12" s="13"/>
       <c r="Q12" s="13"/>
     </row>
-    <row r="13" spans="1:17" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>28</v>
       </c>
@@ -2328,26 +2328,26 @@
       <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="20.140625" style="10" customWidth="1"/>
+    <col min="2" max="2" width="20.109375" style="10" customWidth="1"/>
     <col min="3" max="3" width="16" style="10" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" customWidth="1"/>
-    <col min="8" max="8" width="22.85546875" customWidth="1"/>
-    <col min="9" max="9" width="19.42578125" customWidth="1"/>
-    <col min="12" max="12" width="19.42578125" customWidth="1"/>
-    <col min="13" max="13" width="25.140625" style="10" customWidth="1"/>
-    <col min="14" max="14" width="26.28515625" customWidth="1"/>
-    <col min="15" max="15" width="17.7109375" style="10" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" customWidth="1"/>
-    <col min="17" max="17" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.28515625" style="11" customWidth="1"/>
-    <col min="19" max="19" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.28515625" customWidth="1"/>
-    <col min="21" max="21" width="16.5703125" customWidth="1"/>
+    <col min="5" max="5" width="17.109375" customWidth="1"/>
+    <col min="8" max="8" width="22.88671875" customWidth="1"/>
+    <col min="9" max="9" width="19.44140625" customWidth="1"/>
+    <col min="12" max="12" width="19.44140625" customWidth="1"/>
+    <col min="13" max="13" width="25.109375" style="10" customWidth="1"/>
+    <col min="14" max="14" width="26.33203125" customWidth="1"/>
+    <col min="15" max="15" width="17.6640625" style="10" customWidth="1"/>
+    <col min="16" max="16" width="14.88671875" customWidth="1"/>
+    <col min="17" max="17" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.33203125" style="11" customWidth="1"/>
+    <col min="19" max="19" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.33203125" customWidth="1"/>
+    <col min="21" max="21" width="16.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B1" s="12">
         <v>7146.0320000000002</v>
       </c>
@@ -2363,7 +2363,7 @@
       <c r="O1" s="12"/>
       <c r="P1" s="1"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B2" s="12">
         <v>2175338.3840000001</v>
       </c>
@@ -2389,7 +2389,7 @@
       <c r="O2" s="12"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B3" s="12">
         <v>442686.37599999999</v>
       </c>
@@ -2413,7 +2413,7 @@
       <c r="O3" s="12"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B4" s="12">
         <v>25927.940999999999</v>
       </c>
@@ -2440,7 +2440,7 @@
       <c r="O4" s="12"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>32</v>
       </c>
@@ -2475,7 +2475,7 @@
       <c r="O5" s="12"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B6" s="12"/>
       <c r="C6" s="12">
         <v>769684.61699999997</v>
@@ -2500,7 +2500,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C7" s="12">
         <v>776580.14399999997</v>
       </c>
@@ -2524,7 +2524,7 @@
         <v>12285185.104948564</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C8" s="12">
         <f>SUM(C1:C7)</f>
         <v>2491596.338</v>
@@ -2548,7 +2548,7 @@
         <v>901800.89505143708</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="E9" s="12">
         <f>B6+C8</f>
         <v>2491596.338</v>
@@ -2570,12 +2570,12 @@
         <v>15070841</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="L12" s="10" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="L13" s="10" t="s">
         <v>48</v>
       </c>
@@ -2592,7 +2592,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="L14" s="16">
         <v>5478066.2400000002</v>
       </c>
@@ -2618,7 +2618,7 @@
         <v>4313977.0977821741</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="L15" s="16"/>
       <c r="M15" s="12">
         <v>315745.96999999997</v>
@@ -2643,7 +2643,7 @@
         <v>5197670.9022178268</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="K16" t="s">
         <v>25</v>
       </c>
@@ -2669,7 +2669,7 @@
       </c>
       <c r="S16" s="10"/>
     </row>
-    <row r="17" spans="11:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="11:19" x14ac:dyDescent="0.3">
       <c r="K17" t="s">
         <v>49</v>
       </c>
@@ -2679,18 +2679,18 @@
         <v>12078283.359999999</v>
       </c>
     </row>
-    <row r="18" spans="11:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="11:19" x14ac:dyDescent="0.3">
       <c r="L18" s="10"/>
     </row>
-    <row r="19" spans="11:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="11:19" x14ac:dyDescent="0.3">
       <c r="L19" s="10"/>
     </row>
-    <row r="20" spans="11:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="11:19" x14ac:dyDescent="0.3">
       <c r="L20" s="10" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="11:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="11:19" x14ac:dyDescent="0.3">
       <c r="L21" s="10" t="s">
         <v>48</v>
       </c>
@@ -2707,7 +2707,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="11:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="11:19" x14ac:dyDescent="0.3">
       <c r="L22" s="10">
         <v>5478066.2400000002</v>
       </c>
@@ -2732,7 +2732,7 @@
         <v>479330.43588387553</v>
       </c>
     </row>
-    <row r="23" spans="11:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="11:19" x14ac:dyDescent="0.3">
       <c r="L23" s="10"/>
       <c r="M23" s="10">
         <v>315745.96999999997</v>
@@ -2755,7 +2755,7 @@
         <v>577518.56411612465</v>
       </c>
     </row>
-    <row r="24" spans="11:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="11:19" x14ac:dyDescent="0.3">
       <c r="K24" t="s">
         <v>25</v>
       </c>
@@ -2781,7 +2781,7 @@
         <v>1207828.0000000002</v>
       </c>
     </row>
-    <row r="25" spans="11:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="11:19" x14ac:dyDescent="0.3">
       <c r="K25" t="s">
         <v>49</v>
       </c>
@@ -2789,12 +2789,12 @@
         <v>12078283.359999999</v>
       </c>
     </row>
-    <row r="35" spans="14:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="14:21" x14ac:dyDescent="0.3">
       <c r="N35" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="14:21" x14ac:dyDescent="0.25">
+    <row r="36" spans="14:21" x14ac:dyDescent="0.3">
       <c r="N36" t="s">
         <v>48</v>
       </c>
@@ -2802,7 +2802,7 @@
         <v>5923319.2699999996</v>
       </c>
     </row>
-    <row r="37" spans="14:21" x14ac:dyDescent="0.25">
+    <row r="37" spans="14:21" x14ac:dyDescent="0.3">
       <c r="N37" t="s">
         <v>54</v>
       </c>
@@ -2810,7 +2810,7 @@
         <v>317931.49</v>
       </c>
     </row>
-    <row r="38" spans="14:21" x14ac:dyDescent="0.25">
+    <row r="38" spans="14:21" x14ac:dyDescent="0.3">
       <c r="N38" t="s">
         <v>25</v>
       </c>
@@ -2828,7 +2828,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="14:21" x14ac:dyDescent="0.25">
+    <row r="39" spans="14:21" x14ac:dyDescent="0.3">
       <c r="N39" t="s">
         <v>55</v>
       </c>
@@ -2855,7 +2855,7 @@
         <v>5386258.0510686319</v>
       </c>
     </row>
-    <row r="40" spans="14:21" x14ac:dyDescent="0.25">
+    <row r="40" spans="14:21" x14ac:dyDescent="0.3">
       <c r="N40" t="s">
         <v>56</v>
       </c>
@@ -2882,7 +2882,7 @@
         <v>6037755.4941627374</v>
       </c>
     </row>
-    <row r="41" spans="14:21" x14ac:dyDescent="0.25">
+    <row r="41" spans="14:21" x14ac:dyDescent="0.3">
       <c r="N41" t="s">
         <v>57</v>
       </c>
@@ -2909,7 +2909,7 @@
         <v>4823437.4547686297</v>
       </c>
     </row>
-    <row r="42" spans="14:21" x14ac:dyDescent="0.25">
+    <row r="42" spans="14:21" x14ac:dyDescent="0.3">
       <c r="N42" t="s">
         <v>58</v>
       </c>
@@ -2933,7 +2933,7 @@
         <v>16247450.999999998</v>
       </c>
     </row>
-    <row r="43" spans="14:21" x14ac:dyDescent="0.25">
+    <row r="43" spans="14:21" x14ac:dyDescent="0.3">
       <c r="N43" t="s">
         <v>25</v>
       </c>
@@ -2942,7 +2942,7 @@
         <v>12585254.568999998</v>
       </c>
     </row>
-    <row r="44" spans="14:21" x14ac:dyDescent="0.25">
+    <row r="44" spans="14:21" x14ac:dyDescent="0.3">
       <c r="N44" t="s">
         <v>49</v>
       </c>
@@ -2951,7 +2951,7 @@
         <v>18826505.328999996</v>
       </c>
     </row>
-    <row r="48" spans="14:21" x14ac:dyDescent="0.25">
+    <row r="48" spans="14:21" x14ac:dyDescent="0.3">
       <c r="N48" t="s">
         <v>62</v>
       </c>
@@ -2959,7 +2959,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="49" spans="14:20" x14ac:dyDescent="0.25">
+    <row r="49" spans="14:20" x14ac:dyDescent="0.3">
       <c r="N49" t="s">
         <v>63</v>
       </c>
@@ -2979,7 +2979,7 @@
         <v>4142488.1873903489</v>
       </c>
     </row>
-    <row r="50" spans="14:20" x14ac:dyDescent="0.25">
+    <row r="50" spans="14:20" x14ac:dyDescent="0.3">
       <c r="N50" t="s">
         <v>64</v>
       </c>
@@ -2999,7 +2999,7 @@
         <v>3815450.8126096507</v>
       </c>
     </row>
-    <row r="51" spans="14:20" x14ac:dyDescent="0.25">
+    <row r="51" spans="14:20" x14ac:dyDescent="0.3">
       <c r="O51" s="10">
         <f>SUM(O49:O50)</f>
         <v>9094786.5099999998</v>
@@ -3021,7 +3021,7 @@
         <v>9094787</v>
       </c>
     </row>
-    <row r="54" spans="14:20" x14ac:dyDescent="0.25">
+    <row r="54" spans="14:20" x14ac:dyDescent="0.3">
       <c r="N54" t="s">
         <v>66</v>
       </c>
@@ -3029,7 +3029,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="55" spans="14:20" x14ac:dyDescent="0.25">
+    <row r="55" spans="14:20" x14ac:dyDescent="0.3">
       <c r="N55" t="s">
         <v>63</v>
       </c>
@@ -3046,7 +3046,7 @@
         <v>4142488.1873903489</v>
       </c>
     </row>
-    <row r="56" spans="14:20" x14ac:dyDescent="0.25">
+    <row r="56" spans="14:20" x14ac:dyDescent="0.3">
       <c r="N56" t="s">
         <v>64</v>
       </c>
@@ -3063,7 +3063,7 @@
         <v>3815450.8126096507</v>
       </c>
     </row>
-    <row r="57" spans="14:20" x14ac:dyDescent="0.25">
+    <row r="57" spans="14:20" x14ac:dyDescent="0.3">
       <c r="P57">
         <v>1</v>
       </c>
@@ -3077,7 +3077,7 @@
         <v>9094787</v>
       </c>
     </row>
-    <row r="58" spans="14:20" x14ac:dyDescent="0.25">
+    <row r="58" spans="14:20" x14ac:dyDescent="0.3">
       <c r="N58" t="s">
         <v>72</v>
       </c>
@@ -3091,7 +3091,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="59" spans="14:20" x14ac:dyDescent="0.25">
+    <row r="59" spans="14:20" x14ac:dyDescent="0.3">
       <c r="N59" t="s">
         <v>33</v>
       </c>
@@ -3118,7 +3118,7 @@
         <v>4989638.1726636579</v>
       </c>
     </row>
-    <row r="60" spans="14:20" x14ac:dyDescent="0.25">
+    <row r="60" spans="14:20" x14ac:dyDescent="0.3">
       <c r="N60" t="s">
         <v>64</v>
       </c>
@@ -3145,7 +3145,7 @@
         <v>5464314.8273363421</v>
       </c>
     </row>
-    <row r="61" spans="14:20" x14ac:dyDescent="0.25">
+    <row r="61" spans="14:20" x14ac:dyDescent="0.3">
       <c r="N61" t="s">
         <v>73</v>
       </c>
@@ -3165,7 +3165,7 @@
         <v>10453953</v>
       </c>
     </row>
-    <row r="62" spans="14:20" x14ac:dyDescent="0.25">
+    <row r="62" spans="14:20" x14ac:dyDescent="0.3">
       <c r="N62" t="s">
         <v>64</v>
       </c>
@@ -3174,13 +3174,13 @@
         <v>6244931.3999999994</v>
       </c>
     </row>
-    <row r="63" spans="14:20" x14ac:dyDescent="0.25">
+    <row r="63" spans="14:20" x14ac:dyDescent="0.3">
       <c r="O63" s="10">
         <f>SUM(O59,O62)</f>
         <v>11947375.18</v>
       </c>
     </row>
-    <row r="65" spans="14:20" x14ac:dyDescent="0.25">
+    <row r="65" spans="14:20" x14ac:dyDescent="0.3">
       <c r="N65" t="s">
         <v>75</v>
       </c>
@@ -3194,7 +3194,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="66" spans="14:20" x14ac:dyDescent="0.25">
+    <row r="66" spans="14:20" x14ac:dyDescent="0.3">
       <c r="N66" t="s">
         <v>59</v>
       </c>
@@ -3217,7 +3217,7 @@
         <v>4989638.1726636579</v>
       </c>
     </row>
-    <row r="67" spans="14:20" x14ac:dyDescent="0.25">
+    <row r="67" spans="14:20" x14ac:dyDescent="0.3">
       <c r="N67" t="s">
         <v>64</v>
       </c>
@@ -3238,7 +3238,7 @@
         <v>5464314.8273363421</v>
       </c>
     </row>
-    <row r="68" spans="14:20" x14ac:dyDescent="0.25">
+    <row r="68" spans="14:20" x14ac:dyDescent="0.3">
       <c r="N68" t="s">
         <v>73</v>
       </c>
@@ -3255,7 +3255,7 @@
         <v>10453953</v>
       </c>
     </row>
-    <row r="69" spans="14:20" x14ac:dyDescent="0.25">
+    <row r="69" spans="14:20" x14ac:dyDescent="0.3">
       <c r="N69" t="s">
         <v>64</v>
       </c>
@@ -3263,7 +3263,7 @@
         <v>6244931.3999999994</v>
       </c>
     </row>
-    <row r="70" spans="14:20" x14ac:dyDescent="0.25">
+    <row r="70" spans="14:20" x14ac:dyDescent="0.3">
       <c r="O70" s="12">
         <v>11947375.18</v>
       </c>
@@ -3277,32 +3277,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S103"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomLeft" activeCell="L108" sqref="L108"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="49.42578125" style="1" customWidth="1"/>
-    <col min="3" max="4" width="10.28515625" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" customWidth="1"/>
+    <col min="2" max="2" width="49.44140625" style="1" customWidth="1"/>
+    <col min="3" max="4" width="10.33203125" customWidth="1"/>
+    <col min="5" max="5" width="15.44140625" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" customWidth="1"/>
-    <col min="10" max="10" width="15.7109375" customWidth="1"/>
-    <col min="11" max="11" width="14.140625" customWidth="1"/>
-    <col min="12" max="12" width="10.28515625" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" customWidth="1"/>
+    <col min="8" max="8" width="15.5546875" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" customWidth="1"/>
+    <col min="10" max="10" width="15.6640625" customWidth="1"/>
+    <col min="11" max="11" width="14.109375" customWidth="1"/>
+    <col min="12" max="12" width="10.33203125" customWidth="1"/>
     <col min="13" max="13" width="14" customWidth="1"/>
-    <col min="14" max="14" width="10.28515625" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" customWidth="1"/>
-    <col min="16" max="17" width="16.42578125" customWidth="1"/>
+    <col min="14" max="14" width="10.33203125" customWidth="1"/>
+    <col min="15" max="15" width="14.44140625" customWidth="1"/>
+    <col min="16" max="17" width="16.44140625" customWidth="1"/>
     <col min="18" max="18" width="15" customWidth="1"/>
-    <col min="19" max="19" width="24.28515625" customWidth="1"/>
+    <col min="19" max="19" width="24.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" s="22" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="22" t="s">
         <v>117</v>
       </c>
@@ -3358,7 +3358,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="29">
         <v>1</v>
       </c>
@@ -3392,7 +3392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="29">
         <v>2</v>
       </c>
@@ -3426,7 +3426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="29">
         <v>3</v>
       </c>
@@ -3460,7 +3460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="29">
         <v>4</v>
       </c>
@@ -3494,7 +3494,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="29">
         <v>5</v>
       </c>
@@ -3528,7 +3528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="29">
         <v>6</v>
       </c>
@@ -3562,7 +3562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="29">
         <v>7</v>
       </c>
@@ -3598,7 +3598,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="29">
         <v>8</v>
       </c>
@@ -3632,7 +3632,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="29">
         <v>9</v>
       </c>
@@ -3668,7 +3668,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="29">
         <v>10</v>
       </c>
@@ -3704,7 +3704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="29">
         <v>11</v>
       </c>
@@ -3740,7 +3740,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="29">
         <v>12</v>
       </c>
@@ -3778,7 +3778,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="29">
         <v>13</v>
       </c>
@@ -3814,7 +3814,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="29">
         <v>14</v>
       </c>
@@ -3848,7 +3848,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="32">
         <v>15</v>
       </c>
@@ -3882,7 +3882,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" s="29">
         <v>16</v>
       </c>
@@ -3918,7 +3918,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" s="29">
         <v>17</v>
       </c>
@@ -3952,7 +3952,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" s="29">
         <v>18</v>
       </c>
@@ -3988,7 +3988,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" s="29">
         <v>19</v>
       </c>
@@ -4022,7 +4022,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" s="29">
         <v>20</v>
       </c>
@@ -4056,7 +4056,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" s="29">
         <v>21</v>
       </c>
@@ -4092,7 +4092,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23" s="29">
         <v>22</v>
       </c>
@@ -4126,7 +4126,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24" s="29">
         <v>23</v>
       </c>
@@ -4160,7 +4160,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25" s="29">
         <v>24</v>
       </c>
@@ -4194,7 +4194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A26" s="29">
         <v>25</v>
       </c>
@@ -4228,7 +4228,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27" s="29">
         <v>26</v>
       </c>
@@ -4264,7 +4264,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A28" s="29">
         <v>27</v>
       </c>
@@ -4300,7 +4300,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A29" s="29">
         <v>28</v>
       </c>
@@ -4334,7 +4334,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A30" s="29">
         <v>29</v>
       </c>
@@ -4370,7 +4370,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A31" s="29">
         <v>30</v>
       </c>
@@ -4409,7 +4409,7 @@
       </c>
       <c r="S31" s="1"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A32" s="29">
         <v>31</v>
       </c>
@@ -4443,7 +4443,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A33" s="29">
         <v>32</v>
       </c>
@@ -4477,7 +4477,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A34" s="29">
         <v>33</v>
       </c>
@@ -4511,7 +4511,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A35" s="29">
         <v>34</v>
       </c>
@@ -4549,7 +4549,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A36" s="32">
         <v>35</v>
       </c>
@@ -4585,7 +4585,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A37" s="29">
         <v>36</v>
       </c>
@@ -4621,7 +4621,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A38" s="29">
         <v>37</v>
       </c>
@@ -4655,7 +4655,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A39" s="29">
         <v>38</v>
       </c>
@@ -4689,7 +4689,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A40" s="29">
         <v>39</v>
       </c>
@@ -4725,7 +4725,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A41" s="29">
         <v>40</v>
       </c>
@@ -4759,7 +4759,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A42" s="29">
         <v>41</v>
       </c>
@@ -4793,7 +4793,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A43" s="29">
         <v>42</v>
       </c>
@@ -4827,7 +4827,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A44" s="29">
         <v>43</v>
       </c>
@@ -4865,7 +4865,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A45" s="29">
         <v>44</v>
       </c>
@@ -4901,7 +4901,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A46" s="29">
         <v>45</v>
       </c>
@@ -4935,7 +4935,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A47" s="29">
         <v>46</v>
       </c>
@@ -4969,7 +4969,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A48" s="29">
         <v>47</v>
       </c>
@@ -5003,7 +5003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A49" s="29">
         <v>48</v>
       </c>
@@ -5037,7 +5037,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A50" s="29">
         <v>49</v>
       </c>
@@ -5073,7 +5073,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A51" s="29">
         <v>50</v>
       </c>
@@ -5109,7 +5109,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A52" s="29">
         <v>51</v>
       </c>
@@ -5143,7 +5143,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A53" s="29">
         <v>52</v>
       </c>
@@ -5177,7 +5177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A54" s="29">
         <v>53</v>
       </c>
@@ -5211,7 +5211,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A55" s="29">
         <v>54</v>
       </c>
@@ -5245,7 +5245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A56" s="29">
         <v>55</v>
       </c>
@@ -5279,7 +5279,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A57" s="29">
         <v>56</v>
       </c>
@@ -5313,7 +5313,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A58" s="29">
         <v>57</v>
       </c>
@@ -5349,7 +5349,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A59" s="29">
         <v>58</v>
       </c>
@@ -5383,7 +5383,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A60" s="29">
         <v>59</v>
       </c>
@@ -5418,7 +5418,7 @@
       </c>
       <c r="S60" s="10"/>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A61" s="29">
         <v>60</v>
       </c>
@@ -5452,7 +5452,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A62" s="29">
         <v>61</v>
       </c>
@@ -5486,7 +5486,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A63" s="29">
         <v>62</v>
       </c>
@@ -5520,7 +5520,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A64" s="29">
         <v>63</v>
       </c>
@@ -5556,7 +5556,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A65" s="29">
         <v>64</v>
       </c>
@@ -5594,7 +5594,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A66" s="29">
         <v>65</v>
       </c>
@@ -5630,7 +5630,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A67" s="29">
         <v>66</v>
       </c>
@@ -5666,7 +5666,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A68" s="29">
         <v>67</v>
       </c>
@@ -5700,7 +5700,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A69" s="29">
         <v>68</v>
       </c>
@@ -5734,7 +5734,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A70" s="29">
         <v>69</v>
       </c>
@@ -5768,7 +5768,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A71" s="29">
         <v>70</v>
       </c>
@@ -5802,7 +5802,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A72" s="29">
         <v>71</v>
       </c>
@@ -5836,7 +5836,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A73" s="29">
         <v>72</v>
       </c>
@@ -5874,7 +5874,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A74" s="29">
         <v>73</v>
       </c>
@@ -5908,7 +5908,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A75" s="29">
         <v>74</v>
       </c>
@@ -5942,7 +5942,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A76" s="29">
         <v>75</v>
       </c>
@@ -5978,7 +5978,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="77" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A77" s="29">
         <v>76</v>
       </c>
@@ -6014,7 +6014,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A78" s="29">
         <v>77</v>
       </c>
@@ -6050,7 +6050,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A79" s="29">
         <v>78</v>
       </c>
@@ -6084,7 +6084,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A80" s="29">
         <v>79</v>
       </c>
@@ -6120,7 +6120,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A81" s="29">
         <v>80</v>
       </c>
@@ -6156,7 +6156,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A82" s="29">
         <v>81</v>
       </c>
@@ -6192,7 +6192,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A83" s="29">
         <v>82</v>
       </c>
@@ -6226,7 +6226,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A84" s="29">
         <v>83</v>
       </c>
@@ -6260,7 +6260,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A85" s="29">
         <v>84</v>
       </c>
@@ -6294,7 +6294,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A86" s="29">
         <v>85</v>
       </c>
@@ -6328,7 +6328,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A87" s="29">
         <v>86</v>
       </c>
@@ -6366,7 +6366,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A88" s="29">
         <v>87</v>
       </c>
@@ -6400,7 +6400,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A89" s="29">
         <v>88</v>
       </c>
@@ -6434,7 +6434,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A90" s="29">
         <v>89</v>
       </c>
@@ -6470,7 +6470,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A91" s="29">
         <v>90</v>
       </c>
@@ -6504,7 +6504,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A92" s="29">
         <v>91</v>
       </c>
@@ -6538,7 +6538,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A93" s="29">
         <v>92</v>
       </c>
@@ -6574,7 +6574,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A94" s="29">
         <v>93</v>
       </c>
@@ -6608,7 +6608,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A95" s="29">
         <v>94</v>
       </c>
@@ -6646,7 +6646,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A96" s="29">
         <v>95</v>
       </c>
@@ -6680,7 +6680,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A97" s="29">
         <v>96</v>
       </c>
@@ -6716,7 +6716,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A98" s="29">
         <v>97</v>
       </c>
@@ -6754,7 +6754,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A99" s="29">
         <v>98</v>
       </c>
@@ -6790,7 +6790,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A100" s="29">
         <v>99</v>
       </c>
@@ -6824,7 +6824,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A101" s="29">
         <v>100</v>
       </c>
@@ -6858,7 +6858,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A102" s="29">
         <v>101</v>
       </c>
@@ -6892,7 +6892,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A103" s="29">
         <v>102</v>
       </c>
@@ -6942,21 +6942,21 @@
       <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.7109375" customWidth="1"/>
-    <col min="2" max="2" width="6.140625" customWidth="1"/>
-    <col min="3" max="3" width="5.42578125" customWidth="1"/>
-    <col min="4" max="4" width="3.85546875" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="19.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.6640625" customWidth="1"/>
+    <col min="2" max="2" width="6.109375" customWidth="1"/>
+    <col min="3" max="3" width="5.44140625" customWidth="1"/>
+    <col min="4" max="4" width="3.88671875" customWidth="1"/>
+    <col min="5" max="5" width="15.44140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.5546875" style="1" customWidth="1"/>
     <col min="9" max="9" width="13" style="1" customWidth="1"/>
-    <col min="10" max="10" width="13.28515625" customWidth="1"/>
-    <col min="13" max="13" width="10.85546875" customWidth="1"/>
-    <col min="14" max="14" width="15.85546875" customWidth="1"/>
+    <col min="10" max="10" width="13.33203125" customWidth="1"/>
+    <col min="13" max="13" width="10.88671875" customWidth="1"/>
+    <col min="14" max="14" width="15.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="5:9" x14ac:dyDescent="0.3">
       <c r="G2" s="1" t="s">
         <v>63</v>
       </c>
@@ -6964,7 +6964,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="5:9" x14ac:dyDescent="0.3">
       <c r="G3" s="1">
         <v>17644936.100000001</v>
       </c>
@@ -6972,7 +6972,7 @@
         <v>204301.34</v>
       </c>
     </row>
-    <row r="4" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="5:9" x14ac:dyDescent="0.3">
       <c r="G4" s="1">
         <v>-166123.07999999999</v>
       </c>
@@ -6980,7 +6980,7 @@
         <v>98414.79</v>
       </c>
     </row>
-    <row r="5" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="5:9" x14ac:dyDescent="0.3">
       <c r="G5" s="1">
         <v>4900152.0999999996</v>
       </c>
@@ -6988,7 +6988,7 @@
         <v>3557905.85</v>
       </c>
     </row>
-    <row r="6" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="5:9" x14ac:dyDescent="0.3">
       <c r="G6" s="1">
         <v>286245</v>
       </c>
@@ -6996,7 +6996,7 @@
         <v>866744.93</v>
       </c>
     </row>
-    <row r="7" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="5:9" x14ac:dyDescent="0.3">
       <c r="G7" s="1">
         <v>619378.32999999996</v>
       </c>
@@ -7004,7 +7004,7 @@
         <v>161285.35999999999</v>
       </c>
     </row>
-    <row r="8" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="5:9" x14ac:dyDescent="0.3">
       <c r="G8" s="12">
         <f>SUM(G3:G7)</f>
         <v>23284588.450000003</v>
@@ -7013,7 +7013,7 @@
         <v>15775.98</v>
       </c>
     </row>
-    <row r="9" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="5:9" x14ac:dyDescent="0.3">
       <c r="G9" s="12">
         <v>28737182.920000002</v>
       </c>
@@ -7021,7 +7021,7 @@
         <v>14288.02</v>
       </c>
     </row>
-    <row r="10" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="5:9" x14ac:dyDescent="0.3">
       <c r="G10" s="12">
         <f>G9-G8</f>
         <v>5452594.4699999988</v>
@@ -7030,13 +7030,13 @@
         <v>53423.24</v>
       </c>
     </row>
-    <row r="11" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="5:9" x14ac:dyDescent="0.3">
       <c r="I11" s="12">
         <f>SUM(I3:I10)</f>
         <v>4972139.5100000007</v>
       </c>
     </row>
-    <row r="14" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E14" s="1" t="s">
         <v>33</v>
       </c>
@@ -7044,7 +7044,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E15" s="1">
         <v>875966.73300000001</v>
       </c>
@@ -7052,7 +7052,7 @@
         <v>46900.13</v>
       </c>
     </row>
-    <row r="16" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E16" s="1">
         <v>906433.66399999999</v>
       </c>
@@ -7060,7 +7060,7 @@
         <v>2590080.1800000002</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="E17" s="1">
         <f>SUM(E15:E16)</f>
         <v>1782400.3969999999</v>
@@ -7069,7 +7069,7 @@
         <v>1949709.13</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="E18" s="1">
         <v>7172327.3300000001</v>
       </c>
@@ -7077,7 +7077,7 @@
         <v>1366206.83</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="E19" s="12">
         <f>E18-E17</f>
         <v>5389926.9330000002</v>
@@ -7086,23 +7086,23 @@
         <v>739134.85</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="G20" s="1">
         <v>379009.28000000003</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="G21" s="1">
         <v>600581.69999999995</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="G22" s="1">
         <f>SUM(G15:G21)</f>
         <v>7671622.0999999996</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="27" t="s">
         <v>106</v>
       </c>
@@ -7143,16 +7143,16 @@
       <selection activeCell="A2" sqref="A2:N9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.28515625" customWidth="1"/>
-    <col min="2" max="2" width="28.85546875" customWidth="1"/>
-    <col min="9" max="9" width="21.140625" customWidth="1"/>
-    <col min="13" max="13" width="13.5703125" customWidth="1"/>
+    <col min="1" max="1" width="33.33203125" customWidth="1"/>
+    <col min="2" max="2" width="28.88671875" customWidth="1"/>
+    <col min="9" max="9" width="21.109375" customWidth="1"/>
+    <col min="13" max="13" width="13.5546875" customWidth="1"/>
     <col min="14" max="14" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="23" t="s">
         <v>104</v>
       </c>
@@ -7180,7 +7180,7 @@
         <v>4232587</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="23" t="s">
         <v>105</v>
       </c>
@@ -7204,7 +7204,7 @@
         <v>8992806</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="23" t="s">
         <v>106</v>
       </c>
@@ -7232,7 +7232,7 @@
         <v>5502837.0250000004</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="23" t="s">
         <v>107</v>
       </c>
@@ -7260,7 +7260,7 @@
         <v>3191592</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="23" t="s">
         <v>108</v>
       </c>
@@ -7286,7 +7286,7 @@
         <v>6275786</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="23" t="s">
         <v>109</v>
       </c>
@@ -7310,7 +7310,7 @@
         <v>3061893</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="23" t="s">
         <v>110</v>
       </c>
@@ -7334,7 +7334,7 @@
         <v>18223550</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="23" t="s">
         <v>111</v>
       </c>
@@ -7358,7 +7358,7 @@
         <v>3211140</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="23" t="s">
         <v>112</v>
       </c>

--- a/Civilworks cost/IPC Distribution.xlsx
+++ b/Civilworks cost/IPC Distribution.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20736" windowHeight="11760" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="-60" windowWidth="20730" windowHeight="11760" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13,6 +13,8 @@
     <sheet name="Sheet3" sheetId="7" r:id="rId4"/>
     <sheet name="Sheet2" sheetId="8" r:id="rId5"/>
     <sheet name="Package_wise_cost" sheetId="9" r:id="rId6"/>
+    <sheet name="Monthly_Rpa" sheetId="11" r:id="rId7"/>
+    <sheet name="Monthly_Gob" sheetId="10" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="316">
   <si>
     <t>O&amp;M During Construction</t>
   </si>
@@ -933,6 +935,45 @@
   </si>
   <si>
     <t>KISH-28/Lot-3</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>Aug</t>
+  </si>
+  <si>
+    <t>Sep</t>
+  </si>
+  <si>
+    <t>Oct</t>
+  </si>
+  <si>
+    <t>Nov</t>
+  </si>
+  <si>
+    <t>Dec</t>
+  </si>
+  <si>
+    <t>Jan</t>
+  </si>
+  <si>
+    <t>Feb</t>
+  </si>
+  <si>
+    <t>Mar</t>
+  </si>
+  <si>
+    <t>Apr</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>Jun</t>
+  </si>
+  <si>
+    <t>Jul</t>
   </si>
 </sst>
 </file>
@@ -1010,7 +1051,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1094,12 +1135,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFCCFF99"/>
+      <color rgb="FF336699"/>
+      <color rgb="FF6699FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1380,14 +1439,14 @@
       <selection activeCell="D2" sqref="D2:D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.33203125" customWidth="1"/>
-    <col min="3" max="3" width="97.5546875" customWidth="1"/>
-    <col min="4" max="4" width="52.88671875" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" customWidth="1"/>
+    <col min="3" max="3" width="97.5703125" customWidth="1"/>
+    <col min="4" max="4" width="52.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -1398,7 +1457,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>57</v>
       </c>
@@ -1413,7 +1472,7 @@
         <v>4111306_Construction of Irrigation Inlet (New Haors)</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>58</v>
       </c>
@@ -1428,7 +1487,7 @@
         <v>4111307_ Re-installation/Construction of Regulator/ Causeway (Rehabilitation Sub-Projects)</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>59</v>
       </c>
@@ -1443,7 +1502,7 @@
         <v>4111307_ Installation/Construction of New Regulators/ Causeway/Bridge/Box Drainage Outlet) (New Haors)</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>60</v>
       </c>
@@ -1458,7 +1517,7 @@
         <v xml:space="preserve">4111307_ Re-excavation of Khal/River (New Haors) </v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>61</v>
       </c>
@@ -1473,7 +1532,7 @@
         <v xml:space="preserve">4111201_ Re-excavation of Khal/River (Rehabilitation Sub-Projects) </v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>62</v>
       </c>
@@ -1488,7 +1547,7 @@
         <v>4111201_ Rehabilitation of Full Embankment (Resection/ construction) (Rehabilitation Sub-Projects)</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>63</v>
       </c>
@@ -1503,7 +1562,7 @@
         <v>4111201_ Rehabilitation of Submergible Embankment  (Resection/construction)  (Rehabilitation Sub-Projects)</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>64</v>
       </c>
@@ -1518,7 +1577,7 @@
         <v>4111201_Construction of Submersible Embankment (New Haors) (Earth Volume: 29.98 lakh cum)</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>65</v>
       </c>
@@ -1533,7 +1592,7 @@
         <v>4111201_ Rehabilitation of Regulator (New Haors)</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>66</v>
       </c>
@@ -1548,7 +1607,7 @@
         <v>4111201_Construction of WMG Office</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>67</v>
       </c>
@@ -1575,30 +1634,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U70"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="M27" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="20.109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" style="3" customWidth="1"/>
     <col min="3" max="3" width="16" style="3" customWidth="1"/>
-    <col min="5" max="5" width="17.109375" customWidth="1"/>
-    <col min="8" max="8" width="22.88671875" customWidth="1"/>
-    <col min="9" max="9" width="19.44140625" customWidth="1"/>
-    <col min="12" max="12" width="19.44140625" customWidth="1"/>
-    <col min="13" max="13" width="25.109375" style="3" customWidth="1"/>
-    <col min="14" max="14" width="26.33203125" customWidth="1"/>
-    <col min="15" max="15" width="17.6640625" style="3" customWidth="1"/>
-    <col min="16" max="16" width="14.88671875" customWidth="1"/>
-    <col min="17" max="17" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.33203125" style="4" customWidth="1"/>
-    <col min="19" max="19" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.33203125" customWidth="1"/>
-    <col min="21" max="21" width="16.5546875" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" customWidth="1"/>
+    <col min="8" max="8" width="22.85546875" customWidth="1"/>
+    <col min="9" max="9" width="19.42578125" customWidth="1"/>
+    <col min="12" max="12" width="19.42578125" customWidth="1"/>
+    <col min="13" max="13" width="25.140625" style="3" customWidth="1"/>
+    <col min="14" max="14" width="26.28515625" customWidth="1"/>
+    <col min="15" max="15" width="17.7109375" style="3" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" customWidth="1"/>
+    <col min="17" max="17" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.28515625" style="4" customWidth="1"/>
+    <col min="19" max="19" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.28515625" customWidth="1"/>
+    <col min="21" max="21" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B1" s="5">
         <v>7146.0320000000002</v>
       </c>
@@ -1614,7 +1673,7 @@
       <c r="O1" s="5"/>
       <c r="P1" s="1"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B2" s="5">
         <v>2175338.3840000001</v>
       </c>
@@ -1640,7 +1699,7 @@
       <c r="O2" s="5"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B3" s="5">
         <v>442686.37599999999</v>
       </c>
@@ -1664,7 +1723,7 @@
       <c r="O3" s="5"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B4" s="5">
         <v>25927.940999999999</v>
       </c>
@@ -1691,7 +1750,7 @@
       <c r="O4" s="5"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -1726,7 +1785,7 @@
       <c r="O5" s="5"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B6" s="5"/>
       <c r="C6" s="5">
         <v>769684.61699999997</v>
@@ -1751,7 +1810,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C7" s="5">
         <v>776580.14399999997</v>
       </c>
@@ -1775,7 +1834,7 @@
         <v>12285185.104948564</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C8" s="5">
         <f>SUM(C1:C7)</f>
         <v>2491596.338</v>
@@ -1799,7 +1858,7 @@
         <v>901800.89505143708</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="E9" s="5">
         <f>B6+C8</f>
         <v>2491596.338</v>
@@ -1821,12 +1880,12 @@
         <v>15070841</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="L12" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="L13" s="3" t="s">
         <v>29</v>
       </c>
@@ -1843,7 +1902,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="L14" s="8">
         <v>5478066.2400000002</v>
       </c>
@@ -1869,7 +1928,7 @@
         <v>4313977.0977821741</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="L15" s="8"/>
       <c r="M15" s="5">
         <v>315745.96999999997</v>
@@ -1894,7 +1953,7 @@
         <v>5197670.9022178268</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="K16" t="s">
         <v>14</v>
       </c>
@@ -1920,7 +1979,7 @@
       </c>
       <c r="S16" s="3"/>
     </row>
-    <row r="17" spans="11:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="11:19" x14ac:dyDescent="0.25">
       <c r="K17" t="s">
         <v>30</v>
       </c>
@@ -1930,18 +1989,18 @@
         <v>12078283.359999999</v>
       </c>
     </row>
-    <row r="18" spans="11:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="11:19" x14ac:dyDescent="0.25">
       <c r="L18" s="3"/>
     </row>
-    <row r="19" spans="11:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="11:19" x14ac:dyDescent="0.25">
       <c r="L19" s="3"/>
     </row>
-    <row r="20" spans="11:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="11:19" x14ac:dyDescent="0.25">
       <c r="L20" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="11:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="11:19" x14ac:dyDescent="0.25">
       <c r="L21" s="3" t="s">
         <v>29</v>
       </c>
@@ -1958,7 +2017,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="11:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="11:19" x14ac:dyDescent="0.25">
       <c r="L22" s="3">
         <v>5478066.2400000002</v>
       </c>
@@ -1983,7 +2042,7 @@
         <v>479330.43588387553</v>
       </c>
     </row>
-    <row r="23" spans="11:19" x14ac:dyDescent="0.3">
+    <row r="23" spans="11:19" x14ac:dyDescent="0.25">
       <c r="L23" s="3"/>
       <c r="M23" s="3">
         <v>315745.96999999997</v>
@@ -2006,7 +2065,7 @@
         <v>577518.56411612465</v>
       </c>
     </row>
-    <row r="24" spans="11:19" x14ac:dyDescent="0.3">
+    <row r="24" spans="11:19" x14ac:dyDescent="0.25">
       <c r="K24" t="s">
         <v>14</v>
       </c>
@@ -2032,7 +2091,7 @@
         <v>1207828.0000000002</v>
       </c>
     </row>
-    <row r="25" spans="11:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="11:19" x14ac:dyDescent="0.25">
       <c r="K25" t="s">
         <v>30</v>
       </c>
@@ -2040,12 +2099,12 @@
         <v>12078283.359999999</v>
       </c>
     </row>
-    <row r="35" spans="14:21" x14ac:dyDescent="0.3">
+    <row r="35" spans="14:21" x14ac:dyDescent="0.25">
       <c r="N35" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="14:21" x14ac:dyDescent="0.3">
+    <row r="36" spans="14:21" x14ac:dyDescent="0.25">
       <c r="N36" t="s">
         <v>29</v>
       </c>
@@ -2053,7 +2112,7 @@
         <v>5923319.2699999996</v>
       </c>
     </row>
-    <row r="37" spans="14:21" x14ac:dyDescent="0.3">
+    <row r="37" spans="14:21" x14ac:dyDescent="0.25">
       <c r="N37" t="s">
         <v>33</v>
       </c>
@@ -2061,7 +2120,7 @@
         <v>317931.49</v>
       </c>
     </row>
-    <row r="38" spans="14:21" x14ac:dyDescent="0.3">
+    <row r="38" spans="14:21" x14ac:dyDescent="0.25">
       <c r="N38" t="s">
         <v>14</v>
       </c>
@@ -2079,7 +2138,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="39" spans="14:21" x14ac:dyDescent="0.3">
+    <row r="39" spans="14:21" x14ac:dyDescent="0.25">
       <c r="N39" t="s">
         <v>34</v>
       </c>
@@ -2106,7 +2165,7 @@
         <v>5386258.0510686319</v>
       </c>
     </row>
-    <row r="40" spans="14:21" x14ac:dyDescent="0.3">
+    <row r="40" spans="14:21" x14ac:dyDescent="0.25">
       <c r="N40" t="s">
         <v>35</v>
       </c>
@@ -2133,7 +2192,7 @@
         <v>6037755.4941627374</v>
       </c>
     </row>
-    <row r="41" spans="14:21" x14ac:dyDescent="0.3">
+    <row r="41" spans="14:21" x14ac:dyDescent="0.25">
       <c r="N41" t="s">
         <v>36</v>
       </c>
@@ -2160,7 +2219,7 @@
         <v>4823437.4547686297</v>
       </c>
     </row>
-    <row r="42" spans="14:21" x14ac:dyDescent="0.3">
+    <row r="42" spans="14:21" x14ac:dyDescent="0.25">
       <c r="N42" t="s">
         <v>37</v>
       </c>
@@ -2184,7 +2243,7 @@
         <v>16247450.999999998</v>
       </c>
     </row>
-    <row r="43" spans="14:21" x14ac:dyDescent="0.3">
+    <row r="43" spans="14:21" x14ac:dyDescent="0.25">
       <c r="N43" t="s">
         <v>14</v>
       </c>
@@ -2193,7 +2252,7 @@
         <v>12585254.568999998</v>
       </c>
     </row>
-    <row r="44" spans="14:21" x14ac:dyDescent="0.3">
+    <row r="44" spans="14:21" x14ac:dyDescent="0.25">
       <c r="N44" t="s">
         <v>30</v>
       </c>
@@ -2202,7 +2261,7 @@
         <v>18826505.328999996</v>
       </c>
     </row>
-    <row r="48" spans="14:21" x14ac:dyDescent="0.3">
+    <row r="48" spans="14:21" x14ac:dyDescent="0.25">
       <c r="N48" t="s">
         <v>41</v>
       </c>
@@ -2210,7 +2269,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="49" spans="14:20" x14ac:dyDescent="0.3">
+    <row r="49" spans="14:20" x14ac:dyDescent="0.25">
       <c r="N49" t="s">
         <v>42</v>
       </c>
@@ -2230,7 +2289,7 @@
         <v>4142488.1873903489</v>
       </c>
     </row>
-    <row r="50" spans="14:20" x14ac:dyDescent="0.3">
+    <row r="50" spans="14:20" x14ac:dyDescent="0.25">
       <c r="N50" t="s">
         <v>43</v>
       </c>
@@ -2250,7 +2309,7 @@
         <v>3815450.8126096507</v>
       </c>
     </row>
-    <row r="51" spans="14:20" x14ac:dyDescent="0.3">
+    <row r="51" spans="14:20" x14ac:dyDescent="0.25">
       <c r="O51" s="3">
         <f>SUM(O49:O50)</f>
         <v>9094786.5099999998</v>
@@ -2272,7 +2331,7 @@
         <v>9094787</v>
       </c>
     </row>
-    <row r="54" spans="14:20" x14ac:dyDescent="0.3">
+    <row r="54" spans="14:20" x14ac:dyDescent="0.25">
       <c r="N54" t="s">
         <v>44</v>
       </c>
@@ -2280,7 +2339,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="55" spans="14:20" x14ac:dyDescent="0.3">
+    <row r="55" spans="14:20" x14ac:dyDescent="0.25">
       <c r="N55" t="s">
         <v>42</v>
       </c>
@@ -2297,7 +2356,7 @@
         <v>4142488.1873903489</v>
       </c>
     </row>
-    <row r="56" spans="14:20" x14ac:dyDescent="0.3">
+    <row r="56" spans="14:20" x14ac:dyDescent="0.25">
       <c r="N56" t="s">
         <v>43</v>
       </c>
@@ -2314,7 +2373,7 @@
         <v>3815450.8126096507</v>
       </c>
     </row>
-    <row r="57" spans="14:20" x14ac:dyDescent="0.3">
+    <row r="57" spans="14:20" x14ac:dyDescent="0.25">
       <c r="P57">
         <v>1</v>
       </c>
@@ -2328,7 +2387,7 @@
         <v>9094787</v>
       </c>
     </row>
-    <row r="58" spans="14:20" x14ac:dyDescent="0.3">
+    <row r="58" spans="14:20" x14ac:dyDescent="0.25">
       <c r="N58" t="s">
         <v>45</v>
       </c>
@@ -2342,7 +2401,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="59" spans="14:20" x14ac:dyDescent="0.3">
+    <row r="59" spans="14:20" x14ac:dyDescent="0.25">
       <c r="N59" t="s">
         <v>18</v>
       </c>
@@ -2369,7 +2428,7 @@
         <v>4989638.1726636579</v>
       </c>
     </row>
-    <row r="60" spans="14:20" x14ac:dyDescent="0.3">
+    <row r="60" spans="14:20" x14ac:dyDescent="0.25">
       <c r="N60" t="s">
         <v>43</v>
       </c>
@@ -2396,7 +2455,7 @@
         <v>5464314.8273363421</v>
       </c>
     </row>
-    <row r="61" spans="14:20" x14ac:dyDescent="0.3">
+    <row r="61" spans="14:20" x14ac:dyDescent="0.25">
       <c r="N61" t="s">
         <v>46</v>
       </c>
@@ -2416,7 +2475,7 @@
         <v>10453953</v>
       </c>
     </row>
-    <row r="62" spans="14:20" x14ac:dyDescent="0.3">
+    <row r="62" spans="14:20" x14ac:dyDescent="0.25">
       <c r="N62" t="s">
         <v>43</v>
       </c>
@@ -2425,13 +2484,13 @@
         <v>6244931.3999999994</v>
       </c>
     </row>
-    <row r="63" spans="14:20" x14ac:dyDescent="0.3">
+    <row r="63" spans="14:20" x14ac:dyDescent="0.25">
       <c r="O63" s="3">
         <f>SUM(O59,O62)</f>
         <v>11947375.18</v>
       </c>
     </row>
-    <row r="65" spans="14:20" x14ac:dyDescent="0.3">
+    <row r="65" spans="14:20" x14ac:dyDescent="0.25">
       <c r="N65" t="s">
         <v>47</v>
       </c>
@@ -2445,7 +2504,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="66" spans="14:20" x14ac:dyDescent="0.3">
+    <row r="66" spans="14:20" x14ac:dyDescent="0.25">
       <c r="N66" t="s">
         <v>38</v>
       </c>
@@ -2468,7 +2527,7 @@
         <v>4989638.1726636579</v>
       </c>
     </row>
-    <row r="67" spans="14:20" x14ac:dyDescent="0.3">
+    <row r="67" spans="14:20" x14ac:dyDescent="0.25">
       <c r="N67" t="s">
         <v>43</v>
       </c>
@@ -2489,7 +2548,7 @@
         <v>5464314.8273363421</v>
       </c>
     </row>
-    <row r="68" spans="14:20" x14ac:dyDescent="0.3">
+    <row r="68" spans="14:20" x14ac:dyDescent="0.25">
       <c r="N68" t="s">
         <v>46</v>
       </c>
@@ -2506,7 +2565,7 @@
         <v>10453953</v>
       </c>
     </row>
-    <row r="69" spans="14:20" x14ac:dyDescent="0.3">
+    <row r="69" spans="14:20" x14ac:dyDescent="0.25">
       <c r="N69" t="s">
         <v>43</v>
       </c>
@@ -2514,7 +2573,7 @@
         <v>6244931.3999999994</v>
       </c>
     </row>
-    <row r="70" spans="14:20" x14ac:dyDescent="0.3">
+    <row r="70" spans="14:20" x14ac:dyDescent="0.25">
       <c r="O70" s="5">
         <v>11947375.18</v>
       </c>
@@ -2528,32 +2587,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S104"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="I1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R1" sqref="R1"/>
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1:M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="49.44140625" style="1" customWidth="1"/>
-    <col min="3" max="4" width="10.33203125" customWidth="1"/>
-    <col min="5" max="5" width="15.44140625" customWidth="1"/>
-    <col min="6" max="6" width="15" customWidth="1"/>
-    <col min="7" max="7" width="15.6640625" customWidth="1"/>
-    <col min="8" max="8" width="15.5546875" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" customWidth="1"/>
-    <col min="10" max="10" width="15.6640625" customWidth="1"/>
-    <col min="11" max="11" width="14.109375" customWidth="1"/>
-    <col min="12" max="12" width="10.33203125" customWidth="1"/>
+    <col min="1" max="1" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" customWidth="1"/>
+    <col min="12" max="12" width="10.28515625" customWidth="1"/>
     <col min="13" max="13" width="14" customWidth="1"/>
-    <col min="14" max="14" width="10.33203125" customWidth="1"/>
-    <col min="15" max="15" width="14.44140625" customWidth="1"/>
-    <col min="16" max="17" width="16.44140625" customWidth="1"/>
+    <col min="14" max="14" width="10.28515625" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" customWidth="1"/>
+    <col min="16" max="17" width="16.42578125" customWidth="1"/>
     <col min="18" max="18" width="15" customWidth="1"/>
-    <col min="19" max="19" width="24.33203125" customWidth="1"/>
+    <col min="19" max="19" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="11" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
         <v>88</v>
       </c>
@@ -2608,8 +2669,11 @@
       <c r="R1" s="29" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S1" s="29" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="18">
         <v>1</v>
       </c>
@@ -2642,8 +2706,11 @@
       <c r="R2" s="18">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S2" s="31">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="18">
         <v>2</v>
       </c>
@@ -2676,8 +2743,11 @@
       <c r="R3" s="18">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S3" s="31">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="18">
         <v>3</v>
       </c>
@@ -2710,8 +2780,11 @@
       <c r="R4" s="18">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S4" s="31">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="18">
         <v>4</v>
       </c>
@@ -2744,8 +2817,11 @@
       <c r="R5" s="18">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S5" s="31">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="18">
         <v>5</v>
       </c>
@@ -2778,8 +2854,11 @@
       <c r="R6" s="18">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S6" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="18">
         <v>6</v>
       </c>
@@ -2812,8 +2891,11 @@
       <c r="R7" s="18">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S7" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="18">
         <v>7</v>
       </c>
@@ -2848,8 +2930,11 @@
       <c r="R8" s="18">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S8" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="18">
         <v>8</v>
       </c>
@@ -2882,8 +2967,11 @@
       <c r="R9" s="18">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S9" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="18">
         <v>9</v>
       </c>
@@ -2918,8 +3006,11 @@
       <c r="R10" s="18">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S10" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="18">
         <v>10</v>
       </c>
@@ -2954,8 +3045,11 @@
       <c r="R11" s="18">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S11" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="18">
         <v>11</v>
       </c>
@@ -2990,8 +3084,11 @@
       <c r="R12" s="18">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S12" s="31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="18">
         <v>12</v>
       </c>
@@ -3028,8 +3125,11 @@
       <c r="R13" s="18">
         <v>9</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S13" s="31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="18">
         <v>13</v>
       </c>
@@ -3064,8 +3164,11 @@
       <c r="R14" s="18">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S14" s="31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="18">
         <v>14</v>
       </c>
@@ -3098,8 +3201,11 @@
       <c r="R15" s="18">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S15" s="31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="20">
         <v>15</v>
       </c>
@@ -3132,8 +3238,11 @@
       <c r="R16" s="20">
         <v>7</v>
       </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="S16" s="31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="18">
         <v>16</v>
       </c>
@@ -3168,8 +3277,11 @@
       <c r="R17" s="18">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="S17" s="31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="18">
         <v>17</v>
       </c>
@@ -3202,8 +3314,11 @@
       <c r="R18" s="18">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="S18" s="31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="18">
         <v>18</v>
       </c>
@@ -3238,8 +3353,11 @@
       <c r="R19" s="18">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="S19" s="31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="18">
         <v>19</v>
       </c>
@@ -3272,8 +3390,11 @@
       <c r="R20" s="18">
         <v>5</v>
       </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="S20" s="31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="18">
         <v>20</v>
       </c>
@@ -3306,8 +3427,11 @@
       <c r="R21" s="18">
         <v>6</v>
       </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="S21" s="31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="18">
         <v>21</v>
       </c>
@@ -3342,8 +3466,11 @@
       <c r="R22" s="18">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="S22" s="31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="18">
         <v>22</v>
       </c>
@@ -3376,8 +3503,11 @@
       <c r="R23" s="18">
         <v>9</v>
       </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="S23" s="31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="18">
         <v>23</v>
       </c>
@@ -3410,8 +3540,11 @@
       <c r="R24" s="18">
         <v>2</v>
       </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="S24" s="31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="18">
         <v>24</v>
       </c>
@@ -3444,8 +3577,11 @@
       <c r="R25" s="18">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="S25" s="31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="18">
         <v>25</v>
       </c>
@@ -3478,8 +3614,11 @@
       <c r="R26" s="18">
         <v>5</v>
       </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="S26" s="31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="18">
         <v>26</v>
       </c>
@@ -3514,8 +3653,11 @@
       <c r="R27" s="18">
         <v>7</v>
       </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="S27" s="31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="18">
         <v>27</v>
       </c>
@@ -3550,8 +3692,11 @@
       <c r="R28" s="18">
         <v>2</v>
       </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="S28" s="31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="18">
         <v>28</v>
       </c>
@@ -3584,8 +3729,11 @@
       <c r="R29" s="18">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="S29" s="31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="18">
         <v>29</v>
       </c>
@@ -3620,8 +3768,11 @@
       <c r="R30" s="18">
         <v>4</v>
       </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="S30" s="31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="18">
         <v>30</v>
       </c>
@@ -3658,9 +3809,11 @@
       <c r="R31" s="18">
         <v>2</v>
       </c>
-      <c r="S31" s="1"/>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="S31" s="31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="18">
         <v>31</v>
       </c>
@@ -3693,8 +3846,11 @@
       <c r="R32" s="18">
         <v>6</v>
       </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S32" s="31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="18">
         <v>32</v>
       </c>
@@ -3727,8 +3883,11 @@
       <c r="R33" s="18">
         <v>6</v>
       </c>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S33" s="31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="18">
         <v>33</v>
       </c>
@@ -3761,8 +3920,11 @@
       <c r="R34" s="18">
         <v>4</v>
       </c>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S34" s="31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="18">
         <v>34</v>
       </c>
@@ -3799,8 +3961,11 @@
       <c r="R35" s="18">
         <v>5</v>
       </c>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S35" s="31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="20">
         <v>35</v>
       </c>
@@ -3835,8 +4000,11 @@
       <c r="R36" s="18">
         <v>5</v>
       </c>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S36" s="31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="18">
         <v>36</v>
       </c>
@@ -3871,8 +4039,11 @@
       <c r="R37" s="18">
         <v>10</v>
       </c>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S37" s="31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="18">
         <v>37</v>
       </c>
@@ -3905,8 +4076,11 @@
       <c r="R38" s="18">
         <v>6</v>
       </c>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S38" s="31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="18">
         <v>38</v>
       </c>
@@ -3939,8 +4113,11 @@
       <c r="R39" s="18">
         <v>2</v>
       </c>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S39" s="31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="18">
         <v>39</v>
       </c>
@@ -3975,8 +4152,11 @@
       <c r="R40" s="18">
         <v>3</v>
       </c>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S40" s="31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="18">
         <v>40</v>
       </c>
@@ -4009,8 +4189,11 @@
       <c r="R41" s="18">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S41" s="31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="18">
         <v>41</v>
       </c>
@@ -4043,8 +4226,11 @@
       <c r="R42" s="18">
         <v>7</v>
       </c>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S42" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" s="18">
         <v>42</v>
       </c>
@@ -4077,8 +4263,11 @@
       <c r="R43" s="18">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S43" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" s="18">
         <v>43</v>
       </c>
@@ -4115,8 +4304,11 @@
       <c r="R44" s="18">
         <v>11</v>
       </c>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S44" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" s="18">
         <v>44</v>
       </c>
@@ -4151,8 +4343,11 @@
       <c r="R45" s="18">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S45" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="18">
         <v>45</v>
       </c>
@@ -4185,8 +4380,11 @@
       <c r="R46" s="18">
         <v>10</v>
       </c>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S46" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" s="18">
         <v>46</v>
       </c>
@@ -4219,8 +4417,11 @@
       <c r="R47" s="18">
         <v>6</v>
       </c>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S47" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" s="18">
         <v>47</v>
       </c>
@@ -4253,8 +4454,11 @@
       <c r="R48" s="18">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="S48" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" s="18">
         <v>48</v>
       </c>
@@ -4287,8 +4491,11 @@
       <c r="R49" s="18">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="S49" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" s="18">
         <v>49</v>
       </c>
@@ -4323,8 +4530,11 @@
       <c r="R50" s="18">
         <v>4</v>
       </c>
-    </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="S50" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" s="18">
         <v>50</v>
       </c>
@@ -4359,8 +4569,11 @@
       <c r="R51" s="18">
         <v>6</v>
       </c>
-    </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="S51" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" s="18">
         <v>51</v>
       </c>
@@ -4393,8 +4606,11 @@
       <c r="R52" s="18">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="S52" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53" s="18">
         <v>52</v>
       </c>
@@ -4427,8 +4643,11 @@
       <c r="R53" s="18">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="S53" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" s="18">
         <v>53</v>
       </c>
@@ -4461,8 +4680,11 @@
       <c r="R54" s="18">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="S54" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55" s="18">
         <v>54</v>
       </c>
@@ -4495,8 +4717,11 @@
       <c r="R55" s="18">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="S55" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" s="18">
         <v>55</v>
       </c>
@@ -4529,8 +4754,11 @@
       <c r="R56" s="18">
         <v>5</v>
       </c>
-    </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="S56" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" s="18">
         <v>56</v>
       </c>
@@ -4563,8 +4791,11 @@
       <c r="R57" s="18">
         <v>6</v>
       </c>
-    </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="S57" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58" s="18">
         <v>57</v>
       </c>
@@ -4599,8 +4830,11 @@
       <c r="R58" s="18">
         <v>5</v>
       </c>
-    </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="S58" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59" s="18">
         <v>58</v>
       </c>
@@ -4633,8 +4867,11 @@
       <c r="R59" s="18">
         <v>12</v>
       </c>
-    </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="S59" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60" s="18">
         <v>59</v>
       </c>
@@ -4667,9 +4904,11 @@
       <c r="R60" s="18">
         <v>5</v>
       </c>
-      <c r="S60" s="3"/>
-    </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="S60" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61" s="18">
         <v>60</v>
       </c>
@@ -4702,8 +4941,11 @@
       <c r="R61" s="18">
         <v>4</v>
       </c>
-    </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="S61" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62" s="18">
         <v>61</v>
       </c>
@@ -4736,8 +4978,11 @@
       <c r="R62" s="18">
         <v>5</v>
       </c>
-    </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="S62" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63" s="18">
         <v>62</v>
       </c>
@@ -4770,8 +5015,11 @@
       <c r="R63" s="18">
         <v>3</v>
       </c>
-    </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="S63" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64" s="18">
         <v>63</v>
       </c>
@@ -4806,8 +5054,11 @@
       <c r="R64" s="18">
         <v>4</v>
       </c>
-    </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S64" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A65" s="18">
         <v>64</v>
       </c>
@@ -4844,8 +5095,11 @@
       <c r="R65" s="18">
         <v>6</v>
       </c>
-    </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S65" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A66" s="18">
         <v>65</v>
       </c>
@@ -4880,8 +5134,11 @@
       <c r="R66" s="18">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S66" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A67" s="18">
         <v>66</v>
       </c>
@@ -4916,8 +5173,11 @@
       <c r="R67" s="18">
         <v>8</v>
       </c>
-    </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S67" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A68" s="18">
         <v>67</v>
       </c>
@@ -4950,8 +5210,11 @@
       <c r="R68" s="18">
         <v>7</v>
       </c>
-    </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S68" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A69" s="18">
         <v>68</v>
       </c>
@@ -4984,8 +5247,11 @@
       <c r="R69" s="18">
         <v>7</v>
       </c>
-    </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S69" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A70" s="18">
         <v>69</v>
       </c>
@@ -5018,8 +5284,11 @@
       <c r="R70" s="18">
         <v>2</v>
       </c>
-    </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S70" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A71" s="18">
         <v>70</v>
       </c>
@@ -5052,8 +5321,11 @@
       <c r="R71" s="18">
         <v>6</v>
       </c>
-    </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S71" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A72" s="18">
         <v>71</v>
       </c>
@@ -5086,8 +5358,11 @@
       <c r="R72" s="18">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S72" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A73" s="18">
         <v>72</v>
       </c>
@@ -5124,8 +5399,11 @@
       <c r="R73" s="18">
         <v>5</v>
       </c>
-    </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S73" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A74" s="18">
         <v>73</v>
       </c>
@@ -5158,8 +5436,11 @@
       <c r="R74" s="18">
         <v>5</v>
       </c>
-    </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S74" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A75" s="18">
         <v>74</v>
       </c>
@@ -5192,8 +5473,11 @@
       <c r="R75" s="18">
         <v>4</v>
       </c>
-    </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S75" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A76" s="18">
         <v>75</v>
       </c>
@@ -5228,8 +5512,11 @@
       <c r="R76" s="18">
         <v>9</v>
       </c>
-    </row>
-    <row r="77" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S76" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="18">
         <v>76</v>
       </c>
@@ -5264,8 +5551,11 @@
       <c r="R77" s="18">
         <v>8</v>
       </c>
-    </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S77" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A78" s="18">
         <v>77</v>
       </c>
@@ -5300,8 +5590,11 @@
       <c r="R78" s="18">
         <v>9</v>
       </c>
-    </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S78" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A79" s="18">
         <v>78</v>
       </c>
@@ -5334,8 +5627,11 @@
       <c r="R79" s="18">
         <v>8</v>
       </c>
-    </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S79" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A80" s="18">
         <v>79</v>
       </c>
@@ -5370,8 +5666,11 @@
       <c r="R80" s="18">
         <v>6</v>
       </c>
-    </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S80" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A81" s="18">
         <v>80</v>
       </c>
@@ -5406,8 +5705,11 @@
       <c r="R81" s="18">
         <v>5</v>
       </c>
-    </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S81" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A82" s="18">
         <v>81</v>
       </c>
@@ -5442,8 +5744,11 @@
       <c r="R82" s="18">
         <v>5</v>
       </c>
-    </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S82" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A83" s="18">
         <v>82</v>
       </c>
@@ -5476,8 +5781,11 @@
       <c r="R83" s="18">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S83" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A84" s="18">
         <v>83</v>
       </c>
@@ -5510,8 +5818,11 @@
       <c r="R84" s="18">
         <v>2</v>
       </c>
-    </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S84" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A85" s="18">
         <v>84</v>
       </c>
@@ -5544,8 +5855,11 @@
       <c r="R85" s="18">
         <v>2</v>
       </c>
-    </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S85" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A86" s="18">
         <v>85</v>
       </c>
@@ -5578,8 +5892,11 @@
       <c r="R86" s="18">
         <v>5</v>
       </c>
-    </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S86" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A87" s="18">
         <v>86</v>
       </c>
@@ -5616,8 +5933,11 @@
       <c r="R87" s="18">
         <v>12</v>
       </c>
-    </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S87" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A88" s="18">
         <v>87</v>
       </c>
@@ -5650,8 +5970,11 @@
       <c r="R88" s="18">
         <v>11</v>
       </c>
-    </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S88" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A89" s="18">
         <v>88</v>
       </c>
@@ -5684,8 +6007,11 @@
       <c r="R89" s="18">
         <v>5</v>
       </c>
-    </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S89" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A90" s="18">
         <v>89</v>
       </c>
@@ -5720,8 +6046,11 @@
       <c r="R90" s="18">
         <v>6</v>
       </c>
-    </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S90" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A91" s="18">
         <v>90</v>
       </c>
@@ -5754,8 +6083,11 @@
       <c r="R91" s="18">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S91" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A92" s="18">
         <v>91</v>
       </c>
@@ -5788,8 +6120,11 @@
       <c r="R92" s="18">
         <v>7</v>
       </c>
-    </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S92" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A93" s="18">
         <v>92</v>
       </c>
@@ -5824,8 +6159,11 @@
       <c r="R93" s="18">
         <v>9</v>
       </c>
-    </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S93" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A94" s="18">
         <v>93</v>
       </c>
@@ -5858,8 +6196,11 @@
       <c r="R94" s="18">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S94" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A95" s="18">
         <v>94</v>
       </c>
@@ -5896,8 +6237,11 @@
       <c r="R95" s="18">
         <v>7</v>
       </c>
-    </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S95" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A96" s="18">
         <v>95</v>
       </c>
@@ -5930,8 +6274,11 @@
       <c r="R96" s="18">
         <v>8</v>
       </c>
-    </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S96" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A97" s="18">
         <v>96</v>
       </c>
@@ -5966,8 +6313,11 @@
       <c r="R97" s="18">
         <v>13</v>
       </c>
-    </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S97" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A98" s="18">
         <v>97</v>
       </c>
@@ -6004,8 +6354,11 @@
       <c r="R98" s="18">
         <v>7</v>
       </c>
-    </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S98" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A99" s="18">
         <v>98</v>
       </c>
@@ -6040,8 +6393,11 @@
       <c r="R99" s="18">
         <v>5</v>
       </c>
-    </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S99" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A100" s="18">
         <v>99</v>
       </c>
@@ -6074,8 +6430,11 @@
       <c r="R100" s="18">
         <v>6</v>
       </c>
-    </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S100" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A101" s="18">
         <v>100</v>
       </c>
@@ -6108,8 +6467,11 @@
       <c r="R101" s="18">
         <v>6</v>
       </c>
-    </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S101" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A102" s="18">
         <v>101</v>
       </c>
@@ -6142,8 +6504,11 @@
       <c r="R102" s="18">
         <v>5</v>
       </c>
-    </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S102" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A103" s="18">
         <v>102</v>
       </c>
@@ -6176,8 +6541,11 @@
       <c r="R103" s="18">
         <v>6</v>
       </c>
-    </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S103" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
@@ -6209,21 +6577,21 @@
       <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.6640625" customWidth="1"/>
-    <col min="2" max="2" width="6.109375" customWidth="1"/>
-    <col min="3" max="3" width="5.44140625" customWidth="1"/>
-    <col min="4" max="4" width="3.88671875" customWidth="1"/>
-    <col min="5" max="5" width="15.44140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="19.5546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" customWidth="1"/>
+    <col min="2" max="2" width="6.140625" customWidth="1"/>
+    <col min="3" max="3" width="5.42578125" customWidth="1"/>
+    <col min="4" max="4" width="3.85546875" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" style="1" customWidth="1"/>
     <col min="9" max="9" width="13" style="1" customWidth="1"/>
-    <col min="10" max="10" width="13.33203125" customWidth="1"/>
-    <col min="13" max="13" width="10.88671875" customWidth="1"/>
-    <col min="14" max="14" width="15.88671875" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" customWidth="1"/>
+    <col min="13" max="13" width="10.85546875" customWidth="1"/>
+    <col min="14" max="14" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="5:9" x14ac:dyDescent="0.25">
       <c r="G2" s="1" t="s">
         <v>42</v>
       </c>
@@ -6231,7 +6599,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="5:9" x14ac:dyDescent="0.25">
       <c r="G3" s="1">
         <v>17644936.100000001</v>
       </c>
@@ -6239,7 +6607,7 @@
         <v>204301.34</v>
       </c>
     </row>
-    <row r="4" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="5:9" x14ac:dyDescent="0.25">
       <c r="G4" s="1">
         <v>-166123.07999999999</v>
       </c>
@@ -6247,7 +6615,7 @@
         <v>98414.79</v>
       </c>
     </row>
-    <row r="5" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="5:9" x14ac:dyDescent="0.25">
       <c r="G5" s="1">
         <v>4900152.0999999996</v>
       </c>
@@ -6255,7 +6623,7 @@
         <v>3557905.85</v>
       </c>
     </row>
-    <row r="6" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="5:9" x14ac:dyDescent="0.25">
       <c r="G6" s="1">
         <v>286245</v>
       </c>
@@ -6263,7 +6631,7 @@
         <v>866744.93</v>
       </c>
     </row>
-    <row r="7" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="5:9" x14ac:dyDescent="0.25">
       <c r="G7" s="1">
         <v>619378.32999999996</v>
       </c>
@@ -6271,7 +6639,7 @@
         <v>161285.35999999999</v>
       </c>
     </row>
-    <row r="8" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="5:9" x14ac:dyDescent="0.25">
       <c r="G8" s="5">
         <f>SUM(G3:G7)</f>
         <v>23284588.450000003</v>
@@ -6280,7 +6648,7 @@
         <v>15775.98</v>
       </c>
     </row>
-    <row r="9" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="5:9" x14ac:dyDescent="0.25">
       <c r="G9" s="5">
         <v>28737182.920000002</v>
       </c>
@@ -6288,7 +6656,7 @@
         <v>14288.02</v>
       </c>
     </row>
-    <row r="10" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="5:9" x14ac:dyDescent="0.25">
       <c r="G10" s="5">
         <f>G9-G8</f>
         <v>5452594.4699999988</v>
@@ -6297,13 +6665,13 @@
         <v>53423.24</v>
       </c>
     </row>
-    <row r="11" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="5:9" x14ac:dyDescent="0.25">
       <c r="I11" s="5">
         <f>SUM(I3:I10)</f>
         <v>4972139.5100000007</v>
       </c>
     </row>
-    <row r="14" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E14" s="1" t="s">
         <v>18</v>
       </c>
@@ -6311,7 +6679,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E15" s="1">
         <v>875966.73300000001</v>
       </c>
@@ -6319,7 +6687,7 @@
         <v>46900.13</v>
       </c>
     </row>
-    <row r="16" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E16" s="1">
         <v>906433.66399999999</v>
       </c>
@@ -6327,7 +6695,7 @@
         <v>2590080.1800000002</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E17" s="1">
         <f>SUM(E15:E16)</f>
         <v>1782400.3969999999</v>
@@ -6336,7 +6704,7 @@
         <v>1949709.13</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E18" s="1">
         <v>7172327.3300000001</v>
       </c>
@@ -6344,7 +6712,7 @@
         <v>1366206.83</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E19" s="5">
         <f>E18-E17</f>
         <v>5389926.9330000002</v>
@@ -6353,23 +6721,23 @@
         <v>739134.85</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="G20" s="1">
         <v>379009.28000000003</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="G21" s="1">
         <v>600581.69999999995</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="G22" s="1">
         <f>SUM(G15:G21)</f>
         <v>7671622.0999999996</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="16" t="s">
         <v>77</v>
       </c>
@@ -6410,16 +6778,16 @@
       <selection activeCell="A2" sqref="A2:N9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.33203125" customWidth="1"/>
-    <col min="2" max="2" width="28.88671875" customWidth="1"/>
-    <col min="9" max="9" width="21.109375" customWidth="1"/>
-    <col min="13" max="13" width="13.5546875" customWidth="1"/>
+    <col min="1" max="1" width="33.28515625" customWidth="1"/>
+    <col min="2" max="2" width="28.85546875" customWidth="1"/>
+    <col min="9" max="9" width="21.140625" customWidth="1"/>
+    <col min="13" max="13" width="13.5703125" customWidth="1"/>
     <col min="14" max="14" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>75</v>
       </c>
@@ -6447,7 +6815,7 @@
         <v>4232587</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>76</v>
       </c>
@@ -6471,7 +6839,7 @@
         <v>8992806</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>77</v>
       </c>
@@ -6499,7 +6867,7 @@
         <v>5502837.0250000004</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>78</v>
       </c>
@@ -6527,7 +6895,7 @@
         <v>3191592</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>79</v>
       </c>
@@ -6553,7 +6921,7 @@
         <v>6275786</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>80</v>
       </c>
@@ -6577,7 +6945,7 @@
         <v>3061893</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>81</v>
       </c>
@@ -6601,7 +6969,7 @@
         <v>18223550</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>82</v>
       </c>
@@ -6625,7 +6993,7 @@
         <v>3211140</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>83</v>
       </c>
@@ -6658,18 +7026,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.88671875" customWidth="1"/>
-    <col min="2" max="21" width="9.77734375" customWidth="1"/>
-    <col min="22" max="22" width="10.21875" customWidth="1"/>
+    <col min="1" max="1" width="11.85546875" customWidth="1"/>
+    <col min="2" max="21" width="9.7109375" customWidth="1"/>
+    <col min="22" max="22" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>244</v>
       </c>
@@ -6737,7 +7105,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>265</v>
       </c>
@@ -6763,7 +7131,7 @@
       <c r="U2" s="6"/>
       <c r="V2" s="6"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>266</v>
       </c>
@@ -6789,7 +7157,7 @@
       <c r="U3" s="6"/>
       <c r="V3" s="6"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>267</v>
       </c>
@@ -6815,7 +7183,7 @@
       <c r="U4" s="6"/>
       <c r="V4" s="6"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
         <v>268</v>
       </c>
@@ -6841,7 +7209,7 @@
       <c r="U5" s="6"/>
       <c r="V5" s="6"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
         <v>143</v>
       </c>
@@ -6867,7 +7235,7 @@
       <c r="U6" s="6"/>
       <c r="V6" s="6"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
         <v>174</v>
       </c>
@@ -6893,7 +7261,7 @@
       <c r="U7" s="6"/>
       <c r="V7" s="6"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
         <v>269</v>
       </c>
@@ -6919,7 +7287,7 @@
       <c r="U8" s="6"/>
       <c r="V8" s="6"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
         <v>270</v>
       </c>
@@ -6945,7 +7313,7 @@
       <c r="U9" s="6"/>
       <c r="V9" s="6"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
         <v>271</v>
       </c>
@@ -6971,7 +7339,7 @@
       <c r="U10" s="6"/>
       <c r="V10" s="6"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
         <v>272</v>
       </c>
@@ -6997,7 +7365,7 @@
       <c r="U11" s="6"/>
       <c r="V11" s="6"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
         <v>131</v>
       </c>
@@ -7023,7 +7391,7 @@
       <c r="U12" s="6"/>
       <c r="V12" s="6"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
         <v>273</v>
       </c>
@@ -7049,7 +7417,7 @@
       <c r="U13" s="6"/>
       <c r="V13" s="6"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
         <v>274</v>
       </c>
@@ -7075,7 +7443,7 @@
       <c r="U14" s="6"/>
       <c r="V14" s="6"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
         <v>275</v>
       </c>
@@ -7101,7 +7469,7 @@
       <c r="U15" s="6"/>
       <c r="V15" s="6"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
         <v>276</v>
       </c>
@@ -7127,7 +7495,7 @@
       <c r="U16" s="6"/>
       <c r="V16" s="6"/>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
         <v>215</v>
       </c>
@@ -7153,7 +7521,7 @@
       <c r="U17" s="6"/>
       <c r="V17" s="6"/>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
         <v>277</v>
       </c>
@@ -7179,7 +7547,7 @@
       <c r="U18" s="6"/>
       <c r="V18" s="6"/>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="18" t="s">
         <v>278</v>
       </c>
@@ -7205,7 +7573,7 @@
       <c r="U19" s="6"/>
       <c r="V19" s="6"/>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
         <v>279</v>
       </c>
@@ -7231,7 +7599,7 @@
       <c r="U20" s="6"/>
       <c r="V20" s="6"/>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" s="18" t="s">
         <v>280</v>
       </c>
@@ -7257,7 +7625,7 @@
       <c r="U21" s="6"/>
       <c r="V21" s="6"/>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
         <v>110</v>
       </c>
@@ -7283,7 +7651,7 @@
       <c r="U22" s="6"/>
       <c r="V22" s="6"/>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" s="18" t="s">
         <v>148</v>
       </c>
@@ -7309,7 +7677,7 @@
       <c r="U23" s="6"/>
       <c r="V23" s="6"/>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" s="18" t="s">
         <v>281</v>
       </c>
@@ -7335,7 +7703,7 @@
       <c r="U24" s="6"/>
       <c r="V24" s="6"/>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" s="18" t="s">
         <v>282</v>
       </c>
@@ -7361,7 +7729,7 @@
       <c r="U25" s="6"/>
       <c r="V25" s="6"/>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" s="18" t="s">
         <v>283</v>
       </c>
@@ -7387,7 +7755,7 @@
       <c r="U26" s="6"/>
       <c r="V26" s="6"/>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" s="18" t="s">
         <v>284</v>
       </c>
@@ -7413,7 +7781,7 @@
       <c r="U27" s="6"/>
       <c r="V27" s="6"/>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" s="19" t="s">
         <v>300</v>
       </c>
@@ -7439,7 +7807,7 @@
       <c r="U28" s="6"/>
       <c r="V28" s="6"/>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" s="19" t="s">
         <v>301</v>
       </c>
@@ -7465,7 +7833,7 @@
       <c r="U29" s="6"/>
       <c r="V29" s="6"/>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" s="19" t="s">
         <v>302</v>
       </c>
@@ -7491,7 +7859,7 @@
       <c r="U30" s="6"/>
       <c r="V30" s="6"/>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" s="19" t="s">
         <v>129</v>
       </c>
@@ -7517,7 +7885,7 @@
       <c r="U31" s="6"/>
       <c r="V31" s="6"/>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" s="18" t="s">
         <v>205</v>
       </c>
@@ -7543,7 +7911,7 @@
       <c r="U32" s="6"/>
       <c r="V32" s="6"/>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33" s="18" t="s">
         <v>162</v>
       </c>
@@ -7569,7 +7937,7 @@
       <c r="U33" s="6"/>
       <c r="V33" s="6"/>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A34" s="18" t="s">
         <v>196</v>
       </c>
@@ -7595,7 +7963,7 @@
       <c r="U34" s="6"/>
       <c r="V34" s="6"/>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A35" s="18" t="s">
         <v>181</v>
       </c>
@@ -7621,7 +7989,7 @@
       <c r="U35" s="6"/>
       <c r="V35" s="6"/>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A36" s="18" t="s">
         <v>203</v>
       </c>
@@ -7647,7 +8015,7 @@
       <c r="U36" s="6"/>
       <c r="V36" s="6"/>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A37" s="18" t="s">
         <v>285</v>
       </c>
@@ -7673,7 +8041,7 @@
       <c r="U37" s="6"/>
       <c r="V37" s="6"/>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A38" s="18" t="s">
         <v>286</v>
       </c>
@@ -7699,7 +8067,7 @@
       <c r="U38" s="6"/>
       <c r="V38" s="6"/>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A39" s="18" t="s">
         <v>287</v>
       </c>
@@ -7725,7 +8093,7 @@
       <c r="U39" s="6"/>
       <c r="V39" s="6"/>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A40" s="18" t="s">
         <v>288</v>
       </c>
@@ -7751,7 +8119,7 @@
       <c r="U40" s="6"/>
       <c r="V40" s="6"/>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A41" s="18" t="s">
         <v>289</v>
       </c>
@@ -7777,7 +8145,7 @@
       <c r="U41" s="6"/>
       <c r="V41" s="6"/>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A42" s="18" t="s">
         <v>290</v>
       </c>
@@ -7803,7 +8171,7 @@
       <c r="U42" s="6"/>
       <c r="V42" s="6"/>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A43" s="18" t="s">
         <v>291</v>
       </c>
@@ -7829,7 +8197,7 @@
       <c r="U43" s="6"/>
       <c r="V43" s="6"/>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A44" s="18" t="s">
         <v>292</v>
       </c>
@@ -7855,7 +8223,7 @@
       <c r="U44" s="6"/>
       <c r="V44" s="6"/>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A45" s="18" t="s">
         <v>293</v>
       </c>
@@ -7881,7 +8249,7 @@
       <c r="U45" s="6"/>
       <c r="V45" s="6"/>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A46" s="18" t="s">
         <v>169</v>
       </c>
@@ -7907,7 +8275,7 @@
       <c r="U46" s="6"/>
       <c r="V46" s="6"/>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A47" s="18" t="s">
         <v>125</v>
       </c>
@@ -7933,7 +8301,7 @@
       <c r="U47" s="6"/>
       <c r="V47" s="6"/>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A48" s="18" t="s">
         <v>149</v>
       </c>
@@ -7959,7 +8327,7 @@
       <c r="U48" s="6"/>
       <c r="V48" s="6"/>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A49" s="18" t="s">
         <v>294</v>
       </c>
@@ -7985,7 +8353,7 @@
       <c r="U49" s="6"/>
       <c r="V49" s="6"/>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A50" s="18" t="s">
         <v>295</v>
       </c>
@@ -8011,7 +8379,7 @@
       <c r="U50" s="6"/>
       <c r="V50" s="6"/>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A51" s="18" t="s">
         <v>146</v>
       </c>
@@ -8037,7 +8405,7 @@
       <c r="U51" s="6"/>
       <c r="V51" s="6"/>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A52" s="18" t="s">
         <v>296</v>
       </c>
@@ -8063,7 +8431,7 @@
       <c r="U52" s="6"/>
       <c r="V52" s="6"/>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A53" s="30" t="s">
         <v>93</v>
       </c>
@@ -8089,7 +8457,7 @@
       <c r="U53" s="6"/>
       <c r="V53" s="6"/>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A54" s="30" t="s">
         <v>95</v>
       </c>
@@ -8115,7 +8483,7 @@
       <c r="U54" s="6"/>
       <c r="V54" s="6"/>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A55" s="30" t="s">
         <v>297</v>
       </c>
@@ -8144,4 +8512,628 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.7109375" customWidth="1"/>
+    <col min="2" max="13" width="9.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>315</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>304</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>305</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>307</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>308</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>309</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>310</v>
+      </c>
+      <c r="J1" s="18" t="s">
+        <v>311</v>
+      </c>
+      <c r="K1" s="18" t="s">
+        <v>312</v>
+      </c>
+      <c r="L1" s="18" t="s">
+        <v>313</v>
+      </c>
+      <c r="M1" s="18" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+    </row>
+    <row r="3" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+    </row>
+    <row r="4" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+    </row>
+    <row r="5" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+    </row>
+    <row r="6" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+    </row>
+    <row r="7" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+    </row>
+    <row r="8" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+    </row>
+    <row r="9" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+    </row>
+    <row r="10" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+    </row>
+    <row r="11" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+    </row>
+    <row r="12" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+    </row>
+    <row r="13" spans="1:13" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="32"/>
+    </row>
+    <row r="14" spans="1:13" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="32"/>
+    </row>
+    <row r="15" spans="1:13" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="32"/>
+    </row>
+    <row r="16" spans="1:13" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="32"/>
+    </row>
+    <row r="17" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="32"/>
+    </row>
+    <row r="18" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="32"/>
+    </row>
+    <row r="19" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="32"/>
+    </row>
+    <row r="20" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="32"/>
+    </row>
+    <row r="21" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="32"/>
+    </row>
+    <row r="22" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="32"/>
+    </row>
+    <row r="23" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="32"/>
+    </row>
+    <row r="24" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="32"/>
+    </row>
+    <row r="25" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="32"/>
+    </row>
+    <row r="26" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="32"/>
+    </row>
+    <row r="27" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="32"/>
+    </row>
+    <row r="28" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="34"/>
+    </row>
+    <row r="29" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="34"/>
+      <c r="C29" s="34"/>
+    </row>
+    <row r="30" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="34"/>
+    </row>
+    <row r="31" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="34"/>
+    </row>
+    <row r="32" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="32"/>
+    </row>
+    <row r="33" spans="1:1" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="32"/>
+    </row>
+    <row r="34" spans="1:1" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="32"/>
+    </row>
+    <row r="35" spans="1:1" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="32"/>
+    </row>
+    <row r="36" spans="1:1" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="32"/>
+    </row>
+    <row r="37" spans="1:1" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="32"/>
+    </row>
+    <row r="38" spans="1:1" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="32"/>
+    </row>
+    <row r="39" spans="1:1" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="32"/>
+    </row>
+    <row r="40" spans="1:1" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="32"/>
+    </row>
+    <row r="41" spans="1:1" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="32"/>
+    </row>
+    <row r="42" spans="1:1" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="32"/>
+    </row>
+    <row r="43" spans="1:1" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="32"/>
+    </row>
+    <row r="44" spans="1:1" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="32"/>
+    </row>
+    <row r="45" spans="1:1" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="32"/>
+    </row>
+    <row r="46" spans="1:1" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="32"/>
+    </row>
+    <row r="47" spans="1:1" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="32"/>
+    </row>
+    <row r="48" spans="1:1" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="32"/>
+    </row>
+    <row r="49" spans="1:1" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="32"/>
+    </row>
+    <row r="50" spans="1:1" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="32"/>
+    </row>
+    <row r="51" spans="1:1" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="32"/>
+    </row>
+    <row r="52" spans="1:1" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="32"/>
+    </row>
+    <row r="53" spans="1:1" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="35"/>
+    </row>
+    <row r="54" spans="1:1" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="35"/>
+    </row>
+    <row r="55" spans="1:1" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="35"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M12"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" customWidth="1"/>
+    <col min="2" max="13" width="9.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>315</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>304</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>305</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>307</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>308</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>309</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>310</v>
+      </c>
+      <c r="J1" s="18" t="s">
+        <v>311</v>
+      </c>
+      <c r="K1" s="18" t="s">
+        <v>312</v>
+      </c>
+      <c r="L1" s="18" t="s">
+        <v>313</v>
+      </c>
+      <c r="M1" s="18" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Civilworks cost/IPC Distribution.xlsx
+++ b/Civilworks cost/IPC Distribution.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="246">
   <si>
     <t>O&amp;M During Construction</t>
   </si>
@@ -526,10 +526,6 @@
     <t>128/KISH/HFMLIP/PW-03 5th bill</t>
   </si>
   <si>
-    <t>134/KISH/HFMLIP/PW-14 -
-2nd bill</t>
-  </si>
-  <si>
     <t>141/KISH/HFMLIP/PW-24 2nd bill</t>
   </si>
   <si>
@@ -548,311 +544,227 @@
     <t>151/KISH/HFMLIP/PW-17 1st bill</t>
   </si>
   <si>
-    <t>152/Hobi/HFMLIP/PW-07 1st bill</t>
-  </si>
-  <si>
-    <t>153/Kish/HFMLIP/PW-17 1st bill</t>
-  </si>
-  <si>
-    <t>164/Kish/HFMLIP/PW-24  3rd bill</t>
-  </si>
-  <si>
-    <t>167/Kish/HFMLIP/PW-14 3rd bill</t>
-  </si>
-  <si>
-    <t>174/Kish/HFMLIP/PW-07  5th bill</t>
-  </si>
-  <si>
-    <t>185/Kish/HFMLIP/PW-11  nd bill</t>
-  </si>
-  <si>
-    <t>186/Kish/HFMLIP/PW-05 2nd bill</t>
-  </si>
-  <si>
-    <t>187/Kish/HFMLIP/PW-10   2nd bill</t>
-  </si>
-  <si>
-    <t>189/Kish/HFMLIP/PW-04 3rd bill</t>
-  </si>
-  <si>
-    <t>199/Net/HFMLIP/PW-07  1st bill</t>
-  </si>
-  <si>
-    <t>200/Kish/HFMLIP/PW-13   3rd bill</t>
-  </si>
-  <si>
-    <t>202/Kish/HFMLIP/PW-24 4th bill</t>
-  </si>
-  <si>
-    <t>209/Kish/HFMLIP/PW-17  2nd bill</t>
-  </si>
-  <si>
-    <t>210/Kish/HFMLIP/PW-16 2nd bill</t>
-  </si>
-  <si>
-    <t>211/Kish/HFMLIP/PW-26 1st bill</t>
-  </si>
-  <si>
-    <t>216/Hobi/HFMLIP/PW-07 2nd bill</t>
-  </si>
-  <si>
-    <t>215/Kish/HFMLIP/PW-14 4th bill</t>
-  </si>
-  <si>
-    <t>225/Hobi/HFMLIP/PW-04 1st bill</t>
-  </si>
-  <si>
-    <t>231/Net/HFMLIP/PW-07 2nd bill</t>
-  </si>
-  <si>
-    <t>232/kish/HFMLIP/PW-18 1st bill</t>
-  </si>
-  <si>
-    <t>234/kish/HFMLIP/PW-06 3rd bill</t>
-  </si>
-  <si>
-    <t>237/Kish/HFMLIP/PW-16 3rd bill</t>
-  </si>
-  <si>
-    <t xml:space="preserve">238/kish/HFMLIP/PW-24  5th bill </t>
-  </si>
-  <si>
-    <t>313/Netra/HFMLIP/PW-01 1st bill</t>
-  </si>
-  <si>
-    <t>270/Kish/HFMLIP/PW-06 4th bill</t>
-  </si>
-  <si>
-    <t>276/Hobi/HFMLIP/PW-04 3rd bill</t>
-  </si>
-  <si>
-    <t>277/Hobi/HFMLIP/PW-04  2nd bill</t>
-  </si>
-  <si>
-    <t>288/Kish/HFMLIP/PW-15 1st bill</t>
-  </si>
-  <si>
-    <t>291/Kish/HFMLIP/PW-16 4th bill</t>
-  </si>
-  <si>
-    <t>292/kish/HFMLIP/PW-02 3rd bill</t>
-  </si>
-  <si>
-    <t>297/Hobi/HFMLIP/PW-06 1st bill</t>
-  </si>
-  <si>
-    <t>298/Kish/HFMLIP/PW-17 3rd bill</t>
-  </si>
-  <si>
-    <t>326/Kish/HFMLIP/PW-11  3rd bill</t>
-  </si>
-  <si>
-    <t>333/Kish/HFMLIP/PW-14  5th bill</t>
-  </si>
-  <si>
-    <t>339/Kish/HFMLIP/PW-07  6th bill</t>
-  </si>
-  <si>
-    <t>340/kish/HFMLIP/PW-24 6th bill</t>
-  </si>
-  <si>
-    <t>343/Kish/HFMLIP/PW-26 2nd bill</t>
-  </si>
-  <si>
-    <t>345/Kish/HFMLIP/PW-05 3rd bill</t>
-  </si>
-  <si>
-    <t>351/Kish/HFMLIP/PW-06 5th bill</t>
-  </si>
-  <si>
-    <t>344/hobi/HFMLIP/PW-06 2th bill</t>
-  </si>
-  <si>
-    <t>346/Kish/HFMLIP/PW-03 6th bill</t>
-  </si>
-  <si>
-    <t>378/Kish/HFMLIP/PW-9 1st bill</t>
-  </si>
-  <si>
-    <t>387/Hobi/HFMLIP/PW-07 4th bill</t>
-  </si>
-  <si>
-    <t>388/Kish/HFMLIP/PW-20  1st bill</t>
-  </si>
-  <si>
-    <t>392Kish/HFMLIP/PW-14  6th bill</t>
-  </si>
-  <si>
-    <t>399/kish/HFMLIP/PW-02 4th bill</t>
-  </si>
-  <si>
-    <t>400/kish/HFMLIP/PW-18   2nd bill</t>
-  </si>
-  <si>
-    <t>401/kish/HFMLIP/PW-24  7th bill</t>
-  </si>
-  <si>
-    <t>394Kish/HFMLIP/PW-10 3rd bill</t>
-  </si>
-  <si>
-    <t>396/Kish/HFMLIP/PW-06 6th bill</t>
-  </si>
-  <si>
-    <t>397/Kish/HFMLIP/PW-04 4th bill</t>
-  </si>
-  <si>
-    <t>398/Kish/HFMLIP/PW-13 4th bill</t>
-  </si>
-  <si>
-    <t>393/Kish/HFMLIP/PW-11 4th bill</t>
-  </si>
-  <si>
-    <t>395/Kish/HFMLIP/PW-17 4th bill</t>
-  </si>
-  <si>
-    <t>403/Kish/HFMLIP/PW-03 7th bill</t>
-  </si>
-  <si>
-    <t>402/Kish/HFMLIP/PW-16 5th bill</t>
-  </si>
-  <si>
-    <t>416/Kish/HFMLIP/PW-19 1st bill</t>
-  </si>
-  <si>
-    <t>Kish/HFMLIP/PW-15  2nd bill</t>
-  </si>
-  <si>
     <t>Package No</t>
   </si>
   <si>
     <t>IPC No</t>
   </si>
   <si>
-    <t>KISH/HFMLIP/PW-03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KISH/HFMLIP/PW-04 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">KISH/HFMLIP/PW-03 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">KISH/HFMLIP/PW-24 </t>
-  </si>
-  <si>
-    <t>KISH/HFMLIP/PW-07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KISH/HFMLIP/PW-06  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">KISH/HFMLIP/PW-14 
+    <t xml:space="preserve">KISH-04 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KISH-03 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KISH-24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KISH-14 
 </t>
   </si>
   <si>
-    <t xml:space="preserve">KISH/HFMLIP/PW-10 </t>
-  </si>
-  <si>
-    <t>KISH/HFMLIP/PW-11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KISH/HFMLIP/PW-07 </t>
-  </si>
-  <si>
-    <t>KISH/HFMLIP/PW-17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hobi/HFMLIP/PW-07 </t>
-  </si>
-  <si>
-    <t>Kish/HFMLIP/PW-17</t>
-  </si>
-  <si>
-    <t>Kish/HFMLIP/PW-24</t>
-  </si>
-  <si>
-    <t>Kish/HFMLIP/PW-14</t>
-  </si>
-  <si>
-    <t>Kish/HFMLIP/PW-07</t>
-  </si>
-  <si>
-    <t>Kish/HFMLIP/PW-11</t>
-  </si>
-  <si>
-    <t>Kish/HFMLIP/PW-05</t>
-  </si>
-  <si>
-    <t>Kish/HFMLIP/PW-10</t>
-  </si>
-  <si>
-    <t>Kish/HFMLIP/PW-04</t>
-  </si>
-  <si>
-    <t>Net/HFMLIP/PW-07</t>
-  </si>
-  <si>
-    <t>Kish/HFMLIP/PW-13</t>
-  </si>
-  <si>
-    <t>Kish/HFMLIP/PW-16</t>
-  </si>
-  <si>
-    <t>Kish/HFMLIP/PW-26</t>
-  </si>
-  <si>
-    <t>Hobi/HFMLIP/PW-04</t>
-  </si>
-  <si>
-    <t>kish/HFMLIP/PW-18</t>
-  </si>
-  <si>
-    <t>kish/HFMLIP/PW-06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kish/HFMLIP/PW-24  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Netra/HFMLIP/PW-01 </t>
-  </si>
-  <si>
-    <t>Kish/HFMLIP/PW-06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kish/HFMLIP/PW-15 </t>
-  </si>
-  <si>
-    <t>kish/HFMLIP/PW-02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hobi/HFMLIP/PW-06 </t>
-  </si>
-  <si>
-    <t>kish/HFMLIP/PW-24</t>
-  </si>
-  <si>
-    <t>hobi/HFMLIP/PW-06</t>
-  </si>
-  <si>
-    <t>Kish/HFMLIP/PW-03</t>
-  </si>
-  <si>
-    <t>Kish/HFMLIP/PW-9</t>
-  </si>
-  <si>
-    <t>Hobi/HFMLIP/PW-07</t>
-  </si>
-  <si>
-    <t>Kish/HFMLIP/PW-20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kish/HFMLIP/PW-18 </t>
-  </si>
-  <si>
-    <t>Kish/HFMLIP/PW-19</t>
-  </si>
-  <si>
-    <t>HFMLIP/PW-15</t>
+    <t xml:space="preserve">KISH-06  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KISH-10 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KISH-07 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HOBI-07 </t>
+  </si>
+  <si>
+    <t>153/KISH/HFMLIP/PW-17 1st bill</t>
+  </si>
+  <si>
+    <t>164/KISH/HFMLIP/PW-24  3rd bill</t>
+  </si>
+  <si>
+    <t>167/KISH/HFMLIP/PW-14 3rd bill</t>
+  </si>
+  <si>
+    <t>174/KISH/HFMLIP/PW-07  5th bill</t>
+  </si>
+  <si>
+    <t>185/KISH/HFMLIP/PW-11  nd bill</t>
+  </si>
+  <si>
+    <t>186/KISH/HFMLIP/PW-05 2nd bill</t>
+  </si>
+  <si>
+    <t>187/KISH/HFMLIP/PW-10   2nd bill</t>
+  </si>
+  <si>
+    <t>189/KISH/HFMLIP/PW-04 3rd bill</t>
+  </si>
+  <si>
+    <t>200/KISH/HFMLIP/PW-13   3rd bill</t>
+  </si>
+  <si>
+    <t>202/KISH/HFMLIP/PW-24 4th bill</t>
+  </si>
+  <si>
+    <t>209/KISH/HFMLIP/PW-17  2nd bill</t>
+  </si>
+  <si>
+    <t>210/KISH/HFMLIP/PW-16 2nd bill</t>
+  </si>
+  <si>
+    <t>211/KISH/HFMLIP/PW-26 1st bill</t>
+  </si>
+  <si>
+    <t>215/KISH/HFMLIP/PW-14 4th bill</t>
+  </si>
+  <si>
+    <t>232/KISH/HFMLIP/PW-18 1st bill</t>
+  </si>
+  <si>
+    <t>234/KISH/HFMLIP/PW-06 3rd bill</t>
+  </si>
+  <si>
+    <t>237/KISH/HFMLIP/PW-16 3rd bill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">238/KISH/HFMLIP/PW-24  5th bill </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KISH-24  </t>
+  </si>
+  <si>
+    <t>270/KISH/HFMLIP/PW-06 4th bill</t>
+  </si>
+  <si>
+    <t>288/KISH/HFMLIP/PW-15 1st bill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KISH-15 </t>
+  </si>
+  <si>
+    <t>291/KISH/HFMLIP/PW-16 4th bill</t>
+  </si>
+  <si>
+    <t>292/KISH/HFMLIP/PW-02 3rd bill</t>
+  </si>
+  <si>
+    <t>298/KISH/HFMLIP/PW-17 3rd bill</t>
+  </si>
+  <si>
+    <t>326/KISH/HFMLIP/PW-11  3rd bill</t>
+  </si>
+  <si>
+    <t>333/KISH/HFMLIP/PW-14  5th bill</t>
+  </si>
+  <si>
+    <t>339/KISH/HFMLIP/PW-07  6th bill</t>
+  </si>
+  <si>
+    <t>340/KISH/HFMLIP/PW-24 6th bill</t>
+  </si>
+  <si>
+    <t>343/KISH/HFMLIP/PW-26 2nd bill</t>
+  </si>
+  <si>
+    <t>345/KISH/HFMLIP/PW-05 3rd bill</t>
+  </si>
+  <si>
+    <t>351/KISH/HFMLIP/PW-06 5th bill</t>
+  </si>
+  <si>
+    <t>346/KISH/HFMLIP/PW-03 6th bill</t>
+  </si>
+  <si>
+    <t>378/KISH/HFMLIP/PW-9 1st bill</t>
+  </si>
+  <si>
+    <t>388/KISH/HFMLIP/PW-20  1st bill</t>
+  </si>
+  <si>
+    <t>392KISH/HFMLIP/PW-14  6th bill</t>
+  </si>
+  <si>
+    <t>399/KISH/HFMLIP/PW-02 4th bill</t>
+  </si>
+  <si>
+    <t>400/KISH/HFMLIP/PW-18   2nd bill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KISH-18 </t>
+  </si>
+  <si>
+    <t>401/KISH/HFMLIP/PW-24  7th bill</t>
+  </si>
+  <si>
+    <t>394KISH/HFMLIP/PW-10 3rd bill</t>
+  </si>
+  <si>
+    <t>396/KISH/HFMLIP/PW-06 6th bill</t>
+  </si>
+  <si>
+    <t>397/KISH/HFMLIP/PW-04 4th bill</t>
+  </si>
+  <si>
+    <t>398/KISH/HFMLIP/PW-13 4th bill</t>
+  </si>
+  <si>
+    <t>393/KISH/HFMLIP/PW-11 4th bill</t>
+  </si>
+  <si>
+    <t>395/KISH/HFMLIP/PW-17 4th bill</t>
+  </si>
+  <si>
+    <t>403/KISH/HFMLIP/PW-03 7th bill</t>
+  </si>
+  <si>
+    <t>402/KISH/HFMLIP/PW-16 5th bill</t>
+  </si>
+  <si>
+    <t>416/KISH/HFMLIP/PW-19 1st bill</t>
+  </si>
+  <si>
+    <t>KISH/HFMLIP/PW-15  2nd bill</t>
+  </si>
+  <si>
+    <t>152/HOBI/HFMLIP/PW-07 1st bill</t>
+  </si>
+  <si>
+    <t>216/HOBI/HFMLIP/PW-07 2nd bill</t>
+  </si>
+  <si>
+    <t>225/HOBI/HFMLIP/PW-04 1st bill</t>
+  </si>
+  <si>
+    <t>276/HOBI/HFMLIP/PW-04 3rd bill</t>
+  </si>
+  <si>
+    <t>277/HOBI/HFMLIP/PW-04  2nd bill</t>
+  </si>
+  <si>
+    <t>297/HOBI/HFMLIP/PW-06 1st bill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HOBI-06 </t>
+  </si>
+  <si>
+    <t>344/HOBI/HFMLIP/PW-06 2th bill</t>
+  </si>
+  <si>
+    <t>387/HOBI/HFMLIP/PW-07 4th bill</t>
+  </si>
+  <si>
+    <t>313/NETRA/HFMLIP/PW-01 1st bill</t>
+  </si>
+  <si>
+    <t>199/NET/HFMLIP/PW-07  1st bill</t>
+  </si>
+  <si>
+    <t>231/NET/HFMLIP/PW-07 2nd bill</t>
+  </si>
+  <si>
+    <t>134/KISH/HFMLIP/PW-14 -2nd bill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NETR-01 </t>
   </si>
 </sst>
 </file>
@@ -982,7 +894,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1045,37 +957,56 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1367,8 +1298,8 @@
   <dimension ref="A1:S72"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q2" sqref="Q2:Q72"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="V4" sqref="V4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1381,2739 +1312,2738 @@
     <col min="8" max="9" width="15.85546875" customWidth="1"/>
     <col min="10" max="10" width="15.28515625" customWidth="1"/>
     <col min="11" max="11" width="16.140625" customWidth="1"/>
-    <col min="12" max="12" width="12.140625" customWidth="1"/>
-    <col min="13" max="14" width="12" customWidth="1"/>
+    <col min="12" max="13" width="12.140625" customWidth="1"/>
+    <col min="14" max="14" width="12" customWidth="1"/>
     <col min="15" max="16" width="13.85546875" customWidth="1"/>
-    <col min="17" max="17" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="G1" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="H1" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="I1" s="26" t="s">
+      <c r="I1" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="J1" s="26" t="s">
+      <c r="J1" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="K1" s="26" t="s">
+      <c r="K1" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="L1" s="26" t="s">
+      <c r="L1" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="M1" s="26" t="s">
+      <c r="M1" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="N1" s="26" t="s">
+      <c r="N1" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="26" t="s">
+      <c r="O1" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="P1" s="26" t="s">
+      <c r="P1" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="Q1" s="26" t="s">
+      <c r="Q1" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="R1" s="26" t="s">
+        <v>173</v>
+      </c>
+      <c r="S1" s="26" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="27">
+        <v>1</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29">
+        <v>7238960.8200000003</v>
+      </c>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="31">
+        <v>868675.29799999995</v>
+      </c>
+      <c r="P2" s="31">
+        <v>6370285.5199999996</v>
+      </c>
+      <c r="Q2" s="37" t="s">
+        <v>113</v>
+      </c>
+      <c r="R2" s="29">
+        <v>3</v>
+      </c>
+      <c r="S2" s="29">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="27">
+        <v>2</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>161</v>
+      </c>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29">
+        <v>9586696</v>
+      </c>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="29"/>
+      <c r="O3" s="31">
+        <v>1246270.51</v>
+      </c>
+      <c r="P3" s="31">
+        <v>8340425.7300000004</v>
+      </c>
+      <c r="Q3" s="37" t="s">
+        <v>174</v>
+      </c>
+      <c r="R3" s="29">
+        <v>3</v>
+      </c>
+      <c r="S3" s="29">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="27">
+        <v>3</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>162</v>
+      </c>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29">
+        <v>8142995.5</v>
+      </c>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
+      <c r="O4" s="31">
+        <v>977159.46</v>
+      </c>
+      <c r="P4" s="31">
+        <v>7165836.04</v>
+      </c>
+      <c r="Q4" s="37" t="s">
+        <v>175</v>
+      </c>
+      <c r="R4" s="29">
+        <v>3</v>
+      </c>
+      <c r="S4" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="27">
+        <v>4</v>
+      </c>
+      <c r="B5" s="28" t="s">
+        <v>163</v>
+      </c>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29">
+        <v>9771138.6500000004</v>
+      </c>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="29"/>
+      <c r="N5" s="29"/>
+      <c r="O5" s="31">
+        <v>1270248.02</v>
+      </c>
+      <c r="P5" s="31">
+        <v>8500890.6199999992</v>
+      </c>
+      <c r="Q5" s="37" t="s">
+        <v>176</v>
+      </c>
+      <c r="R5" s="29">
+        <v>3</v>
+      </c>
+      <c r="S5" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="27">
+        <v>5</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>164</v>
+      </c>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29">
+        <v>10845170.050000001</v>
+      </c>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="29"/>
+      <c r="N6" s="29"/>
+      <c r="O6" s="31">
+        <v>1301420.4099999999</v>
+      </c>
+      <c r="P6" s="31">
+        <v>9543749.6400000006</v>
+      </c>
+      <c r="Q6" s="38" t="s">
+        <v>115</v>
+      </c>
+      <c r="R6" s="29">
+        <v>3</v>
+      </c>
+      <c r="S6" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="27">
+        <v>6</v>
+      </c>
+      <c r="B7" s="33" t="s">
+        <v>165</v>
+      </c>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29">
+        <v>15413804.93</v>
+      </c>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="29"/>
+      <c r="O7" s="31">
+        <v>1849656.59</v>
+      </c>
+      <c r="P7" s="31">
+        <v>13564148.34</v>
+      </c>
+      <c r="Q7" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="R7" s="29">
+        <v>3</v>
+      </c>
+      <c r="S7" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="27">
+        <v>7</v>
+      </c>
+      <c r="B8" s="34" t="s">
+        <v>244</v>
+      </c>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29">
+        <v>15640359.83</v>
+      </c>
+      <c r="K8" s="29"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="29"/>
+      <c r="N8" s="29"/>
+      <c r="O8" s="31">
+        <v>1876843.18</v>
+      </c>
+      <c r="P8" s="31">
+        <v>13763516.65</v>
+      </c>
+      <c r="Q8" s="40" t="s">
+        <v>177</v>
+      </c>
+      <c r="R8" s="29">
+        <v>3</v>
+      </c>
+      <c r="S8" s="29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="27">
+        <v>8</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29">
+        <v>13008328.869999999</v>
+      </c>
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="29"/>
+      <c r="O9" s="31">
+        <v>1691082.75</v>
+      </c>
+      <c r="P9" s="31">
+        <v>11317246.119999999</v>
+      </c>
+      <c r="Q9" s="37" t="s">
+        <v>176</v>
+      </c>
+      <c r="R9" s="29">
+        <v>3</v>
+      </c>
+      <c r="S9" s="29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="27">
+        <v>9</v>
+      </c>
+      <c r="B10" s="28" t="s">
+        <v>167</v>
+      </c>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29">
+        <v>14646053</v>
+      </c>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="29"/>
+      <c r="O10" s="31">
+        <v>1757526.36</v>
+      </c>
+      <c r="P10" s="31">
+        <v>12888526.640000001</v>
+      </c>
+      <c r="Q10" s="37" t="s">
+        <v>178</v>
+      </c>
+      <c r="R10" s="29">
+        <v>3</v>
+      </c>
+      <c r="S10" s="29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="27">
+        <v>10</v>
+      </c>
+      <c r="B11" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29">
+        <v>10200030</v>
+      </c>
+      <c r="K11" s="29"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="29"/>
+      <c r="O11" s="31">
+        <v>1326003.8999999999</v>
+      </c>
+      <c r="P11" s="31">
+        <v>8874026.0999999996</v>
+      </c>
+      <c r="Q11" s="37" t="s">
+        <v>179</v>
+      </c>
+      <c r="R11" s="29">
+        <v>3</v>
+      </c>
+      <c r="S11" s="29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="27">
+        <v>11</v>
+      </c>
+      <c r="B12" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29">
+        <v>15026301.550000001</v>
+      </c>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="29"/>
+      <c r="O12" s="31">
+        <v>1953419.2</v>
+      </c>
+      <c r="P12" s="31">
+        <v>13072882.35</v>
+      </c>
+      <c r="Q12" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="R12" s="29">
+        <v>3</v>
+      </c>
+      <c r="S12" s="29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="27">
+        <v>12</v>
+      </c>
+      <c r="B13" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29">
+        <v>11242690.49</v>
+      </c>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="29"/>
+      <c r="O13" s="31">
+        <v>1349122.86</v>
+      </c>
+      <c r="P13" s="31">
+        <v>9893567.6300000008</v>
+      </c>
+      <c r="Q13" s="37" t="s">
+        <v>180</v>
+      </c>
+      <c r="R13" s="29">
+        <v>3</v>
+      </c>
+      <c r="S13" s="29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="27">
+        <v>13</v>
+      </c>
+      <c r="B14" s="28" t="s">
+        <v>171</v>
+      </c>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29">
+        <v>7938245.9500000002</v>
+      </c>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29">
+        <v>7599197.4000000004</v>
+      </c>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="29"/>
+      <c r="O14" s="31">
+        <v>2019867.63</v>
+      </c>
+      <c r="P14" s="31">
+        <v>13517575.720000001</v>
+      </c>
+      <c r="Q14" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="R14" s="29">
+        <v>3</v>
+      </c>
+      <c r="S14" s="29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="27">
+        <v>14</v>
+      </c>
+      <c r="B15" s="28" t="s">
+        <v>232</v>
+      </c>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29">
+        <v>12721273.99</v>
+      </c>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="29"/>
+      <c r="O15" s="31">
+        <v>1526552.88</v>
+      </c>
+      <c r="P15" s="31">
+        <v>11194721.109999999</v>
+      </c>
+      <c r="Q15" s="37" t="s">
+        <v>181</v>
+      </c>
+      <c r="R15" s="29">
+        <v>3</v>
+      </c>
+      <c r="S15" s="29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="27">
+        <v>15</v>
+      </c>
+      <c r="B16" s="28" t="s">
+        <v>182</v>
+      </c>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29">
+        <v>8572627.9900000002</v>
+      </c>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29">
+        <v>538980.39</v>
+      </c>
+      <c r="K16" s="29"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="29"/>
+      <c r="N16" s="29"/>
+      <c r="O16" s="31">
+        <v>1184509.0900000001</v>
+      </c>
+      <c r="P16" s="31">
+        <v>7927099.29</v>
+      </c>
+      <c r="Q16" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="R16" s="29">
+        <v>3</v>
+      </c>
+      <c r="S16" s="29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="27">
+        <v>16</v>
+      </c>
+      <c r="B17" s="28" t="s">
+        <v>183</v>
+      </c>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29">
+        <v>9075186.2300000004</v>
+      </c>
+      <c r="K17" s="29"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="29"/>
+      <c r="N17" s="29"/>
+      <c r="O17" s="31">
+        <v>1179774.21</v>
+      </c>
+      <c r="P17" s="31">
+        <v>7895412.0199999996</v>
+      </c>
+      <c r="Q17" s="37" t="s">
+        <v>127</v>
+      </c>
+      <c r="R17" s="29">
+        <v>3</v>
+      </c>
+      <c r="S17" s="29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="27">
+        <v>17</v>
+      </c>
+      <c r="B18" s="28" t="s">
+        <v>184</v>
+      </c>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="29">
+        <v>8425905.7300000004</v>
+      </c>
+      <c r="K18" s="29"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="29"/>
+      <c r="N18" s="29"/>
+      <c r="O18" s="31">
+        <v>1011108.69</v>
+      </c>
+      <c r="P18" s="31">
+        <v>7414797.04</v>
+      </c>
+      <c r="Q18" s="37" t="s">
+        <v>120</v>
+      </c>
+      <c r="R18" s="29">
+        <v>3</v>
+      </c>
+      <c r="S18" s="29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="27">
+        <v>18</v>
+      </c>
+      <c r="B19" s="28" t="s">
+        <v>185</v>
+      </c>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29">
+        <v>6333083.3899999997</v>
+      </c>
+      <c r="K19" s="29"/>
+      <c r="L19" s="29"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="29"/>
+      <c r="O19" s="31">
+        <v>759970.01</v>
+      </c>
+      <c r="P19" s="31">
+        <v>5573113.3799999999</v>
+      </c>
+      <c r="Q19" s="37" t="s">
+        <v>115</v>
+      </c>
+      <c r="R19" s="29">
+        <v>3</v>
+      </c>
+      <c r="S19" s="29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="27">
+        <v>19</v>
+      </c>
+      <c r="B20" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29">
+        <v>4523754.4400000004</v>
+      </c>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="29">
+        <v>10972049.369999999</v>
+      </c>
+      <c r="K20" s="29"/>
+      <c r="L20" s="29"/>
+      <c r="M20" s="29"/>
+      <c r="N20" s="29"/>
+      <c r="O20" s="31">
+        <v>2014454.5</v>
+      </c>
+      <c r="P20" s="31">
+        <v>13481349.310000001</v>
+      </c>
+      <c r="Q20" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="R20" s="29">
+        <v>3</v>
+      </c>
+      <c r="S20" s="29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="27">
+        <v>20</v>
+      </c>
+      <c r="B21" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29">
+        <v>16019866.529999999</v>
+      </c>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="29"/>
+      <c r="M21" s="29"/>
+      <c r="N21" s="29"/>
+      <c r="O21" s="31">
+        <v>1922383.98</v>
+      </c>
+      <c r="P21" s="31">
+        <v>14097482.550000001</v>
+      </c>
+      <c r="Q21" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="R21" s="29">
+        <v>3</v>
+      </c>
+      <c r="S21" s="29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="27">
+        <v>21</v>
+      </c>
+      <c r="B22" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="29">
+        <v>10955536.74</v>
+      </c>
+      <c r="K22" s="29"/>
+      <c r="L22" s="29"/>
+      <c r="M22" s="29"/>
+      <c r="N22" s="29"/>
+      <c r="O22" s="31">
+        <v>1424219.78</v>
+      </c>
+      <c r="P22" s="31">
+        <v>9531316.9600000009</v>
+      </c>
+      <c r="Q22" s="37" t="s">
+        <v>117</v>
+      </c>
+      <c r="R22" s="29">
+        <v>3</v>
+      </c>
+      <c r="S22" s="29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="27">
+        <v>22</v>
+      </c>
+      <c r="B23" s="28" t="s">
+        <v>189</v>
+      </c>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29">
+        <v>14734547.110000001</v>
+      </c>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="29">
+        <v>4190076.42</v>
+      </c>
+      <c r="K23" s="29"/>
+      <c r="L23" s="29"/>
+      <c r="M23" s="29"/>
+      <c r="N23" s="29"/>
+      <c r="O23" s="31">
+        <v>2460201.06</v>
+      </c>
+      <c r="P23" s="31">
+        <v>16464422.470000001</v>
+      </c>
+      <c r="Q23" s="37" t="s">
+        <v>114</v>
+      </c>
+      <c r="R23" s="29">
+        <v>3</v>
+      </c>
+      <c r="S23" s="29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="27">
+        <v>23</v>
+      </c>
+      <c r="B24" s="28" t="s">
+        <v>242</v>
+      </c>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29">
+        <v>13013709.810000001</v>
+      </c>
+      <c r="H24" s="29"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="29"/>
+      <c r="L24" s="29"/>
+      <c r="M24" s="29"/>
+      <c r="N24" s="29"/>
+      <c r="O24" s="31">
+        <v>1691782.28</v>
+      </c>
+      <c r="P24" s="31">
+        <v>11321927.529999999</v>
+      </c>
+      <c r="Q24" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="R24" s="29">
+        <v>3</v>
+      </c>
+      <c r="S24" s="29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="27">
+        <v>24</v>
+      </c>
+      <c r="B25" s="28" t="s">
+        <v>190</v>
+      </c>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29">
+        <v>16668436.08</v>
+      </c>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="29">
+        <v>291451.92</v>
+      </c>
+      <c r="K25" s="29"/>
+      <c r="L25" s="29"/>
+      <c r="M25" s="29"/>
+      <c r="N25" s="29"/>
+      <c r="O25" s="31">
+        <v>2204785.4700000002</v>
+      </c>
+      <c r="P25" s="31">
+        <v>14755102.76</v>
+      </c>
+      <c r="Q25" s="37" t="s">
+        <v>119</v>
+      </c>
+      <c r="R25" s="29">
+        <v>3</v>
+      </c>
+      <c r="S25" s="29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="27">
+        <v>25</v>
+      </c>
+      <c r="B26" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="29">
+        <v>6988914</v>
+      </c>
+      <c r="K26" s="29"/>
+      <c r="L26" s="29"/>
+      <c r="M26" s="29"/>
+      <c r="N26" s="29"/>
+      <c r="O26" s="31">
+        <v>908558.82</v>
+      </c>
+      <c r="P26" s="31">
+        <v>6080355.1799999997</v>
+      </c>
+      <c r="Q26" s="37" t="s">
+        <v>127</v>
+      </c>
+      <c r="R26" s="29">
+        <v>3</v>
+      </c>
+      <c r="S26" s="29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="28" t="s">
+        <v>192</v>
+      </c>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="29">
+        <v>13968595.560000001</v>
+      </c>
+      <c r="K27" s="29"/>
+      <c r="L27" s="29"/>
+      <c r="M27" s="29"/>
+      <c r="N27" s="29"/>
+      <c r="O27" s="31">
+        <v>1815917.41</v>
+      </c>
+      <c r="P27" s="31">
+        <v>12152678.140000001</v>
+      </c>
+      <c r="Q27" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="R27" s="29">
+        <v>3</v>
+      </c>
+      <c r="S27" s="29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="27">
+        <v>27</v>
+      </c>
+      <c r="B28" s="28" t="s">
+        <v>193</v>
+      </c>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29">
+        <v>8153224.5599999996</v>
+      </c>
+      <c r="F28" s="29"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="29">
+        <v>2054495.11</v>
+      </c>
+      <c r="K28" s="29"/>
+      <c r="L28" s="29"/>
+      <c r="M28" s="29"/>
+      <c r="N28" s="29"/>
+      <c r="O28" s="31">
+        <v>1327003.56</v>
+      </c>
+      <c r="P28" s="31">
+        <v>8880716.1099999994</v>
+      </c>
+      <c r="Q28" s="37" t="s">
+        <v>122</v>
+      </c>
+      <c r="R28" s="29">
+        <v>3</v>
+      </c>
+      <c r="S28" s="29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="27">
+        <v>28</v>
+      </c>
+      <c r="B29" s="28" t="s">
+        <v>194</v>
+      </c>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29">
+        <v>2845817.91</v>
+      </c>
+      <c r="G29" s="29"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="29"/>
+      <c r="K29" s="29"/>
+      <c r="L29" s="29"/>
+      <c r="M29" s="29"/>
+      <c r="N29" s="29"/>
+      <c r="O29" s="31">
+        <v>341498.15</v>
+      </c>
+      <c r="P29" s="31">
+        <v>2504319.7599999998</v>
+      </c>
+      <c r="Q29" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="R29" s="29">
+        <v>3</v>
+      </c>
+      <c r="S29" s="29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="27">
+        <v>29</v>
+      </c>
+      <c r="B30" s="28" t="s">
+        <v>233</v>
+      </c>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="29">
+        <v>20920389.859999999</v>
+      </c>
+      <c r="F30" s="29"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="29"/>
+      <c r="I30" s="29"/>
+      <c r="J30" s="29"/>
+      <c r="K30" s="29"/>
+      <c r="L30" s="29"/>
+      <c r="M30" s="29"/>
+      <c r="N30" s="29"/>
+      <c r="O30" s="31">
+        <v>2510446.7799999998</v>
+      </c>
+      <c r="P30" s="31">
+        <v>18409943.300000001</v>
+      </c>
+      <c r="Q30" s="37" t="s">
+        <v>181</v>
+      </c>
+      <c r="R30" s="29">
+        <v>3</v>
+      </c>
+      <c r="S30" s="29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="27">
+        <v>30</v>
+      </c>
+      <c r="B31" s="28" t="s">
+        <v>195</v>
+      </c>
+      <c r="C31" s="29"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="29">
+        <v>6371395.0199999996</v>
+      </c>
+      <c r="F31" s="29"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="29"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="29">
+        <v>57426.95</v>
+      </c>
+      <c r="K31" s="29"/>
+      <c r="L31" s="29"/>
+      <c r="M31" s="29"/>
+      <c r="N31" s="29"/>
+      <c r="O31" s="31">
+        <v>771458.64</v>
+      </c>
+      <c r="P31" s="31">
+        <v>5657363.3399999999</v>
+      </c>
+      <c r="Q31" s="37" t="s">
+        <v>120</v>
+      </c>
+      <c r="R31" s="29">
+        <v>3</v>
+      </c>
+      <c r="S31" s="29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="27">
+        <v>31</v>
+      </c>
+      <c r="B32" s="28" t="s">
+        <v>234</v>
+      </c>
+      <c r="C32" s="29"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="29"/>
+      <c r="H32" s="29"/>
+      <c r="I32" s="29"/>
+      <c r="J32" s="29">
+        <v>21272374</v>
+      </c>
+      <c r="K32" s="29"/>
+      <c r="L32" s="29"/>
+      <c r="M32" s="29"/>
+      <c r="N32" s="29"/>
+      <c r="O32" s="31">
+        <v>2765408.62</v>
+      </c>
+      <c r="P32" s="31">
+        <v>18506965.379999999</v>
+      </c>
+      <c r="Q32" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="R32" s="29">
+        <v>3</v>
+      </c>
+      <c r="S32" s="29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="27">
+        <v>32</v>
+      </c>
+      <c r="B33" s="28" t="s">
+        <v>243</v>
+      </c>
+      <c r="C33" s="29"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="29">
+        <v>24881290.649999999</v>
+      </c>
+      <c r="G33" s="29"/>
+      <c r="H33" s="29"/>
+      <c r="I33" s="29"/>
+      <c r="J33" s="29"/>
+      <c r="K33" s="29"/>
+      <c r="L33" s="29"/>
+      <c r="M33" s="29"/>
+      <c r="N33" s="29"/>
+      <c r="O33" s="31">
+        <v>3234567.78</v>
+      </c>
+      <c r="P33" s="31">
+        <v>21646722.870000001</v>
+      </c>
+      <c r="Q33" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="R33" s="29">
+        <v>3</v>
+      </c>
+      <c r="S33" s="29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="27">
+        <v>33</v>
+      </c>
+      <c r="B34" s="28" t="s">
+        <v>196</v>
+      </c>
+      <c r="C34" s="29"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="29">
+        <v>2219849.34</v>
+      </c>
+      <c r="G34" s="29"/>
+      <c r="H34" s="29"/>
+      <c r="I34" s="29"/>
+      <c r="J34" s="29"/>
+      <c r="K34" s="29"/>
+      <c r="L34" s="29"/>
+      <c r="M34" s="29"/>
+      <c r="N34" s="29"/>
+      <c r="O34" s="31">
+        <v>288580.40999999997</v>
+      </c>
+      <c r="P34" s="31">
+        <v>1931268.93</v>
+      </c>
+      <c r="Q34" s="37" t="s">
+        <v>123</v>
+      </c>
+      <c r="R34" s="29">
+        <v>3</v>
+      </c>
+      <c r="S34" s="29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="27">
+        <v>34</v>
+      </c>
+      <c r="B35" s="28" t="s">
+        <v>197</v>
+      </c>
+      <c r="C35" s="29"/>
+      <c r="D35" s="29"/>
+      <c r="E35" s="29">
+        <v>1212624.81</v>
+      </c>
+      <c r="F35" s="29">
+        <v>8857010.9600000009</v>
+      </c>
+      <c r="G35" s="29"/>
+      <c r="H35" s="29"/>
+      <c r="I35" s="29"/>
+      <c r="J35" s="29"/>
+      <c r="K35" s="29"/>
+      <c r="L35" s="29"/>
+      <c r="M35" s="29"/>
+      <c r="N35" s="29"/>
+      <c r="O35" s="31">
+        <v>1208356.32</v>
+      </c>
+      <c r="P35" s="31">
+        <v>8861279.6799999997</v>
+      </c>
+      <c r="Q35" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="R35" s="29">
+        <v>3</v>
+      </c>
+      <c r="S35" s="29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="27">
+        <v>35</v>
+      </c>
+      <c r="B36" s="35" t="s">
+        <v>198</v>
+      </c>
+      <c r="C36" s="31"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="31"/>
+      <c r="G36" s="31"/>
+      <c r="H36" s="31"/>
+      <c r="I36" s="31"/>
+      <c r="J36" s="31">
+        <v>7949616.7400000002</v>
+      </c>
+      <c r="K36" s="31"/>
+      <c r="L36" s="31"/>
+      <c r="M36" s="31"/>
+      <c r="N36" s="31"/>
+      <c r="O36" s="31">
+        <v>1033450.21</v>
+      </c>
+      <c r="P36" s="31">
+        <v>6916166.79</v>
+      </c>
+      <c r="Q36" s="41" t="s">
+        <v>122</v>
+      </c>
+      <c r="R36" s="31">
+        <v>3</v>
+      </c>
+      <c r="S36" s="31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="27">
+        <v>36</v>
+      </c>
+      <c r="B37" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="C37" s="31"/>
+      <c r="D37" s="31"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="31"/>
+      <c r="G37" s="31"/>
+      <c r="H37" s="31"/>
+      <c r="I37" s="31"/>
+      <c r="J37" s="31">
+        <v>16684473</v>
+      </c>
+      <c r="K37" s="31"/>
+      <c r="L37" s="31"/>
+      <c r="M37" s="31"/>
+      <c r="N37" s="31"/>
+      <c r="O37" s="31">
+        <v>2168981.4900000002</v>
+      </c>
+      <c r="P37" s="31">
+        <v>14515491.51</v>
+      </c>
+      <c r="Q37" s="37" t="s">
+        <v>200</v>
+      </c>
+      <c r="R37" s="31">
+        <v>3</v>
+      </c>
+      <c r="S37" s="31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="27">
+        <v>37</v>
+      </c>
+      <c r="B38" s="28" t="s">
+        <v>241</v>
+      </c>
+      <c r="C38" s="31"/>
+      <c r="D38" s="31"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="31"/>
+      <c r="G38" s="31"/>
+      <c r="H38" s="31"/>
+      <c r="I38" s="31">
+        <v>6217683</v>
+      </c>
+      <c r="J38" s="31"/>
+      <c r="K38" s="31"/>
+      <c r="L38" s="31"/>
+      <c r="M38" s="31"/>
+      <c r="N38" s="31"/>
+      <c r="O38" s="31">
+        <v>808298.79</v>
+      </c>
+      <c r="P38" s="31">
+        <v>5409384</v>
+      </c>
+      <c r="Q38" s="37" t="s">
+        <v>245</v>
+      </c>
+      <c r="R38" s="31">
+        <v>3</v>
+      </c>
+      <c r="S38" s="31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="27">
+        <v>38</v>
+      </c>
+      <c r="B39" s="28" t="s">
+        <v>201</v>
+      </c>
+      <c r="C39" s="31"/>
+      <c r="D39" s="31"/>
+      <c r="E39" s="31">
+        <v>6062089</v>
+      </c>
+      <c r="F39" s="31"/>
+      <c r="G39" s="31"/>
+      <c r="H39" s="31"/>
+      <c r="I39" s="31"/>
+      <c r="J39" s="31"/>
+      <c r="K39" s="31"/>
+      <c r="L39" s="31"/>
+      <c r="M39" s="31"/>
+      <c r="N39" s="31"/>
+      <c r="O39" s="31">
+        <v>727450.68</v>
+      </c>
+      <c r="P39" s="31">
+        <v>5334638.32</v>
+      </c>
+      <c r="Q39" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="R39" s="31">
+        <v>3</v>
+      </c>
+      <c r="S39" s="31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="27">
+        <v>39</v>
+      </c>
+      <c r="B40" s="28" t="s">
+        <v>235</v>
+      </c>
+      <c r="C40" s="31"/>
+      <c r="D40" s="31"/>
+      <c r="E40" s="31"/>
+      <c r="F40" s="31">
+        <v>5732493</v>
+      </c>
+      <c r="G40" s="31"/>
+      <c r="H40" s="31"/>
+      <c r="I40" s="31"/>
+      <c r="J40" s="31"/>
+      <c r="K40" s="31"/>
+      <c r="L40" s="31"/>
+      <c r="M40" s="31"/>
+      <c r="N40" s="31"/>
+      <c r="O40" s="31">
+        <v>687899.16</v>
+      </c>
+      <c r="P40" s="31">
+        <v>5044593.84</v>
+      </c>
+      <c r="Q40" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="R40" s="31">
+        <v>3</v>
+      </c>
+      <c r="S40" s="31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="27">
+        <v>40</v>
+      </c>
+      <c r="B41" s="28" t="s">
+        <v>236</v>
+      </c>
+      <c r="C41" s="31"/>
+      <c r="D41" s="31"/>
+      <c r="E41" s="31"/>
+      <c r="F41" s="31"/>
+      <c r="G41" s="31"/>
+      <c r="H41" s="31"/>
+      <c r="I41" s="31"/>
+      <c r="J41" s="31">
+        <v>25543086</v>
+      </c>
+      <c r="K41" s="31"/>
+      <c r="L41" s="31"/>
+      <c r="M41" s="31"/>
+      <c r="N41" s="31"/>
+      <c r="O41" s="31">
+        <v>3320601.18</v>
+      </c>
+      <c r="P41" s="31">
+        <v>22222484</v>
+      </c>
+      <c r="Q41" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="R41" s="31">
+        <v>3</v>
+      </c>
+      <c r="S41" s="31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="27">
+        <v>41</v>
+      </c>
+      <c r="B42" s="35" t="s">
+        <v>202</v>
+      </c>
+      <c r="C42" s="31"/>
+      <c r="D42" s="31"/>
+      <c r="E42" s="31"/>
+      <c r="F42" s="31"/>
+      <c r="G42" s="31"/>
+      <c r="H42" s="31"/>
+      <c r="I42" s="31"/>
+      <c r="J42" s="31">
+        <v>15104005</v>
+      </c>
+      <c r="K42" s="31"/>
+      <c r="L42" s="31"/>
+      <c r="M42" s="31"/>
+      <c r="N42" s="31"/>
+      <c r="O42" s="31">
+        <v>1812480.6</v>
+      </c>
+      <c r="P42" s="31">
+        <v>13291524.4</v>
+      </c>
+      <c r="Q42" s="41" t="s">
+        <v>203</v>
+      </c>
+      <c r="R42" s="31">
+        <v>3</v>
+      </c>
+      <c r="S42" s="31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="27">
+        <v>42</v>
+      </c>
+      <c r="B43" s="28" t="s">
+        <v>204</v>
+      </c>
+      <c r="C43" s="31"/>
+      <c r="D43" s="31"/>
+      <c r="E43" s="31"/>
+      <c r="F43" s="31">
+        <v>6079272</v>
+      </c>
+      <c r="G43" s="31"/>
+      <c r="H43" s="31"/>
+      <c r="I43" s="31"/>
+      <c r="J43" s="31"/>
+      <c r="K43" s="31"/>
+      <c r="L43" s="31"/>
+      <c r="M43" s="31"/>
+      <c r="N43" s="31"/>
+      <c r="O43" s="31">
+        <v>790305.35</v>
+      </c>
+      <c r="P43" s="31">
+        <v>5288966.6399999997</v>
+      </c>
+      <c r="Q43" s="37" t="s">
+        <v>122</v>
+      </c>
+      <c r="R43" s="31">
+        <v>3</v>
+      </c>
+      <c r="S43" s="31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="27">
+        <v>43</v>
+      </c>
+      <c r="B44" s="35" t="s">
+        <v>205</v>
+      </c>
+      <c r="C44" s="31"/>
+      <c r="D44" s="31"/>
+      <c r="E44" s="31">
+        <v>4053916</v>
+      </c>
+      <c r="F44" s="31"/>
+      <c r="G44" s="31"/>
+      <c r="H44" s="31"/>
+      <c r="I44" s="31"/>
+      <c r="J44" s="31"/>
+      <c r="K44" s="31"/>
+      <c r="L44" s="31"/>
+      <c r="M44" s="31"/>
+      <c r="N44" s="31"/>
+      <c r="O44" s="31">
+        <v>527009.07999999996</v>
+      </c>
+      <c r="P44" s="31">
+        <v>3526906.92</v>
+      </c>
+      <c r="Q44" s="41" t="s">
+        <v>112</v>
+      </c>
+      <c r="R44" s="31">
+        <v>3</v>
+      </c>
+      <c r="S44" s="31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="27">
+        <v>44</v>
+      </c>
+      <c r="B45" s="28" t="s">
+        <v>237</v>
+      </c>
+      <c r="C45" s="31"/>
+      <c r="D45" s="31"/>
+      <c r="E45" s="31">
+        <v>401100</v>
+      </c>
+      <c r="F45" s="31"/>
+      <c r="G45" s="31"/>
+      <c r="H45" s="31"/>
+      <c r="I45" s="31"/>
+      <c r="J45" s="31"/>
+      <c r="K45" s="31"/>
+      <c r="L45" s="31"/>
+      <c r="M45" s="31"/>
+      <c r="N45" s="31"/>
+      <c r="O45" s="31">
+        <v>521430</v>
+      </c>
+      <c r="P45" s="31">
+        <v>3489570</v>
+      </c>
+      <c r="Q45" s="37" t="s">
+        <v>238</v>
+      </c>
+      <c r="R45" s="31">
+        <v>3</v>
+      </c>
+      <c r="S45" s="31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="27">
+        <v>45</v>
+      </c>
+      <c r="B46" s="28" t="s">
+        <v>206</v>
+      </c>
+      <c r="C46" s="31"/>
+      <c r="D46" s="31"/>
+      <c r="E46" s="31">
+        <v>8039248.0999999996</v>
+      </c>
+      <c r="F46" s="31"/>
+      <c r="G46" s="31"/>
+      <c r="H46" s="31"/>
+      <c r="I46" s="31"/>
+      <c r="J46" s="31">
+        <v>8283117.8499999996</v>
+      </c>
+      <c r="K46" s="31"/>
+      <c r="L46" s="31"/>
+      <c r="M46" s="31"/>
+      <c r="N46" s="31"/>
+      <c r="O46" s="31">
+        <v>2121907.58</v>
+      </c>
+      <c r="P46" s="31">
+        <v>14200458</v>
+      </c>
+      <c r="Q46" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="R46" s="31">
+        <v>3</v>
+      </c>
+      <c r="S46" s="31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="27">
+        <v>46</v>
+      </c>
+      <c r="B47" s="28" t="s">
+        <v>207</v>
+      </c>
+      <c r="C47" s="31"/>
+      <c r="D47" s="31"/>
+      <c r="E47" s="31">
+        <v>2507202.42</v>
+      </c>
+      <c r="F47" s="31"/>
+      <c r="G47" s="31"/>
+      <c r="H47" s="31"/>
+      <c r="I47" s="31"/>
+      <c r="J47" s="31">
+        <v>6487303.0199999996</v>
+      </c>
+      <c r="K47" s="31"/>
+      <c r="L47" s="31"/>
+      <c r="M47" s="31"/>
+      <c r="N47" s="31"/>
+      <c r="O47" s="31">
+        <v>1169285.6499999999</v>
+      </c>
+      <c r="P47" s="31">
+        <v>7825219.3499999996</v>
+      </c>
+      <c r="Q47" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="R47" s="31">
+        <v>3</v>
+      </c>
+      <c r="S47" s="31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="27">
+        <v>47</v>
+      </c>
+      <c r="B48" s="28" t="s">
+        <v>208</v>
+      </c>
+      <c r="C48" s="31"/>
+      <c r="D48" s="31"/>
+      <c r="E48" s="31">
+        <v>2180254.8199999998</v>
+      </c>
+      <c r="F48" s="31"/>
+      <c r="G48" s="31"/>
+      <c r="H48" s="31"/>
+      <c r="I48" s="31"/>
+      <c r="J48" s="31">
+        <v>3717802.75</v>
+      </c>
+      <c r="K48" s="31"/>
+      <c r="L48" s="31"/>
+      <c r="M48" s="31"/>
+      <c r="N48" s="31"/>
+      <c r="O48" s="31">
+        <v>707766.96</v>
+      </c>
+      <c r="P48" s="31">
+        <v>5190291.04</v>
+      </c>
+      <c r="Q48" s="37" t="s">
+        <v>120</v>
+      </c>
+      <c r="R48" s="31">
+        <v>3</v>
+      </c>
+      <c r="S48" s="31">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="27">
+        <v>48</v>
+      </c>
+      <c r="B49" s="28" t="s">
+        <v>209</v>
+      </c>
+      <c r="C49" s="31"/>
+      <c r="D49" s="31"/>
+      <c r="E49" s="31"/>
+      <c r="F49" s="31"/>
+      <c r="G49" s="31"/>
+      <c r="H49" s="31"/>
+      <c r="I49" s="31"/>
+      <c r="J49" s="31">
+        <v>2511543</v>
+      </c>
+      <c r="K49" s="31"/>
+      <c r="L49" s="31"/>
+      <c r="M49" s="31"/>
+      <c r="N49" s="31"/>
+      <c r="O49" s="31">
+        <v>326500.56</v>
+      </c>
+      <c r="P49" s="31">
+        <v>2185042</v>
+      </c>
+      <c r="Q49" s="37" t="s">
+        <v>115</v>
+      </c>
+      <c r="R49" s="31">
+        <v>3</v>
+      </c>
+      <c r="S49" s="31">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A50" s="27">
+        <v>49</v>
+      </c>
+      <c r="B50" s="36" t="s">
+        <v>210</v>
+      </c>
+      <c r="C50" s="31"/>
+      <c r="D50" s="31"/>
+      <c r="E50" s="31"/>
+      <c r="F50" s="31"/>
+      <c r="G50" s="31"/>
+      <c r="H50" s="31"/>
+      <c r="I50" s="31"/>
+      <c r="J50" s="31">
+        <v>11432295</v>
+      </c>
+      <c r="K50" s="31"/>
+      <c r="L50" s="31"/>
+      <c r="M50" s="31"/>
+      <c r="N50" s="31"/>
+      <c r="O50" s="31">
+        <v>1600521.3</v>
+      </c>
+      <c r="P50" s="31">
+        <v>9831773.6999999993</v>
+      </c>
+      <c r="Q50" s="42" t="s">
+        <v>127</v>
+      </c>
+      <c r="R50" s="31">
+        <v>3</v>
+      </c>
+      <c r="S50" s="31">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A51" s="27">
+        <v>50</v>
+      </c>
+      <c r="B51" s="28" t="s">
+        <v>211</v>
+      </c>
+      <c r="C51" s="31"/>
+      <c r="D51" s="31"/>
+      <c r="E51" s="31"/>
+      <c r="F51" s="31">
+        <v>5280058</v>
+      </c>
+      <c r="G51" s="31"/>
+      <c r="H51" s="31"/>
+      <c r="I51" s="31"/>
+      <c r="J51" s="31"/>
+      <c r="K51" s="31"/>
+      <c r="L51" s="31"/>
+      <c r="M51" s="31"/>
+      <c r="N51" s="31"/>
+      <c r="O51" s="31">
+        <v>686407</v>
+      </c>
+      <c r="P51" s="31">
+        <v>4593650.46</v>
+      </c>
+      <c r="Q51" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="R51" s="31">
+        <v>3</v>
+      </c>
+      <c r="S51" s="31">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A52" s="27">
+        <v>51</v>
+      </c>
+      <c r="B52" s="28" t="s">
+        <v>212</v>
+      </c>
+      <c r="C52" s="31"/>
+      <c r="D52" s="31"/>
+      <c r="E52" s="31"/>
+      <c r="F52" s="31"/>
+      <c r="G52" s="31"/>
+      <c r="H52" s="31"/>
+      <c r="I52" s="31"/>
+      <c r="J52" s="31">
+        <v>11128106</v>
+      </c>
+      <c r="K52" s="31"/>
+      <c r="L52" s="31"/>
+      <c r="M52" s="31"/>
+      <c r="N52" s="31"/>
+      <c r="O52" s="31">
+        <v>1446653.78</v>
+      </c>
+      <c r="P52" s="31">
+        <v>9681452.2200000007</v>
+      </c>
+      <c r="Q52" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="R52" s="31">
+        <v>3</v>
+      </c>
+      <c r="S52" s="31">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A53" s="27">
+        <v>52</v>
+      </c>
+      <c r="B53" s="28" t="s">
+        <v>213</v>
+      </c>
+      <c r="C53" s="31"/>
+      <c r="D53" s="31"/>
+      <c r="E53" s="31">
+        <v>5348740</v>
+      </c>
+      <c r="F53" s="31"/>
+      <c r="G53" s="31"/>
+      <c r="H53" s="31"/>
+      <c r="I53" s="31"/>
+      <c r="J53" s="31"/>
+      <c r="K53" s="31"/>
+      <c r="L53" s="31"/>
+      <c r="M53" s="31"/>
+      <c r="N53" s="31"/>
+      <c r="O53" s="31">
+        <v>695336.2</v>
+      </c>
+      <c r="P53" s="31">
+        <v>4653403.8</v>
+      </c>
+      <c r="Q53" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="R53" s="31">
+        <v>3</v>
+      </c>
+      <c r="S53" s="31">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A54" s="27">
+        <v>53</v>
+      </c>
+      <c r="B54" s="28" t="s">
+        <v>239</v>
+      </c>
+      <c r="C54" s="31"/>
+      <c r="D54" s="31"/>
+      <c r="E54" s="31">
+        <v>6951211</v>
+      </c>
+      <c r="F54" s="31"/>
+      <c r="G54" s="31"/>
+      <c r="H54" s="31"/>
+      <c r="I54" s="31"/>
+      <c r="J54" s="31"/>
+      <c r="K54" s="31"/>
+      <c r="L54" s="31"/>
+      <c r="M54" s="31"/>
+      <c r="N54" s="31"/>
+      <c r="O54" s="31">
+        <v>973169.54</v>
+      </c>
+      <c r="P54" s="31">
+        <v>5978041</v>
+      </c>
+      <c r="Q54" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="R54" s="31">
+        <v>3</v>
+      </c>
+      <c r="S54" s="31">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A55" s="27">
+        <v>54</v>
+      </c>
+      <c r="B55" s="28" t="s">
+        <v>214</v>
+      </c>
+      <c r="C55" s="31"/>
+      <c r="D55" s="31"/>
+      <c r="E55" s="31">
+        <v>1324549.76</v>
+      </c>
+      <c r="F55" s="31"/>
+      <c r="G55" s="31"/>
+      <c r="H55" s="31"/>
+      <c r="I55" s="31"/>
+      <c r="J55" s="31">
+        <v>3318512.49</v>
+      </c>
+      <c r="K55" s="31"/>
+      <c r="L55" s="31"/>
+      <c r="M55" s="31"/>
+      <c r="N55" s="31"/>
+      <c r="O55" s="31">
+        <v>650028.68000000005</v>
+      </c>
+      <c r="P55" s="31">
+        <v>3993033.32</v>
+      </c>
+      <c r="Q55" s="37" t="s">
+        <v>113</v>
+      </c>
+      <c r="R55" s="31">
+        <v>3</v>
+      </c>
+      <c r="S55" s="31">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A56" s="27">
+        <v>55</v>
+      </c>
+      <c r="B56" s="28" t="s">
+        <v>215</v>
+      </c>
+      <c r="C56" s="31"/>
+      <c r="D56" s="31"/>
+      <c r="E56" s="31">
+        <v>13049284</v>
+      </c>
+      <c r="F56" s="31"/>
+      <c r="G56" s="31"/>
+      <c r="H56" s="31"/>
+      <c r="I56" s="31"/>
+      <c r="J56" s="31"/>
+      <c r="K56" s="31"/>
+      <c r="L56" s="31"/>
+      <c r="M56" s="31"/>
+      <c r="N56" s="31"/>
+      <c r="O56" s="31">
+        <v>1826899.76</v>
+      </c>
+      <c r="P56" s="31">
+        <v>11222384.24</v>
+      </c>
+      <c r="Q56" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="R56" s="31">
+        <v>3</v>
+      </c>
+      <c r="S56" s="31">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A57" s="27">
+        <v>57</v>
+      </c>
+      <c r="B57" s="28" t="s">
+        <v>240</v>
+      </c>
+      <c r="C57" s="31"/>
+      <c r="D57" s="31"/>
+      <c r="E57" s="31">
+        <v>6573628</v>
+      </c>
+      <c r="F57" s="31"/>
+      <c r="G57" s="31"/>
+      <c r="H57" s="31"/>
+      <c r="I57" s="31"/>
+      <c r="J57" s="31"/>
+      <c r="K57" s="31"/>
+      <c r="L57" s="31"/>
+      <c r="M57" s="31"/>
+      <c r="N57" s="31"/>
+      <c r="O57" s="31">
+        <v>854571.64</v>
+      </c>
+      <c r="P57" s="31">
+        <v>5719056.3600000003</v>
+      </c>
+      <c r="Q57" s="37" t="s">
+        <v>131</v>
+      </c>
+      <c r="R57" s="31">
+        <v>3</v>
+      </c>
+      <c r="S57" s="31">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A58" s="27">
+        <v>58</v>
+      </c>
+      <c r="B58" s="28" t="s">
+        <v>216</v>
+      </c>
+      <c r="C58" s="31"/>
+      <c r="D58" s="31"/>
+      <c r="E58" s="31"/>
+      <c r="F58" s="31"/>
+      <c r="G58" s="31"/>
+      <c r="H58" s="31"/>
+      <c r="I58" s="31"/>
+      <c r="J58" s="31">
+        <v>8742061</v>
+      </c>
+      <c r="K58" s="31"/>
+      <c r="L58" s="31"/>
+      <c r="M58" s="31"/>
+      <c r="N58" s="31"/>
+      <c r="O58" s="31">
+        <v>1223888.54</v>
+      </c>
+      <c r="P58" s="31">
+        <v>7518172.46</v>
+      </c>
+      <c r="Q58" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="R58" s="31">
+        <v>3</v>
+      </c>
+      <c r="S58" s="31">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A59" s="27">
+        <v>59</v>
+      </c>
+      <c r="B59" s="28" t="s">
+        <v>217</v>
+      </c>
+      <c r="C59" s="31"/>
+      <c r="D59" s="31"/>
+      <c r="E59" s="31">
+        <v>944684.35</v>
+      </c>
+      <c r="F59" s="31"/>
+      <c r="G59" s="31"/>
+      <c r="H59" s="31"/>
+      <c r="I59" s="31"/>
+      <c r="J59" s="31">
+        <v>10809762.381999999</v>
+      </c>
+      <c r="K59" s="31"/>
+      <c r="L59" s="31"/>
+      <c r="M59" s="31"/>
+      <c r="N59" s="31"/>
+      <c r="O59" s="31">
+        <v>2068534.62</v>
+      </c>
+      <c r="P59" s="31">
+        <v>9685912.3800000008</v>
+      </c>
+      <c r="Q59" s="37" t="s">
+        <v>120</v>
+      </c>
+      <c r="R59" s="31">
+        <v>3</v>
+      </c>
+      <c r="S59" s="31">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A60" s="27">
+        <v>60</v>
+      </c>
+      <c r="B60" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="C60" s="31"/>
+      <c r="D60" s="31"/>
+      <c r="E60" s="31">
+        <v>8235264</v>
+      </c>
+      <c r="F60" s="31"/>
+      <c r="G60" s="31"/>
+      <c r="H60" s="31"/>
+      <c r="I60" s="31"/>
+      <c r="J60" s="31"/>
+      <c r="K60" s="31"/>
+      <c r="L60" s="31"/>
+      <c r="M60" s="31"/>
+      <c r="N60" s="31"/>
+      <c r="O60" s="31">
+        <v>1152936.96</v>
+      </c>
+      <c r="P60" s="31">
+        <v>7082327.04</v>
+      </c>
+      <c r="Q60" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="R60" s="31">
+        <v>3</v>
+      </c>
+      <c r="S60" s="31">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A61" s="27">
+        <v>61</v>
+      </c>
+      <c r="B61" s="28" t="s">
+        <v>219</v>
+      </c>
+      <c r="C61" s="31"/>
+      <c r="D61" s="31"/>
+      <c r="E61" s="31">
+        <v>12181117</v>
+      </c>
+      <c r="F61" s="31"/>
+      <c r="G61" s="31"/>
+      <c r="H61" s="31"/>
+      <c r="I61" s="31"/>
+      <c r="J61" s="31"/>
+      <c r="K61" s="31"/>
+      <c r="L61" s="31"/>
+      <c r="M61" s="31"/>
+      <c r="N61" s="31"/>
+      <c r="O61" s="31">
+        <v>1705356.38</v>
+      </c>
+      <c r="P61" s="31">
+        <v>10475760.619999999</v>
+      </c>
+      <c r="Q61" s="37" t="s">
+        <v>220</v>
+      </c>
+      <c r="R61" s="31">
+        <v>3</v>
+      </c>
+      <c r="S61" s="31">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A62" s="27">
+        <v>62</v>
+      </c>
+      <c r="B62" s="28" t="s">
+        <v>221</v>
+      </c>
+      <c r="C62" s="31"/>
+      <c r="D62" s="31"/>
+      <c r="E62" s="31"/>
+      <c r="F62" s="31"/>
+      <c r="G62" s="31"/>
+      <c r="H62" s="31"/>
+      <c r="I62" s="31"/>
+      <c r="J62" s="31">
+        <v>11806042</v>
+      </c>
+      <c r="K62" s="31"/>
+      <c r="L62" s="31"/>
+      <c r="M62" s="31"/>
+      <c r="N62" s="31"/>
+      <c r="O62" s="31">
+        <v>1652845.88</v>
+      </c>
+      <c r="P62" s="31">
+        <v>10153196.119999999</v>
+      </c>
+      <c r="Q62" s="37" t="s">
+        <v>127</v>
+      </c>
+      <c r="R62" s="31">
+        <v>3</v>
+      </c>
+      <c r="S62" s="31">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A63" s="27">
+        <v>63</v>
+      </c>
+      <c r="B63" s="28" t="s">
+        <v>222</v>
+      </c>
+      <c r="C63" s="31"/>
+      <c r="D63" s="31"/>
+      <c r="E63" s="31">
+        <v>3318907</v>
+      </c>
+      <c r="F63" s="31"/>
+      <c r="G63" s="31"/>
+      <c r="H63" s="31"/>
+      <c r="I63" s="31"/>
+      <c r="J63" s="31"/>
+      <c r="K63" s="31"/>
+      <c r="L63" s="31"/>
+      <c r="M63" s="31"/>
+      <c r="N63" s="31"/>
+      <c r="O63" s="31">
+        <v>464646.98</v>
+      </c>
+      <c r="P63" s="31">
+        <v>2854260.02</v>
+      </c>
+      <c r="Q63" s="37" t="s">
+        <v>117</v>
+      </c>
+      <c r="R63" s="31">
+        <v>3</v>
+      </c>
+      <c r="S63" s="31">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A64" s="27">
+        <v>64</v>
+      </c>
+      <c r="B64" s="28" t="s">
+        <v>223</v>
+      </c>
+      <c r="C64" s="31"/>
+      <c r="D64" s="31"/>
+      <c r="E64" s="31">
+        <v>604514.55000000005</v>
+      </c>
+      <c r="F64" s="31">
+        <v>7543874.1799999997</v>
+      </c>
+      <c r="G64" s="31"/>
+      <c r="H64" s="31"/>
+      <c r="I64" s="31"/>
+      <c r="J64" s="31"/>
+      <c r="K64" s="31"/>
+      <c r="L64" s="31"/>
+      <c r="M64" s="31"/>
+      <c r="N64" s="31"/>
+      <c r="O64" s="31">
+        <v>1059290.57</v>
+      </c>
+      <c r="P64" s="31">
+        <v>7089098.4299999997</v>
+      </c>
+      <c r="Q64" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="R64" s="31">
+        <v>3</v>
+      </c>
+      <c r="S64" s="31">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A65" s="27">
+        <v>65</v>
+      </c>
+      <c r="B65" s="28" t="s">
+        <v>224</v>
+      </c>
+      <c r="C65" s="31"/>
+      <c r="D65" s="31"/>
+      <c r="E65" s="31">
+        <v>13535773.370000001</v>
+      </c>
+      <c r="F65" s="31"/>
+      <c r="G65" s="31"/>
+      <c r="H65" s="31"/>
+      <c r="I65" s="31"/>
+      <c r="J65" s="31">
+        <v>6963681.6299999999</v>
+      </c>
+      <c r="K65" s="31"/>
+      <c r="L65" s="31"/>
+      <c r="M65" s="31"/>
+      <c r="N65" s="31"/>
+      <c r="O65" s="31">
+        <v>2869923.7</v>
+      </c>
+      <c r="P65" s="31">
+        <v>17629531.300000001</v>
+      </c>
+      <c r="Q65" s="37" t="s">
+        <v>114</v>
+      </c>
+      <c r="R65" s="31">
+        <v>3</v>
+      </c>
+      <c r="S65" s="31">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A66" s="27">
+        <v>66</v>
+      </c>
+      <c r="B66" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="C66" s="31"/>
+      <c r="D66" s="31"/>
+      <c r="E66" s="31">
+        <v>8591066.3900000006</v>
+      </c>
+      <c r="F66" s="31"/>
+      <c r="G66" s="31"/>
+      <c r="H66" s="31"/>
+      <c r="I66" s="31"/>
+      <c r="J66" s="31">
+        <v>3697365.61</v>
+      </c>
+      <c r="K66" s="31"/>
+      <c r="L66" s="31"/>
+      <c r="M66" s="31"/>
+      <c r="N66" s="31"/>
+      <c r="O66" s="31">
+        <v>1720380.48</v>
+      </c>
+      <c r="P66" s="31">
+        <v>10568051.52</v>
+      </c>
+      <c r="Q66" s="37" t="s">
+        <v>119</v>
+      </c>
+      <c r="R66" s="31">
+        <v>3</v>
+      </c>
+      <c r="S66" s="31">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A67" s="27">
+        <v>67</v>
+      </c>
+      <c r="B67" s="28" t="s">
+        <v>226</v>
+      </c>
+      <c r="C67" s="31"/>
+      <c r="D67" s="31"/>
+      <c r="E67" s="31">
+        <v>981597.62</v>
+      </c>
+      <c r="F67" s="31"/>
+      <c r="G67" s="31"/>
+      <c r="H67" s="31"/>
+      <c r="I67" s="31"/>
+      <c r="J67" s="31">
+        <v>4991229.37</v>
+      </c>
+      <c r="K67" s="31"/>
+      <c r="L67" s="31"/>
+      <c r="M67" s="31"/>
+      <c r="N67" s="31"/>
+      <c r="O67" s="31">
+        <v>836195.64</v>
+      </c>
+      <c r="P67" s="31">
+        <v>5136630.3600000003</v>
+      </c>
+      <c r="Q67" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="R67" s="31">
+        <v>3</v>
+      </c>
+      <c r="S67" s="31">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A68" s="27">
+        <v>68</v>
+      </c>
+      <c r="B68" s="28" t="s">
+        <v>227</v>
+      </c>
+      <c r="C68" s="31">
+        <v>527282</v>
+      </c>
+      <c r="D68" s="31"/>
+      <c r="E68" s="31">
+        <v>374966.5</v>
+      </c>
+      <c r="F68" s="31">
+        <v>5265726.0240000002</v>
+      </c>
+      <c r="G68" s="31"/>
+      <c r="H68" s="31"/>
+      <c r="I68" s="31"/>
+      <c r="J68" s="31">
+        <v>1801653.24</v>
+      </c>
+      <c r="K68" s="31"/>
+      <c r="L68" s="31"/>
+      <c r="M68" s="31"/>
+      <c r="N68" s="31"/>
+      <c r="O68" s="31">
+        <v>1189941.2</v>
+      </c>
+      <c r="P68" s="31">
+        <v>7309638.7999999998</v>
+      </c>
+      <c r="Q68" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="R68" s="31">
+        <v>3</v>
+      </c>
+      <c r="S68" s="31">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A69" s="27">
+        <v>69</v>
+      </c>
+      <c r="B69" s="28" t="s">
+        <v>228</v>
+      </c>
+      <c r="C69" s="31"/>
+      <c r="D69" s="31"/>
+      <c r="E69" s="31">
+        <v>772720.61</v>
+      </c>
+      <c r="F69" s="31"/>
+      <c r="G69" s="31"/>
+      <c r="H69" s="31"/>
+      <c r="I69" s="31"/>
+      <c r="J69" s="31">
+        <v>1721169.71</v>
+      </c>
+      <c r="K69" s="31"/>
+      <c r="L69" s="31"/>
+      <c r="M69" s="31"/>
+      <c r="N69" s="31"/>
+      <c r="O69" s="31">
+        <v>657107.36</v>
+      </c>
+      <c r="P69" s="31">
+        <v>1836816.64</v>
+      </c>
+      <c r="Q69" s="37" t="s">
+        <v>113</v>
+      </c>
+      <c r="R69" s="31">
+        <v>3</v>
+      </c>
+      <c r="S69" s="31">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A70" s="27">
+        <v>70</v>
+      </c>
+      <c r="B70" s="28" t="s">
+        <v>229</v>
+      </c>
+      <c r="C70" s="31"/>
+      <c r="D70" s="31"/>
+      <c r="E70" s="31">
+        <v>8888573.4199999999</v>
+      </c>
+      <c r="F70" s="31"/>
+      <c r="G70" s="31"/>
+      <c r="H70" s="31"/>
+      <c r="I70" s="31"/>
+      <c r="J70" s="31">
+        <v>4137447.0700000003</v>
+      </c>
+      <c r="K70" s="31"/>
+      <c r="L70" s="31"/>
+      <c r="M70" s="31"/>
+      <c r="N70" s="31"/>
+      <c r="O70" s="31">
+        <v>1823642.94</v>
+      </c>
+      <c r="P70" s="31">
+        <v>11202378.060000001</v>
+      </c>
+      <c r="Q70" s="37" t="s">
+        <v>122</v>
+      </c>
+      <c r="R70" s="31">
+        <v>3</v>
+      </c>
+      <c r="S70" s="31">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A71" s="27">
+        <v>71</v>
+      </c>
+      <c r="B71" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="C71" s="31"/>
+      <c r="D71" s="31"/>
+      <c r="E71" s="31"/>
+      <c r="F71" s="31">
+        <v>3173491</v>
+      </c>
+      <c r="G71" s="31"/>
+      <c r="H71" s="31"/>
+      <c r="I71" s="31"/>
+      <c r="J71" s="31"/>
+      <c r="K71" s="31"/>
+      <c r="L71" s="31"/>
+      <c r="M71" s="31"/>
+      <c r="N71" s="31"/>
+      <c r="O71" s="31">
+        <v>444288.74</v>
+      </c>
+      <c r="P71" s="31">
+        <v>2729202.26</v>
+      </c>
+      <c r="Q71" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="R71" s="31">
+        <v>3</v>
+      </c>
+      <c r="S71" s="31">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A72" s="27">
+        <v>72</v>
+      </c>
+      <c r="B72" s="28" t="s">
         <v>231</v>
       </c>
-      <c r="R1" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="S1" s="6" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" s="28" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="35">
-        <v>1</v>
-      </c>
-      <c r="B2" s="27" t="s">
-        <v>160</v>
-      </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25">
-        <v>7238960.8200000003</v>
-      </c>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="24">
-        <v>868675.29799999995</v>
-      </c>
-      <c r="P2" s="24">
-        <v>6370285.5199999996</v>
-      </c>
-      <c r="Q2" s="27" t="s">
-        <v>233</v>
-      </c>
-      <c r="R2" s="25">
-        <v>3</v>
-      </c>
-      <c r="S2" s="25">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" s="28" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="35">
-        <v>2</v>
-      </c>
-      <c r="B3" s="27" t="s">
-        <v>161</v>
-      </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25">
-        <v>9586696</v>
-      </c>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
-      <c r="N3" s="25"/>
-      <c r="O3" s="24">
-        <v>1246270.51</v>
-      </c>
-      <c r="P3" s="24">
-        <v>8340425.7300000004</v>
-      </c>
-      <c r="Q3" s="27" t="s">
-        <v>234</v>
-      </c>
-      <c r="R3" s="25">
-        <v>3</v>
-      </c>
-      <c r="S3" s="25">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" s="28" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="35">
-        <v>3</v>
-      </c>
-      <c r="B4" s="27" t="s">
-        <v>162</v>
-      </c>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25">
-        <v>8142995.5</v>
-      </c>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="24">
-        <v>977159.46</v>
-      </c>
-      <c r="P4" s="24">
-        <v>7165836.04</v>
-      </c>
-      <c r="Q4" s="27" t="s">
-        <v>235</v>
-      </c>
-      <c r="R4" s="25">
-        <v>3</v>
-      </c>
-      <c r="S4" s="25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" s="28" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="35">
-        <v>4</v>
-      </c>
-      <c r="B5" s="27" t="s">
-        <v>163</v>
-      </c>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25">
-        <v>9771138.6500000004</v>
-      </c>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="25"/>
-      <c r="N5" s="25"/>
-      <c r="O5" s="24">
-        <v>1270248.02</v>
-      </c>
-      <c r="P5" s="24">
-        <v>8500890.6199999992</v>
-      </c>
-      <c r="Q5" s="27" t="s">
-        <v>236</v>
-      </c>
-      <c r="R5" s="25">
-        <v>3</v>
-      </c>
-      <c r="S5" s="25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" s="28" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="35">
-        <v>5</v>
-      </c>
-      <c r="B6" s="29" t="s">
-        <v>164</v>
-      </c>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25">
-        <v>10845170.050000001</v>
-      </c>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="25"/>
-      <c r="N6" s="25"/>
-      <c r="O6" s="24">
-        <v>1301420.4099999999</v>
-      </c>
-      <c r="P6" s="24">
-        <v>9543749.6400000006</v>
-      </c>
-      <c r="Q6" s="29" t="s">
-        <v>237</v>
-      </c>
-      <c r="R6" s="25">
-        <v>3</v>
-      </c>
-      <c r="S6" s="25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="35">
-        <v>6</v>
-      </c>
-      <c r="B7" s="28" t="s">
-        <v>165</v>
-      </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25">
-        <v>15413804.93</v>
-      </c>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="25"/>
-      <c r="N7" s="25"/>
-      <c r="O7" s="24">
-        <v>1849656.59</v>
-      </c>
-      <c r="P7" s="24">
-        <v>13564148.34</v>
-      </c>
-      <c r="Q7" s="28" t="s">
-        <v>233</v>
-      </c>
-      <c r="R7" s="25">
-        <v>3</v>
-      </c>
-      <c r="S7" s="25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" s="28" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="35">
-        <v>7</v>
-      </c>
-      <c r="B8" s="30" t="s">
-        <v>166</v>
-      </c>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25">
-        <v>15640359.83</v>
-      </c>
-      <c r="K8" s="25"/>
-      <c r="L8" s="25"/>
-      <c r="M8" s="25"/>
-      <c r="N8" s="25"/>
-      <c r="O8" s="24">
-        <v>1876843.18</v>
-      </c>
-      <c r="P8" s="24">
-        <v>13763516.65</v>
-      </c>
-      <c r="Q8" s="33" t="s">
-        <v>239</v>
-      </c>
-      <c r="R8" s="25">
-        <v>3</v>
-      </c>
-      <c r="S8" s="25">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" s="28" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="35">
-        <v>8</v>
-      </c>
-      <c r="B9" s="27" t="s">
-        <v>167</v>
-      </c>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25">
-        <v>13008328.869999999</v>
-      </c>
-      <c r="K9" s="25"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="25"/>
-      <c r="N9" s="25"/>
-      <c r="O9" s="24">
-        <v>1691082.75</v>
-      </c>
-      <c r="P9" s="24">
-        <v>11317246.119999999</v>
-      </c>
-      <c r="Q9" s="27" t="s">
-        <v>236</v>
-      </c>
-      <c r="R9" s="25">
-        <v>3</v>
-      </c>
-      <c r="S9" s="25">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" s="28" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="35">
-        <v>9</v>
-      </c>
-      <c r="B10" s="27" t="s">
-        <v>168</v>
-      </c>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25">
-        <v>14646053</v>
-      </c>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="25"/>
-      <c r="M10" s="25"/>
-      <c r="N10" s="25"/>
-      <c r="O10" s="24">
-        <v>1757526.36</v>
-      </c>
-      <c r="P10" s="24">
-        <v>12888526.640000001</v>
-      </c>
-      <c r="Q10" s="27" t="s">
-        <v>238</v>
-      </c>
-      <c r="R10" s="25">
-        <v>3</v>
-      </c>
-      <c r="S10" s="25">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" s="28" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="35">
-        <v>10</v>
-      </c>
-      <c r="B11" s="27" t="s">
-        <v>169</v>
-      </c>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25">
-        <v>10200030</v>
-      </c>
-      <c r="K11" s="25"/>
-      <c r="L11" s="25"/>
-      <c r="M11" s="25"/>
-      <c r="N11" s="25"/>
-      <c r="O11" s="24">
-        <v>1326003.8999999999</v>
-      </c>
-      <c r="P11" s="24">
-        <v>8874026.0999999996</v>
-      </c>
-      <c r="Q11" s="27" t="s">
-        <v>240</v>
-      </c>
-      <c r="R11" s="25">
-        <v>3</v>
-      </c>
-      <c r="S11" s="25">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" s="28" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="35">
-        <v>11</v>
-      </c>
-      <c r="B12" s="27" t="s">
-        <v>170</v>
-      </c>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25">
-        <v>15026301.550000001</v>
-      </c>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="25"/>
-      <c r="N12" s="25"/>
-      <c r="O12" s="24">
-        <v>1953419.2</v>
-      </c>
-      <c r="P12" s="24">
-        <v>13072882.35</v>
-      </c>
-      <c r="Q12" s="27" t="s">
-        <v>241</v>
-      </c>
-      <c r="R12" s="25">
-        <v>3</v>
-      </c>
-      <c r="S12" s="25">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" s="28" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="35">
-        <v>12</v>
-      </c>
-      <c r="B13" s="27" t="s">
-        <v>171</v>
-      </c>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25">
-        <v>11242690.49</v>
-      </c>
-      <c r="K13" s="25"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="25"/>
-      <c r="N13" s="25"/>
-      <c r="O13" s="24">
-        <v>1349122.86</v>
-      </c>
-      <c r="P13" s="24">
-        <v>9893567.6300000008</v>
-      </c>
-      <c r="Q13" s="27" t="s">
-        <v>242</v>
-      </c>
-      <c r="R13" s="25">
-        <v>3</v>
-      </c>
-      <c r="S13" s="25">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" s="28" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="35">
-        <v>13</v>
-      </c>
-      <c r="B14" s="27" t="s">
-        <v>172</v>
-      </c>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25">
-        <v>7938245.9500000002</v>
-      </c>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25">
-        <v>7599197.4000000004</v>
-      </c>
-      <c r="K14" s="25"/>
-      <c r="L14" s="25"/>
-      <c r="M14" s="25"/>
-      <c r="N14" s="25"/>
-      <c r="O14" s="24">
-        <v>2019867.63</v>
-      </c>
-      <c r="P14" s="24">
-        <v>13517575.720000001</v>
-      </c>
-      <c r="Q14" s="27" t="s">
-        <v>243</v>
-      </c>
-      <c r="R14" s="25">
-        <v>3</v>
-      </c>
-      <c r="S14" s="25">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" s="28" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="35">
-        <v>14</v>
-      </c>
-      <c r="B15" s="27" t="s">
-        <v>173</v>
-      </c>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25">
-        <v>12721273.99</v>
-      </c>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="25"/>
-      <c r="M15" s="25"/>
-      <c r="N15" s="25"/>
-      <c r="O15" s="24">
-        <v>1526552.88</v>
-      </c>
-      <c r="P15" s="24">
-        <v>11194721.109999999</v>
-      </c>
-      <c r="Q15" s="27" t="s">
-        <v>244</v>
-      </c>
-      <c r="R15" s="25">
-        <v>3</v>
-      </c>
-      <c r="S15" s="25">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" s="28" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="35">
-        <v>15</v>
-      </c>
-      <c r="B16" s="27" t="s">
-        <v>174</v>
-      </c>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25">
-        <v>8572627.9900000002</v>
-      </c>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25">
-        <v>538980.39</v>
-      </c>
-      <c r="K16" s="25"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="25"/>
-      <c r="N16" s="25"/>
-      <c r="O16" s="24">
-        <v>1184509.0900000001</v>
-      </c>
-      <c r="P16" s="24">
-        <v>7927099.29</v>
-      </c>
-      <c r="Q16" s="27" t="s">
-        <v>245</v>
-      </c>
-      <c r="R16" s="25">
-        <v>3</v>
-      </c>
-      <c r="S16" s="25">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" s="28" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="35">
-        <v>16</v>
-      </c>
-      <c r="B17" s="27" t="s">
-        <v>175</v>
-      </c>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="25">
-        <v>9075186.2300000004</v>
-      </c>
-      <c r="K17" s="25"/>
-      <c r="L17" s="25"/>
-      <c r="M17" s="25"/>
-      <c r="N17" s="25"/>
-      <c r="O17" s="24">
-        <v>1179774.21</v>
-      </c>
-      <c r="P17" s="24">
-        <v>7895412.0199999996</v>
-      </c>
-      <c r="Q17" s="27" t="s">
-        <v>246</v>
-      </c>
-      <c r="R17" s="25">
-        <v>3</v>
-      </c>
-      <c r="S17" s="25">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" s="28" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="35">
-        <v>17</v>
-      </c>
-      <c r="B18" s="27" t="s">
-        <v>176</v>
-      </c>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="25">
-        <v>8425905.7300000004</v>
-      </c>
-      <c r="K18" s="25"/>
-      <c r="L18" s="25"/>
-      <c r="M18" s="25"/>
-      <c r="N18" s="25"/>
-      <c r="O18" s="24">
-        <v>1011108.69</v>
-      </c>
-      <c r="P18" s="24">
-        <v>7414797.04</v>
-      </c>
-      <c r="Q18" s="27" t="s">
-        <v>247</v>
-      </c>
-      <c r="R18" s="25">
-        <v>3</v>
-      </c>
-      <c r="S18" s="25">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" s="28" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="35">
-        <v>18</v>
-      </c>
-      <c r="B19" s="27" t="s">
-        <v>177</v>
-      </c>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="25"/>
-      <c r="J19" s="25">
-        <v>6333083.3899999997</v>
-      </c>
-      <c r="K19" s="25"/>
-      <c r="L19" s="25"/>
-      <c r="M19" s="25"/>
-      <c r="N19" s="25"/>
-      <c r="O19" s="24">
-        <v>759970.01</v>
-      </c>
-      <c r="P19" s="24">
-        <v>5573113.3799999999</v>
-      </c>
-      <c r="Q19" s="27" t="s">
-        <v>248</v>
-      </c>
-      <c r="R19" s="25">
-        <v>3</v>
-      </c>
-      <c r="S19" s="25">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" s="28" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="35">
-        <v>19</v>
-      </c>
-      <c r="B20" s="27" t="s">
-        <v>178</v>
-      </c>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25">
-        <v>4523754.4400000004</v>
-      </c>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="25"/>
-      <c r="J20" s="25">
-        <v>10972049.369999999</v>
-      </c>
-      <c r="K20" s="25"/>
-      <c r="L20" s="25"/>
-      <c r="M20" s="25"/>
-      <c r="N20" s="25"/>
-      <c r="O20" s="24">
-        <v>2014454.5</v>
-      </c>
-      <c r="P20" s="24">
-        <v>13481349.310000001</v>
-      </c>
-      <c r="Q20" s="27" t="s">
-        <v>249</v>
-      </c>
-      <c r="R20" s="25">
-        <v>3</v>
-      </c>
-      <c r="S20" s="25">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" s="28" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="35">
-        <v>20</v>
-      </c>
-      <c r="B21" s="27" t="s">
-        <v>179</v>
-      </c>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25">
-        <v>16019866.529999999</v>
-      </c>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="25"/>
-      <c r="K21" s="25"/>
-      <c r="L21" s="25"/>
-      <c r="M21" s="25"/>
-      <c r="N21" s="25"/>
-      <c r="O21" s="24">
-        <v>1922383.98</v>
-      </c>
-      <c r="P21" s="24">
-        <v>14097482.550000001</v>
-      </c>
-      <c r="Q21" s="27" t="s">
-        <v>250</v>
-      </c>
-      <c r="R21" s="25">
-        <v>3</v>
-      </c>
-      <c r="S21" s="25">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" s="28" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="35">
-        <v>21</v>
-      </c>
-      <c r="B22" s="27" t="s">
-        <v>180</v>
-      </c>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="25">
-        <v>10955536.74</v>
-      </c>
-      <c r="K22" s="25"/>
-      <c r="L22" s="25"/>
-      <c r="M22" s="25"/>
-      <c r="N22" s="25"/>
-      <c r="O22" s="24">
-        <v>1424219.78</v>
-      </c>
-      <c r="P22" s="24">
-        <v>9531316.9600000009</v>
-      </c>
-      <c r="Q22" s="27" t="s">
-        <v>251</v>
-      </c>
-      <c r="R22" s="25">
-        <v>3</v>
-      </c>
-      <c r="S22" s="25">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" s="28" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="35">
-        <v>22</v>
-      </c>
-      <c r="B23" s="27" t="s">
-        <v>181</v>
-      </c>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25">
-        <v>14734547.110000001</v>
-      </c>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="25"/>
-      <c r="I23" s="25"/>
-      <c r="J23" s="25">
-        <v>4190076.42</v>
-      </c>
-      <c r="K23" s="25"/>
-      <c r="L23" s="25"/>
-      <c r="M23" s="25"/>
-      <c r="N23" s="25"/>
-      <c r="O23" s="24">
-        <v>2460201.06</v>
-      </c>
-      <c r="P23" s="24">
-        <v>16464422.470000001</v>
-      </c>
-      <c r="Q23" s="27" t="s">
-        <v>252</v>
-      </c>
-      <c r="R23" s="25">
-        <v>3</v>
-      </c>
-      <c r="S23" s="25">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" s="28" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="35">
-        <v>23</v>
-      </c>
-      <c r="B24" s="27" t="s">
-        <v>182</v>
-      </c>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25">
-        <v>13013709.810000001</v>
-      </c>
-      <c r="H24" s="25"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="25"/>
-      <c r="K24" s="25"/>
-      <c r="L24" s="25"/>
-      <c r="M24" s="25"/>
-      <c r="N24" s="25"/>
-      <c r="O24" s="24">
-        <v>1691782.28</v>
-      </c>
-      <c r="P24" s="24">
-        <v>11321927.529999999</v>
-      </c>
-      <c r="Q24" s="27" t="s">
-        <v>253</v>
-      </c>
-      <c r="R24" s="25">
-        <v>3</v>
-      </c>
-      <c r="S24" s="25">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" s="28" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="35">
-        <v>24</v>
-      </c>
-      <c r="B25" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25">
-        <v>16668436.08</v>
-      </c>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="25"/>
-      <c r="J25" s="25">
-        <v>291451.92</v>
-      </c>
-      <c r="K25" s="25"/>
-      <c r="L25" s="25"/>
-      <c r="M25" s="25"/>
-      <c r="N25" s="25"/>
-      <c r="O25" s="24">
-        <v>2204785.4700000002</v>
-      </c>
-      <c r="P25" s="24">
-        <v>14755102.76</v>
-      </c>
-      <c r="Q25" s="27" t="s">
-        <v>254</v>
-      </c>
-      <c r="R25" s="25">
-        <v>3</v>
-      </c>
-      <c r="S25" s="25">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" s="28" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="35">
-        <v>25</v>
-      </c>
-      <c r="B26" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="25"/>
-      <c r="J26" s="25">
-        <v>6988914</v>
-      </c>
-      <c r="K26" s="25"/>
-      <c r="L26" s="25"/>
-      <c r="M26" s="25"/>
-      <c r="N26" s="25"/>
-      <c r="O26" s="24">
-        <v>908558.82</v>
-      </c>
-      <c r="P26" s="24">
-        <v>6080355.1799999997</v>
-      </c>
-      <c r="Q26" s="27" t="s">
-        <v>246</v>
-      </c>
-      <c r="R26" s="25">
-        <v>3</v>
-      </c>
-      <c r="S26" s="25">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" s="28" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="35">
-        <v>26</v>
-      </c>
-      <c r="B27" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="25"/>
-      <c r="I27" s="25"/>
-      <c r="J27" s="25">
-        <v>13968595.560000001</v>
-      </c>
-      <c r="K27" s="25"/>
-      <c r="L27" s="25"/>
-      <c r="M27" s="25"/>
-      <c r="N27" s="25"/>
-      <c r="O27" s="24">
-        <v>1815917.41</v>
-      </c>
-      <c r="P27" s="24">
-        <v>12152678.140000001</v>
-      </c>
-      <c r="Q27" s="27" t="s">
-        <v>245</v>
-      </c>
-      <c r="R27" s="25">
-        <v>3</v>
-      </c>
-      <c r="S27" s="25">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" s="28" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="35">
-        <v>27</v>
-      </c>
-      <c r="B28" s="27" t="s">
-        <v>186</v>
-      </c>
-      <c r="C28" s="25"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="25">
-        <v>8153224.5599999996</v>
-      </c>
-      <c r="F28" s="25"/>
-      <c r="G28" s="25"/>
-      <c r="H28" s="25"/>
-      <c r="I28" s="25"/>
-      <c r="J28" s="25">
-        <v>2054495.11</v>
-      </c>
-      <c r="K28" s="25"/>
-      <c r="L28" s="25"/>
-      <c r="M28" s="25"/>
-      <c r="N28" s="25"/>
-      <c r="O28" s="24">
-        <v>1327003.56</v>
-      </c>
-      <c r="P28" s="24">
-        <v>8880716.1099999994</v>
-      </c>
-      <c r="Q28" s="27" t="s">
-        <v>255</v>
-      </c>
-      <c r="R28" s="25">
-        <v>3</v>
-      </c>
-      <c r="S28" s="25">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" s="28" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="35">
-        <v>28</v>
-      </c>
-      <c r="B29" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="C29" s="25"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="25">
-        <v>2845817.91</v>
-      </c>
-      <c r="G29" s="25"/>
-      <c r="H29" s="25"/>
-      <c r="I29" s="25"/>
-      <c r="J29" s="25"/>
-      <c r="K29" s="25"/>
-      <c r="L29" s="25"/>
-      <c r="M29" s="25"/>
-      <c r="N29" s="25"/>
-      <c r="O29" s="24">
-        <v>341498.15</v>
-      </c>
-      <c r="P29" s="24">
-        <v>2504319.7599999998</v>
-      </c>
-      <c r="Q29" s="27" t="s">
-        <v>256</v>
-      </c>
-      <c r="R29" s="25">
-        <v>3</v>
-      </c>
-      <c r="S29" s="25">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" s="28" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="35">
-        <v>29</v>
-      </c>
-      <c r="B30" s="27" t="s">
-        <v>188</v>
-      </c>
-      <c r="C30" s="25"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="25">
-        <v>20920389.859999999</v>
-      </c>
-      <c r="F30" s="25"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="25"/>
-      <c r="I30" s="25"/>
-      <c r="J30" s="25"/>
-      <c r="K30" s="25"/>
-      <c r="L30" s="25"/>
-      <c r="M30" s="25"/>
-      <c r="N30" s="25"/>
-      <c r="O30" s="24">
-        <v>2510446.7799999998</v>
-      </c>
-      <c r="P30" s="24">
-        <v>18409943.300000001</v>
-      </c>
-      <c r="Q30" s="27" t="s">
-        <v>244</v>
-      </c>
-      <c r="R30" s="25">
-        <v>3</v>
-      </c>
-      <c r="S30" s="25">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" s="28" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="35">
-        <v>30</v>
-      </c>
-      <c r="B31" s="27" t="s">
-        <v>189</v>
-      </c>
-      <c r="C31" s="25"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="25">
-        <v>6371395.0199999996</v>
-      </c>
-      <c r="F31" s="25"/>
-      <c r="G31" s="25"/>
-      <c r="H31" s="25"/>
-      <c r="I31" s="25"/>
-      <c r="J31" s="25">
-        <v>57426.95</v>
-      </c>
-      <c r="K31" s="25"/>
-      <c r="L31" s="25"/>
-      <c r="M31" s="25"/>
-      <c r="N31" s="25"/>
-      <c r="O31" s="24">
-        <v>771458.64</v>
-      </c>
-      <c r="P31" s="24">
-        <v>5657363.3399999999</v>
-      </c>
-      <c r="Q31" s="27" t="s">
-        <v>247</v>
-      </c>
-      <c r="R31" s="25">
-        <v>3</v>
-      </c>
-      <c r="S31" s="25">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" s="28" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="35">
-        <v>31</v>
-      </c>
-      <c r="B32" s="27" t="s">
-        <v>190</v>
-      </c>
-      <c r="C32" s="25"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25"/>
-      <c r="G32" s="25"/>
-      <c r="H32" s="25"/>
-      <c r="I32" s="25"/>
-      <c r="J32" s="25">
-        <v>21272374</v>
-      </c>
-      <c r="K32" s="25"/>
-      <c r="L32" s="25"/>
-      <c r="M32" s="25"/>
-      <c r="N32" s="25"/>
-      <c r="O32" s="24">
-        <v>2765408.62</v>
-      </c>
-      <c r="P32" s="24">
-        <v>18506965.379999999</v>
-      </c>
-      <c r="Q32" s="27" t="s">
-        <v>257</v>
-      </c>
-      <c r="R32" s="25">
-        <v>3</v>
-      </c>
-      <c r="S32" s="25">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19" s="28" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="35">
-        <v>32</v>
-      </c>
-      <c r="B33" s="27" t="s">
-        <v>191</v>
-      </c>
-      <c r="C33" s="25"/>
-      <c r="D33" s="25"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25">
-        <v>24881290.649999999</v>
-      </c>
-      <c r="G33" s="25"/>
-      <c r="H33" s="25"/>
-      <c r="I33" s="25"/>
-      <c r="J33" s="25"/>
-      <c r="K33" s="25"/>
-      <c r="L33" s="25"/>
-      <c r="M33" s="25"/>
-      <c r="N33" s="25"/>
-      <c r="O33" s="24">
-        <v>3234567.78</v>
-      </c>
-      <c r="P33" s="24">
-        <v>21646722.870000001</v>
-      </c>
-      <c r="Q33" s="27" t="s">
-        <v>253</v>
-      </c>
-      <c r="R33" s="25">
-        <v>3</v>
-      </c>
-      <c r="S33" s="25">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19" s="28" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="35">
-        <v>33</v>
-      </c>
-      <c r="B34" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="C34" s="25"/>
-      <c r="D34" s="25"/>
-      <c r="E34" s="25"/>
-      <c r="F34" s="25">
-        <v>2219849.34</v>
-      </c>
-      <c r="G34" s="25"/>
-      <c r="H34" s="25"/>
-      <c r="I34" s="25"/>
-      <c r="J34" s="25"/>
-      <c r="K34" s="25"/>
-      <c r="L34" s="25"/>
-      <c r="M34" s="25"/>
-      <c r="N34" s="25"/>
-      <c r="O34" s="24">
-        <v>288580.40999999997</v>
-      </c>
-      <c r="P34" s="24">
-        <v>1931268.93</v>
-      </c>
-      <c r="Q34" s="27" t="s">
-        <v>258</v>
-      </c>
-      <c r="R34" s="25">
-        <v>3</v>
-      </c>
-      <c r="S34" s="25">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19" s="28" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="35">
-        <v>34</v>
-      </c>
-      <c r="B35" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="C35" s="25"/>
-      <c r="D35" s="25"/>
-      <c r="E35" s="25">
-        <v>1212624.81</v>
-      </c>
-      <c r="F35" s="25">
-        <v>8857010.9600000009</v>
-      </c>
-      <c r="G35" s="25"/>
-      <c r="H35" s="25"/>
-      <c r="I35" s="25"/>
-      <c r="J35" s="25"/>
-      <c r="K35" s="25"/>
-      <c r="L35" s="25"/>
-      <c r="M35" s="25"/>
-      <c r="N35" s="25"/>
-      <c r="O35" s="24">
-        <v>1208356.32</v>
-      </c>
-      <c r="P35" s="24">
-        <v>8861279.6799999997</v>
-      </c>
-      <c r="Q35" s="27" t="s">
-        <v>259</v>
-      </c>
-      <c r="R35" s="25">
-        <v>3</v>
-      </c>
-      <c r="S35" s="25">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19" s="28" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="35">
-        <v>35</v>
-      </c>
-      <c r="B36" s="31" t="s">
-        <v>194</v>
-      </c>
-      <c r="C36" s="25"/>
-      <c r="D36" s="25"/>
-      <c r="E36" s="25"/>
-      <c r="F36" s="25"/>
-      <c r="G36" s="25"/>
-      <c r="H36" s="25"/>
-      <c r="I36" s="25"/>
-      <c r="J36" s="25">
-        <v>7949616.7400000002</v>
-      </c>
-      <c r="K36" s="25"/>
-      <c r="L36" s="25"/>
-      <c r="M36" s="25"/>
-      <c r="N36" s="25"/>
-      <c r="O36" s="24">
-        <v>1033450.21</v>
-      </c>
-      <c r="P36" s="24">
-        <v>6916166.79</v>
-      </c>
-      <c r="Q36" s="31" t="s">
-        <v>255</v>
-      </c>
-      <c r="R36" s="25">
-        <v>3</v>
-      </c>
-      <c r="S36" s="25">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19" s="28" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="35">
-        <v>36</v>
-      </c>
-      <c r="B37" s="27" t="s">
-        <v>195</v>
-      </c>
-      <c r="C37" s="25"/>
-      <c r="D37" s="25"/>
-      <c r="E37" s="25"/>
-      <c r="F37" s="25"/>
-      <c r="G37" s="25"/>
-      <c r="H37" s="25"/>
-      <c r="I37" s="25"/>
-      <c r="J37" s="25">
-        <v>16684473</v>
-      </c>
-      <c r="K37" s="25"/>
-      <c r="L37" s="25"/>
-      <c r="M37" s="25"/>
-      <c r="N37" s="25"/>
-      <c r="O37" s="24">
-        <v>2168981.4900000002</v>
-      </c>
-      <c r="P37" s="24">
-        <v>14515491.51</v>
-      </c>
-      <c r="Q37" s="27" t="s">
-        <v>260</v>
-      </c>
-      <c r="R37" s="25">
-        <v>3</v>
-      </c>
-      <c r="S37" s="25">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19" s="28" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="35">
-        <v>37</v>
-      </c>
-      <c r="B38" s="27" t="s">
-        <v>196</v>
-      </c>
-      <c r="C38" s="25"/>
-      <c r="D38" s="25"/>
-      <c r="E38" s="25"/>
-      <c r="F38" s="25"/>
-      <c r="G38" s="25"/>
-      <c r="H38" s="25"/>
-      <c r="I38" s="25">
-        <v>6217683</v>
-      </c>
-      <c r="J38" s="25"/>
-      <c r="K38" s="25"/>
-      <c r="L38" s="25"/>
-      <c r="M38" s="25"/>
-      <c r="N38" s="25"/>
-      <c r="O38" s="24">
-        <v>808298.79</v>
-      </c>
-      <c r="P38" s="24">
-        <v>5409384</v>
-      </c>
-      <c r="Q38" s="27" t="s">
-        <v>261</v>
-      </c>
-      <c r="R38" s="25">
-        <v>3</v>
-      </c>
-      <c r="S38" s="25">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19" s="28" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="35">
-        <v>38</v>
-      </c>
-      <c r="B39" s="27" t="s">
-        <v>197</v>
-      </c>
-      <c r="C39" s="25"/>
-      <c r="D39" s="25"/>
-      <c r="E39" s="25">
-        <v>6062089</v>
-      </c>
-      <c r="F39" s="25"/>
-      <c r="G39" s="25"/>
-      <c r="H39" s="25"/>
-      <c r="I39" s="25"/>
-      <c r="J39" s="25"/>
-      <c r="K39" s="25"/>
-      <c r="L39" s="25"/>
-      <c r="M39" s="25"/>
-      <c r="N39" s="25"/>
-      <c r="O39" s="24">
-        <v>727450.68</v>
-      </c>
-      <c r="P39" s="24">
-        <v>5334638.32</v>
-      </c>
-      <c r="Q39" s="27" t="s">
-        <v>262</v>
-      </c>
-      <c r="R39" s="25">
-        <v>3</v>
-      </c>
-      <c r="S39" s="25">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:19" s="28" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="35">
-        <v>39</v>
-      </c>
-      <c r="B40" s="27" t="s">
-        <v>198</v>
-      </c>
-      <c r="C40" s="25"/>
-      <c r="D40" s="25"/>
-      <c r="E40" s="25"/>
-      <c r="F40" s="25">
-        <v>5732493</v>
-      </c>
-      <c r="G40" s="25"/>
-      <c r="H40" s="25"/>
-      <c r="I40" s="25"/>
-      <c r="J40" s="25"/>
-      <c r="K40" s="25"/>
-      <c r="L40" s="25"/>
-      <c r="M40" s="25"/>
-      <c r="N40" s="25"/>
-      <c r="O40" s="24">
-        <v>687899.16</v>
-      </c>
-      <c r="P40" s="24">
-        <v>5044593.84</v>
-      </c>
-      <c r="Q40" s="27" t="s">
-        <v>257</v>
-      </c>
-      <c r="R40" s="25">
-        <v>3</v>
-      </c>
-      <c r="S40" s="25">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:19" s="28" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="35">
-        <v>40</v>
-      </c>
-      <c r="B41" s="27" t="s">
-        <v>199</v>
-      </c>
-      <c r="C41" s="25"/>
-      <c r="D41" s="25"/>
-      <c r="E41" s="25"/>
-      <c r="F41" s="25"/>
-      <c r="G41" s="25"/>
-      <c r="H41" s="25"/>
-      <c r="I41" s="25"/>
-      <c r="J41" s="25">
-        <v>25543086</v>
-      </c>
-      <c r="K41" s="25"/>
-      <c r="L41" s="25"/>
-      <c r="M41" s="25"/>
-      <c r="N41" s="25"/>
-      <c r="O41" s="24">
-        <v>3320601.18</v>
-      </c>
-      <c r="P41" s="24">
-        <v>22222484</v>
-      </c>
-      <c r="Q41" s="27" t="s">
-        <v>257</v>
-      </c>
-      <c r="R41" s="25">
-        <v>3</v>
-      </c>
-      <c r="S41" s="25">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="1:19" s="28" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="35">
-        <v>41</v>
-      </c>
-      <c r="B42" s="31" t="s">
-        <v>200</v>
-      </c>
-      <c r="C42" s="25"/>
-      <c r="D42" s="25"/>
-      <c r="E42" s="25"/>
-      <c r="F42" s="25"/>
-      <c r="G42" s="25"/>
-      <c r="H42" s="25"/>
-      <c r="I42" s="25"/>
-      <c r="J42" s="25">
-        <v>15104005</v>
-      </c>
-      <c r="K42" s="25"/>
-      <c r="L42" s="25"/>
-      <c r="M42" s="25"/>
-      <c r="N42" s="25"/>
-      <c r="O42" s="24">
-        <v>1812480.6</v>
-      </c>
-      <c r="P42" s="24">
-        <v>13291524.4</v>
-      </c>
-      <c r="Q42" s="31" t="s">
-        <v>263</v>
-      </c>
-      <c r="R42" s="25">
-        <v>3</v>
-      </c>
-      <c r="S42" s="25">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:19" s="28" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="35">
-        <v>42</v>
-      </c>
-      <c r="B43" s="27" t="s">
-        <v>201</v>
-      </c>
-      <c r="C43" s="25"/>
-      <c r="D43" s="25"/>
-      <c r="E43" s="25"/>
-      <c r="F43" s="25">
-        <v>6079272</v>
-      </c>
-      <c r="G43" s="25"/>
-      <c r="H43" s="25"/>
-      <c r="I43" s="25"/>
-      <c r="J43" s="25"/>
-      <c r="K43" s="25"/>
-      <c r="L43" s="25"/>
-      <c r="M43" s="25"/>
-      <c r="N43" s="25"/>
-      <c r="O43" s="24">
-        <v>790305.35</v>
-      </c>
-      <c r="P43" s="24">
-        <v>5288966.6399999997</v>
-      </c>
-      <c r="Q43" s="27" t="s">
-        <v>255</v>
-      </c>
-      <c r="R43" s="25">
-        <v>3</v>
-      </c>
-      <c r="S43" s="25">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:19" s="28" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="35">
-        <v>43</v>
-      </c>
-      <c r="B44" s="31" t="s">
-        <v>202</v>
-      </c>
-      <c r="C44" s="25"/>
-      <c r="D44" s="25"/>
-      <c r="E44" s="25">
-        <v>4053916</v>
-      </c>
-      <c r="F44" s="25"/>
-      <c r="G44" s="25"/>
-      <c r="H44" s="25"/>
-      <c r="I44" s="25"/>
-      <c r="J44" s="25"/>
-      <c r="K44" s="25"/>
-      <c r="L44" s="25"/>
-      <c r="M44" s="25"/>
-      <c r="N44" s="25"/>
-      <c r="O44" s="24">
-        <v>527009.07999999996</v>
-      </c>
-      <c r="P44" s="24">
-        <v>3526906.92</v>
-      </c>
-      <c r="Q44" s="31" t="s">
-        <v>264</v>
-      </c>
-      <c r="R44" s="25">
-        <v>3</v>
-      </c>
-      <c r="S44" s="25">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="1:19" s="28" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="35">
-        <v>44</v>
-      </c>
-      <c r="B45" s="27" t="s">
-        <v>203</v>
-      </c>
-      <c r="C45" s="25"/>
-      <c r="D45" s="25"/>
-      <c r="E45" s="25">
-        <v>401100</v>
-      </c>
-      <c r="F45" s="25"/>
-      <c r="G45" s="25"/>
-      <c r="H45" s="25"/>
-      <c r="I45" s="25"/>
-      <c r="J45" s="25"/>
-      <c r="K45" s="25"/>
-      <c r="L45" s="25"/>
-      <c r="M45" s="25"/>
-      <c r="N45" s="25"/>
-      <c r="O45" s="24">
-        <v>521430</v>
-      </c>
-      <c r="P45" s="24">
-        <v>3489570</v>
-      </c>
-      <c r="Q45" s="27" t="s">
-        <v>265</v>
-      </c>
-      <c r="R45" s="25">
-        <v>3</v>
-      </c>
-      <c r="S45" s="25">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" spans="1:19" s="28" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="35">
-        <v>45</v>
-      </c>
-      <c r="B46" s="27" t="s">
-        <v>204</v>
-      </c>
-      <c r="C46" s="25"/>
-      <c r="D46" s="25"/>
-      <c r="E46" s="25">
-        <v>8039248.0999999996</v>
-      </c>
-      <c r="F46" s="25"/>
-      <c r="G46" s="25"/>
-      <c r="H46" s="25"/>
-      <c r="I46" s="25"/>
-      <c r="J46" s="25">
-        <v>8283117.8499999996</v>
-      </c>
-      <c r="K46" s="25"/>
-      <c r="L46" s="25"/>
-      <c r="M46" s="25"/>
-      <c r="N46" s="25"/>
-      <c r="O46" s="24">
-        <v>2121907.58</v>
-      </c>
-      <c r="P46" s="24">
-        <v>14200458</v>
-      </c>
-      <c r="Q46" s="27" t="s">
-        <v>245</v>
-      </c>
-      <c r="R46" s="25">
-        <v>3</v>
-      </c>
-      <c r="S46" s="25">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" spans="1:19" s="28" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="35">
-        <v>46</v>
-      </c>
-      <c r="B47" s="27" t="s">
-        <v>205</v>
-      </c>
-      <c r="C47" s="25"/>
-      <c r="D47" s="25"/>
-      <c r="E47" s="25">
-        <v>2507202.42</v>
-      </c>
-      <c r="F47" s="25"/>
-      <c r="G47" s="25"/>
-      <c r="H47" s="25"/>
-      <c r="I47" s="25"/>
-      <c r="J47" s="25">
-        <v>6487303.0199999996</v>
-      </c>
-      <c r="K47" s="25"/>
-      <c r="L47" s="25"/>
-      <c r="M47" s="25"/>
-      <c r="N47" s="25"/>
-      <c r="O47" s="24">
-        <v>1169285.6499999999</v>
-      </c>
-      <c r="P47" s="24">
-        <v>7825219.3499999996</v>
-      </c>
-      <c r="Q47" s="27" t="s">
-        <v>249</v>
-      </c>
-      <c r="R47" s="25">
-        <v>3</v>
-      </c>
-      <c r="S47" s="25">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="1:19" s="28" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="35">
-        <v>47</v>
-      </c>
-      <c r="B48" s="27" t="s">
-        <v>206</v>
-      </c>
-      <c r="C48" s="25"/>
-      <c r="D48" s="25"/>
-      <c r="E48" s="25">
-        <v>2180254.8199999998</v>
-      </c>
-      <c r="F48" s="25"/>
-      <c r="G48" s="25"/>
-      <c r="H48" s="25"/>
-      <c r="I48" s="25"/>
-      <c r="J48" s="25">
-        <v>3717802.75</v>
-      </c>
-      <c r="K48" s="25"/>
-      <c r="L48" s="25"/>
-      <c r="M48" s="25"/>
-      <c r="N48" s="25"/>
-      <c r="O48" s="24">
-        <v>707766.96</v>
-      </c>
-      <c r="P48" s="24">
-        <v>5190291.04</v>
-      </c>
-      <c r="Q48" s="27" t="s">
-        <v>247</v>
-      </c>
-      <c r="R48" s="25">
-        <v>3</v>
-      </c>
-      <c r="S48" s="25">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="49" spans="1:19" s="28" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="35">
-        <v>48</v>
-      </c>
-      <c r="B49" s="27" t="s">
-        <v>207</v>
-      </c>
-      <c r="C49" s="25"/>
-      <c r="D49" s="25"/>
-      <c r="E49" s="25"/>
-      <c r="F49" s="25"/>
-      <c r="G49" s="25"/>
-      <c r="H49" s="25"/>
-      <c r="I49" s="25"/>
-      <c r="J49" s="25">
-        <v>2511543</v>
-      </c>
-      <c r="K49" s="25"/>
-      <c r="L49" s="25"/>
-      <c r="M49" s="25"/>
-      <c r="N49" s="25"/>
-      <c r="O49" s="24">
-        <v>326500.56</v>
-      </c>
-      <c r="P49" s="24">
-        <v>2185042</v>
-      </c>
-      <c r="Q49" s="27" t="s">
-        <v>248</v>
-      </c>
-      <c r="R49" s="25">
-        <v>3</v>
-      </c>
-      <c r="S49" s="25">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="50" spans="1:19" s="28" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="35">
-        <v>49</v>
-      </c>
-      <c r="B50" s="32" t="s">
-        <v>208</v>
-      </c>
-      <c r="C50" s="25"/>
-      <c r="D50" s="25"/>
-      <c r="E50" s="25"/>
-      <c r="F50" s="25"/>
-      <c r="G50" s="25"/>
-      <c r="H50" s="25"/>
-      <c r="I50" s="25"/>
-      <c r="J50" s="25">
-        <v>11432295</v>
-      </c>
-      <c r="K50" s="25"/>
-      <c r="L50" s="25"/>
-      <c r="M50" s="25"/>
-      <c r="N50" s="25"/>
-      <c r="O50" s="24">
-        <v>1600521.3</v>
-      </c>
-      <c r="P50" s="24">
-        <v>9831773.6999999993</v>
-      </c>
-      <c r="Q50" s="32" t="s">
-        <v>266</v>
-      </c>
-      <c r="R50" s="25">
-        <v>3</v>
-      </c>
-      <c r="S50" s="25">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="51" spans="1:19" s="28" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="35">
-        <v>50</v>
-      </c>
-      <c r="B51" s="27" t="s">
-        <v>209</v>
-      </c>
-      <c r="C51" s="25"/>
-      <c r="D51" s="25"/>
-      <c r="E51" s="25"/>
-      <c r="F51" s="25">
-        <v>5280058</v>
-      </c>
-      <c r="G51" s="25"/>
-      <c r="H51" s="25"/>
-      <c r="I51" s="25"/>
-      <c r="J51" s="25"/>
-      <c r="K51" s="25"/>
-      <c r="L51" s="25"/>
-      <c r="M51" s="25"/>
-      <c r="N51" s="25"/>
-      <c r="O51" s="24">
-        <v>686407</v>
-      </c>
-      <c r="P51" s="24">
-        <v>4593650.46</v>
-      </c>
-      <c r="Q51" s="27" t="s">
-        <v>256</v>
-      </c>
-      <c r="R51" s="25">
-        <v>3</v>
-      </c>
-      <c r="S51" s="25">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="52" spans="1:19" s="28" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="35">
-        <v>51</v>
-      </c>
-      <c r="B52" s="27" t="s">
-        <v>210</v>
-      </c>
-      <c r="C52" s="25"/>
-      <c r="D52" s="25"/>
-      <c r="E52" s="25"/>
-      <c r="F52" s="25"/>
-      <c r="G52" s="25"/>
-      <c r="H52" s="25"/>
-      <c r="I52" s="25"/>
-      <c r="J52" s="25">
-        <v>11128106</v>
-      </c>
-      <c r="K52" s="25"/>
-      <c r="L52" s="25"/>
-      <c r="M52" s="25"/>
-      <c r="N52" s="25"/>
-      <c r="O52" s="24">
-        <v>1446653.78</v>
-      </c>
-      <c r="P52" s="24">
-        <v>9681452.2200000007</v>
-      </c>
-      <c r="Q52" s="27" t="s">
-        <v>250</v>
-      </c>
-      <c r="R52" s="25">
-        <v>3</v>
-      </c>
-      <c r="S52" s="25">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="53" spans="1:19" s="28" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="35">
-        <v>52</v>
-      </c>
-      <c r="B53" s="27" t="s">
-        <v>211</v>
-      </c>
-      <c r="C53" s="25"/>
-      <c r="D53" s="25"/>
-      <c r="E53" s="25">
-        <v>5348740</v>
-      </c>
-      <c r="F53" s="25"/>
-      <c r="G53" s="25"/>
-      <c r="H53" s="25"/>
-      <c r="I53" s="25"/>
-      <c r="J53" s="25"/>
-      <c r="K53" s="25"/>
-      <c r="L53" s="25"/>
-      <c r="M53" s="25"/>
-      <c r="N53" s="25"/>
-      <c r="O53" s="24">
-        <v>695336.2</v>
-      </c>
-      <c r="P53" s="24">
-        <v>4653403.8</v>
-      </c>
-      <c r="Q53" s="27" t="s">
-        <v>262</v>
-      </c>
-      <c r="R53" s="25">
-        <v>3</v>
-      </c>
-      <c r="S53" s="25">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="54" spans="1:19" s="28" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="35">
-        <v>53</v>
-      </c>
-      <c r="B54" s="27" t="s">
-        <v>212</v>
-      </c>
-      <c r="C54" s="25"/>
-      <c r="D54" s="25"/>
-      <c r="E54" s="25">
-        <v>6951211</v>
-      </c>
-      <c r="F54" s="25"/>
-      <c r="G54" s="25"/>
-      <c r="H54" s="25"/>
-      <c r="I54" s="25"/>
-      <c r="J54" s="25"/>
-      <c r="K54" s="25"/>
-      <c r="L54" s="25"/>
-      <c r="M54" s="25"/>
-      <c r="N54" s="25"/>
-      <c r="O54" s="24">
-        <v>973169.54</v>
-      </c>
-      <c r="P54" s="24">
-        <v>5978041</v>
-      </c>
-      <c r="Q54" s="27" t="s">
-        <v>267</v>
-      </c>
-      <c r="R54" s="25">
-        <v>3</v>
-      </c>
-      <c r="S54" s="25">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="55" spans="1:19" s="28" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="35">
-        <v>54</v>
-      </c>
-      <c r="B55" s="27" t="s">
-        <v>213</v>
-      </c>
-      <c r="C55" s="25"/>
-      <c r="D55" s="25"/>
-      <c r="E55" s="25">
-        <v>1324549.76</v>
-      </c>
-      <c r="F55" s="25"/>
-      <c r="G55" s="25"/>
-      <c r="H55" s="25"/>
-      <c r="I55" s="25"/>
-      <c r="J55" s="25">
-        <v>3318512.49</v>
-      </c>
-      <c r="K55" s="25"/>
-      <c r="L55" s="25"/>
-      <c r="M55" s="25"/>
-      <c r="N55" s="25"/>
-      <c r="O55" s="24">
-        <v>650028.68000000005</v>
-      </c>
-      <c r="P55" s="24">
-        <v>3993033.32</v>
-      </c>
-      <c r="Q55" s="27" t="s">
-        <v>268</v>
-      </c>
-      <c r="R55" s="25">
-        <v>3</v>
-      </c>
-      <c r="S55" s="25">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="56" spans="1:19" s="28" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="35">
-        <v>55</v>
-      </c>
-      <c r="B56" s="27" t="s">
-        <v>214</v>
-      </c>
-      <c r="C56" s="25"/>
-      <c r="D56" s="25"/>
-      <c r="E56" s="25">
-        <v>13049284</v>
-      </c>
-      <c r="F56" s="25"/>
-      <c r="G56" s="25"/>
-      <c r="H56" s="25"/>
-      <c r="I56" s="25"/>
-      <c r="J56" s="25"/>
-      <c r="K56" s="25"/>
-      <c r="L56" s="25"/>
-      <c r="M56" s="25"/>
-      <c r="N56" s="25"/>
-      <c r="O56" s="24">
-        <v>1826899.76</v>
-      </c>
-      <c r="P56" s="24">
-        <v>11222384.24</v>
-      </c>
-      <c r="Q56" s="27" t="s">
-        <v>269</v>
-      </c>
-      <c r="R56" s="25">
-        <v>3</v>
-      </c>
-      <c r="S56" s="25">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="57" spans="1:19" s="28" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="35">
-        <v>57</v>
-      </c>
-      <c r="B57" s="27" t="s">
-        <v>215</v>
-      </c>
-      <c r="C57" s="25"/>
-      <c r="D57" s="25"/>
-      <c r="E57" s="25">
-        <v>6573628</v>
-      </c>
-      <c r="F57" s="25"/>
-      <c r="G57" s="25"/>
-      <c r="H57" s="25"/>
-      <c r="I57" s="25"/>
-      <c r="J57" s="25"/>
-      <c r="K57" s="25"/>
-      <c r="L57" s="25"/>
-      <c r="M57" s="25"/>
-      <c r="N57" s="25"/>
-      <c r="O57" s="24">
-        <v>854571.64</v>
-      </c>
-      <c r="P57" s="24">
-        <v>5719056.3600000003</v>
-      </c>
-      <c r="Q57" s="27" t="s">
-        <v>270</v>
-      </c>
-      <c r="R57" s="25">
-        <v>3</v>
-      </c>
-      <c r="S57" s="25">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="58" spans="1:19" s="28" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="35">
-        <v>58</v>
-      </c>
-      <c r="B58" s="27" t="s">
-        <v>216</v>
-      </c>
-      <c r="C58" s="25"/>
-      <c r="D58" s="25"/>
-      <c r="E58" s="25"/>
-      <c r="F58" s="25"/>
-      <c r="G58" s="25"/>
-      <c r="H58" s="25"/>
-      <c r="I58" s="25"/>
-      <c r="J58" s="25">
-        <v>8742061</v>
-      </c>
-      <c r="K58" s="25"/>
-      <c r="L58" s="25"/>
-      <c r="M58" s="25"/>
-      <c r="N58" s="25"/>
-      <c r="O58" s="24">
-        <v>1223888.54</v>
-      </c>
-      <c r="P58" s="24">
-        <v>7518172.46</v>
-      </c>
-      <c r="Q58" s="27" t="s">
-        <v>271</v>
-      </c>
-      <c r="R58" s="25">
-        <v>3</v>
-      </c>
-      <c r="S58" s="25">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="59" spans="1:19" s="28" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="35">
-        <v>59</v>
-      </c>
-      <c r="B59" s="27" t="s">
-        <v>217</v>
-      </c>
-      <c r="C59" s="25"/>
-      <c r="D59" s="25"/>
-      <c r="E59" s="25">
-        <v>944684.35</v>
-      </c>
-      <c r="F59" s="25"/>
-      <c r="G59" s="25"/>
-      <c r="H59" s="25"/>
-      <c r="I59" s="25"/>
-      <c r="J59" s="25">
-        <v>10809762.381999999</v>
-      </c>
-      <c r="K59" s="25"/>
-      <c r="L59" s="25"/>
-      <c r="M59" s="25"/>
-      <c r="N59" s="25"/>
-      <c r="O59" s="24">
-        <v>2068534.62</v>
-      </c>
-      <c r="P59" s="24">
-        <v>9685912.3800000008</v>
-      </c>
-      <c r="Q59" s="27" t="s">
-        <v>247</v>
-      </c>
-      <c r="R59" s="25">
-        <v>3</v>
-      </c>
-      <c r="S59" s="25">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="60" spans="1:19" s="28" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="35">
-        <v>60</v>
-      </c>
-      <c r="B60" s="27" t="s">
-        <v>218</v>
-      </c>
-      <c r="C60" s="25"/>
-      <c r="D60" s="25"/>
-      <c r="E60" s="25">
-        <v>8235264</v>
-      </c>
-      <c r="F60" s="25"/>
-      <c r="G60" s="25"/>
-      <c r="H60" s="25"/>
-      <c r="I60" s="25"/>
-      <c r="J60" s="25"/>
-      <c r="K60" s="25"/>
-      <c r="L60" s="25"/>
-      <c r="M60" s="25"/>
-      <c r="N60" s="25"/>
-      <c r="O60" s="24">
-        <v>1152936.96</v>
-      </c>
-      <c r="P60" s="24">
-        <v>7082327.04</v>
-      </c>
-      <c r="Q60" s="27" t="s">
-        <v>264</v>
-      </c>
-      <c r="R60" s="25">
-        <v>3</v>
-      </c>
-      <c r="S60" s="25">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="61" spans="1:19" s="28" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="35">
-        <v>61</v>
-      </c>
-      <c r="B61" s="27" t="s">
-        <v>219</v>
-      </c>
-      <c r="C61" s="25"/>
-      <c r="D61" s="25"/>
-      <c r="E61" s="25">
-        <v>12181117</v>
-      </c>
-      <c r="F61" s="25"/>
-      <c r="G61" s="25"/>
-      <c r="H61" s="25"/>
-      <c r="I61" s="25"/>
-      <c r="J61" s="25"/>
-      <c r="K61" s="25"/>
-      <c r="L61" s="25"/>
-      <c r="M61" s="25"/>
-      <c r="N61" s="25"/>
-      <c r="O61" s="24">
-        <v>1705356.38</v>
-      </c>
-      <c r="P61" s="24">
-        <v>10475760.619999999</v>
-      </c>
-      <c r="Q61" s="27" t="s">
-        <v>272</v>
-      </c>
-      <c r="R61" s="25">
-        <v>3</v>
-      </c>
-      <c r="S61" s="25">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="62" spans="1:19" s="28" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="35">
-        <v>62</v>
-      </c>
-      <c r="B62" s="27" t="s">
-        <v>220</v>
-      </c>
-      <c r="C62" s="25"/>
-      <c r="D62" s="25"/>
-      <c r="E62" s="25"/>
-      <c r="F62" s="25"/>
-      <c r="G62" s="25"/>
-      <c r="H62" s="25"/>
-      <c r="I62" s="25"/>
-      <c r="J62" s="25">
-        <v>11806042</v>
-      </c>
-      <c r="K62" s="25"/>
-      <c r="L62" s="25"/>
-      <c r="M62" s="25"/>
-      <c r="N62" s="25"/>
-      <c r="O62" s="24">
-        <v>1652845.88</v>
-      </c>
-      <c r="P62" s="24">
-        <v>10153196.119999999</v>
-      </c>
-      <c r="Q62" s="27" t="s">
-        <v>266</v>
-      </c>
-      <c r="R62" s="25">
-        <v>3</v>
-      </c>
-      <c r="S62" s="25">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="63" spans="1:19" s="28" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="35">
-        <v>63</v>
-      </c>
-      <c r="B63" s="27" t="s">
-        <v>221</v>
-      </c>
-      <c r="C63" s="25"/>
-      <c r="D63" s="25"/>
-      <c r="E63" s="25">
-        <v>3318907</v>
-      </c>
-      <c r="F63" s="25"/>
-      <c r="G63" s="25"/>
-      <c r="H63" s="25"/>
-      <c r="I63" s="25"/>
-      <c r="J63" s="25"/>
-      <c r="K63" s="25"/>
-      <c r="L63" s="25"/>
-      <c r="M63" s="25"/>
-      <c r="N63" s="25"/>
-      <c r="O63" s="24">
-        <v>464646.98</v>
-      </c>
-      <c r="P63" s="24">
-        <v>2854260.02</v>
-      </c>
-      <c r="Q63" s="27" t="s">
-        <v>251</v>
-      </c>
-      <c r="R63" s="25">
-        <v>3</v>
-      </c>
-      <c r="S63" s="25">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="64" spans="1:19" s="28" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="35">
-        <v>64</v>
-      </c>
-      <c r="B64" s="27" t="s">
-        <v>222</v>
-      </c>
-      <c r="C64" s="25"/>
-      <c r="D64" s="25"/>
-      <c r="E64" s="25">
-        <v>604514.55000000005</v>
-      </c>
-      <c r="F64" s="25">
-        <v>7543874.1799999997</v>
-      </c>
-      <c r="G64" s="25"/>
-      <c r="H64" s="25"/>
-      <c r="I64" s="25"/>
-      <c r="J64" s="25"/>
-      <c r="K64" s="25"/>
-      <c r="L64" s="25"/>
-      <c r="M64" s="25"/>
-      <c r="N64" s="25"/>
-      <c r="O64" s="24">
-        <v>1059290.57</v>
-      </c>
-      <c r="P64" s="24">
-        <v>7089098.4299999997</v>
-      </c>
-      <c r="Q64" s="27" t="s">
-        <v>262</v>
-      </c>
-      <c r="R64" s="25">
-        <v>3</v>
-      </c>
-      <c r="S64" s="25">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="65" spans="1:19" s="28" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="35">
-        <v>65</v>
-      </c>
-      <c r="B65" s="27" t="s">
-        <v>223</v>
-      </c>
-      <c r="C65" s="25"/>
-      <c r="D65" s="25"/>
-      <c r="E65" s="25">
-        <v>13535773.370000001</v>
-      </c>
-      <c r="F65" s="25"/>
-      <c r="G65" s="25"/>
-      <c r="H65" s="25"/>
-      <c r="I65" s="25"/>
-      <c r="J65" s="25">
-        <v>6963681.6299999999</v>
-      </c>
-      <c r="K65" s="25"/>
-      <c r="L65" s="25"/>
-      <c r="M65" s="25"/>
-      <c r="N65" s="25"/>
-      <c r="O65" s="24">
-        <v>2869923.7</v>
-      </c>
-      <c r="P65" s="24">
-        <v>17629531.300000001</v>
-      </c>
-      <c r="Q65" s="27" t="s">
-        <v>252</v>
-      </c>
-      <c r="R65" s="25">
-        <v>3</v>
-      </c>
-      <c r="S65" s="25">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="66" spans="1:19" s="28" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="35">
-        <v>66</v>
-      </c>
-      <c r="B66" s="27" t="s">
-        <v>224</v>
-      </c>
-      <c r="C66" s="25"/>
-      <c r="D66" s="25"/>
-      <c r="E66" s="25">
-        <v>8591066.3900000006</v>
-      </c>
-      <c r="F66" s="25"/>
-      <c r="G66" s="25"/>
-      <c r="H66" s="25"/>
-      <c r="I66" s="25"/>
-      <c r="J66" s="25">
-        <v>3697365.61</v>
-      </c>
-      <c r="K66" s="25"/>
-      <c r="L66" s="25"/>
-      <c r="M66" s="25"/>
-      <c r="N66" s="25"/>
-      <c r="O66" s="24">
-        <v>1720380.48</v>
-      </c>
-      <c r="P66" s="24">
-        <v>10568051.52</v>
-      </c>
-      <c r="Q66" s="27" t="s">
-        <v>254</v>
-      </c>
-      <c r="R66" s="25">
-        <v>3</v>
-      </c>
-      <c r="S66" s="25">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="67" spans="1:19" s="28" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="35">
-        <v>67</v>
-      </c>
-      <c r="B67" s="27" t="s">
-        <v>225</v>
-      </c>
-      <c r="C67" s="25"/>
-      <c r="D67" s="25"/>
-      <c r="E67" s="25">
-        <v>981597.62</v>
-      </c>
-      <c r="F67" s="25"/>
-      <c r="G67" s="25"/>
-      <c r="H67" s="25"/>
-      <c r="I67" s="25"/>
-      <c r="J67" s="25">
-        <v>4991229.37</v>
-      </c>
-      <c r="K67" s="25"/>
-      <c r="L67" s="25"/>
-      <c r="M67" s="25"/>
-      <c r="N67" s="25"/>
-      <c r="O67" s="24">
-        <v>836195.64</v>
-      </c>
-      <c r="P67" s="24">
-        <v>5136630.3600000003</v>
-      </c>
-      <c r="Q67" s="27" t="s">
-        <v>249</v>
-      </c>
-      <c r="R67" s="25">
-        <v>3</v>
-      </c>
-      <c r="S67" s="25">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="68" spans="1:19" s="28" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="35">
-        <v>68</v>
-      </c>
-      <c r="B68" s="27" t="s">
-        <v>226</v>
-      </c>
-      <c r="C68" s="25">
-        <v>527282</v>
-      </c>
-      <c r="D68" s="25"/>
-      <c r="E68" s="25">
-        <v>374966.5</v>
-      </c>
-      <c r="F68" s="25">
-        <v>5265726.0240000002</v>
-      </c>
-      <c r="G68" s="25"/>
-      <c r="H68" s="25"/>
-      <c r="I68" s="25"/>
-      <c r="J68" s="25">
-        <v>1801653.24</v>
-      </c>
-      <c r="K68" s="25"/>
-      <c r="L68" s="25"/>
-      <c r="M68" s="25"/>
-      <c r="N68" s="25"/>
-      <c r="O68" s="24">
-        <v>1189941.2</v>
-      </c>
-      <c r="P68" s="24">
-        <v>7309638.7999999998</v>
-      </c>
-      <c r="Q68" s="27" t="s">
-        <v>245</v>
-      </c>
-      <c r="R68" s="25">
-        <v>3</v>
-      </c>
-      <c r="S68" s="25">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="69" spans="1:19" s="28" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="35">
-        <v>69</v>
-      </c>
-      <c r="B69" s="27" t="s">
-        <v>227</v>
-      </c>
-      <c r="C69" s="25"/>
-      <c r="D69" s="25"/>
-      <c r="E69" s="25">
-        <v>772720.61</v>
-      </c>
-      <c r="F69" s="25"/>
-      <c r="G69" s="25"/>
-      <c r="H69" s="25"/>
-      <c r="I69" s="25"/>
-      <c r="J69" s="25">
-        <v>1721169.71</v>
-      </c>
-      <c r="K69" s="25"/>
-      <c r="L69" s="25"/>
-      <c r="M69" s="25"/>
-      <c r="N69" s="25"/>
-      <c r="O69" s="24">
-        <v>657107.36</v>
-      </c>
-      <c r="P69" s="24">
-        <v>1836816.64</v>
-      </c>
-      <c r="Q69" s="27" t="s">
-        <v>268</v>
-      </c>
-      <c r="R69" s="25">
-        <v>3</v>
-      </c>
-      <c r="S69" s="25">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="70" spans="1:19" s="28" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A70" s="35">
-        <v>70</v>
-      </c>
-      <c r="B70" s="27" t="s">
-        <v>228</v>
-      </c>
-      <c r="C70" s="25"/>
-      <c r="D70" s="25"/>
-      <c r="E70" s="25">
-        <v>8888573.4199999999</v>
-      </c>
-      <c r="F70" s="25"/>
-      <c r="G70" s="25"/>
-      <c r="H70" s="25"/>
-      <c r="I70" s="25"/>
-      <c r="J70" s="25">
-        <v>4137447.0700000003</v>
-      </c>
-      <c r="K70" s="25"/>
-      <c r="L70" s="25"/>
-      <c r="M70" s="25"/>
-      <c r="N70" s="25"/>
-      <c r="O70" s="24">
-        <v>1823642.94</v>
-      </c>
-      <c r="P70" s="24">
-        <v>11202378.060000001</v>
-      </c>
-      <c r="Q70" s="27" t="s">
-        <v>255</v>
-      </c>
-      <c r="R70" s="25">
-        <v>3</v>
-      </c>
-      <c r="S70" s="25">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="71" spans="1:19" s="28" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="35">
-        <v>71</v>
-      </c>
-      <c r="B71" s="27" t="s">
-        <v>229</v>
-      </c>
-      <c r="C71" s="25"/>
-      <c r="D71" s="25"/>
-      <c r="E71" s="25"/>
-      <c r="F71" s="25">
-        <v>3173491</v>
-      </c>
-      <c r="G71" s="25"/>
-      <c r="H71" s="25"/>
-      <c r="I71" s="25"/>
-      <c r="J71" s="25"/>
-      <c r="K71" s="25"/>
-      <c r="L71" s="25"/>
-      <c r="M71" s="25"/>
-      <c r="N71" s="25"/>
-      <c r="O71" s="24">
-        <v>444288.74</v>
-      </c>
-      <c r="P71" s="24">
-        <v>2729202.26</v>
-      </c>
-      <c r="Q71" s="27" t="s">
-        <v>273</v>
-      </c>
-      <c r="R71" s="25">
-        <v>3</v>
-      </c>
-      <c r="S71" s="25">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="72" spans="1:19" s="28" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A72" s="35">
-        <v>72</v>
-      </c>
-      <c r="B72" s="27" t="s">
-        <v>230</v>
-      </c>
-      <c r="C72" s="25"/>
-      <c r="D72" s="25"/>
-      <c r="E72" s="25"/>
-      <c r="F72" s="25"/>
-      <c r="G72" s="25"/>
-      <c r="H72" s="25"/>
-      <c r="I72" s="25"/>
-      <c r="J72" s="25">
+      <c r="C72" s="31"/>
+      <c r="D72" s="31"/>
+      <c r="E72" s="31"/>
+      <c r="F72" s="31"/>
+      <c r="G72" s="31"/>
+      <c r="H72" s="31"/>
+      <c r="I72" s="31"/>
+      <c r="J72" s="31">
         <v>7454035</v>
       </c>
-      <c r="K72" s="25"/>
-      <c r="L72" s="25"/>
-      <c r="M72" s="25"/>
-      <c r="N72" s="25"/>
-      <c r="O72" s="24">
+      <c r="K72" s="31"/>
+      <c r="L72" s="31"/>
+      <c r="M72" s="31"/>
+      <c r="N72" s="31"/>
+      <c r="O72" s="31">
         <v>969024.55</v>
       </c>
-      <c r="P72" s="24">
+      <c r="P72" s="31">
         <v>6485010.4500000002</v>
       </c>
-      <c r="Q72" s="27" t="s">
-        <v>274</v>
-      </c>
-      <c r="R72" s="25">
-        <v>3</v>
-      </c>
-      <c r="S72" s="25">
+      <c r="Q72" s="37" t="s">
+        <v>121</v>
+      </c>
+      <c r="R72" s="31">
+        <v>3</v>
+      </c>
+      <c r="S72" s="31">
         <v>6</v>
       </c>
     </row>

--- a/Civilworks cost/IPC Distribution.xlsx
+++ b/Civilworks cost/IPC Distribution.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19980" windowHeight="7680"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19980" windowHeight="7665"/>
   </bookViews>
   <sheets>
     <sheet name="IPC_Dist" sheetId="13" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="172">
   <si>
     <t>O&amp;M During Construction</t>
   </si>
@@ -508,263 +508,40 @@
     <t>Jul</t>
   </si>
   <si>
-    <t>88/KISH/HFMLIP/PW-03 3rd bill</t>
-  </si>
-  <si>
-    <t>97/KISH/HFMLIP/PW-04 2nd Bill</t>
-  </si>
-  <si>
-    <t>115/KISH/HFMLIP/PW-03 5th bill</t>
-  </si>
-  <si>
-    <t>117/KISH/HFMLIP/PW-24 1st bill</t>
-  </si>
-  <si>
-    <t>125/KISH/HFMLIP/PW-07 3rd bill</t>
-  </si>
-  <si>
-    <t>128/KISH/HFMLIP/PW-03 5th bill</t>
-  </si>
-  <si>
-    <t>141/KISH/HFMLIP/PW-24 2nd bill</t>
-  </si>
-  <si>
-    <t>148/KISH/HFMLIP/PW-06  2nd bill</t>
-  </si>
-  <si>
-    <t>147/KISH/HFMLIP/PW-10 1st bill</t>
-  </si>
-  <si>
-    <t>146/KISH/HFMLIP/PW-11 1st bill</t>
-  </si>
-  <si>
-    <t>150/KISH/HFMLIP/PW-07 4th bill</t>
-  </si>
-  <si>
-    <t>151/KISH/HFMLIP/PW-17 1st bill</t>
-  </si>
-  <si>
     <t>Package No</t>
   </si>
   <si>
     <t>IPC No</t>
   </si>
   <si>
-    <t xml:space="preserve">KISH-04 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">KISH-03 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">KISH-24 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">KISH-14 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KISH-06  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">KISH-10 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">KISH-07 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">HOBI-07 </t>
-  </si>
-  <si>
-    <t>153/KISH/HFMLIP/PW-17 1st bill</t>
-  </si>
-  <si>
-    <t>164/KISH/HFMLIP/PW-24  3rd bill</t>
-  </si>
-  <si>
-    <t>167/KISH/HFMLIP/PW-14 3rd bill</t>
-  </si>
-  <si>
-    <t>174/KISH/HFMLIP/PW-07  5th bill</t>
-  </si>
-  <si>
-    <t>185/KISH/HFMLIP/PW-11  nd bill</t>
-  </si>
-  <si>
-    <t>186/KISH/HFMLIP/PW-05 2nd bill</t>
-  </si>
-  <si>
-    <t>187/KISH/HFMLIP/PW-10   2nd bill</t>
-  </si>
-  <si>
-    <t>189/KISH/HFMLIP/PW-04 3rd bill</t>
-  </si>
-  <si>
-    <t>200/KISH/HFMLIP/PW-13   3rd bill</t>
-  </si>
-  <si>
-    <t>202/KISH/HFMLIP/PW-24 4th bill</t>
-  </si>
-  <si>
-    <t>209/KISH/HFMLIP/PW-17  2nd bill</t>
-  </si>
-  <si>
-    <t>210/KISH/HFMLIP/PW-16 2nd bill</t>
-  </si>
-  <si>
-    <t>211/KISH/HFMLIP/PW-26 1st bill</t>
-  </si>
-  <si>
-    <t>215/KISH/HFMLIP/PW-14 4th bill</t>
-  </si>
-  <si>
-    <t>232/KISH/HFMLIP/PW-18 1st bill</t>
-  </si>
-  <si>
-    <t>234/KISH/HFMLIP/PW-06 3rd bill</t>
-  </si>
-  <si>
-    <t>237/KISH/HFMLIP/PW-16 3rd bill</t>
-  </si>
-  <si>
-    <t xml:space="preserve">238/KISH/HFMLIP/PW-24  5th bill </t>
-  </si>
-  <si>
-    <t xml:space="preserve">KISH-24  </t>
-  </si>
-  <si>
-    <t>270/KISH/HFMLIP/PW-06 4th bill</t>
-  </si>
-  <si>
-    <t>288/KISH/HFMLIP/PW-15 1st bill</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KISH-15 </t>
-  </si>
-  <si>
-    <t>291/KISH/HFMLIP/PW-16 4th bill</t>
-  </si>
-  <si>
-    <t>292/KISH/HFMLIP/PW-02 3rd bill</t>
-  </si>
-  <si>
-    <t>298/KISH/HFMLIP/PW-17 3rd bill</t>
-  </si>
-  <si>
-    <t>326/KISH/HFMLIP/PW-11  3rd bill</t>
-  </si>
-  <si>
-    <t>333/KISH/HFMLIP/PW-14  5th bill</t>
-  </si>
-  <si>
-    <t>339/KISH/HFMLIP/PW-07  6th bill</t>
-  </si>
-  <si>
-    <t>340/KISH/HFMLIP/PW-24 6th bill</t>
-  </si>
-  <si>
-    <t>343/KISH/HFMLIP/PW-26 2nd bill</t>
-  </si>
-  <si>
-    <t>345/KISH/HFMLIP/PW-05 3rd bill</t>
-  </si>
-  <si>
-    <t>351/KISH/HFMLIP/PW-06 5th bill</t>
-  </si>
-  <si>
-    <t>346/KISH/HFMLIP/PW-03 6th bill</t>
-  </si>
-  <si>
-    <t>378/KISH/HFMLIP/PW-9 1st bill</t>
-  </si>
-  <si>
-    <t>388/KISH/HFMLIP/PW-20  1st bill</t>
-  </si>
-  <si>
-    <t>392KISH/HFMLIP/PW-14  6th bill</t>
-  </si>
-  <si>
-    <t>399/KISH/HFMLIP/PW-02 4th bill</t>
-  </si>
-  <si>
-    <t>400/KISH/HFMLIP/PW-18   2nd bill</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KISH-18 </t>
-  </si>
-  <si>
-    <t>401/KISH/HFMLIP/PW-24  7th bill</t>
-  </si>
-  <si>
-    <t>394KISH/HFMLIP/PW-10 3rd bill</t>
-  </si>
-  <si>
-    <t>396/KISH/HFMLIP/PW-06 6th bill</t>
-  </si>
-  <si>
-    <t>397/KISH/HFMLIP/PW-04 4th bill</t>
-  </si>
-  <si>
-    <t>398/KISH/HFMLIP/PW-13 4th bill</t>
-  </si>
-  <si>
-    <t>393/KISH/HFMLIP/PW-11 4th bill</t>
-  </si>
-  <si>
-    <t>395/KISH/HFMLIP/PW-17 4th bill</t>
-  </si>
-  <si>
-    <t>403/KISH/HFMLIP/PW-03 7th bill</t>
-  </si>
-  <si>
-    <t>402/KISH/HFMLIP/PW-16 5th bill</t>
-  </si>
-  <si>
-    <t>416/KISH/HFMLIP/PW-19 1st bill</t>
-  </si>
-  <si>
-    <t>KISH/HFMLIP/PW-15  2nd bill</t>
-  </si>
-  <si>
-    <t>152/HOBI/HFMLIP/PW-07 1st bill</t>
-  </si>
-  <si>
-    <t>216/HOBI/HFMLIP/PW-07 2nd bill</t>
-  </si>
-  <si>
-    <t>225/HOBI/HFMLIP/PW-04 1st bill</t>
-  </si>
-  <si>
-    <t>276/HOBI/HFMLIP/PW-04 3rd bill</t>
-  </si>
-  <si>
-    <t>277/HOBI/HFMLIP/PW-04  2nd bill</t>
-  </si>
-  <si>
-    <t>297/HOBI/HFMLIP/PW-06 1st bill</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HOBI-06 </t>
-  </si>
-  <si>
-    <t>344/HOBI/HFMLIP/PW-06 2th bill</t>
-  </si>
-  <si>
-    <t>387/HOBI/HFMLIP/PW-07 4th bill</t>
-  </si>
-  <si>
-    <t>313/NETRA/HFMLIP/PW-01 1st bill</t>
-  </si>
-  <si>
-    <t>199/NET/HFMLIP/PW-07  1st bill</t>
-  </si>
-  <si>
-    <t>231/NET/HFMLIP/PW-07 2nd bill</t>
-  </si>
-  <si>
-    <t>134/KISH/HFMLIP/PW-14 -2nd bill</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NETR-01 </t>
+    <t>126/Kish-02 1st Bill</t>
+  </si>
+  <si>
+    <t>149/Kish-07 1st Bill</t>
+  </si>
+  <si>
+    <t>152/Kish-02 .. Bill</t>
+  </si>
+  <si>
+    <t>176/Kish-13 1st Bill</t>
+  </si>
+  <si>
+    <t>197/Kish-14 1st Bill</t>
+  </si>
+  <si>
+    <t>198/Kish-5 1st Bill</t>
+  </si>
+  <si>
+    <t>201/Kish-6 1st Bill</t>
+  </si>
+  <si>
+    <t>234/Kish-13 2nd Bill</t>
+  </si>
+  <si>
+    <t>241/Kish-07 2nd Bill</t>
+  </si>
+  <si>
+    <t>242/Kish-03 1st Bill</t>
   </si>
 </sst>
 </file>
@@ -804,11 +581,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Calibri"/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -867,17 +643,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -890,11 +655,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -960,53 +738,38 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1295,11 +1058,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S72"/>
+  <dimension ref="A1:S23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V4" sqref="V4"/>
+      <selection pane="bottomLeft" activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1315,7 +1078,7 @@
     <col min="12" max="13" width="12.140625" customWidth="1"/>
     <col min="14" max="14" width="12" customWidth="1"/>
     <col min="15" max="16" width="13.85546875" customWidth="1"/>
-    <col min="17" max="17" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
@@ -1358,7 +1121,7 @@
       <c r="M1" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="N1" s="24" t="s">
+      <c r="N1" s="35" t="s">
         <v>14</v>
       </c>
       <c r="O1" s="24" t="s">
@@ -1368,10 +1131,10 @@
         <v>59</v>
       </c>
       <c r="Q1" s="24" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="R1" s="26" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="S1" s="26" t="s">
         <v>147</v>
@@ -1381,147 +1144,155 @@
       <c r="A2" s="27">
         <v>1</v>
       </c>
-      <c r="B2" s="28" t="s">
-        <v>160</v>
-      </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29">
-        <v>7238960.8200000003</v>
-      </c>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="31">
-        <v>868675.29799999995</v>
-      </c>
-      <c r="P2" s="31">
-        <v>6370285.5199999996</v>
-      </c>
-      <c r="Q2" s="37" t="s">
-        <v>113</v>
+      <c r="B2" s="31" t="s">
+        <v>162</v>
+      </c>
+      <c r="C2" s="29">
+        <v>0</v>
+      </c>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28">
+        <v>9871121</v>
+      </c>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="29">
+        <v>1085823</v>
+      </c>
+      <c r="P2" s="29">
+        <v>8785298</v>
+      </c>
+      <c r="Q2" s="17" t="s">
+        <v>112</v>
       </c>
       <c r="R2" s="29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S2" s="29">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:19" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="27">
         <v>2</v>
       </c>
-      <c r="B3" s="28" t="s">
-        <v>161</v>
-      </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29">
-        <v>9586696</v>
-      </c>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
-      <c r="N3" s="29"/>
-      <c r="O3" s="31">
-        <v>1246270.51</v>
-      </c>
-      <c r="P3" s="31">
-        <v>8340425.7300000004</v>
-      </c>
-      <c r="Q3" s="37" t="s">
-        <v>174</v>
+      <c r="B3" s="31" t="s">
+        <v>163</v>
+      </c>
+      <c r="C3" s="29">
+        <v>0</v>
+      </c>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28">
+        <v>9485898</v>
+      </c>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="28"/>
+      <c r="N3" s="28"/>
+      <c r="O3" s="29">
+        <v>1138308</v>
+      </c>
+      <c r="P3" s="29">
+        <v>8442449</v>
+      </c>
+      <c r="Q3" s="17" t="s">
+        <v>115</v>
       </c>
       <c r="R3" s="29">
+        <v>1</v>
+      </c>
+      <c r="S3" s="29">
         <v>3</v>
-      </c>
-      <c r="S3" s="29">
-        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:19" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="27">
         <v>3</v>
       </c>
-      <c r="B4" s="28" t="s">
-        <v>162</v>
-      </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29">
-        <v>8142995.5</v>
-      </c>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="29"/>
-      <c r="N4" s="29"/>
-      <c r="O4" s="31">
-        <v>977159.46</v>
-      </c>
-      <c r="P4" s="31">
-        <v>7165836.04</v>
-      </c>
-      <c r="Q4" s="37" t="s">
-        <v>175</v>
+      <c r="B4" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="C4" s="29">
+        <v>0</v>
+      </c>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28">
+        <v>14978253</v>
+      </c>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="29">
+        <v>898695</v>
+      </c>
+      <c r="P4" s="29">
+        <v>13180863</v>
+      </c>
+      <c r="Q4" s="17" t="s">
+        <v>112</v>
       </c>
       <c r="R4" s="29">
+        <v>2</v>
+      </c>
+      <c r="S4" s="29">
         <v>3</v>
-      </c>
-      <c r="S4" s="29">
-        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:19" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="27">
         <v>4</v>
       </c>
-      <c r="B5" s="28" t="s">
-        <v>163</v>
-      </c>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29">
-        <v>9771138.6500000004</v>
-      </c>
-      <c r="K5" s="29"/>
-      <c r="L5" s="29"/>
-      <c r="M5" s="29"/>
-      <c r="N5" s="29"/>
-      <c r="O5" s="31">
-        <v>1270248.02</v>
-      </c>
-      <c r="P5" s="31">
-        <v>8500890.6199999992</v>
-      </c>
-      <c r="Q5" s="37" t="s">
-        <v>176</v>
+      <c r="B5" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="C5" s="29">
+        <v>0</v>
+      </c>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28">
+        <v>14259856</v>
+      </c>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="28"/>
+      <c r="M5" s="28"/>
+      <c r="N5" s="28"/>
+      <c r="O5" s="29">
+        <v>1853781</v>
+      </c>
+      <c r="P5" s="29">
+        <v>12406075</v>
+      </c>
+      <c r="Q5" s="17" t="s">
+        <v>119</v>
       </c>
       <c r="R5" s="29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S5" s="29">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:19" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -1529,73 +1300,77 @@
         <v>5</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>164</v>
-      </c>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29">
-        <v>10845170.050000001</v>
-      </c>
-      <c r="K6" s="29"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="29"/>
-      <c r="N6" s="29"/>
-      <c r="O6" s="31">
-        <v>1301420.4099999999</v>
-      </c>
-      <c r="P6" s="31">
-        <v>9543749.6400000006</v>
-      </c>
-      <c r="Q6" s="38" t="s">
-        <v>115</v>
+        <v>166</v>
+      </c>
+      <c r="C6" s="29">
+        <v>0</v>
+      </c>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28">
+        <v>4144654</v>
+      </c>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="28"/>
+      <c r="N6" s="28"/>
+      <c r="O6" s="29">
+        <v>497358</v>
+      </c>
+      <c r="P6" s="29">
+        <v>3647296</v>
+      </c>
+      <c r="Q6" s="17" t="s">
+        <v>120</v>
       </c>
       <c r="R6" s="29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S6" s="29">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="27">
         <v>6</v>
       </c>
-      <c r="B7" s="33" t="s">
-        <v>165</v>
-      </c>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29">
-        <v>15413804.93</v>
-      </c>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="29"/>
-      <c r="N7" s="29"/>
-      <c r="O7" s="31">
-        <v>1849656.59</v>
-      </c>
-      <c r="P7" s="31">
-        <v>13564148.34</v>
-      </c>
-      <c r="Q7" s="39" t="s">
-        <v>113</v>
+      <c r="B7" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="C7" s="29">
+        <v>0</v>
+      </c>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28">
+        <v>9280540</v>
+      </c>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="28"/>
+      <c r="N7" s="28"/>
+      <c r="O7" s="28">
+        <v>1113665</v>
+      </c>
+      <c r="P7" s="28">
+        <v>8166875</v>
+      </c>
+      <c r="Q7" s="17" t="s">
+        <v>78</v>
       </c>
       <c r="R7" s="29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S7" s="29">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.25">
@@ -1603,2449 +1378,187 @@
         <v>7</v>
       </c>
       <c r="B8" s="34" t="s">
-        <v>244</v>
-      </c>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29">
-        <v>15640359.83</v>
-      </c>
-      <c r="K8" s="29"/>
-      <c r="L8" s="29"/>
-      <c r="M8" s="29"/>
-      <c r="N8" s="29"/>
-      <c r="O8" s="31">
-        <v>1876843.18</v>
-      </c>
-      <c r="P8" s="31">
-        <v>13763516.65</v>
-      </c>
-      <c r="Q8" s="40" t="s">
-        <v>177</v>
-      </c>
-      <c r="R8" s="29">
-        <v>3</v>
+        <v>168</v>
+      </c>
+      <c r="C8" s="29">
+        <v>0</v>
+      </c>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28">
+        <v>4132973.5</v>
+      </c>
+      <c r="F8" s="28">
+        <v>6195366.8830000004</v>
+      </c>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="28"/>
+      <c r="M8" s="28"/>
+      <c r="N8" s="28"/>
+      <c r="O8" s="29">
+        <v>1239401</v>
+      </c>
+      <c r="P8" s="33">
+        <v>9088939</v>
+      </c>
+      <c r="Q8" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="R8" s="37">
+        <v>1</v>
       </c>
       <c r="S8" s="29">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:19" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="27">
-        <v>8</v>
-      </c>
-      <c r="B9" s="28" t="s">
-        <v>166</v>
-      </c>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29">
-        <v>13008328.869999999</v>
-      </c>
-      <c r="K9" s="29"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="29"/>
-      <c r="N9" s="29"/>
-      <c r="O9" s="31">
-        <v>1691082.75</v>
-      </c>
-      <c r="P9" s="31">
-        <v>11317246.119999999</v>
-      </c>
-      <c r="Q9" s="37" t="s">
-        <v>176</v>
+        <v>10</v>
+      </c>
+      <c r="B9" s="31" t="s">
+        <v>169</v>
+      </c>
+      <c r="C9" s="29">
+        <v>0</v>
+      </c>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28">
+        <v>2555298.56</v>
+      </c>
+      <c r="K9" s="28"/>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="29">
+        <v>332188.81</v>
+      </c>
+      <c r="P9" s="29">
+        <v>2223109.7400000002</v>
+      </c>
+      <c r="Q9" s="17" t="s">
+        <v>119</v>
       </c>
       <c r="R9" s="29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S9" s="29">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:19" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="27">
-        <v>9</v>
-      </c>
-      <c r="B10" s="28" t="s">
-        <v>167</v>
-      </c>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29">
-        <v>14646053</v>
-      </c>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="29"/>
-      <c r="L10" s="29"/>
-      <c r="M10" s="29"/>
-      <c r="N10" s="29"/>
-      <c r="O10" s="31">
-        <v>1757526.36</v>
-      </c>
-      <c r="P10" s="31">
-        <v>12888526.640000001</v>
-      </c>
-      <c r="Q10" s="37" t="s">
-        <v>178</v>
+        <v>11</v>
+      </c>
+      <c r="B10" s="31" t="s">
+        <v>170</v>
+      </c>
+      <c r="C10" s="29">
+        <v>0</v>
+      </c>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28">
+        <v>967951</v>
+      </c>
+      <c r="K10" s="28"/>
+      <c r="L10" s="28"/>
+      <c r="M10" s="28"/>
+      <c r="N10" s="28"/>
+      <c r="O10" s="29">
+        <v>116154</v>
+      </c>
+      <c r="P10" s="29">
+        <v>851797</v>
+      </c>
+      <c r="Q10" s="17" t="s">
+        <v>115</v>
       </c>
       <c r="R10" s="29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S10" s="29">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:19" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="27">
-        <v>10</v>
-      </c>
-      <c r="B11" s="28" t="s">
-        <v>168</v>
-      </c>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29">
-        <v>10200030</v>
-      </c>
-      <c r="K11" s="29"/>
-      <c r="L11" s="29"/>
-      <c r="M11" s="29"/>
-      <c r="N11" s="29"/>
-      <c r="O11" s="31">
-        <v>1326003.8999999999</v>
-      </c>
-      <c r="P11" s="31">
-        <v>8874026.0999999996</v>
-      </c>
-      <c r="Q11" s="37" t="s">
-        <v>179</v>
+        <v>12</v>
+      </c>
+      <c r="B11" s="31" t="s">
+        <v>171</v>
+      </c>
+      <c r="C11" s="29">
+        <v>0</v>
+      </c>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28">
+        <v>2963861</v>
+      </c>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28">
+        <v>2323597</v>
+      </c>
+      <c r="K11" s="28"/>
+      <c r="L11" s="28"/>
+      <c r="M11" s="28"/>
+      <c r="N11" s="28"/>
+      <c r="O11" s="29">
+        <v>634495</v>
+      </c>
+      <c r="P11" s="29">
+        <v>4652963</v>
+      </c>
+      <c r="Q11" s="17" t="s">
+        <v>113</v>
       </c>
       <c r="R11" s="29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S11" s="29">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="27">
-        <v>11</v>
-      </c>
-      <c r="B12" s="28" t="s">
-        <v>169</v>
-      </c>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29">
-        <v>15026301.550000001</v>
-      </c>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="29"/>
-      <c r="M12" s="29"/>
-      <c r="N12" s="29"/>
-      <c r="O12" s="31">
-        <v>1953419.2</v>
-      </c>
-      <c r="P12" s="31">
-        <v>13072882.35</v>
-      </c>
-      <c r="Q12" s="37" t="s">
-        <v>118</v>
-      </c>
-      <c r="R12" s="29">
-        <v>3</v>
-      </c>
-      <c r="S12" s="29">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="27">
-        <v>12</v>
-      </c>
-      <c r="B13" s="28" t="s">
-        <v>170</v>
-      </c>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29">
-        <v>11242690.49</v>
-      </c>
-      <c r="K13" s="29"/>
-      <c r="L13" s="29"/>
-      <c r="M13" s="29"/>
-      <c r="N13" s="29"/>
-      <c r="O13" s="31">
-        <v>1349122.86</v>
-      </c>
-      <c r="P13" s="31">
-        <v>9893567.6300000008</v>
-      </c>
-      <c r="Q13" s="37" t="s">
-        <v>180</v>
-      </c>
-      <c r="R13" s="29">
-        <v>3</v>
-      </c>
-      <c r="S13" s="29">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="27">
-        <v>13</v>
-      </c>
-      <c r="B14" s="28" t="s">
-        <v>171</v>
-      </c>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29">
-        <v>7938245.9500000002</v>
-      </c>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="29">
-        <v>7599197.4000000004</v>
-      </c>
-      <c r="K14" s="29"/>
-      <c r="L14" s="29"/>
-      <c r="M14" s="29"/>
-      <c r="N14" s="29"/>
-      <c r="O14" s="31">
-        <v>2019867.63</v>
-      </c>
-      <c r="P14" s="31">
-        <v>13517575.720000001</v>
-      </c>
-      <c r="Q14" s="37" t="s">
-        <v>89</v>
-      </c>
-      <c r="R14" s="29">
-        <v>3</v>
-      </c>
-      <c r="S14" s="29">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="27">
-        <v>14</v>
-      </c>
-      <c r="B15" s="28" t="s">
-        <v>232</v>
-      </c>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29">
-        <v>12721273.99</v>
-      </c>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="29"/>
-      <c r="L15" s="29"/>
-      <c r="M15" s="29"/>
-      <c r="N15" s="29"/>
-      <c r="O15" s="31">
-        <v>1526552.88</v>
-      </c>
-      <c r="P15" s="31">
-        <v>11194721.109999999</v>
-      </c>
-      <c r="Q15" s="37" t="s">
-        <v>181</v>
-      </c>
-      <c r="R15" s="29">
-        <v>3</v>
-      </c>
-      <c r="S15" s="29">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="27">
-        <v>15</v>
-      </c>
-      <c r="B16" s="28" t="s">
-        <v>182</v>
-      </c>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29">
-        <v>8572627.9900000002</v>
-      </c>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29">
-        <v>538980.39</v>
-      </c>
-      <c r="K16" s="29"/>
-      <c r="L16" s="29"/>
-      <c r="M16" s="29"/>
-      <c r="N16" s="29"/>
-      <c r="O16" s="31">
-        <v>1184509.0900000001</v>
-      </c>
-      <c r="P16" s="31">
-        <v>7927099.29</v>
-      </c>
-      <c r="Q16" s="37" t="s">
-        <v>89</v>
-      </c>
-      <c r="R16" s="29">
-        <v>3</v>
-      </c>
-      <c r="S16" s="29">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="27">
-        <v>16</v>
-      </c>
-      <c r="B17" s="28" t="s">
-        <v>183</v>
-      </c>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="29">
-        <v>9075186.2300000004</v>
-      </c>
-      <c r="K17" s="29"/>
-      <c r="L17" s="29"/>
-      <c r="M17" s="29"/>
-      <c r="N17" s="29"/>
-      <c r="O17" s="31">
-        <v>1179774.21</v>
-      </c>
-      <c r="P17" s="31">
-        <v>7895412.0199999996</v>
-      </c>
-      <c r="Q17" s="37" t="s">
-        <v>127</v>
-      </c>
-      <c r="R17" s="29">
-        <v>3</v>
-      </c>
-      <c r="S17" s="29">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="27">
-        <v>17</v>
-      </c>
-      <c r="B18" s="28" t="s">
-        <v>184</v>
-      </c>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="29">
-        <v>8425905.7300000004</v>
-      </c>
-      <c r="K18" s="29"/>
-      <c r="L18" s="29"/>
-      <c r="M18" s="29"/>
-      <c r="N18" s="29"/>
-      <c r="O18" s="31">
-        <v>1011108.69</v>
-      </c>
-      <c r="P18" s="31">
-        <v>7414797.04</v>
-      </c>
-      <c r="Q18" s="37" t="s">
-        <v>120</v>
-      </c>
-      <c r="R18" s="29">
-        <v>3</v>
-      </c>
-      <c r="S18" s="29">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="27">
-        <v>18</v>
-      </c>
-      <c r="B19" s="28" t="s">
-        <v>185</v>
-      </c>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="29">
-        <v>6333083.3899999997</v>
-      </c>
-      <c r="K19" s="29"/>
-      <c r="L19" s="29"/>
-      <c r="M19" s="29"/>
-      <c r="N19" s="29"/>
-      <c r="O19" s="31">
-        <v>759970.01</v>
-      </c>
-      <c r="P19" s="31">
-        <v>5573113.3799999999</v>
-      </c>
-      <c r="Q19" s="37" t="s">
-        <v>115</v>
-      </c>
-      <c r="R19" s="29">
-        <v>3</v>
-      </c>
-      <c r="S19" s="29">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="27">
-        <v>19</v>
-      </c>
-      <c r="B20" s="28" t="s">
-        <v>186</v>
-      </c>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29">
-        <v>4523754.4400000004</v>
-      </c>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="29"/>
-      <c r="J20" s="29">
-        <v>10972049.369999999</v>
-      </c>
-      <c r="K20" s="29"/>
-      <c r="L20" s="29"/>
-      <c r="M20" s="29"/>
-      <c r="N20" s="29"/>
-      <c r="O20" s="31">
-        <v>2014454.5</v>
-      </c>
-      <c r="P20" s="31">
-        <v>13481349.310000001</v>
-      </c>
-      <c r="Q20" s="37" t="s">
-        <v>118</v>
-      </c>
-      <c r="R20" s="29">
-        <v>3</v>
-      </c>
-      <c r="S20" s="29">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="27">
-        <v>20</v>
-      </c>
-      <c r="B21" s="28" t="s">
-        <v>187</v>
-      </c>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29">
-        <v>16019866.529999999</v>
-      </c>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="29"/>
-      <c r="J21" s="29"/>
-      <c r="K21" s="29"/>
-      <c r="L21" s="29"/>
-      <c r="M21" s="29"/>
-      <c r="N21" s="29"/>
-      <c r="O21" s="31">
-        <v>1922383.98</v>
-      </c>
-      <c r="P21" s="31">
-        <v>14097482.550000001</v>
-      </c>
-      <c r="Q21" s="37" t="s">
-        <v>78</v>
-      </c>
-      <c r="R21" s="29">
-        <v>3</v>
-      </c>
-      <c r="S21" s="29">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="27">
-        <v>21</v>
-      </c>
-      <c r="B22" s="28" t="s">
-        <v>188</v>
-      </c>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="29"/>
-      <c r="J22" s="29">
-        <v>10955536.74</v>
-      </c>
-      <c r="K22" s="29"/>
-      <c r="L22" s="29"/>
-      <c r="M22" s="29"/>
-      <c r="N22" s="29"/>
-      <c r="O22" s="31">
-        <v>1424219.78</v>
-      </c>
-      <c r="P22" s="31">
-        <v>9531316.9600000009</v>
-      </c>
-      <c r="Q22" s="37" t="s">
-        <v>117</v>
-      </c>
-      <c r="R22" s="29">
-        <v>3</v>
-      </c>
-      <c r="S22" s="29">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="27">
-        <v>22</v>
-      </c>
-      <c r="B23" s="28" t="s">
-        <v>189</v>
-      </c>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29">
-        <v>14734547.110000001</v>
-      </c>
-      <c r="F23" s="29"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="29"/>
-      <c r="J23" s="29">
-        <v>4190076.42</v>
-      </c>
-      <c r="K23" s="29"/>
-      <c r="L23" s="29"/>
-      <c r="M23" s="29"/>
-      <c r="N23" s="29"/>
-      <c r="O23" s="31">
-        <v>2460201.06</v>
-      </c>
-      <c r="P23" s="31">
-        <v>16464422.470000001</v>
-      </c>
-      <c r="Q23" s="37" t="s">
-        <v>114</v>
-      </c>
-      <c r="R23" s="29">
-        <v>3</v>
-      </c>
-      <c r="S23" s="29">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="27">
-        <v>23</v>
-      </c>
-      <c r="B24" s="28" t="s">
-        <v>242</v>
-      </c>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="29">
-        <v>13013709.810000001</v>
-      </c>
-      <c r="H24" s="29"/>
-      <c r="I24" s="29"/>
-      <c r="J24" s="29"/>
-      <c r="K24" s="29"/>
-      <c r="L24" s="29"/>
-      <c r="M24" s="29"/>
-      <c r="N24" s="29"/>
-      <c r="O24" s="31">
-        <v>1691782.28</v>
-      </c>
-      <c r="P24" s="31">
-        <v>11321927.529999999</v>
-      </c>
-      <c r="Q24" s="28" t="s">
-        <v>139</v>
-      </c>
-      <c r="R24" s="29">
-        <v>3</v>
-      </c>
-      <c r="S24" s="29">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="27">
-        <v>24</v>
-      </c>
-      <c r="B25" s="28" t="s">
-        <v>190</v>
-      </c>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="29">
-        <v>16668436.08</v>
-      </c>
-      <c r="F25" s="29"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="29"/>
-      <c r="I25" s="29"/>
-      <c r="J25" s="29">
-        <v>291451.92</v>
-      </c>
-      <c r="K25" s="29"/>
-      <c r="L25" s="29"/>
-      <c r="M25" s="29"/>
-      <c r="N25" s="29"/>
-      <c r="O25" s="31">
-        <v>2204785.4700000002</v>
-      </c>
-      <c r="P25" s="31">
-        <v>14755102.76</v>
-      </c>
-      <c r="Q25" s="37" t="s">
-        <v>119</v>
-      </c>
-      <c r="R25" s="29">
-        <v>3</v>
-      </c>
-      <c r="S25" s="29">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="27">
-        <v>25</v>
-      </c>
-      <c r="B26" s="28" t="s">
-        <v>191</v>
-      </c>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="29"/>
-      <c r="I26" s="29"/>
-      <c r="J26" s="29">
-        <v>6988914</v>
-      </c>
-      <c r="K26" s="29"/>
-      <c r="L26" s="29"/>
-      <c r="M26" s="29"/>
-      <c r="N26" s="29"/>
-      <c r="O26" s="31">
-        <v>908558.82</v>
-      </c>
-      <c r="P26" s="31">
-        <v>6080355.1799999997</v>
-      </c>
-      <c r="Q26" s="37" t="s">
-        <v>127</v>
-      </c>
-      <c r="R26" s="29">
-        <v>3</v>
-      </c>
-      <c r="S26" s="29">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="27">
-        <v>26</v>
-      </c>
-      <c r="B27" s="28" t="s">
-        <v>192</v>
-      </c>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="29"/>
-      <c r="I27" s="29"/>
-      <c r="J27" s="29">
-        <v>13968595.560000001</v>
-      </c>
-      <c r="K27" s="29"/>
-      <c r="L27" s="29"/>
-      <c r="M27" s="29"/>
-      <c r="N27" s="29"/>
-      <c r="O27" s="31">
-        <v>1815917.41</v>
-      </c>
-      <c r="P27" s="31">
-        <v>12152678.140000001</v>
-      </c>
-      <c r="Q27" s="37" t="s">
-        <v>89</v>
-      </c>
-      <c r="R27" s="29">
-        <v>3</v>
-      </c>
-      <c r="S27" s="29">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="27">
-        <v>27</v>
-      </c>
-      <c r="B28" s="28" t="s">
-        <v>193</v>
-      </c>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="29">
-        <v>8153224.5599999996</v>
-      </c>
-      <c r="F28" s="29"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="29"/>
-      <c r="I28" s="29"/>
-      <c r="J28" s="29">
-        <v>2054495.11</v>
-      </c>
-      <c r="K28" s="29"/>
-      <c r="L28" s="29"/>
-      <c r="M28" s="29"/>
-      <c r="N28" s="29"/>
-      <c r="O28" s="31">
-        <v>1327003.56</v>
-      </c>
-      <c r="P28" s="31">
-        <v>8880716.1099999994</v>
-      </c>
-      <c r="Q28" s="37" t="s">
-        <v>122</v>
-      </c>
-      <c r="R28" s="29">
-        <v>3</v>
-      </c>
-      <c r="S28" s="29">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="27">
-        <v>28</v>
-      </c>
-      <c r="B29" s="28" t="s">
-        <v>194</v>
-      </c>
-      <c r="C29" s="29"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="29">
-        <v>2845817.91</v>
-      </c>
-      <c r="G29" s="29"/>
-      <c r="H29" s="29"/>
-      <c r="I29" s="29"/>
-      <c r="J29" s="29"/>
-      <c r="K29" s="29"/>
-      <c r="L29" s="29"/>
-      <c r="M29" s="29"/>
-      <c r="N29" s="29"/>
-      <c r="O29" s="31">
-        <v>341498.15</v>
-      </c>
-      <c r="P29" s="31">
-        <v>2504319.7599999998</v>
-      </c>
-      <c r="Q29" s="37" t="s">
-        <v>129</v>
-      </c>
-      <c r="R29" s="29">
-        <v>3</v>
-      </c>
-      <c r="S29" s="29">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="27">
-        <v>29</v>
-      </c>
-      <c r="B30" s="28" t="s">
-        <v>233</v>
-      </c>
-      <c r="C30" s="29"/>
-      <c r="D30" s="29"/>
-      <c r="E30" s="29">
-        <v>20920389.859999999</v>
-      </c>
-      <c r="F30" s="29"/>
-      <c r="G30" s="29"/>
-      <c r="H30" s="29"/>
-      <c r="I30" s="29"/>
-      <c r="J30" s="29"/>
-      <c r="K30" s="29"/>
-      <c r="L30" s="29"/>
-      <c r="M30" s="29"/>
-      <c r="N30" s="29"/>
-      <c r="O30" s="31">
-        <v>2510446.7799999998</v>
-      </c>
-      <c r="P30" s="31">
-        <v>18409943.300000001</v>
-      </c>
-      <c r="Q30" s="37" t="s">
-        <v>181</v>
-      </c>
-      <c r="R30" s="29">
-        <v>3</v>
-      </c>
-      <c r="S30" s="29">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="27">
-        <v>30</v>
-      </c>
-      <c r="B31" s="28" t="s">
-        <v>195</v>
-      </c>
-      <c r="C31" s="29"/>
-      <c r="D31" s="29"/>
-      <c r="E31" s="29">
-        <v>6371395.0199999996</v>
-      </c>
-      <c r="F31" s="29"/>
-      <c r="G31" s="29"/>
-      <c r="H31" s="29"/>
-      <c r="I31" s="29"/>
-      <c r="J31" s="29">
-        <v>57426.95</v>
-      </c>
-      <c r="K31" s="29"/>
-      <c r="L31" s="29"/>
-      <c r="M31" s="29"/>
-      <c r="N31" s="29"/>
-      <c r="O31" s="31">
-        <v>771458.64</v>
-      </c>
-      <c r="P31" s="31">
-        <v>5657363.3399999999</v>
-      </c>
-      <c r="Q31" s="37" t="s">
-        <v>120</v>
-      </c>
-      <c r="R31" s="29">
-        <v>3</v>
-      </c>
-      <c r="S31" s="29">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="27">
-        <v>31</v>
-      </c>
-      <c r="B32" s="28" t="s">
-        <v>234</v>
-      </c>
-      <c r="C32" s="29"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="29"/>
-      <c r="G32" s="29"/>
-      <c r="H32" s="29"/>
-      <c r="I32" s="29"/>
-      <c r="J32" s="29">
-        <v>21272374</v>
-      </c>
-      <c r="K32" s="29"/>
-      <c r="L32" s="29"/>
-      <c r="M32" s="29"/>
-      <c r="N32" s="29"/>
-      <c r="O32" s="31">
-        <v>2765408.62</v>
-      </c>
-      <c r="P32" s="31">
-        <v>18506965.379999999</v>
-      </c>
-      <c r="Q32" s="37" t="s">
-        <v>86</v>
-      </c>
-      <c r="R32" s="29">
-        <v>3</v>
-      </c>
-      <c r="S32" s="29">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="27">
-        <v>32</v>
-      </c>
-      <c r="B33" s="28" t="s">
-        <v>243</v>
-      </c>
-      <c r="C33" s="29"/>
-      <c r="D33" s="29"/>
-      <c r="E33" s="29"/>
-      <c r="F33" s="29">
-        <v>24881290.649999999</v>
-      </c>
-      <c r="G33" s="29"/>
-      <c r="H33" s="29"/>
-      <c r="I33" s="29"/>
-      <c r="J33" s="29"/>
-      <c r="K33" s="29"/>
-      <c r="L33" s="29"/>
-      <c r="M33" s="29"/>
-      <c r="N33" s="29"/>
-      <c r="O33" s="31">
-        <v>3234567.78</v>
-      </c>
-      <c r="P33" s="31">
-        <v>21646722.870000001</v>
-      </c>
-      <c r="Q33" s="37" t="s">
-        <v>139</v>
-      </c>
-      <c r="R33" s="29">
-        <v>3</v>
-      </c>
-      <c r="S33" s="29">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="27">
-        <v>33</v>
-      </c>
-      <c r="B34" s="28" t="s">
-        <v>196</v>
-      </c>
-      <c r="C34" s="29"/>
-      <c r="D34" s="29"/>
-      <c r="E34" s="29"/>
-      <c r="F34" s="29">
-        <v>2219849.34</v>
-      </c>
-      <c r="G34" s="29"/>
-      <c r="H34" s="29"/>
-      <c r="I34" s="29"/>
-      <c r="J34" s="29"/>
-      <c r="K34" s="29"/>
-      <c r="L34" s="29"/>
-      <c r="M34" s="29"/>
-      <c r="N34" s="29"/>
-      <c r="O34" s="31">
-        <v>288580.40999999997</v>
-      </c>
-      <c r="P34" s="31">
-        <v>1931268.93</v>
-      </c>
-      <c r="Q34" s="37" t="s">
-        <v>123</v>
-      </c>
-      <c r="R34" s="29">
-        <v>3</v>
-      </c>
-      <c r="S34" s="29">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="27">
-        <v>34</v>
-      </c>
-      <c r="B35" s="28" t="s">
-        <v>197</v>
-      </c>
-      <c r="C35" s="29"/>
-      <c r="D35" s="29"/>
-      <c r="E35" s="29">
-        <v>1212624.81</v>
-      </c>
-      <c r="F35" s="29">
-        <v>8857010.9600000009</v>
-      </c>
-      <c r="G35" s="29"/>
-      <c r="H35" s="29"/>
-      <c r="I35" s="29"/>
-      <c r="J35" s="29"/>
-      <c r="K35" s="29"/>
-      <c r="L35" s="29"/>
-      <c r="M35" s="29"/>
-      <c r="N35" s="29"/>
-      <c r="O35" s="31">
-        <v>1208356.32</v>
-      </c>
-      <c r="P35" s="31">
-        <v>8861279.6799999997</v>
-      </c>
-      <c r="Q35" s="37" t="s">
-        <v>84</v>
-      </c>
-      <c r="R35" s="29">
-        <v>3</v>
-      </c>
-      <c r="S35" s="29">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="27">
-        <v>35</v>
-      </c>
-      <c r="B36" s="35" t="s">
-        <v>198</v>
-      </c>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="31">
-        <v>7949616.7400000002</v>
-      </c>
-      <c r="K36" s="31"/>
-      <c r="L36" s="31"/>
-      <c r="M36" s="31"/>
-      <c r="N36" s="31"/>
-      <c r="O36" s="31">
-        <v>1033450.21</v>
-      </c>
-      <c r="P36" s="31">
-        <v>6916166.79</v>
-      </c>
-      <c r="Q36" s="41" t="s">
-        <v>122</v>
-      </c>
-      <c r="R36" s="31">
-        <v>3</v>
-      </c>
-      <c r="S36" s="31">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="27">
-        <v>36</v>
-      </c>
-      <c r="B37" s="28" t="s">
-        <v>199</v>
-      </c>
-      <c r="C37" s="31"/>
-      <c r="D37" s="31"/>
-      <c r="E37" s="31"/>
-      <c r="F37" s="31"/>
-      <c r="G37" s="31"/>
-      <c r="H37" s="31"/>
-      <c r="I37" s="31"/>
-      <c r="J37" s="31">
-        <v>16684473</v>
-      </c>
-      <c r="K37" s="31"/>
-      <c r="L37" s="31"/>
-      <c r="M37" s="31"/>
-      <c r="N37" s="31"/>
-      <c r="O37" s="31">
-        <v>2168981.4900000002</v>
-      </c>
-      <c r="P37" s="31">
-        <v>14515491.51</v>
-      </c>
-      <c r="Q37" s="37" t="s">
-        <v>200</v>
-      </c>
-      <c r="R37" s="31">
-        <v>3</v>
-      </c>
-      <c r="S37" s="31">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="27">
-        <v>37</v>
-      </c>
-      <c r="B38" s="28" t="s">
-        <v>241</v>
-      </c>
-      <c r="C38" s="31"/>
-      <c r="D38" s="31"/>
-      <c r="E38" s="31"/>
-      <c r="F38" s="31"/>
-      <c r="G38" s="31"/>
-      <c r="H38" s="31"/>
-      <c r="I38" s="31">
-        <v>6217683</v>
-      </c>
-      <c r="J38" s="31"/>
-      <c r="K38" s="31"/>
-      <c r="L38" s="31"/>
-      <c r="M38" s="31"/>
-      <c r="N38" s="31"/>
-      <c r="O38" s="31">
-        <v>808298.79</v>
-      </c>
-      <c r="P38" s="31">
-        <v>5409384</v>
-      </c>
-      <c r="Q38" s="37" t="s">
-        <v>245</v>
-      </c>
-      <c r="R38" s="31">
-        <v>3</v>
-      </c>
-      <c r="S38" s="31">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="27">
-        <v>38</v>
-      </c>
-      <c r="B39" s="28" t="s">
-        <v>201</v>
-      </c>
-      <c r="C39" s="31"/>
-      <c r="D39" s="31"/>
-      <c r="E39" s="31">
-        <v>6062089</v>
-      </c>
-      <c r="F39" s="31"/>
-      <c r="G39" s="31"/>
-      <c r="H39" s="31"/>
-      <c r="I39" s="31"/>
-      <c r="J39" s="31"/>
-      <c r="K39" s="31"/>
-      <c r="L39" s="31"/>
-      <c r="M39" s="31"/>
-      <c r="N39" s="31"/>
-      <c r="O39" s="31">
-        <v>727450.68</v>
-      </c>
-      <c r="P39" s="31">
-        <v>5334638.32</v>
-      </c>
-      <c r="Q39" s="37" t="s">
-        <v>84</v>
-      </c>
-      <c r="R39" s="31">
-        <v>3</v>
-      </c>
-      <c r="S39" s="31">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:19" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="27">
-        <v>39</v>
-      </c>
-      <c r="B40" s="28" t="s">
-        <v>235</v>
-      </c>
-      <c r="C40" s="31"/>
-      <c r="D40" s="31"/>
-      <c r="E40" s="31"/>
-      <c r="F40" s="31">
-        <v>5732493</v>
-      </c>
-      <c r="G40" s="31"/>
-      <c r="H40" s="31"/>
-      <c r="I40" s="31"/>
-      <c r="J40" s="31"/>
-      <c r="K40" s="31"/>
-      <c r="L40" s="31"/>
-      <c r="M40" s="31"/>
-      <c r="N40" s="31"/>
-      <c r="O40" s="31">
-        <v>687899.16</v>
-      </c>
-      <c r="P40" s="31">
-        <v>5044593.84</v>
-      </c>
-      <c r="Q40" s="37" t="s">
-        <v>86</v>
-      </c>
-      <c r="R40" s="31">
-        <v>3</v>
-      </c>
-      <c r="S40" s="31">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:19" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="27">
-        <v>40</v>
-      </c>
-      <c r="B41" s="28" t="s">
-        <v>236</v>
-      </c>
-      <c r="C41" s="31"/>
-      <c r="D41" s="31"/>
-      <c r="E41" s="31"/>
-      <c r="F41" s="31"/>
-      <c r="G41" s="31"/>
-      <c r="H41" s="31"/>
-      <c r="I41" s="31"/>
-      <c r="J41" s="31">
-        <v>25543086</v>
-      </c>
-      <c r="K41" s="31"/>
-      <c r="L41" s="31"/>
-      <c r="M41" s="31"/>
-      <c r="N41" s="31"/>
-      <c r="O41" s="31">
-        <v>3320601.18</v>
-      </c>
-      <c r="P41" s="31">
-        <v>22222484</v>
-      </c>
-      <c r="Q41" s="37" t="s">
-        <v>86</v>
-      </c>
-      <c r="R41" s="31">
-        <v>3</v>
-      </c>
-      <c r="S41" s="31">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="1:19" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="27">
-        <v>41</v>
-      </c>
-      <c r="B42" s="35" t="s">
-        <v>202</v>
-      </c>
-      <c r="C42" s="31"/>
-      <c r="D42" s="31"/>
-      <c r="E42" s="31"/>
-      <c r="F42" s="31"/>
-      <c r="G42" s="31"/>
-      <c r="H42" s="31"/>
-      <c r="I42" s="31"/>
-      <c r="J42" s="31">
-        <v>15104005</v>
-      </c>
-      <c r="K42" s="31"/>
-      <c r="L42" s="31"/>
-      <c r="M42" s="31"/>
-      <c r="N42" s="31"/>
-      <c r="O42" s="31">
-        <v>1812480.6</v>
-      </c>
-      <c r="P42" s="31">
-        <v>13291524.4</v>
-      </c>
-      <c r="Q42" s="41" t="s">
-        <v>203</v>
-      </c>
-      <c r="R42" s="31">
-        <v>3</v>
-      </c>
-      <c r="S42" s="31">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:19" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="27">
-        <v>42</v>
-      </c>
-      <c r="B43" s="28" t="s">
-        <v>204</v>
-      </c>
-      <c r="C43" s="31"/>
-      <c r="D43" s="31"/>
-      <c r="E43" s="31"/>
-      <c r="F43" s="31">
-        <v>6079272</v>
-      </c>
-      <c r="G43" s="31"/>
-      <c r="H43" s="31"/>
-      <c r="I43" s="31"/>
-      <c r="J43" s="31"/>
-      <c r="K43" s="31"/>
-      <c r="L43" s="31"/>
-      <c r="M43" s="31"/>
-      <c r="N43" s="31"/>
-      <c r="O43" s="31">
-        <v>790305.35</v>
-      </c>
-      <c r="P43" s="31">
-        <v>5288966.6399999997</v>
-      </c>
-      <c r="Q43" s="37" t="s">
-        <v>122</v>
-      </c>
-      <c r="R43" s="31">
-        <v>3</v>
-      </c>
-      <c r="S43" s="31">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:19" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="27">
-        <v>43</v>
-      </c>
-      <c r="B44" s="35" t="s">
-        <v>205</v>
-      </c>
-      <c r="C44" s="31"/>
-      <c r="D44" s="31"/>
-      <c r="E44" s="31">
-        <v>4053916</v>
-      </c>
-      <c r="F44" s="31"/>
-      <c r="G44" s="31"/>
-      <c r="H44" s="31"/>
-      <c r="I44" s="31"/>
-      <c r="J44" s="31"/>
-      <c r="K44" s="31"/>
-      <c r="L44" s="31"/>
-      <c r="M44" s="31"/>
-      <c r="N44" s="31"/>
-      <c r="O44" s="31">
-        <v>527009.07999999996</v>
-      </c>
-      <c r="P44" s="31">
-        <v>3526906.92</v>
-      </c>
-      <c r="Q44" s="41" t="s">
-        <v>112</v>
-      </c>
-      <c r="R44" s="31">
-        <v>3</v>
-      </c>
-      <c r="S44" s="31">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="1:19" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="27">
-        <v>44</v>
-      </c>
-      <c r="B45" s="28" t="s">
-        <v>237</v>
-      </c>
-      <c r="C45" s="31"/>
-      <c r="D45" s="31"/>
-      <c r="E45" s="31">
-        <v>401100</v>
-      </c>
-      <c r="F45" s="31"/>
-      <c r="G45" s="31"/>
-      <c r="H45" s="31"/>
-      <c r="I45" s="31"/>
-      <c r="J45" s="31"/>
-      <c r="K45" s="31"/>
-      <c r="L45" s="31"/>
-      <c r="M45" s="31"/>
-      <c r="N45" s="31"/>
-      <c r="O45" s="31">
-        <v>521430</v>
-      </c>
-      <c r="P45" s="31">
-        <v>3489570</v>
-      </c>
-      <c r="Q45" s="37" t="s">
-        <v>238</v>
-      </c>
-      <c r="R45" s="31">
-        <v>3</v>
-      </c>
-      <c r="S45" s="31">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" spans="1:19" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="27">
-        <v>45</v>
-      </c>
-      <c r="B46" s="28" t="s">
-        <v>206</v>
-      </c>
-      <c r="C46" s="31"/>
-      <c r="D46" s="31"/>
-      <c r="E46" s="31">
-        <v>8039248.0999999996</v>
-      </c>
-      <c r="F46" s="31"/>
-      <c r="G46" s="31"/>
-      <c r="H46" s="31"/>
-      <c r="I46" s="31"/>
-      <c r="J46" s="31">
-        <v>8283117.8499999996</v>
-      </c>
-      <c r="K46" s="31"/>
-      <c r="L46" s="31"/>
-      <c r="M46" s="31"/>
-      <c r="N46" s="31"/>
-      <c r="O46" s="31">
-        <v>2121907.58</v>
-      </c>
-      <c r="P46" s="31">
-        <v>14200458</v>
-      </c>
-      <c r="Q46" s="37" t="s">
-        <v>89</v>
-      </c>
-      <c r="R46" s="31">
-        <v>3</v>
-      </c>
-      <c r="S46" s="31">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" spans="1:19" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="27">
-        <v>46</v>
-      </c>
-      <c r="B47" s="28" t="s">
-        <v>207</v>
-      </c>
-      <c r="C47" s="31"/>
-      <c r="D47" s="31"/>
-      <c r="E47" s="31">
-        <v>2507202.42</v>
-      </c>
-      <c r="F47" s="31"/>
-      <c r="G47" s="31"/>
-      <c r="H47" s="31"/>
-      <c r="I47" s="31"/>
-      <c r="J47" s="31">
-        <v>6487303.0199999996</v>
-      </c>
-      <c r="K47" s="31"/>
-      <c r="L47" s="31"/>
-      <c r="M47" s="31"/>
-      <c r="N47" s="31"/>
-      <c r="O47" s="31">
-        <v>1169285.6499999999</v>
-      </c>
-      <c r="P47" s="31">
-        <v>7825219.3499999996</v>
-      </c>
-      <c r="Q47" s="37" t="s">
-        <v>118</v>
-      </c>
-      <c r="R47" s="31">
-        <v>3</v>
-      </c>
-      <c r="S47" s="31">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="1:19" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="27">
-        <v>47</v>
-      </c>
-      <c r="B48" s="28" t="s">
-        <v>208</v>
-      </c>
-      <c r="C48" s="31"/>
-      <c r="D48" s="31"/>
-      <c r="E48" s="31">
-        <v>2180254.8199999998</v>
-      </c>
-      <c r="F48" s="31"/>
-      <c r="G48" s="31"/>
-      <c r="H48" s="31"/>
-      <c r="I48" s="31"/>
-      <c r="J48" s="31">
-        <v>3717802.75</v>
-      </c>
-      <c r="K48" s="31"/>
-      <c r="L48" s="31"/>
-      <c r="M48" s="31"/>
-      <c r="N48" s="31"/>
-      <c r="O48" s="31">
-        <v>707766.96</v>
-      </c>
-      <c r="P48" s="31">
-        <v>5190291.04</v>
-      </c>
-      <c r="Q48" s="37" t="s">
-        <v>120</v>
-      </c>
-      <c r="R48" s="31">
-        <v>3</v>
-      </c>
-      <c r="S48" s="31">
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:19" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="27">
-        <v>48</v>
-      </c>
-      <c r="B49" s="28" t="s">
-        <v>209</v>
-      </c>
-      <c r="C49" s="31"/>
-      <c r="D49" s="31"/>
-      <c r="E49" s="31"/>
-      <c r="F49" s="31"/>
-      <c r="G49" s="31"/>
-      <c r="H49" s="31"/>
-      <c r="I49" s="31"/>
-      <c r="J49" s="31">
-        <v>2511543</v>
-      </c>
-      <c r="K49" s="31"/>
-      <c r="L49" s="31"/>
-      <c r="M49" s="31"/>
-      <c r="N49" s="31"/>
-      <c r="O49" s="31">
-        <v>326500.56</v>
-      </c>
-      <c r="P49" s="31">
-        <v>2185042</v>
-      </c>
-      <c r="Q49" s="37" t="s">
-        <v>115</v>
-      </c>
-      <c r="R49" s="31">
-        <v>3</v>
-      </c>
-      <c r="S49" s="31">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="50" spans="1:19" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="27">
-        <v>49</v>
-      </c>
-      <c r="B50" s="36" t="s">
-        <v>210</v>
-      </c>
-      <c r="C50" s="31"/>
-      <c r="D50" s="31"/>
-      <c r="E50" s="31"/>
-      <c r="F50" s="31"/>
-      <c r="G50" s="31"/>
-      <c r="H50" s="31"/>
-      <c r="I50" s="31"/>
-      <c r="J50" s="31">
-        <v>11432295</v>
-      </c>
-      <c r="K50" s="31"/>
-      <c r="L50" s="31"/>
-      <c r="M50" s="31"/>
-      <c r="N50" s="31"/>
-      <c r="O50" s="31">
-        <v>1600521.3</v>
-      </c>
-      <c r="P50" s="31">
-        <v>9831773.6999999993</v>
-      </c>
-      <c r="Q50" s="42" t="s">
-        <v>127</v>
-      </c>
-      <c r="R50" s="31">
-        <v>3</v>
-      </c>
-      <c r="S50" s="31">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="51" spans="1:19" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="27">
-        <v>50</v>
-      </c>
-      <c r="B51" s="28" t="s">
-        <v>211</v>
-      </c>
-      <c r="C51" s="31"/>
-      <c r="D51" s="31"/>
-      <c r="E51" s="31"/>
-      <c r="F51" s="31">
-        <v>5280058</v>
-      </c>
-      <c r="G51" s="31"/>
-      <c r="H51" s="31"/>
-      <c r="I51" s="31"/>
-      <c r="J51" s="31"/>
-      <c r="K51" s="31"/>
-      <c r="L51" s="31"/>
-      <c r="M51" s="31"/>
-      <c r="N51" s="31"/>
-      <c r="O51" s="31">
-        <v>686407</v>
-      </c>
-      <c r="P51" s="31">
-        <v>4593650.46</v>
-      </c>
-      <c r="Q51" s="37" t="s">
-        <v>129</v>
-      </c>
-      <c r="R51" s="31">
-        <v>3</v>
-      </c>
-      <c r="S51" s="31">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="52" spans="1:19" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="27">
-        <v>51</v>
-      </c>
-      <c r="B52" s="28" t="s">
-        <v>212</v>
-      </c>
-      <c r="C52" s="31"/>
-      <c r="D52" s="31"/>
-      <c r="E52" s="31"/>
-      <c r="F52" s="31"/>
-      <c r="G52" s="31"/>
-      <c r="H52" s="31"/>
-      <c r="I52" s="31"/>
-      <c r="J52" s="31">
-        <v>11128106</v>
-      </c>
-      <c r="K52" s="31"/>
-      <c r="L52" s="31"/>
-      <c r="M52" s="31"/>
-      <c r="N52" s="31"/>
-      <c r="O52" s="31">
-        <v>1446653.78</v>
-      </c>
-      <c r="P52" s="31">
-        <v>9681452.2200000007</v>
-      </c>
-      <c r="Q52" s="37" t="s">
-        <v>78</v>
-      </c>
-      <c r="R52" s="31">
-        <v>3</v>
-      </c>
-      <c r="S52" s="31">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="53" spans="1:19" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="27">
-        <v>52</v>
-      </c>
-      <c r="B53" s="28" t="s">
-        <v>213</v>
-      </c>
-      <c r="C53" s="31"/>
-      <c r="D53" s="31"/>
-      <c r="E53" s="31">
-        <v>5348740</v>
-      </c>
-      <c r="F53" s="31"/>
-      <c r="G53" s="31"/>
-      <c r="H53" s="31"/>
-      <c r="I53" s="31"/>
-      <c r="J53" s="31"/>
-      <c r="K53" s="31"/>
-      <c r="L53" s="31"/>
-      <c r="M53" s="31"/>
-      <c r="N53" s="31"/>
-      <c r="O53" s="31">
-        <v>695336.2</v>
-      </c>
-      <c r="P53" s="31">
-        <v>4653403.8</v>
-      </c>
-      <c r="Q53" s="37" t="s">
-        <v>84</v>
-      </c>
-      <c r="R53" s="31">
-        <v>3</v>
-      </c>
-      <c r="S53" s="31">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="54" spans="1:19" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="27">
-        <v>53</v>
-      </c>
-      <c r="B54" s="28" t="s">
-        <v>239</v>
-      </c>
-      <c r="C54" s="31"/>
-      <c r="D54" s="31"/>
-      <c r="E54" s="31">
-        <v>6951211</v>
-      </c>
-      <c r="F54" s="31"/>
-      <c r="G54" s="31"/>
-      <c r="H54" s="31"/>
-      <c r="I54" s="31"/>
-      <c r="J54" s="31"/>
-      <c r="K54" s="31"/>
-      <c r="L54" s="31"/>
-      <c r="M54" s="31"/>
-      <c r="N54" s="31"/>
-      <c r="O54" s="31">
-        <v>973169.54</v>
-      </c>
-      <c r="P54" s="31">
-        <v>5978041</v>
-      </c>
-      <c r="Q54" s="37" t="s">
-        <v>87</v>
-      </c>
-      <c r="R54" s="31">
-        <v>3</v>
-      </c>
-      <c r="S54" s="31">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="55" spans="1:19" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="27">
-        <v>54</v>
-      </c>
-      <c r="B55" s="28" t="s">
-        <v>214</v>
-      </c>
-      <c r="C55" s="31"/>
-      <c r="D55" s="31"/>
-      <c r="E55" s="31">
-        <v>1324549.76</v>
-      </c>
-      <c r="F55" s="31"/>
-      <c r="G55" s="31"/>
-      <c r="H55" s="31"/>
-      <c r="I55" s="31"/>
-      <c r="J55" s="31">
-        <v>3318512.49</v>
-      </c>
-      <c r="K55" s="31"/>
-      <c r="L55" s="31"/>
-      <c r="M55" s="31"/>
-      <c r="N55" s="31"/>
-      <c r="O55" s="31">
-        <v>650028.68000000005</v>
-      </c>
-      <c r="P55" s="31">
-        <v>3993033.32</v>
-      </c>
-      <c r="Q55" s="37" t="s">
-        <v>113</v>
-      </c>
-      <c r="R55" s="31">
-        <v>3</v>
-      </c>
-      <c r="S55" s="31">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="56" spans="1:19" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="27">
-        <v>55</v>
-      </c>
-      <c r="B56" s="28" t="s">
-        <v>215</v>
-      </c>
-      <c r="C56" s="31"/>
-      <c r="D56" s="31"/>
-      <c r="E56" s="31">
-        <v>13049284</v>
-      </c>
-      <c r="F56" s="31"/>
-      <c r="G56" s="31"/>
-      <c r="H56" s="31"/>
-      <c r="I56" s="31"/>
-      <c r="J56" s="31"/>
-      <c r="K56" s="31"/>
-      <c r="L56" s="31"/>
-      <c r="M56" s="31"/>
-      <c r="N56" s="31"/>
-      <c r="O56" s="31">
-        <v>1826899.76</v>
-      </c>
-      <c r="P56" s="31">
-        <v>11222384.24</v>
-      </c>
-      <c r="Q56" s="37" t="s">
-        <v>116</v>
-      </c>
-      <c r="R56" s="31">
-        <v>3</v>
-      </c>
-      <c r="S56" s="31">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="57" spans="1:19" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="27">
-        <v>57</v>
-      </c>
-      <c r="B57" s="28" t="s">
-        <v>240</v>
-      </c>
-      <c r="C57" s="31"/>
-      <c r="D57" s="31"/>
-      <c r="E57" s="31">
-        <v>6573628</v>
-      </c>
-      <c r="F57" s="31"/>
-      <c r="G57" s="31"/>
-      <c r="H57" s="31"/>
-      <c r="I57" s="31"/>
-      <c r="J57" s="31"/>
-      <c r="K57" s="31"/>
-      <c r="L57" s="31"/>
-      <c r="M57" s="31"/>
-      <c r="N57" s="31"/>
-      <c r="O57" s="31">
-        <v>854571.64</v>
-      </c>
-      <c r="P57" s="31">
-        <v>5719056.3600000003</v>
-      </c>
-      <c r="Q57" s="37" t="s">
-        <v>131</v>
-      </c>
-      <c r="R57" s="31">
-        <v>3</v>
-      </c>
-      <c r="S57" s="31">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="58" spans="1:19" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="27">
-        <v>58</v>
-      </c>
-      <c r="B58" s="28" t="s">
-        <v>216</v>
-      </c>
-      <c r="C58" s="31"/>
-      <c r="D58" s="31"/>
-      <c r="E58" s="31"/>
-      <c r="F58" s="31"/>
-      <c r="G58" s="31"/>
-      <c r="H58" s="31"/>
-      <c r="I58" s="31"/>
-      <c r="J58" s="31">
-        <v>8742061</v>
-      </c>
-      <c r="K58" s="31"/>
-      <c r="L58" s="31"/>
-      <c r="M58" s="31"/>
-      <c r="N58" s="31"/>
-      <c r="O58" s="31">
-        <v>1223888.54</v>
-      </c>
-      <c r="P58" s="31">
-        <v>7518172.46</v>
-      </c>
-      <c r="Q58" s="37" t="s">
-        <v>125</v>
-      </c>
-      <c r="R58" s="31">
-        <v>3</v>
-      </c>
-      <c r="S58" s="31">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="59" spans="1:19" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="27">
-        <v>59</v>
-      </c>
-      <c r="B59" s="28" t="s">
-        <v>217</v>
-      </c>
-      <c r="C59" s="31"/>
-      <c r="D59" s="31"/>
-      <c r="E59" s="31">
-        <v>944684.35</v>
-      </c>
-      <c r="F59" s="31"/>
-      <c r="G59" s="31"/>
-      <c r="H59" s="31"/>
-      <c r="I59" s="31"/>
-      <c r="J59" s="31">
-        <v>10809762.381999999</v>
-      </c>
-      <c r="K59" s="31"/>
-      <c r="L59" s="31"/>
-      <c r="M59" s="31"/>
-      <c r="N59" s="31"/>
-      <c r="O59" s="31">
-        <v>2068534.62</v>
-      </c>
-      <c r="P59" s="31">
-        <v>9685912.3800000008</v>
-      </c>
-      <c r="Q59" s="37" t="s">
-        <v>120</v>
-      </c>
-      <c r="R59" s="31">
-        <v>3</v>
-      </c>
-      <c r="S59" s="31">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="60" spans="1:19" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="27">
-        <v>60</v>
-      </c>
-      <c r="B60" s="28" t="s">
-        <v>218</v>
-      </c>
-      <c r="C60" s="31"/>
-      <c r="D60" s="31"/>
-      <c r="E60" s="31">
-        <v>8235264</v>
-      </c>
-      <c r="F60" s="31"/>
-      <c r="G60" s="31"/>
-      <c r="H60" s="31"/>
-      <c r="I60" s="31"/>
-      <c r="J60" s="31"/>
-      <c r="K60" s="31"/>
-      <c r="L60" s="31"/>
-      <c r="M60" s="31"/>
-      <c r="N60" s="31"/>
-      <c r="O60" s="31">
-        <v>1152936.96</v>
-      </c>
-      <c r="P60" s="31">
-        <v>7082327.04</v>
-      </c>
-      <c r="Q60" s="37" t="s">
-        <v>112</v>
-      </c>
-      <c r="R60" s="31">
-        <v>3</v>
-      </c>
-      <c r="S60" s="31">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="61" spans="1:19" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="27">
-        <v>61</v>
-      </c>
-      <c r="B61" s="28" t="s">
-        <v>219</v>
-      </c>
-      <c r="C61" s="31"/>
-      <c r="D61" s="31"/>
-      <c r="E61" s="31">
-        <v>12181117</v>
-      </c>
-      <c r="F61" s="31"/>
-      <c r="G61" s="31"/>
-      <c r="H61" s="31"/>
-      <c r="I61" s="31"/>
-      <c r="J61" s="31"/>
-      <c r="K61" s="31"/>
-      <c r="L61" s="31"/>
-      <c r="M61" s="31"/>
-      <c r="N61" s="31"/>
-      <c r="O61" s="31">
-        <v>1705356.38</v>
-      </c>
-      <c r="P61" s="31">
-        <v>10475760.619999999</v>
-      </c>
-      <c r="Q61" s="37" t="s">
-        <v>220</v>
-      </c>
-      <c r="R61" s="31">
-        <v>3</v>
-      </c>
-      <c r="S61" s="31">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="62" spans="1:19" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="27">
-        <v>62</v>
-      </c>
-      <c r="B62" s="28" t="s">
-        <v>221</v>
-      </c>
-      <c r="C62" s="31"/>
-      <c r="D62" s="31"/>
-      <c r="E62" s="31"/>
-      <c r="F62" s="31"/>
-      <c r="G62" s="31"/>
-      <c r="H62" s="31"/>
-      <c r="I62" s="31"/>
-      <c r="J62" s="31">
-        <v>11806042</v>
-      </c>
-      <c r="K62" s="31"/>
-      <c r="L62" s="31"/>
-      <c r="M62" s="31"/>
-      <c r="N62" s="31"/>
-      <c r="O62" s="31">
-        <v>1652845.88</v>
-      </c>
-      <c r="P62" s="31">
-        <v>10153196.119999999</v>
-      </c>
-      <c r="Q62" s="37" t="s">
-        <v>127</v>
-      </c>
-      <c r="R62" s="31">
-        <v>3</v>
-      </c>
-      <c r="S62" s="31">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="63" spans="1:19" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="27">
-        <v>63</v>
-      </c>
-      <c r="B63" s="28" t="s">
-        <v>222</v>
-      </c>
-      <c r="C63" s="31"/>
-      <c r="D63" s="31"/>
-      <c r="E63" s="31">
-        <v>3318907</v>
-      </c>
-      <c r="F63" s="31"/>
-      <c r="G63" s="31"/>
-      <c r="H63" s="31"/>
-      <c r="I63" s="31"/>
-      <c r="J63" s="31"/>
-      <c r="K63" s="31"/>
-      <c r="L63" s="31"/>
-      <c r="M63" s="31"/>
-      <c r="N63" s="31"/>
-      <c r="O63" s="31">
-        <v>464646.98</v>
-      </c>
-      <c r="P63" s="31">
-        <v>2854260.02</v>
-      </c>
-      <c r="Q63" s="37" t="s">
-        <v>117</v>
-      </c>
-      <c r="R63" s="31">
-        <v>3</v>
-      </c>
-      <c r="S63" s="31">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="64" spans="1:19" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="27">
-        <v>64</v>
-      </c>
-      <c r="B64" s="28" t="s">
-        <v>223</v>
-      </c>
-      <c r="C64" s="31"/>
-      <c r="D64" s="31"/>
-      <c r="E64" s="31">
-        <v>604514.55000000005</v>
-      </c>
-      <c r="F64" s="31">
-        <v>7543874.1799999997</v>
-      </c>
-      <c r="G64" s="31"/>
-      <c r="H64" s="31"/>
-      <c r="I64" s="31"/>
-      <c r="J64" s="31"/>
-      <c r="K64" s="31"/>
-      <c r="L64" s="31"/>
-      <c r="M64" s="31"/>
-      <c r="N64" s="31"/>
-      <c r="O64" s="31">
-        <v>1059290.57</v>
-      </c>
-      <c r="P64" s="31">
-        <v>7089098.4299999997</v>
-      </c>
-      <c r="Q64" s="37" t="s">
-        <v>84</v>
-      </c>
-      <c r="R64" s="31">
-        <v>3</v>
-      </c>
-      <c r="S64" s="31">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="65" spans="1:19" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="27">
-        <v>65</v>
-      </c>
-      <c r="B65" s="28" t="s">
-        <v>224</v>
-      </c>
-      <c r="C65" s="31"/>
-      <c r="D65" s="31"/>
-      <c r="E65" s="31">
-        <v>13535773.370000001</v>
-      </c>
-      <c r="F65" s="31"/>
-      <c r="G65" s="31"/>
-      <c r="H65" s="31"/>
-      <c r="I65" s="31"/>
-      <c r="J65" s="31">
-        <v>6963681.6299999999</v>
-      </c>
-      <c r="K65" s="31"/>
-      <c r="L65" s="31"/>
-      <c r="M65" s="31"/>
-      <c r="N65" s="31"/>
-      <c r="O65" s="31">
-        <v>2869923.7</v>
-      </c>
-      <c r="P65" s="31">
-        <v>17629531.300000001</v>
-      </c>
-      <c r="Q65" s="37" t="s">
-        <v>114</v>
-      </c>
-      <c r="R65" s="31">
-        <v>3</v>
-      </c>
-      <c r="S65" s="31">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="66" spans="1:19" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="27">
-        <v>66</v>
-      </c>
-      <c r="B66" s="28" t="s">
-        <v>225</v>
-      </c>
-      <c r="C66" s="31"/>
-      <c r="D66" s="31"/>
-      <c r="E66" s="31">
-        <v>8591066.3900000006</v>
-      </c>
-      <c r="F66" s="31"/>
-      <c r="G66" s="31"/>
-      <c r="H66" s="31"/>
-      <c r="I66" s="31"/>
-      <c r="J66" s="31">
-        <v>3697365.61</v>
-      </c>
-      <c r="K66" s="31"/>
-      <c r="L66" s="31"/>
-      <c r="M66" s="31"/>
-      <c r="N66" s="31"/>
-      <c r="O66" s="31">
-        <v>1720380.48</v>
-      </c>
-      <c r="P66" s="31">
-        <v>10568051.52</v>
-      </c>
-      <c r="Q66" s="37" t="s">
-        <v>119</v>
-      </c>
-      <c r="R66" s="31">
-        <v>3</v>
-      </c>
-      <c r="S66" s="31">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="67" spans="1:19" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="27">
-        <v>67</v>
-      </c>
-      <c r="B67" s="28" t="s">
-        <v>226</v>
-      </c>
-      <c r="C67" s="31"/>
-      <c r="D67" s="31"/>
-      <c r="E67" s="31">
-        <v>981597.62</v>
-      </c>
-      <c r="F67" s="31"/>
-      <c r="G67" s="31"/>
-      <c r="H67" s="31"/>
-      <c r="I67" s="31"/>
-      <c r="J67" s="31">
-        <v>4991229.37</v>
-      </c>
-      <c r="K67" s="31"/>
-      <c r="L67" s="31"/>
-      <c r="M67" s="31"/>
-      <c r="N67" s="31"/>
-      <c r="O67" s="31">
-        <v>836195.64</v>
-      </c>
-      <c r="P67" s="31">
-        <v>5136630.3600000003</v>
-      </c>
-      <c r="Q67" s="37" t="s">
-        <v>118</v>
-      </c>
-      <c r="R67" s="31">
-        <v>3</v>
-      </c>
-      <c r="S67" s="31">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="68" spans="1:19" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="27">
-        <v>68</v>
-      </c>
-      <c r="B68" s="28" t="s">
-        <v>227</v>
-      </c>
-      <c r="C68" s="31">
-        <v>527282</v>
-      </c>
-      <c r="D68" s="31"/>
-      <c r="E68" s="31">
-        <v>374966.5</v>
-      </c>
-      <c r="F68" s="31">
-        <v>5265726.0240000002</v>
-      </c>
-      <c r="G68" s="31"/>
-      <c r="H68" s="31"/>
-      <c r="I68" s="31"/>
-      <c r="J68" s="31">
-        <v>1801653.24</v>
-      </c>
-      <c r="K68" s="31"/>
-      <c r="L68" s="31"/>
-      <c r="M68" s="31"/>
-      <c r="N68" s="31"/>
-      <c r="O68" s="31">
-        <v>1189941.2</v>
-      </c>
-      <c r="P68" s="31">
-        <v>7309638.7999999998</v>
-      </c>
-      <c r="Q68" s="37" t="s">
-        <v>89</v>
-      </c>
-      <c r="R68" s="31">
-        <v>3</v>
-      </c>
-      <c r="S68" s="31">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="69" spans="1:19" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="27">
-        <v>69</v>
-      </c>
-      <c r="B69" s="28" t="s">
-        <v>228</v>
-      </c>
-      <c r="C69" s="31"/>
-      <c r="D69" s="31"/>
-      <c r="E69" s="31">
-        <v>772720.61</v>
-      </c>
-      <c r="F69" s="31"/>
-      <c r="G69" s="31"/>
-      <c r="H69" s="31"/>
-      <c r="I69" s="31"/>
-      <c r="J69" s="31">
-        <v>1721169.71</v>
-      </c>
-      <c r="K69" s="31"/>
-      <c r="L69" s="31"/>
-      <c r="M69" s="31"/>
-      <c r="N69" s="31"/>
-      <c r="O69" s="31">
-        <v>657107.36</v>
-      </c>
-      <c r="P69" s="31">
-        <v>1836816.64</v>
-      </c>
-      <c r="Q69" s="37" t="s">
-        <v>113</v>
-      </c>
-      <c r="R69" s="31">
-        <v>3</v>
-      </c>
-      <c r="S69" s="31">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="70" spans="1:19" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A70" s="27">
-        <v>70</v>
-      </c>
-      <c r="B70" s="28" t="s">
-        <v>229</v>
-      </c>
-      <c r="C70" s="31"/>
-      <c r="D70" s="31"/>
-      <c r="E70" s="31">
-        <v>8888573.4199999999</v>
-      </c>
-      <c r="F70" s="31"/>
-      <c r="G70" s="31"/>
-      <c r="H70" s="31"/>
-      <c r="I70" s="31"/>
-      <c r="J70" s="31">
-        <v>4137447.0700000003</v>
-      </c>
-      <c r="K70" s="31"/>
-      <c r="L70" s="31"/>
-      <c r="M70" s="31"/>
-      <c r="N70" s="31"/>
-      <c r="O70" s="31">
-        <v>1823642.94</v>
-      </c>
-      <c r="P70" s="31">
-        <v>11202378.060000001</v>
-      </c>
-      <c r="Q70" s="37" t="s">
-        <v>122</v>
-      </c>
-      <c r="R70" s="31">
-        <v>3</v>
-      </c>
-      <c r="S70" s="31">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="71" spans="1:19" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="27">
-        <v>71</v>
-      </c>
-      <c r="B71" s="28" t="s">
-        <v>230</v>
-      </c>
-      <c r="C71" s="31"/>
-      <c r="D71" s="31"/>
-      <c r="E71" s="31"/>
-      <c r="F71" s="31">
-        <v>3173491</v>
-      </c>
-      <c r="G71" s="31"/>
-      <c r="H71" s="31"/>
-      <c r="I71" s="31"/>
-      <c r="J71" s="31"/>
-      <c r="K71" s="31"/>
-      <c r="L71" s="31"/>
-      <c r="M71" s="31"/>
-      <c r="N71" s="31"/>
-      <c r="O71" s="31">
-        <v>444288.74</v>
-      </c>
-      <c r="P71" s="31">
-        <v>2729202.26</v>
-      </c>
-      <c r="Q71" s="37" t="s">
-        <v>124</v>
-      </c>
-      <c r="R71" s="31">
-        <v>3</v>
-      </c>
-      <c r="S71" s="31">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="72" spans="1:19" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A72" s="27">
-        <v>72</v>
-      </c>
-      <c r="B72" s="28" t="s">
-        <v>231</v>
-      </c>
-      <c r="C72" s="31"/>
-      <c r="D72" s="31"/>
-      <c r="E72" s="31"/>
-      <c r="F72" s="31"/>
-      <c r="G72" s="31"/>
-      <c r="H72" s="31"/>
-      <c r="I72" s="31"/>
-      <c r="J72" s="31">
-        <v>7454035</v>
-      </c>
-      <c r="K72" s="31"/>
-      <c r="L72" s="31"/>
-      <c r="M72" s="31"/>
-      <c r="N72" s="31"/>
-      <c r="O72" s="31">
-        <v>969024.55</v>
-      </c>
-      <c r="P72" s="31">
-        <v>6485010.4500000002</v>
-      </c>
-      <c r="Q72" s="37" t="s">
-        <v>121</v>
-      </c>
-      <c r="R72" s="31">
-        <v>3</v>
-      </c>
-      <c r="S72" s="31">
-        <v>6</v>
-      </c>
+    <row r="15" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q15" s="36"/>
+    </row>
+    <row r="16" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q16" s="31"/>
+    </row>
+    <row r="17" spans="17:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q17" s="31"/>
+    </row>
+    <row r="18" spans="17:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q18" s="32"/>
+    </row>
+    <row r="19" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q19" s="29"/>
+    </row>
+    <row r="20" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q20" s="34"/>
+    </row>
+    <row r="21" spans="17:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q21" s="31"/>
+    </row>
+    <row r="22" spans="17:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q22" s="31"/>
+    </row>
+    <row r="23" spans="17:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q23" s="31"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5663,7 +3176,7 @@
   <dimension ref="A1:V55"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Civilworks cost/IPC Distribution.xlsx
+++ b/Civilworks cost/IPC Distribution.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19980" windowHeight="7665"/>
+    <workbookView xWindow="0" yWindow="-60" windowWidth="20730" windowHeight="11760" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="IPC_Dist" sheetId="13" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
-    <sheet name="Sheet5" sheetId="5" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId2"/>
+    <sheet name="IPC_Dist" sheetId="6" r:id="rId3"/>
     <sheet name="Sheet3" sheetId="7" r:id="rId4"/>
     <sheet name="Sheet2" sheetId="8" r:id="rId5"/>
     <sheet name="Package_wise_cost" sheetId="9" r:id="rId6"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="316">
   <si>
     <t>O&amp;M During Construction</t>
   </si>
@@ -202,12 +202,57 @@
     <t>IPCNo</t>
   </si>
   <si>
+    <t>156/SUNM-01 4th RA Bill</t>
+  </si>
+  <si>
     <t>Gob</t>
   </si>
   <si>
     <t>Rpa</t>
   </si>
   <si>
+    <t>160/(SUNM-01)-05 2nd RA Bill</t>
+  </si>
+  <si>
+    <t>194/(SUNM-01)-06 6th RA Bill</t>
+  </si>
+  <si>
+    <t>192/(SUNM-01)-04 4th RA Bill</t>
+  </si>
+  <si>
+    <t>210/(SUNM-01)-06 6th RA final Bill</t>
+  </si>
+  <si>
+    <t>209/(SUNM-01)-05 2nd RA Bill</t>
+  </si>
+  <si>
+    <t>212/(SUNM-02)-02 3rd RA Bill</t>
+  </si>
+  <si>
+    <t>226/(SUNM-01)-05 3rd RA  Bill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">351/(SUNM-02)-02  4th RA Bill </t>
+  </si>
+  <si>
+    <t xml:space="preserve">250/(SUNM-01)-03 3rd RA Bill </t>
+  </si>
+  <si>
+    <t xml:space="preserve">249/(SUNM-01)-04 5th RA Bill </t>
+  </si>
+  <si>
+    <t xml:space="preserve">347/(SUNM-01)-06  7th RA Bill </t>
+  </si>
+  <si>
+    <t xml:space="preserve">349/(SUNM-01)-04  6th RA Bill </t>
+  </si>
+  <si>
+    <t xml:space="preserve">348/(SUNM-01)-05  4th RA Bill </t>
+  </si>
+  <si>
+    <t xml:space="preserve">350/(SUNM-02)-01  5th RA Bill </t>
+  </si>
+  <si>
     <t>372/Kish-25  7th  RA Bill</t>
   </si>
   <si>
@@ -238,66 +283,483 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
+    <t>84/(SUNM-01)-05 1st RA Bill</t>
+  </si>
+  <si>
+    <t>132/(SUNM-01)-06  5th RA Bill</t>
+  </si>
+  <si>
+    <t>154/(SUNM-02)-02  2nd RA Bill</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sl No </t>
   </si>
   <si>
     <t>Gate_Repair</t>
   </si>
   <si>
+    <t>Package No</t>
+  </si>
+  <si>
+    <t>IPC No</t>
+  </si>
+  <si>
+    <t>60/NETR-Gate Replacement final  Bill</t>
+  </si>
+  <si>
     <t>GT-01</t>
   </si>
   <si>
+    <t>76/NETR-Gate Replacement 1st RA  Bill</t>
+  </si>
+  <si>
     <t>GT-02</t>
   </si>
   <si>
+    <t xml:space="preserve">SUNM-05 </t>
+  </si>
+  <si>
+    <t>92/NETR-Gate Replacement 2nd RA  Bill</t>
+  </si>
+  <si>
+    <t>110/NETR-05  1st  RA Bill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NETR-05  </t>
+  </si>
+  <si>
+    <t>111/KISH-23 1st  RA Bill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KISH-23 </t>
+  </si>
+  <si>
+    <t>120/NETR-06  4th  RA Bill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NETR-06 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUNM-06 </t>
+  </si>
+  <si>
+    <t>131/KISH-20 4th  RA Bill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KISH-20 </t>
+  </si>
+  <si>
+    <t>133/KISH-22 1st  RA Bill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KISH-22 </t>
+  </si>
+  <si>
+    <t>138/KISH-22 2nd  RA Bill</t>
+  </si>
+  <si>
     <t>KISH-22</t>
   </si>
   <si>
+    <t>142/KISH-17  9th  RA Bill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KISH-17  </t>
+  </si>
+  <si>
+    <t>144/KISH-10  4th  RA Bill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KISH-10 </t>
+  </si>
+  <si>
+    <t>143/KISH-11  5th  RA Bill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KISH-11 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUNM-02 </t>
+  </si>
+  <si>
+    <t>153/KISH-09  5th  RA Bill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KISH-09  </t>
+  </si>
+  <si>
+    <t>155/KISH-25  5th  RA Bill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KISH-25 </t>
+  </si>
+  <si>
+    <t>157/KISH-13  5th  RA Bill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KISH-13  </t>
+  </si>
+  <si>
+    <t>158/KISH-13  6th  RA Bill</t>
+  </si>
+  <si>
     <t>SUNM-01</t>
   </si>
   <si>
+    <t>161/KISH-16 9th  RA Bill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KISH-16 </t>
+  </si>
+  <si>
+    <t>159/KISH-28/Lot-4 1st  RA Bill</t>
+  </si>
+  <si>
     <t>KISH-28/Lot-4</t>
   </si>
   <si>
+    <t>172/KISH-12 7th  RA Bill</t>
+  </si>
+  <si>
     <t>KISH-12</t>
   </si>
   <si>
+    <t>175/KISH-23 2nd  RA Bill</t>
+  </si>
+  <si>
+    <t>174/NETR-01  4th  RA Bill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NETR-01  </t>
+  </si>
+  <si>
+    <t>173/NETR-03 4th RA Bill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NETR-03 </t>
+  </si>
+  <si>
+    <t>190/KISH-22 2nd  RA Bill</t>
+  </si>
+  <si>
+    <t>191/KISH-26 6th  RA Bill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KISH-26 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUNM-04 </t>
+  </si>
+  <si>
+    <t>195/NETR-06 5th RA Bill</t>
+  </si>
+  <si>
+    <t>193/KISH-05 5th  RA Bill</t>
+  </si>
+  <si>
     <t>KISH-05</t>
   </si>
   <si>
+    <t>199/KISH-17 10th  RA Bill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KISH-17 </t>
+  </si>
+  <si>
     <t>SUNM-05</t>
   </si>
   <si>
+    <t>213/KISH-23 3rd  RA Bill</t>
+  </si>
+  <si>
     <t>KISH-23</t>
   </si>
   <si>
     <t>SUNM-02</t>
   </si>
   <si>
+    <t>214/KISH-26 7th  RA Bill</t>
+  </si>
+  <si>
+    <t>217/KISH-14 8th  RA Bill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KISH-14 </t>
+  </si>
+  <si>
+    <t>218/KISH-17  11th  RA Bill</t>
+  </si>
+  <si>
+    <t>220/KISH-03  8th  RA Bill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KISH-03  </t>
+  </si>
+  <si>
+    <t>216/KISH-16  10th  RA Bill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KISH-16  </t>
+  </si>
+  <si>
+    <t>219/KISH-9  6th  RA Bill</t>
+  </si>
+  <si>
+    <t>225/KISH-21  1st  RA Bill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KISH-21  </t>
+  </si>
+  <si>
+    <t>232/HOBI-2  4th  RA Bill</t>
+  </si>
+  <si>
     <t>HOBI-02</t>
   </si>
   <si>
+    <t>233/KISH-25  6th  RA Bill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUNM-02  </t>
+  </si>
+  <si>
+    <t>248/KISH-01  1st  RA Bill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KISH-01 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUNM-03 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">252/NETR-08 1st RA Bill </t>
+  </si>
+  <si>
     <t>NETR-08</t>
   </si>
   <si>
+    <t>246/KISH-11  6th  RA Bill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KISH-11  </t>
+  </si>
+  <si>
+    <t>247/KISH-10  5th  RA Bill</t>
+  </si>
+  <si>
+    <t>245/KISH-6  12th  RA Bill</t>
+  </si>
+  <si>
     <t>KISH-06</t>
   </si>
   <si>
+    <t xml:space="preserve">243/NETR-03 5th RA Bill </t>
+  </si>
+  <si>
+    <t xml:space="preserve">242/NETR-02 4th RA Bill </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NETR-02 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">241/NETR-01 5th RA Bill </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NETR-01 </t>
+  </si>
+  <si>
+    <t>240/HOBI-5  3rd RA Bill</t>
+  </si>
+  <si>
     <t>HOBI-05</t>
   </si>
   <si>
+    <t>244/KISH-23  4th  RA Bill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KISH-23  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">255/NETR-06  6th RA Bill </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NETR-06  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">256/NETR-04  4th RA Bill </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NETR-04  </t>
+  </si>
+  <si>
+    <t>257/KISH-26  8th  RA Bill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KISH-26  </t>
+  </si>
+  <si>
+    <t>273/KISH-13  7th  RA Bill</t>
+  </si>
+  <si>
+    <t>351/KISH-21  2nd  RA Bill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KISH-21 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUNM-04  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUNM-01 </t>
+  </si>
+  <si>
+    <t>352/HOBI-4  5th RA Bill</t>
+  </si>
+  <si>
     <t>HOBI-04</t>
   </si>
   <si>
+    <t>353/HOBI-5 4th RA Bill</t>
+  </si>
+  <si>
+    <t>346/KISH-14  9th  RA Bill</t>
+  </si>
+  <si>
+    <t>345/KISH-12  8th  RA Bill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KISH-12  </t>
+  </si>
+  <si>
+    <t>356/KISH-26  9th  RA Final Bill</t>
+  </si>
+  <si>
+    <t>355/HOBI-6 8th RA Bill</t>
+  </si>
+  <si>
     <t>HOBI-06</t>
   </si>
   <si>
+    <t>344/HOBI-1  6th RA Bill</t>
+  </si>
+  <si>
     <t>HOBI-01</t>
   </si>
   <si>
+    <t>354/HOBI-2  5th RA Bill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">370/NETR-04  5th RA Bill </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NETR-04 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">378/NETR-05  3rd RA Bill </t>
+  </si>
+  <si>
+    <t xml:space="preserve">369/NETR-08  2nd RA Bill </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NETR-08 </t>
+  </si>
+  <si>
+    <t>371/KISH-28  2nd  RA Bill</t>
+  </si>
+  <si>
+    <t>361/KISH-20  5th  RA Bill</t>
+  </si>
+  <si>
+    <t>362/KISH-17  12th  RA Bill</t>
+  </si>
+  <si>
     <t>KISH-17</t>
   </si>
   <si>
+    <t>360/KISH-16  11th  RA Bill</t>
+  </si>
+  <si>
+    <t>357/HOBI-7  5th RA Bill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HOBI-07 </t>
+  </si>
+  <si>
+    <t>375/KISH-04   6th/final RA Bill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KISH-04  </t>
+  </si>
+  <si>
+    <t>377/KISH-13  8th  RA Bill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KISH-13 </t>
+  </si>
+  <si>
+    <t>374/KISH-09  7th  RA Bill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KISH-09 </t>
+  </si>
+  <si>
+    <t>359/KISH-07  9th  RA Bill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KISH-07  </t>
+  </si>
+  <si>
+    <t>373/KISH-22  3rd  RA Bill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KISH-22  </t>
+  </si>
+  <si>
+    <t>372/KISH-25  7th  RA Bill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KISH-25  </t>
+  </si>
+  <si>
+    <t>363/KISH-24  8th/Final  RA Bill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KISH-24  </t>
+  </si>
+  <si>
+    <t>358/KISH-06  13th/Final  RA Bill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KISH-06  </t>
+  </si>
+  <si>
+    <t>364/KISH-02 7th  RA Bill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KISH-02 </t>
+  </si>
+  <si>
+    <t>376/KISH-23 5th  RA Bill</t>
+  </si>
+  <si>
+    <t>365/KISH-19  6th  RA Bill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KISH-19 </t>
+  </si>
+  <si>
+    <t>366/NETR-01  6th  RA Bill</t>
+  </si>
+  <si>
+    <t>367/NETR-02  5th  RA Bill</t>
+  </si>
+  <si>
+    <t>368/NETR-03  6th  RA Bill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NETR-03  </t>
+  </si>
+  <si>
     <t>PackageNo</t>
   </si>
   <si>
@@ -460,6 +922,12 @@
     <t>GT-03</t>
   </si>
   <si>
+    <t>152/HOBI-6  7th  RA Bill</t>
+  </si>
+  <si>
+    <t>161/HOBI-1 5th  RA Bill</t>
+  </si>
+  <si>
     <t>KISH-28/Lot-1</t>
   </si>
   <si>
@@ -506,42 +974,6 @@
   </si>
   <si>
     <t>Jul</t>
-  </si>
-  <si>
-    <t>Package No</t>
-  </si>
-  <si>
-    <t>IPC No</t>
-  </si>
-  <si>
-    <t>126/Kish-02 1st Bill</t>
-  </si>
-  <si>
-    <t>149/Kish-07 1st Bill</t>
-  </si>
-  <si>
-    <t>152/Kish-02 .. Bill</t>
-  </si>
-  <si>
-    <t>176/Kish-13 1st Bill</t>
-  </si>
-  <si>
-    <t>197/Kish-14 1st Bill</t>
-  </si>
-  <si>
-    <t>198/Kish-5 1st Bill</t>
-  </si>
-  <si>
-    <t>201/Kish-6 1st Bill</t>
-  </si>
-  <si>
-    <t>234/Kish-13 2nd Bill</t>
-  </si>
-  <si>
-    <t>241/Kish-07 2nd Bill</t>
-  </si>
-  <si>
-    <t>242/Kish-03 1st Bill</t>
   </si>
 </sst>
 </file>
@@ -551,7 +983,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -559,35 +991,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial Unicode MS"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -618,8 +1023,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFF99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -642,37 +1053,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -698,6 +1083,9 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -722,9 +1110,38 @@
     <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -735,41 +1152,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1058,516 +1453,6 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S23"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F19" sqref="F19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="38.5703125" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" customWidth="1"/>
-    <col min="8" max="9" width="15.85546875" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1"/>
-    <col min="11" max="11" width="16.140625" customWidth="1"/>
-    <col min="12" max="13" width="12.140625" customWidth="1"/>
-    <col min="14" max="14" width="12" customWidth="1"/>
-    <col min="15" max="16" width="13.85546875" customWidth="1"/>
-    <col min="17" max="17" width="17.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="B1" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="C1" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="D1" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="E1" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="F1" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="G1" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="H1" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="I1" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="J1" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="K1" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="L1" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="M1" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="N1" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="O1" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="P1" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q1" s="24" t="s">
-        <v>160</v>
-      </c>
-      <c r="R1" s="26" t="s">
-        <v>161</v>
-      </c>
-      <c r="S1" s="26" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="27">
-        <v>1</v>
-      </c>
-      <c r="B2" s="31" t="s">
-        <v>162</v>
-      </c>
-      <c r="C2" s="29">
-        <v>0</v>
-      </c>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28">
-        <v>9871121</v>
-      </c>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="29">
-        <v>1085823</v>
-      </c>
-      <c r="P2" s="29">
-        <v>8785298</v>
-      </c>
-      <c r="Q2" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="R2" s="29">
-        <v>1</v>
-      </c>
-      <c r="S2" s="29">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="27">
-        <v>2</v>
-      </c>
-      <c r="B3" s="31" t="s">
-        <v>163</v>
-      </c>
-      <c r="C3" s="29">
-        <v>0</v>
-      </c>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28">
-        <v>9485898</v>
-      </c>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28"/>
-      <c r="M3" s="28"/>
-      <c r="N3" s="28"/>
-      <c r="O3" s="29">
-        <v>1138308</v>
-      </c>
-      <c r="P3" s="29">
-        <v>8442449</v>
-      </c>
-      <c r="Q3" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="R3" s="29">
-        <v>1</v>
-      </c>
-      <c r="S3" s="29">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="27">
-        <v>3</v>
-      </c>
-      <c r="B4" s="31" t="s">
-        <v>164</v>
-      </c>
-      <c r="C4" s="29">
-        <v>0</v>
-      </c>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28">
-        <v>14978253</v>
-      </c>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="29">
-        <v>898695</v>
-      </c>
-      <c r="P4" s="29">
-        <v>13180863</v>
-      </c>
-      <c r="Q4" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="R4" s="29">
-        <v>2</v>
-      </c>
-      <c r="S4" s="29">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="27">
-        <v>4</v>
-      </c>
-      <c r="B5" s="31" t="s">
-        <v>165</v>
-      </c>
-      <c r="C5" s="29">
-        <v>0</v>
-      </c>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28">
-        <v>14259856</v>
-      </c>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="28"/>
-      <c r="L5" s="28"/>
-      <c r="M5" s="28"/>
-      <c r="N5" s="28"/>
-      <c r="O5" s="29">
-        <v>1853781</v>
-      </c>
-      <c r="P5" s="29">
-        <v>12406075</v>
-      </c>
-      <c r="Q5" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="R5" s="29">
-        <v>1</v>
-      </c>
-      <c r="S5" s="29">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="27">
-        <v>5</v>
-      </c>
-      <c r="B6" s="32" t="s">
-        <v>166</v>
-      </c>
-      <c r="C6" s="29">
-        <v>0</v>
-      </c>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28">
-        <v>4144654</v>
-      </c>
-      <c r="K6" s="28"/>
-      <c r="L6" s="28"/>
-      <c r="M6" s="28"/>
-      <c r="N6" s="28"/>
-      <c r="O6" s="29">
-        <v>497358</v>
-      </c>
-      <c r="P6" s="29">
-        <v>3647296</v>
-      </c>
-      <c r="Q6" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="R6" s="29">
-        <v>1</v>
-      </c>
-      <c r="S6" s="29">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="27">
-        <v>6</v>
-      </c>
-      <c r="B7" s="29" t="s">
-        <v>167</v>
-      </c>
-      <c r="C7" s="29">
-        <v>0</v>
-      </c>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28">
-        <v>9280540</v>
-      </c>
-      <c r="K7" s="28"/>
-      <c r="L7" s="28"/>
-      <c r="M7" s="28"/>
-      <c r="N7" s="28"/>
-      <c r="O7" s="28">
-        <v>1113665</v>
-      </c>
-      <c r="P7" s="28">
-        <v>8166875</v>
-      </c>
-      <c r="Q7" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="R7" s="29">
-        <v>1</v>
-      </c>
-      <c r="S7" s="29">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="27">
-        <v>7</v>
-      </c>
-      <c r="B8" s="34" t="s">
-        <v>168</v>
-      </c>
-      <c r="C8" s="29">
-        <v>0</v>
-      </c>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28">
-        <v>4132973.5</v>
-      </c>
-      <c r="F8" s="28">
-        <v>6195366.8830000004</v>
-      </c>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="28"/>
-      <c r="M8" s="28"/>
-      <c r="N8" s="28"/>
-      <c r="O8" s="29">
-        <v>1239401</v>
-      </c>
-      <c r="P8" s="33">
-        <v>9088939</v>
-      </c>
-      <c r="Q8" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="R8" s="37">
-        <v>1</v>
-      </c>
-      <c r="S8" s="29">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="27">
-        <v>10</v>
-      </c>
-      <c r="B9" s="31" t="s">
-        <v>169</v>
-      </c>
-      <c r="C9" s="29">
-        <v>0</v>
-      </c>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28">
-        <v>2555298.56</v>
-      </c>
-      <c r="K9" s="28"/>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="29">
-        <v>332188.81</v>
-      </c>
-      <c r="P9" s="29">
-        <v>2223109.7400000002</v>
-      </c>
-      <c r="Q9" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="R9" s="29">
-        <v>2</v>
-      </c>
-      <c r="S9" s="29">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="27">
-        <v>11</v>
-      </c>
-      <c r="B10" s="31" t="s">
-        <v>170</v>
-      </c>
-      <c r="C10" s="29">
-        <v>0</v>
-      </c>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28">
-        <v>967951</v>
-      </c>
-      <c r="K10" s="28"/>
-      <c r="L10" s="28"/>
-      <c r="M10" s="28"/>
-      <c r="N10" s="28"/>
-      <c r="O10" s="29">
-        <v>116154</v>
-      </c>
-      <c r="P10" s="29">
-        <v>851797</v>
-      </c>
-      <c r="Q10" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="R10" s="29">
-        <v>2</v>
-      </c>
-      <c r="S10" s="29">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="27">
-        <v>12</v>
-      </c>
-      <c r="B11" s="31" t="s">
-        <v>171</v>
-      </c>
-      <c r="C11" s="29">
-        <v>0</v>
-      </c>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28">
-        <v>2963861</v>
-      </c>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28">
-        <v>2323597</v>
-      </c>
-      <c r="K11" s="28"/>
-      <c r="L11" s="28"/>
-      <c r="M11" s="28"/>
-      <c r="N11" s="28"/>
-      <c r="O11" s="29">
-        <v>634495</v>
-      </c>
-      <c r="P11" s="29">
-        <v>4652963</v>
-      </c>
-      <c r="Q11" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="R11" s="29">
-        <v>1</v>
-      </c>
-      <c r="S11" s="29">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="Q15" s="36"/>
-    </row>
-    <row r="16" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="Q16" s="31"/>
-    </row>
-    <row r="17" spans="17:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="Q17" s="31"/>
-    </row>
-    <row r="18" spans="17:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="Q18" s="32"/>
-    </row>
-    <row r="19" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q19" s="29"/>
-    </row>
-    <row r="20" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q20" s="34"/>
-    </row>
-    <row r="21" spans="17:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="Q21" s="31"/>
-    </row>
-    <row r="22" spans="17:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="Q22" s="31"/>
-    </row>
-    <row r="23" spans="17:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="Q23" s="31"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1765,7 +1650,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U70"/>
   <sheetViews>
@@ -2718,6 +2603,3987 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S104"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T65" sqref="T65"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" customWidth="1"/>
+    <col min="12" max="12" width="16.7109375" customWidth="1"/>
+    <col min="13" max="13" width="14" customWidth="1"/>
+    <col min="14" max="14" width="10.28515625" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" customWidth="1"/>
+    <col min="16" max="17" width="16.42578125" customWidth="1"/>
+    <col min="18" max="18" width="15" customWidth="1"/>
+    <col min="19" max="19" width="10.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="K1" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="M1" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="N1" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="P1" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q1" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="R1" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="S1" s="29" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="18">
+        <v>1</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22">
+        <v>224805</v>
+      </c>
+      <c r="N2" s="22"/>
+      <c r="O2" s="23">
+        <v>28740</v>
+      </c>
+      <c r="P2" s="23">
+        <v>196065</v>
+      </c>
+      <c r="Q2" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="R2" s="18">
+        <v>1</v>
+      </c>
+      <c r="S2" s="31">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="18">
+        <v>2</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22">
+        <v>2260946</v>
+      </c>
+      <c r="N3" s="22"/>
+      <c r="O3" s="23">
+        <v>237399</v>
+      </c>
+      <c r="P3" s="23">
+        <v>2023547</v>
+      </c>
+      <c r="Q3" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="R3" s="18">
+        <v>1</v>
+      </c>
+      <c r="S3" s="31">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="18">
+        <v>3</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="20">
+        <v>11767769.699999999</v>
+      </c>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="20">
+        <v>1548390.75</v>
+      </c>
+      <c r="P4" s="20">
+        <v>10838735.25</v>
+      </c>
+      <c r="Q4" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="R4" s="18">
+        <v>1</v>
+      </c>
+      <c r="S4" s="31">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="18">
+        <v>4</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22">
+        <v>831186</v>
+      </c>
+      <c r="N5" s="22"/>
+      <c r="O5" s="23">
+        <v>104719</v>
+      </c>
+      <c r="P5" s="23">
+        <v>726467</v>
+      </c>
+      <c r="Q5" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="R5" s="18">
+        <v>2</v>
+      </c>
+      <c r="S5" s="31">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="18">
+        <v>5</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="22">
+        <v>12310799</v>
+      </c>
+      <c r="F6" s="23"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="22">
+        <v>1538850</v>
+      </c>
+      <c r="P6" s="22">
+        <v>10771949</v>
+      </c>
+      <c r="Q6" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="R6" s="18">
+        <v>1</v>
+      </c>
+      <c r="S6" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" s="18">
+        <v>6</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="22">
+        <v>11592350</v>
+      </c>
+      <c r="F7" s="23"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="22">
+        <v>1449044</v>
+      </c>
+      <c r="P7" s="22">
+        <v>10143306</v>
+      </c>
+      <c r="Q7" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="R7" s="18">
+        <v>1</v>
+      </c>
+      <c r="S7" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" s="18">
+        <v>7</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="20">
+        <v>3807686.27</v>
+      </c>
+      <c r="F8" s="22">
+        <v>2651098.73</v>
+      </c>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="20">
+        <v>807349</v>
+      </c>
+      <c r="P8" s="20">
+        <v>5651436</v>
+      </c>
+      <c r="Q8" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="R8" s="18">
+        <v>4</v>
+      </c>
+      <c r="S8" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="18">
+        <v>8</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22">
+        <v>13531309</v>
+      </c>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="22">
+        <v>1691414</v>
+      </c>
+      <c r="P9" s="22">
+        <v>11839895</v>
+      </c>
+      <c r="Q9" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="R9" s="18">
+        <v>5</v>
+      </c>
+      <c r="S9" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="18">
+        <v>9</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="C10" s="22">
+        <v>1030629.59</v>
+      </c>
+      <c r="D10" s="22"/>
+      <c r="E10" s="20">
+        <v>14040211.41</v>
+      </c>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="23">
+        <v>1883855</v>
+      </c>
+      <c r="P10" s="23">
+        <v>13186986</v>
+      </c>
+      <c r="Q10" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="R10" s="18">
+        <v>4</v>
+      </c>
+      <c r="S10" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" s="18">
+        <v>10</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="20">
+        <v>5940195.3899999997</v>
+      </c>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22">
+        <v>4930259.62</v>
+      </c>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="22">
+        <v>1358807</v>
+      </c>
+      <c r="P11" s="22">
+        <v>9511648</v>
+      </c>
+      <c r="Q11" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="R11" s="18">
+        <v>1</v>
+      </c>
+      <c r="S11" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="18">
+        <v>11</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="20">
+        <v>660021.52</v>
+      </c>
+      <c r="G12" s="23"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="20">
+        <v>547806.48</v>
+      </c>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="23">
+        <v>150979</v>
+      </c>
+      <c r="P12" s="23">
+        <v>1056849</v>
+      </c>
+      <c r="Q12" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="R12" s="18">
+        <v>2</v>
+      </c>
+      <c r="S12" s="31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" s="18">
+        <v>12</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="C13" s="20">
+        <v>5512499.8200000003</v>
+      </c>
+      <c r="D13" s="22"/>
+      <c r="E13" s="20">
+        <v>6900291.8300000001</v>
+      </c>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="20">
+        <v>6155723.3499999996</v>
+      </c>
+      <c r="K13" s="22"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="22"/>
+      <c r="O13" s="23">
+        <v>2321064</v>
+      </c>
+      <c r="P13" s="23">
+        <v>16247451</v>
+      </c>
+      <c r="Q13" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="R13" s="18">
+        <v>9</v>
+      </c>
+      <c r="S13" s="31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" s="18">
+        <v>13</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="20">
+        <v>4360515.01</v>
+      </c>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="20">
+        <v>4734271.99</v>
+      </c>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="22"/>
+      <c r="O14" s="23">
+        <v>1136848</v>
+      </c>
+      <c r="P14" s="23">
+        <v>7957939</v>
+      </c>
+      <c r="Q14" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="R14" s="18">
+        <v>4</v>
+      </c>
+      <c r="S14" s="31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="18">
+        <v>14</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="22">
+        <v>3214492</v>
+      </c>
+      <c r="F15" s="23"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="22"/>
+      <c r="O15" s="22">
+        <v>401812</v>
+      </c>
+      <c r="P15" s="22">
+        <v>2812680</v>
+      </c>
+      <c r="Q15" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="R15" s="18">
+        <v>5</v>
+      </c>
+      <c r="S15" s="31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="20">
+        <v>15</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>298</v>
+      </c>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="22">
+        <v>10040694</v>
+      </c>
+      <c r="F16" s="23"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="22"/>
+      <c r="N16" s="22"/>
+      <c r="O16" s="22">
+        <v>1255087</v>
+      </c>
+      <c r="P16" s="22">
+        <v>8785607</v>
+      </c>
+      <c r="Q16" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="R16" s="20">
+        <v>7</v>
+      </c>
+      <c r="S16" s="31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17" s="18">
+        <v>16</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="22">
+        <v>0</v>
+      </c>
+      <c r="F17" s="22">
+        <v>12042332</v>
+      </c>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="22"/>
+      <c r="N17" s="22"/>
+      <c r="O17" s="22">
+        <v>1505304</v>
+      </c>
+      <c r="P17" s="22">
+        <v>10537128</v>
+      </c>
+      <c r="Q17" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="R17" s="18">
+        <v>2</v>
+      </c>
+      <c r="S17" s="31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A18" s="18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="22">
+        <v>7786053</v>
+      </c>
+      <c r="F18" s="23"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="22">
+        <v>973257</v>
+      </c>
+      <c r="P18" s="22">
+        <v>6812796</v>
+      </c>
+      <c r="Q18" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="R18" s="18">
+        <v>5</v>
+      </c>
+      <c r="S18" s="31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19" s="18">
+        <v>18</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="20">
+        <v>6244931.3099999996</v>
+      </c>
+      <c r="F19" s="20">
+        <v>5702443.6900000004</v>
+      </c>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="22"/>
+      <c r="N19" s="22"/>
+      <c r="O19" s="23">
+        <v>1493422</v>
+      </c>
+      <c r="P19" s="23">
+        <v>10453953</v>
+      </c>
+      <c r="Q19" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="R19" s="18">
+        <v>5</v>
+      </c>
+      <c r="S19" s="31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A20" s="18">
+        <v>19</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22">
+        <v>4129593</v>
+      </c>
+      <c r="K20" s="22"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="22"/>
+      <c r="N20" s="22"/>
+      <c r="O20" s="22">
+        <v>516199</v>
+      </c>
+      <c r="P20" s="22">
+        <v>3613394</v>
+      </c>
+      <c r="Q20" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="R20" s="18">
+        <v>5</v>
+      </c>
+      <c r="S20" s="31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A21" s="18">
+        <v>20</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22">
+        <v>3129025</v>
+      </c>
+      <c r="K21" s="22"/>
+      <c r="L21" s="22"/>
+      <c r="M21" s="22"/>
+      <c r="N21" s="22"/>
+      <c r="O21" s="22">
+        <v>391128</v>
+      </c>
+      <c r="P21" s="22">
+        <v>2737897</v>
+      </c>
+      <c r="Q21" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="R21" s="18">
+        <v>6</v>
+      </c>
+      <c r="S21" s="31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A22" s="18">
+        <v>21</v>
+      </c>
+      <c r="B22" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24">
+        <v>10121557.060000001</v>
+      </c>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="25">
+        <v>9416806.852</v>
+      </c>
+      <c r="K22" s="26"/>
+      <c r="L22" s="26"/>
+      <c r="M22" s="26"/>
+      <c r="N22" s="26"/>
+      <c r="O22" s="25">
+        <v>2442296</v>
+      </c>
+      <c r="P22" s="25">
+        <v>17096068</v>
+      </c>
+      <c r="Q22" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="R22" s="18">
+        <v>4</v>
+      </c>
+      <c r="S22" s="31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A23" s="18">
+        <v>22</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="25">
+        <v>4153902.9180000001</v>
+      </c>
+      <c r="K23" s="26"/>
+      <c r="L23" s="26"/>
+      <c r="M23" s="26"/>
+      <c r="N23" s="26"/>
+      <c r="O23" s="25">
+        <v>519238</v>
+      </c>
+      <c r="P23" s="25">
+        <v>3634665</v>
+      </c>
+      <c r="Q23" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="R23" s="18">
+        <v>9</v>
+      </c>
+      <c r="S23" s="31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A24" s="18">
+        <v>23</v>
+      </c>
+      <c r="B24" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="25">
+        <v>31435052</v>
+      </c>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="24"/>
+      <c r="M24" s="24"/>
+      <c r="N24" s="24"/>
+      <c r="O24" s="24">
+        <v>3929382</v>
+      </c>
+      <c r="P24" s="24">
+        <v>27505670</v>
+      </c>
+      <c r="Q24" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="R24" s="18">
+        <v>2</v>
+      </c>
+      <c r="S24" s="31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A25" s="18">
+        <v>24</v>
+      </c>
+      <c r="B25" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="24"/>
+      <c r="L25" s="24">
+        <v>7440653</v>
+      </c>
+      <c r="M25" s="24"/>
+      <c r="N25" s="24"/>
+      <c r="O25" s="24">
+        <v>930082</v>
+      </c>
+      <c r="P25" s="24">
+        <v>6510571</v>
+      </c>
+      <c r="Q25" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="R25" s="18">
+        <v>1</v>
+      </c>
+      <c r="S25" s="31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A26" s="18">
+        <v>25</v>
+      </c>
+      <c r="B26" s="24" t="s">
+        <v>299</v>
+      </c>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="24">
+        <v>8773275</v>
+      </c>
+      <c r="K26" s="24"/>
+      <c r="L26" s="24"/>
+      <c r="M26" s="24"/>
+      <c r="N26" s="24"/>
+      <c r="O26" s="24">
+        <v>1096659</v>
+      </c>
+      <c r="P26" s="24">
+        <v>7676616</v>
+      </c>
+      <c r="Q26" s="19" t="s">
+        <v>205</v>
+      </c>
+      <c r="R26" s="18">
+        <v>5</v>
+      </c>
+      <c r="S26" s="31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A27" s="18">
+        <v>26</v>
+      </c>
+      <c r="B27" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24">
+        <v>967157.26999999955</v>
+      </c>
+      <c r="F27" s="24">
+        <v>7576934.0999999996</v>
+      </c>
+      <c r="G27" s="24"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="24"/>
+      <c r="M27" s="24"/>
+      <c r="N27" s="24"/>
+      <c r="O27" s="24">
+        <v>1068011</v>
+      </c>
+      <c r="P27" s="24">
+        <v>7476080</v>
+      </c>
+      <c r="Q27" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="R27" s="18">
+        <v>7</v>
+      </c>
+      <c r="S27" s="31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A28" s="18">
+        <v>27</v>
+      </c>
+      <c r="B28" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24">
+        <v>15300148.25</v>
+      </c>
+      <c r="F28" s="24"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="24">
+        <v>5002242.9400000004</v>
+      </c>
+      <c r="K28" s="24"/>
+      <c r="L28" s="24"/>
+      <c r="M28" s="24"/>
+      <c r="N28" s="24"/>
+      <c r="O28" s="24">
+        <v>2537799</v>
+      </c>
+      <c r="P28" s="24">
+        <v>17764592</v>
+      </c>
+      <c r="Q28" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="R28" s="18">
+        <v>2</v>
+      </c>
+      <c r="S28" s="31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A29" s="18">
+        <v>28</v>
+      </c>
+      <c r="B29" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="24"/>
+      <c r="J29" s="24">
+        <v>6272429.75</v>
+      </c>
+      <c r="K29" s="24"/>
+      <c r="L29" s="24"/>
+      <c r="M29" s="24"/>
+      <c r="N29" s="24"/>
+      <c r="O29" s="24">
+        <v>784054</v>
+      </c>
+      <c r="P29" s="24">
+        <v>5488375</v>
+      </c>
+      <c r="Q29" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="R29" s="18">
+        <v>4</v>
+      </c>
+      <c r="S29" s="31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A30" s="18">
+        <v>29</v>
+      </c>
+      <c r="B30" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24">
+        <v>2376584.4930000007</v>
+      </c>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="24"/>
+      <c r="J30" s="24">
+        <v>5851260.3669999996</v>
+      </c>
+      <c r="K30" s="24"/>
+      <c r="L30" s="24"/>
+      <c r="M30" s="24"/>
+      <c r="N30" s="24"/>
+      <c r="O30" s="24">
+        <v>1028481</v>
+      </c>
+      <c r="P30" s="24">
+        <v>7199364</v>
+      </c>
+      <c r="Q30" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="R30" s="18">
+        <v>4</v>
+      </c>
+      <c r="S30" s="31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A31" s="18">
+        <v>30</v>
+      </c>
+      <c r="B31" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="C31" s="24"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="24">
+        <v>3951018.61</v>
+      </c>
+      <c r="F31" s="24">
+        <v>1303448.1200000001</v>
+      </c>
+      <c r="G31" s="24"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="24"/>
+      <c r="J31" s="24">
+        <v>3401350.1</v>
+      </c>
+      <c r="K31" s="24"/>
+      <c r="L31" s="24"/>
+      <c r="M31" s="24"/>
+      <c r="N31" s="24"/>
+      <c r="O31" s="24">
+        <v>1081977</v>
+      </c>
+      <c r="P31" s="24">
+        <v>7573840</v>
+      </c>
+      <c r="Q31" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="R31" s="18">
+        <v>2</v>
+      </c>
+      <c r="S31" s="31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A32" s="18">
+        <v>31</v>
+      </c>
+      <c r="B32" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="C32" s="24"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="24">
+        <v>5018209.87</v>
+      </c>
+      <c r="G32" s="24"/>
+      <c r="H32" s="24"/>
+      <c r="I32" s="24"/>
+      <c r="J32" s="24"/>
+      <c r="K32" s="24"/>
+      <c r="L32" s="24"/>
+      <c r="M32" s="24"/>
+      <c r="N32" s="24"/>
+      <c r="O32" s="24">
+        <v>627276</v>
+      </c>
+      <c r="P32" s="24">
+        <v>4390934</v>
+      </c>
+      <c r="Q32" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="R32" s="18">
+        <v>6</v>
+      </c>
+      <c r="S32" s="31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A33" s="18">
+        <v>32</v>
+      </c>
+      <c r="B33" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="C33" s="24"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="24">
+        <v>28440949.879999999</v>
+      </c>
+      <c r="G33" s="24"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="24"/>
+      <c r="J33" s="24"/>
+      <c r="K33" s="24"/>
+      <c r="L33" s="24"/>
+      <c r="M33" s="24"/>
+      <c r="N33" s="24"/>
+      <c r="O33" s="24">
+        <v>2930119</v>
+      </c>
+      <c r="P33" s="24">
+        <v>20510831</v>
+      </c>
+      <c r="Q33" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="R33" s="18">
+        <v>6</v>
+      </c>
+      <c r="S33" s="31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A34" s="18">
+        <v>33</v>
+      </c>
+      <c r="B34" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="C34" s="24"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="24"/>
+      <c r="H34" s="24"/>
+      <c r="I34" s="24"/>
+      <c r="J34" s="24">
+        <v>11803695.960000001</v>
+      </c>
+      <c r="K34" s="24"/>
+      <c r="L34" s="24"/>
+      <c r="M34" s="24"/>
+      <c r="N34" s="24"/>
+      <c r="O34" s="24">
+        <v>1475462</v>
+      </c>
+      <c r="P34" s="24">
+        <v>10328234</v>
+      </c>
+      <c r="Q34" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="R34" s="18">
+        <v>4</v>
+      </c>
+      <c r="S34" s="31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A35" s="18">
+        <v>34</v>
+      </c>
+      <c r="B35" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="C35" s="24"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="24">
+        <v>3678989.3829999999</v>
+      </c>
+      <c r="F35" s="24">
+        <v>1997998.9920000001</v>
+      </c>
+      <c r="G35" s="24"/>
+      <c r="H35" s="24"/>
+      <c r="I35" s="24"/>
+      <c r="J35" s="24"/>
+      <c r="K35" s="24">
+        <v>24430.226999999999</v>
+      </c>
+      <c r="L35" s="24"/>
+      <c r="M35" s="24"/>
+      <c r="N35" s="24"/>
+      <c r="O35" s="24">
+        <v>712677</v>
+      </c>
+      <c r="P35" s="24">
+        <v>4988742</v>
+      </c>
+      <c r="Q35" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="R35" s="18">
+        <v>5</v>
+      </c>
+      <c r="S35" s="31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A36" s="20">
+        <v>35</v>
+      </c>
+      <c r="B36" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="C36" s="24"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="24">
+        <v>764582</v>
+      </c>
+      <c r="F36" s="24"/>
+      <c r="G36" s="24"/>
+      <c r="H36" s="24"/>
+      <c r="I36" s="24"/>
+      <c r="J36" s="24">
+        <v>7622328.6999999993</v>
+      </c>
+      <c r="K36" s="24"/>
+      <c r="L36" s="24"/>
+      <c r="M36" s="24"/>
+      <c r="N36" s="24"/>
+      <c r="O36" s="24">
+        <v>1048364</v>
+      </c>
+      <c r="P36" s="24">
+        <v>7338547</v>
+      </c>
+      <c r="Q36" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="R36" s="18">
+        <v>5</v>
+      </c>
+      <c r="S36" s="31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A37" s="18">
+        <v>36</v>
+      </c>
+      <c r="B37" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="C37" s="24">
+        <v>4444197.7699999996</v>
+      </c>
+      <c r="D37" s="24"/>
+      <c r="E37" s="24">
+        <v>181114.16399999999</v>
+      </c>
+      <c r="F37" s="24"/>
+      <c r="G37" s="24"/>
+      <c r="H37" s="24"/>
+      <c r="I37" s="24"/>
+      <c r="J37" s="24"/>
+      <c r="K37" s="24"/>
+      <c r="L37" s="24"/>
+      <c r="M37" s="24"/>
+      <c r="N37" s="24"/>
+      <c r="O37" s="24">
+        <v>781917</v>
+      </c>
+      <c r="P37" s="24">
+        <v>5473421</v>
+      </c>
+      <c r="Q37" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="R37" s="18">
+        <v>10</v>
+      </c>
+      <c r="S37" s="31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A38" s="18">
+        <v>37</v>
+      </c>
+      <c r="B38" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="C38" s="24"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="24">
+        <v>28440949.879999999</v>
+      </c>
+      <c r="G38" s="24"/>
+      <c r="H38" s="24"/>
+      <c r="I38" s="24"/>
+      <c r="J38" s="24"/>
+      <c r="K38" s="24"/>
+      <c r="L38" s="24"/>
+      <c r="M38" s="24"/>
+      <c r="N38" s="24"/>
+      <c r="O38" s="24">
+        <v>625000</v>
+      </c>
+      <c r="P38" s="24">
+        <v>4375000</v>
+      </c>
+      <c r="Q38" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="R38" s="18">
+        <v>6</v>
+      </c>
+      <c r="S38" s="31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A39" s="18">
+        <v>38</v>
+      </c>
+      <c r="B39" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="C39" s="24"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="24">
+        <v>31061589.32</v>
+      </c>
+      <c r="F39" s="24"/>
+      <c r="G39" s="24"/>
+      <c r="H39" s="24"/>
+      <c r="I39" s="24"/>
+      <c r="J39" s="24"/>
+      <c r="K39" s="24"/>
+      <c r="L39" s="24"/>
+      <c r="M39" s="24"/>
+      <c r="N39" s="24"/>
+      <c r="O39" s="24">
+        <v>3882699</v>
+      </c>
+      <c r="P39" s="24">
+        <v>27178890</v>
+      </c>
+      <c r="Q39" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="R39" s="18">
+        <v>2</v>
+      </c>
+      <c r="S39" s="31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A40" s="18">
+        <v>39</v>
+      </c>
+      <c r="B40" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="C40" s="24"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="24">
+        <v>18143506.600000001</v>
+      </c>
+      <c r="F40" s="24"/>
+      <c r="G40" s="24"/>
+      <c r="H40" s="24"/>
+      <c r="I40" s="24"/>
+      <c r="J40" s="24">
+        <v>644634.19999999995</v>
+      </c>
+      <c r="K40" s="24"/>
+      <c r="L40" s="24"/>
+      <c r="M40" s="24"/>
+      <c r="N40" s="24"/>
+      <c r="O40" s="24">
+        <v>2348518</v>
+      </c>
+      <c r="P40" s="24">
+        <v>16439623</v>
+      </c>
+      <c r="Q40" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="R40" s="18">
+        <v>3</v>
+      </c>
+      <c r="S40" s="31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A41" s="18">
+        <v>40</v>
+      </c>
+      <c r="B41" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="C41" s="24"/>
+      <c r="D41" s="24"/>
+      <c r="E41" s="24"/>
+      <c r="F41" s="24">
+        <v>35010947</v>
+      </c>
+      <c r="G41" s="24"/>
+      <c r="H41" s="24"/>
+      <c r="I41" s="24"/>
+      <c r="J41" s="24"/>
+      <c r="K41" s="24"/>
+      <c r="L41" s="24"/>
+      <c r="M41" s="24"/>
+      <c r="N41" s="24"/>
+      <c r="O41" s="24">
+        <v>4376368</v>
+      </c>
+      <c r="P41" s="24">
+        <v>30634579</v>
+      </c>
+      <c r="Q41" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="R41" s="18">
+        <v>3</v>
+      </c>
+      <c r="S41" s="31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A42" s="18">
+        <v>41</v>
+      </c>
+      <c r="B42" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="C42" s="24"/>
+      <c r="D42" s="24"/>
+      <c r="E42" s="24"/>
+      <c r="F42" s="24">
+        <v>9000456.8900000006</v>
+      </c>
+      <c r="G42" s="24"/>
+      <c r="H42" s="24"/>
+      <c r="I42" s="24"/>
+      <c r="J42" s="24"/>
+      <c r="K42" s="24"/>
+      <c r="L42" s="24"/>
+      <c r="M42" s="24"/>
+      <c r="N42" s="24"/>
+      <c r="O42" s="24">
+        <v>1125057</v>
+      </c>
+      <c r="P42" s="24">
+        <v>7875399</v>
+      </c>
+      <c r="Q42" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="R42" s="18">
+        <v>7</v>
+      </c>
+      <c r="S42" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A43" s="18">
+        <v>42</v>
+      </c>
+      <c r="B43" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="C43" s="24"/>
+      <c r="D43" s="24"/>
+      <c r="E43" s="24"/>
+      <c r="F43" s="24"/>
+      <c r="G43" s="24"/>
+      <c r="H43" s="24"/>
+      <c r="I43" s="24"/>
+      <c r="J43" s="24">
+        <v>6195501.8360000001</v>
+      </c>
+      <c r="K43" s="24"/>
+      <c r="L43" s="24"/>
+      <c r="M43" s="24"/>
+      <c r="N43" s="24"/>
+      <c r="O43" s="24">
+        <v>774438</v>
+      </c>
+      <c r="P43" s="24">
+        <v>5421064</v>
+      </c>
+      <c r="Q43" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="R43" s="18">
+        <v>8</v>
+      </c>
+      <c r="S43" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A44" s="18">
+        <v>43</v>
+      </c>
+      <c r="B44" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="C44" s="24">
+        <v>2677161.36</v>
+      </c>
+      <c r="D44" s="24"/>
+      <c r="E44" s="24">
+        <v>6396151.4699999997</v>
+      </c>
+      <c r="F44" s="24"/>
+      <c r="G44" s="24"/>
+      <c r="H44" s="24"/>
+      <c r="I44" s="24"/>
+      <c r="J44" s="24">
+        <v>686638.29</v>
+      </c>
+      <c r="K44" s="24"/>
+      <c r="L44" s="24"/>
+      <c r="M44" s="24"/>
+      <c r="N44" s="24"/>
+      <c r="O44" s="24">
+        <v>1181215</v>
+      </c>
+      <c r="P44" s="24">
+        <v>8268502</v>
+      </c>
+      <c r="Q44" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="R44" s="18">
+        <v>11</v>
+      </c>
+      <c r="S44" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A45" s="18">
+        <v>44</v>
+      </c>
+      <c r="B45" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="C45" s="24"/>
+      <c r="D45" s="24"/>
+      <c r="E45" s="24">
+        <v>333327.88400000002</v>
+      </c>
+      <c r="F45" s="24"/>
+      <c r="G45" s="24"/>
+      <c r="H45" s="24"/>
+      <c r="I45" s="24"/>
+      <c r="J45" s="24">
+        <v>4060359.2289999998</v>
+      </c>
+      <c r="K45" s="24"/>
+      <c r="L45" s="24"/>
+      <c r="M45" s="24"/>
+      <c r="N45" s="24"/>
+      <c r="O45" s="24">
+        <v>549211</v>
+      </c>
+      <c r="P45" s="24">
+        <v>3844476</v>
+      </c>
+      <c r="Q45" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="R45" s="18">
+        <v>8</v>
+      </c>
+      <c r="S45" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A46" s="18">
+        <v>45</v>
+      </c>
+      <c r="B46" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="C46" s="24"/>
+      <c r="D46" s="24"/>
+      <c r="E46" s="24"/>
+      <c r="F46" s="24"/>
+      <c r="G46" s="24"/>
+      <c r="H46" s="24"/>
+      <c r="I46" s="24"/>
+      <c r="J46" s="24">
+        <v>2275479</v>
+      </c>
+      <c r="K46" s="24"/>
+      <c r="L46" s="24"/>
+      <c r="M46" s="24"/>
+      <c r="N46" s="24"/>
+      <c r="O46" s="24">
+        <v>284435</v>
+      </c>
+      <c r="P46" s="24">
+        <v>1991044</v>
+      </c>
+      <c r="Q46" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="R46" s="18">
+        <v>10</v>
+      </c>
+      <c r="S46" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A47" s="18">
+        <v>46</v>
+      </c>
+      <c r="B47" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="C47" s="24"/>
+      <c r="D47" s="24"/>
+      <c r="E47" s="24">
+        <v>8581506.1300000008</v>
+      </c>
+      <c r="F47" s="24"/>
+      <c r="G47" s="24"/>
+      <c r="H47" s="24"/>
+      <c r="I47" s="24"/>
+      <c r="J47" s="24"/>
+      <c r="K47" s="24"/>
+      <c r="L47" s="24"/>
+      <c r="M47" s="24"/>
+      <c r="N47" s="24"/>
+      <c r="O47" s="24">
+        <v>1072688</v>
+      </c>
+      <c r="P47" s="24">
+        <v>7508818</v>
+      </c>
+      <c r="Q47" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="R47" s="18">
+        <v>6</v>
+      </c>
+      <c r="S47" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A48" s="18">
+        <v>47</v>
+      </c>
+      <c r="B48" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="C48" s="24"/>
+      <c r="D48" s="24"/>
+      <c r="E48" s="24"/>
+      <c r="F48" s="24"/>
+      <c r="G48" s="24"/>
+      <c r="H48" s="24"/>
+      <c r="I48" s="24"/>
+      <c r="J48" s="24">
+        <v>19139634.739999998</v>
+      </c>
+      <c r="K48" s="24"/>
+      <c r="L48" s="24"/>
+      <c r="M48" s="24"/>
+      <c r="N48" s="24"/>
+      <c r="O48" s="24">
+        <v>2392454</v>
+      </c>
+      <c r="P48" s="24">
+        <v>16747181</v>
+      </c>
+      <c r="Q48" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="R48" s="18">
+        <v>1</v>
+      </c>
+      <c r="S48" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A49" s="18">
+        <v>48</v>
+      </c>
+      <c r="B49" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="C49" s="24"/>
+      <c r="D49" s="24"/>
+      <c r="E49" s="24">
+        <v>52195699.359999999</v>
+      </c>
+      <c r="F49" s="24"/>
+      <c r="G49" s="24"/>
+      <c r="H49" s="24"/>
+      <c r="I49" s="24"/>
+      <c r="J49" s="24"/>
+      <c r="K49" s="24"/>
+      <c r="L49" s="24"/>
+      <c r="M49" s="24"/>
+      <c r="N49" s="24"/>
+      <c r="O49" s="24">
+        <v>6524462</v>
+      </c>
+      <c r="P49" s="24">
+        <v>45671237</v>
+      </c>
+      <c r="Q49" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="R49" s="18">
+        <v>3</v>
+      </c>
+      <c r="S49" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A50" s="18">
+        <v>49</v>
+      </c>
+      <c r="B50" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="C50" s="24"/>
+      <c r="D50" s="24"/>
+      <c r="E50" s="24">
+        <v>14453370.689999998</v>
+      </c>
+      <c r="F50" s="24"/>
+      <c r="G50" s="24"/>
+      <c r="H50" s="24"/>
+      <c r="I50" s="24"/>
+      <c r="J50" s="24">
+        <v>6619216.5499999998</v>
+      </c>
+      <c r="K50" s="24"/>
+      <c r="L50" s="24"/>
+      <c r="M50" s="24"/>
+      <c r="N50" s="24"/>
+      <c r="O50" s="24">
+        <v>2571157</v>
+      </c>
+      <c r="P50" s="24">
+        <v>17998099</v>
+      </c>
+      <c r="Q50" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="R50" s="18">
+        <v>4</v>
+      </c>
+      <c r="S50" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A51" s="18">
+        <v>50</v>
+      </c>
+      <c r="B51" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="C51" s="24"/>
+      <c r="D51" s="24"/>
+      <c r="E51" s="24"/>
+      <c r="F51" s="24">
+        <v>1017606.69</v>
+      </c>
+      <c r="G51" s="24"/>
+      <c r="H51" s="24"/>
+      <c r="I51" s="24"/>
+      <c r="J51" s="24">
+        <v>5862363.6399999997</v>
+      </c>
+      <c r="K51" s="24"/>
+      <c r="L51" s="24"/>
+      <c r="M51" s="24"/>
+      <c r="N51" s="24"/>
+      <c r="O51" s="24">
+        <v>687997</v>
+      </c>
+      <c r="P51" s="24">
+        <v>4815979</v>
+      </c>
+      <c r="Q51" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="R51" s="18">
+        <v>6</v>
+      </c>
+      <c r="S51" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A52" s="18">
+        <v>51</v>
+      </c>
+      <c r="B52" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="C52" s="24"/>
+      <c r="D52" s="24"/>
+      <c r="E52" s="24"/>
+      <c r="F52" s="24">
+        <v>30565887.629999999</v>
+      </c>
+      <c r="G52" s="24"/>
+      <c r="H52" s="24"/>
+      <c r="I52" s="24"/>
+      <c r="J52" s="24"/>
+      <c r="K52" s="24"/>
+      <c r="L52" s="24"/>
+      <c r="M52" s="24"/>
+      <c r="N52" s="24"/>
+      <c r="O52" s="24">
+        <v>3820736</v>
+      </c>
+      <c r="P52" s="24">
+        <v>26745152</v>
+      </c>
+      <c r="Q52" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="R52" s="18">
+        <v>4</v>
+      </c>
+      <c r="S52" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A53" s="18">
+        <v>52</v>
+      </c>
+      <c r="B53" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="C53" s="24"/>
+      <c r="D53" s="24"/>
+      <c r="E53" s="24"/>
+      <c r="F53" s="24"/>
+      <c r="G53" s="24">
+        <v>5108675.07</v>
+      </c>
+      <c r="H53" s="24"/>
+      <c r="I53" s="24"/>
+      <c r="J53" s="24"/>
+      <c r="K53" s="24"/>
+      <c r="L53" s="24"/>
+      <c r="M53" s="24"/>
+      <c r="N53" s="24"/>
+      <c r="O53" s="24">
+        <v>638585</v>
+      </c>
+      <c r="P53" s="24">
+        <v>4470090</v>
+      </c>
+      <c r="Q53" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="R53" s="18">
+        <v>1</v>
+      </c>
+      <c r="S53" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A54" s="18">
+        <v>53</v>
+      </c>
+      <c r="B54" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="C54" s="24"/>
+      <c r="D54" s="24"/>
+      <c r="E54" s="24">
+        <v>19919089.84</v>
+      </c>
+      <c r="F54" s="24"/>
+      <c r="G54" s="24"/>
+      <c r="H54" s="24"/>
+      <c r="I54" s="24"/>
+      <c r="J54" s="24"/>
+      <c r="K54" s="24"/>
+      <c r="L54" s="24"/>
+      <c r="M54" s="24"/>
+      <c r="N54" s="24"/>
+      <c r="O54" s="24">
+        <v>2489886</v>
+      </c>
+      <c r="P54" s="24">
+        <v>17429204</v>
+      </c>
+      <c r="Q54" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="R54" s="18">
+        <v>3</v>
+      </c>
+      <c r="S54" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A55" s="18">
+        <v>54</v>
+      </c>
+      <c r="B55" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="C55" s="24"/>
+      <c r="D55" s="24"/>
+      <c r="E55" s="24">
+        <v>10607590.279999999</v>
+      </c>
+      <c r="F55" s="24"/>
+      <c r="G55" s="24"/>
+      <c r="H55" s="24"/>
+      <c r="I55" s="24"/>
+      <c r="J55" s="24"/>
+      <c r="K55" s="24"/>
+      <c r="L55" s="24"/>
+      <c r="M55" s="24"/>
+      <c r="N55" s="24"/>
+      <c r="O55" s="24">
+        <v>1325949</v>
+      </c>
+      <c r="P55" s="24">
+        <v>9281641</v>
+      </c>
+      <c r="Q55" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="R55" s="18">
+        <v>1</v>
+      </c>
+      <c r="S55" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A56" s="18">
+        <v>55</v>
+      </c>
+      <c r="B56" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="C56" s="24"/>
+      <c r="D56" s="24"/>
+      <c r="E56" s="24"/>
+      <c r="F56" s="24"/>
+      <c r="G56" s="24"/>
+      <c r="H56" s="24"/>
+      <c r="I56" s="24"/>
+      <c r="J56" s="24">
+        <v>21924820</v>
+      </c>
+      <c r="K56" s="24"/>
+      <c r="L56" s="24"/>
+      <c r="M56" s="24"/>
+      <c r="N56" s="24"/>
+      <c r="O56" s="24">
+        <v>2740603</v>
+      </c>
+      <c r="P56" s="24">
+        <v>19184217</v>
+      </c>
+      <c r="Q56" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="R56" s="18">
+        <v>5</v>
+      </c>
+      <c r="S56" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A57" s="36">
+        <v>56</v>
+      </c>
+      <c r="B57" s="37" t="s">
+        <v>170</v>
+      </c>
+      <c r="C57" s="37"/>
+      <c r="D57" s="37"/>
+      <c r="E57" s="37">
+        <v>3582351.46</v>
+      </c>
+      <c r="F57" s="37"/>
+      <c r="G57" s="37"/>
+      <c r="H57" s="37"/>
+      <c r="I57" s="37"/>
+      <c r="J57" s="37"/>
+      <c r="K57" s="38"/>
+      <c r="L57" s="37"/>
+      <c r="M57" s="37"/>
+      <c r="N57" s="37"/>
+      <c r="O57" s="37">
+        <v>447794</v>
+      </c>
+      <c r="P57" s="37">
+        <v>3134557</v>
+      </c>
+      <c r="Q57" s="39" t="s">
+        <v>171</v>
+      </c>
+      <c r="R57" s="36">
+        <v>6</v>
+      </c>
+      <c r="S57" s="38">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A58" s="36">
+        <v>57</v>
+      </c>
+      <c r="B58" s="37" t="s">
+        <v>172</v>
+      </c>
+      <c r="C58" s="37"/>
+      <c r="D58" s="37"/>
+      <c r="E58" s="37">
+        <v>3457479.39</v>
+      </c>
+      <c r="F58" s="37"/>
+      <c r="G58" s="37"/>
+      <c r="H58" s="37"/>
+      <c r="I58" s="37"/>
+      <c r="J58" s="37">
+        <v>3940433.72</v>
+      </c>
+      <c r="K58" s="38"/>
+      <c r="L58" s="37"/>
+      <c r="M58" s="37"/>
+      <c r="N58" s="37"/>
+      <c r="O58" s="37">
+        <v>924739</v>
+      </c>
+      <c r="P58" s="37">
+        <v>6473174</v>
+      </c>
+      <c r="Q58" s="39" t="s">
+        <v>114</v>
+      </c>
+      <c r="R58" s="36">
+        <v>5</v>
+      </c>
+      <c r="S58" s="38">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A59" s="18">
+        <v>58</v>
+      </c>
+      <c r="B59" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="C59" s="24"/>
+      <c r="D59" s="24"/>
+      <c r="E59" s="24"/>
+      <c r="F59" s="24">
+        <v>3785875.06</v>
+      </c>
+      <c r="G59" s="24"/>
+      <c r="H59" s="24"/>
+      <c r="I59" s="24"/>
+      <c r="J59" s="24"/>
+      <c r="K59" s="24"/>
+      <c r="L59" s="24"/>
+      <c r="M59" s="24"/>
+      <c r="N59" s="24"/>
+      <c r="O59" s="24">
+        <v>473234</v>
+      </c>
+      <c r="P59" s="24">
+        <v>3312641</v>
+      </c>
+      <c r="Q59" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="R59" s="18">
+        <v>12</v>
+      </c>
+      <c r="S59" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A60" s="18">
+        <v>59</v>
+      </c>
+      <c r="B60" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="C60" s="24"/>
+      <c r="D60" s="24"/>
+      <c r="E60" s="24"/>
+      <c r="F60" s="24"/>
+      <c r="G60" s="24"/>
+      <c r="H60" s="24"/>
+      <c r="I60" s="24"/>
+      <c r="J60" s="24">
+        <v>10106760.09</v>
+      </c>
+      <c r="K60" s="24"/>
+      <c r="L60" s="24"/>
+      <c r="M60" s="24"/>
+      <c r="N60" s="24"/>
+      <c r="O60" s="24">
+        <v>1263345</v>
+      </c>
+      <c r="P60" s="24">
+        <v>8843415</v>
+      </c>
+      <c r="Q60" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="R60" s="18">
+        <v>5</v>
+      </c>
+      <c r="S60" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A61" s="18">
+        <v>60</v>
+      </c>
+      <c r="B61" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="C61" s="24"/>
+      <c r="D61" s="24"/>
+      <c r="E61" s="24"/>
+      <c r="F61" s="24"/>
+      <c r="G61" s="24">
+        <v>9265078.2200000007</v>
+      </c>
+      <c r="H61" s="24"/>
+      <c r="I61" s="24"/>
+      <c r="J61" s="24"/>
+      <c r="K61" s="24"/>
+      <c r="L61" s="24"/>
+      <c r="M61" s="24"/>
+      <c r="N61" s="24"/>
+      <c r="O61" s="24">
+        <v>1158135</v>
+      </c>
+      <c r="P61" s="24">
+        <v>8106943</v>
+      </c>
+      <c r="Q61" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="R61" s="18">
+        <v>4</v>
+      </c>
+      <c r="S61" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A62" s="18">
+        <v>61</v>
+      </c>
+      <c r="B62" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="C62" s="24"/>
+      <c r="D62" s="24"/>
+      <c r="E62" s="24"/>
+      <c r="F62" s="24"/>
+      <c r="G62" s="24"/>
+      <c r="H62" s="24">
+        <v>1181164.51</v>
+      </c>
+      <c r="I62" s="24"/>
+      <c r="J62" s="24"/>
+      <c r="K62" s="24"/>
+      <c r="L62" s="24"/>
+      <c r="M62" s="24"/>
+      <c r="N62" s="24"/>
+      <c r="O62" s="24">
+        <v>1476471</v>
+      </c>
+      <c r="P62" s="24">
+        <v>10335294</v>
+      </c>
+      <c r="Q62" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="R62" s="18">
+        <v>5</v>
+      </c>
+      <c r="S62" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="36">
+        <v>62</v>
+      </c>
+      <c r="B63" s="37" t="s">
+        <v>180</v>
+      </c>
+      <c r="C63" s="37"/>
+      <c r="D63" s="37"/>
+      <c r="E63" s="37">
+        <v>3421028.06</v>
+      </c>
+      <c r="F63" s="37"/>
+      <c r="G63" s="37"/>
+      <c r="H63" s="37"/>
+      <c r="I63" s="37"/>
+      <c r="J63" s="37"/>
+      <c r="L63" s="37"/>
+      <c r="M63" s="37"/>
+      <c r="N63" s="37"/>
+      <c r="O63" s="37">
+        <v>427629</v>
+      </c>
+      <c r="P63" s="37">
+        <v>2993399</v>
+      </c>
+      <c r="Q63" s="39" t="s">
+        <v>181</v>
+      </c>
+      <c r="R63" s="36">
+        <v>3</v>
+      </c>
+      <c r="S63" s="38">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A64" s="18">
+        <v>63</v>
+      </c>
+      <c r="B64" s="24" t="s">
+        <v>182</v>
+      </c>
+      <c r="C64" s="24"/>
+      <c r="D64" s="24"/>
+      <c r="E64" s="24">
+        <v>10902577.68</v>
+      </c>
+      <c r="F64" s="24"/>
+      <c r="G64" s="24"/>
+      <c r="H64" s="24"/>
+      <c r="I64" s="24"/>
+      <c r="J64" s="24">
+        <v>3276311.75</v>
+      </c>
+      <c r="K64" s="24"/>
+      <c r="L64" s="24"/>
+      <c r="M64" s="24"/>
+      <c r="N64" s="24"/>
+      <c r="O64" s="24">
+        <v>1772361</v>
+      </c>
+      <c r="P64" s="24">
+        <v>12406528</v>
+      </c>
+      <c r="Q64" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="R64" s="18">
+        <v>4</v>
+      </c>
+      <c r="S64" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A65" s="18">
+        <v>64</v>
+      </c>
+      <c r="B65" s="24" t="s">
+        <v>184</v>
+      </c>
+      <c r="C65" s="24"/>
+      <c r="E65" s="24">
+        <v>797985.01</v>
+      </c>
+      <c r="F65" s="41">
+        <v>356391.44</v>
+      </c>
+      <c r="G65" s="24"/>
+      <c r="H65" s="24"/>
+      <c r="I65" s="24"/>
+      <c r="J65" s="24"/>
+      <c r="K65" s="24">
+        <v>976050</v>
+      </c>
+      <c r="L65" s="24"/>
+      <c r="M65" s="24"/>
+      <c r="N65" s="24"/>
+      <c r="O65" s="24">
+        <v>266303.31</v>
+      </c>
+      <c r="P65" s="24">
+        <v>1864123.14</v>
+      </c>
+      <c r="Q65" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="R65" s="18">
+        <v>6</v>
+      </c>
+      <c r="S65" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A66" s="18">
+        <v>65</v>
+      </c>
+      <c r="B66" s="24" t="s">
+        <v>186</v>
+      </c>
+      <c r="C66" s="24"/>
+      <c r="D66" s="24"/>
+      <c r="E66" s="24"/>
+      <c r="F66" s="24"/>
+      <c r="G66" s="24">
+        <v>18663800.670000002</v>
+      </c>
+      <c r="H66" s="24">
+        <v>4842188.09</v>
+      </c>
+      <c r="I66" s="24"/>
+      <c r="J66" s="24"/>
+      <c r="K66" s="24"/>
+      <c r="L66" s="24"/>
+      <c r="M66" s="24"/>
+      <c r="N66" s="24"/>
+      <c r="O66" s="24">
+        <v>2938249</v>
+      </c>
+      <c r="P66" s="24">
+        <v>20567740</v>
+      </c>
+      <c r="Q66" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="R66" s="18">
+        <v>4</v>
+      </c>
+      <c r="S66" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A67" s="18">
+        <v>66</v>
+      </c>
+      <c r="B67" s="24" t="s">
+        <v>188</v>
+      </c>
+      <c r="C67" s="24"/>
+      <c r="D67" s="24"/>
+      <c r="E67" s="24"/>
+      <c r="F67" s="24">
+        <v>9480354.0999999996</v>
+      </c>
+      <c r="G67" s="24"/>
+      <c r="H67" s="24"/>
+      <c r="I67" s="24"/>
+      <c r="J67" s="24">
+        <v>477480.29</v>
+      </c>
+      <c r="K67" s="24"/>
+      <c r="L67" s="24"/>
+      <c r="M67" s="24"/>
+      <c r="N67" s="24"/>
+      <c r="O67" s="24">
+        <v>1244729</v>
+      </c>
+      <c r="P67" s="24">
+        <v>8713105</v>
+      </c>
+      <c r="Q67" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="R67" s="18">
+        <v>8</v>
+      </c>
+      <c r="S67" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A68" s="18">
+        <v>67</v>
+      </c>
+      <c r="B68" s="24" t="s">
+        <v>190</v>
+      </c>
+      <c r="C68" s="24"/>
+      <c r="D68" s="24"/>
+      <c r="E68" s="24"/>
+      <c r="F68" s="24"/>
+      <c r="G68" s="24"/>
+      <c r="H68" s="24"/>
+      <c r="I68" s="24"/>
+      <c r="J68" s="24">
+        <v>7682708.75</v>
+      </c>
+      <c r="K68" s="24"/>
+      <c r="L68" s="24"/>
+      <c r="M68" s="24"/>
+      <c r="N68" s="24"/>
+      <c r="O68" s="24">
+        <v>960339</v>
+      </c>
+      <c r="P68" s="24">
+        <v>6722370</v>
+      </c>
+      <c r="Q68" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="R68" s="18">
+        <v>7</v>
+      </c>
+      <c r="S68" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A69" s="18">
+        <v>68</v>
+      </c>
+      <c r="B69" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="C69" s="24"/>
+      <c r="D69" s="24"/>
+      <c r="E69" s="24"/>
+      <c r="F69" s="24">
+        <v>16117256.970000001</v>
+      </c>
+      <c r="G69" s="24"/>
+      <c r="H69" s="24"/>
+      <c r="I69" s="24"/>
+      <c r="J69" s="24"/>
+      <c r="K69" s="24"/>
+      <c r="L69" s="24"/>
+      <c r="M69" s="24"/>
+      <c r="N69" s="24"/>
+      <c r="O69" s="24">
+        <v>2014657</v>
+      </c>
+      <c r="P69" s="24">
+        <v>14102600</v>
+      </c>
+      <c r="Q69" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="R69" s="18">
+        <v>7</v>
+      </c>
+      <c r="S69" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A70" s="18">
+        <v>69</v>
+      </c>
+      <c r="B70" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="C70" s="24"/>
+      <c r="D70" s="24"/>
+      <c r="E70" s="24"/>
+      <c r="F70" s="24"/>
+      <c r="G70" s="24"/>
+      <c r="H70" s="24"/>
+      <c r="I70" s="24"/>
+      <c r="J70" s="24">
+        <v>7683514.4699999997</v>
+      </c>
+      <c r="K70" s="24"/>
+      <c r="L70" s="24"/>
+      <c r="M70" s="24"/>
+      <c r="N70" s="24"/>
+      <c r="O70" s="24">
+        <v>960439</v>
+      </c>
+      <c r="P70" s="24">
+        <v>6723075</v>
+      </c>
+      <c r="Q70" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="R70" s="18">
+        <v>2</v>
+      </c>
+      <c r="S70" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A71" s="18">
+        <v>70</v>
+      </c>
+      <c r="B71" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="C71" s="24"/>
+      <c r="D71" s="24"/>
+      <c r="E71" s="24"/>
+      <c r="F71" s="24"/>
+      <c r="G71" s="24"/>
+      <c r="H71" s="24"/>
+      <c r="I71" s="24"/>
+      <c r="J71" s="24">
+        <v>14652108</v>
+      </c>
+      <c r="K71" s="24"/>
+      <c r="L71" s="24"/>
+      <c r="M71" s="24"/>
+      <c r="N71" s="24"/>
+      <c r="O71" s="24">
+        <v>1831514</v>
+      </c>
+      <c r="P71" s="24">
+        <v>12820594</v>
+      </c>
+      <c r="Q71" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="R71" s="18">
+        <v>6</v>
+      </c>
+      <c r="S71" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A72" s="18">
+        <v>71</v>
+      </c>
+      <c r="B72" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="C72" s="24"/>
+      <c r="D72" s="24"/>
+      <c r="E72" s="24">
+        <v>10164437.199999999</v>
+      </c>
+      <c r="F72" s="24"/>
+      <c r="G72" s="24"/>
+      <c r="H72" s="24"/>
+      <c r="I72" s="24"/>
+      <c r="J72" s="24"/>
+      <c r="K72" s="24"/>
+      <c r="L72" s="24"/>
+      <c r="M72" s="24"/>
+      <c r="N72" s="24"/>
+      <c r="O72" s="24">
+        <v>1270555</v>
+      </c>
+      <c r="P72" s="24">
+        <v>8893882</v>
+      </c>
+      <c r="Q72" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="R72" s="18">
+        <v>4</v>
+      </c>
+      <c r="S72" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="36">
+        <v>72</v>
+      </c>
+      <c r="B73" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="C73" s="37"/>
+      <c r="D73" s="37"/>
+      <c r="E73" s="37">
+        <v>9258302.8699999992</v>
+      </c>
+      <c r="F73" s="37">
+        <v>203113.3</v>
+      </c>
+      <c r="G73" s="37"/>
+      <c r="H73" s="37"/>
+      <c r="I73" s="37"/>
+      <c r="J73" s="37">
+        <v>544818.16</v>
+      </c>
+      <c r="L73" s="37"/>
+      <c r="M73" s="37"/>
+      <c r="N73" s="37"/>
+      <c r="O73" s="37">
+        <v>1250779</v>
+      </c>
+      <c r="P73" s="37">
+        <v>8755455</v>
+      </c>
+      <c r="Q73" s="39" t="s">
+        <v>194</v>
+      </c>
+      <c r="R73" s="36">
+        <v>5</v>
+      </c>
+      <c r="S73" s="38">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A74" s="18">
+        <v>73</v>
+      </c>
+      <c r="B74" s="24" t="s">
+        <v>195</v>
+      </c>
+      <c r="C74" s="24"/>
+      <c r="D74" s="24"/>
+      <c r="E74" s="24"/>
+      <c r="F74" s="24"/>
+      <c r="G74" s="24"/>
+      <c r="H74" s="24"/>
+      <c r="I74" s="24"/>
+      <c r="J74" s="24">
+        <v>2918327.09</v>
+      </c>
+      <c r="K74" s="24"/>
+      <c r="L74" s="24"/>
+      <c r="M74" s="24"/>
+      <c r="N74" s="24"/>
+      <c r="O74" s="24">
+        <v>364791</v>
+      </c>
+      <c r="P74" s="24">
+        <v>2553536</v>
+      </c>
+      <c r="Q74" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="R74" s="18">
+        <v>5</v>
+      </c>
+      <c r="S74" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A75" s="18">
+        <v>74</v>
+      </c>
+      <c r="B75" s="24" t="s">
+        <v>197</v>
+      </c>
+      <c r="C75" s="24"/>
+      <c r="D75" s="24"/>
+      <c r="E75" s="24">
+        <v>4065192.31</v>
+      </c>
+      <c r="F75" s="24"/>
+      <c r="G75" s="24"/>
+      <c r="H75" s="24"/>
+      <c r="I75" s="24"/>
+      <c r="J75" s="24"/>
+      <c r="K75" s="24"/>
+      <c r="L75" s="24"/>
+      <c r="M75" s="24"/>
+      <c r="N75" s="24"/>
+      <c r="O75" s="24">
+        <v>508149</v>
+      </c>
+      <c r="P75" s="24">
+        <v>3557043</v>
+      </c>
+      <c r="Q75" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="R75" s="18">
+        <v>4</v>
+      </c>
+      <c r="S75" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A76" s="18">
+        <v>75</v>
+      </c>
+      <c r="B76" s="24" t="s">
+        <v>198</v>
+      </c>
+      <c r="C76" s="24"/>
+      <c r="D76" s="24"/>
+      <c r="E76" s="24">
+        <v>395448</v>
+      </c>
+      <c r="F76" s="24"/>
+      <c r="G76" s="24"/>
+      <c r="H76" s="24"/>
+      <c r="I76" s="24"/>
+      <c r="J76" s="24">
+        <v>6835897.8899999997</v>
+      </c>
+      <c r="K76" s="24"/>
+      <c r="L76" s="24"/>
+      <c r="M76" s="24"/>
+      <c r="N76" s="24"/>
+      <c r="O76" s="24">
+        <v>799871</v>
+      </c>
+      <c r="P76" s="24">
+        <v>5599096</v>
+      </c>
+      <c r="Q76" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="R76" s="18">
+        <v>9</v>
+      </c>
+      <c r="S76" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="18">
+        <v>76</v>
+      </c>
+      <c r="B77" s="24" t="s">
+        <v>199</v>
+      </c>
+      <c r="C77" s="24"/>
+      <c r="D77" s="24"/>
+      <c r="E77" s="24"/>
+      <c r="F77" s="24">
+        <v>7041775.3600000003</v>
+      </c>
+      <c r="G77" s="24"/>
+      <c r="H77" s="24"/>
+      <c r="I77" s="24"/>
+      <c r="J77" s="24">
+        <v>2173969.3199999998</v>
+      </c>
+      <c r="K77" s="24"/>
+      <c r="L77" s="24"/>
+      <c r="M77" s="24"/>
+      <c r="N77" s="24"/>
+      <c r="O77" s="24">
+        <v>1151968</v>
+      </c>
+      <c r="P77" s="24">
+        <v>8063777</v>
+      </c>
+      <c r="Q77" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="R77" s="18">
+        <v>8</v>
+      </c>
+      <c r="S77" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A78" s="18">
+        <v>77</v>
+      </c>
+      <c r="B78" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="C78" s="24"/>
+      <c r="D78" s="24"/>
+      <c r="E78" s="24"/>
+      <c r="F78" s="24">
+        <v>1333756.3810000001</v>
+      </c>
+      <c r="G78" s="24"/>
+      <c r="H78" s="24"/>
+      <c r="I78" s="24"/>
+      <c r="J78" s="24">
+        <v>3138936.3</v>
+      </c>
+      <c r="K78" s="24"/>
+      <c r="L78" s="24"/>
+      <c r="M78" s="24"/>
+      <c r="N78" s="24"/>
+      <c r="O78" s="24">
+        <v>559087</v>
+      </c>
+      <c r="P78" s="24">
+        <v>3913606</v>
+      </c>
+      <c r="Q78" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="R78" s="18">
+        <v>9</v>
+      </c>
+      <c r="S78" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A79" s="18">
+        <v>78</v>
+      </c>
+      <c r="B79" s="24" t="s">
+        <v>202</v>
+      </c>
+      <c r="C79" s="24"/>
+      <c r="D79" s="24"/>
+      <c r="E79" s="24"/>
+      <c r="F79" s="24">
+        <v>7166150.7970000003</v>
+      </c>
+      <c r="G79" s="24"/>
+      <c r="H79" s="24"/>
+      <c r="I79" s="24"/>
+      <c r="J79" s="24"/>
+      <c r="K79" s="24"/>
+      <c r="L79" s="24"/>
+      <c r="M79" s="24"/>
+      <c r="N79" s="24"/>
+      <c r="O79" s="24">
+        <v>895769</v>
+      </c>
+      <c r="P79" s="24">
+        <v>6270381</v>
+      </c>
+      <c r="Q79" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="R79" s="18">
+        <v>8</v>
+      </c>
+      <c r="S79" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A80" s="18">
+        <v>79</v>
+      </c>
+      <c r="B80" s="24" t="s">
+        <v>204</v>
+      </c>
+      <c r="C80" s="24"/>
+      <c r="D80" s="24"/>
+      <c r="E80" s="24"/>
+      <c r="F80" s="24">
+        <v>841027.35699999996</v>
+      </c>
+      <c r="G80" s="24"/>
+      <c r="H80" s="24"/>
+      <c r="I80" s="24"/>
+      <c r="J80" s="24">
+        <v>12356769.642999999</v>
+      </c>
+      <c r="K80" s="24"/>
+      <c r="L80" s="24"/>
+      <c r="M80" s="24"/>
+      <c r="N80" s="24"/>
+      <c r="O80" s="24">
+        <v>1649725</v>
+      </c>
+      <c r="P80" s="24">
+        <v>11548073</v>
+      </c>
+      <c r="Q80" s="19" t="s">
+        <v>205</v>
+      </c>
+      <c r="R80" s="18">
+        <v>6</v>
+      </c>
+      <c r="S80" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A81" s="18">
+        <v>80</v>
+      </c>
+      <c r="B81" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="C81" s="24"/>
+      <c r="D81" s="24"/>
+      <c r="E81" s="24">
+        <v>5452594.4699999988</v>
+      </c>
+      <c r="F81" s="24"/>
+      <c r="G81" s="24"/>
+      <c r="H81" s="24"/>
+      <c r="I81" s="24"/>
+      <c r="J81" s="24">
+        <v>23284588.450000003</v>
+      </c>
+      <c r="K81" s="24"/>
+      <c r="L81" s="24"/>
+      <c r="M81" s="24"/>
+      <c r="N81" s="24"/>
+      <c r="O81" s="24">
+        <v>3592148</v>
+      </c>
+      <c r="P81" s="24">
+        <v>25145035</v>
+      </c>
+      <c r="Q81" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="R81" s="18">
+        <v>5</v>
+      </c>
+      <c r="S81" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A82" s="18">
+        <v>81</v>
+      </c>
+      <c r="B82" s="24" t="s">
+        <v>207</v>
+      </c>
+      <c r="C82" s="24"/>
+      <c r="D82" s="24"/>
+      <c r="E82" s="24"/>
+      <c r="F82" s="24"/>
+      <c r="G82" s="24">
+        <v>6871914.25</v>
+      </c>
+      <c r="H82" s="24"/>
+      <c r="I82" s="24">
+        <v>3134579.898</v>
+      </c>
+      <c r="J82" s="24"/>
+      <c r="K82" s="24"/>
+      <c r="L82" s="24"/>
+      <c r="M82" s="24"/>
+      <c r="N82" s="24"/>
+      <c r="O82" s="24">
+        <v>1342829</v>
+      </c>
+      <c r="P82" s="24">
+        <v>9399803</v>
+      </c>
+      <c r="Q82" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="R82" s="18">
+        <v>5</v>
+      </c>
+      <c r="S82" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:19" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="36">
+        <v>82</v>
+      </c>
+      <c r="B83" s="37" t="s">
+        <v>209</v>
+      </c>
+      <c r="C83" s="37"/>
+      <c r="D83" s="37"/>
+      <c r="E83" s="37">
+        <v>20162366.32</v>
+      </c>
+      <c r="F83" s="37"/>
+      <c r="G83" s="37"/>
+      <c r="H83" s="37"/>
+      <c r="I83" s="37"/>
+      <c r="J83" s="37"/>
+      <c r="L83" s="37"/>
+      <c r="M83" s="37"/>
+      <c r="N83" s="37"/>
+      <c r="O83" s="37">
+        <v>2520296</v>
+      </c>
+      <c r="P83" s="37">
+        <v>17642070</v>
+      </c>
+      <c r="Q83" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="R83" s="36">
+        <v>3</v>
+      </c>
+      <c r="S83" s="38">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A84" s="18">
+        <v>83</v>
+      </c>
+      <c r="B84" s="24" t="s">
+        <v>210</v>
+      </c>
+      <c r="C84" s="24"/>
+      <c r="D84" s="24"/>
+      <c r="E84" s="24">
+        <v>3038478</v>
+      </c>
+      <c r="F84" s="24"/>
+      <c r="G84" s="24"/>
+      <c r="H84" s="24"/>
+      <c r="I84" s="24"/>
+      <c r="J84" s="24"/>
+      <c r="K84" s="24"/>
+      <c r="L84" s="24"/>
+      <c r="M84" s="24"/>
+      <c r="N84" s="24"/>
+      <c r="O84" s="24">
+        <v>379810</v>
+      </c>
+      <c r="P84" s="24">
+        <v>2658668</v>
+      </c>
+      <c r="Q84" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="R84" s="18">
+        <v>2</v>
+      </c>
+      <c r="S84" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A85" s="18">
+        <v>84</v>
+      </c>
+      <c r="B85" s="24" t="s">
+        <v>212</v>
+      </c>
+      <c r="C85" s="24"/>
+      <c r="D85" s="24"/>
+      <c r="E85" s="24"/>
+      <c r="F85" s="24"/>
+      <c r="G85" s="24"/>
+      <c r="H85" s="24"/>
+      <c r="I85" s="24"/>
+      <c r="J85" s="24"/>
+      <c r="K85" s="24"/>
+      <c r="L85" s="24">
+        <v>1890979</v>
+      </c>
+      <c r="M85" s="24"/>
+      <c r="N85" s="24"/>
+      <c r="O85" s="24">
+        <v>236372</v>
+      </c>
+      <c r="P85" s="24">
+        <v>1654607</v>
+      </c>
+      <c r="Q85" s="19" t="s">
+        <v>300</v>
+      </c>
+      <c r="R85" s="18">
+        <v>2</v>
+      </c>
+      <c r="S85" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A86" s="18">
+        <v>85</v>
+      </c>
+      <c r="B86" s="24" t="s">
+        <v>213</v>
+      </c>
+      <c r="C86" s="24"/>
+      <c r="D86" s="24"/>
+      <c r="E86" s="24">
+        <v>11734497.34</v>
+      </c>
+      <c r="F86" s="24"/>
+      <c r="G86" s="24"/>
+      <c r="H86" s="24"/>
+      <c r="I86" s="24"/>
+      <c r="J86" s="24"/>
+      <c r="K86" s="24"/>
+      <c r="L86" s="24"/>
+      <c r="M86" s="24"/>
+      <c r="N86" s="24"/>
+      <c r="O86" s="24">
+        <v>1091812</v>
+      </c>
+      <c r="P86" s="24">
+        <v>7642685</v>
+      </c>
+      <c r="Q86" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="R86" s="18">
+        <v>5</v>
+      </c>
+      <c r="S86" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A87" s="18">
+        <v>86</v>
+      </c>
+      <c r="B87" s="24" t="s">
+        <v>214</v>
+      </c>
+      <c r="C87" s="24">
+        <v>237277.17</v>
+      </c>
+      <c r="D87" s="24"/>
+      <c r="E87" s="24">
+        <v>4754324.16</v>
+      </c>
+      <c r="F87" s="24"/>
+      <c r="G87" s="24"/>
+      <c r="H87" s="24"/>
+      <c r="I87" s="24"/>
+      <c r="J87" s="24">
+        <v>3536591.639</v>
+      </c>
+      <c r="K87" s="24"/>
+      <c r="L87" s="24"/>
+      <c r="M87" s="24"/>
+      <c r="N87" s="24"/>
+      <c r="O87" s="24">
+        <v>1066024</v>
+      </c>
+      <c r="P87" s="24">
+        <v>7462169</v>
+      </c>
+      <c r="Q87" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="R87" s="18">
+        <v>12</v>
+      </c>
+      <c r="S87" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A88" s="18">
+        <v>87</v>
+      </c>
+      <c r="B88" s="24" t="s">
+        <v>216</v>
+      </c>
+      <c r="C88" s="24"/>
+      <c r="D88" s="24"/>
+      <c r="E88" s="24"/>
+      <c r="F88" s="24"/>
+      <c r="G88" s="24"/>
+      <c r="H88" s="24"/>
+      <c r="I88" s="24"/>
+      <c r="J88" s="24">
+        <v>8566376</v>
+      </c>
+      <c r="K88" s="24"/>
+      <c r="L88" s="24"/>
+      <c r="M88" s="24"/>
+      <c r="N88" s="24"/>
+      <c r="O88" s="24">
+        <v>1070797</v>
+      </c>
+      <c r="P88" s="24">
+        <v>7495579</v>
+      </c>
+      <c r="Q88" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="R88" s="18">
+        <v>11</v>
+      </c>
+      <c r="S88" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89" spans="1:19" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="36">
+        <v>88</v>
+      </c>
+      <c r="B89" s="37" t="s">
+        <v>217</v>
+      </c>
+      <c r="C89" s="37"/>
+      <c r="D89" s="37"/>
+      <c r="E89" s="37"/>
+      <c r="F89" s="37">
+        <v>21434033</v>
+      </c>
+      <c r="G89" s="37"/>
+      <c r="H89" s="37"/>
+      <c r="I89" s="37"/>
+      <c r="J89" s="37"/>
+      <c r="K89" s="38"/>
+      <c r="L89" s="37"/>
+      <c r="M89" s="37"/>
+      <c r="N89" s="37"/>
+      <c r="O89" s="37">
+        <v>2602548</v>
+      </c>
+      <c r="P89" s="37">
+        <v>18217838</v>
+      </c>
+      <c r="Q89" s="39" t="s">
+        <v>218</v>
+      </c>
+      <c r="R89" s="36">
+        <v>5</v>
+      </c>
+      <c r="S89" s="38">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90" spans="1:19" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="36">
+        <v>89</v>
+      </c>
+      <c r="B90" s="37" t="s">
+        <v>219</v>
+      </c>
+      <c r="C90" s="37"/>
+      <c r="D90" s="37"/>
+      <c r="E90" s="37">
+        <v>3950811.1020000004</v>
+      </c>
+      <c r="F90" s="37"/>
+      <c r="G90" s="37"/>
+      <c r="H90" s="37"/>
+      <c r="I90" s="37"/>
+      <c r="J90" s="37">
+        <v>1869271.878</v>
+      </c>
+      <c r="K90" s="38"/>
+      <c r="L90" s="37"/>
+      <c r="M90" s="37"/>
+      <c r="N90" s="37"/>
+      <c r="O90" s="37">
+        <v>711031</v>
+      </c>
+      <c r="P90" s="37">
+        <v>4977219</v>
+      </c>
+      <c r="Q90" s="39" t="s">
+        <v>220</v>
+      </c>
+      <c r="R90" s="36">
+        <v>6</v>
+      </c>
+      <c r="S90" s="38">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91" spans="1:19" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="36">
+        <v>90</v>
+      </c>
+      <c r="B91" s="37" t="s">
+        <v>221</v>
+      </c>
+      <c r="C91" s="37"/>
+      <c r="D91" s="37"/>
+      <c r="E91" s="37">
+        <v>3715423</v>
+      </c>
+      <c r="F91" s="37"/>
+      <c r="G91" s="37"/>
+      <c r="H91" s="37"/>
+      <c r="I91" s="37"/>
+      <c r="J91" s="37"/>
+      <c r="K91" s="38"/>
+      <c r="L91" s="37"/>
+      <c r="M91" s="37"/>
+      <c r="N91" s="37"/>
+      <c r="O91" s="37">
+        <v>464428</v>
+      </c>
+      <c r="P91" s="37">
+        <v>3250995</v>
+      </c>
+      <c r="Q91" s="39" t="s">
+        <v>222</v>
+      </c>
+      <c r="R91" s="36">
+        <v>8</v>
+      </c>
+      <c r="S91" s="38">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A92" s="18">
+        <v>91</v>
+      </c>
+      <c r="B92" s="24" t="s">
+        <v>223</v>
+      </c>
+      <c r="C92" s="24"/>
+      <c r="D92" s="24"/>
+      <c r="E92" s="24">
+        <v>15319532</v>
+      </c>
+      <c r="F92" s="24"/>
+      <c r="G92" s="24"/>
+      <c r="H92" s="24"/>
+      <c r="I92" s="24"/>
+      <c r="J92" s="24"/>
+      <c r="K92" s="24"/>
+      <c r="L92" s="24"/>
+      <c r="M92" s="24"/>
+      <c r="N92" s="24"/>
+      <c r="O92" s="24">
+        <v>1914942</v>
+      </c>
+      <c r="P92" s="24">
+        <v>13404590</v>
+      </c>
+      <c r="Q92" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="R92" s="18">
+        <v>7</v>
+      </c>
+      <c r="S92" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A93" s="18">
+        <v>92</v>
+      </c>
+      <c r="B93" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="C93" s="24"/>
+      <c r="D93" s="24"/>
+      <c r="E93" s="24"/>
+      <c r="F93" s="24">
+        <v>4972139.51</v>
+      </c>
+      <c r="G93" s="24"/>
+      <c r="H93" s="24"/>
+      <c r="I93" s="24"/>
+      <c r="J93" s="24">
+        <v>112500</v>
+      </c>
+      <c r="K93" s="24"/>
+      <c r="L93" s="24"/>
+      <c r="M93" s="24"/>
+      <c r="N93" s="24"/>
+      <c r="O93" s="24">
+        <v>635580</v>
+      </c>
+      <c r="P93" s="24">
+        <v>4449060</v>
+      </c>
+      <c r="Q93" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="R93" s="18">
+        <v>9</v>
+      </c>
+      <c r="S93" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A94" s="18">
+        <v>93</v>
+      </c>
+      <c r="B94" s="24" t="s">
+        <v>227</v>
+      </c>
+      <c r="C94" s="24"/>
+      <c r="D94" s="24"/>
+      <c r="E94" s="24"/>
+      <c r="F94" s="24"/>
+      <c r="G94" s="24"/>
+      <c r="H94" s="24"/>
+      <c r="I94" s="24"/>
+      <c r="J94" s="24">
+        <v>7671622.0999999996</v>
+      </c>
+      <c r="K94" s="24"/>
+      <c r="L94" s="24"/>
+      <c r="M94" s="24"/>
+      <c r="N94" s="24"/>
+      <c r="O94" s="24">
+        <v>921416</v>
+      </c>
+      <c r="P94" s="24">
+        <v>6449915</v>
+      </c>
+      <c r="Q94" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="R94" s="18">
+        <v>3</v>
+      </c>
+      <c r="S94" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A95" s="18">
+        <v>94</v>
+      </c>
+      <c r="B95" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="C95" s="24"/>
+      <c r="D95" s="24"/>
+      <c r="E95" s="24">
+        <v>2004423.12</v>
+      </c>
+      <c r="F95" s="24">
+        <v>2200388.38</v>
+      </c>
+      <c r="G95" s="24"/>
+      <c r="H95" s="24"/>
+      <c r="I95" s="24"/>
+      <c r="J95" s="27">
+        <v>27775</v>
+      </c>
+      <c r="K95" s="24"/>
+      <c r="L95" s="24"/>
+      <c r="M95" s="24"/>
+      <c r="N95" s="24"/>
+      <c r="O95" s="25">
+        <v>701073</v>
+      </c>
+      <c r="P95" s="25">
+        <v>4907507</v>
+      </c>
+      <c r="Q95" s="19" t="s">
+        <v>230</v>
+      </c>
+      <c r="R95" s="18">
+        <v>7</v>
+      </c>
+      <c r="S95" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A96" s="18">
+        <v>95</v>
+      </c>
+      <c r="B96" s="24" t="s">
+        <v>231</v>
+      </c>
+      <c r="C96" s="24"/>
+      <c r="D96" s="24"/>
+      <c r="E96" s="24"/>
+      <c r="F96" s="24"/>
+      <c r="G96" s="24"/>
+      <c r="H96" s="24"/>
+      <c r="I96" s="24"/>
+      <c r="J96" s="24">
+        <v>10277493</v>
+      </c>
+      <c r="K96" s="24"/>
+      <c r="L96" s="24"/>
+      <c r="M96" s="24"/>
+      <c r="N96" s="24"/>
+      <c r="O96" s="24">
+        <v>1284687</v>
+      </c>
+      <c r="P96" s="24">
+        <v>8992806</v>
+      </c>
+      <c r="Q96" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="R96" s="18">
+        <v>8</v>
+      </c>
+      <c r="S96" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A97" s="18">
+        <v>96</v>
+      </c>
+      <c r="B97" s="24" t="s">
+        <v>233</v>
+      </c>
+      <c r="C97" s="24"/>
+      <c r="D97" s="24"/>
+      <c r="E97" s="24">
+        <v>1253692.1100000001</v>
+      </c>
+      <c r="F97" s="25">
+        <v>5035264.49</v>
+      </c>
+      <c r="G97" s="24"/>
+      <c r="H97" s="24"/>
+      <c r="I97" s="24"/>
+      <c r="J97" s="25"/>
+      <c r="K97" s="25"/>
+      <c r="L97" s="24"/>
+      <c r="M97" s="24"/>
+      <c r="N97" s="24"/>
+      <c r="O97" s="24">
+        <v>994457</v>
+      </c>
+      <c r="P97" s="24">
+        <v>6961196</v>
+      </c>
+      <c r="Q97" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="R97" s="18">
+        <v>13</v>
+      </c>
+      <c r="S97" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98" spans="1:19" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="36">
+        <v>97</v>
+      </c>
+      <c r="B98" s="37" t="s">
+        <v>235</v>
+      </c>
+      <c r="C98" s="37"/>
+      <c r="D98" s="37"/>
+      <c r="E98" s="37">
+        <v>1831376.254</v>
+      </c>
+      <c r="F98" s="37">
+        <v>1360415.54</v>
+      </c>
+      <c r="G98" s="37"/>
+      <c r="H98" s="37"/>
+      <c r="I98" s="37"/>
+      <c r="J98" s="37">
+        <v>455742.37</v>
+      </c>
+      <c r="L98" s="37"/>
+      <c r="M98" s="37"/>
+      <c r="N98" s="37"/>
+      <c r="O98" s="37">
+        <v>455942</v>
+      </c>
+      <c r="P98" s="37">
+        <v>3191592</v>
+      </c>
+      <c r="Q98" s="39" t="s">
+        <v>236</v>
+      </c>
+      <c r="R98" s="36">
+        <v>7</v>
+      </c>
+      <c r="S98" s="38">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A99" s="18">
+        <v>98</v>
+      </c>
+      <c r="B99" s="24" t="s">
+        <v>237</v>
+      </c>
+      <c r="C99" s="24"/>
+      <c r="D99" s="24"/>
+      <c r="E99" s="24">
+        <v>5389926.9299999997</v>
+      </c>
+      <c r="F99" s="24">
+        <v>1782400.4</v>
+      </c>
+      <c r="G99" s="24"/>
+      <c r="H99" s="24"/>
+      <c r="I99" s="24"/>
+      <c r="J99" s="24"/>
+      <c r="K99" s="24"/>
+      <c r="L99" s="24"/>
+      <c r="M99" s="24"/>
+      <c r="N99" s="24"/>
+      <c r="O99" s="24">
+        <v>896541</v>
+      </c>
+      <c r="P99" s="24">
+        <v>6275786</v>
+      </c>
+      <c r="Q99" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="R99" s="18">
+        <v>5</v>
+      </c>
+      <c r="S99" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A100" s="18">
+        <v>99</v>
+      </c>
+      <c r="B100" s="24" t="s">
+        <v>238</v>
+      </c>
+      <c r="C100" s="24"/>
+      <c r="D100" s="24"/>
+      <c r="E100" s="24"/>
+      <c r="F100" s="24"/>
+      <c r="G100" s="24"/>
+      <c r="H100" s="24"/>
+      <c r="I100" s="24"/>
+      <c r="J100" s="24">
+        <v>3499306</v>
+      </c>
+      <c r="K100" s="24"/>
+      <c r="L100" s="24"/>
+      <c r="M100" s="24"/>
+      <c r="N100" s="24"/>
+      <c r="O100" s="24">
+        <v>437413</v>
+      </c>
+      <c r="P100" s="24">
+        <v>3061893</v>
+      </c>
+      <c r="Q100" s="19" t="s">
+        <v>239</v>
+      </c>
+      <c r="R100" s="18">
+        <v>6</v>
+      </c>
+      <c r="S100" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A101" s="18">
+        <v>100</v>
+      </c>
+      <c r="B101" s="24" t="s">
+        <v>240</v>
+      </c>
+      <c r="C101" s="24"/>
+      <c r="D101" s="24"/>
+      <c r="E101" s="24"/>
+      <c r="F101" s="24"/>
+      <c r="G101" s="24"/>
+      <c r="H101" s="24">
+        <v>20826914</v>
+      </c>
+      <c r="I101" s="24"/>
+      <c r="J101" s="24"/>
+      <c r="K101" s="24"/>
+      <c r="L101" s="24"/>
+      <c r="M101" s="24"/>
+      <c r="N101" s="24"/>
+      <c r="O101" s="24">
+        <v>2603364</v>
+      </c>
+      <c r="P101" s="24">
+        <v>18223550</v>
+      </c>
+      <c r="Q101" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="R101" s="18">
+        <v>6</v>
+      </c>
+      <c r="S101" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A102" s="18">
+        <v>101</v>
+      </c>
+      <c r="B102" s="24" t="s">
+        <v>241</v>
+      </c>
+      <c r="C102" s="24"/>
+      <c r="D102" s="24"/>
+      <c r="E102" s="24"/>
+      <c r="F102" s="24"/>
+      <c r="G102" s="24">
+        <v>3669874</v>
+      </c>
+      <c r="H102" s="24"/>
+      <c r="I102" s="24"/>
+      <c r="J102" s="24"/>
+      <c r="K102" s="24"/>
+      <c r="L102" s="24"/>
+      <c r="M102" s="24"/>
+      <c r="N102" s="24"/>
+      <c r="O102" s="24">
+        <v>458734</v>
+      </c>
+      <c r="P102" s="24">
+        <v>3211140</v>
+      </c>
+      <c r="Q102" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="R102" s="18">
+        <v>5</v>
+      </c>
+      <c r="S102" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A103" s="18">
+        <v>102</v>
+      </c>
+      <c r="B103" s="20" t="s">
+        <v>242</v>
+      </c>
+      <c r="C103" s="20"/>
+      <c r="D103" s="20"/>
+      <c r="E103" s="20"/>
+      <c r="F103" s="20"/>
+      <c r="G103" s="20"/>
+      <c r="H103" s="20">
+        <v>24327546</v>
+      </c>
+      <c r="I103" s="20"/>
+      <c r="J103" s="20"/>
+      <c r="K103" s="20"/>
+      <c r="L103" s="20"/>
+      <c r="M103" s="20"/>
+      <c r="N103" s="20"/>
+      <c r="O103" s="20">
+        <v>3040943</v>
+      </c>
+      <c r="P103" s="20">
+        <v>21286603</v>
+      </c>
+      <c r="Q103" s="19" t="s">
+        <v>243</v>
+      </c>
+      <c r="R103" s="18">
+        <v>6</v>
+      </c>
+      <c r="S103" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C104" s="1"/>
+      <c r="D104" s="1"/>
+      <c r="E104" s="1"/>
+      <c r="F104" s="1"/>
+      <c r="G104" s="1"/>
+      <c r="H104" s="1"/>
+      <c r="I104" s="1"/>
+      <c r="J104" s="1"/>
+      <c r="K104" s="1"/>
+      <c r="L104" s="1"/>
+      <c r="M104" s="1"/>
+      <c r="N104" s="1"/>
+      <c r="O104" s="1"/>
+      <c r="P104" s="1"/>
+    </row>
+  </sheetData>
+  <sortState ref="A2:O103">
+    <sortCondition ref="A2:A103"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N27"/>
@@ -2887,30 +6753,30 @@
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="B27" s="15"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15">
+      <c r="A27" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16">
         <v>5035264.49</v>
       </c>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="15">
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="16">
         <v>1253692.1100000001</v>
       </c>
-      <c r="K27" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="L27" s="15"/>
-      <c r="M27" s="16">
+      <c r="K27" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="L27" s="16"/>
+      <c r="M27" s="17">
         <v>786119.57500000007</v>
       </c>
-      <c r="N27" s="16">
+      <c r="N27" s="17">
         <v>5502837.0250000004</v>
       </c>
     </row>
@@ -2937,232 +6803,232 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11">
+      <c r="A1" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12">
         <v>2004423.12</v>
       </c>
-      <c r="E1" s="11">
+      <c r="E1" s="12">
         <v>2200388.38</v>
       </c>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11">
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12">
         <v>27775</v>
       </c>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11">
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12">
         <v>529073</v>
       </c>
-      <c r="N1" s="11">
+      <c r="N1" s="12">
         <v>4232587</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="12">
+      <c r="A2" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="13">
         <v>10277493</v>
       </c>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="13">
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="14">
         <v>1284687</v>
       </c>
-      <c r="N2" s="13">
+      <c r="N2" s="14">
         <v>8992806</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11">
+      <c r="A3" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12">
         <v>5035264.49</v>
       </c>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11">
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12">
         <v>1253692.1100000001</v>
       </c>
-      <c r="K3" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11">
+      <c r="K3" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12">
         <v>786119.57500000007</v>
       </c>
-      <c r="N3" s="11">
+      <c r="N3" s="12">
         <v>5502837.0250000004</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11">
+      <c r="A4" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12">
         <v>1360415.54</v>
       </c>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11">
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12">
         <v>455742.37</v>
       </c>
-      <c r="J4" s="11">
+      <c r="J4" s="12">
         <v>1831376.254</v>
       </c>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11">
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12">
         <v>455942</v>
       </c>
-      <c r="N4" s="11">
+      <c r="N4" s="12">
         <v>3191592</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11">
+      <c r="A5" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12">
         <v>5389926.9299999997</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="12">
         <v>1782400.4</v>
       </c>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11">
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12">
         <v>896541</v>
       </c>
-      <c r="N5" s="11">
+      <c r="N5" s="12">
         <v>6275786</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11">
+      <c r="A6" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12">
         <v>3499306</v>
       </c>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11">
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12">
         <v>437413</v>
       </c>
-      <c r="N6" s="11">
+      <c r="N6" s="12">
         <v>3061893</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11">
+      <c r="A7" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12">
         <v>20826914</v>
       </c>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11">
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12">
         <v>2603364</v>
       </c>
-      <c r="N7" s="11">
+      <c r="N7" s="12">
         <v>18223550</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11">
+      <c r="A8" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12">
         <v>3669874</v>
       </c>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11">
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12">
         <v>458734</v>
       </c>
-      <c r="N8" s="11">
+      <c r="N8" s="12">
         <v>3211140</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11">
+      <c r="A9" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12">
         <v>24327546</v>
       </c>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11">
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12">
         <v>3040943</v>
       </c>
-      <c r="N9" s="11">
+      <c r="N9" s="12">
         <v>21286603</v>
       </c>
     </row>
@@ -3176,87 +7042,87 @@
   <dimension ref="A1:V55"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" customWidth="1"/>
+    <col min="1" max="1" width="11.85546875" customWidth="1"/>
     <col min="2" max="21" width="9.7109375" customWidth="1"/>
     <col min="22" max="22" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="E1" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="G1" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="H1" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="I1" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="J1" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="K1" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="L1" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="M1" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="N1" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="O1" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="P1" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q1" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="R1" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="S1" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="T1" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="U1" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="V1" s="17" t="s">
+        <v>244</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>245</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>246</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>247</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>248</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>249</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>250</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>251</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>252</v>
+      </c>
+      <c r="J1" s="18" t="s">
+        <v>253</v>
+      </c>
+      <c r="K1" s="18" t="s">
+        <v>254</v>
+      </c>
+      <c r="L1" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="M1" s="18" t="s">
+        <v>256</v>
+      </c>
+      <c r="N1" s="18" t="s">
+        <v>257</v>
+      </c>
+      <c r="O1" s="18" t="s">
+        <v>258</v>
+      </c>
+      <c r="P1" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q1" s="18" t="s">
+        <v>260</v>
+      </c>
+      <c r="R1" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="S1" s="18" t="s">
+        <v>262</v>
+      </c>
+      <c r="T1" s="18" t="s">
+        <v>263</v>
+      </c>
+      <c r="U1" s="18" t="s">
+        <v>264</v>
+      </c>
+      <c r="V1" s="18" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
-        <v>111</v>
+      <c r="A2" s="18" t="s">
+        <v>265</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -3281,8 +7147,8 @@
       <c r="V2" s="6"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
-        <v>112</v>
+      <c r="A3" s="18" t="s">
+        <v>266</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -3307,8 +7173,8 @@
       <c r="V3" s="6"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
-        <v>113</v>
+      <c r="A4" s="18" t="s">
+        <v>267</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -3333,8 +7199,8 @@
       <c r="V4" s="6"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
-        <v>114</v>
+      <c r="A5" s="18" t="s">
+        <v>268</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -3359,8 +7225,8 @@
       <c r="V5" s="6"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
-        <v>78</v>
+      <c r="A6" s="18" t="s">
+        <v>143</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -3385,8 +7251,8 @@
       <c r="V6" s="6"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
-        <v>84</v>
+      <c r="A7" s="18" t="s">
+        <v>174</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -3411,8 +7277,8 @@
       <c r="V7" s="6"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
-        <v>115</v>
+      <c r="A8" s="18" t="s">
+        <v>269</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -3437,8 +7303,8 @@
       <c r="V8" s="6"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
-        <v>116</v>
+      <c r="A9" s="18" t="s">
+        <v>270</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -3463,8 +7329,8 @@
       <c r="V9" s="6"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A10" s="17" t="s">
-        <v>117</v>
+      <c r="A10" s="18" t="s">
+        <v>271</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -3489,8 +7355,8 @@
       <c r="V10" s="6"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A11" s="17" t="s">
-        <v>118</v>
+      <c r="A11" s="18" t="s">
+        <v>272</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -3515,8 +7381,8 @@
       <c r="V11" s="6"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A12" s="17" t="s">
-        <v>77</v>
+      <c r="A12" s="18" t="s">
+        <v>131</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -3541,8 +7407,8 @@
       <c r="V12" s="6"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A13" s="17" t="s">
-        <v>119</v>
+      <c r="A13" s="18" t="s">
+        <v>273</v>
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -3567,8 +7433,8 @@
       <c r="V13" s="6"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A14" s="17" t="s">
-        <v>120</v>
+      <c r="A14" s="18" t="s">
+        <v>274</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -3593,8 +7459,8 @@
       <c r="V14" s="6"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A15" s="17" t="s">
-        <v>121</v>
+      <c r="A15" s="18" t="s">
+        <v>275</v>
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -3619,8 +7485,8 @@
       <c r="V15" s="6"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A16" s="17" t="s">
-        <v>122</v>
+      <c r="A16" s="18" t="s">
+        <v>276</v>
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -3645,8 +7511,8 @@
       <c r="V16" s="6"/>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A17" s="17" t="s">
-        <v>89</v>
+      <c r="A17" s="18" t="s">
+        <v>215</v>
       </c>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -3671,8 +7537,8 @@
       <c r="V17" s="6"/>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A18" s="17" t="s">
-        <v>123</v>
+      <c r="A18" s="18" t="s">
+        <v>277</v>
       </c>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -3697,8 +7563,8 @@
       <c r="V18" s="6"/>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A19" s="17" t="s">
-        <v>124</v>
+      <c r="A19" s="18" t="s">
+        <v>278</v>
       </c>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -3723,8 +7589,8 @@
       <c r="V19" s="6"/>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A20" s="17" t="s">
-        <v>125</v>
+      <c r="A20" s="18" t="s">
+        <v>279</v>
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
@@ -3749,8 +7615,8 @@
       <c r="V20" s="6"/>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A21" s="17" t="s">
-        <v>126</v>
+      <c r="A21" s="18" t="s">
+        <v>280</v>
       </c>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -3775,8 +7641,8 @@
       <c r="V21" s="6"/>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A22" s="17" t="s">
-        <v>74</v>
+      <c r="A22" s="18" t="s">
+        <v>110</v>
       </c>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
@@ -3801,8 +7667,8 @@
       <c r="V22" s="6"/>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A23" s="17" t="s">
-        <v>80</v>
+      <c r="A23" s="18" t="s">
+        <v>148</v>
       </c>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
@@ -3827,8 +7693,8 @@
       <c r="V23" s="6"/>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A24" s="17" t="s">
-        <v>127</v>
+      <c r="A24" s="18" t="s">
+        <v>281</v>
       </c>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
@@ -3853,8 +7719,8 @@
       <c r="V24" s="6"/>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A25" s="17" t="s">
-        <v>128</v>
+      <c r="A25" s="18" t="s">
+        <v>282</v>
       </c>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
@@ -3879,8 +7745,8 @@
       <c r="V25" s="6"/>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A26" s="17" t="s">
-        <v>129</v>
+      <c r="A26" s="18" t="s">
+        <v>283</v>
       </c>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
@@ -3905,8 +7771,8 @@
       <c r="V26" s="6"/>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A27" s="17" t="s">
-        <v>130</v>
+      <c r="A27" s="18" t="s">
+        <v>284</v>
       </c>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
@@ -3931,8 +7797,8 @@
       <c r="V27" s="6"/>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A28" s="18" t="s">
-        <v>144</v>
+      <c r="A28" s="19" t="s">
+        <v>300</v>
       </c>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
@@ -3957,11 +7823,11 @@
       <c r="V28" s="6"/>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A29" s="18" t="s">
-        <v>145</v>
+      <c r="A29" s="19" t="s">
+        <v>301</v>
       </c>
       <c r="B29" s="6"/>
-      <c r="C29" s="18"/>
+      <c r="C29" s="19"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
@@ -3983,8 +7849,8 @@
       <c r="V29" s="6"/>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A30" s="18" t="s">
-        <v>146</v>
+      <c r="A30" s="19" t="s">
+        <v>302</v>
       </c>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
@@ -4009,8 +7875,8 @@
       <c r="V30" s="6"/>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A31" s="18" t="s">
-        <v>76</v>
+      <c r="A31" s="19" t="s">
+        <v>129</v>
       </c>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
@@ -4035,8 +7901,8 @@
       <c r="V31" s="6"/>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A32" s="17" t="s">
-        <v>88</v>
+      <c r="A32" s="18" t="s">
+        <v>205</v>
       </c>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
@@ -4061,8 +7927,8 @@
       <c r="V32" s="6"/>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A33" s="17" t="s">
-        <v>82</v>
+      <c r="A33" s="18" t="s">
+        <v>162</v>
       </c>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
@@ -4087,8 +7953,8 @@
       <c r="V33" s="6"/>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A34" s="17" t="s">
-        <v>86</v>
+      <c r="A34" s="18" t="s">
+        <v>196</v>
       </c>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
@@ -4113,8 +7979,8 @@
       <c r="V34" s="6"/>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A35" s="17" t="s">
-        <v>85</v>
+      <c r="A35" s="18" t="s">
+        <v>181</v>
       </c>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
@@ -4139,8 +8005,8 @@
       <c r="V35" s="6"/>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A36" s="17" t="s">
-        <v>87</v>
+      <c r="A36" s="18" t="s">
+        <v>203</v>
       </c>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
@@ -4165,8 +8031,8 @@
       <c r="V36" s="6"/>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A37" s="17" t="s">
-        <v>131</v>
+      <c r="A37" s="18" t="s">
+        <v>285</v>
       </c>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
@@ -4191,8 +8057,8 @@
       <c r="V37" s="6"/>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A38" s="17" t="s">
-        <v>132</v>
+      <c r="A38" s="18" t="s">
+        <v>286</v>
       </c>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
@@ -4217,8 +8083,8 @@
       <c r="V38" s="6"/>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A39" s="17" t="s">
-        <v>133</v>
+      <c r="A39" s="18" t="s">
+        <v>287</v>
       </c>
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
@@ -4243,8 +8109,8 @@
       <c r="V39" s="6"/>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A40" s="17" t="s">
-        <v>134</v>
+      <c r="A40" s="18" t="s">
+        <v>288</v>
       </c>
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
@@ -4269,8 +8135,8 @@
       <c r="V40" s="6"/>
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A41" s="17" t="s">
-        <v>135</v>
+      <c r="A41" s="18" t="s">
+        <v>289</v>
       </c>
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
@@ -4295,8 +8161,8 @@
       <c r="V41" s="6"/>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A42" s="17" t="s">
-        <v>136</v>
+      <c r="A42" s="18" t="s">
+        <v>290</v>
       </c>
       <c r="B42" s="6"/>
       <c r="C42" s="6"/>
@@ -4321,8 +8187,8 @@
       <c r="V42" s="6"/>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A43" s="17" t="s">
-        <v>137</v>
+      <c r="A43" s="18" t="s">
+        <v>291</v>
       </c>
       <c r="B43" s="6"/>
       <c r="C43" s="6"/>
@@ -4347,8 +8213,8 @@
       <c r="V43" s="6"/>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A44" s="17" t="s">
-        <v>138</v>
+      <c r="A44" s="18" t="s">
+        <v>292</v>
       </c>
       <c r="B44" s="6"/>
       <c r="C44" s="6"/>
@@ -4373,8 +8239,8 @@
       <c r="V44" s="6"/>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A45" s="17" t="s">
-        <v>139</v>
+      <c r="A45" s="18" t="s">
+        <v>293</v>
       </c>
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
@@ -4399,8 +8265,8 @@
       <c r="V45" s="6"/>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A46" s="17" t="s">
-        <v>83</v>
+      <c r="A46" s="18" t="s">
+        <v>169</v>
       </c>
       <c r="B46" s="6"/>
       <c r="C46" s="6"/>
@@ -4425,8 +8291,8 @@
       <c r="V46" s="6"/>
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A47" s="17" t="s">
-        <v>75</v>
+      <c r="A47" s="18" t="s">
+        <v>125</v>
       </c>
       <c r="B47" s="6"/>
       <c r="C47" s="6"/>
@@ -4451,8 +8317,8 @@
       <c r="V47" s="6"/>
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A48" s="17" t="s">
-        <v>81</v>
+      <c r="A48" s="18" t="s">
+        <v>149</v>
       </c>
       <c r="B48" s="6"/>
       <c r="C48" s="6"/>
@@ -4477,8 +8343,8 @@
       <c r="V48" s="6"/>
     </row>
     <row r="49" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A49" s="17" t="s">
-        <v>140</v>
+      <c r="A49" s="18" t="s">
+        <v>294</v>
       </c>
       <c r="B49" s="6"/>
       <c r="C49" s="6"/>
@@ -4503,8 +8369,8 @@
       <c r="V49" s="6"/>
     </row>
     <row r="50" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A50" s="17" t="s">
-        <v>141</v>
+      <c r="A50" s="18" t="s">
+        <v>295</v>
       </c>
       <c r="B50" s="6"/>
       <c r="C50" s="6"/>
@@ -4529,8 +8395,8 @@
       <c r="V50" s="6"/>
     </row>
     <row r="51" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A51" s="17" t="s">
-        <v>79</v>
+      <c r="A51" s="18" t="s">
+        <v>146</v>
       </c>
       <c r="B51" s="6"/>
       <c r="C51" s="6"/>
@@ -4555,8 +8421,8 @@
       <c r="V51" s="6"/>
     </row>
     <row r="52" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A52" s="17" t="s">
-        <v>142</v>
+      <c r="A52" s="18" t="s">
+        <v>296</v>
       </c>
       <c r="B52" s="6"/>
       <c r="C52" s="6"/>
@@ -4581,8 +8447,8 @@
       <c r="V52" s="6"/>
     </row>
     <row r="53" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A53" s="19" t="s">
-        <v>72</v>
+      <c r="A53" s="30" t="s">
+        <v>93</v>
       </c>
       <c r="B53" s="6"/>
       <c r="C53" s="6"/>
@@ -4607,8 +8473,8 @@
       <c r="V53" s="6"/>
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A54" s="19" t="s">
-        <v>73</v>
+      <c r="A54" s="30" t="s">
+        <v>95</v>
       </c>
       <c r="B54" s="6"/>
       <c r="C54" s="6"/>
@@ -4633,8 +8499,8 @@
       <c r="V54" s="6"/>
     </row>
     <row r="55" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A55" s="19" t="s">
-        <v>143</v>
+      <c r="A55" s="30" t="s">
+        <v>297</v>
       </c>
       <c r="B55" s="6"/>
       <c r="C55" s="6"/>
@@ -4678,65 +8544,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>159</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="E1" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>151</v>
-      </c>
-      <c r="G1" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="H1" s="17" t="s">
-        <v>153</v>
-      </c>
-      <c r="I1" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="J1" s="17" t="s">
-        <v>155</v>
-      </c>
-      <c r="K1" s="17" t="s">
-        <v>156</v>
-      </c>
-      <c r="L1" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="M1" s="17" t="s">
-        <v>158</v>
+      <c r="A1" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>315</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>304</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>305</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>307</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>308</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>309</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>310</v>
+      </c>
+      <c r="J1" s="18" t="s">
+        <v>311</v>
+      </c>
+      <c r="K1" s="18" t="s">
+        <v>312</v>
+      </c>
+      <c r="L1" s="18" t="s">
+        <v>313</v>
+      </c>
+      <c r="M1" s="18" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
     </row>
     <row r="3" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="15" t="s">
         <v>48</v>
       </c>
       <c r="B3" s="6"/>
@@ -4753,7 +8619,7 @@
       <c r="M3" s="6"/>
     </row>
     <row r="4" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="15" t="s">
         <v>49</v>
       </c>
       <c r="B4" s="6"/>
@@ -4770,7 +8636,7 @@
       <c r="M4" s="6"/>
     </row>
     <row r="5" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="15" t="s">
         <v>50</v>
       </c>
       <c r="B5" s="6"/>
@@ -4787,7 +8653,7 @@
       <c r="M5" s="6"/>
     </row>
     <row r="6" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="15" t="s">
         <v>51</v>
       </c>
       <c r="B6" s="6"/>
@@ -4804,7 +8670,7 @@
       <c r="M6" s="6"/>
     </row>
     <row r="7" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="15" t="s">
         <v>52</v>
       </c>
       <c r="B7" s="6"/>
@@ -4821,7 +8687,7 @@
       <c r="M7" s="6"/>
     </row>
     <row r="8" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="15" t="s">
         <v>53</v>
       </c>
       <c r="B8" s="6"/>
@@ -4838,7 +8704,7 @@
       <c r="M8" s="6"/>
     </row>
     <row r="9" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="15" t="s">
         <v>54</v>
       </c>
       <c r="B9" s="6"/>
@@ -4855,7 +8721,7 @@
       <c r="M9" s="6"/>
     </row>
     <row r="10" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="15" t="s">
         <v>55</v>
       </c>
       <c r="B10" s="6"/>
@@ -4872,7 +8738,7 @@
       <c r="M10" s="6"/>
     </row>
     <row r="11" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="15" t="s">
         <v>56</v>
       </c>
       <c r="B11" s="6"/>
@@ -4889,8 +8755,8 @@
       <c r="M11" s="6"/>
     </row>
     <row r="12" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
-        <v>71</v>
+      <c r="A12" s="15" t="s">
+        <v>89</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -4905,135 +8771,135 @@
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
     </row>
-    <row r="13" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="20"/>
-    </row>
-    <row r="14" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="20"/>
-    </row>
-    <row r="15" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="20"/>
-    </row>
-    <row r="16" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="20"/>
-    </row>
-    <row r="17" spans="1:3" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="20"/>
-    </row>
-    <row r="18" spans="1:3" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="20"/>
-    </row>
-    <row r="19" spans="1:3" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="20"/>
-    </row>
-    <row r="20" spans="1:3" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="20"/>
-    </row>
-    <row r="21" spans="1:3" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="20"/>
-    </row>
-    <row r="22" spans="1:3" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="20"/>
-    </row>
-    <row r="23" spans="1:3" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="20"/>
-    </row>
-    <row r="24" spans="1:3" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="20"/>
-    </row>
-    <row r="25" spans="1:3" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="20"/>
-    </row>
-    <row r="26" spans="1:3" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="20"/>
-    </row>
-    <row r="27" spans="1:3" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="20"/>
-    </row>
-    <row r="28" spans="1:3" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="22"/>
-    </row>
-    <row r="29" spans="1:3" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="22"/>
-      <c r="C29" s="22"/>
-    </row>
-    <row r="30" spans="1:3" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="22"/>
-    </row>
-    <row r="31" spans="1:3" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="22"/>
-    </row>
-    <row r="32" spans="1:3" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="20"/>
-    </row>
-    <row r="33" spans="1:1" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="20"/>
-    </row>
-    <row r="34" spans="1:1" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="20"/>
-    </row>
-    <row r="35" spans="1:1" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="20"/>
-    </row>
-    <row r="36" spans="1:1" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="20"/>
-    </row>
-    <row r="37" spans="1:1" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="20"/>
-    </row>
-    <row r="38" spans="1:1" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="20"/>
-    </row>
-    <row r="39" spans="1:1" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="20"/>
-    </row>
-    <row r="40" spans="1:1" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="20"/>
-    </row>
-    <row r="41" spans="1:1" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="20"/>
-    </row>
-    <row r="42" spans="1:1" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="20"/>
-    </row>
-    <row r="43" spans="1:1" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="20"/>
-    </row>
-    <row r="44" spans="1:1" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="20"/>
-    </row>
-    <row r="45" spans="1:1" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="20"/>
-    </row>
-    <row r="46" spans="1:1" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="20"/>
-    </row>
-    <row r="47" spans="1:1" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="20"/>
-    </row>
-    <row r="48" spans="1:1" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="20"/>
-    </row>
-    <row r="49" spans="1:1" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="20"/>
-    </row>
-    <row r="50" spans="1:1" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="20"/>
-    </row>
-    <row r="51" spans="1:1" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="20"/>
-    </row>
-    <row r="52" spans="1:1" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="20"/>
-    </row>
-    <row r="53" spans="1:1" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="23"/>
-    </row>
-    <row r="54" spans="1:1" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="23"/>
-    </row>
-    <row r="55" spans="1:1" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="23"/>
+    <row r="13" spans="1:13" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="32"/>
+    </row>
+    <row r="14" spans="1:13" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="32"/>
+    </row>
+    <row r="15" spans="1:13" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="32"/>
+    </row>
+    <row r="16" spans="1:13" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="32"/>
+    </row>
+    <row r="17" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="32"/>
+    </row>
+    <row r="18" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="32"/>
+    </row>
+    <row r="19" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="32"/>
+    </row>
+    <row r="20" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="32"/>
+    </row>
+    <row r="21" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="32"/>
+    </row>
+    <row r="22" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="32"/>
+    </row>
+    <row r="23" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="32"/>
+    </row>
+    <row r="24" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="32"/>
+    </row>
+    <row r="25" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="32"/>
+    </row>
+    <row r="26" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="32"/>
+    </row>
+    <row r="27" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="32"/>
+    </row>
+    <row r="28" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="34"/>
+    </row>
+    <row r="29" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="34"/>
+      <c r="C29" s="34"/>
+    </row>
+    <row r="30" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="34"/>
+    </row>
+    <row r="31" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="34"/>
+    </row>
+    <row r="32" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="32"/>
+    </row>
+    <row r="33" spans="1:1" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="32"/>
+    </row>
+    <row r="34" spans="1:1" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="32"/>
+    </row>
+    <row r="35" spans="1:1" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="32"/>
+    </row>
+    <row r="36" spans="1:1" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="32"/>
+    </row>
+    <row r="37" spans="1:1" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="32"/>
+    </row>
+    <row r="38" spans="1:1" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="32"/>
+    </row>
+    <row r="39" spans="1:1" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="32"/>
+    </row>
+    <row r="40" spans="1:1" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="32"/>
+    </row>
+    <row r="41" spans="1:1" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="32"/>
+    </row>
+    <row r="42" spans="1:1" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="32"/>
+    </row>
+    <row r="43" spans="1:1" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="32"/>
+    </row>
+    <row r="44" spans="1:1" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="32"/>
+    </row>
+    <row r="45" spans="1:1" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="32"/>
+    </row>
+    <row r="46" spans="1:1" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="32"/>
+    </row>
+    <row r="47" spans="1:1" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="32"/>
+    </row>
+    <row r="48" spans="1:1" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="32"/>
+    </row>
+    <row r="49" spans="1:1" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="32"/>
+    </row>
+    <row r="50" spans="1:1" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="32"/>
+    </row>
+    <row r="51" spans="1:1" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="32"/>
+    </row>
+    <row r="52" spans="1:1" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="32"/>
+    </row>
+    <row r="53" spans="1:1" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="35"/>
+    </row>
+    <row r="54" spans="1:1" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="35"/>
+    </row>
+    <row r="55" spans="1:1" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="35"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5055,65 +8921,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>159</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="E1" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>151</v>
-      </c>
-      <c r="G1" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="H1" s="17" t="s">
-        <v>153</v>
-      </c>
-      <c r="I1" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="J1" s="17" t="s">
-        <v>155</v>
-      </c>
-      <c r="K1" s="17" t="s">
-        <v>156</v>
-      </c>
-      <c r="L1" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="M1" s="17" t="s">
-        <v>158</v>
+      <c r="A1" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>315</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>304</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>305</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>307</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>308</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>309</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>310</v>
+      </c>
+      <c r="J1" s="18" t="s">
+        <v>311</v>
+      </c>
+      <c r="K1" s="18" t="s">
+        <v>312</v>
+      </c>
+      <c r="L1" s="18" t="s">
+        <v>313</v>
+      </c>
+      <c r="M1" s="18" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="18" t="s">
         <v>48</v>
       </c>
       <c r="B3" s="6"/>
@@ -5130,7 +8996,7 @@
       <c r="M3" s="6"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="18" t="s">
         <v>49</v>
       </c>
       <c r="B4" s="6"/>
@@ -5147,7 +9013,7 @@
       <c r="M4" s="6"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="18" t="s">
         <v>50</v>
       </c>
       <c r="B5" s="6"/>
@@ -5164,7 +9030,7 @@
       <c r="M5" s="6"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="18" t="s">
         <v>51</v>
       </c>
       <c r="B6" s="6"/>
@@ -5181,7 +9047,7 @@
       <c r="M6" s="6"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="18" t="s">
         <v>52</v>
       </c>
       <c r="B7" s="6"/>
@@ -5198,7 +9064,7 @@
       <c r="M7" s="6"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="18" t="s">
         <v>53</v>
       </c>
       <c r="B8" s="6"/>
@@ -5215,7 +9081,7 @@
       <c r="M8" s="6"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="18" t="s">
         <v>54</v>
       </c>
       <c r="B9" s="6"/>
@@ -5232,7 +9098,7 @@
       <c r="M9" s="6"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="18" t="s">
         <v>55</v>
       </c>
       <c r="B10" s="6"/>
@@ -5249,7 +9115,7 @@
       <c r="M10" s="6"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="18" t="s">
         <v>56</v>
       </c>
       <c r="B11" s="6"/>
@@ -5266,8 +9132,8 @@
       <c r="M11" s="6"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="17" t="s">
-        <v>71</v>
+      <c r="A12" s="18" t="s">
+        <v>89</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>

--- a/Civilworks cost/IPC Distribution.xlsx
+++ b/Civilworks cost/IPC Distribution.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-60" windowWidth="20730" windowHeight="11760" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="-60" windowWidth="20736" windowHeight="11760" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1057,7 +1057,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1141,7 +1141,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1166,6 +1165,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1459,14 +1465,14 @@
       <selection activeCell="D2" sqref="D2:D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="18.28515625" customWidth="1"/>
-    <col min="3" max="3" width="97.5703125" customWidth="1"/>
-    <col min="4" max="4" width="52.85546875" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" customWidth="1"/>
+    <col min="3" max="3" width="97.5546875" customWidth="1"/>
+    <col min="4" max="4" width="52.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -1477,7 +1483,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>57</v>
       </c>
@@ -1492,7 +1498,7 @@
         <v>4111306_Construction of Irrigation Inlet (New Haors)</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>58</v>
       </c>
@@ -1507,7 +1513,7 @@
         <v>4111307_ Re-installation/Construction of Regulator/ Causeway (Rehabilitation Sub-Projects)</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>59</v>
       </c>
@@ -1522,7 +1528,7 @@
         <v>4111307_ Installation/Construction of New Regulators/ Causeway/Bridge/Box Drainage Outlet) (New Haors)</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>60</v>
       </c>
@@ -1537,7 +1543,7 @@
         <v xml:space="preserve">4111307_ Re-excavation of Khal/River (New Haors) </v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>61</v>
       </c>
@@ -1552,7 +1558,7 @@
         <v xml:space="preserve">4111201_ Re-excavation of Khal/River (Rehabilitation Sub-Projects) </v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>62</v>
       </c>
@@ -1567,7 +1573,7 @@
         <v>4111201_ Rehabilitation of Full Embankment (Resection/ construction) (Rehabilitation Sub-Projects)</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>63</v>
       </c>
@@ -1582,7 +1588,7 @@
         <v>4111201_ Rehabilitation of Submergible Embankment  (Resection/construction)  (Rehabilitation Sub-Projects)</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>64</v>
       </c>
@@ -1597,7 +1603,7 @@
         <v>4111201_Construction of Submersible Embankment (New Haors) (Earth Volume: 29.98 lakh cum)</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>65</v>
       </c>
@@ -1612,7 +1618,7 @@
         <v>4111201_ Rehabilitation of Regulator (New Haors)</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>66</v>
       </c>
@@ -1627,7 +1633,7 @@
         <v>4111201_Construction of WMG Office</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>67</v>
       </c>
@@ -1658,26 +1664,26 @@
       <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="20.140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="20.109375" style="3" customWidth="1"/>
     <col min="3" max="3" width="16" style="3" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" customWidth="1"/>
-    <col min="8" max="8" width="22.85546875" customWidth="1"/>
-    <col min="9" max="9" width="19.42578125" customWidth="1"/>
-    <col min="12" max="12" width="19.42578125" customWidth="1"/>
-    <col min="13" max="13" width="25.140625" style="3" customWidth="1"/>
-    <col min="14" max="14" width="26.28515625" customWidth="1"/>
-    <col min="15" max="15" width="17.7109375" style="3" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" customWidth="1"/>
-    <col min="17" max="17" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.28515625" style="4" customWidth="1"/>
-    <col min="19" max="19" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.28515625" customWidth="1"/>
-    <col min="21" max="21" width="16.5703125" customWidth="1"/>
+    <col min="5" max="5" width="17.109375" customWidth="1"/>
+    <col min="8" max="8" width="22.88671875" customWidth="1"/>
+    <col min="9" max="9" width="19.44140625" customWidth="1"/>
+    <col min="12" max="12" width="19.44140625" customWidth="1"/>
+    <col min="13" max="13" width="25.109375" style="3" customWidth="1"/>
+    <col min="14" max="14" width="26.33203125" customWidth="1"/>
+    <col min="15" max="15" width="17.6640625" style="3" customWidth="1"/>
+    <col min="16" max="16" width="14.88671875" customWidth="1"/>
+    <col min="17" max="17" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.33203125" style="4" customWidth="1"/>
+    <col min="19" max="19" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.33203125" customWidth="1"/>
+    <col min="21" max="21" width="16.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B1" s="5">
         <v>7146.0320000000002</v>
       </c>
@@ -1693,7 +1699,7 @@
       <c r="O1" s="5"/>
       <c r="P1" s="1"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B2" s="5">
         <v>2175338.3840000001</v>
       </c>
@@ -1719,7 +1725,7 @@
       <c r="O2" s="5"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B3" s="5">
         <v>442686.37599999999</v>
       </c>
@@ -1743,7 +1749,7 @@
       <c r="O3" s="5"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B4" s="5">
         <v>25927.940999999999</v>
       </c>
@@ -1770,7 +1776,7 @@
       <c r="O4" s="5"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -1805,7 +1811,7 @@
       <c r="O5" s="5"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B6" s="5"/>
       <c r="C6" s="5">
         <v>769684.61699999997</v>
@@ -1830,7 +1836,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C7" s="5">
         <v>776580.14399999997</v>
       </c>
@@ -1854,7 +1860,7 @@
         <v>12285185.104948564</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C8" s="5">
         <f>SUM(C1:C7)</f>
         <v>2491596.338</v>
@@ -1878,7 +1884,7 @@
         <v>901800.89505143708</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="E9" s="5">
         <f>B6+C8</f>
         <v>2491596.338</v>
@@ -1900,12 +1906,12 @@
         <v>15070841</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="L12" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="L13" s="3" t="s">
         <v>29</v>
       </c>
@@ -1922,7 +1928,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="L14" s="8">
         <v>5478066.2400000002</v>
       </c>
@@ -1948,7 +1954,7 @@
         <v>4313977.0977821741</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="L15" s="8"/>
       <c r="M15" s="5">
         <v>315745.96999999997</v>
@@ -1973,7 +1979,7 @@
         <v>5197670.9022178268</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="K16" t="s">
         <v>14</v>
       </c>
@@ -1999,7 +2005,7 @@
       </c>
       <c r="S16" s="3"/>
     </row>
-    <row r="17" spans="11:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="11:19" x14ac:dyDescent="0.3">
       <c r="K17" t="s">
         <v>30</v>
       </c>
@@ -2009,18 +2015,18 @@
         <v>12078283.359999999</v>
       </c>
     </row>
-    <row r="18" spans="11:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="11:19" x14ac:dyDescent="0.3">
       <c r="L18" s="3"/>
     </row>
-    <row r="19" spans="11:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="11:19" x14ac:dyDescent="0.3">
       <c r="L19" s="3"/>
     </row>
-    <row r="20" spans="11:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="11:19" x14ac:dyDescent="0.3">
       <c r="L20" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="11:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="11:19" x14ac:dyDescent="0.3">
       <c r="L21" s="3" t="s">
         <v>29</v>
       </c>
@@ -2037,7 +2043,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="11:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="11:19" x14ac:dyDescent="0.3">
       <c r="L22" s="3">
         <v>5478066.2400000002</v>
       </c>
@@ -2062,7 +2068,7 @@
         <v>479330.43588387553</v>
       </c>
     </row>
-    <row r="23" spans="11:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="11:19" x14ac:dyDescent="0.3">
       <c r="L23" s="3"/>
       <c r="M23" s="3">
         <v>315745.96999999997</v>
@@ -2085,7 +2091,7 @@
         <v>577518.56411612465</v>
       </c>
     </row>
-    <row r="24" spans="11:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="11:19" x14ac:dyDescent="0.3">
       <c r="K24" t="s">
         <v>14</v>
       </c>
@@ -2111,7 +2117,7 @@
         <v>1207828.0000000002</v>
       </c>
     </row>
-    <row r="25" spans="11:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="11:19" x14ac:dyDescent="0.3">
       <c r="K25" t="s">
         <v>30</v>
       </c>
@@ -2119,12 +2125,12 @@
         <v>12078283.359999999</v>
       </c>
     </row>
-    <row r="35" spans="14:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="14:21" x14ac:dyDescent="0.3">
       <c r="N35" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="14:21" x14ac:dyDescent="0.25">
+    <row r="36" spans="14:21" x14ac:dyDescent="0.3">
       <c r="N36" t="s">
         <v>29</v>
       </c>
@@ -2132,7 +2138,7 @@
         <v>5923319.2699999996</v>
       </c>
     </row>
-    <row r="37" spans="14:21" x14ac:dyDescent="0.25">
+    <row r="37" spans="14:21" x14ac:dyDescent="0.3">
       <c r="N37" t="s">
         <v>33</v>
       </c>
@@ -2140,7 +2146,7 @@
         <v>317931.49</v>
       </c>
     </row>
-    <row r="38" spans="14:21" x14ac:dyDescent="0.25">
+    <row r="38" spans="14:21" x14ac:dyDescent="0.3">
       <c r="N38" t="s">
         <v>14</v>
       </c>
@@ -2158,7 +2164,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="39" spans="14:21" x14ac:dyDescent="0.25">
+    <row r="39" spans="14:21" x14ac:dyDescent="0.3">
       <c r="N39" t="s">
         <v>34</v>
       </c>
@@ -2185,7 +2191,7 @@
         <v>5386258.0510686319</v>
       </c>
     </row>
-    <row r="40" spans="14:21" x14ac:dyDescent="0.25">
+    <row r="40" spans="14:21" x14ac:dyDescent="0.3">
       <c r="N40" t="s">
         <v>35</v>
       </c>
@@ -2212,7 +2218,7 @@
         <v>6037755.4941627374</v>
       </c>
     </row>
-    <row r="41" spans="14:21" x14ac:dyDescent="0.25">
+    <row r="41" spans="14:21" x14ac:dyDescent="0.3">
       <c r="N41" t="s">
         <v>36</v>
       </c>
@@ -2239,7 +2245,7 @@
         <v>4823437.4547686297</v>
       </c>
     </row>
-    <row r="42" spans="14:21" x14ac:dyDescent="0.25">
+    <row r="42" spans="14:21" x14ac:dyDescent="0.3">
       <c r="N42" t="s">
         <v>37</v>
       </c>
@@ -2263,7 +2269,7 @@
         <v>16247450.999999998</v>
       </c>
     </row>
-    <row r="43" spans="14:21" x14ac:dyDescent="0.25">
+    <row r="43" spans="14:21" x14ac:dyDescent="0.3">
       <c r="N43" t="s">
         <v>14</v>
       </c>
@@ -2272,7 +2278,7 @@
         <v>12585254.568999998</v>
       </c>
     </row>
-    <row r="44" spans="14:21" x14ac:dyDescent="0.25">
+    <row r="44" spans="14:21" x14ac:dyDescent="0.3">
       <c r="N44" t="s">
         <v>30</v>
       </c>
@@ -2281,7 +2287,7 @@
         <v>18826505.328999996</v>
       </c>
     </row>
-    <row r="48" spans="14:21" x14ac:dyDescent="0.25">
+    <row r="48" spans="14:21" x14ac:dyDescent="0.3">
       <c r="N48" t="s">
         <v>41</v>
       </c>
@@ -2289,7 +2295,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="49" spans="14:20" x14ac:dyDescent="0.25">
+    <row r="49" spans="14:20" x14ac:dyDescent="0.3">
       <c r="N49" t="s">
         <v>42</v>
       </c>
@@ -2309,7 +2315,7 @@
         <v>4142488.1873903489</v>
       </c>
     </row>
-    <row r="50" spans="14:20" x14ac:dyDescent="0.25">
+    <row r="50" spans="14:20" x14ac:dyDescent="0.3">
       <c r="N50" t="s">
         <v>43</v>
       </c>
@@ -2329,7 +2335,7 @@
         <v>3815450.8126096507</v>
       </c>
     </row>
-    <row r="51" spans="14:20" x14ac:dyDescent="0.25">
+    <row r="51" spans="14:20" x14ac:dyDescent="0.3">
       <c r="O51" s="3">
         <f>SUM(O49:O50)</f>
         <v>9094786.5099999998</v>
@@ -2351,7 +2357,7 @@
         <v>9094787</v>
       </c>
     </row>
-    <row r="54" spans="14:20" x14ac:dyDescent="0.25">
+    <row r="54" spans="14:20" x14ac:dyDescent="0.3">
       <c r="N54" t="s">
         <v>44</v>
       </c>
@@ -2359,7 +2365,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="55" spans="14:20" x14ac:dyDescent="0.25">
+    <row r="55" spans="14:20" x14ac:dyDescent="0.3">
       <c r="N55" t="s">
         <v>42</v>
       </c>
@@ -2376,7 +2382,7 @@
         <v>4142488.1873903489</v>
       </c>
     </row>
-    <row r="56" spans="14:20" x14ac:dyDescent="0.25">
+    <row r="56" spans="14:20" x14ac:dyDescent="0.3">
       <c r="N56" t="s">
         <v>43</v>
       </c>
@@ -2393,7 +2399,7 @@
         <v>3815450.8126096507</v>
       </c>
     </row>
-    <row r="57" spans="14:20" x14ac:dyDescent="0.25">
+    <row r="57" spans="14:20" x14ac:dyDescent="0.3">
       <c r="P57">
         <v>1</v>
       </c>
@@ -2407,7 +2413,7 @@
         <v>9094787</v>
       </c>
     </row>
-    <row r="58" spans="14:20" x14ac:dyDescent="0.25">
+    <row r="58" spans="14:20" x14ac:dyDescent="0.3">
       <c r="N58" t="s">
         <v>45</v>
       </c>
@@ -2421,7 +2427,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="59" spans="14:20" x14ac:dyDescent="0.25">
+    <row r="59" spans="14:20" x14ac:dyDescent="0.3">
       <c r="N59" t="s">
         <v>18</v>
       </c>
@@ -2448,7 +2454,7 @@
         <v>4989638.1726636579</v>
       </c>
     </row>
-    <row r="60" spans="14:20" x14ac:dyDescent="0.25">
+    <row r="60" spans="14:20" x14ac:dyDescent="0.3">
       <c r="N60" t="s">
         <v>43</v>
       </c>
@@ -2475,7 +2481,7 @@
         <v>5464314.8273363421</v>
       </c>
     </row>
-    <row r="61" spans="14:20" x14ac:dyDescent="0.25">
+    <row r="61" spans="14:20" x14ac:dyDescent="0.3">
       <c r="N61" t="s">
         <v>46</v>
       </c>
@@ -2495,7 +2501,7 @@
         <v>10453953</v>
       </c>
     </row>
-    <row r="62" spans="14:20" x14ac:dyDescent="0.25">
+    <row r="62" spans="14:20" x14ac:dyDescent="0.3">
       <c r="N62" t="s">
         <v>43</v>
       </c>
@@ -2504,13 +2510,13 @@
         <v>6244931.3999999994</v>
       </c>
     </row>
-    <row r="63" spans="14:20" x14ac:dyDescent="0.25">
+    <row r="63" spans="14:20" x14ac:dyDescent="0.3">
       <c r="O63" s="3">
         <f>SUM(O59,O62)</f>
         <v>11947375.18</v>
       </c>
     </row>
-    <row r="65" spans="14:20" x14ac:dyDescent="0.25">
+    <row r="65" spans="14:20" x14ac:dyDescent="0.3">
       <c r="N65" t="s">
         <v>47</v>
       </c>
@@ -2524,7 +2530,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="66" spans="14:20" x14ac:dyDescent="0.25">
+    <row r="66" spans="14:20" x14ac:dyDescent="0.3">
       <c r="N66" t="s">
         <v>38</v>
       </c>
@@ -2547,7 +2553,7 @@
         <v>4989638.1726636579</v>
       </c>
     </row>
-    <row r="67" spans="14:20" x14ac:dyDescent="0.25">
+    <row r="67" spans="14:20" x14ac:dyDescent="0.3">
       <c r="N67" t="s">
         <v>43</v>
       </c>
@@ -2568,7 +2574,7 @@
         <v>5464314.8273363421</v>
       </c>
     </row>
-    <row r="68" spans="14:20" x14ac:dyDescent="0.25">
+    <row r="68" spans="14:20" x14ac:dyDescent="0.3">
       <c r="N68" t="s">
         <v>46</v>
       </c>
@@ -2585,7 +2591,7 @@
         <v>10453953</v>
       </c>
     </row>
-    <row r="69" spans="14:20" x14ac:dyDescent="0.25">
+    <row r="69" spans="14:20" x14ac:dyDescent="0.3">
       <c r="N69" t="s">
         <v>43</v>
       </c>
@@ -2593,7 +2599,7 @@
         <v>6244931.3999999994</v>
       </c>
     </row>
-    <row r="70" spans="14:20" x14ac:dyDescent="0.25">
+    <row r="70" spans="14:20" x14ac:dyDescent="0.3">
       <c r="O70" s="5">
         <v>11947375.18</v>
       </c>
@@ -2607,34 +2613,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S104"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="I1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T65" sqref="T65"/>
+      <selection pane="bottomLeft" activeCell="X15" sqref="X15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.140625" customWidth="1"/>
-    <col min="12" max="12" width="16.7109375" customWidth="1"/>
+    <col min="1" max="1" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" customWidth="1"/>
+    <col min="5" max="5" width="13.44140625" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" customWidth="1"/>
+    <col min="9" max="9" width="13.44140625" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1"/>
+    <col min="11" max="11" width="14.109375" customWidth="1"/>
+    <col min="12" max="12" width="16.6640625" customWidth="1"/>
     <col min="13" max="13" width="14" customWidth="1"/>
-    <col min="14" max="14" width="10.28515625" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" customWidth="1"/>
-    <col min="16" max="17" width="16.42578125" customWidth="1"/>
+    <col min="14" max="14" width="10.33203125" customWidth="1"/>
+    <col min="15" max="15" width="14.44140625" customWidth="1"/>
+    <col min="16" max="17" width="16.44140625" customWidth="1"/>
     <col min="18" max="18" width="15" customWidth="1"/>
-    <col min="19" max="19" width="10.140625" customWidth="1"/>
+    <col min="19" max="19" width="10.109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" s="11" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="28" t="s">
         <v>88</v>
       </c>
@@ -2693,7 +2699,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="18">
         <v>1</v>
       </c>
@@ -2726,11 +2732,11 @@
       <c r="R2" s="18">
         <v>1</v>
       </c>
-      <c r="S2" s="31">
+      <c r="S2" s="20">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="18">
         <v>2</v>
       </c>
@@ -2763,11 +2769,11 @@
       <c r="R3" s="18">
         <v>1</v>
       </c>
-      <c r="S3" s="31">
+      <c r="S3" s="20">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="18">
         <v>3</v>
       </c>
@@ -2800,11 +2806,11 @@
       <c r="R4" s="18">
         <v>1</v>
       </c>
-      <c r="S4" s="31">
+      <c r="S4" s="20">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="18">
         <v>4</v>
       </c>
@@ -2837,11 +2843,11 @@
       <c r="R5" s="18">
         <v>2</v>
       </c>
-      <c r="S5" s="31">
+      <c r="S5" s="20">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="18">
         <v>5</v>
       </c>
@@ -2874,11 +2880,11 @@
       <c r="R6" s="18">
         <v>1</v>
       </c>
-      <c r="S6" s="31">
+      <c r="S6" s="20">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="18">
         <v>6</v>
       </c>
@@ -2911,11 +2917,11 @@
       <c r="R7" s="18">
         <v>1</v>
       </c>
-      <c r="S7" s="31">
+      <c r="S7" s="20">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="18">
         <v>7</v>
       </c>
@@ -2950,11 +2956,11 @@
       <c r="R8" s="18">
         <v>4</v>
       </c>
-      <c r="S8" s="31">
+      <c r="S8" s="20">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="18">
         <v>8</v>
       </c>
@@ -2987,11 +2993,11 @@
       <c r="R9" s="18">
         <v>5</v>
       </c>
-      <c r="S9" s="31">
+      <c r="S9" s="20">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="18">
         <v>9</v>
       </c>
@@ -3026,11 +3032,11 @@
       <c r="R10" s="18">
         <v>4</v>
       </c>
-      <c r="S10" s="31">
+      <c r="S10" s="20">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="18">
         <v>10</v>
       </c>
@@ -3065,11 +3071,11 @@
       <c r="R11" s="18">
         <v>1</v>
       </c>
-      <c r="S11" s="31">
+      <c r="S11" s="20">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="18">
         <v>11</v>
       </c>
@@ -3104,11 +3110,11 @@
       <c r="R12" s="18">
         <v>2</v>
       </c>
-      <c r="S12" s="31">
+      <c r="S12" s="20">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="18">
         <v>12</v>
       </c>
@@ -3145,11 +3151,11 @@
       <c r="R13" s="18">
         <v>9</v>
       </c>
-      <c r="S13" s="31">
+      <c r="S13" s="20">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="18">
         <v>13</v>
       </c>
@@ -3184,11 +3190,11 @@
       <c r="R14" s="18">
         <v>4</v>
       </c>
-      <c r="S14" s="31">
+      <c r="S14" s="20">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="18">
         <v>14</v>
       </c>
@@ -3221,11 +3227,11 @@
       <c r="R15" s="18">
         <v>5</v>
       </c>
-      <c r="S15" s="31">
+      <c r="S15" s="20">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="20">
         <v>15</v>
       </c>
@@ -3258,11 +3264,11 @@
       <c r="R16" s="20">
         <v>7</v>
       </c>
-      <c r="S16" s="31">
+      <c r="S16" s="20">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" s="18">
         <v>16</v>
       </c>
@@ -3297,11 +3303,11 @@
       <c r="R17" s="18">
         <v>2</v>
       </c>
-      <c r="S17" s="31">
+      <c r="S17" s="20">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" s="18">
         <v>17</v>
       </c>
@@ -3334,11 +3340,11 @@
       <c r="R18" s="18">
         <v>5</v>
       </c>
-      <c r="S18" s="31">
+      <c r="S18" s="20">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" s="18">
         <v>18</v>
       </c>
@@ -3373,11 +3379,11 @@
       <c r="R19" s="18">
         <v>5</v>
       </c>
-      <c r="S19" s="31">
+      <c r="S19" s="20">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" s="18">
         <v>19</v>
       </c>
@@ -3410,11 +3416,11 @@
       <c r="R20" s="18">
         <v>5</v>
       </c>
-      <c r="S20" s="31">
+      <c r="S20" s="20">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" s="18">
         <v>20</v>
       </c>
@@ -3447,11 +3453,11 @@
       <c r="R21" s="18">
         <v>6</v>
       </c>
-      <c r="S21" s="31">
+      <c r="S21" s="20">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" s="18">
         <v>21</v>
       </c>
@@ -3486,11 +3492,11 @@
       <c r="R22" s="18">
         <v>4</v>
       </c>
-      <c r="S22" s="31">
+      <c r="S22" s="20">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23" s="18">
         <v>22</v>
       </c>
@@ -3523,11 +3529,11 @@
       <c r="R23" s="18">
         <v>9</v>
       </c>
-      <c r="S23" s="31">
+      <c r="S23" s="20">
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24" s="18">
         <v>23</v>
       </c>
@@ -3560,11 +3566,11 @@
       <c r="R24" s="18">
         <v>2</v>
       </c>
-      <c r="S24" s="31">
+      <c r="S24" s="20">
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25" s="18">
         <v>24</v>
       </c>
@@ -3597,11 +3603,11 @@
       <c r="R25" s="18">
         <v>1</v>
       </c>
-      <c r="S25" s="31">
+      <c r="S25" s="20">
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A26" s="18">
         <v>25</v>
       </c>
@@ -3634,11 +3640,11 @@
       <c r="R26" s="18">
         <v>5</v>
       </c>
-      <c r="S26" s="31">
+      <c r="S26" s="20">
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27" s="18">
         <v>26</v>
       </c>
@@ -3673,11 +3679,11 @@
       <c r="R27" s="18">
         <v>7</v>
       </c>
-      <c r="S27" s="31">
+      <c r="S27" s="20">
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A28" s="18">
         <v>27</v>
       </c>
@@ -3712,11 +3718,11 @@
       <c r="R28" s="18">
         <v>2</v>
       </c>
-      <c r="S28" s="31">
+      <c r="S28" s="20">
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A29" s="18">
         <v>28</v>
       </c>
@@ -3749,11 +3755,11 @@
       <c r="R29" s="18">
         <v>4</v>
       </c>
-      <c r="S29" s="31">
+      <c r="S29" s="20">
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A30" s="18">
         <v>29</v>
       </c>
@@ -3788,11 +3794,11 @@
       <c r="R30" s="18">
         <v>4</v>
       </c>
-      <c r="S30" s="31">
+      <c r="S30" s="20">
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A31" s="18">
         <v>30</v>
       </c>
@@ -3829,11 +3835,11 @@
       <c r="R31" s="18">
         <v>2</v>
       </c>
-      <c r="S31" s="31">
+      <c r="S31" s="20">
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A32" s="18">
         <v>31</v>
       </c>
@@ -3866,11 +3872,11 @@
       <c r="R32" s="18">
         <v>6</v>
       </c>
-      <c r="S32" s="31">
+      <c r="S32" s="20">
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A33" s="18">
         <v>32</v>
       </c>
@@ -3903,11 +3909,11 @@
       <c r="R33" s="18">
         <v>6</v>
       </c>
-      <c r="S33" s="31">
+      <c r="S33" s="20">
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A34" s="18">
         <v>33</v>
       </c>
@@ -3940,52 +3946,52 @@
       <c r="R34" s="18">
         <v>4</v>
       </c>
-      <c r="S34" s="31">
+      <c r="S34" s="20">
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A35" s="18">
+    <row r="35" spans="1:19" s="43" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="41">
         <v>34</v>
       </c>
-      <c r="B35" s="24" t="s">
+      <c r="B35" s="40" t="s">
         <v>141</v>
       </c>
-      <c r="C35" s="24"/>
-      <c r="D35" s="24"/>
-      <c r="E35" s="24">
+      <c r="C35" s="40"/>
+      <c r="D35" s="40"/>
+      <c r="E35" s="40">
         <v>3678989.3829999999</v>
       </c>
-      <c r="F35" s="24">
+      <c r="F35" s="40">
         <v>1997998.9920000001</v>
       </c>
-      <c r="G35" s="24"/>
-      <c r="H35" s="24"/>
-      <c r="I35" s="24"/>
-      <c r="J35" s="24"/>
-      <c r="K35" s="24">
+      <c r="G35" s="40"/>
+      <c r="H35" s="40"/>
+      <c r="I35" s="40"/>
+      <c r="J35" s="40"/>
+      <c r="K35" s="40">
         <v>24430.226999999999</v>
       </c>
-      <c r="L35" s="24"/>
-      <c r="M35" s="24"/>
-      <c r="N35" s="24"/>
-      <c r="O35" s="24">
+      <c r="L35" s="40"/>
+      <c r="M35" s="40"/>
+      <c r="N35" s="40"/>
+      <c r="O35" s="40">
         <v>712677</v>
       </c>
-      <c r="P35" s="24">
+      <c r="P35" s="40">
         <v>4988742</v>
       </c>
-      <c r="Q35" s="19" t="s">
+      <c r="Q35" s="42" t="s">
         <v>103</v>
       </c>
-      <c r="R35" s="18">
+      <c r="R35" s="41">
         <v>5</v>
       </c>
-      <c r="S35" s="31">
+      <c r="S35" s="41">
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A36" s="20">
         <v>35</v>
       </c>
@@ -4020,11 +4026,11 @@
       <c r="R36" s="18">
         <v>5</v>
       </c>
-      <c r="S36" s="31">
+      <c r="S36" s="20">
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A37" s="18">
         <v>36</v>
       </c>
@@ -4059,11 +4065,11 @@
       <c r="R37" s="18">
         <v>10</v>
       </c>
-      <c r="S37" s="31">
+      <c r="S37" s="20">
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A38" s="18">
         <v>37</v>
       </c>
@@ -4096,11 +4102,11 @@
       <c r="R38" s="18">
         <v>6</v>
       </c>
-      <c r="S38" s="31">
+      <c r="S38" s="20">
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A39" s="18">
         <v>38</v>
       </c>
@@ -4133,11 +4139,11 @@
       <c r="R39" s="18">
         <v>2</v>
       </c>
-      <c r="S39" s="31">
+      <c r="S39" s="20">
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A40" s="18">
         <v>39</v>
       </c>
@@ -4172,11 +4178,11 @@
       <c r="R40" s="18">
         <v>3</v>
       </c>
-      <c r="S40" s="31">
+      <c r="S40" s="20">
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A41" s="18">
         <v>40</v>
       </c>
@@ -4209,11 +4215,11 @@
       <c r="R41" s="18">
         <v>3</v>
       </c>
-      <c r="S41" s="31">
+      <c r="S41" s="20">
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A42" s="18">
         <v>41</v>
       </c>
@@ -4246,11 +4252,11 @@
       <c r="R42" s="18">
         <v>7</v>
       </c>
-      <c r="S42" s="6">
+      <c r="S42" s="18">
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A43" s="18">
         <v>42</v>
       </c>
@@ -4283,11 +4289,11 @@
       <c r="R43" s="18">
         <v>8</v>
       </c>
-      <c r="S43" s="6">
+      <c r="S43" s="18">
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A44" s="18">
         <v>43</v>
       </c>
@@ -4324,11 +4330,11 @@
       <c r="R44" s="18">
         <v>11</v>
       </c>
-      <c r="S44" s="6">
+      <c r="S44" s="18">
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A45" s="18">
         <v>44</v>
       </c>
@@ -4363,11 +4369,11 @@
       <c r="R45" s="18">
         <v>8</v>
       </c>
-      <c r="S45" s="6">
+      <c r="S45" s="18">
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A46" s="18">
         <v>45</v>
       </c>
@@ -4400,11 +4406,11 @@
       <c r="R46" s="18">
         <v>10</v>
       </c>
-      <c r="S46" s="6">
+      <c r="S46" s="18">
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A47" s="18">
         <v>46</v>
       </c>
@@ -4437,11 +4443,11 @@
       <c r="R47" s="18">
         <v>6</v>
       </c>
-      <c r="S47" s="6">
+      <c r="S47" s="18">
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A48" s="18">
         <v>47</v>
       </c>
@@ -4474,11 +4480,11 @@
       <c r="R48" s="18">
         <v>1</v>
       </c>
-      <c r="S48" s="6">
+      <c r="S48" s="18">
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A49" s="18">
         <v>48</v>
       </c>
@@ -4511,11 +4517,11 @@
       <c r="R49" s="18">
         <v>3</v>
       </c>
-      <c r="S49" s="6">
+      <c r="S49" s="18">
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A50" s="18">
         <v>49</v>
       </c>
@@ -4550,11 +4556,11 @@
       <c r="R50" s="18">
         <v>4</v>
       </c>
-      <c r="S50" s="6">
+      <c r="S50" s="18">
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A51" s="18">
         <v>50</v>
       </c>
@@ -4589,11 +4595,11 @@
       <c r="R51" s="18">
         <v>6</v>
       </c>
-      <c r="S51" s="6">
+      <c r="S51" s="18">
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A52" s="18">
         <v>51</v>
       </c>
@@ -4626,11 +4632,11 @@
       <c r="R52" s="18">
         <v>4</v>
       </c>
-      <c r="S52" s="6">
+      <c r="S52" s="18">
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A53" s="18">
         <v>52</v>
       </c>
@@ -4663,11 +4669,11 @@
       <c r="R53" s="18">
         <v>1</v>
       </c>
-      <c r="S53" s="6">
+      <c r="S53" s="18">
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A54" s="18">
         <v>53</v>
       </c>
@@ -4700,11 +4706,11 @@
       <c r="R54" s="18">
         <v>3</v>
       </c>
-      <c r="S54" s="6">
+      <c r="S54" s="18">
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A55" s="18">
         <v>54</v>
       </c>
@@ -4737,11 +4743,11 @@
       <c r="R55" s="18">
         <v>1</v>
       </c>
-      <c r="S55" s="6">
+      <c r="S55" s="18">
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A56" s="18">
         <v>55</v>
       </c>
@@ -4774,87 +4780,87 @@
       <c r="R56" s="18">
         <v>5</v>
       </c>
-      <c r="S56" s="6">
+      <c r="S56" s="18">
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A57" s="36">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A57" s="35">
         <v>56</v>
       </c>
-      <c r="B57" s="37" t="s">
+      <c r="B57" s="36" t="s">
         <v>170</v>
       </c>
-      <c r="C57" s="37"/>
-      <c r="D57" s="37"/>
-      <c r="E57" s="37">
+      <c r="C57" s="36"/>
+      <c r="D57" s="36"/>
+      <c r="E57" s="36">
         <v>3582351.46</v>
       </c>
-      <c r="F57" s="37"/>
-      <c r="G57" s="37"/>
-      <c r="H57" s="37"/>
-      <c r="I57" s="37"/>
-      <c r="J57" s="37"/>
-      <c r="K57" s="38"/>
-      <c r="L57" s="37"/>
-      <c r="M57" s="37"/>
-      <c r="N57" s="37"/>
-      <c r="O57" s="37">
+      <c r="F57" s="36"/>
+      <c r="G57" s="36"/>
+      <c r="H57" s="36"/>
+      <c r="I57" s="36"/>
+      <c r="J57" s="36"/>
+      <c r="K57" s="37"/>
+      <c r="L57" s="36"/>
+      <c r="M57" s="36"/>
+      <c r="N57" s="36"/>
+      <c r="O57" s="36">
         <v>447794</v>
       </c>
-      <c r="P57" s="37">
+      <c r="P57" s="36">
         <v>3134557</v>
       </c>
-      <c r="Q57" s="39" t="s">
+      <c r="Q57" s="38" t="s">
         <v>171</v>
       </c>
-      <c r="R57" s="36">
+      <c r="R57" s="35">
         <v>6</v>
       </c>
-      <c r="S57" s="38">
+      <c r="S57" s="35">
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A58" s="36">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A58" s="35">
         <v>57</v>
       </c>
-      <c r="B58" s="37" t="s">
+      <c r="B58" s="36" t="s">
         <v>172</v>
       </c>
-      <c r="C58" s="37"/>
-      <c r="D58" s="37"/>
-      <c r="E58" s="37">
+      <c r="C58" s="36"/>
+      <c r="D58" s="36"/>
+      <c r="E58" s="36">
         <v>3457479.39</v>
       </c>
-      <c r="F58" s="37"/>
-      <c r="G58" s="37"/>
-      <c r="H58" s="37"/>
-      <c r="I58" s="37"/>
-      <c r="J58" s="37">
+      <c r="F58" s="36"/>
+      <c r="G58" s="36"/>
+      <c r="H58" s="36"/>
+      <c r="I58" s="36"/>
+      <c r="J58" s="36">
         <v>3940433.72</v>
       </c>
-      <c r="K58" s="38"/>
-      <c r="L58" s="37"/>
-      <c r="M58" s="37"/>
-      <c r="N58" s="37"/>
-      <c r="O58" s="37">
+      <c r="K58" s="37"/>
+      <c r="L58" s="36"/>
+      <c r="M58" s="36"/>
+      <c r="N58" s="36"/>
+      <c r="O58" s="36">
         <v>924739</v>
       </c>
-      <c r="P58" s="37">
+      <c r="P58" s="36">
         <v>6473174</v>
       </c>
-      <c r="Q58" s="39" t="s">
+      <c r="Q58" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="R58" s="36">
+      <c r="R58" s="35">
         <v>5</v>
       </c>
-      <c r="S58" s="38">
+      <c r="S58" s="35">
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A59" s="18">
         <v>58</v>
       </c>
@@ -4887,11 +4893,11 @@
       <c r="R59" s="18">
         <v>12</v>
       </c>
-      <c r="S59" s="6">
+      <c r="S59" s="18">
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A60" s="18">
         <v>59</v>
       </c>
@@ -4924,11 +4930,11 @@
       <c r="R60" s="18">
         <v>5</v>
       </c>
-      <c r="S60" s="6">
+      <c r="S60" s="18">
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A61" s="18">
         <v>60</v>
       </c>
@@ -4961,11 +4967,11 @@
       <c r="R61" s="18">
         <v>4</v>
       </c>
-      <c r="S61" s="6">
+      <c r="S61" s="18">
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A62" s="18">
         <v>61</v>
       </c>
@@ -4998,47 +5004,47 @@
       <c r="R62" s="18">
         <v>5</v>
       </c>
-      <c r="S62" s="6">
+      <c r="S62" s="18">
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:19" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="36">
+    <row r="63" spans="1:19" s="39" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="35">
         <v>62</v>
       </c>
-      <c r="B63" s="37" t="s">
+      <c r="B63" s="36" t="s">
         <v>180</v>
       </c>
-      <c r="C63" s="37"/>
-      <c r="D63" s="37"/>
-      <c r="E63" s="37">
+      <c r="C63" s="36"/>
+      <c r="D63" s="36"/>
+      <c r="E63" s="36">
         <v>3421028.06</v>
       </c>
-      <c r="F63" s="37"/>
-      <c r="G63" s="37"/>
-      <c r="H63" s="37"/>
-      <c r="I63" s="37"/>
-      <c r="J63" s="37"/>
-      <c r="L63" s="37"/>
-      <c r="M63" s="37"/>
-      <c r="N63" s="37"/>
-      <c r="O63" s="37">
+      <c r="F63" s="36"/>
+      <c r="G63" s="36"/>
+      <c r="H63" s="36"/>
+      <c r="I63" s="36"/>
+      <c r="J63" s="36"/>
+      <c r="L63" s="36"/>
+      <c r="M63" s="36"/>
+      <c r="N63" s="36"/>
+      <c r="O63" s="36">
         <v>427629</v>
       </c>
-      <c r="P63" s="37">
+      <c r="P63" s="36">
         <v>2993399</v>
       </c>
-      <c r="Q63" s="39" t="s">
+      <c r="Q63" s="38" t="s">
         <v>181</v>
       </c>
-      <c r="R63" s="36">
+      <c r="R63" s="35">
         <v>3</v>
       </c>
-      <c r="S63" s="38">
+      <c r="S63" s="35">
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A64" s="18">
         <v>63</v>
       </c>
@@ -5073,11 +5079,11 @@
       <c r="R64" s="18">
         <v>4</v>
       </c>
-      <c r="S64" s="6">
+      <c r="S64" s="18">
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A65" s="18">
         <v>64</v>
       </c>
@@ -5088,7 +5094,7 @@
       <c r="E65" s="24">
         <v>797985.01</v>
       </c>
-      <c r="F65" s="41">
+      <c r="F65" s="40">
         <v>356391.44</v>
       </c>
       <c r="G65" s="24"/>
@@ -5104,8 +5110,8 @@
       <c r="O65" s="24">
         <v>266303.31</v>
       </c>
-      <c r="P65" s="24">
-        <v>1864123.14</v>
+      <c r="P65" s="26">
+        <v>1864123.18</v>
       </c>
       <c r="Q65" s="19" t="s">
         <v>185</v>
@@ -5113,11 +5119,11 @@
       <c r="R65" s="18">
         <v>6</v>
       </c>
-      <c r="S65" s="6">
+      <c r="S65" s="18">
         <v>6</v>
       </c>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A66" s="18">
         <v>65</v>
       </c>
@@ -5131,10 +5137,9 @@
       <c r="G66" s="24">
         <v>18663800.670000002</v>
       </c>
-      <c r="H66" s="24">
+      <c r="I66" s="24">
         <v>4842188.09</v>
       </c>
-      <c r="I66" s="24"/>
       <c r="J66" s="24"/>
       <c r="K66" s="24"/>
       <c r="L66" s="24"/>
@@ -5152,11 +5157,11 @@
       <c r="R66" s="18">
         <v>4</v>
       </c>
-      <c r="S66" s="6">
+      <c r="S66" s="18">
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A67" s="18">
         <v>66</v>
       </c>
@@ -5191,11 +5196,11 @@
       <c r="R67" s="18">
         <v>8</v>
       </c>
-      <c r="S67" s="6">
+      <c r="S67" s="18">
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A68" s="18">
         <v>67</v>
       </c>
@@ -5228,11 +5233,11 @@
       <c r="R68" s="18">
         <v>7</v>
       </c>
-      <c r="S68" s="6">
+      <c r="S68" s="18">
         <v>6</v>
       </c>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A69" s="18">
         <v>68</v>
       </c>
@@ -5265,11 +5270,11 @@
       <c r="R69" s="18">
         <v>7</v>
       </c>
-      <c r="S69" s="6">
+      <c r="S69" s="18">
         <v>6</v>
       </c>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A70" s="18">
         <v>69</v>
       </c>
@@ -5302,11 +5307,11 @@
       <c r="R70" s="18">
         <v>2</v>
       </c>
-      <c r="S70" s="6">
+      <c r="S70" s="18">
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A71" s="18">
         <v>70</v>
       </c>
@@ -5339,11 +5344,11 @@
       <c r="R71" s="18">
         <v>6</v>
       </c>
-      <c r="S71" s="6">
+      <c r="S71" s="18">
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A72" s="18">
         <v>71</v>
       </c>
@@ -5376,51 +5381,51 @@
       <c r="R72" s="18">
         <v>4</v>
       </c>
-      <c r="S72" s="6">
+      <c r="S72" s="18">
         <v>6</v>
       </c>
     </row>
-    <row r="73" spans="1:19" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="36">
+    <row r="73" spans="1:19" s="39" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="35">
         <v>72</v>
       </c>
-      <c r="B73" s="37" t="s">
+      <c r="B73" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="C73" s="37"/>
-      <c r="D73" s="37"/>
-      <c r="E73" s="37">
+      <c r="C73" s="36"/>
+      <c r="D73" s="36"/>
+      <c r="E73" s="36">
         <v>9258302.8699999992</v>
       </c>
-      <c r="F73" s="37">
+      <c r="F73" s="36">
         <v>203113.3</v>
       </c>
-      <c r="G73" s="37"/>
-      <c r="H73" s="37"/>
-      <c r="I73" s="37"/>
-      <c r="J73" s="37">
+      <c r="G73" s="36"/>
+      <c r="H73" s="36"/>
+      <c r="I73" s="36"/>
+      <c r="J73" s="36">
         <v>544818.16</v>
       </c>
-      <c r="L73" s="37"/>
-      <c r="M73" s="37"/>
-      <c r="N73" s="37"/>
-      <c r="O73" s="37">
+      <c r="L73" s="36"/>
+      <c r="M73" s="36"/>
+      <c r="N73" s="36"/>
+      <c r="O73" s="36">
         <v>1250779</v>
       </c>
-      <c r="P73" s="37">
+      <c r="P73" s="36">
         <v>8755455</v>
       </c>
-      <c r="Q73" s="39" t="s">
+      <c r="Q73" s="38" t="s">
         <v>194</v>
       </c>
-      <c r="R73" s="36">
+      <c r="R73" s="35">
         <v>5</v>
       </c>
-      <c r="S73" s="38">
+      <c r="S73" s="35">
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A74" s="18">
         <v>73</v>
       </c>
@@ -5453,11 +5458,11 @@
       <c r="R74" s="18">
         <v>5</v>
       </c>
-      <c r="S74" s="6">
+      <c r="S74" s="18">
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A75" s="18">
         <v>74</v>
       </c>
@@ -5490,11 +5495,11 @@
       <c r="R75" s="18">
         <v>4</v>
       </c>
-      <c r="S75" s="6">
+      <c r="S75" s="18">
         <v>6</v>
       </c>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A76" s="18">
         <v>75</v>
       </c>
@@ -5529,11 +5534,11 @@
       <c r="R76" s="18">
         <v>9</v>
       </c>
-      <c r="S76" s="6">
+      <c r="S76" s="18">
         <v>6</v>
       </c>
     </row>
-    <row r="77" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A77" s="18">
         <v>76</v>
       </c>
@@ -5568,11 +5573,11 @@
       <c r="R77" s="18">
         <v>8</v>
       </c>
-      <c r="S77" s="6">
+      <c r="S77" s="18">
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A78" s="18">
         <v>77</v>
       </c>
@@ -5607,11 +5612,11 @@
       <c r="R78" s="18">
         <v>9</v>
       </c>
-      <c r="S78" s="6">
+      <c r="S78" s="18">
         <v>6</v>
       </c>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A79" s="18">
         <v>78</v>
       </c>
@@ -5644,11 +5649,11 @@
       <c r="R79" s="18">
         <v>8</v>
       </c>
-      <c r="S79" s="6">
+      <c r="S79" s="18">
         <v>6</v>
       </c>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A80" s="18">
         <v>79</v>
       </c>
@@ -5683,11 +5688,11 @@
       <c r="R80" s="18">
         <v>6</v>
       </c>
-      <c r="S80" s="6">
+      <c r="S80" s="18">
         <v>6</v>
       </c>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A81" s="18">
         <v>80</v>
       </c>
@@ -5722,11 +5727,11 @@
       <c r="R81" s="18">
         <v>5</v>
       </c>
-      <c r="S81" s="6">
+      <c r="S81" s="18">
         <v>6</v>
       </c>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A82" s="18">
         <v>81</v>
       </c>
@@ -5761,47 +5766,47 @@
       <c r="R82" s="18">
         <v>5</v>
       </c>
-      <c r="S82" s="6">
+      <c r="S82" s="18">
         <v>6</v>
       </c>
     </row>
-    <row r="83" spans="1:19" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="36">
+    <row r="83" spans="1:19" s="39" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="35">
         <v>82</v>
       </c>
-      <c r="B83" s="37" t="s">
+      <c r="B83" s="36" t="s">
         <v>209</v>
       </c>
-      <c r="C83" s="37"/>
-      <c r="D83" s="37"/>
-      <c r="E83" s="37">
+      <c r="C83" s="36"/>
+      <c r="D83" s="36"/>
+      <c r="E83" s="36">
         <v>20162366.32</v>
       </c>
-      <c r="F83" s="37"/>
-      <c r="G83" s="37"/>
-      <c r="H83" s="37"/>
-      <c r="I83" s="37"/>
-      <c r="J83" s="37"/>
-      <c r="L83" s="37"/>
-      <c r="M83" s="37"/>
-      <c r="N83" s="37"/>
-      <c r="O83" s="37">
+      <c r="F83" s="36"/>
+      <c r="G83" s="36"/>
+      <c r="H83" s="36"/>
+      <c r="I83" s="36"/>
+      <c r="J83" s="36"/>
+      <c r="L83" s="36"/>
+      <c r="M83" s="36"/>
+      <c r="N83" s="36"/>
+      <c r="O83" s="36">
         <v>2520296</v>
       </c>
-      <c r="P83" s="37">
+      <c r="P83" s="36">
         <v>17642070</v>
       </c>
-      <c r="Q83" s="39" t="s">
+      <c r="Q83" s="38" t="s">
         <v>99</v>
       </c>
-      <c r="R83" s="36">
+      <c r="R83" s="35">
         <v>3</v>
       </c>
-      <c r="S83" s="38">
+      <c r="S83" s="35">
         <v>6</v>
       </c>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A84" s="18">
         <v>83</v>
       </c>
@@ -5834,11 +5839,11 @@
       <c r="R84" s="18">
         <v>2</v>
       </c>
-      <c r="S84" s="6">
+      <c r="S84" s="18">
         <v>6</v>
       </c>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A85" s="18">
         <v>84</v>
       </c>
@@ -5871,11 +5876,11 @@
       <c r="R85" s="18">
         <v>2</v>
       </c>
-      <c r="S85" s="6">
+      <c r="S85" s="18">
         <v>6</v>
       </c>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A86" s="18">
         <v>85</v>
       </c>
@@ -5908,11 +5913,11 @@
       <c r="R86" s="18">
         <v>5</v>
       </c>
-      <c r="S86" s="6">
+      <c r="S86" s="18">
         <v>6</v>
       </c>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A87" s="18">
         <v>86</v>
       </c>
@@ -5949,11 +5954,11 @@
       <c r="R87" s="18">
         <v>12</v>
       </c>
-      <c r="S87" s="6">
+      <c r="S87" s="18">
         <v>6</v>
       </c>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A88" s="18">
         <v>87</v>
       </c>
@@ -5986,124 +5991,124 @@
       <c r="R88" s="18">
         <v>11</v>
       </c>
-      <c r="S88" s="6">
+      <c r="S88" s="18">
         <v>6</v>
       </c>
     </row>
-    <row r="89" spans="1:19" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="36">
+    <row r="89" spans="1:19" s="39" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="35">
         <v>88</v>
       </c>
-      <c r="B89" s="37" t="s">
+      <c r="B89" s="36" t="s">
         <v>217</v>
       </c>
-      <c r="C89" s="37"/>
-      <c r="D89" s="37"/>
-      <c r="E89" s="37"/>
-      <c r="F89" s="37">
+      <c r="C89" s="36"/>
+      <c r="D89" s="36"/>
+      <c r="E89" s="36"/>
+      <c r="F89" s="36">
         <v>21434033</v>
       </c>
-      <c r="G89" s="37"/>
-      <c r="H89" s="37"/>
-      <c r="I89" s="37"/>
-      <c r="J89" s="37"/>
-      <c r="K89" s="38"/>
-      <c r="L89" s="37"/>
-      <c r="M89" s="37"/>
-      <c r="N89" s="37"/>
-      <c r="O89" s="37">
+      <c r="G89" s="36"/>
+      <c r="H89" s="36"/>
+      <c r="I89" s="36"/>
+      <c r="J89" s="36"/>
+      <c r="K89" s="37"/>
+      <c r="L89" s="36"/>
+      <c r="M89" s="36"/>
+      <c r="N89" s="36"/>
+      <c r="O89" s="36">
         <v>2602548</v>
       </c>
-      <c r="P89" s="37">
+      <c r="P89" s="36">
         <v>18217838</v>
       </c>
-      <c r="Q89" s="39" t="s">
+      <c r="Q89" s="38" t="s">
         <v>218</v>
       </c>
-      <c r="R89" s="36">
+      <c r="R89" s="35">
         <v>5</v>
       </c>
-      <c r="S89" s="38">
+      <c r="S89" s="35">
         <v>6</v>
       </c>
     </row>
-    <row r="90" spans="1:19" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="36">
+    <row r="90" spans="1:19" s="39" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="35">
         <v>89</v>
       </c>
-      <c r="B90" s="37" t="s">
+      <c r="B90" s="36" t="s">
         <v>219</v>
       </c>
-      <c r="C90" s="37"/>
-      <c r="D90" s="37"/>
-      <c r="E90" s="37">
+      <c r="C90" s="36"/>
+      <c r="D90" s="36"/>
+      <c r="E90" s="36">
         <v>3950811.1020000004</v>
       </c>
-      <c r="F90" s="37"/>
-      <c r="G90" s="37"/>
-      <c r="H90" s="37"/>
-      <c r="I90" s="37"/>
-      <c r="J90" s="37">
+      <c r="F90" s="36"/>
+      <c r="G90" s="36"/>
+      <c r="H90" s="36"/>
+      <c r="I90" s="36"/>
+      <c r="J90" s="36">
         <v>1869271.878</v>
       </c>
-      <c r="K90" s="38"/>
-      <c r="L90" s="37"/>
-      <c r="M90" s="37"/>
-      <c r="N90" s="37"/>
-      <c r="O90" s="37">
+      <c r="K90" s="37"/>
+      <c r="L90" s="36"/>
+      <c r="M90" s="36"/>
+      <c r="N90" s="36"/>
+      <c r="O90" s="36">
         <v>711031</v>
       </c>
-      <c r="P90" s="37">
+      <c r="P90" s="36">
         <v>4977219</v>
       </c>
-      <c r="Q90" s="39" t="s">
+      <c r="Q90" s="38" t="s">
         <v>220</v>
       </c>
-      <c r="R90" s="36">
+      <c r="R90" s="35">
         <v>6</v>
       </c>
-      <c r="S90" s="38">
+      <c r="S90" s="35">
         <v>6</v>
       </c>
     </row>
-    <row r="91" spans="1:19" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="36">
+    <row r="91" spans="1:19" s="39" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="35">
         <v>90</v>
       </c>
-      <c r="B91" s="37" t="s">
+      <c r="B91" s="36" t="s">
         <v>221</v>
       </c>
-      <c r="C91" s="37"/>
-      <c r="D91" s="37"/>
-      <c r="E91" s="37">
+      <c r="C91" s="36"/>
+      <c r="D91" s="36"/>
+      <c r="E91" s="36">
         <v>3715423</v>
       </c>
-      <c r="F91" s="37"/>
-      <c r="G91" s="37"/>
-      <c r="H91" s="37"/>
-      <c r="I91" s="37"/>
-      <c r="J91" s="37"/>
-      <c r="K91" s="38"/>
-      <c r="L91" s="37"/>
-      <c r="M91" s="37"/>
-      <c r="N91" s="37"/>
-      <c r="O91" s="37">
+      <c r="F91" s="36"/>
+      <c r="G91" s="36"/>
+      <c r="H91" s="36"/>
+      <c r="I91" s="36"/>
+      <c r="J91" s="36"/>
+      <c r="K91" s="37"/>
+      <c r="L91" s="36"/>
+      <c r="M91" s="36"/>
+      <c r="N91" s="36"/>
+      <c r="O91" s="36">
         <v>464428</v>
       </c>
-      <c r="P91" s="37">
+      <c r="P91" s="36">
         <v>3250995</v>
       </c>
-      <c r="Q91" s="39" t="s">
+      <c r="Q91" s="38" t="s">
         <v>222</v>
       </c>
-      <c r="R91" s="36">
+      <c r="R91" s="35">
         <v>8</v>
       </c>
-      <c r="S91" s="38">
+      <c r="S91" s="35">
         <v>6</v>
       </c>
     </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A92" s="18">
         <v>91</v>
       </c>
@@ -6136,11 +6141,11 @@
       <c r="R92" s="18">
         <v>7</v>
       </c>
-      <c r="S92" s="6">
+      <c r="S92" s="18">
         <v>6</v>
       </c>
     </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A93" s="18">
         <v>92</v>
       </c>
@@ -6175,11 +6180,11 @@
       <c r="R93" s="18">
         <v>9</v>
       </c>
-      <c r="S93" s="6">
+      <c r="S93" s="18">
         <v>6</v>
       </c>
     </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A94" s="18">
         <v>93</v>
       </c>
@@ -6212,11 +6217,11 @@
       <c r="R94" s="18">
         <v>3</v>
       </c>
-      <c r="S94" s="6">
+      <c r="S94" s="18">
         <v>6</v>
       </c>
     </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A95" s="18">
         <v>94</v>
       </c>
@@ -6253,11 +6258,11 @@
       <c r="R95" s="18">
         <v>7</v>
       </c>
-      <c r="S95" s="6">
+      <c r="S95" s="18">
         <v>6</v>
       </c>
     </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A96" s="18">
         <v>95</v>
       </c>
@@ -6290,11 +6295,11 @@
       <c r="R96" s="18">
         <v>8</v>
       </c>
-      <c r="S96" s="6">
+      <c r="S96" s="18">
         <v>6</v>
       </c>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A97" s="18">
         <v>96</v>
       </c>
@@ -6329,51 +6334,51 @@
       <c r="R97" s="18">
         <v>13</v>
       </c>
-      <c r="S97" s="6">
+      <c r="S97" s="18">
         <v>6</v>
       </c>
     </row>
-    <row r="98" spans="1:19" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="36">
+    <row r="98" spans="1:19" s="39" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="35">
         <v>97</v>
       </c>
-      <c r="B98" s="37" t="s">
+      <c r="B98" s="36" t="s">
         <v>235</v>
       </c>
-      <c r="C98" s="37"/>
-      <c r="D98" s="37"/>
-      <c r="E98" s="37">
+      <c r="C98" s="36"/>
+      <c r="D98" s="36"/>
+      <c r="E98" s="36">
         <v>1831376.254</v>
       </c>
-      <c r="F98" s="37">
+      <c r="F98" s="36">
         <v>1360415.54</v>
       </c>
-      <c r="G98" s="37"/>
-      <c r="H98" s="37"/>
-      <c r="I98" s="37"/>
-      <c r="J98" s="37">
+      <c r="G98" s="36"/>
+      <c r="H98" s="36"/>
+      <c r="I98" s="36"/>
+      <c r="J98" s="36">
         <v>455742.37</v>
       </c>
-      <c r="L98" s="37"/>
-      <c r="M98" s="37"/>
-      <c r="N98" s="37"/>
-      <c r="O98" s="37">
+      <c r="L98" s="36"/>
+      <c r="M98" s="36"/>
+      <c r="N98" s="36"/>
+      <c r="O98" s="36">
         <v>455942</v>
       </c>
-      <c r="P98" s="37">
+      <c r="P98" s="36">
         <v>3191592</v>
       </c>
-      <c r="Q98" s="39" t="s">
+      <c r="Q98" s="38" t="s">
         <v>236</v>
       </c>
-      <c r="R98" s="36">
+      <c r="R98" s="35">
         <v>7</v>
       </c>
-      <c r="S98" s="38">
+      <c r="S98" s="35">
         <v>6</v>
       </c>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A99" s="18">
         <v>98</v>
       </c>
@@ -6408,11 +6413,11 @@
       <c r="R99" s="18">
         <v>5</v>
       </c>
-      <c r="S99" s="6">
+      <c r="S99" s="18">
         <v>6</v>
       </c>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A100" s="18">
         <v>99</v>
       </c>
@@ -6445,11 +6450,11 @@
       <c r="R100" s="18">
         <v>6</v>
       </c>
-      <c r="S100" s="6">
+      <c r="S100" s="18">
         <v>6</v>
       </c>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A101" s="18">
         <v>100</v>
       </c>
@@ -6482,11 +6487,11 @@
       <c r="R101" s="18">
         <v>6</v>
       </c>
-      <c r="S101" s="6">
+      <c r="S101" s="18">
         <v>6</v>
       </c>
     </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A102" s="18">
         <v>101</v>
       </c>
@@ -6519,11 +6524,11 @@
       <c r="R102" s="18">
         <v>5</v>
       </c>
-      <c r="S102" s="6">
+      <c r="S102" s="18">
         <v>6</v>
       </c>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A103" s="18">
         <v>102</v>
       </c>
@@ -6556,11 +6561,11 @@
       <c r="R103" s="18">
         <v>6</v>
       </c>
-      <c r="S103" s="6">
+      <c r="S103" s="18">
         <v>6</v>
       </c>
     </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
@@ -6592,21 +6597,21 @@
       <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.7109375" customWidth="1"/>
-    <col min="2" max="2" width="6.140625" customWidth="1"/>
-    <col min="3" max="3" width="5.42578125" customWidth="1"/>
-    <col min="4" max="4" width="3.85546875" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="19.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.6640625" customWidth="1"/>
+    <col min="2" max="2" width="6.109375" customWidth="1"/>
+    <col min="3" max="3" width="5.44140625" customWidth="1"/>
+    <col min="4" max="4" width="3.88671875" customWidth="1"/>
+    <col min="5" max="5" width="15.44140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.5546875" style="1" customWidth="1"/>
     <col min="9" max="9" width="13" style="1" customWidth="1"/>
-    <col min="10" max="10" width="13.28515625" customWidth="1"/>
-    <col min="13" max="13" width="10.85546875" customWidth="1"/>
-    <col min="14" max="14" width="15.85546875" customWidth="1"/>
+    <col min="10" max="10" width="13.33203125" customWidth="1"/>
+    <col min="13" max="13" width="10.88671875" customWidth="1"/>
+    <col min="14" max="14" width="15.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="5:9" x14ac:dyDescent="0.3">
       <c r="G2" s="1" t="s">
         <v>42</v>
       </c>
@@ -6614,7 +6619,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="5:9" x14ac:dyDescent="0.3">
       <c r="G3" s="1">
         <v>17644936.100000001</v>
       </c>
@@ -6622,7 +6627,7 @@
         <v>204301.34</v>
       </c>
     </row>
-    <row r="4" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="5:9" x14ac:dyDescent="0.3">
       <c r="G4" s="1">
         <v>-166123.07999999999</v>
       </c>
@@ -6630,7 +6635,7 @@
         <v>98414.79</v>
       </c>
     </row>
-    <row r="5" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="5:9" x14ac:dyDescent="0.3">
       <c r="G5" s="1">
         <v>4900152.0999999996</v>
       </c>
@@ -6638,7 +6643,7 @@
         <v>3557905.85</v>
       </c>
     </row>
-    <row r="6" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="5:9" x14ac:dyDescent="0.3">
       <c r="G6" s="1">
         <v>286245</v>
       </c>
@@ -6646,7 +6651,7 @@
         <v>866744.93</v>
       </c>
     </row>
-    <row r="7" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="5:9" x14ac:dyDescent="0.3">
       <c r="G7" s="1">
         <v>619378.32999999996</v>
       </c>
@@ -6654,7 +6659,7 @@
         <v>161285.35999999999</v>
       </c>
     </row>
-    <row r="8" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="5:9" x14ac:dyDescent="0.3">
       <c r="G8" s="5">
         <f>SUM(G3:G7)</f>
         <v>23284588.450000003</v>
@@ -6663,7 +6668,7 @@
         <v>15775.98</v>
       </c>
     </row>
-    <row r="9" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="5:9" x14ac:dyDescent="0.3">
       <c r="G9" s="5">
         <v>28737182.920000002</v>
       </c>
@@ -6671,7 +6676,7 @@
         <v>14288.02</v>
       </c>
     </row>
-    <row r="10" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="5:9" x14ac:dyDescent="0.3">
       <c r="G10" s="5">
         <f>G9-G8</f>
         <v>5452594.4699999988</v>
@@ -6680,13 +6685,13 @@
         <v>53423.24</v>
       </c>
     </row>
-    <row r="11" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="5:9" x14ac:dyDescent="0.3">
       <c r="I11" s="5">
         <f>SUM(I3:I10)</f>
         <v>4972139.5100000007</v>
       </c>
     </row>
-    <row r="14" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E14" s="1" t="s">
         <v>18</v>
       </c>
@@ -6694,7 +6699,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E15" s="1">
         <v>875966.73300000001</v>
       </c>
@@ -6702,7 +6707,7 @@
         <v>46900.13</v>
       </c>
     </row>
-    <row r="16" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E16" s="1">
         <v>906433.66399999999</v>
       </c>
@@ -6710,7 +6715,7 @@
         <v>2590080.1800000002</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="E17" s="1">
         <f>SUM(E15:E16)</f>
         <v>1782400.3969999999</v>
@@ -6719,7 +6724,7 @@
         <v>1949709.13</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="E18" s="1">
         <v>7172327.3300000001</v>
       </c>
@@ -6727,7 +6732,7 @@
         <v>1366206.83</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="E19" s="5">
         <f>E18-E17</f>
         <v>5389926.9330000002</v>
@@ -6736,23 +6741,23 @@
         <v>739134.85</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="G20" s="1">
         <v>379009.28000000003</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="G21" s="1">
         <v>600581.69999999995</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="G22" s="1">
         <f>SUM(G15:G21)</f>
         <v>7671622.0999999996</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="16" t="s">
         <v>77</v>
       </c>
@@ -6793,16 +6798,16 @@
       <selection activeCell="A2" sqref="A2:N9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.28515625" customWidth="1"/>
-    <col min="2" max="2" width="28.85546875" customWidth="1"/>
-    <col min="9" max="9" width="21.140625" customWidth="1"/>
-    <col min="13" max="13" width="13.5703125" customWidth="1"/>
+    <col min="1" max="1" width="33.33203125" customWidth="1"/>
+    <col min="2" max="2" width="28.88671875" customWidth="1"/>
+    <col min="9" max="9" width="21.109375" customWidth="1"/>
+    <col min="13" max="13" width="13.5546875" customWidth="1"/>
     <col min="14" max="14" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>75</v>
       </c>
@@ -6830,7 +6835,7 @@
         <v>4232587</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>76</v>
       </c>
@@ -6854,7 +6859,7 @@
         <v>8992806</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
         <v>77</v>
       </c>
@@ -6882,7 +6887,7 @@
         <v>5502837.0250000004</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
         <v>78</v>
       </c>
@@ -6910,7 +6915,7 @@
         <v>3191592</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
         <v>79</v>
       </c>
@@ -6936,7 +6941,7 @@
         <v>6275786</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
         <v>80</v>
       </c>
@@ -6960,7 +6965,7 @@
         <v>3061893</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
         <v>81</v>
       </c>
@@ -6984,7 +6989,7 @@
         <v>18223550</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
         <v>82</v>
       </c>
@@ -7008,7 +7013,7 @@
         <v>3211140</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>83</v>
       </c>
@@ -7045,14 +7050,14 @@
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" customWidth="1"/>
-    <col min="2" max="21" width="9.7109375" customWidth="1"/>
-    <col min="22" max="22" width="10.28515625" customWidth="1"/>
+    <col min="1" max="1" width="11.88671875" customWidth="1"/>
+    <col min="2" max="21" width="9.6640625" customWidth="1"/>
+    <col min="22" max="22" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>244</v>
       </c>
@@ -7120,7 +7125,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
         <v>265</v>
       </c>
@@ -7146,7 +7151,7 @@
       <c r="U2" s="6"/>
       <c r="V2" s="6"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>266</v>
       </c>
@@ -7172,7 +7177,7 @@
       <c r="U3" s="6"/>
       <c r="V3" s="6"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>267</v>
       </c>
@@ -7198,7 +7203,7 @@
       <c r="U4" s="6"/>
       <c r="V4" s="6"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
         <v>268</v>
       </c>
@@ -7224,7 +7229,7 @@
       <c r="U5" s="6"/>
       <c r="V5" s="6"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" s="18" t="s">
         <v>143</v>
       </c>
@@ -7250,7 +7255,7 @@
       <c r="U6" s="6"/>
       <c r="V6" s="6"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" s="18" t="s">
         <v>174</v>
       </c>
@@ -7276,7 +7281,7 @@
       <c r="U7" s="6"/>
       <c r="V7" s="6"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" s="18" t="s">
         <v>269</v>
       </c>
@@ -7302,7 +7307,7 @@
       <c r="U8" s="6"/>
       <c r="V8" s="6"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" s="18" t="s">
         <v>270</v>
       </c>
@@ -7328,7 +7333,7 @@
       <c r="U9" s="6"/>
       <c r="V9" s="6"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" s="18" t="s">
         <v>271</v>
       </c>
@@ -7354,7 +7359,7 @@
       <c r="U10" s="6"/>
       <c r="V10" s="6"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" s="18" t="s">
         <v>272</v>
       </c>
@@ -7380,7 +7385,7 @@
       <c r="U11" s="6"/>
       <c r="V11" s="6"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" s="18" t="s">
         <v>131</v>
       </c>
@@ -7406,7 +7411,7 @@
       <c r="U12" s="6"/>
       <c r="V12" s="6"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13" s="18" t="s">
         <v>273</v>
       </c>
@@ -7432,7 +7437,7 @@
       <c r="U13" s="6"/>
       <c r="V13" s="6"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14" s="18" t="s">
         <v>274</v>
       </c>
@@ -7458,7 +7463,7 @@
       <c r="U14" s="6"/>
       <c r="V14" s="6"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" s="18" t="s">
         <v>275</v>
       </c>
@@ -7484,7 +7489,7 @@
       <c r="U15" s="6"/>
       <c r="V15" s="6"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" s="18" t="s">
         <v>276</v>
       </c>
@@ -7510,7 +7515,7 @@
       <c r="U16" s="6"/>
       <c r="V16" s="6"/>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A17" s="18" t="s">
         <v>215</v>
       </c>
@@ -7536,7 +7541,7 @@
       <c r="U17" s="6"/>
       <c r="V17" s="6"/>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A18" s="18" t="s">
         <v>277</v>
       </c>
@@ -7562,7 +7567,7 @@
       <c r="U18" s="6"/>
       <c r="V18" s="6"/>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A19" s="18" t="s">
         <v>278</v>
       </c>
@@ -7588,7 +7593,7 @@
       <c r="U19" s="6"/>
       <c r="V19" s="6"/>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A20" s="18" t="s">
         <v>279</v>
       </c>
@@ -7614,7 +7619,7 @@
       <c r="U20" s="6"/>
       <c r="V20" s="6"/>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A21" s="18" t="s">
         <v>280</v>
       </c>
@@ -7640,7 +7645,7 @@
       <c r="U21" s="6"/>
       <c r="V21" s="6"/>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A22" s="18" t="s">
         <v>110</v>
       </c>
@@ -7666,7 +7671,7 @@
       <c r="U22" s="6"/>
       <c r="V22" s="6"/>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A23" s="18" t="s">
         <v>148</v>
       </c>
@@ -7692,7 +7697,7 @@
       <c r="U23" s="6"/>
       <c r="V23" s="6"/>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A24" s="18" t="s">
         <v>281</v>
       </c>
@@ -7718,7 +7723,7 @@
       <c r="U24" s="6"/>
       <c r="V24" s="6"/>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A25" s="18" t="s">
         <v>282</v>
       </c>
@@ -7744,7 +7749,7 @@
       <c r="U25" s="6"/>
       <c r="V25" s="6"/>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A26" s="18" t="s">
         <v>283</v>
       </c>
@@ -7770,7 +7775,7 @@
       <c r="U26" s="6"/>
       <c r="V26" s="6"/>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A27" s="18" t="s">
         <v>284</v>
       </c>
@@ -7796,7 +7801,7 @@
       <c r="U27" s="6"/>
       <c r="V27" s="6"/>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A28" s="19" t="s">
         <v>300</v>
       </c>
@@ -7822,7 +7827,7 @@
       <c r="U28" s="6"/>
       <c r="V28" s="6"/>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A29" s="19" t="s">
         <v>301</v>
       </c>
@@ -7848,7 +7853,7 @@
       <c r="U29" s="6"/>
       <c r="V29" s="6"/>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A30" s="19" t="s">
         <v>302</v>
       </c>
@@ -7874,7 +7879,7 @@
       <c r="U30" s="6"/>
       <c r="V30" s="6"/>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A31" s="19" t="s">
         <v>129</v>
       </c>
@@ -7900,7 +7905,7 @@
       <c r="U31" s="6"/>
       <c r="V31" s="6"/>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A32" s="18" t="s">
         <v>205</v>
       </c>
@@ -7926,7 +7931,7 @@
       <c r="U32" s="6"/>
       <c r="V32" s="6"/>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A33" s="18" t="s">
         <v>162</v>
       </c>
@@ -7952,7 +7957,7 @@
       <c r="U33" s="6"/>
       <c r="V33" s="6"/>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A34" s="18" t="s">
         <v>196</v>
       </c>
@@ -7978,7 +7983,7 @@
       <c r="U34" s="6"/>
       <c r="V34" s="6"/>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A35" s="18" t="s">
         <v>181</v>
       </c>
@@ -8004,7 +8009,7 @@
       <c r="U35" s="6"/>
       <c r="V35" s="6"/>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A36" s="18" t="s">
         <v>203</v>
       </c>
@@ -8030,7 +8035,7 @@
       <c r="U36" s="6"/>
       <c r="V36" s="6"/>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A37" s="18" t="s">
         <v>285</v>
       </c>
@@ -8056,7 +8061,7 @@
       <c r="U37" s="6"/>
       <c r="V37" s="6"/>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A38" s="18" t="s">
         <v>286</v>
       </c>
@@ -8082,7 +8087,7 @@
       <c r="U38" s="6"/>
       <c r="V38" s="6"/>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A39" s="18" t="s">
         <v>287</v>
       </c>
@@ -8108,7 +8113,7 @@
       <c r="U39" s="6"/>
       <c r="V39" s="6"/>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A40" s="18" t="s">
         <v>288</v>
       </c>
@@ -8134,7 +8139,7 @@
       <c r="U40" s="6"/>
       <c r="V40" s="6"/>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A41" s="18" t="s">
         <v>289</v>
       </c>
@@ -8160,7 +8165,7 @@
       <c r="U41" s="6"/>
       <c r="V41" s="6"/>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A42" s="18" t="s">
         <v>290</v>
       </c>
@@ -8186,7 +8191,7 @@
       <c r="U42" s="6"/>
       <c r="V42" s="6"/>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A43" s="18" t="s">
         <v>291</v>
       </c>
@@ -8212,7 +8217,7 @@
       <c r="U43" s="6"/>
       <c r="V43" s="6"/>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A44" s="18" t="s">
         <v>292</v>
       </c>
@@ -8238,7 +8243,7 @@
       <c r="U44" s="6"/>
       <c r="V44" s="6"/>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A45" s="18" t="s">
         <v>293</v>
       </c>
@@ -8264,7 +8269,7 @@
       <c r="U45" s="6"/>
       <c r="V45" s="6"/>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A46" s="18" t="s">
         <v>169</v>
       </c>
@@ -8290,7 +8295,7 @@
       <c r="U46" s="6"/>
       <c r="V46" s="6"/>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A47" s="18" t="s">
         <v>125</v>
       </c>
@@ -8316,7 +8321,7 @@
       <c r="U47" s="6"/>
       <c r="V47" s="6"/>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A48" s="18" t="s">
         <v>149</v>
       </c>
@@ -8342,7 +8347,7 @@
       <c r="U48" s="6"/>
       <c r="V48" s="6"/>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A49" s="18" t="s">
         <v>294</v>
       </c>
@@ -8368,7 +8373,7 @@
       <c r="U49" s="6"/>
       <c r="V49" s="6"/>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A50" s="18" t="s">
         <v>295</v>
       </c>
@@ -8394,7 +8399,7 @@
       <c r="U50" s="6"/>
       <c r="V50" s="6"/>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A51" s="18" t="s">
         <v>146</v>
       </c>
@@ -8420,7 +8425,7 @@
       <c r="U51" s="6"/>
       <c r="V51" s="6"/>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A52" s="18" t="s">
         <v>296</v>
       </c>
@@ -8446,7 +8451,7 @@
       <c r="U52" s="6"/>
       <c r="V52" s="6"/>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A53" s="30" t="s">
         <v>93</v>
       </c>
@@ -8472,7 +8477,7 @@
       <c r="U53" s="6"/>
       <c r="V53" s="6"/>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A54" s="30" t="s">
         <v>95</v>
       </c>
@@ -8498,7 +8503,7 @@
       <c r="U54" s="6"/>
       <c r="V54" s="6"/>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A55" s="30" t="s">
         <v>297</v>
       </c>
@@ -8537,13 +8542,13 @@
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.7109375" customWidth="1"/>
-    <col min="2" max="13" width="9.7109375" customWidth="1"/>
+    <col min="1" max="1" width="24.6640625" customWidth="1"/>
+    <col min="2" max="13" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>244</v>
       </c>
@@ -8584,7 +8589,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>40</v>
       </c>
@@ -8601,7 +8606,7 @@
       <c r="L2" s="18"/>
       <c r="M2" s="18"/>
     </row>
-    <row r="3" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
         <v>48</v>
       </c>
@@ -8618,7 +8623,7 @@
       <c r="L3" s="6"/>
       <c r="M3" s="6"/>
     </row>
-    <row r="4" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
         <v>49</v>
       </c>
@@ -8635,7 +8640,7 @@
       <c r="L4" s="6"/>
       <c r="M4" s="6"/>
     </row>
-    <row r="5" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
         <v>50</v>
       </c>
@@ -8652,7 +8657,7 @@
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
     </row>
-    <row r="6" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="15" t="s">
         <v>51</v>
       </c>
@@ -8669,7 +8674,7 @@
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
     </row>
-    <row r="7" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="s">
         <v>52</v>
       </c>
@@ -8686,7 +8691,7 @@
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
     </row>
-    <row r="8" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="15" t="s">
         <v>53</v>
       </c>
@@ -8703,7 +8708,7 @@
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
     </row>
-    <row r="9" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
         <v>54</v>
       </c>
@@ -8720,7 +8725,7 @@
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
     </row>
-    <row r="10" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
         <v>55</v>
       </c>
@@ -8737,7 +8742,7 @@
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
     </row>
-    <row r="11" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
         <v>56</v>
       </c>
@@ -8754,7 +8759,7 @@
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
     </row>
-    <row r="12" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
         <v>89</v>
       </c>
@@ -8771,135 +8776,135 @@
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
     </row>
-    <row r="13" spans="1:13" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="32"/>
-    </row>
-    <row r="14" spans="1:13" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="32"/>
-    </row>
-    <row r="15" spans="1:13" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="32"/>
-    </row>
-    <row r="16" spans="1:13" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="32"/>
-    </row>
-    <row r="17" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="32"/>
-    </row>
-    <row r="18" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="32"/>
-    </row>
-    <row r="19" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="32"/>
-    </row>
-    <row r="20" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="32"/>
-    </row>
-    <row r="21" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="32"/>
-    </row>
-    <row r="22" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="32"/>
-    </row>
-    <row r="23" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="32"/>
-    </row>
-    <row r="24" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="32"/>
-    </row>
-    <row r="25" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="32"/>
-    </row>
-    <row r="26" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="32"/>
-    </row>
-    <row r="27" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="32"/>
-    </row>
-    <row r="28" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="34"/>
-    </row>
-    <row r="29" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="34"/>
-      <c r="C29" s="34"/>
-    </row>
-    <row r="30" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="34"/>
-    </row>
-    <row r="31" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="34"/>
-    </row>
-    <row r="32" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="32"/>
-    </row>
-    <row r="33" spans="1:1" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="32"/>
-    </row>
-    <row r="34" spans="1:1" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="32"/>
-    </row>
-    <row r="35" spans="1:1" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="32"/>
-    </row>
-    <row r="36" spans="1:1" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="32"/>
-    </row>
-    <row r="37" spans="1:1" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="32"/>
-    </row>
-    <row r="38" spans="1:1" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="32"/>
-    </row>
-    <row r="39" spans="1:1" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="32"/>
-    </row>
-    <row r="40" spans="1:1" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="32"/>
-    </row>
-    <row r="41" spans="1:1" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="32"/>
-    </row>
-    <row r="42" spans="1:1" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="32"/>
-    </row>
-    <row r="43" spans="1:1" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="32"/>
-    </row>
-    <row r="44" spans="1:1" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="32"/>
-    </row>
-    <row r="45" spans="1:1" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="32"/>
-    </row>
-    <row r="46" spans="1:1" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="32"/>
-    </row>
-    <row r="47" spans="1:1" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="32"/>
-    </row>
-    <row r="48" spans="1:1" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="32"/>
-    </row>
-    <row r="49" spans="1:1" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="32"/>
-    </row>
-    <row r="50" spans="1:1" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="32"/>
-    </row>
-    <row r="51" spans="1:1" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="32"/>
-    </row>
-    <row r="52" spans="1:1" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="32"/>
-    </row>
-    <row r="53" spans="1:1" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="35"/>
-    </row>
-    <row r="54" spans="1:1" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="35"/>
-    </row>
-    <row r="55" spans="1:1" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="35"/>
+    <row r="13" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="31"/>
+    </row>
+    <row r="14" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="31"/>
+    </row>
+    <row r="15" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="31"/>
+    </row>
+    <row r="16" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="31"/>
+    </row>
+    <row r="17" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="31"/>
+    </row>
+    <row r="18" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="31"/>
+    </row>
+    <row r="19" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="31"/>
+    </row>
+    <row r="20" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="31"/>
+    </row>
+    <row r="21" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="31"/>
+    </row>
+    <row r="22" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="31"/>
+    </row>
+    <row r="23" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="31"/>
+    </row>
+    <row r="24" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="31"/>
+    </row>
+    <row r="25" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="31"/>
+    </row>
+    <row r="26" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="31"/>
+    </row>
+    <row r="27" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="31"/>
+    </row>
+    <row r="28" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="33"/>
+    </row>
+    <row r="29" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="33"/>
+      <c r="C29" s="33"/>
+    </row>
+    <row r="30" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="33"/>
+    </row>
+    <row r="31" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="33"/>
+    </row>
+    <row r="32" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="31"/>
+    </row>
+    <row r="33" spans="1:1" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="31"/>
+    </row>
+    <row r="34" spans="1:1" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="31"/>
+    </row>
+    <row r="35" spans="1:1" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="31"/>
+    </row>
+    <row r="36" spans="1:1" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="31"/>
+    </row>
+    <row r="37" spans="1:1" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="31"/>
+    </row>
+    <row r="38" spans="1:1" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="31"/>
+    </row>
+    <row r="39" spans="1:1" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="31"/>
+    </row>
+    <row r="40" spans="1:1" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="31"/>
+    </row>
+    <row r="41" spans="1:1" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="31"/>
+    </row>
+    <row r="42" spans="1:1" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="31"/>
+    </row>
+    <row r="43" spans="1:1" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="31"/>
+    </row>
+    <row r="44" spans="1:1" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="31"/>
+    </row>
+    <row r="45" spans="1:1" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="31"/>
+    </row>
+    <row r="46" spans="1:1" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="31"/>
+    </row>
+    <row r="47" spans="1:1" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="31"/>
+    </row>
+    <row r="48" spans="1:1" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="31"/>
+    </row>
+    <row r="49" spans="1:1" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="31"/>
+    </row>
+    <row r="50" spans="1:1" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="31"/>
+    </row>
+    <row r="51" spans="1:1" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="31"/>
+    </row>
+    <row r="52" spans="1:1" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="31"/>
+    </row>
+    <row r="53" spans="1:1" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="34"/>
+    </row>
+    <row r="54" spans="1:1" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="34"/>
+    </row>
+    <row r="55" spans="1:1" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="34"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8914,13 +8919,13 @@
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" customWidth="1"/>
-    <col min="2" max="13" width="9.7109375" customWidth="1"/>
+    <col min="1" max="1" width="17.88671875" customWidth="1"/>
+    <col min="2" max="13" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>244</v>
       </c>
@@ -8961,7 +8966,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
         <v>40</v>
       </c>
@@ -8978,7 +8983,7 @@
       <c r="L2" s="18"/>
       <c r="M2" s="18"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>48</v>
       </c>
@@ -8995,7 +9000,7 @@
       <c r="L3" s="6"/>
       <c r="M3" s="6"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>49</v>
       </c>
@@ -9012,7 +9017,7 @@
       <c r="L4" s="6"/>
       <c r="M4" s="6"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
         <v>50</v>
       </c>
@@ -9029,7 +9034,7 @@
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="18" t="s">
         <v>51</v>
       </c>
@@ -9046,7 +9051,7 @@
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="18" t="s">
         <v>52</v>
       </c>
@@ -9063,7 +9068,7 @@
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="18" t="s">
         <v>53</v>
       </c>
@@ -9080,7 +9085,7 @@
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="18" t="s">
         <v>54</v>
       </c>
@@ -9097,7 +9102,7 @@
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="18" t="s">
         <v>55</v>
       </c>
@@ -9114,7 +9119,7 @@
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="18" t="s">
         <v>56</v>
       </c>
@@ -9131,7 +9136,7 @@
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="18" t="s">
         <v>89</v>
       </c>

--- a/Civilworks cost/IPC Distribution.xlsx
+++ b/Civilworks cost/IPC Distribution.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-60" windowWidth="20736" windowHeight="11760" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="-60" windowWidth="20730" windowHeight="11760" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1465,14 +1465,14 @@
       <selection activeCell="D2" sqref="D2:D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.33203125" customWidth="1"/>
-    <col min="3" max="3" width="97.5546875" customWidth="1"/>
-    <col min="4" max="4" width="52.88671875" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" customWidth="1"/>
+    <col min="3" max="3" width="97.5703125" customWidth="1"/>
+    <col min="4" max="4" width="52.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -1483,7 +1483,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>57</v>
       </c>
@@ -1498,7 +1498,7 @@
         <v>4111306_Construction of Irrigation Inlet (New Haors)</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>58</v>
       </c>
@@ -1513,7 +1513,7 @@
         <v>4111307_ Re-installation/Construction of Regulator/ Causeway (Rehabilitation Sub-Projects)</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>59</v>
       </c>
@@ -1528,7 +1528,7 @@
         <v>4111307_ Installation/Construction of New Regulators/ Causeway/Bridge/Box Drainage Outlet) (New Haors)</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>60</v>
       </c>
@@ -1543,7 +1543,7 @@
         <v xml:space="preserve">4111307_ Re-excavation of Khal/River (New Haors) </v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>61</v>
       </c>
@@ -1558,7 +1558,7 @@
         <v xml:space="preserve">4111201_ Re-excavation of Khal/River (Rehabilitation Sub-Projects) </v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>62</v>
       </c>
@@ -1573,7 +1573,7 @@
         <v>4111201_ Rehabilitation of Full Embankment (Resection/ construction) (Rehabilitation Sub-Projects)</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>63</v>
       </c>
@@ -1588,7 +1588,7 @@
         <v>4111201_ Rehabilitation of Submergible Embankment  (Resection/construction)  (Rehabilitation Sub-Projects)</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>64</v>
       </c>
@@ -1603,7 +1603,7 @@
         <v>4111201_Construction of Submersible Embankment (New Haors) (Earth Volume: 29.98 lakh cum)</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>65</v>
       </c>
@@ -1618,7 +1618,7 @@
         <v>4111201_ Rehabilitation of Regulator (New Haors)</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>66</v>
       </c>
@@ -1633,7 +1633,7 @@
         <v>4111201_Construction of WMG Office</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>67</v>
       </c>
@@ -1664,26 +1664,26 @@
       <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="20.109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" style="3" customWidth="1"/>
     <col min="3" max="3" width="16" style="3" customWidth="1"/>
-    <col min="5" max="5" width="17.109375" customWidth="1"/>
-    <col min="8" max="8" width="22.88671875" customWidth="1"/>
-    <col min="9" max="9" width="19.44140625" customWidth="1"/>
-    <col min="12" max="12" width="19.44140625" customWidth="1"/>
-    <col min="13" max="13" width="25.109375" style="3" customWidth="1"/>
-    <col min="14" max="14" width="26.33203125" customWidth="1"/>
-    <col min="15" max="15" width="17.6640625" style="3" customWidth="1"/>
-    <col min="16" max="16" width="14.88671875" customWidth="1"/>
-    <col min="17" max="17" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.33203125" style="4" customWidth="1"/>
-    <col min="19" max="19" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.33203125" customWidth="1"/>
-    <col min="21" max="21" width="16.5546875" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" customWidth="1"/>
+    <col min="8" max="8" width="22.85546875" customWidth="1"/>
+    <col min="9" max="9" width="19.42578125" customWidth="1"/>
+    <col min="12" max="12" width="19.42578125" customWidth="1"/>
+    <col min="13" max="13" width="25.140625" style="3" customWidth="1"/>
+    <col min="14" max="14" width="26.28515625" customWidth="1"/>
+    <col min="15" max="15" width="17.7109375" style="3" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" customWidth="1"/>
+    <col min="17" max="17" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.28515625" style="4" customWidth="1"/>
+    <col min="19" max="19" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.28515625" customWidth="1"/>
+    <col min="21" max="21" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B1" s="5">
         <v>7146.0320000000002</v>
       </c>
@@ -1699,7 +1699,7 @@
       <c r="O1" s="5"/>
       <c r="P1" s="1"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B2" s="5">
         <v>2175338.3840000001</v>
       </c>
@@ -1725,7 +1725,7 @@
       <c r="O2" s="5"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B3" s="5">
         <v>442686.37599999999</v>
       </c>
@@ -1749,7 +1749,7 @@
       <c r="O3" s="5"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B4" s="5">
         <v>25927.940999999999</v>
       </c>
@@ -1776,7 +1776,7 @@
       <c r="O4" s="5"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -1811,7 +1811,7 @@
       <c r="O5" s="5"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B6" s="5"/>
       <c r="C6" s="5">
         <v>769684.61699999997</v>
@@ -1836,7 +1836,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C7" s="5">
         <v>776580.14399999997</v>
       </c>
@@ -1860,7 +1860,7 @@
         <v>12285185.104948564</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C8" s="5">
         <f>SUM(C1:C7)</f>
         <v>2491596.338</v>
@@ -1884,7 +1884,7 @@
         <v>901800.89505143708</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="E9" s="5">
         <f>B6+C8</f>
         <v>2491596.338</v>
@@ -1906,12 +1906,12 @@
         <v>15070841</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="L12" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="L13" s="3" t="s">
         <v>29</v>
       </c>
@@ -1928,7 +1928,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="L14" s="8">
         <v>5478066.2400000002</v>
       </c>
@@ -1954,7 +1954,7 @@
         <v>4313977.0977821741</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="L15" s="8"/>
       <c r="M15" s="5">
         <v>315745.96999999997</v>
@@ -1979,7 +1979,7 @@
         <v>5197670.9022178268</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="K16" t="s">
         <v>14</v>
       </c>
@@ -2005,7 +2005,7 @@
       </c>
       <c r="S16" s="3"/>
     </row>
-    <row r="17" spans="11:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="11:19" x14ac:dyDescent="0.25">
       <c r="K17" t="s">
         <v>30</v>
       </c>
@@ -2015,18 +2015,18 @@
         <v>12078283.359999999</v>
       </c>
     </row>
-    <row r="18" spans="11:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="11:19" x14ac:dyDescent="0.25">
       <c r="L18" s="3"/>
     </row>
-    <row r="19" spans="11:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="11:19" x14ac:dyDescent="0.25">
       <c r="L19" s="3"/>
     </row>
-    <row r="20" spans="11:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="11:19" x14ac:dyDescent="0.25">
       <c r="L20" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="11:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="11:19" x14ac:dyDescent="0.25">
       <c r="L21" s="3" t="s">
         <v>29</v>
       </c>
@@ -2043,7 +2043,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="11:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="11:19" x14ac:dyDescent="0.25">
       <c r="L22" s="3">
         <v>5478066.2400000002</v>
       </c>
@@ -2068,7 +2068,7 @@
         <v>479330.43588387553</v>
       </c>
     </row>
-    <row r="23" spans="11:19" x14ac:dyDescent="0.3">
+    <row r="23" spans="11:19" x14ac:dyDescent="0.25">
       <c r="L23" s="3"/>
       <c r="M23" s="3">
         <v>315745.96999999997</v>
@@ -2091,7 +2091,7 @@
         <v>577518.56411612465</v>
       </c>
     </row>
-    <row r="24" spans="11:19" x14ac:dyDescent="0.3">
+    <row r="24" spans="11:19" x14ac:dyDescent="0.25">
       <c r="K24" t="s">
         <v>14</v>
       </c>
@@ -2117,7 +2117,7 @@
         <v>1207828.0000000002</v>
       </c>
     </row>
-    <row r="25" spans="11:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="11:19" x14ac:dyDescent="0.25">
       <c r="K25" t="s">
         <v>30</v>
       </c>
@@ -2125,12 +2125,12 @@
         <v>12078283.359999999</v>
       </c>
     </row>
-    <row r="35" spans="14:21" x14ac:dyDescent="0.3">
+    <row r="35" spans="14:21" x14ac:dyDescent="0.25">
       <c r="N35" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="14:21" x14ac:dyDescent="0.3">
+    <row r="36" spans="14:21" x14ac:dyDescent="0.25">
       <c r="N36" t="s">
         <v>29</v>
       </c>
@@ -2138,7 +2138,7 @@
         <v>5923319.2699999996</v>
       </c>
     </row>
-    <row r="37" spans="14:21" x14ac:dyDescent="0.3">
+    <row r="37" spans="14:21" x14ac:dyDescent="0.25">
       <c r="N37" t="s">
         <v>33</v>
       </c>
@@ -2146,7 +2146,7 @@
         <v>317931.49</v>
       </c>
     </row>
-    <row r="38" spans="14:21" x14ac:dyDescent="0.3">
+    <row r="38" spans="14:21" x14ac:dyDescent="0.25">
       <c r="N38" t="s">
         <v>14</v>
       </c>
@@ -2164,7 +2164,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="39" spans="14:21" x14ac:dyDescent="0.3">
+    <row r="39" spans="14:21" x14ac:dyDescent="0.25">
       <c r="N39" t="s">
         <v>34</v>
       </c>
@@ -2191,7 +2191,7 @@
         <v>5386258.0510686319</v>
       </c>
     </row>
-    <row r="40" spans="14:21" x14ac:dyDescent="0.3">
+    <row r="40" spans="14:21" x14ac:dyDescent="0.25">
       <c r="N40" t="s">
         <v>35</v>
       </c>
@@ -2218,7 +2218,7 @@
         <v>6037755.4941627374</v>
       </c>
     </row>
-    <row r="41" spans="14:21" x14ac:dyDescent="0.3">
+    <row r="41" spans="14:21" x14ac:dyDescent="0.25">
       <c r="N41" t="s">
         <v>36</v>
       </c>
@@ -2245,7 +2245,7 @@
         <v>4823437.4547686297</v>
       </c>
     </row>
-    <row r="42" spans="14:21" x14ac:dyDescent="0.3">
+    <row r="42" spans="14:21" x14ac:dyDescent="0.25">
       <c r="N42" t="s">
         <v>37</v>
       </c>
@@ -2269,7 +2269,7 @@
         <v>16247450.999999998</v>
       </c>
     </row>
-    <row r="43" spans="14:21" x14ac:dyDescent="0.3">
+    <row r="43" spans="14:21" x14ac:dyDescent="0.25">
       <c r="N43" t="s">
         <v>14</v>
       </c>
@@ -2278,7 +2278,7 @@
         <v>12585254.568999998</v>
       </c>
     </row>
-    <row r="44" spans="14:21" x14ac:dyDescent="0.3">
+    <row r="44" spans="14:21" x14ac:dyDescent="0.25">
       <c r="N44" t="s">
         <v>30</v>
       </c>
@@ -2287,7 +2287,7 @@
         <v>18826505.328999996</v>
       </c>
     </row>
-    <row r="48" spans="14:21" x14ac:dyDescent="0.3">
+    <row r="48" spans="14:21" x14ac:dyDescent="0.25">
       <c r="N48" t="s">
         <v>41</v>
       </c>
@@ -2295,7 +2295,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="49" spans="14:20" x14ac:dyDescent="0.3">
+    <row r="49" spans="14:20" x14ac:dyDescent="0.25">
       <c r="N49" t="s">
         <v>42</v>
       </c>
@@ -2315,7 +2315,7 @@
         <v>4142488.1873903489</v>
       </c>
     </row>
-    <row r="50" spans="14:20" x14ac:dyDescent="0.3">
+    <row r="50" spans="14:20" x14ac:dyDescent="0.25">
       <c r="N50" t="s">
         <v>43</v>
       </c>
@@ -2335,7 +2335,7 @@
         <v>3815450.8126096507</v>
       </c>
     </row>
-    <row r="51" spans="14:20" x14ac:dyDescent="0.3">
+    <row r="51" spans="14:20" x14ac:dyDescent="0.25">
       <c r="O51" s="3">
         <f>SUM(O49:O50)</f>
         <v>9094786.5099999998</v>
@@ -2357,7 +2357,7 @@
         <v>9094787</v>
       </c>
     </row>
-    <row r="54" spans="14:20" x14ac:dyDescent="0.3">
+    <row r="54" spans="14:20" x14ac:dyDescent="0.25">
       <c r="N54" t="s">
         <v>44</v>
       </c>
@@ -2365,7 +2365,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="55" spans="14:20" x14ac:dyDescent="0.3">
+    <row r="55" spans="14:20" x14ac:dyDescent="0.25">
       <c r="N55" t="s">
         <v>42</v>
       </c>
@@ -2382,7 +2382,7 @@
         <v>4142488.1873903489</v>
       </c>
     </row>
-    <row r="56" spans="14:20" x14ac:dyDescent="0.3">
+    <row r="56" spans="14:20" x14ac:dyDescent="0.25">
       <c r="N56" t="s">
         <v>43</v>
       </c>
@@ -2399,7 +2399,7 @@
         <v>3815450.8126096507</v>
       </c>
     </row>
-    <row r="57" spans="14:20" x14ac:dyDescent="0.3">
+    <row r="57" spans="14:20" x14ac:dyDescent="0.25">
       <c r="P57">
         <v>1</v>
       </c>
@@ -2413,7 +2413,7 @@
         <v>9094787</v>
       </c>
     </row>
-    <row r="58" spans="14:20" x14ac:dyDescent="0.3">
+    <row r="58" spans="14:20" x14ac:dyDescent="0.25">
       <c r="N58" t="s">
         <v>45</v>
       </c>
@@ -2427,7 +2427,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="59" spans="14:20" x14ac:dyDescent="0.3">
+    <row r="59" spans="14:20" x14ac:dyDescent="0.25">
       <c r="N59" t="s">
         <v>18</v>
       </c>
@@ -2454,7 +2454,7 @@
         <v>4989638.1726636579</v>
       </c>
     </row>
-    <row r="60" spans="14:20" x14ac:dyDescent="0.3">
+    <row r="60" spans="14:20" x14ac:dyDescent="0.25">
       <c r="N60" t="s">
         <v>43</v>
       </c>
@@ -2481,7 +2481,7 @@
         <v>5464314.8273363421</v>
       </c>
     </row>
-    <row r="61" spans="14:20" x14ac:dyDescent="0.3">
+    <row r="61" spans="14:20" x14ac:dyDescent="0.25">
       <c r="N61" t="s">
         <v>46</v>
       </c>
@@ -2501,7 +2501,7 @@
         <v>10453953</v>
       </c>
     </row>
-    <row r="62" spans="14:20" x14ac:dyDescent="0.3">
+    <row r="62" spans="14:20" x14ac:dyDescent="0.25">
       <c r="N62" t="s">
         <v>43</v>
       </c>
@@ -2510,13 +2510,13 @@
         <v>6244931.3999999994</v>
       </c>
     </row>
-    <row r="63" spans="14:20" x14ac:dyDescent="0.3">
+    <row r="63" spans="14:20" x14ac:dyDescent="0.25">
       <c r="O63" s="3">
         <f>SUM(O59,O62)</f>
         <v>11947375.18</v>
       </c>
     </row>
-    <row r="65" spans="14:20" x14ac:dyDescent="0.3">
+    <row r="65" spans="14:20" x14ac:dyDescent="0.25">
       <c r="N65" t="s">
         <v>47</v>
       </c>
@@ -2530,7 +2530,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="66" spans="14:20" x14ac:dyDescent="0.3">
+    <row r="66" spans="14:20" x14ac:dyDescent="0.25">
       <c r="N66" t="s">
         <v>38</v>
       </c>
@@ -2553,7 +2553,7 @@
         <v>4989638.1726636579</v>
       </c>
     </row>
-    <row r="67" spans="14:20" x14ac:dyDescent="0.3">
+    <row r="67" spans="14:20" x14ac:dyDescent="0.25">
       <c r="N67" t="s">
         <v>43</v>
       </c>
@@ -2574,7 +2574,7 @@
         <v>5464314.8273363421</v>
       </c>
     </row>
-    <row r="68" spans="14:20" x14ac:dyDescent="0.3">
+    <row r="68" spans="14:20" x14ac:dyDescent="0.25">
       <c r="N68" t="s">
         <v>46</v>
       </c>
@@ -2591,7 +2591,7 @@
         <v>10453953</v>
       </c>
     </row>
-    <row r="69" spans="14:20" x14ac:dyDescent="0.3">
+    <row r="69" spans="14:20" x14ac:dyDescent="0.25">
       <c r="N69" t="s">
         <v>43</v>
       </c>
@@ -2599,7 +2599,7 @@
         <v>6244931.3999999994</v>
       </c>
     </row>
-    <row r="70" spans="14:20" x14ac:dyDescent="0.3">
+    <row r="70" spans="14:20" x14ac:dyDescent="0.25">
       <c r="O70" s="5">
         <v>11947375.18</v>
       </c>
@@ -2613,34 +2613,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S104"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="I1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X15" sqref="X15"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" customWidth="1"/>
-    <col min="5" max="5" width="13.44140625" customWidth="1"/>
-    <col min="6" max="6" width="13.88671875" customWidth="1"/>
-    <col min="7" max="7" width="15.33203125" customWidth="1"/>
-    <col min="8" max="8" width="14.6640625" customWidth="1"/>
-    <col min="9" max="9" width="13.44140625" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.109375" customWidth="1"/>
-    <col min="12" max="12" width="16.6640625" customWidth="1"/>
+    <col min="1" max="1" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" customWidth="1"/>
+    <col min="12" max="12" width="16.7109375" customWidth="1"/>
     <col min="13" max="13" width="14" customWidth="1"/>
-    <col min="14" max="14" width="10.33203125" customWidth="1"/>
-    <col min="15" max="15" width="14.44140625" customWidth="1"/>
-    <col min="16" max="17" width="16.44140625" customWidth="1"/>
+    <col min="14" max="14" width="10.28515625" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" customWidth="1"/>
+    <col min="16" max="17" width="16.42578125" customWidth="1"/>
     <col min="18" max="18" width="15" customWidth="1"/>
-    <col min="19" max="19" width="10.109375" style="1" customWidth="1"/>
+    <col min="19" max="19" width="10.140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="11" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
         <v>88</v>
       </c>
@@ -2699,7 +2699,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="18">
         <v>1</v>
       </c>
@@ -2736,7 +2736,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="18">
         <v>2</v>
       </c>
@@ -2773,7 +2773,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="18">
         <v>3</v>
       </c>
@@ -2810,7 +2810,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="18">
         <v>4</v>
       </c>
@@ -2847,7 +2847,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="18">
         <v>5</v>
       </c>
@@ -2884,7 +2884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="18">
         <v>6</v>
       </c>
@@ -2921,7 +2921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="18">
         <v>7</v>
       </c>
@@ -2960,7 +2960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="18">
         <v>8</v>
       </c>
@@ -2997,7 +2997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="18">
         <v>9</v>
       </c>
@@ -3036,7 +3036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="18">
         <v>10</v>
       </c>
@@ -3075,7 +3075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="18">
         <v>11</v>
       </c>
@@ -3114,7 +3114,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="18">
         <v>12</v>
       </c>
@@ -3155,7 +3155,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="18">
         <v>13</v>
       </c>
@@ -3194,7 +3194,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="18">
         <v>14</v>
       </c>
@@ -3231,7 +3231,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="20">
         <v>15</v>
       </c>
@@ -3268,7 +3268,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="18">
         <v>16</v>
       </c>
@@ -3307,7 +3307,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="18">
         <v>17</v>
       </c>
@@ -3344,7 +3344,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="18">
         <v>18</v>
       </c>
@@ -3383,7 +3383,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="18">
         <v>19</v>
       </c>
@@ -3420,7 +3420,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="18">
         <v>20</v>
       </c>
@@ -3457,7 +3457,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="18">
         <v>21</v>
       </c>
@@ -3496,7 +3496,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="18">
         <v>22</v>
       </c>
@@ -3533,7 +3533,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="18">
         <v>23</v>
       </c>
@@ -3570,7 +3570,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="18">
         <v>24</v>
       </c>
@@ -3607,7 +3607,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="18">
         <v>25</v>
       </c>
@@ -3644,7 +3644,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="18">
         <v>26</v>
       </c>
@@ -3683,7 +3683,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="18">
         <v>27</v>
       </c>
@@ -3722,7 +3722,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="18">
         <v>28</v>
       </c>
@@ -3759,7 +3759,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="18">
         <v>29</v>
       </c>
@@ -3798,7 +3798,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="18">
         <v>30</v>
       </c>
@@ -3839,7 +3839,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="18">
         <v>31</v>
       </c>
@@ -3876,7 +3876,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="18">
         <v>32</v>
       </c>
@@ -3913,7 +3913,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="18">
         <v>33</v>
       </c>
@@ -3950,7 +3950,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:19" s="43" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:19" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="41">
         <v>34</v>
       </c>
@@ -3991,7 +3991,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="20">
         <v>35</v>
       </c>
@@ -4030,7 +4030,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="18">
         <v>36</v>
       </c>
@@ -4069,7 +4069,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="18">
         <v>37</v>
       </c>
@@ -4106,7 +4106,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="18">
         <v>38</v>
       </c>
@@ -4143,7 +4143,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="18">
         <v>39</v>
       </c>
@@ -4182,7 +4182,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="18">
         <v>40</v>
       </c>
@@ -4219,7 +4219,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="18">
         <v>41</v>
       </c>
@@ -4256,7 +4256,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" s="18">
         <v>42</v>
       </c>
@@ -4293,7 +4293,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" s="18">
         <v>43</v>
       </c>
@@ -4334,7 +4334,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" s="18">
         <v>44</v>
       </c>
@@ -4373,7 +4373,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="18">
         <v>45</v>
       </c>
@@ -4410,7 +4410,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" s="18">
         <v>46</v>
       </c>
@@ -4447,7 +4447,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" s="18">
         <v>47</v>
       </c>
@@ -4484,7 +4484,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" s="18">
         <v>48</v>
       </c>
@@ -4521,7 +4521,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" s="18">
         <v>49</v>
       </c>
@@ -4560,7 +4560,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" s="18">
         <v>50</v>
       </c>
@@ -4599,7 +4599,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" s="18">
         <v>51</v>
       </c>
@@ -4636,7 +4636,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53" s="18">
         <v>52</v>
       </c>
@@ -4673,7 +4673,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" s="18">
         <v>53</v>
       </c>
@@ -4710,7 +4710,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55" s="18">
         <v>54</v>
       </c>
@@ -4747,7 +4747,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" s="18">
         <v>55</v>
       </c>
@@ -4784,7 +4784,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" s="35">
         <v>56</v>
       </c>
@@ -4821,7 +4821,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58" s="35">
         <v>57</v>
       </c>
@@ -4860,7 +4860,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59" s="18">
         <v>58</v>
       </c>
@@ -4897,7 +4897,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60" s="18">
         <v>59</v>
       </c>
@@ -4934,7 +4934,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61" s="18">
         <v>60</v>
       </c>
@@ -4971,7 +4971,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62" s="18">
         <v>61</v>
       </c>
@@ -5008,7 +5008,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:19" s="39" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:19" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="35">
         <v>62</v>
       </c>
@@ -5044,7 +5044,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64" s="18">
         <v>63</v>
       </c>
@@ -5083,7 +5083,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A65" s="18">
         <v>64</v>
       </c>
@@ -5123,7 +5123,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A66" s="18">
         <v>65</v>
       </c>
@@ -5161,7 +5161,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A67" s="18">
         <v>66</v>
       </c>
@@ -5200,7 +5200,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A68" s="18">
         <v>67</v>
       </c>
@@ -5237,7 +5237,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A69" s="18">
         <v>68</v>
       </c>
@@ -5274,7 +5274,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A70" s="18">
         <v>69</v>
       </c>
@@ -5311,7 +5311,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A71" s="18">
         <v>70</v>
       </c>
@@ -5348,7 +5348,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A72" s="18">
         <v>71</v>
       </c>
@@ -5385,7 +5385,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="73" spans="1:19" s="39" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:19" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="35">
         <v>72</v>
       </c>
@@ -5425,7 +5425,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A74" s="18">
         <v>73</v>
       </c>
@@ -5462,7 +5462,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A75" s="18">
         <v>74</v>
       </c>
@@ -5499,7 +5499,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A76" s="18">
         <v>75</v>
       </c>
@@ -5538,7 +5538,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="77" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="18">
         <v>76</v>
       </c>
@@ -5577,7 +5577,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A78" s="18">
         <v>77</v>
       </c>
@@ -5616,7 +5616,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A79" s="18">
         <v>78</v>
       </c>
@@ -5653,7 +5653,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A80" s="18">
         <v>79</v>
       </c>
@@ -5692,7 +5692,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A81" s="18">
         <v>80</v>
       </c>
@@ -5731,7 +5731,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A82" s="18">
         <v>81</v>
       </c>
@@ -5770,7 +5770,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="83" spans="1:19" s="39" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:19" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="35">
         <v>82</v>
       </c>
@@ -5806,7 +5806,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A84" s="18">
         <v>83</v>
       </c>
@@ -5843,7 +5843,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A85" s="18">
         <v>84</v>
       </c>
@@ -5880,7 +5880,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A86" s="18">
         <v>85</v>
       </c>
@@ -5917,7 +5917,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A87" s="18">
         <v>86</v>
       </c>
@@ -5958,7 +5958,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A88" s="18">
         <v>87</v>
       </c>
@@ -5995,7 +5995,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="89" spans="1:19" s="39" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:19" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="35">
         <v>88</v>
       </c>
@@ -6032,7 +6032,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="90" spans="1:19" s="39" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:19" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="35">
         <v>89</v>
       </c>
@@ -6071,7 +6071,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="91" spans="1:19" s="39" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:19" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="35">
         <v>90</v>
       </c>
@@ -6108,7 +6108,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A92" s="18">
         <v>91</v>
       </c>
@@ -6145,7 +6145,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A93" s="18">
         <v>92</v>
       </c>
@@ -6184,7 +6184,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A94" s="18">
         <v>93</v>
       </c>
@@ -6221,7 +6221,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A95" s="18">
         <v>94</v>
       </c>
@@ -6262,7 +6262,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A96" s="18">
         <v>95</v>
       </c>
@@ -6299,7 +6299,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A97" s="18">
         <v>96</v>
       </c>
@@ -6338,7 +6338,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="98" spans="1:19" s="39" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:19" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="35">
         <v>97</v>
       </c>
@@ -6378,7 +6378,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A99" s="18">
         <v>98</v>
       </c>
@@ -6417,7 +6417,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A100" s="18">
         <v>99</v>
       </c>
@@ -6454,7 +6454,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A101" s="18">
         <v>100</v>
       </c>
@@ -6491,7 +6491,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A102" s="18">
         <v>101</v>
       </c>
@@ -6528,7 +6528,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A103" s="18">
         <v>102</v>
       </c>
@@ -6565,7 +6565,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
@@ -6597,21 +6597,21 @@
       <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.6640625" customWidth="1"/>
-    <col min="2" max="2" width="6.109375" customWidth="1"/>
-    <col min="3" max="3" width="5.44140625" customWidth="1"/>
-    <col min="4" max="4" width="3.88671875" customWidth="1"/>
-    <col min="5" max="5" width="15.44140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="19.5546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" customWidth="1"/>
+    <col min="2" max="2" width="6.140625" customWidth="1"/>
+    <col min="3" max="3" width="5.42578125" customWidth="1"/>
+    <col min="4" max="4" width="3.85546875" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" style="1" customWidth="1"/>
     <col min="9" max="9" width="13" style="1" customWidth="1"/>
-    <col min="10" max="10" width="13.33203125" customWidth="1"/>
-    <col min="13" max="13" width="10.88671875" customWidth="1"/>
-    <col min="14" max="14" width="15.88671875" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" customWidth="1"/>
+    <col min="13" max="13" width="10.85546875" customWidth="1"/>
+    <col min="14" max="14" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="5:9" x14ac:dyDescent="0.25">
       <c r="G2" s="1" t="s">
         <v>42</v>
       </c>
@@ -6619,7 +6619,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="5:9" x14ac:dyDescent="0.25">
       <c r="G3" s="1">
         <v>17644936.100000001</v>
       </c>
@@ -6627,7 +6627,7 @@
         <v>204301.34</v>
       </c>
     </row>
-    <row r="4" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="5:9" x14ac:dyDescent="0.25">
       <c r="G4" s="1">
         <v>-166123.07999999999</v>
       </c>
@@ -6635,7 +6635,7 @@
         <v>98414.79</v>
       </c>
     </row>
-    <row r="5" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="5:9" x14ac:dyDescent="0.25">
       <c r="G5" s="1">
         <v>4900152.0999999996</v>
       </c>
@@ -6643,7 +6643,7 @@
         <v>3557905.85</v>
       </c>
     </row>
-    <row r="6" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="5:9" x14ac:dyDescent="0.25">
       <c r="G6" s="1">
         <v>286245</v>
       </c>
@@ -6651,7 +6651,7 @@
         <v>866744.93</v>
       </c>
     </row>
-    <row r="7" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="5:9" x14ac:dyDescent="0.25">
       <c r="G7" s="1">
         <v>619378.32999999996</v>
       </c>
@@ -6659,7 +6659,7 @@
         <v>161285.35999999999</v>
       </c>
     </row>
-    <row r="8" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="5:9" x14ac:dyDescent="0.25">
       <c r="G8" s="5">
         <f>SUM(G3:G7)</f>
         <v>23284588.450000003</v>
@@ -6668,7 +6668,7 @@
         <v>15775.98</v>
       </c>
     </row>
-    <row r="9" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="5:9" x14ac:dyDescent="0.25">
       <c r="G9" s="5">
         <v>28737182.920000002</v>
       </c>
@@ -6676,7 +6676,7 @@
         <v>14288.02</v>
       </c>
     </row>
-    <row r="10" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="5:9" x14ac:dyDescent="0.25">
       <c r="G10" s="5">
         <f>G9-G8</f>
         <v>5452594.4699999988</v>
@@ -6685,13 +6685,13 @@
         <v>53423.24</v>
       </c>
     </row>
-    <row r="11" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="5:9" x14ac:dyDescent="0.25">
       <c r="I11" s="5">
         <f>SUM(I3:I10)</f>
         <v>4972139.5100000007</v>
       </c>
     </row>
-    <row r="14" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E14" s="1" t="s">
         <v>18</v>
       </c>
@@ -6699,7 +6699,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E15" s="1">
         <v>875966.73300000001</v>
       </c>
@@ -6707,7 +6707,7 @@
         <v>46900.13</v>
       </c>
     </row>
-    <row r="16" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E16" s="1">
         <v>906433.66399999999</v>
       </c>
@@ -6715,7 +6715,7 @@
         <v>2590080.1800000002</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E17" s="1">
         <f>SUM(E15:E16)</f>
         <v>1782400.3969999999</v>
@@ -6724,7 +6724,7 @@
         <v>1949709.13</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E18" s="1">
         <v>7172327.3300000001</v>
       </c>
@@ -6732,7 +6732,7 @@
         <v>1366206.83</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E19" s="5">
         <f>E18-E17</f>
         <v>5389926.9330000002</v>
@@ -6741,23 +6741,23 @@
         <v>739134.85</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="G20" s="1">
         <v>379009.28000000003</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="G21" s="1">
         <v>600581.69999999995</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="G22" s="1">
         <f>SUM(G15:G21)</f>
         <v>7671622.0999999996</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="16" t="s">
         <v>77</v>
       </c>
@@ -6798,16 +6798,16 @@
       <selection activeCell="A2" sqref="A2:N9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.33203125" customWidth="1"/>
-    <col min="2" max="2" width="28.88671875" customWidth="1"/>
-    <col min="9" max="9" width="21.109375" customWidth="1"/>
-    <col min="13" max="13" width="13.5546875" customWidth="1"/>
+    <col min="1" max="1" width="33.28515625" customWidth="1"/>
+    <col min="2" max="2" width="28.85546875" customWidth="1"/>
+    <col min="9" max="9" width="21.140625" customWidth="1"/>
+    <col min="13" max="13" width="13.5703125" customWidth="1"/>
     <col min="14" max="14" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>75</v>
       </c>
@@ -6835,7 +6835,7 @@
         <v>4232587</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>76</v>
       </c>
@@ -6859,7 +6859,7 @@
         <v>8992806</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>77</v>
       </c>
@@ -6887,7 +6887,7 @@
         <v>5502837.0250000004</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>78</v>
       </c>
@@ -6915,7 +6915,7 @@
         <v>3191592</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>79</v>
       </c>
@@ -6941,7 +6941,7 @@
         <v>6275786</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>80</v>
       </c>
@@ -6965,7 +6965,7 @@
         <v>3061893</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>81</v>
       </c>
@@ -6989,7 +6989,7 @@
         <v>18223550</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>82</v>
       </c>
@@ -7013,7 +7013,7 @@
         <v>3211140</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>83</v>
       </c>
@@ -7050,14 +7050,14 @@
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.88671875" customWidth="1"/>
-    <col min="2" max="21" width="9.6640625" customWidth="1"/>
-    <col min="22" max="22" width="10.33203125" customWidth="1"/>
+    <col min="1" max="1" width="11.85546875" customWidth="1"/>
+    <col min="2" max="21" width="9.7109375" customWidth="1"/>
+    <col min="22" max="22" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>244</v>
       </c>
@@ -7125,7 +7125,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>265</v>
       </c>
@@ -7151,7 +7151,7 @@
       <c r="U2" s="6"/>
       <c r="V2" s="6"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>266</v>
       </c>
@@ -7177,7 +7177,7 @@
       <c r="U3" s="6"/>
       <c r="V3" s="6"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>267</v>
       </c>
@@ -7203,7 +7203,7 @@
       <c r="U4" s="6"/>
       <c r="V4" s="6"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
         <v>268</v>
       </c>
@@ -7229,7 +7229,7 @@
       <c r="U5" s="6"/>
       <c r="V5" s="6"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
         <v>143</v>
       </c>
@@ -7255,7 +7255,7 @@
       <c r="U6" s="6"/>
       <c r="V6" s="6"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
         <v>174</v>
       </c>
@@ -7281,7 +7281,7 @@
       <c r="U7" s="6"/>
       <c r="V7" s="6"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
         <v>269</v>
       </c>
@@ -7307,7 +7307,7 @@
       <c r="U8" s="6"/>
       <c r="V8" s="6"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
         <v>270</v>
       </c>
@@ -7333,7 +7333,7 @@
       <c r="U9" s="6"/>
       <c r="V9" s="6"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
         <v>271</v>
       </c>
@@ -7359,7 +7359,7 @@
       <c r="U10" s="6"/>
       <c r="V10" s="6"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
         <v>272</v>
       </c>
@@ -7385,7 +7385,7 @@
       <c r="U11" s="6"/>
       <c r="V11" s="6"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
         <v>131</v>
       </c>
@@ -7411,7 +7411,7 @@
       <c r="U12" s="6"/>
       <c r="V12" s="6"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
         <v>273</v>
       </c>
@@ -7437,7 +7437,7 @@
       <c r="U13" s="6"/>
       <c r="V13" s="6"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
         <v>274</v>
       </c>
@@ -7463,7 +7463,7 @@
       <c r="U14" s="6"/>
       <c r="V14" s="6"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
         <v>275</v>
       </c>
@@ -7489,7 +7489,7 @@
       <c r="U15" s="6"/>
       <c r="V15" s="6"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
         <v>276</v>
       </c>
@@ -7515,7 +7515,7 @@
       <c r="U16" s="6"/>
       <c r="V16" s="6"/>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
         <v>215</v>
       </c>
@@ -7541,7 +7541,7 @@
       <c r="U17" s="6"/>
       <c r="V17" s="6"/>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
         <v>277</v>
       </c>
@@ -7567,7 +7567,7 @@
       <c r="U18" s="6"/>
       <c r="V18" s="6"/>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="18" t="s">
         <v>278</v>
       </c>
@@ -7593,7 +7593,7 @@
       <c r="U19" s="6"/>
       <c r="V19" s="6"/>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
         <v>279</v>
       </c>
@@ -7619,7 +7619,7 @@
       <c r="U20" s="6"/>
       <c r="V20" s="6"/>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" s="18" t="s">
         <v>280</v>
       </c>
@@ -7645,7 +7645,7 @@
       <c r="U21" s="6"/>
       <c r="V21" s="6"/>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
         <v>110</v>
       </c>
@@ -7671,7 +7671,7 @@
       <c r="U22" s="6"/>
       <c r="V22" s="6"/>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" s="18" t="s">
         <v>148</v>
       </c>
@@ -7697,7 +7697,7 @@
       <c r="U23" s="6"/>
       <c r="V23" s="6"/>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" s="18" t="s">
         <v>281</v>
       </c>
@@ -7723,7 +7723,7 @@
       <c r="U24" s="6"/>
       <c r="V24" s="6"/>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" s="18" t="s">
         <v>282</v>
       </c>
@@ -7749,7 +7749,7 @@
       <c r="U25" s="6"/>
       <c r="V25" s="6"/>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" s="18" t="s">
         <v>283</v>
       </c>
@@ -7775,7 +7775,7 @@
       <c r="U26" s="6"/>
       <c r="V26" s="6"/>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" s="18" t="s">
         <v>284</v>
       </c>
@@ -7801,7 +7801,7 @@
       <c r="U27" s="6"/>
       <c r="V27" s="6"/>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" s="19" t="s">
         <v>300</v>
       </c>
@@ -7827,7 +7827,7 @@
       <c r="U28" s="6"/>
       <c r="V28" s="6"/>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" s="19" t="s">
         <v>301</v>
       </c>
@@ -7853,7 +7853,7 @@
       <c r="U29" s="6"/>
       <c r="V29" s="6"/>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" s="19" t="s">
         <v>302</v>
       </c>
@@ -7879,7 +7879,7 @@
       <c r="U30" s="6"/>
       <c r="V30" s="6"/>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" s="19" t="s">
         <v>129</v>
       </c>
@@ -7905,7 +7905,7 @@
       <c r="U31" s="6"/>
       <c r="V31" s="6"/>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" s="18" t="s">
         <v>205</v>
       </c>
@@ -7931,7 +7931,7 @@
       <c r="U32" s="6"/>
       <c r="V32" s="6"/>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33" s="18" t="s">
         <v>162</v>
       </c>
@@ -7957,7 +7957,7 @@
       <c r="U33" s="6"/>
       <c r="V33" s="6"/>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A34" s="18" t="s">
         <v>196</v>
       </c>
@@ -7983,7 +7983,7 @@
       <c r="U34" s="6"/>
       <c r="V34" s="6"/>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A35" s="18" t="s">
         <v>181</v>
       </c>
@@ -8009,7 +8009,7 @@
       <c r="U35" s="6"/>
       <c r="V35" s="6"/>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A36" s="18" t="s">
         <v>203</v>
       </c>
@@ -8035,7 +8035,7 @@
       <c r="U36" s="6"/>
       <c r="V36" s="6"/>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A37" s="18" t="s">
         <v>285</v>
       </c>
@@ -8061,7 +8061,7 @@
       <c r="U37" s="6"/>
       <c r="V37" s="6"/>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A38" s="18" t="s">
         <v>286</v>
       </c>
@@ -8087,7 +8087,7 @@
       <c r="U38" s="6"/>
       <c r="V38" s="6"/>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A39" s="18" t="s">
         <v>287</v>
       </c>
@@ -8113,7 +8113,7 @@
       <c r="U39" s="6"/>
       <c r="V39" s="6"/>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A40" s="18" t="s">
         <v>288</v>
       </c>
@@ -8139,7 +8139,7 @@
       <c r="U40" s="6"/>
       <c r="V40" s="6"/>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A41" s="18" t="s">
         <v>289</v>
       </c>
@@ -8165,7 +8165,7 @@
       <c r="U41" s="6"/>
       <c r="V41" s="6"/>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A42" s="18" t="s">
         <v>290</v>
       </c>
@@ -8191,7 +8191,7 @@
       <c r="U42" s="6"/>
       <c r="V42" s="6"/>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A43" s="18" t="s">
         <v>291</v>
       </c>
@@ -8217,7 +8217,7 @@
       <c r="U43" s="6"/>
       <c r="V43" s="6"/>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A44" s="18" t="s">
         <v>292</v>
       </c>
@@ -8243,7 +8243,7 @@
       <c r="U44" s="6"/>
       <c r="V44" s="6"/>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A45" s="18" t="s">
         <v>293</v>
       </c>
@@ -8269,7 +8269,7 @@
       <c r="U45" s="6"/>
       <c r="V45" s="6"/>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A46" s="18" t="s">
         <v>169</v>
       </c>
@@ -8295,7 +8295,7 @@
       <c r="U46" s="6"/>
       <c r="V46" s="6"/>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A47" s="18" t="s">
         <v>125</v>
       </c>
@@ -8321,7 +8321,7 @@
       <c r="U47" s="6"/>
       <c r="V47" s="6"/>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A48" s="18" t="s">
         <v>149</v>
       </c>
@@ -8347,7 +8347,7 @@
       <c r="U48" s="6"/>
       <c r="V48" s="6"/>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A49" s="18" t="s">
         <v>294</v>
       </c>
@@ -8373,7 +8373,7 @@
       <c r="U49" s="6"/>
       <c r="V49" s="6"/>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A50" s="18" t="s">
         <v>295</v>
       </c>
@@ -8399,7 +8399,7 @@
       <c r="U50" s="6"/>
       <c r="V50" s="6"/>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A51" s="18" t="s">
         <v>146</v>
       </c>
@@ -8425,7 +8425,7 @@
       <c r="U51" s="6"/>
       <c r="V51" s="6"/>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A52" s="18" t="s">
         <v>296</v>
       </c>
@@ -8451,7 +8451,7 @@
       <c r="U52" s="6"/>
       <c r="V52" s="6"/>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A53" s="30" t="s">
         <v>93</v>
       </c>
@@ -8477,7 +8477,7 @@
       <c r="U53" s="6"/>
       <c r="V53" s="6"/>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A54" s="30" t="s">
         <v>95</v>
       </c>
@@ -8503,7 +8503,7 @@
       <c r="U54" s="6"/>
       <c r="V54" s="6"/>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A55" s="30" t="s">
         <v>297</v>
       </c>
@@ -8542,13 +8542,13 @@
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.6640625" customWidth="1"/>
-    <col min="2" max="13" width="9.6640625" customWidth="1"/>
+    <col min="1" max="1" width="24.7109375" customWidth="1"/>
+    <col min="2" max="13" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>244</v>
       </c>
@@ -8589,7 +8589,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>40</v>
       </c>
@@ -8606,7 +8606,7 @@
       <c r="L2" s="18"/>
       <c r="M2" s="18"/>
     </row>
-    <row r="3" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>48</v>
       </c>
@@ -8623,7 +8623,7 @@
       <c r="L3" s="6"/>
       <c r="M3" s="6"/>
     </row>
-    <row r="4" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>49</v>
       </c>
@@ -8640,7 +8640,7 @@
       <c r="L4" s="6"/>
       <c r="M4" s="6"/>
     </row>
-    <row r="5" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>50</v>
       </c>
@@ -8657,7 +8657,7 @@
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
     </row>
-    <row r="6" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>51</v>
       </c>
@@ -8674,7 +8674,7 @@
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
     </row>
-    <row r="7" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>52</v>
       </c>
@@ -8691,7 +8691,7 @@
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
     </row>
-    <row r="8" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>53</v>
       </c>
@@ -8708,7 +8708,7 @@
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
     </row>
-    <row r="9" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>54</v>
       </c>
@@ -8725,7 +8725,7 @@
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
     </row>
-    <row r="10" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>55</v>
       </c>
@@ -8742,7 +8742,7 @@
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
     </row>
-    <row r="11" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>56</v>
       </c>
@@ -8759,7 +8759,7 @@
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
     </row>
-    <row r="12" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
         <v>89</v>
       </c>
@@ -8776,134 +8776,134 @@
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
     </row>
-    <row r="13" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="31"/>
     </row>
-    <row r="14" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="31"/>
     </row>
-    <row r="15" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="31"/>
     </row>
-    <row r="16" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="31"/>
     </row>
-    <row r="17" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="31"/>
     </row>
-    <row r="18" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="31"/>
     </row>
-    <row r="19" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="31"/>
     </row>
-    <row r="20" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="31"/>
     </row>
-    <row r="21" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="31"/>
     </row>
-    <row r="22" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="31"/>
     </row>
-    <row r="23" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="31"/>
     </row>
-    <row r="24" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="31"/>
     </row>
-    <row r="25" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="31"/>
     </row>
-    <row r="26" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="31"/>
     </row>
-    <row r="27" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="31"/>
     </row>
-    <row r="28" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="33"/>
     </row>
-    <row r="29" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="33"/>
       <c r="C29" s="33"/>
     </row>
-    <row r="30" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="33"/>
     </row>
-    <row r="31" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="33"/>
     </row>
-    <row r="32" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="31"/>
     </row>
-    <row r="33" spans="1:1" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="31"/>
     </row>
-    <row r="34" spans="1:1" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="31"/>
     </row>
-    <row r="35" spans="1:1" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="31"/>
     </row>
-    <row r="36" spans="1:1" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="31"/>
     </row>
-    <row r="37" spans="1:1" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="31"/>
     </row>
-    <row r="38" spans="1:1" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="31"/>
     </row>
-    <row r="39" spans="1:1" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="31"/>
     </row>
-    <row r="40" spans="1:1" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:1" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="31"/>
     </row>
-    <row r="41" spans="1:1" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:1" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="31"/>
     </row>
-    <row r="42" spans="1:1" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:1" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="31"/>
     </row>
-    <row r="43" spans="1:1" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:1" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="31"/>
     </row>
-    <row r="44" spans="1:1" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:1" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="31"/>
     </row>
-    <row r="45" spans="1:1" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:1" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="31"/>
     </row>
-    <row r="46" spans="1:1" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:1" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="31"/>
     </row>
-    <row r="47" spans="1:1" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:1" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="31"/>
     </row>
-    <row r="48" spans="1:1" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:1" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="31"/>
     </row>
-    <row r="49" spans="1:1" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:1" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="31"/>
     </row>
-    <row r="50" spans="1:1" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:1" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="31"/>
     </row>
-    <row r="51" spans="1:1" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:1" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="31"/>
     </row>
-    <row r="52" spans="1:1" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:1" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="31"/>
     </row>
-    <row r="53" spans="1:1" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:1" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="34"/>
     </row>
-    <row r="54" spans="1:1" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:1" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="34"/>
     </row>
-    <row r="55" spans="1:1" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:1" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="34"/>
     </row>
   </sheetData>
@@ -8919,13 +8919,13 @@
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" customWidth="1"/>
-    <col min="2" max="13" width="9.6640625" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" customWidth="1"/>
+    <col min="2" max="13" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>244</v>
       </c>
@@ -8966,7 +8966,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>40</v>
       </c>
@@ -8983,7 +8983,7 @@
       <c r="L2" s="18"/>
       <c r="M2" s="18"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>48</v>
       </c>
@@ -9000,7 +9000,7 @@
       <c r="L3" s="6"/>
       <c r="M3" s="6"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>49</v>
       </c>
@@ -9017,7 +9017,7 @@
       <c r="L4" s="6"/>
       <c r="M4" s="6"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
         <v>50</v>
       </c>
@@ -9034,7 +9034,7 @@
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
         <v>51</v>
       </c>
@@ -9051,7 +9051,7 @@
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
         <v>52</v>
       </c>
@@ -9068,7 +9068,7 @@
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
         <v>53</v>
       </c>
@@ -9085,7 +9085,7 @@
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
         <v>54</v>
       </c>
@@ -9102,7 +9102,7 @@
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
         <v>55</v>
       </c>
@@ -9119,7 +9119,7 @@
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
         <v>56</v>
       </c>
@@ -9136,7 +9136,7 @@
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
         <v>89</v>
       </c>

--- a/Civilworks cost/IPC Distribution.xlsx
+++ b/Civilworks cost/IPC Distribution.xlsx
@@ -2613,9 +2613,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S104"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q1" sqref="Q1"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G107" sqref="G107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Civilworks cost/IPC Distribution.xlsx
+++ b/Civilworks cost/IPC Distribution.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-60" windowWidth="20730" windowHeight="11760" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="-60" windowWidth="20736" windowHeight="11760" firstSheet="3" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,6 +15,8 @@
     <sheet name="Package_wise_cost" sheetId="9" r:id="rId6"/>
     <sheet name="Monthly_Rpa" sheetId="11" r:id="rId7"/>
     <sheet name="Monthly_Gob" sheetId="10" r:id="rId8"/>
+    <sheet name="Mobilization_Dist" sheetId="12" r:id="rId9"/>
+    <sheet name="Package_wise_str_df" sheetId="13" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="319">
   <si>
     <t>O&amp;M During Construction</t>
   </si>
@@ -974,6 +976,15 @@
   </si>
   <si>
     <t>Jul</t>
+  </si>
+  <si>
+    <t>Package_No</t>
+  </si>
+  <si>
+    <t>WMG_OFF</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
 </sst>
 </file>
@@ -983,7 +994,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -991,8 +1002,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1029,6 +1048,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1057,7 +1088,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1172,6 +1203,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1465,14 +1508,14 @@
       <selection activeCell="D2" sqref="D2:D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="18.28515625" customWidth="1"/>
-    <col min="3" max="3" width="97.5703125" customWidth="1"/>
-    <col min="4" max="4" width="52.85546875" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" customWidth="1"/>
+    <col min="3" max="3" width="97.5546875" customWidth="1"/>
+    <col min="4" max="4" width="52.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -1483,7 +1526,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>57</v>
       </c>
@@ -1498,7 +1541,7 @@
         <v>4111306_Construction of Irrigation Inlet (New Haors)</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>58</v>
       </c>
@@ -1513,7 +1556,7 @@
         <v>4111307_ Re-installation/Construction of Regulator/ Causeway (Rehabilitation Sub-Projects)</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>59</v>
       </c>
@@ -1528,7 +1571,7 @@
         <v>4111307_ Installation/Construction of New Regulators/ Causeway/Bridge/Box Drainage Outlet) (New Haors)</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>60</v>
       </c>
@@ -1543,7 +1586,7 @@
         <v xml:space="preserve">4111307_ Re-excavation of Khal/River (New Haors) </v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>61</v>
       </c>
@@ -1558,7 +1601,7 @@
         <v xml:space="preserve">4111201_ Re-excavation of Khal/River (Rehabilitation Sub-Projects) </v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>62</v>
       </c>
@@ -1573,7 +1616,7 @@
         <v>4111201_ Rehabilitation of Full Embankment (Resection/ construction) (Rehabilitation Sub-Projects)</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>63</v>
       </c>
@@ -1588,7 +1631,7 @@
         <v>4111201_ Rehabilitation of Submergible Embankment  (Resection/construction)  (Rehabilitation Sub-Projects)</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>64</v>
       </c>
@@ -1603,7 +1646,7 @@
         <v>4111201_Construction of Submersible Embankment (New Haors) (Earth Volume: 29.98 lakh cum)</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>65</v>
       </c>
@@ -1618,7 +1661,7 @@
         <v>4111201_ Rehabilitation of Regulator (New Haors)</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>66</v>
       </c>
@@ -1633,7 +1676,7 @@
         <v>4111201_Construction of WMG Office</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>67</v>
       </c>
@@ -1653,6 +1696,1969 @@
     <sortCondition ref="A2:A12"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L51"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q17" sqref="Q17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="18.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" customWidth="1"/>
+    <col min="9" max="9" width="10" customWidth="1"/>
+    <col min="10" max="10" width="8.6640625" customWidth="1"/>
+    <col min="11" max="11" width="10.109375" customWidth="1"/>
+    <col min="12" max="12" width="14.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="11" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="44" t="s">
+        <v>316</v>
+      </c>
+      <c r="B1" s="44" t="s">
+        <v>318</v>
+      </c>
+      <c r="C1" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="44" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1" s="44" t="s">
+        <v>52</v>
+      </c>
+      <c r="I1" s="44" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="K1" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1" s="44" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="45" t="s">
+        <v>265</v>
+      </c>
+      <c r="B2" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="45">
+        <v>0</v>
+      </c>
+      <c r="D2" s="45">
+        <v>9.0200000000000002E-2</v>
+      </c>
+      <c r="E2" s="45">
+        <v>0</v>
+      </c>
+      <c r="F2" s="45">
+        <v>0</v>
+      </c>
+      <c r="G2" s="45">
+        <v>0.90980000000000005</v>
+      </c>
+      <c r="H2" s="45">
+        <v>0</v>
+      </c>
+      <c r="I2" s="45">
+        <v>0</v>
+      </c>
+      <c r="J2" s="45">
+        <v>0</v>
+      </c>
+      <c r="K2" s="45">
+        <v>0</v>
+      </c>
+      <c r="L2" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="45" t="s">
+        <v>266</v>
+      </c>
+      <c r="B3" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="45">
+        <v>0</v>
+      </c>
+      <c r="D3" s="45">
+        <v>0</v>
+      </c>
+      <c r="E3" s="45">
+        <v>0.35920000000000002</v>
+      </c>
+      <c r="F3" s="45">
+        <v>0.60660000000000003</v>
+      </c>
+      <c r="G3" s="45">
+        <v>0</v>
+      </c>
+      <c r="H3" s="45">
+        <v>0</v>
+      </c>
+      <c r="I3" s="45">
+        <v>0</v>
+      </c>
+      <c r="J3" s="45">
+        <v>3.4200000000000001E-2</v>
+      </c>
+      <c r="K3" s="45">
+        <v>0</v>
+      </c>
+      <c r="L3" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="45" t="s">
+        <v>267</v>
+      </c>
+      <c r="B4" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="45">
+        <v>0</v>
+      </c>
+      <c r="D4" s="45">
+        <v>0</v>
+      </c>
+      <c r="E4" s="45">
+        <v>0.22559999999999999</v>
+      </c>
+      <c r="F4" s="45">
+        <v>0</v>
+      </c>
+      <c r="G4" s="45">
+        <v>0</v>
+      </c>
+      <c r="H4" s="45">
+        <v>0</v>
+      </c>
+      <c r="I4" s="45">
+        <v>0</v>
+      </c>
+      <c r="J4" s="45">
+        <v>0.77439999999999998</v>
+      </c>
+      <c r="K4" s="45">
+        <v>0</v>
+      </c>
+      <c r="L4" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="45" t="s">
+        <v>268</v>
+      </c>
+      <c r="B5" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="45">
+        <v>0</v>
+      </c>
+      <c r="D5" s="45">
+        <v>0</v>
+      </c>
+      <c r="E5" s="45">
+        <v>0.63849999999999996</v>
+      </c>
+      <c r="F5" s="45">
+        <v>0</v>
+      </c>
+      <c r="G5" s="45">
+        <v>0</v>
+      </c>
+      <c r="H5" s="45">
+        <v>0</v>
+      </c>
+      <c r="I5" s="45">
+        <v>0</v>
+      </c>
+      <c r="J5" s="45">
+        <v>0.36149999999999999</v>
+      </c>
+      <c r="K5" s="45">
+        <v>0</v>
+      </c>
+      <c r="L5" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="45" t="s">
+        <v>143</v>
+      </c>
+      <c r="B6" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="45">
+        <v>0</v>
+      </c>
+      <c r="D6" s="45">
+        <v>0</v>
+      </c>
+      <c r="E6" s="45">
+        <v>0.24779999999999999</v>
+      </c>
+      <c r="F6" s="45">
+        <v>0</v>
+      </c>
+      <c r="G6" s="45">
+        <v>0</v>
+      </c>
+      <c r="H6" s="45">
+        <v>0</v>
+      </c>
+      <c r="I6" s="45">
+        <v>0</v>
+      </c>
+      <c r="J6" s="45">
+        <v>0.75219999999999998</v>
+      </c>
+      <c r="K6" s="45">
+        <v>0</v>
+      </c>
+      <c r="L6" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="45" t="s">
+        <v>174</v>
+      </c>
+      <c r="B7" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="45">
+        <v>0</v>
+      </c>
+      <c r="D7" s="45">
+        <v>0</v>
+      </c>
+      <c r="E7" s="45">
+        <v>0.29420000000000002</v>
+      </c>
+      <c r="F7" s="45">
+        <v>0.70579999999999998</v>
+      </c>
+      <c r="G7" s="45">
+        <v>0</v>
+      </c>
+      <c r="H7" s="45">
+        <v>0</v>
+      </c>
+      <c r="I7" s="45">
+        <v>0</v>
+      </c>
+      <c r="J7" s="45">
+        <v>0</v>
+      </c>
+      <c r="K7" s="45">
+        <v>0</v>
+      </c>
+      <c r="L7" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="45" t="s">
+        <v>269</v>
+      </c>
+      <c r="B8" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="45">
+        <v>0</v>
+      </c>
+      <c r="D8" s="45">
+        <v>0</v>
+      </c>
+      <c r="E8" s="45">
+        <v>0</v>
+      </c>
+      <c r="F8" s="45">
+        <v>0.91379999999999995</v>
+      </c>
+      <c r="G8" s="45">
+        <v>0</v>
+      </c>
+      <c r="H8" s="45">
+        <v>0</v>
+      </c>
+      <c r="I8" s="45">
+        <v>0</v>
+      </c>
+      <c r="J8" s="45">
+        <v>8.6199999999999999E-2</v>
+      </c>
+      <c r="K8" s="45">
+        <v>0</v>
+      </c>
+      <c r="L8" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="45" t="s">
+        <v>270</v>
+      </c>
+      <c r="B9" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="45">
+        <v>0</v>
+      </c>
+      <c r="D9" s="45">
+        <v>0</v>
+      </c>
+      <c r="E9" s="45">
+        <v>1</v>
+      </c>
+      <c r="F9" s="45">
+        <v>0</v>
+      </c>
+      <c r="G9" s="45">
+        <v>0</v>
+      </c>
+      <c r="H9" s="45">
+        <v>0</v>
+      </c>
+      <c r="I9" s="45">
+        <v>0</v>
+      </c>
+      <c r="J9" s="45">
+        <v>0</v>
+      </c>
+      <c r="K9" s="45">
+        <v>0</v>
+      </c>
+      <c r="L9" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="45" t="s">
+        <v>271</v>
+      </c>
+      <c r="B10" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="45">
+        <v>0</v>
+      </c>
+      <c r="D10" s="45">
+        <v>0</v>
+      </c>
+      <c r="E10" s="45">
+        <v>0.3009</v>
+      </c>
+      <c r="F10" s="45">
+        <v>0</v>
+      </c>
+      <c r="G10" s="45">
+        <v>0</v>
+      </c>
+      <c r="H10" s="45">
+        <v>0</v>
+      </c>
+      <c r="I10" s="45">
+        <v>0</v>
+      </c>
+      <c r="J10" s="45">
+        <v>0.69910000000000005</v>
+      </c>
+      <c r="K10" s="45">
+        <v>0</v>
+      </c>
+      <c r="L10" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="45" t="s">
+        <v>272</v>
+      </c>
+      <c r="B11" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="45">
+        <v>0</v>
+      </c>
+      <c r="D11" s="45">
+        <v>0</v>
+      </c>
+      <c r="E11" s="45">
+        <v>0.32990000000000003</v>
+      </c>
+      <c r="F11" s="45">
+        <v>0</v>
+      </c>
+      <c r="G11" s="45">
+        <v>0</v>
+      </c>
+      <c r="H11" s="45">
+        <v>0</v>
+      </c>
+      <c r="I11" s="45">
+        <v>0</v>
+      </c>
+      <c r="J11" s="45">
+        <v>0.67010000000000003</v>
+      </c>
+      <c r="K11" s="45">
+        <v>0</v>
+      </c>
+      <c r="L11" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="45" t="s">
+        <v>131</v>
+      </c>
+      <c r="B12" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="45">
+        <v>0</v>
+      </c>
+      <c r="D12" s="45">
+        <v>0</v>
+      </c>
+      <c r="E12" s="45">
+        <v>0.56989999999999996</v>
+      </c>
+      <c r="F12" s="45">
+        <v>0.43009999999999998</v>
+      </c>
+      <c r="G12" s="45">
+        <v>0</v>
+      </c>
+      <c r="H12" s="45">
+        <v>0</v>
+      </c>
+      <c r="I12" s="45">
+        <v>0</v>
+      </c>
+      <c r="J12" s="45">
+        <v>0</v>
+      </c>
+      <c r="K12" s="45">
+        <v>0</v>
+      </c>
+      <c r="L12" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="45" t="s">
+        <v>273</v>
+      </c>
+      <c r="B13" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="45">
+        <v>0</v>
+      </c>
+      <c r="D13" s="45">
+        <v>0</v>
+      </c>
+      <c r="E13" s="45">
+        <v>0.42480000000000001</v>
+      </c>
+      <c r="F13" s="45">
+        <v>0</v>
+      </c>
+      <c r="G13" s="45">
+        <v>0</v>
+      </c>
+      <c r="H13" s="45">
+        <v>0</v>
+      </c>
+      <c r="I13" s="45">
+        <v>0</v>
+      </c>
+      <c r="J13" s="45">
+        <v>0.57520000000000004</v>
+      </c>
+      <c r="K13" s="45">
+        <v>0</v>
+      </c>
+      <c r="L13" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" s="45" t="s">
+        <v>274</v>
+      </c>
+      <c r="B14" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="45">
+        <v>0</v>
+      </c>
+      <c r="D14" s="45">
+        <v>0</v>
+      </c>
+      <c r="E14" s="45">
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="F14" s="45">
+        <v>0</v>
+      </c>
+      <c r="G14" s="45">
+        <v>0</v>
+      </c>
+      <c r="H14" s="45">
+        <v>0</v>
+      </c>
+      <c r="I14" s="45">
+        <v>0</v>
+      </c>
+      <c r="J14" s="45">
+        <v>0.79400000000000004</v>
+      </c>
+      <c r="K14" s="45">
+        <v>0</v>
+      </c>
+      <c r="L14" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" s="45" t="s">
+        <v>275</v>
+      </c>
+      <c r="B15" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="45">
+        <v>0</v>
+      </c>
+      <c r="D15" s="45">
+        <v>0</v>
+      </c>
+      <c r="E15" s="45">
+        <v>0.21290000000000001</v>
+      </c>
+      <c r="F15" s="45">
+        <v>0</v>
+      </c>
+      <c r="G15" s="45">
+        <v>0</v>
+      </c>
+      <c r="H15" s="45">
+        <v>0</v>
+      </c>
+      <c r="I15" s="45">
+        <v>0</v>
+      </c>
+      <c r="J15" s="45">
+        <v>0.78710000000000002</v>
+      </c>
+      <c r="K15" s="45">
+        <v>0</v>
+      </c>
+      <c r="L15" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" s="45" t="s">
+        <v>276</v>
+      </c>
+      <c r="B16" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="45">
+        <v>0</v>
+      </c>
+      <c r="D16" s="45">
+        <v>0</v>
+      </c>
+      <c r="E16" s="45">
+        <v>0.34379999999999999</v>
+      </c>
+      <c r="F16" s="45">
+        <v>0</v>
+      </c>
+      <c r="G16" s="45">
+        <v>0</v>
+      </c>
+      <c r="H16" s="45">
+        <v>0</v>
+      </c>
+      <c r="I16" s="45">
+        <v>0</v>
+      </c>
+      <c r="J16" s="45">
+        <v>0.65620000000000001</v>
+      </c>
+      <c r="K16" s="45">
+        <v>0</v>
+      </c>
+      <c r="L16" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" s="45" t="s">
+        <v>215</v>
+      </c>
+      <c r="B17" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="45">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="D17" s="45">
+        <v>0</v>
+      </c>
+      <c r="E17" s="45">
+        <v>0.47429999999999994</v>
+      </c>
+      <c r="F17" s="45">
+        <v>0</v>
+      </c>
+      <c r="G17" s="45">
+        <v>0</v>
+      </c>
+      <c r="H17" s="45">
+        <v>0</v>
+      </c>
+      <c r="I17" s="45">
+        <v>0</v>
+      </c>
+      <c r="J17" s="45">
+        <v>0.3508</v>
+      </c>
+      <c r="K17" s="45">
+        <v>0</v>
+      </c>
+      <c r="L17" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" s="45" t="s">
+        <v>277</v>
+      </c>
+      <c r="B18" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="45">
+        <v>0</v>
+      </c>
+      <c r="D18" s="45">
+        <v>0</v>
+      </c>
+      <c r="E18" s="45">
+        <v>0.58799999999999997</v>
+      </c>
+      <c r="F18" s="45">
+        <v>0.41199999999999998</v>
+      </c>
+      <c r="G18" s="45">
+        <v>0</v>
+      </c>
+      <c r="H18" s="45">
+        <v>0</v>
+      </c>
+      <c r="I18" s="45">
+        <v>0</v>
+      </c>
+      <c r="J18" s="45">
+        <v>0</v>
+      </c>
+      <c r="K18" s="45">
+        <v>0</v>
+      </c>
+      <c r="L18" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" s="45" t="s">
+        <v>278</v>
+      </c>
+      <c r="B19" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="45">
+        <v>0</v>
+      </c>
+      <c r="D19" s="45">
+        <v>0</v>
+      </c>
+      <c r="E19" s="45">
+        <v>0</v>
+      </c>
+      <c r="F19" s="45">
+        <v>1</v>
+      </c>
+      <c r="G19" s="45">
+        <v>0</v>
+      </c>
+      <c r="H19" s="45">
+        <v>0</v>
+      </c>
+      <c r="I19" s="45">
+        <v>0</v>
+      </c>
+      <c r="J19" s="45">
+        <v>0</v>
+      </c>
+      <c r="K19" s="45">
+        <v>0</v>
+      </c>
+      <c r="L19" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" s="45" t="s">
+        <v>279</v>
+      </c>
+      <c r="B20" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="45">
+        <v>0.28970000000000001</v>
+      </c>
+      <c r="D20" s="45">
+        <v>0</v>
+      </c>
+      <c r="E20" s="45">
+        <v>0.71029999999999993</v>
+      </c>
+      <c r="F20" s="45">
+        <v>0</v>
+      </c>
+      <c r="G20" s="45">
+        <v>0</v>
+      </c>
+      <c r="H20" s="45">
+        <v>0</v>
+      </c>
+      <c r="I20" s="45">
+        <v>0</v>
+      </c>
+      <c r="J20" s="45">
+        <v>0</v>
+      </c>
+      <c r="K20" s="45">
+        <v>0</v>
+      </c>
+      <c r="L20" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" s="45" t="s">
+        <v>280</v>
+      </c>
+      <c r="B21" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="45">
+        <v>0</v>
+      </c>
+      <c r="D21" s="45">
+        <v>0</v>
+      </c>
+      <c r="E21" s="45">
+        <v>0.51529999999999998</v>
+      </c>
+      <c r="F21" s="45">
+        <v>0</v>
+      </c>
+      <c r="G21" s="45">
+        <v>0</v>
+      </c>
+      <c r="H21" s="45">
+        <v>0</v>
+      </c>
+      <c r="I21" s="45">
+        <v>0</v>
+      </c>
+      <c r="J21" s="45">
+        <v>0.35470000000000002</v>
+      </c>
+      <c r="K21" s="45">
+        <v>0.12989999999999999</v>
+      </c>
+      <c r="L21" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" s="45" t="s">
+        <v>110</v>
+      </c>
+      <c r="B22" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="45">
+        <v>0</v>
+      </c>
+      <c r="D22" s="45">
+        <v>0</v>
+      </c>
+      <c r="E22" s="45">
+        <v>0.42399999999999999</v>
+      </c>
+      <c r="F22" s="45">
+        <v>0.24809999999999999</v>
+      </c>
+      <c r="G22" s="45">
+        <v>0</v>
+      </c>
+      <c r="H22" s="45">
+        <v>0</v>
+      </c>
+      <c r="I22" s="45">
+        <v>0</v>
+      </c>
+      <c r="J22" s="45">
+        <v>0.32790000000000002</v>
+      </c>
+      <c r="K22" s="45">
+        <v>0</v>
+      </c>
+      <c r="L22" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" s="45" t="s">
+        <v>148</v>
+      </c>
+      <c r="B23" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="45">
+        <v>8.2299999999999998E-2</v>
+      </c>
+      <c r="D23" s="45">
+        <v>0</v>
+      </c>
+      <c r="E23" s="45">
+        <v>0.73469999999999991</v>
+      </c>
+      <c r="F23" s="45">
+        <v>4.24E-2</v>
+      </c>
+      <c r="G23" s="45">
+        <v>0</v>
+      </c>
+      <c r="H23" s="45">
+        <v>0</v>
+      </c>
+      <c r="I23" s="45">
+        <v>0</v>
+      </c>
+      <c r="J23" s="45">
+        <v>0.1406</v>
+      </c>
+      <c r="K23" s="45">
+        <v>0</v>
+      </c>
+      <c r="L23" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24" s="45" t="s">
+        <v>281</v>
+      </c>
+      <c r="B24" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="45">
+        <v>0</v>
+      </c>
+      <c r="D24" s="45">
+        <v>0</v>
+      </c>
+      <c r="E24" s="45">
+        <v>0</v>
+      </c>
+      <c r="F24" s="45">
+        <v>0</v>
+      </c>
+      <c r="G24" s="45">
+        <v>0</v>
+      </c>
+      <c r="H24" s="45">
+        <v>0</v>
+      </c>
+      <c r="I24" s="45">
+        <v>0</v>
+      </c>
+      <c r="J24" s="45">
+        <v>1</v>
+      </c>
+      <c r="K24" s="45">
+        <v>0</v>
+      </c>
+      <c r="L24" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25" s="45" t="s">
+        <v>282</v>
+      </c>
+      <c r="B25" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="45">
+        <v>6.7199999999999996E-2</v>
+      </c>
+      <c r="D25" s="45">
+        <v>0</v>
+      </c>
+      <c r="E25" s="45">
+        <v>0.72060000000000002</v>
+      </c>
+      <c r="F25" s="45">
+        <v>0.2122</v>
+      </c>
+      <c r="G25" s="45">
+        <v>0</v>
+      </c>
+      <c r="H25" s="45">
+        <v>0</v>
+      </c>
+      <c r="I25" s="45">
+        <v>0</v>
+      </c>
+      <c r="J25" s="45">
+        <v>0</v>
+      </c>
+      <c r="K25" s="45">
+        <v>0</v>
+      </c>
+      <c r="L25" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26" s="45" t="s">
+        <v>283</v>
+      </c>
+      <c r="B26" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" s="45">
+        <v>0</v>
+      </c>
+      <c r="D26" s="45">
+        <v>0</v>
+      </c>
+      <c r="E26" s="45">
+        <v>0</v>
+      </c>
+      <c r="F26" s="45">
+        <v>0.95369999999999999</v>
+      </c>
+      <c r="G26" s="45">
+        <v>0</v>
+      </c>
+      <c r="H26" s="45">
+        <v>0</v>
+      </c>
+      <c r="I26" s="45">
+        <v>0</v>
+      </c>
+      <c r="J26" s="45">
+        <v>4.6300000000000001E-2</v>
+      </c>
+      <c r="K26" s="45">
+        <v>0</v>
+      </c>
+      <c r="L26" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27" s="45" t="s">
+        <v>284</v>
+      </c>
+      <c r="B27" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" s="45">
+        <v>0</v>
+      </c>
+      <c r="D27" s="45">
+        <v>0</v>
+      </c>
+      <c r="E27" s="45">
+        <v>1</v>
+      </c>
+      <c r="F27" s="45">
+        <v>0</v>
+      </c>
+      <c r="G27" s="45">
+        <v>0</v>
+      </c>
+      <c r="H27" s="45">
+        <v>0</v>
+      </c>
+      <c r="I27" s="45">
+        <v>0</v>
+      </c>
+      <c r="J27" s="45">
+        <v>0</v>
+      </c>
+      <c r="K27" s="45">
+        <v>0</v>
+      </c>
+      <c r="L27" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A28" s="41" t="s">
+        <v>287</v>
+      </c>
+      <c r="B28" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" s="41">
+        <v>0</v>
+      </c>
+      <c r="D28" s="41">
+        <v>0</v>
+      </c>
+      <c r="E28" s="41">
+        <v>0</v>
+      </c>
+      <c r="F28" s="41">
+        <v>0</v>
+      </c>
+      <c r="G28" s="41">
+        <v>0</v>
+      </c>
+      <c r="H28" s="41">
+        <v>1</v>
+      </c>
+      <c r="I28" s="41">
+        <v>0</v>
+      </c>
+      <c r="J28" s="41">
+        <v>0</v>
+      </c>
+      <c r="K28" s="41">
+        <v>0</v>
+      </c>
+      <c r="L28" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A29" s="41" t="s">
+        <v>288</v>
+      </c>
+      <c r="B29" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" s="41">
+        <v>0</v>
+      </c>
+      <c r="D29" s="41">
+        <v>0</v>
+      </c>
+      <c r="E29" s="41">
+        <v>0</v>
+      </c>
+      <c r="F29" s="41">
+        <v>0</v>
+      </c>
+      <c r="G29" s="41">
+        <v>1</v>
+      </c>
+      <c r="H29" s="41">
+        <v>0</v>
+      </c>
+      <c r="I29" s="41">
+        <v>0</v>
+      </c>
+      <c r="J29" s="41">
+        <v>0</v>
+      </c>
+      <c r="K29" s="41">
+        <v>0</v>
+      </c>
+      <c r="L29" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A30" s="41" t="s">
+        <v>289</v>
+      </c>
+      <c r="B30" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30" s="41">
+        <v>0</v>
+      </c>
+      <c r="D30" s="41">
+        <v>0.44829999999999998</v>
+      </c>
+      <c r="E30" s="41">
+        <v>0</v>
+      </c>
+      <c r="F30" s="41">
+        <v>0</v>
+      </c>
+      <c r="G30" s="41">
+        <v>0</v>
+      </c>
+      <c r="H30" s="41">
+        <v>0.5181</v>
+      </c>
+      <c r="I30" s="41">
+        <v>3.3599999999999998E-2</v>
+      </c>
+      <c r="J30" s="41">
+        <v>0</v>
+      </c>
+      <c r="K30" s="41">
+        <v>0</v>
+      </c>
+      <c r="L30" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A31" s="41" t="s">
+        <v>290</v>
+      </c>
+      <c r="B31" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="C31" s="41">
+        <v>0</v>
+      </c>
+      <c r="D31" s="41">
+        <v>0</v>
+      </c>
+      <c r="E31" s="41">
+        <v>0</v>
+      </c>
+      <c r="F31" s="41">
+        <v>0</v>
+      </c>
+      <c r="G31" s="41">
+        <v>0.73640000000000005</v>
+      </c>
+      <c r="H31" s="41">
+        <v>0</v>
+      </c>
+      <c r="I31" s="41">
+        <v>0.2636</v>
+      </c>
+      <c r="J31" s="41">
+        <v>0</v>
+      </c>
+      <c r="K31" s="41">
+        <v>0</v>
+      </c>
+      <c r="L31" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A32" s="41" t="s">
+        <v>291</v>
+      </c>
+      <c r="B32" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="C32" s="41">
+        <v>0</v>
+      </c>
+      <c r="D32" s="41">
+        <v>0</v>
+      </c>
+      <c r="E32" s="41">
+        <v>0.95189999999999997</v>
+      </c>
+      <c r="F32" s="41">
+        <v>0</v>
+      </c>
+      <c r="G32" s="41">
+        <v>0</v>
+      </c>
+      <c r="H32" s="41">
+        <v>0</v>
+      </c>
+      <c r="I32" s="41">
+        <v>4.8099999999999997E-2</v>
+      </c>
+      <c r="J32" s="41">
+        <v>0</v>
+      </c>
+      <c r="K32" s="41">
+        <v>0</v>
+      </c>
+      <c r="L32" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A33" s="41" t="s">
+        <v>292</v>
+      </c>
+      <c r="B33" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="C33" s="41">
+        <v>2.6800000000000001E-2</v>
+      </c>
+      <c r="D33" s="41">
+        <v>0</v>
+      </c>
+      <c r="E33" s="41">
+        <v>0.1338</v>
+      </c>
+      <c r="F33" s="41">
+        <v>0.80859999999999999</v>
+      </c>
+      <c r="G33" s="41">
+        <v>0</v>
+      </c>
+      <c r="H33" s="41">
+        <v>0</v>
+      </c>
+      <c r="I33" s="41">
+        <v>0</v>
+      </c>
+      <c r="J33" s="41">
+        <v>0</v>
+      </c>
+      <c r="K33" s="41">
+        <v>3.0800000000000001E-2</v>
+      </c>
+      <c r="L33" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A34" s="41" t="s">
+        <v>293</v>
+      </c>
+      <c r="B34" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="C34" s="41">
+        <v>0</v>
+      </c>
+      <c r="D34" s="41">
+        <v>0</v>
+      </c>
+      <c r="E34" s="41">
+        <v>0</v>
+      </c>
+      <c r="F34" s="41">
+        <v>1</v>
+      </c>
+      <c r="G34" s="41">
+        <v>0</v>
+      </c>
+      <c r="H34" s="41">
+        <v>0</v>
+      </c>
+      <c r="I34" s="41">
+        <v>0</v>
+      </c>
+      <c r="J34" s="41">
+        <v>0</v>
+      </c>
+      <c r="K34" s="41">
+        <v>0</v>
+      </c>
+      <c r="L34" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A35" s="41" t="s">
+        <v>169</v>
+      </c>
+      <c r="B35" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="C35" s="41">
+        <v>4.1700000000000001E-2</v>
+      </c>
+      <c r="D35" s="41">
+        <v>0</v>
+      </c>
+      <c r="E35" s="41">
+        <v>0.95830000000000004</v>
+      </c>
+      <c r="F35" s="41">
+        <v>0</v>
+      </c>
+      <c r="G35" s="41">
+        <v>0</v>
+      </c>
+      <c r="H35" s="41">
+        <v>0</v>
+      </c>
+      <c r="I35" s="41">
+        <v>0</v>
+      </c>
+      <c r="J35" s="41">
+        <v>0</v>
+      </c>
+      <c r="K35" s="41">
+        <v>0</v>
+      </c>
+      <c r="L35" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A36" s="47" t="s">
+        <v>125</v>
+      </c>
+      <c r="B36" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="C36" s="47">
+        <v>7.3000000000000001E-3</v>
+      </c>
+      <c r="D36" s="47">
+        <v>0</v>
+      </c>
+      <c r="E36" s="47">
+        <v>0.21590000000000001</v>
+      </c>
+      <c r="F36" s="47">
+        <v>0.18360000000000001</v>
+      </c>
+      <c r="G36" s="47">
+        <v>0</v>
+      </c>
+      <c r="H36" s="47">
+        <v>0</v>
+      </c>
+      <c r="I36" s="47">
+        <v>0</v>
+      </c>
+      <c r="J36" s="47">
+        <v>0.59319999999999995</v>
+      </c>
+      <c r="K36" s="47">
+        <v>0</v>
+      </c>
+      <c r="L36" s="47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A37" s="47" t="s">
+        <v>149</v>
+      </c>
+      <c r="B37" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="C37" s="47">
+        <v>0</v>
+      </c>
+      <c r="D37" s="47">
+        <v>0</v>
+      </c>
+      <c r="E37" s="47">
+        <v>0</v>
+      </c>
+      <c r="F37" s="47">
+        <v>1</v>
+      </c>
+      <c r="G37" s="47">
+        <v>0</v>
+      </c>
+      <c r="H37" s="47">
+        <v>0</v>
+      </c>
+      <c r="I37" s="47">
+        <v>0</v>
+      </c>
+      <c r="J37" s="47">
+        <v>0</v>
+      </c>
+      <c r="K37" s="47">
+        <v>0</v>
+      </c>
+      <c r="L37" s="47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A38" s="47" t="s">
+        <v>294</v>
+      </c>
+      <c r="B38" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="C38" s="47">
+        <v>0</v>
+      </c>
+      <c r="D38" s="47">
+        <v>0</v>
+      </c>
+      <c r="E38" s="47">
+        <v>1</v>
+      </c>
+      <c r="F38" s="47">
+        <v>0</v>
+      </c>
+      <c r="G38" s="47">
+        <v>0</v>
+      </c>
+      <c r="H38" s="47">
+        <v>0</v>
+      </c>
+      <c r="I38" s="47">
+        <v>0</v>
+      </c>
+      <c r="J38" s="47">
+        <v>0</v>
+      </c>
+      <c r="K38" s="47">
+        <v>0</v>
+      </c>
+      <c r="L38" s="47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A39" s="47" t="s">
+        <v>295</v>
+      </c>
+      <c r="B39" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="C39" s="47">
+        <v>0</v>
+      </c>
+      <c r="D39" s="47">
+        <v>0</v>
+      </c>
+      <c r="E39" s="47">
+        <v>0</v>
+      </c>
+      <c r="F39" s="47">
+        <v>0</v>
+      </c>
+      <c r="G39" s="47">
+        <v>0</v>
+      </c>
+      <c r="H39" s="47">
+        <v>0</v>
+      </c>
+      <c r="I39" s="47">
+        <v>0</v>
+      </c>
+      <c r="J39" s="47">
+        <v>1</v>
+      </c>
+      <c r="K39" s="47">
+        <v>0</v>
+      </c>
+      <c r="L39" s="47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A40" s="47" t="s">
+        <v>146</v>
+      </c>
+      <c r="B40" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="C40" s="47">
+        <v>0</v>
+      </c>
+      <c r="D40" s="47">
+        <v>0</v>
+      </c>
+      <c r="E40" s="47">
+        <v>1</v>
+      </c>
+      <c r="F40" s="47">
+        <v>0</v>
+      </c>
+      <c r="G40" s="47">
+        <v>0</v>
+      </c>
+      <c r="H40" s="47">
+        <v>0</v>
+      </c>
+      <c r="I40" s="47">
+        <v>0</v>
+      </c>
+      <c r="J40" s="47">
+        <v>0</v>
+      </c>
+      <c r="K40" s="47">
+        <v>0</v>
+      </c>
+      <c r="L40" s="47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A41" s="47" t="s">
+        <v>296</v>
+      </c>
+      <c r="B41" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="C41" s="47">
+        <v>8.3299999999999999E-2</v>
+      </c>
+      <c r="D41" s="47">
+        <v>0</v>
+      </c>
+      <c r="E41" s="47">
+        <v>2.86E-2</v>
+      </c>
+      <c r="F41" s="47">
+        <v>0.88800000000000001</v>
+      </c>
+      <c r="G41" s="47">
+        <v>0</v>
+      </c>
+      <c r="H41" s="47">
+        <v>0</v>
+      </c>
+      <c r="I41" s="47">
+        <v>0</v>
+      </c>
+      <c r="J41" s="47">
+        <v>0</v>
+      </c>
+      <c r="K41" s="47">
+        <v>0</v>
+      </c>
+      <c r="L41" s="47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A42" s="41" t="s">
+        <v>205</v>
+      </c>
+      <c r="B42" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="C42" s="41">
+        <v>0</v>
+      </c>
+      <c r="D42" s="41">
+        <v>0</v>
+      </c>
+      <c r="E42" s="41">
+        <v>0.25379999999999997</v>
+      </c>
+      <c r="F42" s="41">
+        <v>0</v>
+      </c>
+      <c r="G42" s="41">
+        <v>0.54720000000000002</v>
+      </c>
+      <c r="H42" s="41">
+        <v>0</v>
+      </c>
+      <c r="I42" s="41">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="J42" s="41">
+        <v>0</v>
+      </c>
+      <c r="K42" s="41">
+        <v>0</v>
+      </c>
+      <c r="L42" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A43" s="41" t="s">
+        <v>162</v>
+      </c>
+      <c r="B43" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="C43" s="41">
+        <v>0</v>
+      </c>
+      <c r="D43" s="41">
+        <v>0</v>
+      </c>
+      <c r="E43" s="41">
+        <v>0.2215</v>
+      </c>
+      <c r="F43" s="41">
+        <v>0</v>
+      </c>
+      <c r="G43" s="41">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="H43" s="41">
+        <v>0</v>
+      </c>
+      <c r="I43" s="41">
+        <v>0.63660000000000005</v>
+      </c>
+      <c r="J43" s="41">
+        <v>0</v>
+      </c>
+      <c r="K43" s="41">
+        <v>0</v>
+      </c>
+      <c r="L43" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A44" s="41" t="s">
+        <v>196</v>
+      </c>
+      <c r="B44" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="C44" s="41">
+        <v>0</v>
+      </c>
+      <c r="D44" s="41">
+        <v>0</v>
+      </c>
+      <c r="E44" s="41">
+        <v>0</v>
+      </c>
+      <c r="F44" s="41">
+        <v>0</v>
+      </c>
+      <c r="G44" s="41">
+        <v>0</v>
+      </c>
+      <c r="H44" s="41">
+        <v>0</v>
+      </c>
+      <c r="I44" s="41">
+        <v>0</v>
+      </c>
+      <c r="J44" s="41">
+        <v>1</v>
+      </c>
+      <c r="K44" s="41">
+        <v>0</v>
+      </c>
+      <c r="L44" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A45" s="41" t="s">
+        <v>181</v>
+      </c>
+      <c r="B45" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="C45" s="41">
+        <v>0</v>
+      </c>
+      <c r="D45" s="41">
+        <v>0</v>
+      </c>
+      <c r="E45" s="41">
+        <v>1</v>
+      </c>
+      <c r="F45" s="41">
+        <v>0</v>
+      </c>
+      <c r="G45" s="41">
+        <v>0</v>
+      </c>
+      <c r="H45" s="41">
+        <v>0</v>
+      </c>
+      <c r="I45" s="41">
+        <v>0</v>
+      </c>
+      <c r="J45" s="41">
+        <v>0</v>
+      </c>
+      <c r="K45" s="41">
+        <v>0</v>
+      </c>
+      <c r="L45" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A46" s="41" t="s">
+        <v>203</v>
+      </c>
+      <c r="B46" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46" s="41">
+        <v>9.5299999999999996E-2</v>
+      </c>
+      <c r="D46" s="41">
+        <v>0</v>
+      </c>
+      <c r="E46" s="41">
+        <v>0.90469999999999995</v>
+      </c>
+      <c r="F46" s="41">
+        <v>0</v>
+      </c>
+      <c r="G46" s="41">
+        <v>0</v>
+      </c>
+      <c r="H46" s="41">
+        <v>0</v>
+      </c>
+      <c r="I46" s="41">
+        <v>0</v>
+      </c>
+      <c r="J46" s="41">
+        <v>0</v>
+      </c>
+      <c r="K46" s="41">
+        <v>0</v>
+      </c>
+      <c r="L46" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="41" t="s">
+        <v>285</v>
+      </c>
+      <c r="B47" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="C47" s="41">
+        <v>0</v>
+      </c>
+      <c r="D47" s="41">
+        <v>0</v>
+      </c>
+      <c r="E47" s="41">
+        <v>0</v>
+      </c>
+      <c r="F47" s="41">
+        <v>0</v>
+      </c>
+      <c r="G47" s="41">
+        <v>0</v>
+      </c>
+      <c r="H47" s="41">
+        <v>0</v>
+      </c>
+      <c r="I47" s="41">
+        <v>0</v>
+      </c>
+      <c r="J47" s="41">
+        <v>0</v>
+      </c>
+      <c r="K47" s="41">
+        <v>0</v>
+      </c>
+      <c r="L47" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A48" s="46" t="s">
+        <v>300</v>
+      </c>
+      <c r="B48" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="C48" s="46">
+        <v>0</v>
+      </c>
+      <c r="D48" s="46">
+        <v>0</v>
+      </c>
+      <c r="E48" s="46">
+        <v>0</v>
+      </c>
+      <c r="F48" s="46">
+        <v>0</v>
+      </c>
+      <c r="G48" s="46">
+        <v>0</v>
+      </c>
+      <c r="H48" s="46">
+        <v>0</v>
+      </c>
+      <c r="I48" s="46">
+        <v>0</v>
+      </c>
+      <c r="J48" s="46">
+        <v>0</v>
+      </c>
+      <c r="K48" s="46">
+        <v>0</v>
+      </c>
+      <c r="L48" s="46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A49" s="46" t="s">
+        <v>301</v>
+      </c>
+      <c r="B49" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="C49" s="46">
+        <v>0</v>
+      </c>
+      <c r="D49" s="46">
+        <v>0</v>
+      </c>
+      <c r="E49" s="46">
+        <v>0</v>
+      </c>
+      <c r="F49" s="46">
+        <v>0</v>
+      </c>
+      <c r="G49" s="46">
+        <v>0</v>
+      </c>
+      <c r="H49" s="46">
+        <v>0</v>
+      </c>
+      <c r="I49" s="46">
+        <v>0</v>
+      </c>
+      <c r="J49" s="46">
+        <v>0</v>
+      </c>
+      <c r="K49" s="46">
+        <v>0</v>
+      </c>
+      <c r="L49" s="46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A50" s="46" t="s">
+        <v>302</v>
+      </c>
+      <c r="B50" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="C50" s="46">
+        <v>0</v>
+      </c>
+      <c r="D50" s="46">
+        <v>0</v>
+      </c>
+      <c r="E50" s="46">
+        <v>0</v>
+      </c>
+      <c r="F50" s="46">
+        <v>0</v>
+      </c>
+      <c r="G50" s="46">
+        <v>0</v>
+      </c>
+      <c r="H50" s="46">
+        <v>0</v>
+      </c>
+      <c r="I50" s="46">
+        <v>0</v>
+      </c>
+      <c r="J50" s="46">
+        <v>0</v>
+      </c>
+      <c r="K50" s="46">
+        <v>0</v>
+      </c>
+      <c r="L50" s="46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A51" s="46" t="s">
+        <v>129</v>
+      </c>
+      <c r="B51" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="C51" s="46">
+        <v>0</v>
+      </c>
+      <c r="D51" s="46">
+        <v>0</v>
+      </c>
+      <c r="E51" s="46">
+        <v>0</v>
+      </c>
+      <c r="F51" s="46">
+        <v>0</v>
+      </c>
+      <c r="G51" s="46">
+        <v>0</v>
+      </c>
+      <c r="H51" s="46">
+        <v>0</v>
+      </c>
+      <c r="I51" s="46">
+        <v>0</v>
+      </c>
+      <c r="J51" s="46">
+        <v>0</v>
+      </c>
+      <c r="K51" s="46">
+        <v>0</v>
+      </c>
+      <c r="L51" s="46">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1664,26 +3670,26 @@
       <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="20.140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="20.109375" style="3" customWidth="1"/>
     <col min="3" max="3" width="16" style="3" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" customWidth="1"/>
-    <col min="8" max="8" width="22.85546875" customWidth="1"/>
-    <col min="9" max="9" width="19.42578125" customWidth="1"/>
-    <col min="12" max="12" width="19.42578125" customWidth="1"/>
-    <col min="13" max="13" width="25.140625" style="3" customWidth="1"/>
-    <col min="14" max="14" width="26.28515625" customWidth="1"/>
-    <col min="15" max="15" width="17.7109375" style="3" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" customWidth="1"/>
-    <col min="17" max="17" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.28515625" style="4" customWidth="1"/>
-    <col min="19" max="19" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.28515625" customWidth="1"/>
-    <col min="21" max="21" width="16.5703125" customWidth="1"/>
+    <col min="5" max="5" width="17.109375" customWidth="1"/>
+    <col min="8" max="8" width="22.88671875" customWidth="1"/>
+    <col min="9" max="9" width="19.44140625" customWidth="1"/>
+    <col min="12" max="12" width="19.44140625" customWidth="1"/>
+    <col min="13" max="13" width="25.109375" style="3" customWidth="1"/>
+    <col min="14" max="14" width="26.33203125" customWidth="1"/>
+    <col min="15" max="15" width="17.6640625" style="3" customWidth="1"/>
+    <col min="16" max="16" width="14.88671875" customWidth="1"/>
+    <col min="17" max="17" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.33203125" style="4" customWidth="1"/>
+    <col min="19" max="19" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.33203125" customWidth="1"/>
+    <col min="21" max="21" width="16.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B1" s="5">
         <v>7146.0320000000002</v>
       </c>
@@ -1699,7 +3705,7 @@
       <c r="O1" s="5"/>
       <c r="P1" s="1"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B2" s="5">
         <v>2175338.3840000001</v>
       </c>
@@ -1725,7 +3731,7 @@
       <c r="O2" s="5"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B3" s="5">
         <v>442686.37599999999</v>
       </c>
@@ -1749,7 +3755,7 @@
       <c r="O3" s="5"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B4" s="5">
         <v>25927.940999999999</v>
       </c>
@@ -1776,7 +3782,7 @@
       <c r="O4" s="5"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -1811,7 +3817,7 @@
       <c r="O5" s="5"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B6" s="5"/>
       <c r="C6" s="5">
         <v>769684.61699999997</v>
@@ -1836,7 +3842,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C7" s="5">
         <v>776580.14399999997</v>
       </c>
@@ -1860,7 +3866,7 @@
         <v>12285185.104948564</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C8" s="5">
         <f>SUM(C1:C7)</f>
         <v>2491596.338</v>
@@ -1884,7 +3890,7 @@
         <v>901800.89505143708</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="E9" s="5">
         <f>B6+C8</f>
         <v>2491596.338</v>
@@ -1906,12 +3912,12 @@
         <v>15070841</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="L12" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="L13" s="3" t="s">
         <v>29</v>
       </c>
@@ -1928,7 +3934,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="L14" s="8">
         <v>5478066.2400000002</v>
       </c>
@@ -1954,7 +3960,7 @@
         <v>4313977.0977821741</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="L15" s="8"/>
       <c r="M15" s="5">
         <v>315745.96999999997</v>
@@ -1979,7 +3985,7 @@
         <v>5197670.9022178268</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="K16" t="s">
         <v>14</v>
       </c>
@@ -2005,7 +4011,7 @@
       </c>
       <c r="S16" s="3"/>
     </row>
-    <row r="17" spans="11:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="11:19" x14ac:dyDescent="0.3">
       <c r="K17" t="s">
         <v>30</v>
       </c>
@@ -2015,18 +4021,18 @@
         <v>12078283.359999999</v>
       </c>
     </row>
-    <row r="18" spans="11:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="11:19" x14ac:dyDescent="0.3">
       <c r="L18" s="3"/>
     </row>
-    <row r="19" spans="11:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="11:19" x14ac:dyDescent="0.3">
       <c r="L19" s="3"/>
     </row>
-    <row r="20" spans="11:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="11:19" x14ac:dyDescent="0.3">
       <c r="L20" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="11:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="11:19" x14ac:dyDescent="0.3">
       <c r="L21" s="3" t="s">
         <v>29</v>
       </c>
@@ -2043,7 +4049,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="11:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="11:19" x14ac:dyDescent="0.3">
       <c r="L22" s="3">
         <v>5478066.2400000002</v>
       </c>
@@ -2068,7 +4074,7 @@
         <v>479330.43588387553</v>
       </c>
     </row>
-    <row r="23" spans="11:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="11:19" x14ac:dyDescent="0.3">
       <c r="L23" s="3"/>
       <c r="M23" s="3">
         <v>315745.96999999997</v>
@@ -2091,7 +4097,7 @@
         <v>577518.56411612465</v>
       </c>
     </row>
-    <row r="24" spans="11:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="11:19" x14ac:dyDescent="0.3">
       <c r="K24" t="s">
         <v>14</v>
       </c>
@@ -2117,7 +4123,7 @@
         <v>1207828.0000000002</v>
       </c>
     </row>
-    <row r="25" spans="11:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="11:19" x14ac:dyDescent="0.3">
       <c r="K25" t="s">
         <v>30</v>
       </c>
@@ -2125,12 +4131,12 @@
         <v>12078283.359999999</v>
       </c>
     </row>
-    <row r="35" spans="14:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="14:21" x14ac:dyDescent="0.3">
       <c r="N35" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="14:21" x14ac:dyDescent="0.25">
+    <row r="36" spans="14:21" x14ac:dyDescent="0.3">
       <c r="N36" t="s">
         <v>29</v>
       </c>
@@ -2138,7 +4144,7 @@
         <v>5923319.2699999996</v>
       </c>
     </row>
-    <row r="37" spans="14:21" x14ac:dyDescent="0.25">
+    <row r="37" spans="14:21" x14ac:dyDescent="0.3">
       <c r="N37" t="s">
         <v>33</v>
       </c>
@@ -2146,7 +4152,7 @@
         <v>317931.49</v>
       </c>
     </row>
-    <row r="38" spans="14:21" x14ac:dyDescent="0.25">
+    <row r="38" spans="14:21" x14ac:dyDescent="0.3">
       <c r="N38" t="s">
         <v>14</v>
       </c>
@@ -2164,7 +4170,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="39" spans="14:21" x14ac:dyDescent="0.25">
+    <row r="39" spans="14:21" x14ac:dyDescent="0.3">
       <c r="N39" t="s">
         <v>34</v>
       </c>
@@ -2191,7 +4197,7 @@
         <v>5386258.0510686319</v>
       </c>
     </row>
-    <row r="40" spans="14:21" x14ac:dyDescent="0.25">
+    <row r="40" spans="14:21" x14ac:dyDescent="0.3">
       <c r="N40" t="s">
         <v>35</v>
       </c>
@@ -2218,7 +4224,7 @@
         <v>6037755.4941627374</v>
       </c>
     </row>
-    <row r="41" spans="14:21" x14ac:dyDescent="0.25">
+    <row r="41" spans="14:21" x14ac:dyDescent="0.3">
       <c r="N41" t="s">
         <v>36</v>
       </c>
@@ -2245,7 +4251,7 @@
         <v>4823437.4547686297</v>
       </c>
     </row>
-    <row r="42" spans="14:21" x14ac:dyDescent="0.25">
+    <row r="42" spans="14:21" x14ac:dyDescent="0.3">
       <c r="N42" t="s">
         <v>37</v>
       </c>
@@ -2269,7 +4275,7 @@
         <v>16247450.999999998</v>
       </c>
     </row>
-    <row r="43" spans="14:21" x14ac:dyDescent="0.25">
+    <row r="43" spans="14:21" x14ac:dyDescent="0.3">
       <c r="N43" t="s">
         <v>14</v>
       </c>
@@ -2278,7 +4284,7 @@
         <v>12585254.568999998</v>
       </c>
     </row>
-    <row r="44" spans="14:21" x14ac:dyDescent="0.25">
+    <row r="44" spans="14:21" x14ac:dyDescent="0.3">
       <c r="N44" t="s">
         <v>30</v>
       </c>
@@ -2287,7 +4293,7 @@
         <v>18826505.328999996</v>
       </c>
     </row>
-    <row r="48" spans="14:21" x14ac:dyDescent="0.25">
+    <row r="48" spans="14:21" x14ac:dyDescent="0.3">
       <c r="N48" t="s">
         <v>41</v>
       </c>
@@ -2295,7 +4301,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="49" spans="14:20" x14ac:dyDescent="0.25">
+    <row r="49" spans="14:20" x14ac:dyDescent="0.3">
       <c r="N49" t="s">
         <v>42</v>
       </c>
@@ -2315,7 +4321,7 @@
         <v>4142488.1873903489</v>
       </c>
     </row>
-    <row r="50" spans="14:20" x14ac:dyDescent="0.25">
+    <row r="50" spans="14:20" x14ac:dyDescent="0.3">
       <c r="N50" t="s">
         <v>43</v>
       </c>
@@ -2335,7 +4341,7 @@
         <v>3815450.8126096507</v>
       </c>
     </row>
-    <row r="51" spans="14:20" x14ac:dyDescent="0.25">
+    <row r="51" spans="14:20" x14ac:dyDescent="0.3">
       <c r="O51" s="3">
         <f>SUM(O49:O50)</f>
         <v>9094786.5099999998</v>
@@ -2357,7 +4363,7 @@
         <v>9094787</v>
       </c>
     </row>
-    <row r="54" spans="14:20" x14ac:dyDescent="0.25">
+    <row r="54" spans="14:20" x14ac:dyDescent="0.3">
       <c r="N54" t="s">
         <v>44</v>
       </c>
@@ -2365,7 +4371,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="55" spans="14:20" x14ac:dyDescent="0.25">
+    <row r="55" spans="14:20" x14ac:dyDescent="0.3">
       <c r="N55" t="s">
         <v>42</v>
       </c>
@@ -2382,7 +4388,7 @@
         <v>4142488.1873903489</v>
       </c>
     </row>
-    <row r="56" spans="14:20" x14ac:dyDescent="0.25">
+    <row r="56" spans="14:20" x14ac:dyDescent="0.3">
       <c r="N56" t="s">
         <v>43</v>
       </c>
@@ -2399,7 +4405,7 @@
         <v>3815450.8126096507</v>
       </c>
     </row>
-    <row r="57" spans="14:20" x14ac:dyDescent="0.25">
+    <row r="57" spans="14:20" x14ac:dyDescent="0.3">
       <c r="P57">
         <v>1</v>
       </c>
@@ -2413,7 +4419,7 @@
         <v>9094787</v>
       </c>
     </row>
-    <row r="58" spans="14:20" x14ac:dyDescent="0.25">
+    <row r="58" spans="14:20" x14ac:dyDescent="0.3">
       <c r="N58" t="s">
         <v>45</v>
       </c>
@@ -2427,7 +4433,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="59" spans="14:20" x14ac:dyDescent="0.25">
+    <row r="59" spans="14:20" x14ac:dyDescent="0.3">
       <c r="N59" t="s">
         <v>18</v>
       </c>
@@ -2454,7 +4460,7 @@
         <v>4989638.1726636579</v>
       </c>
     </row>
-    <row r="60" spans="14:20" x14ac:dyDescent="0.25">
+    <row r="60" spans="14:20" x14ac:dyDescent="0.3">
       <c r="N60" t="s">
         <v>43</v>
       </c>
@@ -2481,7 +4487,7 @@
         <v>5464314.8273363421</v>
       </c>
     </row>
-    <row r="61" spans="14:20" x14ac:dyDescent="0.25">
+    <row r="61" spans="14:20" x14ac:dyDescent="0.3">
       <c r="N61" t="s">
         <v>46</v>
       </c>
@@ -2501,7 +4507,7 @@
         <v>10453953</v>
       </c>
     </row>
-    <row r="62" spans="14:20" x14ac:dyDescent="0.25">
+    <row r="62" spans="14:20" x14ac:dyDescent="0.3">
       <c r="N62" t="s">
         <v>43</v>
       </c>
@@ -2510,13 +4516,13 @@
         <v>6244931.3999999994</v>
       </c>
     </row>
-    <row r="63" spans="14:20" x14ac:dyDescent="0.25">
+    <row r="63" spans="14:20" x14ac:dyDescent="0.3">
       <c r="O63" s="3">
         <f>SUM(O59,O62)</f>
         <v>11947375.18</v>
       </c>
     </row>
-    <row r="65" spans="14:20" x14ac:dyDescent="0.25">
+    <row r="65" spans="14:20" x14ac:dyDescent="0.3">
       <c r="N65" t="s">
         <v>47</v>
       </c>
@@ -2530,7 +4536,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="66" spans="14:20" x14ac:dyDescent="0.25">
+    <row r="66" spans="14:20" x14ac:dyDescent="0.3">
       <c r="N66" t="s">
         <v>38</v>
       </c>
@@ -2553,7 +4559,7 @@
         <v>4989638.1726636579</v>
       </c>
     </row>
-    <row r="67" spans="14:20" x14ac:dyDescent="0.25">
+    <row r="67" spans="14:20" x14ac:dyDescent="0.3">
       <c r="N67" t="s">
         <v>43</v>
       </c>
@@ -2574,7 +4580,7 @@
         <v>5464314.8273363421</v>
       </c>
     </row>
-    <row r="68" spans="14:20" x14ac:dyDescent="0.25">
+    <row r="68" spans="14:20" x14ac:dyDescent="0.3">
       <c r="N68" t="s">
         <v>46</v>
       </c>
@@ -2591,7 +4597,7 @@
         <v>10453953</v>
       </c>
     </row>
-    <row r="69" spans="14:20" x14ac:dyDescent="0.25">
+    <row r="69" spans="14:20" x14ac:dyDescent="0.3">
       <c r="N69" t="s">
         <v>43</v>
       </c>
@@ -2599,7 +4605,7 @@
         <v>6244931.3999999994</v>
       </c>
     </row>
-    <row r="70" spans="14:20" x14ac:dyDescent="0.25">
+    <row r="70" spans="14:20" x14ac:dyDescent="0.3">
       <c r="O70" s="5">
         <v>11947375.18</v>
       </c>
@@ -2613,34 +4619,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S104"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G107" sqref="G107"/>
+    <sheetView showGridLines="0" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1"/>
-    <col min="11" max="11" width="14.140625" customWidth="1"/>
-    <col min="12" max="12" width="16.7109375" customWidth="1"/>
+    <col min="1" max="1" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" customWidth="1"/>
+    <col min="5" max="5" width="13.44140625" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" customWidth="1"/>
+    <col min="9" max="9" width="13.44140625" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1"/>
+    <col min="11" max="11" width="14.109375" customWidth="1"/>
+    <col min="12" max="12" width="16.6640625" customWidth="1"/>
     <col min="13" max="13" width="14" customWidth="1"/>
-    <col min="14" max="14" width="10.28515625" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" customWidth="1"/>
-    <col min="16" max="17" width="16.42578125" customWidth="1"/>
+    <col min="14" max="14" width="10.33203125" customWidth="1"/>
+    <col min="15" max="15" width="14.44140625" customWidth="1"/>
+    <col min="16" max="17" width="16.44140625" customWidth="1"/>
     <col min="18" max="18" width="15" customWidth="1"/>
-    <col min="19" max="19" width="10.140625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="10.109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" s="11" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="28" t="s">
         <v>88</v>
       </c>
@@ -2699,7 +4705,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="18">
         <v>1</v>
       </c>
@@ -2736,7 +4742,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="18">
         <v>2</v>
       </c>
@@ -2773,7 +4779,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="18">
         <v>3</v>
       </c>
@@ -2810,7 +4816,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="18">
         <v>4</v>
       </c>
@@ -2847,7 +4853,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="18">
         <v>5</v>
       </c>
@@ -2884,7 +4890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="18">
         <v>6</v>
       </c>
@@ -2921,7 +4927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="18">
         <v>7</v>
       </c>
@@ -2960,7 +4966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="18">
         <v>8</v>
       </c>
@@ -2997,7 +5003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="18">
         <v>9</v>
       </c>
@@ -3036,7 +5042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="18">
         <v>10</v>
       </c>
@@ -3075,7 +5081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="18">
         <v>11</v>
       </c>
@@ -3114,7 +5120,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="18">
         <v>12</v>
       </c>
@@ -3155,7 +5161,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="18">
         <v>13</v>
       </c>
@@ -3194,7 +5200,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="18">
         <v>14</v>
       </c>
@@ -3231,7 +5237,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="20">
         <v>15</v>
       </c>
@@ -3268,7 +5274,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" s="18">
         <v>16</v>
       </c>
@@ -3307,7 +5313,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" s="18">
         <v>17</v>
       </c>
@@ -3344,7 +5350,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" s="18">
         <v>18</v>
       </c>
@@ -3383,7 +5389,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" s="18">
         <v>19</v>
       </c>
@@ -3420,7 +5426,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" s="18">
         <v>20</v>
       </c>
@@ -3457,7 +5463,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" s="18">
         <v>21</v>
       </c>
@@ -3496,7 +5502,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23" s="18">
         <v>22</v>
       </c>
@@ -3533,7 +5539,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24" s="18">
         <v>23</v>
       </c>
@@ -3570,7 +5576,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25" s="18">
         <v>24</v>
       </c>
@@ -3607,7 +5613,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A26" s="18">
         <v>25</v>
       </c>
@@ -3644,7 +5650,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27" s="18">
         <v>26</v>
       </c>
@@ -3683,7 +5689,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A28" s="18">
         <v>27</v>
       </c>
@@ -3722,7 +5728,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A29" s="18">
         <v>28</v>
       </c>
@@ -3759,7 +5765,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A30" s="18">
         <v>29</v>
       </c>
@@ -3798,7 +5804,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A31" s="18">
         <v>30</v>
       </c>
@@ -3839,7 +5845,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A32" s="18">
         <v>31</v>
       </c>
@@ -3876,7 +5882,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A33" s="18">
         <v>32</v>
       </c>
@@ -3913,7 +5919,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A34" s="18">
         <v>33</v>
       </c>
@@ -3950,7 +5956,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:19" s="43" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" s="43" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="41">
         <v>34</v>
       </c>
@@ -3991,7 +5997,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A36" s="20">
         <v>35</v>
       </c>
@@ -4030,7 +6036,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A37" s="18">
         <v>36</v>
       </c>
@@ -4069,7 +6075,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A38" s="18">
         <v>37</v>
       </c>
@@ -4106,7 +6112,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A39" s="18">
         <v>38</v>
       </c>
@@ -4143,7 +6149,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A40" s="18">
         <v>39</v>
       </c>
@@ -4182,7 +6188,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A41" s="18">
         <v>40</v>
       </c>
@@ -4219,7 +6225,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A42" s="18">
         <v>41</v>
       </c>
@@ -4256,7 +6262,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A43" s="18">
         <v>42</v>
       </c>
@@ -4293,7 +6299,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A44" s="18">
         <v>43</v>
       </c>
@@ -4334,7 +6340,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A45" s="18">
         <v>44</v>
       </c>
@@ -4373,7 +6379,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A46" s="18">
         <v>45</v>
       </c>
@@ -4410,7 +6416,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A47" s="18">
         <v>46</v>
       </c>
@@ -4447,7 +6453,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A48" s="18">
         <v>47</v>
       </c>
@@ -4484,7 +6490,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A49" s="18">
         <v>48</v>
       </c>
@@ -4521,7 +6527,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A50" s="18">
         <v>49</v>
       </c>
@@ -4560,7 +6566,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A51" s="18">
         <v>50</v>
       </c>
@@ -4599,7 +6605,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A52" s="18">
         <v>51</v>
       </c>
@@ -4636,7 +6642,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A53" s="18">
         <v>52</v>
       </c>
@@ -4673,7 +6679,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A54" s="18">
         <v>53</v>
       </c>
@@ -4710,7 +6716,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A55" s="18">
         <v>54</v>
       </c>
@@ -4747,7 +6753,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A56" s="18">
         <v>55</v>
       </c>
@@ -4784,7 +6790,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A57" s="35">
         <v>56</v>
       </c>
@@ -4821,7 +6827,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A58" s="35">
         <v>57</v>
       </c>
@@ -4860,7 +6866,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A59" s="18">
         <v>58</v>
       </c>
@@ -4897,7 +6903,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A60" s="18">
         <v>59</v>
       </c>
@@ -4934,7 +6940,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A61" s="18">
         <v>60</v>
       </c>
@@ -4971,7 +6977,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A62" s="18">
         <v>61</v>
       </c>
@@ -5008,7 +7014,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:19" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:19" s="39" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="35">
         <v>62</v>
       </c>
@@ -5044,7 +7050,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A64" s="18">
         <v>63</v>
       </c>
@@ -5083,7 +7089,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A65" s="18">
         <v>64</v>
       </c>
@@ -5123,7 +7129,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A66" s="18">
         <v>65</v>
       </c>
@@ -5161,7 +7167,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A67" s="18">
         <v>66</v>
       </c>
@@ -5200,7 +7206,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A68" s="18">
         <v>67</v>
       </c>
@@ -5237,7 +7243,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A69" s="18">
         <v>68</v>
       </c>
@@ -5274,7 +7280,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A70" s="18">
         <v>69</v>
       </c>
@@ -5311,7 +7317,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A71" s="18">
         <v>70</v>
       </c>
@@ -5348,7 +7354,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A72" s="18">
         <v>71</v>
       </c>
@@ -5385,7 +7391,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="73" spans="1:19" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:19" s="39" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A73" s="35">
         <v>72</v>
       </c>
@@ -5425,7 +7431,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A74" s="18">
         <v>73</v>
       </c>
@@ -5462,7 +7468,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A75" s="18">
         <v>74</v>
       </c>
@@ -5499,7 +7505,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A76" s="18">
         <v>75</v>
       </c>
@@ -5538,7 +7544,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="77" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A77" s="18">
         <v>76</v>
       </c>
@@ -5577,7 +7583,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A78" s="18">
         <v>77</v>
       </c>
@@ -5616,7 +7622,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A79" s="18">
         <v>78</v>
       </c>
@@ -5653,7 +7659,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A80" s="18">
         <v>79</v>
       </c>
@@ -5692,7 +7698,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A81" s="18">
         <v>80</v>
       </c>
@@ -5731,7 +7737,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A82" s="18">
         <v>81</v>
       </c>
@@ -5770,7 +7776,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="83" spans="1:19" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:19" s="39" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A83" s="35">
         <v>82</v>
       </c>
@@ -5806,7 +7812,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A84" s="18">
         <v>83</v>
       </c>
@@ -5843,7 +7849,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A85" s="18">
         <v>84</v>
       </c>
@@ -5880,7 +7886,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A86" s="18">
         <v>85</v>
       </c>
@@ -5917,7 +7923,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A87" s="18">
         <v>86</v>
       </c>
@@ -5958,7 +7964,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A88" s="18">
         <v>87</v>
       </c>
@@ -5995,7 +8001,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="89" spans="1:19" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:19" s="39" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A89" s="35">
         <v>88</v>
       </c>
@@ -6032,7 +8038,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="90" spans="1:19" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:19" s="39" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A90" s="35">
         <v>89</v>
       </c>
@@ -6071,7 +8077,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="91" spans="1:19" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:19" s="39" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A91" s="35">
         <v>90</v>
       </c>
@@ -6108,7 +8114,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A92" s="18">
         <v>91</v>
       </c>
@@ -6145,7 +8151,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A93" s="18">
         <v>92</v>
       </c>
@@ -6184,7 +8190,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A94" s="18">
         <v>93</v>
       </c>
@@ -6221,7 +8227,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A95" s="18">
         <v>94</v>
       </c>
@@ -6262,7 +8268,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A96" s="18">
         <v>95</v>
       </c>
@@ -6299,7 +8305,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A97" s="18">
         <v>96</v>
       </c>
@@ -6338,7 +8344,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="98" spans="1:19" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:19" s="39" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A98" s="35">
         <v>97</v>
       </c>
@@ -6378,7 +8384,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A99" s="18">
         <v>98</v>
       </c>
@@ -6417,7 +8423,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A100" s="18">
         <v>99</v>
       </c>
@@ -6454,7 +8460,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A101" s="18">
         <v>100</v>
       </c>
@@ -6491,7 +8497,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A102" s="18">
         <v>101</v>
       </c>
@@ -6528,7 +8534,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A103" s="18">
         <v>102</v>
       </c>
@@ -6565,7 +8571,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
@@ -6597,21 +8603,21 @@
       <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.7109375" customWidth="1"/>
-    <col min="2" max="2" width="6.140625" customWidth="1"/>
-    <col min="3" max="3" width="5.42578125" customWidth="1"/>
-    <col min="4" max="4" width="3.85546875" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="19.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.6640625" customWidth="1"/>
+    <col min="2" max="2" width="6.109375" customWidth="1"/>
+    <col min="3" max="3" width="5.44140625" customWidth="1"/>
+    <col min="4" max="4" width="3.88671875" customWidth="1"/>
+    <col min="5" max="5" width="15.44140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.5546875" style="1" customWidth="1"/>
     <col min="9" max="9" width="13" style="1" customWidth="1"/>
-    <col min="10" max="10" width="13.28515625" customWidth="1"/>
-    <col min="13" max="13" width="10.85546875" customWidth="1"/>
-    <col min="14" max="14" width="15.85546875" customWidth="1"/>
+    <col min="10" max="10" width="13.33203125" customWidth="1"/>
+    <col min="13" max="13" width="10.88671875" customWidth="1"/>
+    <col min="14" max="14" width="15.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="5:9" x14ac:dyDescent="0.3">
       <c r="G2" s="1" t="s">
         <v>42</v>
       </c>
@@ -6619,7 +8625,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="5:9" x14ac:dyDescent="0.3">
       <c r="G3" s="1">
         <v>17644936.100000001</v>
       </c>
@@ -6627,7 +8633,7 @@
         <v>204301.34</v>
       </c>
     </row>
-    <row r="4" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="5:9" x14ac:dyDescent="0.3">
       <c r="G4" s="1">
         <v>-166123.07999999999</v>
       </c>
@@ -6635,7 +8641,7 @@
         <v>98414.79</v>
       </c>
     </row>
-    <row r="5" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="5:9" x14ac:dyDescent="0.3">
       <c r="G5" s="1">
         <v>4900152.0999999996</v>
       </c>
@@ -6643,7 +8649,7 @@
         <v>3557905.85</v>
       </c>
     </row>
-    <row r="6" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="5:9" x14ac:dyDescent="0.3">
       <c r="G6" s="1">
         <v>286245</v>
       </c>
@@ -6651,7 +8657,7 @@
         <v>866744.93</v>
       </c>
     </row>
-    <row r="7" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="5:9" x14ac:dyDescent="0.3">
       <c r="G7" s="1">
         <v>619378.32999999996</v>
       </c>
@@ -6659,7 +8665,7 @@
         <v>161285.35999999999</v>
       </c>
     </row>
-    <row r="8" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="5:9" x14ac:dyDescent="0.3">
       <c r="G8" s="5">
         <f>SUM(G3:G7)</f>
         <v>23284588.450000003</v>
@@ -6668,7 +8674,7 @@
         <v>15775.98</v>
       </c>
     </row>
-    <row r="9" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="5:9" x14ac:dyDescent="0.3">
       <c r="G9" s="5">
         <v>28737182.920000002</v>
       </c>
@@ -6676,7 +8682,7 @@
         <v>14288.02</v>
       </c>
     </row>
-    <row r="10" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="5:9" x14ac:dyDescent="0.3">
       <c r="G10" s="5">
         <f>G9-G8</f>
         <v>5452594.4699999988</v>
@@ -6685,13 +8691,13 @@
         <v>53423.24</v>
       </c>
     </row>
-    <row r="11" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="5:9" x14ac:dyDescent="0.3">
       <c r="I11" s="5">
         <f>SUM(I3:I10)</f>
         <v>4972139.5100000007</v>
       </c>
     </row>
-    <row r="14" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E14" s="1" t="s">
         <v>18</v>
       </c>
@@ -6699,7 +8705,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E15" s="1">
         <v>875966.73300000001</v>
       </c>
@@ -6707,7 +8713,7 @@
         <v>46900.13</v>
       </c>
     </row>
-    <row r="16" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E16" s="1">
         <v>906433.66399999999</v>
       </c>
@@ -6715,7 +8721,7 @@
         <v>2590080.1800000002</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="E17" s="1">
         <f>SUM(E15:E16)</f>
         <v>1782400.3969999999</v>
@@ -6724,7 +8730,7 @@
         <v>1949709.13</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="E18" s="1">
         <v>7172327.3300000001</v>
       </c>
@@ -6732,7 +8738,7 @@
         <v>1366206.83</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="E19" s="5">
         <f>E18-E17</f>
         <v>5389926.9330000002</v>
@@ -6741,23 +8747,23 @@
         <v>739134.85</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="G20" s="1">
         <v>379009.28000000003</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="G21" s="1">
         <v>600581.69999999995</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="G22" s="1">
         <f>SUM(G15:G21)</f>
         <v>7671622.0999999996</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="16" t="s">
         <v>77</v>
       </c>
@@ -6798,16 +8804,16 @@
       <selection activeCell="A2" sqref="A2:N9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.28515625" customWidth="1"/>
-    <col min="2" max="2" width="28.85546875" customWidth="1"/>
-    <col min="9" max="9" width="21.140625" customWidth="1"/>
-    <col min="13" max="13" width="13.5703125" customWidth="1"/>
+    <col min="1" max="1" width="33.33203125" customWidth="1"/>
+    <col min="2" max="2" width="28.88671875" customWidth="1"/>
+    <col min="9" max="9" width="21.109375" customWidth="1"/>
+    <col min="13" max="13" width="13.5546875" customWidth="1"/>
     <col min="14" max="14" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>75</v>
       </c>
@@ -6835,7 +8841,7 @@
         <v>4232587</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>76</v>
       </c>
@@ -6859,7 +8865,7 @@
         <v>8992806</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
         <v>77</v>
       </c>
@@ -6887,7 +8893,7 @@
         <v>5502837.0250000004</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
         <v>78</v>
       </c>
@@ -6915,7 +8921,7 @@
         <v>3191592</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
         <v>79</v>
       </c>
@@ -6941,7 +8947,7 @@
         <v>6275786</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
         <v>80</v>
       </c>
@@ -6965,7 +8971,7 @@
         <v>3061893</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
         <v>81</v>
       </c>
@@ -6989,7 +8995,7 @@
         <v>18223550</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
         <v>82</v>
       </c>
@@ -7013,7 +9019,7 @@
         <v>3211140</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>83</v>
       </c>
@@ -7046,18 +9052,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V55"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:A31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" customWidth="1"/>
-    <col min="2" max="21" width="9.7109375" customWidth="1"/>
-    <col min="22" max="22" width="10.28515625" customWidth="1"/>
+    <col min="1" max="1" width="11.88671875" customWidth="1"/>
+    <col min="2" max="21" width="9.6640625" customWidth="1"/>
+    <col min="22" max="22" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>244</v>
       </c>
@@ -7125,7 +9131,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
         <v>265</v>
       </c>
@@ -7151,7 +9157,7 @@
       <c r="U2" s="6"/>
       <c r="V2" s="6"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>266</v>
       </c>
@@ -7177,7 +9183,7 @@
       <c r="U3" s="6"/>
       <c r="V3" s="6"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>267</v>
       </c>
@@ -7203,7 +9209,7 @@
       <c r="U4" s="6"/>
       <c r="V4" s="6"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
         <v>268</v>
       </c>
@@ -7229,7 +9235,7 @@
       <c r="U5" s="6"/>
       <c r="V5" s="6"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" s="18" t="s">
         <v>143</v>
       </c>
@@ -7255,7 +9261,7 @@
       <c r="U6" s="6"/>
       <c r="V6" s="6"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" s="18" t="s">
         <v>174</v>
       </c>
@@ -7281,7 +9287,7 @@
       <c r="U7" s="6"/>
       <c r="V7" s="6"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" s="18" t="s">
         <v>269</v>
       </c>
@@ -7307,7 +9313,7 @@
       <c r="U8" s="6"/>
       <c r="V8" s="6"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" s="18" t="s">
         <v>270</v>
       </c>
@@ -7333,7 +9339,7 @@
       <c r="U9" s="6"/>
       <c r="V9" s="6"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" s="18" t="s">
         <v>271</v>
       </c>
@@ -7359,7 +9365,7 @@
       <c r="U10" s="6"/>
       <c r="V10" s="6"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" s="18" t="s">
         <v>272</v>
       </c>
@@ -7385,7 +9391,7 @@
       <c r="U11" s="6"/>
       <c r="V11" s="6"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" s="18" t="s">
         <v>131</v>
       </c>
@@ -7411,7 +9417,7 @@
       <c r="U12" s="6"/>
       <c r="V12" s="6"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13" s="18" t="s">
         <v>273</v>
       </c>
@@ -7437,7 +9443,7 @@
       <c r="U13" s="6"/>
       <c r="V13" s="6"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14" s="18" t="s">
         <v>274</v>
       </c>
@@ -7463,7 +9469,7 @@
       <c r="U14" s="6"/>
       <c r="V14" s="6"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" s="18" t="s">
         <v>275</v>
       </c>
@@ -7489,7 +9495,7 @@
       <c r="U15" s="6"/>
       <c r="V15" s="6"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" s="18" t="s">
         <v>276</v>
       </c>
@@ -7515,7 +9521,7 @@
       <c r="U16" s="6"/>
       <c r="V16" s="6"/>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A17" s="18" t="s">
         <v>215</v>
       </c>
@@ -7541,7 +9547,7 @@
       <c r="U17" s="6"/>
       <c r="V17" s="6"/>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A18" s="18" t="s">
         <v>277</v>
       </c>
@@ -7567,7 +9573,7 @@
       <c r="U18" s="6"/>
       <c r="V18" s="6"/>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A19" s="18" t="s">
         <v>278</v>
       </c>
@@ -7593,7 +9599,7 @@
       <c r="U19" s="6"/>
       <c r="V19" s="6"/>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A20" s="18" t="s">
         <v>279</v>
       </c>
@@ -7619,7 +9625,7 @@
       <c r="U20" s="6"/>
       <c r="V20" s="6"/>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A21" s="18" t="s">
         <v>280</v>
       </c>
@@ -7645,7 +9651,7 @@
       <c r="U21" s="6"/>
       <c r="V21" s="6"/>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A22" s="18" t="s">
         <v>110</v>
       </c>
@@ -7671,7 +9677,7 @@
       <c r="U22" s="6"/>
       <c r="V22" s="6"/>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A23" s="18" t="s">
         <v>148</v>
       </c>
@@ -7697,7 +9703,7 @@
       <c r="U23" s="6"/>
       <c r="V23" s="6"/>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A24" s="18" t="s">
         <v>281</v>
       </c>
@@ -7723,7 +9729,7 @@
       <c r="U24" s="6"/>
       <c r="V24" s="6"/>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A25" s="18" t="s">
         <v>282</v>
       </c>
@@ -7749,7 +9755,7 @@
       <c r="U25" s="6"/>
       <c r="V25" s="6"/>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A26" s="18" t="s">
         <v>283</v>
       </c>
@@ -7775,7 +9781,7 @@
       <c r="U26" s="6"/>
       <c r="V26" s="6"/>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A27" s="18" t="s">
         <v>284</v>
       </c>
@@ -7801,7 +9807,7 @@
       <c r="U27" s="6"/>
       <c r="V27" s="6"/>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A28" s="19" t="s">
         <v>300</v>
       </c>
@@ -7827,7 +9833,7 @@
       <c r="U28" s="6"/>
       <c r="V28" s="6"/>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A29" s="19" t="s">
         <v>301</v>
       </c>
@@ -7853,7 +9859,7 @@
       <c r="U29" s="6"/>
       <c r="V29" s="6"/>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A30" s="19" t="s">
         <v>302</v>
       </c>
@@ -7879,7 +9885,7 @@
       <c r="U30" s="6"/>
       <c r="V30" s="6"/>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A31" s="19" t="s">
         <v>129</v>
       </c>
@@ -7905,7 +9911,7 @@
       <c r="U31" s="6"/>
       <c r="V31" s="6"/>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A32" s="18" t="s">
         <v>205</v>
       </c>
@@ -7931,7 +9937,7 @@
       <c r="U32" s="6"/>
       <c r="V32" s="6"/>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A33" s="18" t="s">
         <v>162</v>
       </c>
@@ -7957,7 +9963,7 @@
       <c r="U33" s="6"/>
       <c r="V33" s="6"/>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A34" s="18" t="s">
         <v>196</v>
       </c>
@@ -7983,7 +9989,7 @@
       <c r="U34" s="6"/>
       <c r="V34" s="6"/>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A35" s="18" t="s">
         <v>181</v>
       </c>
@@ -8009,7 +10015,7 @@
       <c r="U35" s="6"/>
       <c r="V35" s="6"/>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A36" s="18" t="s">
         <v>203</v>
       </c>
@@ -8035,7 +10041,7 @@
       <c r="U36" s="6"/>
       <c r="V36" s="6"/>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A37" s="18" t="s">
         <v>285</v>
       </c>
@@ -8061,7 +10067,7 @@
       <c r="U37" s="6"/>
       <c r="V37" s="6"/>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A38" s="18" t="s">
         <v>286</v>
       </c>
@@ -8087,7 +10093,7 @@
       <c r="U38" s="6"/>
       <c r="V38" s="6"/>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A39" s="18" t="s">
         <v>287</v>
       </c>
@@ -8113,7 +10119,7 @@
       <c r="U39" s="6"/>
       <c r="V39" s="6"/>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A40" s="18" t="s">
         <v>288</v>
       </c>
@@ -8139,7 +10145,7 @@
       <c r="U40" s="6"/>
       <c r="V40" s="6"/>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A41" s="18" t="s">
         <v>289</v>
       </c>
@@ -8165,7 +10171,7 @@
       <c r="U41" s="6"/>
       <c r="V41" s="6"/>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A42" s="18" t="s">
         <v>290</v>
       </c>
@@ -8191,7 +10197,7 @@
       <c r="U42" s="6"/>
       <c r="V42" s="6"/>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A43" s="18" t="s">
         <v>291</v>
       </c>
@@ -8217,7 +10223,7 @@
       <c r="U43" s="6"/>
       <c r="V43" s="6"/>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A44" s="18" t="s">
         <v>292</v>
       </c>
@@ -8243,7 +10249,7 @@
       <c r="U44" s="6"/>
       <c r="V44" s="6"/>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A45" s="18" t="s">
         <v>293</v>
       </c>
@@ -8269,7 +10275,7 @@
       <c r="U45" s="6"/>
       <c r="V45" s="6"/>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A46" s="18" t="s">
         <v>169</v>
       </c>
@@ -8295,7 +10301,7 @@
       <c r="U46" s="6"/>
       <c r="V46" s="6"/>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A47" s="18" t="s">
         <v>125</v>
       </c>
@@ -8321,7 +10327,7 @@
       <c r="U47" s="6"/>
       <c r="V47" s="6"/>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A48" s="18" t="s">
         <v>149</v>
       </c>
@@ -8347,7 +10353,7 @@
       <c r="U48" s="6"/>
       <c r="V48" s="6"/>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A49" s="18" t="s">
         <v>294</v>
       </c>
@@ -8373,7 +10379,7 @@
       <c r="U49" s="6"/>
       <c r="V49" s="6"/>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A50" s="18" t="s">
         <v>295</v>
       </c>
@@ -8399,7 +10405,7 @@
       <c r="U50" s="6"/>
       <c r="V50" s="6"/>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A51" s="18" t="s">
         <v>146</v>
       </c>
@@ -8425,7 +10431,7 @@
       <c r="U51" s="6"/>
       <c r="V51" s="6"/>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A52" s="18" t="s">
         <v>296</v>
       </c>
@@ -8451,7 +10457,7 @@
       <c r="U52" s="6"/>
       <c r="V52" s="6"/>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A53" s="30" t="s">
         <v>93</v>
       </c>
@@ -8477,7 +10483,7 @@
       <c r="U53" s="6"/>
       <c r="V53" s="6"/>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A54" s="30" t="s">
         <v>95</v>
       </c>
@@ -8503,7 +10509,7 @@
       <c r="U54" s="6"/>
       <c r="V54" s="6"/>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A55" s="30" t="s">
         <v>297</v>
       </c>
@@ -8542,13 +10548,13 @@
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.7109375" customWidth="1"/>
-    <col min="2" max="13" width="9.7109375" customWidth="1"/>
+    <col min="1" max="1" width="24.6640625" customWidth="1"/>
+    <col min="2" max="13" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>244</v>
       </c>
@@ -8589,7 +10595,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>40</v>
       </c>
@@ -8606,7 +10612,7 @@
       <c r="L2" s="18"/>
       <c r="M2" s="18"/>
     </row>
-    <row r="3" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
         <v>48</v>
       </c>
@@ -8623,7 +10629,7 @@
       <c r="L3" s="6"/>
       <c r="M3" s="6"/>
     </row>
-    <row r="4" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
         <v>49</v>
       </c>
@@ -8640,7 +10646,7 @@
       <c r="L4" s="6"/>
       <c r="M4" s="6"/>
     </row>
-    <row r="5" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
         <v>50</v>
       </c>
@@ -8657,7 +10663,7 @@
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
     </row>
-    <row r="6" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="15" t="s">
         <v>51</v>
       </c>
@@ -8674,7 +10680,7 @@
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
     </row>
-    <row r="7" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="s">
         <v>52</v>
       </c>
@@ -8691,7 +10697,7 @@
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
     </row>
-    <row r="8" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="15" t="s">
         <v>53</v>
       </c>
@@ -8708,7 +10714,7 @@
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
     </row>
-    <row r="9" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
         <v>54</v>
       </c>
@@ -8725,7 +10731,7 @@
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
     </row>
-    <row r="10" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
         <v>55</v>
       </c>
@@ -8742,7 +10748,7 @@
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
     </row>
-    <row r="11" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
         <v>56</v>
       </c>
@@ -8759,7 +10765,7 @@
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
     </row>
-    <row r="12" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
         <v>89</v>
       </c>
@@ -8776,134 +10782,134 @@
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
     </row>
-    <row r="13" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="31"/>
     </row>
-    <row r="14" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="31"/>
     </row>
-    <row r="15" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="31"/>
     </row>
-    <row r="16" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="31"/>
     </row>
-    <row r="17" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="31"/>
     </row>
-    <row r="18" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="31"/>
     </row>
-    <row r="19" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="31"/>
     </row>
-    <row r="20" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="31"/>
     </row>
-    <row r="21" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="31"/>
     </row>
-    <row r="22" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="31"/>
     </row>
-    <row r="23" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="31"/>
     </row>
-    <row r="24" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="31"/>
     </row>
-    <row r="25" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="31"/>
     </row>
-    <row r="26" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="31"/>
     </row>
-    <row r="27" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="31"/>
     </row>
-    <row r="28" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="33"/>
     </row>
-    <row r="29" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="33"/>
       <c r="C29" s="33"/>
     </row>
-    <row r="30" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="33"/>
     </row>
-    <row r="31" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="33"/>
     </row>
-    <row r="32" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="31"/>
     </row>
-    <row r="33" spans="1:1" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="31"/>
     </row>
-    <row r="34" spans="1:1" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="31"/>
     </row>
-    <row r="35" spans="1:1" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="31"/>
     </row>
-    <row r="36" spans="1:1" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="31"/>
     </row>
-    <row r="37" spans="1:1" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="31"/>
     </row>
-    <row r="38" spans="1:1" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="31"/>
     </row>
-    <row r="39" spans="1:1" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="31"/>
     </row>
-    <row r="40" spans="1:1" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="31"/>
     </row>
-    <row r="41" spans="1:1" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="31"/>
     </row>
-    <row r="42" spans="1:1" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="31"/>
     </row>
-    <row r="43" spans="1:1" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="31"/>
     </row>
-    <row r="44" spans="1:1" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="31"/>
     </row>
-    <row r="45" spans="1:1" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="31"/>
     </row>
-    <row r="46" spans="1:1" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="31"/>
     </row>
-    <row r="47" spans="1:1" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="31"/>
     </row>
-    <row r="48" spans="1:1" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="31"/>
     </row>
-    <row r="49" spans="1:1" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="31"/>
     </row>
-    <row r="50" spans="1:1" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="31"/>
     </row>
-    <row r="51" spans="1:1" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="31"/>
     </row>
-    <row r="52" spans="1:1" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="31"/>
     </row>
-    <row r="53" spans="1:1" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="34"/>
     </row>
-    <row r="54" spans="1:1" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="34"/>
     </row>
-    <row r="55" spans="1:1" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="34"/>
     </row>
   </sheetData>
@@ -8919,13 +10925,13 @@
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" customWidth="1"/>
-    <col min="2" max="13" width="9.7109375" customWidth="1"/>
+    <col min="1" max="1" width="17.88671875" customWidth="1"/>
+    <col min="2" max="13" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>244</v>
       </c>
@@ -8966,7 +10972,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
         <v>40</v>
       </c>
@@ -8983,7 +10989,7 @@
       <c r="L2" s="18"/>
       <c r="M2" s="18"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>48</v>
       </c>
@@ -9000,7 +11006,7 @@
       <c r="L3" s="6"/>
       <c r="M3" s="6"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>49</v>
       </c>
@@ -9017,7 +11023,7 @@
       <c r="L4" s="6"/>
       <c r="M4" s="6"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
         <v>50</v>
       </c>
@@ -9034,7 +11040,7 @@
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="18" t="s">
         <v>51</v>
       </c>
@@ -9051,7 +11057,7 @@
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="18" t="s">
         <v>52</v>
       </c>
@@ -9068,7 +11074,7 @@
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="18" t="s">
         <v>53</v>
       </c>
@@ -9085,7 +11091,7 @@
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="18" t="s">
         <v>54</v>
       </c>
@@ -9102,7 +11108,7 @@
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="18" t="s">
         <v>55</v>
       </c>
@@ -9119,7 +11125,7 @@
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="18" t="s">
         <v>56</v>
       </c>
@@ -9136,7 +11142,7 @@
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="18" t="s">
         <v>89</v>
       </c>
@@ -9156,4 +11162,3870 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S101"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1:M1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.44140625" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="13.44140625" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="14.109375" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="16.6640625" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="14" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="10.33203125" customWidth="1"/>
+    <col min="15" max="15" width="14.44140625" customWidth="1"/>
+    <col min="16" max="17" width="16.44140625" customWidth="1"/>
+    <col min="18" max="18" width="15" customWidth="1"/>
+    <col min="19" max="19" width="10.109375" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" s="11" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="K1" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="M1" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="N1" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="P1" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q1" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="R1" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="S1" s="29" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A2" s="18">
+        <v>3</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="20">
+        <v>11767769.699999999</v>
+      </c>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="20">
+        <v>1548390.75</v>
+      </c>
+      <c r="P2" s="20">
+        <v>10838735.25</v>
+      </c>
+      <c r="Q2" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="R2" s="18">
+        <v>1</v>
+      </c>
+      <c r="S2" s="20">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A3" s="18">
+        <v>5</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="22">
+        <v>12310799</v>
+      </c>
+      <c r="F3" s="23"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22">
+        <v>1538850</v>
+      </c>
+      <c r="P3" s="22">
+        <v>10771949</v>
+      </c>
+      <c r="Q3" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="R3" s="18">
+        <v>1</v>
+      </c>
+      <c r="S3" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A4" s="18">
+        <v>6</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="22">
+        <v>11592350</v>
+      </c>
+      <c r="F4" s="23"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22">
+        <v>1449044</v>
+      </c>
+      <c r="P4" s="22">
+        <v>10143306</v>
+      </c>
+      <c r="Q4" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="R4" s="18">
+        <v>1</v>
+      </c>
+      <c r="S4" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A5" s="18">
+        <v>7</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="20">
+        <v>3807686.27</v>
+      </c>
+      <c r="F5" s="22">
+        <v>2651098.73</v>
+      </c>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="20">
+        <v>807349</v>
+      </c>
+      <c r="P5" s="20">
+        <v>5651436</v>
+      </c>
+      <c r="Q5" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="R5" s="18">
+        <v>4</v>
+      </c>
+      <c r="S5" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A6" s="18">
+        <v>8</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22">
+        <v>13531309</v>
+      </c>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="22">
+        <v>1691414</v>
+      </c>
+      <c r="P6" s="22">
+        <v>11839895</v>
+      </c>
+      <c r="Q6" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="R6" s="18">
+        <v>5</v>
+      </c>
+      <c r="S6" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A7" s="18">
+        <v>9</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="C7" s="22">
+        <v>1030629.59</v>
+      </c>
+      <c r="D7" s="22"/>
+      <c r="E7" s="20">
+        <v>14040211.41</v>
+      </c>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="23">
+        <v>1883855</v>
+      </c>
+      <c r="P7" s="23">
+        <v>13186986</v>
+      </c>
+      <c r="Q7" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="R7" s="18">
+        <v>4</v>
+      </c>
+      <c r="S7" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A8" s="18">
+        <v>10</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="20">
+        <v>5940195.3899999997</v>
+      </c>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22">
+        <v>4930259.62</v>
+      </c>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="22">
+        <v>1358807</v>
+      </c>
+      <c r="P8" s="22">
+        <v>9511648</v>
+      </c>
+      <c r="Q8" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="R8" s="18">
+        <v>1</v>
+      </c>
+      <c r="S8" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A9" s="18">
+        <v>11</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="20">
+        <v>660021.52</v>
+      </c>
+      <c r="G9" s="23"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="20">
+        <v>547806.48</v>
+      </c>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="23">
+        <v>150979</v>
+      </c>
+      <c r="P9" s="23">
+        <v>1056849</v>
+      </c>
+      <c r="Q9" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="R9" s="18">
+        <v>2</v>
+      </c>
+      <c r="S9" s="20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A10" s="18">
+        <v>12</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="C10" s="20">
+        <v>5512499.8200000003</v>
+      </c>
+      <c r="D10" s="22"/>
+      <c r="E10" s="20">
+        <v>6900291.8300000001</v>
+      </c>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="20">
+        <v>6155723.3499999996</v>
+      </c>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="23">
+        <v>2321064</v>
+      </c>
+      <c r="P10" s="23">
+        <v>16247451</v>
+      </c>
+      <c r="Q10" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="R10" s="18">
+        <v>9</v>
+      </c>
+      <c r="S10" s="20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A11" s="18">
+        <v>13</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="20">
+        <v>4360515.01</v>
+      </c>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="20">
+        <v>4734271.99</v>
+      </c>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="23">
+        <v>1136848</v>
+      </c>
+      <c r="P11" s="23">
+        <v>7957939</v>
+      </c>
+      <c r="Q11" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="R11" s="18">
+        <v>4</v>
+      </c>
+      <c r="S11" s="20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A12" s="18">
+        <v>14</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="22">
+        <v>3214492</v>
+      </c>
+      <c r="F12" s="23"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="22">
+        <v>401812</v>
+      </c>
+      <c r="P12" s="22">
+        <v>2812680</v>
+      </c>
+      <c r="Q12" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="R12" s="18">
+        <v>5</v>
+      </c>
+      <c r="S12" s="20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="20">
+        <v>15</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>298</v>
+      </c>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="22">
+        <v>10040694</v>
+      </c>
+      <c r="F13" s="23"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="22"/>
+      <c r="O13" s="22">
+        <v>1255087</v>
+      </c>
+      <c r="P13" s="22">
+        <v>8785607</v>
+      </c>
+      <c r="Q13" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="R13" s="20">
+        <v>7</v>
+      </c>
+      <c r="S13" s="20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A14" s="18">
+        <v>16</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="22">
+        <v>0</v>
+      </c>
+      <c r="F14" s="22">
+        <v>12042332</v>
+      </c>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="22"/>
+      <c r="O14" s="22">
+        <v>1505304</v>
+      </c>
+      <c r="P14" s="22">
+        <v>10537128</v>
+      </c>
+      <c r="Q14" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="R14" s="18">
+        <v>2</v>
+      </c>
+      <c r="S14" s="20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A15" s="18">
+        <v>17</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="22">
+        <v>7786053</v>
+      </c>
+      <c r="F15" s="23"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="22"/>
+      <c r="O15" s="22">
+        <v>973257</v>
+      </c>
+      <c r="P15" s="22">
+        <v>6812796</v>
+      </c>
+      <c r="Q15" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="R15" s="18">
+        <v>5</v>
+      </c>
+      <c r="S15" s="20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A16" s="18">
+        <v>18</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="20">
+        <v>6244931.3099999996</v>
+      </c>
+      <c r="F16" s="20">
+        <v>5702443.6900000004</v>
+      </c>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="22"/>
+      <c r="N16" s="22"/>
+      <c r="O16" s="23">
+        <v>1493422</v>
+      </c>
+      <c r="P16" s="23">
+        <v>10453953</v>
+      </c>
+      <c r="Q16" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="R16" s="18">
+        <v>5</v>
+      </c>
+      <c r="S16" s="20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A17" s="18">
+        <v>19</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22">
+        <v>4129593</v>
+      </c>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="22"/>
+      <c r="N17" s="22"/>
+      <c r="O17" s="22">
+        <v>516199</v>
+      </c>
+      <c r="P17" s="22">
+        <v>3613394</v>
+      </c>
+      <c r="Q17" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="R17" s="18">
+        <v>5</v>
+      </c>
+      <c r="S17" s="20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A18" s="18">
+        <v>20</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22">
+        <v>3129025</v>
+      </c>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="22">
+        <v>391128</v>
+      </c>
+      <c r="P18" s="22">
+        <v>2737897</v>
+      </c>
+      <c r="Q18" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="R18" s="18">
+        <v>6</v>
+      </c>
+      <c r="S18" s="20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A19" s="18">
+        <v>21</v>
+      </c>
+      <c r="B19" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24">
+        <v>10121557.060000001</v>
+      </c>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="25">
+        <v>9416806.852</v>
+      </c>
+      <c r="K19" s="26"/>
+      <c r="L19" s="26"/>
+      <c r="M19" s="26"/>
+      <c r="N19" s="26"/>
+      <c r="O19" s="25">
+        <v>2442296</v>
+      </c>
+      <c r="P19" s="25">
+        <v>17096068</v>
+      </c>
+      <c r="Q19" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="R19" s="18">
+        <v>4</v>
+      </c>
+      <c r="S19" s="20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A20" s="18">
+        <v>22</v>
+      </c>
+      <c r="B20" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="25">
+        <v>4153902.9180000001</v>
+      </c>
+      <c r="K20" s="26"/>
+      <c r="L20" s="26"/>
+      <c r="M20" s="26"/>
+      <c r="N20" s="26"/>
+      <c r="O20" s="25">
+        <v>519238</v>
+      </c>
+      <c r="P20" s="25">
+        <v>3634665</v>
+      </c>
+      <c r="Q20" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="R20" s="18">
+        <v>9</v>
+      </c>
+      <c r="S20" s="20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A21" s="18">
+        <v>23</v>
+      </c>
+      <c r="B21" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="25">
+        <v>31435052</v>
+      </c>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="24"/>
+      <c r="L21" s="24"/>
+      <c r="M21" s="24"/>
+      <c r="N21" s="24"/>
+      <c r="O21" s="24">
+        <v>3929382</v>
+      </c>
+      <c r="P21" s="24">
+        <v>27505670</v>
+      </c>
+      <c r="Q21" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="R21" s="18">
+        <v>2</v>
+      </c>
+      <c r="S21" s="20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A22" s="18">
+        <v>24</v>
+      </c>
+      <c r="B22" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="24">
+        <v>7440653</v>
+      </c>
+      <c r="M22" s="24"/>
+      <c r="N22" s="24"/>
+      <c r="O22" s="24">
+        <v>930082</v>
+      </c>
+      <c r="P22" s="24">
+        <v>6510571</v>
+      </c>
+      <c r="Q22" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="R22" s="18">
+        <v>1</v>
+      </c>
+      <c r="S22" s="20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A23" s="18">
+        <v>25</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>299</v>
+      </c>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="24">
+        <v>8773275</v>
+      </c>
+      <c r="K23" s="24"/>
+      <c r="L23" s="24"/>
+      <c r="M23" s="24"/>
+      <c r="N23" s="24"/>
+      <c r="O23" s="24">
+        <v>1096659</v>
+      </c>
+      <c r="P23" s="24">
+        <v>7676616</v>
+      </c>
+      <c r="Q23" s="19" t="s">
+        <v>205</v>
+      </c>
+      <c r="R23" s="18">
+        <v>5</v>
+      </c>
+      <c r="S23" s="20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A24" s="18">
+        <v>26</v>
+      </c>
+      <c r="B24" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24">
+        <v>967157.26999999955</v>
+      </c>
+      <c r="F24" s="24">
+        <v>7576934.0999999996</v>
+      </c>
+      <c r="G24" s="24"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="24"/>
+      <c r="M24" s="24"/>
+      <c r="N24" s="24"/>
+      <c r="O24" s="24">
+        <v>1068011</v>
+      </c>
+      <c r="P24" s="24">
+        <v>7476080</v>
+      </c>
+      <c r="Q24" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="R24" s="18">
+        <v>7</v>
+      </c>
+      <c r="S24" s="20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A25" s="18">
+        <v>27</v>
+      </c>
+      <c r="B25" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24">
+        <v>15300148.25</v>
+      </c>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="24">
+        <v>5002242.9400000004</v>
+      </c>
+      <c r="K25" s="24"/>
+      <c r="L25" s="24"/>
+      <c r="M25" s="24"/>
+      <c r="N25" s="24"/>
+      <c r="O25" s="24">
+        <v>2537799</v>
+      </c>
+      <c r="P25" s="24">
+        <v>17764592</v>
+      </c>
+      <c r="Q25" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="R25" s="18">
+        <v>2</v>
+      </c>
+      <c r="S25" s="20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A26" s="18">
+        <v>28</v>
+      </c>
+      <c r="B26" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="24">
+        <v>6272429.75</v>
+      </c>
+      <c r="K26" s="24"/>
+      <c r="L26" s="24"/>
+      <c r="M26" s="24"/>
+      <c r="N26" s="24"/>
+      <c r="O26" s="24">
+        <v>784054</v>
+      </c>
+      <c r="P26" s="24">
+        <v>5488375</v>
+      </c>
+      <c r="Q26" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="R26" s="18">
+        <v>4</v>
+      </c>
+      <c r="S26" s="20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A27" s="18">
+        <v>29</v>
+      </c>
+      <c r="B27" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24">
+        <v>2376584.4930000007</v>
+      </c>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="24">
+        <v>5851260.3669999996</v>
+      </c>
+      <c r="K27" s="24"/>
+      <c r="L27" s="24"/>
+      <c r="M27" s="24"/>
+      <c r="N27" s="24"/>
+      <c r="O27" s="24">
+        <v>1028481</v>
+      </c>
+      <c r="P27" s="24">
+        <v>7199364</v>
+      </c>
+      <c r="Q27" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="R27" s="18">
+        <v>4</v>
+      </c>
+      <c r="S27" s="20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A28" s="18">
+        <v>30</v>
+      </c>
+      <c r="B28" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24">
+        <v>3951018.61</v>
+      </c>
+      <c r="F28" s="24">
+        <v>1303448.1200000001</v>
+      </c>
+      <c r="G28" s="24"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="24">
+        <v>3401350.1</v>
+      </c>
+      <c r="K28" s="24"/>
+      <c r="L28" s="24"/>
+      <c r="M28" s="24"/>
+      <c r="N28" s="24"/>
+      <c r="O28" s="24">
+        <v>1081977</v>
+      </c>
+      <c r="P28" s="24">
+        <v>7573840</v>
+      </c>
+      <c r="Q28" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="R28" s="18">
+        <v>2</v>
+      </c>
+      <c r="S28" s="20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A29" s="18">
+        <v>31</v>
+      </c>
+      <c r="B29" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24">
+        <v>5018209.87</v>
+      </c>
+      <c r="G29" s="24"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="24"/>
+      <c r="J29" s="24"/>
+      <c r="K29" s="24"/>
+      <c r="L29" s="24"/>
+      <c r="M29" s="24"/>
+      <c r="N29" s="24"/>
+      <c r="O29" s="24">
+        <v>627276</v>
+      </c>
+      <c r="P29" s="24">
+        <v>4390934</v>
+      </c>
+      <c r="Q29" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="R29" s="18">
+        <v>6</v>
+      </c>
+      <c r="S29" s="20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A30" s="18">
+        <v>32</v>
+      </c>
+      <c r="B30" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24">
+        <v>28440949.879999999</v>
+      </c>
+      <c r="G30" s="24"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="24"/>
+      <c r="J30" s="24"/>
+      <c r="K30" s="24"/>
+      <c r="L30" s="24"/>
+      <c r="M30" s="24"/>
+      <c r="N30" s="24"/>
+      <c r="O30" s="24">
+        <v>2930119</v>
+      </c>
+      <c r="P30" s="24">
+        <v>20510831</v>
+      </c>
+      <c r="Q30" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="R30" s="18">
+        <v>6</v>
+      </c>
+      <c r="S30" s="20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A31" s="18">
+        <v>33</v>
+      </c>
+      <c r="B31" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" s="24"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="24"/>
+      <c r="J31" s="24">
+        <v>11803695.960000001</v>
+      </c>
+      <c r="K31" s="24"/>
+      <c r="L31" s="24"/>
+      <c r="M31" s="24"/>
+      <c r="N31" s="24"/>
+      <c r="O31" s="24">
+        <v>1475462</v>
+      </c>
+      <c r="P31" s="24">
+        <v>10328234</v>
+      </c>
+      <c r="Q31" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="R31" s="18">
+        <v>4</v>
+      </c>
+      <c r="S31" s="20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" s="43" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="41">
+        <v>34</v>
+      </c>
+      <c r="B32" s="40" t="s">
+        <v>141</v>
+      </c>
+      <c r="C32" s="40"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="40">
+        <v>3678989.3829999999</v>
+      </c>
+      <c r="F32" s="40">
+        <v>1997998.9920000001</v>
+      </c>
+      <c r="G32" s="40"/>
+      <c r="H32" s="40"/>
+      <c r="I32" s="40"/>
+      <c r="J32" s="40"/>
+      <c r="K32" s="40">
+        <v>24430.226999999999</v>
+      </c>
+      <c r="L32" s="40"/>
+      <c r="M32" s="40"/>
+      <c r="N32" s="40"/>
+      <c r="O32" s="40">
+        <v>712677</v>
+      </c>
+      <c r="P32" s="40">
+        <v>4988742</v>
+      </c>
+      <c r="Q32" s="42" t="s">
+        <v>103</v>
+      </c>
+      <c r="R32" s="41">
+        <v>5</v>
+      </c>
+      <c r="S32" s="41">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A33" s="20">
+        <v>35</v>
+      </c>
+      <c r="B33" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="C33" s="24"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="24">
+        <v>764582</v>
+      </c>
+      <c r="F33" s="24"/>
+      <c r="G33" s="24"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="24"/>
+      <c r="J33" s="24">
+        <v>7622328.6999999993</v>
+      </c>
+      <c r="K33" s="24"/>
+      <c r="L33" s="24"/>
+      <c r="M33" s="24"/>
+      <c r="N33" s="24"/>
+      <c r="O33" s="24">
+        <v>1048364</v>
+      </c>
+      <c r="P33" s="24">
+        <v>7338547</v>
+      </c>
+      <c r="Q33" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="R33" s="18">
+        <v>5</v>
+      </c>
+      <c r="S33" s="20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A34" s="18">
+        <v>36</v>
+      </c>
+      <c r="B34" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="C34" s="24">
+        <v>4444197.7699999996</v>
+      </c>
+      <c r="D34" s="24"/>
+      <c r="E34" s="24">
+        <v>181114.16399999999</v>
+      </c>
+      <c r="F34" s="24"/>
+      <c r="G34" s="24"/>
+      <c r="H34" s="24"/>
+      <c r="I34" s="24"/>
+      <c r="J34" s="24"/>
+      <c r="K34" s="24"/>
+      <c r="L34" s="24"/>
+      <c r="M34" s="24"/>
+      <c r="N34" s="24"/>
+      <c r="O34" s="24">
+        <v>781917</v>
+      </c>
+      <c r="P34" s="24">
+        <v>5473421</v>
+      </c>
+      <c r="Q34" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="R34" s="18">
+        <v>10</v>
+      </c>
+      <c r="S34" s="20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A35" s="18">
+        <v>37</v>
+      </c>
+      <c r="B35" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="C35" s="24"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="24">
+        <v>28440949.879999999</v>
+      </c>
+      <c r="G35" s="24"/>
+      <c r="H35" s="24"/>
+      <c r="I35" s="24"/>
+      <c r="J35" s="24"/>
+      <c r="K35" s="24"/>
+      <c r="L35" s="24"/>
+      <c r="M35" s="24"/>
+      <c r="N35" s="24"/>
+      <c r="O35" s="24">
+        <v>625000</v>
+      </c>
+      <c r="P35" s="24">
+        <v>4375000</v>
+      </c>
+      <c r="Q35" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="R35" s="18">
+        <v>6</v>
+      </c>
+      <c r="S35" s="20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A36" s="18">
+        <v>38</v>
+      </c>
+      <c r="B36" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="C36" s="24"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="24">
+        <v>31061589.32</v>
+      </c>
+      <c r="F36" s="24"/>
+      <c r="G36" s="24"/>
+      <c r="H36" s="24"/>
+      <c r="I36" s="24"/>
+      <c r="J36" s="24"/>
+      <c r="K36" s="24"/>
+      <c r="L36" s="24"/>
+      <c r="M36" s="24"/>
+      <c r="N36" s="24"/>
+      <c r="O36" s="24">
+        <v>3882699</v>
+      </c>
+      <c r="P36" s="24">
+        <v>27178890</v>
+      </c>
+      <c r="Q36" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="R36" s="18">
+        <v>2</v>
+      </c>
+      <c r="S36" s="20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A37" s="18">
+        <v>39</v>
+      </c>
+      <c r="B37" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="C37" s="24"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="24">
+        <v>18143506.600000001</v>
+      </c>
+      <c r="F37" s="24"/>
+      <c r="G37" s="24"/>
+      <c r="H37" s="24"/>
+      <c r="I37" s="24"/>
+      <c r="J37" s="24">
+        <v>644634.19999999995</v>
+      </c>
+      <c r="K37" s="24"/>
+      <c r="L37" s="24"/>
+      <c r="M37" s="24"/>
+      <c r="N37" s="24"/>
+      <c r="O37" s="24">
+        <v>2348518</v>
+      </c>
+      <c r="P37" s="24">
+        <v>16439623</v>
+      </c>
+      <c r="Q37" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="R37" s="18">
+        <v>3</v>
+      </c>
+      <c r="S37" s="20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A38" s="18">
+        <v>40</v>
+      </c>
+      <c r="B38" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="C38" s="24"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="24">
+        <v>35010947</v>
+      </c>
+      <c r="G38" s="24"/>
+      <c r="H38" s="24"/>
+      <c r="I38" s="24"/>
+      <c r="J38" s="24"/>
+      <c r="K38" s="24"/>
+      <c r="L38" s="24"/>
+      <c r="M38" s="24"/>
+      <c r="N38" s="24"/>
+      <c r="O38" s="24">
+        <v>4376368</v>
+      </c>
+      <c r="P38" s="24">
+        <v>30634579</v>
+      </c>
+      <c r="Q38" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="R38" s="18">
+        <v>3</v>
+      </c>
+      <c r="S38" s="20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A39" s="18">
+        <v>41</v>
+      </c>
+      <c r="B39" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="C39" s="24"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="24">
+        <v>9000456.8900000006</v>
+      </c>
+      <c r="G39" s="24"/>
+      <c r="H39" s="24"/>
+      <c r="I39" s="24"/>
+      <c r="J39" s="24"/>
+      <c r="K39" s="24"/>
+      <c r="L39" s="24"/>
+      <c r="M39" s="24"/>
+      <c r="N39" s="24"/>
+      <c r="O39" s="24">
+        <v>1125057</v>
+      </c>
+      <c r="P39" s="24">
+        <v>7875399</v>
+      </c>
+      <c r="Q39" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="R39" s="18">
+        <v>7</v>
+      </c>
+      <c r="S39" s="18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A40" s="18">
+        <v>42</v>
+      </c>
+      <c r="B40" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="C40" s="24"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="24"/>
+      <c r="G40" s="24"/>
+      <c r="H40" s="24"/>
+      <c r="I40" s="24"/>
+      <c r="J40" s="24">
+        <v>6195501.8360000001</v>
+      </c>
+      <c r="K40" s="24"/>
+      <c r="L40" s="24"/>
+      <c r="M40" s="24"/>
+      <c r="N40" s="24"/>
+      <c r="O40" s="24">
+        <v>774438</v>
+      </c>
+      <c r="P40" s="24">
+        <v>5421064</v>
+      </c>
+      <c r="Q40" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="R40" s="18">
+        <v>8</v>
+      </c>
+      <c r="S40" s="18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A41" s="18">
+        <v>43</v>
+      </c>
+      <c r="B41" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="C41" s="24">
+        <v>2677161.36</v>
+      </c>
+      <c r="D41" s="24"/>
+      <c r="E41" s="24">
+        <v>6396151.4699999997</v>
+      </c>
+      <c r="F41" s="24"/>
+      <c r="G41" s="24"/>
+      <c r="H41" s="24"/>
+      <c r="I41" s="24"/>
+      <c r="J41" s="24">
+        <v>686638.29</v>
+      </c>
+      <c r="K41" s="24"/>
+      <c r="L41" s="24"/>
+      <c r="M41" s="24"/>
+      <c r="N41" s="24"/>
+      <c r="O41" s="24">
+        <v>1181215</v>
+      </c>
+      <c r="P41" s="24">
+        <v>8268502</v>
+      </c>
+      <c r="Q41" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="R41" s="18">
+        <v>11</v>
+      </c>
+      <c r="S41" s="18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A42" s="18">
+        <v>44</v>
+      </c>
+      <c r="B42" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="C42" s="24"/>
+      <c r="D42" s="24"/>
+      <c r="E42" s="24">
+        <v>333327.88400000002</v>
+      </c>
+      <c r="F42" s="24"/>
+      <c r="G42" s="24"/>
+      <c r="H42" s="24"/>
+      <c r="I42" s="24"/>
+      <c r="J42" s="24">
+        <v>4060359.2289999998</v>
+      </c>
+      <c r="K42" s="24"/>
+      <c r="L42" s="24"/>
+      <c r="M42" s="24"/>
+      <c r="N42" s="24"/>
+      <c r="O42" s="24">
+        <v>549211</v>
+      </c>
+      <c r="P42" s="24">
+        <v>3844476</v>
+      </c>
+      <c r="Q42" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="R42" s="18">
+        <v>8</v>
+      </c>
+      <c r="S42" s="18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A43" s="18">
+        <v>45</v>
+      </c>
+      <c r="B43" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="C43" s="24"/>
+      <c r="D43" s="24"/>
+      <c r="E43" s="24"/>
+      <c r="F43" s="24"/>
+      <c r="G43" s="24"/>
+      <c r="H43" s="24"/>
+      <c r="I43" s="24"/>
+      <c r="J43" s="24">
+        <v>2275479</v>
+      </c>
+      <c r="K43" s="24"/>
+      <c r="L43" s="24"/>
+      <c r="M43" s="24"/>
+      <c r="N43" s="24"/>
+      <c r="O43" s="24">
+        <v>284435</v>
+      </c>
+      <c r="P43" s="24">
+        <v>1991044</v>
+      </c>
+      <c r="Q43" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="R43" s="18">
+        <v>10</v>
+      </c>
+      <c r="S43" s="18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A44" s="18">
+        <v>46</v>
+      </c>
+      <c r="B44" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="C44" s="24"/>
+      <c r="D44" s="24"/>
+      <c r="E44" s="24">
+        <v>8581506.1300000008</v>
+      </c>
+      <c r="F44" s="24"/>
+      <c r="G44" s="24"/>
+      <c r="H44" s="24"/>
+      <c r="I44" s="24"/>
+      <c r="J44" s="24"/>
+      <c r="K44" s="24"/>
+      <c r="L44" s="24"/>
+      <c r="M44" s="24"/>
+      <c r="N44" s="24"/>
+      <c r="O44" s="24">
+        <v>1072688</v>
+      </c>
+      <c r="P44" s="24">
+        <v>7508818</v>
+      </c>
+      <c r="Q44" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="R44" s="18">
+        <v>6</v>
+      </c>
+      <c r="S44" s="18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A45" s="18">
+        <v>47</v>
+      </c>
+      <c r="B45" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="C45" s="24"/>
+      <c r="D45" s="24"/>
+      <c r="E45" s="24"/>
+      <c r="F45" s="24"/>
+      <c r="G45" s="24"/>
+      <c r="H45" s="24"/>
+      <c r="I45" s="24"/>
+      <c r="J45" s="24">
+        <v>19139634.739999998</v>
+      </c>
+      <c r="K45" s="24"/>
+      <c r="L45" s="24"/>
+      <c r="M45" s="24"/>
+      <c r="N45" s="24"/>
+      <c r="O45" s="24">
+        <v>2392454</v>
+      </c>
+      <c r="P45" s="24">
+        <v>16747181</v>
+      </c>
+      <c r="Q45" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="R45" s="18">
+        <v>1</v>
+      </c>
+      <c r="S45" s="18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A46" s="18">
+        <v>48</v>
+      </c>
+      <c r="B46" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="C46" s="24"/>
+      <c r="D46" s="24"/>
+      <c r="E46" s="24">
+        <v>52195699.359999999</v>
+      </c>
+      <c r="F46" s="24"/>
+      <c r="G46" s="24"/>
+      <c r="H46" s="24"/>
+      <c r="I46" s="24"/>
+      <c r="J46" s="24"/>
+      <c r="K46" s="24"/>
+      <c r="L46" s="24"/>
+      <c r="M46" s="24"/>
+      <c r="N46" s="24"/>
+      <c r="O46" s="24">
+        <v>6524462</v>
+      </c>
+      <c r="P46" s="24">
+        <v>45671237</v>
+      </c>
+      <c r="Q46" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="R46" s="18">
+        <v>3</v>
+      </c>
+      <c r="S46" s="18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A47" s="18">
+        <v>49</v>
+      </c>
+      <c r="B47" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="C47" s="24"/>
+      <c r="D47" s="24"/>
+      <c r="E47" s="24">
+        <v>14453370.689999998</v>
+      </c>
+      <c r="F47" s="24"/>
+      <c r="G47" s="24"/>
+      <c r="H47" s="24"/>
+      <c r="I47" s="24"/>
+      <c r="J47" s="24">
+        <v>6619216.5499999998</v>
+      </c>
+      <c r="K47" s="24"/>
+      <c r="L47" s="24"/>
+      <c r="M47" s="24"/>
+      <c r="N47" s="24"/>
+      <c r="O47" s="24">
+        <v>2571157</v>
+      </c>
+      <c r="P47" s="24">
+        <v>17998099</v>
+      </c>
+      <c r="Q47" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="R47" s="18">
+        <v>4</v>
+      </c>
+      <c r="S47" s="18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A48" s="18">
+        <v>50</v>
+      </c>
+      <c r="B48" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="C48" s="24"/>
+      <c r="D48" s="24"/>
+      <c r="E48" s="24"/>
+      <c r="F48" s="24">
+        <v>1017606.69</v>
+      </c>
+      <c r="G48" s="24"/>
+      <c r="H48" s="24"/>
+      <c r="I48" s="24"/>
+      <c r="J48" s="24">
+        <v>5862363.6399999997</v>
+      </c>
+      <c r="K48" s="24"/>
+      <c r="L48" s="24"/>
+      <c r="M48" s="24"/>
+      <c r="N48" s="24"/>
+      <c r="O48" s="24">
+        <v>687997</v>
+      </c>
+      <c r="P48" s="24">
+        <v>4815979</v>
+      </c>
+      <c r="Q48" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="R48" s="18">
+        <v>6</v>
+      </c>
+      <c r="S48" s="18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A49" s="18">
+        <v>51</v>
+      </c>
+      <c r="B49" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="C49" s="24"/>
+      <c r="D49" s="24"/>
+      <c r="E49" s="24"/>
+      <c r="F49" s="24">
+        <v>30565887.629999999</v>
+      </c>
+      <c r="G49" s="24"/>
+      <c r="H49" s="24"/>
+      <c r="I49" s="24"/>
+      <c r="J49" s="24"/>
+      <c r="K49" s="24"/>
+      <c r="L49" s="24"/>
+      <c r="M49" s="24"/>
+      <c r="N49" s="24"/>
+      <c r="O49" s="24">
+        <v>3820736</v>
+      </c>
+      <c r="P49" s="24">
+        <v>26745152</v>
+      </c>
+      <c r="Q49" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="R49" s="18">
+        <v>4</v>
+      </c>
+      <c r="S49" s="18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A50" s="18">
+        <v>52</v>
+      </c>
+      <c r="B50" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="C50" s="24"/>
+      <c r="D50" s="24"/>
+      <c r="E50" s="24"/>
+      <c r="F50" s="24"/>
+      <c r="G50" s="24">
+        <v>5108675.07</v>
+      </c>
+      <c r="H50" s="24"/>
+      <c r="I50" s="24"/>
+      <c r="J50" s="24"/>
+      <c r="K50" s="24"/>
+      <c r="L50" s="24"/>
+      <c r="M50" s="24"/>
+      <c r="N50" s="24"/>
+      <c r="O50" s="24">
+        <v>638585</v>
+      </c>
+      <c r="P50" s="24">
+        <v>4470090</v>
+      </c>
+      <c r="Q50" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="R50" s="18">
+        <v>1</v>
+      </c>
+      <c r="S50" s="18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A51" s="18">
+        <v>53</v>
+      </c>
+      <c r="B51" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="C51" s="24"/>
+      <c r="D51" s="24"/>
+      <c r="E51" s="24">
+        <v>19919089.84</v>
+      </c>
+      <c r="F51" s="24"/>
+      <c r="G51" s="24"/>
+      <c r="H51" s="24"/>
+      <c r="I51" s="24"/>
+      <c r="J51" s="24"/>
+      <c r="K51" s="24"/>
+      <c r="L51" s="24"/>
+      <c r="M51" s="24"/>
+      <c r="N51" s="24"/>
+      <c r="O51" s="24">
+        <v>2489886</v>
+      </c>
+      <c r="P51" s="24">
+        <v>17429204</v>
+      </c>
+      <c r="Q51" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="R51" s="18">
+        <v>3</v>
+      </c>
+      <c r="S51" s="18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A52" s="18">
+        <v>54</v>
+      </c>
+      <c r="B52" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="C52" s="24"/>
+      <c r="D52" s="24"/>
+      <c r="E52" s="24">
+        <v>10607590.279999999</v>
+      </c>
+      <c r="F52" s="24"/>
+      <c r="G52" s="24"/>
+      <c r="H52" s="24"/>
+      <c r="I52" s="24"/>
+      <c r="J52" s="24"/>
+      <c r="K52" s="24"/>
+      <c r="L52" s="24"/>
+      <c r="M52" s="24"/>
+      <c r="N52" s="24"/>
+      <c r="O52" s="24">
+        <v>1325949</v>
+      </c>
+      <c r="P52" s="24">
+        <v>9281641</v>
+      </c>
+      <c r="Q52" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="R52" s="18">
+        <v>1</v>
+      </c>
+      <c r="S52" s="18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A53" s="18">
+        <v>55</v>
+      </c>
+      <c r="B53" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="C53" s="24"/>
+      <c r="D53" s="24"/>
+      <c r="E53" s="24"/>
+      <c r="F53" s="24"/>
+      <c r="G53" s="24"/>
+      <c r="H53" s="24"/>
+      <c r="I53" s="24"/>
+      <c r="J53" s="24">
+        <v>21924820</v>
+      </c>
+      <c r="K53" s="24"/>
+      <c r="L53" s="24"/>
+      <c r="M53" s="24"/>
+      <c r="N53" s="24"/>
+      <c r="O53" s="24">
+        <v>2740603</v>
+      </c>
+      <c r="P53" s="24">
+        <v>19184217</v>
+      </c>
+      <c r="Q53" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="R53" s="18">
+        <v>5</v>
+      </c>
+      <c r="S53" s="18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A54" s="35">
+        <v>56</v>
+      </c>
+      <c r="B54" s="36" t="s">
+        <v>170</v>
+      </c>
+      <c r="C54" s="36"/>
+      <c r="D54" s="36"/>
+      <c r="E54" s="36">
+        <v>3582351.46</v>
+      </c>
+      <c r="F54" s="36"/>
+      <c r="G54" s="36"/>
+      <c r="H54" s="36"/>
+      <c r="I54" s="36"/>
+      <c r="J54" s="36"/>
+      <c r="K54" s="37"/>
+      <c r="L54" s="36"/>
+      <c r="M54" s="36"/>
+      <c r="N54" s="36"/>
+      <c r="O54" s="36">
+        <v>447794</v>
+      </c>
+      <c r="P54" s="36">
+        <v>3134557</v>
+      </c>
+      <c r="Q54" s="38" t="s">
+        <v>171</v>
+      </c>
+      <c r="R54" s="35">
+        <v>6</v>
+      </c>
+      <c r="S54" s="35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A55" s="35">
+        <v>57</v>
+      </c>
+      <c r="B55" s="36" t="s">
+        <v>172</v>
+      </c>
+      <c r="C55" s="36"/>
+      <c r="D55" s="36"/>
+      <c r="E55" s="36">
+        <v>3457479.39</v>
+      </c>
+      <c r="F55" s="36"/>
+      <c r="G55" s="36"/>
+      <c r="H55" s="36"/>
+      <c r="I55" s="36"/>
+      <c r="J55" s="36">
+        <v>3940433.72</v>
+      </c>
+      <c r="K55" s="37"/>
+      <c r="L55" s="36"/>
+      <c r="M55" s="36"/>
+      <c r="N55" s="36"/>
+      <c r="O55" s="36">
+        <v>924739</v>
+      </c>
+      <c r="P55" s="36">
+        <v>6473174</v>
+      </c>
+      <c r="Q55" s="38" t="s">
+        <v>114</v>
+      </c>
+      <c r="R55" s="35">
+        <v>5</v>
+      </c>
+      <c r="S55" s="35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A56" s="18">
+        <v>58</v>
+      </c>
+      <c r="B56" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="C56" s="24"/>
+      <c r="D56" s="24"/>
+      <c r="E56" s="24"/>
+      <c r="F56" s="24">
+        <v>3785875.06</v>
+      </c>
+      <c r="G56" s="24"/>
+      <c r="H56" s="24"/>
+      <c r="I56" s="24"/>
+      <c r="J56" s="24"/>
+      <c r="K56" s="24"/>
+      <c r="L56" s="24"/>
+      <c r="M56" s="24"/>
+      <c r="N56" s="24"/>
+      <c r="O56" s="24">
+        <v>473234</v>
+      </c>
+      <c r="P56" s="24">
+        <v>3312641</v>
+      </c>
+      <c r="Q56" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="R56" s="18">
+        <v>12</v>
+      </c>
+      <c r="S56" s="18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A57" s="18">
+        <v>59</v>
+      </c>
+      <c r="B57" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="C57" s="24"/>
+      <c r="D57" s="24"/>
+      <c r="E57" s="24"/>
+      <c r="F57" s="24"/>
+      <c r="G57" s="24"/>
+      <c r="H57" s="24"/>
+      <c r="I57" s="24"/>
+      <c r="J57" s="24">
+        <v>10106760.09</v>
+      </c>
+      <c r="K57" s="24"/>
+      <c r="L57" s="24"/>
+      <c r="M57" s="24"/>
+      <c r="N57" s="24"/>
+      <c r="O57" s="24">
+        <v>1263345</v>
+      </c>
+      <c r="P57" s="24">
+        <v>8843415</v>
+      </c>
+      <c r="Q57" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="R57" s="18">
+        <v>5</v>
+      </c>
+      <c r="S57" s="18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A58" s="18">
+        <v>60</v>
+      </c>
+      <c r="B58" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="C58" s="24"/>
+      <c r="D58" s="24"/>
+      <c r="E58" s="24"/>
+      <c r="F58" s="24"/>
+      <c r="G58" s="24">
+        <v>9265078.2200000007</v>
+      </c>
+      <c r="H58" s="24"/>
+      <c r="I58" s="24"/>
+      <c r="J58" s="24"/>
+      <c r="K58" s="24"/>
+      <c r="L58" s="24"/>
+      <c r="M58" s="24"/>
+      <c r="N58" s="24"/>
+      <c r="O58" s="24">
+        <v>1158135</v>
+      </c>
+      <c r="P58" s="24">
+        <v>8106943</v>
+      </c>
+      <c r="Q58" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="R58" s="18">
+        <v>4</v>
+      </c>
+      <c r="S58" s="18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A59" s="18">
+        <v>61</v>
+      </c>
+      <c r="B59" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="C59" s="24"/>
+      <c r="D59" s="24"/>
+      <c r="E59" s="24"/>
+      <c r="F59" s="24"/>
+      <c r="G59" s="24"/>
+      <c r="H59" s="24">
+        <v>1181164.51</v>
+      </c>
+      <c r="I59" s="24"/>
+      <c r="J59" s="24"/>
+      <c r="K59" s="24"/>
+      <c r="L59" s="24"/>
+      <c r="M59" s="24"/>
+      <c r="N59" s="24"/>
+      <c r="O59" s="24">
+        <v>1476471</v>
+      </c>
+      <c r="P59" s="24">
+        <v>10335294</v>
+      </c>
+      <c r="Q59" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="R59" s="18">
+        <v>5</v>
+      </c>
+      <c r="S59" s="18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" s="39" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="35">
+        <v>62</v>
+      </c>
+      <c r="B60" s="36" t="s">
+        <v>180</v>
+      </c>
+      <c r="C60" s="36"/>
+      <c r="D60" s="36"/>
+      <c r="E60" s="36">
+        <v>3421028.06</v>
+      </c>
+      <c r="F60" s="36"/>
+      <c r="G60" s="36"/>
+      <c r="H60" s="36"/>
+      <c r="I60" s="36"/>
+      <c r="J60" s="36"/>
+      <c r="L60" s="36"/>
+      <c r="M60" s="36"/>
+      <c r="N60" s="36"/>
+      <c r="O60" s="36">
+        <v>427629</v>
+      </c>
+      <c r="P60" s="36">
+        <v>2993399</v>
+      </c>
+      <c r="Q60" s="38" t="s">
+        <v>181</v>
+      </c>
+      <c r="R60" s="35">
+        <v>3</v>
+      </c>
+      <c r="S60" s="35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A61" s="18">
+        <v>63</v>
+      </c>
+      <c r="B61" s="24" t="s">
+        <v>182</v>
+      </c>
+      <c r="C61" s="24"/>
+      <c r="D61" s="24"/>
+      <c r="E61" s="24">
+        <v>10902577.68</v>
+      </c>
+      <c r="F61" s="24"/>
+      <c r="G61" s="24"/>
+      <c r="H61" s="24"/>
+      <c r="I61" s="24"/>
+      <c r="J61" s="24">
+        <v>3276311.75</v>
+      </c>
+      <c r="K61" s="24"/>
+      <c r="L61" s="24"/>
+      <c r="M61" s="24"/>
+      <c r="N61" s="24"/>
+      <c r="O61" s="24">
+        <v>1772361</v>
+      </c>
+      <c r="P61" s="24">
+        <v>12406528</v>
+      </c>
+      <c r="Q61" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="R61" s="18">
+        <v>4</v>
+      </c>
+      <c r="S61" s="18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A62" s="18">
+        <v>64</v>
+      </c>
+      <c r="B62" s="24" t="s">
+        <v>184</v>
+      </c>
+      <c r="C62" s="24"/>
+      <c r="E62" s="24">
+        <v>797985.01</v>
+      </c>
+      <c r="F62" s="40">
+        <v>356391.44</v>
+      </c>
+      <c r="G62" s="24"/>
+      <c r="H62" s="24"/>
+      <c r="I62" s="24"/>
+      <c r="J62" s="24"/>
+      <c r="K62" s="24">
+        <v>976050</v>
+      </c>
+      <c r="L62" s="24"/>
+      <c r="M62" s="24"/>
+      <c r="N62" s="24"/>
+      <c r="O62" s="24">
+        <v>266303.31</v>
+      </c>
+      <c r="P62" s="26">
+        <v>1864123.18</v>
+      </c>
+      <c r="Q62" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="R62" s="18">
+        <v>6</v>
+      </c>
+      <c r="S62" s="18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A63" s="18">
+        <v>65</v>
+      </c>
+      <c r="B63" s="24" t="s">
+        <v>186</v>
+      </c>
+      <c r="C63" s="24"/>
+      <c r="D63" s="24"/>
+      <c r="E63" s="24"/>
+      <c r="F63" s="24"/>
+      <c r="G63" s="24">
+        <v>18663800.670000002</v>
+      </c>
+      <c r="I63" s="24">
+        <v>4842188.09</v>
+      </c>
+      <c r="J63" s="24"/>
+      <c r="K63" s="24"/>
+      <c r="L63" s="24"/>
+      <c r="M63" s="24"/>
+      <c r="N63" s="24"/>
+      <c r="O63" s="24">
+        <v>2938249</v>
+      </c>
+      <c r="P63" s="24">
+        <v>20567740</v>
+      </c>
+      <c r="Q63" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="R63" s="18">
+        <v>4</v>
+      </c>
+      <c r="S63" s="18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A64" s="18">
+        <v>66</v>
+      </c>
+      <c r="B64" s="24" t="s">
+        <v>188</v>
+      </c>
+      <c r="C64" s="24"/>
+      <c r="D64" s="24"/>
+      <c r="E64" s="24"/>
+      <c r="F64" s="24">
+        <v>9480354.0999999996</v>
+      </c>
+      <c r="G64" s="24"/>
+      <c r="H64" s="24"/>
+      <c r="I64" s="24"/>
+      <c r="J64" s="24">
+        <v>477480.29</v>
+      </c>
+      <c r="K64" s="24"/>
+      <c r="L64" s="24"/>
+      <c r="M64" s="24"/>
+      <c r="N64" s="24"/>
+      <c r="O64" s="24">
+        <v>1244729</v>
+      </c>
+      <c r="P64" s="24">
+        <v>8713105</v>
+      </c>
+      <c r="Q64" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="R64" s="18">
+        <v>8</v>
+      </c>
+      <c r="S64" s="18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A65" s="18">
+        <v>67</v>
+      </c>
+      <c r="B65" s="24" t="s">
+        <v>190</v>
+      </c>
+      <c r="C65" s="24"/>
+      <c r="D65" s="24"/>
+      <c r="E65" s="24"/>
+      <c r="F65" s="24"/>
+      <c r="G65" s="24"/>
+      <c r="H65" s="24"/>
+      <c r="I65" s="24"/>
+      <c r="J65" s="24">
+        <v>7682708.75</v>
+      </c>
+      <c r="K65" s="24"/>
+      <c r="L65" s="24"/>
+      <c r="M65" s="24"/>
+      <c r="N65" s="24"/>
+      <c r="O65" s="24">
+        <v>960339</v>
+      </c>
+      <c r="P65" s="24">
+        <v>6722370</v>
+      </c>
+      <c r="Q65" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="R65" s="18">
+        <v>7</v>
+      </c>
+      <c r="S65" s="18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A66" s="18">
+        <v>68</v>
+      </c>
+      <c r="B66" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="C66" s="24"/>
+      <c r="D66" s="24"/>
+      <c r="E66" s="24"/>
+      <c r="F66" s="24">
+        <v>16117256.970000001</v>
+      </c>
+      <c r="G66" s="24"/>
+      <c r="H66" s="24"/>
+      <c r="I66" s="24"/>
+      <c r="J66" s="24"/>
+      <c r="K66" s="24"/>
+      <c r="L66" s="24"/>
+      <c r="M66" s="24"/>
+      <c r="N66" s="24"/>
+      <c r="O66" s="24">
+        <v>2014657</v>
+      </c>
+      <c r="P66" s="24">
+        <v>14102600</v>
+      </c>
+      <c r="Q66" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="R66" s="18">
+        <v>7</v>
+      </c>
+      <c r="S66" s="18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A67" s="18">
+        <v>69</v>
+      </c>
+      <c r="B67" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="C67" s="24"/>
+      <c r="D67" s="24"/>
+      <c r="E67" s="24"/>
+      <c r="F67" s="24"/>
+      <c r="G67" s="24"/>
+      <c r="H67" s="24"/>
+      <c r="I67" s="24"/>
+      <c r="J67" s="24">
+        <v>7683514.4699999997</v>
+      </c>
+      <c r="K67" s="24"/>
+      <c r="L67" s="24"/>
+      <c r="M67" s="24"/>
+      <c r="N67" s="24"/>
+      <c r="O67" s="24">
+        <v>960439</v>
+      </c>
+      <c r="P67" s="24">
+        <v>6723075</v>
+      </c>
+      <c r="Q67" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="R67" s="18">
+        <v>2</v>
+      </c>
+      <c r="S67" s="18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A68" s="18">
+        <v>70</v>
+      </c>
+      <c r="B68" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="C68" s="24"/>
+      <c r="D68" s="24"/>
+      <c r="E68" s="24"/>
+      <c r="F68" s="24"/>
+      <c r="G68" s="24"/>
+      <c r="H68" s="24"/>
+      <c r="I68" s="24"/>
+      <c r="J68" s="24">
+        <v>14652108</v>
+      </c>
+      <c r="K68" s="24"/>
+      <c r="L68" s="24"/>
+      <c r="M68" s="24"/>
+      <c r="N68" s="24"/>
+      <c r="O68" s="24">
+        <v>1831514</v>
+      </c>
+      <c r="P68" s="24">
+        <v>12820594</v>
+      </c>
+      <c r="Q68" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="R68" s="18">
+        <v>6</v>
+      </c>
+      <c r="S68" s="18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A69" s="18">
+        <v>71</v>
+      </c>
+      <c r="B69" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="C69" s="24"/>
+      <c r="D69" s="24"/>
+      <c r="E69" s="24">
+        <v>10164437.199999999</v>
+      </c>
+      <c r="F69" s="24"/>
+      <c r="G69" s="24"/>
+      <c r="H69" s="24"/>
+      <c r="I69" s="24"/>
+      <c r="J69" s="24"/>
+      <c r="K69" s="24"/>
+      <c r="L69" s="24"/>
+      <c r="M69" s="24"/>
+      <c r="N69" s="24"/>
+      <c r="O69" s="24">
+        <v>1270555</v>
+      </c>
+      <c r="P69" s="24">
+        <v>8893882</v>
+      </c>
+      <c r="Q69" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="R69" s="18">
+        <v>4</v>
+      </c>
+      <c r="S69" s="18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" s="39" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="35">
+        <v>72</v>
+      </c>
+      <c r="B70" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="C70" s="36"/>
+      <c r="D70" s="36"/>
+      <c r="E70" s="36">
+        <v>9258302.8699999992</v>
+      </c>
+      <c r="F70" s="36">
+        <v>203113.3</v>
+      </c>
+      <c r="G70" s="36"/>
+      <c r="H70" s="36"/>
+      <c r="I70" s="36"/>
+      <c r="J70" s="36">
+        <v>544818.16</v>
+      </c>
+      <c r="L70" s="36"/>
+      <c r="M70" s="36"/>
+      <c r="N70" s="36"/>
+      <c r="O70" s="36">
+        <v>1250779</v>
+      </c>
+      <c r="P70" s="36">
+        <v>8755455</v>
+      </c>
+      <c r="Q70" s="38" t="s">
+        <v>194</v>
+      </c>
+      <c r="R70" s="35">
+        <v>5</v>
+      </c>
+      <c r="S70" s="35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A71" s="18">
+        <v>73</v>
+      </c>
+      <c r="B71" s="24" t="s">
+        <v>195</v>
+      </c>
+      <c r="C71" s="24"/>
+      <c r="D71" s="24"/>
+      <c r="E71" s="24"/>
+      <c r="F71" s="24"/>
+      <c r="G71" s="24"/>
+      <c r="H71" s="24"/>
+      <c r="I71" s="24"/>
+      <c r="J71" s="24">
+        <v>2918327.09</v>
+      </c>
+      <c r="K71" s="24"/>
+      <c r="L71" s="24"/>
+      <c r="M71" s="24"/>
+      <c r="N71" s="24"/>
+      <c r="O71" s="24">
+        <v>364791</v>
+      </c>
+      <c r="P71" s="24">
+        <v>2553536</v>
+      </c>
+      <c r="Q71" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="R71" s="18">
+        <v>5</v>
+      </c>
+      <c r="S71" s="18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A72" s="18">
+        <v>74</v>
+      </c>
+      <c r="B72" s="24" t="s">
+        <v>197</v>
+      </c>
+      <c r="C72" s="24"/>
+      <c r="D72" s="24"/>
+      <c r="E72" s="24">
+        <v>4065192.31</v>
+      </c>
+      <c r="F72" s="24"/>
+      <c r="G72" s="24"/>
+      <c r="H72" s="24"/>
+      <c r="I72" s="24"/>
+      <c r="J72" s="24"/>
+      <c r="K72" s="24"/>
+      <c r="L72" s="24"/>
+      <c r="M72" s="24"/>
+      <c r="N72" s="24"/>
+      <c r="O72" s="24">
+        <v>508149</v>
+      </c>
+      <c r="P72" s="24">
+        <v>3557043</v>
+      </c>
+      <c r="Q72" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="R72" s="18">
+        <v>4</v>
+      </c>
+      <c r="S72" s="18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A73" s="18">
+        <v>75</v>
+      </c>
+      <c r="B73" s="24" t="s">
+        <v>198</v>
+      </c>
+      <c r="C73" s="24"/>
+      <c r="D73" s="24"/>
+      <c r="E73" s="24">
+        <v>395448</v>
+      </c>
+      <c r="F73" s="24"/>
+      <c r="G73" s="24"/>
+      <c r="H73" s="24"/>
+      <c r="I73" s="24"/>
+      <c r="J73" s="24">
+        <v>6835897.8899999997</v>
+      </c>
+      <c r="K73" s="24"/>
+      <c r="L73" s="24"/>
+      <c r="M73" s="24"/>
+      <c r="N73" s="24"/>
+      <c r="O73" s="24">
+        <v>799871</v>
+      </c>
+      <c r="P73" s="24">
+        <v>5599096</v>
+      </c>
+      <c r="Q73" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="R73" s="18">
+        <v>9</v>
+      </c>
+      <c r="S73" s="18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="18">
+        <v>76</v>
+      </c>
+      <c r="B74" s="24" t="s">
+        <v>199</v>
+      </c>
+      <c r="C74" s="24"/>
+      <c r="D74" s="24"/>
+      <c r="E74" s="24"/>
+      <c r="F74" s="24">
+        <v>7041775.3600000003</v>
+      </c>
+      <c r="G74" s="24"/>
+      <c r="H74" s="24"/>
+      <c r="I74" s="24"/>
+      <c r="J74" s="24">
+        <v>2173969.3199999998</v>
+      </c>
+      <c r="K74" s="24"/>
+      <c r="L74" s="24"/>
+      <c r="M74" s="24"/>
+      <c r="N74" s="24"/>
+      <c r="O74" s="24">
+        <v>1151968</v>
+      </c>
+      <c r="P74" s="24">
+        <v>8063777</v>
+      </c>
+      <c r="Q74" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="R74" s="18">
+        <v>8</v>
+      </c>
+      <c r="S74" s="18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A75" s="18">
+        <v>77</v>
+      </c>
+      <c r="B75" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="C75" s="24"/>
+      <c r="D75" s="24"/>
+      <c r="E75" s="24"/>
+      <c r="F75" s="24">
+        <v>1333756.3810000001</v>
+      </c>
+      <c r="G75" s="24"/>
+      <c r="H75" s="24"/>
+      <c r="I75" s="24"/>
+      <c r="J75" s="24">
+        <v>3138936.3</v>
+      </c>
+      <c r="K75" s="24"/>
+      <c r="L75" s="24"/>
+      <c r="M75" s="24"/>
+      <c r="N75" s="24"/>
+      <c r="O75" s="24">
+        <v>559087</v>
+      </c>
+      <c r="P75" s="24">
+        <v>3913606</v>
+      </c>
+      <c r="Q75" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="R75" s="18">
+        <v>9</v>
+      </c>
+      <c r="S75" s="18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A76" s="18">
+        <v>78</v>
+      </c>
+      <c r="B76" s="24" t="s">
+        <v>202</v>
+      </c>
+      <c r="C76" s="24"/>
+      <c r="D76" s="24"/>
+      <c r="E76" s="24"/>
+      <c r="F76" s="24">
+        <v>7166150.7970000003</v>
+      </c>
+      <c r="G76" s="24"/>
+      <c r="H76" s="24"/>
+      <c r="I76" s="24"/>
+      <c r="J76" s="24"/>
+      <c r="K76" s="24"/>
+      <c r="L76" s="24"/>
+      <c r="M76" s="24"/>
+      <c r="N76" s="24"/>
+      <c r="O76" s="24">
+        <v>895769</v>
+      </c>
+      <c r="P76" s="24">
+        <v>6270381</v>
+      </c>
+      <c r="Q76" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="R76" s="18">
+        <v>8</v>
+      </c>
+      <c r="S76" s="18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A77" s="18">
+        <v>79</v>
+      </c>
+      <c r="B77" s="24" t="s">
+        <v>204</v>
+      </c>
+      <c r="C77" s="24"/>
+      <c r="D77" s="24"/>
+      <c r="E77" s="24"/>
+      <c r="F77" s="24">
+        <v>841027.35699999996</v>
+      </c>
+      <c r="G77" s="24"/>
+      <c r="H77" s="24"/>
+      <c r="I77" s="24"/>
+      <c r="J77" s="24">
+        <v>12356769.642999999</v>
+      </c>
+      <c r="K77" s="24"/>
+      <c r="L77" s="24"/>
+      <c r="M77" s="24"/>
+      <c r="N77" s="24"/>
+      <c r="O77" s="24">
+        <v>1649725</v>
+      </c>
+      <c r="P77" s="24">
+        <v>11548073</v>
+      </c>
+      <c r="Q77" s="19" t="s">
+        <v>205</v>
+      </c>
+      <c r="R77" s="18">
+        <v>6</v>
+      </c>
+      <c r="S77" s="18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A78" s="18">
+        <v>80</v>
+      </c>
+      <c r="B78" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="C78" s="24"/>
+      <c r="D78" s="24"/>
+      <c r="E78" s="24">
+        <v>5452594.4699999988</v>
+      </c>
+      <c r="F78" s="24"/>
+      <c r="G78" s="24"/>
+      <c r="H78" s="24"/>
+      <c r="I78" s="24"/>
+      <c r="J78" s="24">
+        <v>23284588.450000003</v>
+      </c>
+      <c r="K78" s="24"/>
+      <c r="L78" s="24"/>
+      <c r="M78" s="24"/>
+      <c r="N78" s="24"/>
+      <c r="O78" s="24">
+        <v>3592148</v>
+      </c>
+      <c r="P78" s="24">
+        <v>25145035</v>
+      </c>
+      <c r="Q78" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="R78" s="18">
+        <v>5</v>
+      </c>
+      <c r="S78" s="18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A79" s="18">
+        <v>81</v>
+      </c>
+      <c r="B79" s="24" t="s">
+        <v>207</v>
+      </c>
+      <c r="C79" s="24"/>
+      <c r="D79" s="24"/>
+      <c r="E79" s="24"/>
+      <c r="F79" s="24"/>
+      <c r="G79" s="24">
+        <v>6871914.25</v>
+      </c>
+      <c r="H79" s="24"/>
+      <c r="I79" s="24">
+        <v>3134579.898</v>
+      </c>
+      <c r="J79" s="24"/>
+      <c r="K79" s="24"/>
+      <c r="L79" s="24"/>
+      <c r="M79" s="24"/>
+      <c r="N79" s="24"/>
+      <c r="O79" s="24">
+        <v>1342829</v>
+      </c>
+      <c r="P79" s="24">
+        <v>9399803</v>
+      </c>
+      <c r="Q79" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="R79" s="18">
+        <v>5</v>
+      </c>
+      <c r="S79" s="18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19" s="39" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="35">
+        <v>82</v>
+      </c>
+      <c r="B80" s="36" t="s">
+        <v>209</v>
+      </c>
+      <c r="C80" s="36"/>
+      <c r="D80" s="36"/>
+      <c r="E80" s="36">
+        <v>20162366.32</v>
+      </c>
+      <c r="F80" s="36"/>
+      <c r="G80" s="36"/>
+      <c r="H80" s="36"/>
+      <c r="I80" s="36"/>
+      <c r="J80" s="36"/>
+      <c r="L80" s="36"/>
+      <c r="M80" s="36"/>
+      <c r="N80" s="36"/>
+      <c r="O80" s="36">
+        <v>2520296</v>
+      </c>
+      <c r="P80" s="36">
+        <v>17642070</v>
+      </c>
+      <c r="Q80" s="38" t="s">
+        <v>99</v>
+      </c>
+      <c r="R80" s="35">
+        <v>3</v>
+      </c>
+      <c r="S80" s="35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A81" s="18">
+        <v>83</v>
+      </c>
+      <c r="B81" s="24" t="s">
+        <v>210</v>
+      </c>
+      <c r="C81" s="24"/>
+      <c r="D81" s="24"/>
+      <c r="E81" s="24">
+        <v>3038478</v>
+      </c>
+      <c r="F81" s="24"/>
+      <c r="G81" s="24"/>
+      <c r="H81" s="24"/>
+      <c r="I81" s="24"/>
+      <c r="J81" s="24"/>
+      <c r="K81" s="24"/>
+      <c r="L81" s="24"/>
+      <c r="M81" s="24"/>
+      <c r="N81" s="24"/>
+      <c r="O81" s="24">
+        <v>379810</v>
+      </c>
+      <c r="P81" s="24">
+        <v>2658668</v>
+      </c>
+      <c r="Q81" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="R81" s="18">
+        <v>2</v>
+      </c>
+      <c r="S81" s="18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A82" s="18">
+        <v>84</v>
+      </c>
+      <c r="B82" s="24" t="s">
+        <v>212</v>
+      </c>
+      <c r="C82" s="24"/>
+      <c r="D82" s="24"/>
+      <c r="E82" s="24"/>
+      <c r="F82" s="24"/>
+      <c r="G82" s="24"/>
+      <c r="H82" s="24"/>
+      <c r="I82" s="24"/>
+      <c r="J82" s="24"/>
+      <c r="K82" s="24"/>
+      <c r="L82" s="24">
+        <v>1890979</v>
+      </c>
+      <c r="M82" s="24"/>
+      <c r="N82" s="24"/>
+      <c r="O82" s="24">
+        <v>236372</v>
+      </c>
+      <c r="P82" s="24">
+        <v>1654607</v>
+      </c>
+      <c r="Q82" s="19" t="s">
+        <v>300</v>
+      </c>
+      <c r="R82" s="18">
+        <v>2</v>
+      </c>
+      <c r="S82" s="18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A83" s="18">
+        <v>85</v>
+      </c>
+      <c r="B83" s="24" t="s">
+        <v>213</v>
+      </c>
+      <c r="C83" s="24"/>
+      <c r="D83" s="24"/>
+      <c r="E83" s="24">
+        <v>11734497.34</v>
+      </c>
+      <c r="F83" s="24"/>
+      <c r="G83" s="24"/>
+      <c r="H83" s="24"/>
+      <c r="I83" s="24"/>
+      <c r="J83" s="24"/>
+      <c r="K83" s="24"/>
+      <c r="L83" s="24"/>
+      <c r="M83" s="24"/>
+      <c r="N83" s="24"/>
+      <c r="O83" s="24">
+        <v>1091812</v>
+      </c>
+      <c r="P83" s="24">
+        <v>7642685</v>
+      </c>
+      <c r="Q83" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="R83" s="18">
+        <v>5</v>
+      </c>
+      <c r="S83" s="18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A84" s="18">
+        <v>86</v>
+      </c>
+      <c r="B84" s="24" t="s">
+        <v>214</v>
+      </c>
+      <c r="C84" s="24">
+        <v>237277.17</v>
+      </c>
+      <c r="D84" s="24"/>
+      <c r="E84" s="24">
+        <v>4754324.16</v>
+      </c>
+      <c r="F84" s="24"/>
+      <c r="G84" s="24"/>
+      <c r="H84" s="24"/>
+      <c r="I84" s="24"/>
+      <c r="J84" s="24">
+        <v>3536591.639</v>
+      </c>
+      <c r="K84" s="24"/>
+      <c r="L84" s="24"/>
+      <c r="M84" s="24"/>
+      <c r="N84" s="24"/>
+      <c r="O84" s="24">
+        <v>1066024</v>
+      </c>
+      <c r="P84" s="24">
+        <v>7462169</v>
+      </c>
+      <c r="Q84" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="R84" s="18">
+        <v>12</v>
+      </c>
+      <c r="S84" s="18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A85" s="18">
+        <v>87</v>
+      </c>
+      <c r="B85" s="24" t="s">
+        <v>216</v>
+      </c>
+      <c r="C85" s="24"/>
+      <c r="D85" s="24"/>
+      <c r="E85" s="24"/>
+      <c r="F85" s="24"/>
+      <c r="G85" s="24"/>
+      <c r="H85" s="24"/>
+      <c r="I85" s="24"/>
+      <c r="J85" s="24">
+        <v>8566376</v>
+      </c>
+      <c r="K85" s="24"/>
+      <c r="L85" s="24"/>
+      <c r="M85" s="24"/>
+      <c r="N85" s="24"/>
+      <c r="O85" s="24">
+        <v>1070797</v>
+      </c>
+      <c r="P85" s="24">
+        <v>7495579</v>
+      </c>
+      <c r="Q85" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="R85" s="18">
+        <v>11</v>
+      </c>
+      <c r="S85" s="18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86" spans="1:19" s="39" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="35">
+        <v>88</v>
+      </c>
+      <c r="B86" s="36" t="s">
+        <v>217</v>
+      </c>
+      <c r="C86" s="36"/>
+      <c r="D86" s="36"/>
+      <c r="E86" s="36"/>
+      <c r="F86" s="36">
+        <v>21434033</v>
+      </c>
+      <c r="G86" s="36"/>
+      <c r="H86" s="36"/>
+      <c r="I86" s="36"/>
+      <c r="J86" s="36"/>
+      <c r="K86" s="37"/>
+      <c r="L86" s="36"/>
+      <c r="M86" s="36"/>
+      <c r="N86" s="36"/>
+      <c r="O86" s="36">
+        <v>2602548</v>
+      </c>
+      <c r="P86" s="36">
+        <v>18217838</v>
+      </c>
+      <c r="Q86" s="38" t="s">
+        <v>218</v>
+      </c>
+      <c r="R86" s="35">
+        <v>5</v>
+      </c>
+      <c r="S86" s="35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87" spans="1:19" s="39" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="35">
+        <v>89</v>
+      </c>
+      <c r="B87" s="36" t="s">
+        <v>219</v>
+      </c>
+      <c r="C87" s="36"/>
+      <c r="D87" s="36"/>
+      <c r="E87" s="36">
+        <v>3950811.1020000004</v>
+      </c>
+      <c r="F87" s="36"/>
+      <c r="G87" s="36"/>
+      <c r="H87" s="36"/>
+      <c r="I87" s="36"/>
+      <c r="J87" s="36">
+        <v>1869271.878</v>
+      </c>
+      <c r="K87" s="37"/>
+      <c r="L87" s="36"/>
+      <c r="M87" s="36"/>
+      <c r="N87" s="36"/>
+      <c r="O87" s="36">
+        <v>711031</v>
+      </c>
+      <c r="P87" s="36">
+        <v>4977219</v>
+      </c>
+      <c r="Q87" s="38" t="s">
+        <v>220</v>
+      </c>
+      <c r="R87" s="35">
+        <v>6</v>
+      </c>
+      <c r="S87" s="35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88" spans="1:19" s="39" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="35">
+        <v>90</v>
+      </c>
+      <c r="B88" s="36" t="s">
+        <v>221</v>
+      </c>
+      <c r="C88" s="36"/>
+      <c r="D88" s="36"/>
+      <c r="E88" s="36">
+        <v>3715423</v>
+      </c>
+      <c r="F88" s="36"/>
+      <c r="G88" s="36"/>
+      <c r="H88" s="36"/>
+      <c r="I88" s="36"/>
+      <c r="J88" s="36"/>
+      <c r="K88" s="37"/>
+      <c r="L88" s="36"/>
+      <c r="M88" s="36"/>
+      <c r="N88" s="36"/>
+      <c r="O88" s="36">
+        <v>464428</v>
+      </c>
+      <c r="P88" s="36">
+        <v>3250995</v>
+      </c>
+      <c r="Q88" s="38" t="s">
+        <v>222</v>
+      </c>
+      <c r="R88" s="35">
+        <v>8</v>
+      </c>
+      <c r="S88" s="35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A89" s="18">
+        <v>91</v>
+      </c>
+      <c r="B89" s="24" t="s">
+        <v>223</v>
+      </c>
+      <c r="C89" s="24"/>
+      <c r="D89" s="24"/>
+      <c r="E89" s="24">
+        <v>15319532</v>
+      </c>
+      <c r="F89" s="24"/>
+      <c r="G89" s="24"/>
+      <c r="H89" s="24"/>
+      <c r="I89" s="24"/>
+      <c r="J89" s="24"/>
+      <c r="K89" s="24"/>
+      <c r="L89" s="24"/>
+      <c r="M89" s="24"/>
+      <c r="N89" s="24"/>
+      <c r="O89" s="24">
+        <v>1914942</v>
+      </c>
+      <c r="P89" s="24">
+        <v>13404590</v>
+      </c>
+      <c r="Q89" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="R89" s="18">
+        <v>7</v>
+      </c>
+      <c r="S89" s="18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A90" s="18">
+        <v>92</v>
+      </c>
+      <c r="B90" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="C90" s="24"/>
+      <c r="D90" s="24"/>
+      <c r="E90" s="24"/>
+      <c r="F90" s="24">
+        <v>4972139.51</v>
+      </c>
+      <c r="G90" s="24"/>
+      <c r="H90" s="24"/>
+      <c r="I90" s="24"/>
+      <c r="J90" s="24">
+        <v>112500</v>
+      </c>
+      <c r="K90" s="24"/>
+      <c r="L90" s="24"/>
+      <c r="M90" s="24"/>
+      <c r="N90" s="24"/>
+      <c r="O90" s="24">
+        <v>635580</v>
+      </c>
+      <c r="P90" s="24">
+        <v>4449060</v>
+      </c>
+      <c r="Q90" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="R90" s="18">
+        <v>9</v>
+      </c>
+      <c r="S90" s="18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A91" s="18">
+        <v>93</v>
+      </c>
+      <c r="B91" s="24" t="s">
+        <v>227</v>
+      </c>
+      <c r="C91" s="24"/>
+      <c r="D91" s="24"/>
+      <c r="E91" s="24"/>
+      <c r="F91" s="24"/>
+      <c r="G91" s="24"/>
+      <c r="H91" s="24"/>
+      <c r="I91" s="24"/>
+      <c r="J91" s="24">
+        <v>7671622.0999999996</v>
+      </c>
+      <c r="K91" s="24"/>
+      <c r="L91" s="24"/>
+      <c r="M91" s="24"/>
+      <c r="N91" s="24"/>
+      <c r="O91" s="24">
+        <v>921416</v>
+      </c>
+      <c r="P91" s="24">
+        <v>6449915</v>
+      </c>
+      <c r="Q91" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="R91" s="18">
+        <v>3</v>
+      </c>
+      <c r="S91" s="18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A92" s="18">
+        <v>94</v>
+      </c>
+      <c r="B92" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="C92" s="24"/>
+      <c r="D92" s="24"/>
+      <c r="E92" s="24">
+        <v>2004423.12</v>
+      </c>
+      <c r="F92" s="24">
+        <v>2200388.38</v>
+      </c>
+      <c r="G92" s="24"/>
+      <c r="H92" s="24"/>
+      <c r="I92" s="24"/>
+      <c r="J92" s="27">
+        <v>27775</v>
+      </c>
+      <c r="K92" s="24"/>
+      <c r="L92" s="24"/>
+      <c r="M92" s="24"/>
+      <c r="N92" s="24"/>
+      <c r="O92" s="25">
+        <v>701073</v>
+      </c>
+      <c r="P92" s="25">
+        <v>4907507</v>
+      </c>
+      <c r="Q92" s="19" t="s">
+        <v>230</v>
+      </c>
+      <c r="R92" s="18">
+        <v>7</v>
+      </c>
+      <c r="S92" s="18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A93" s="18">
+        <v>95</v>
+      </c>
+      <c r="B93" s="24" t="s">
+        <v>231</v>
+      </c>
+      <c r="C93" s="24"/>
+      <c r="D93" s="24"/>
+      <c r="E93" s="24"/>
+      <c r="F93" s="24"/>
+      <c r="G93" s="24"/>
+      <c r="H93" s="24"/>
+      <c r="I93" s="24"/>
+      <c r="J93" s="24">
+        <v>10277493</v>
+      </c>
+      <c r="K93" s="24"/>
+      <c r="L93" s="24"/>
+      <c r="M93" s="24"/>
+      <c r="N93" s="24"/>
+      <c r="O93" s="24">
+        <v>1284687</v>
+      </c>
+      <c r="P93" s="24">
+        <v>8992806</v>
+      </c>
+      <c r="Q93" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="R93" s="18">
+        <v>8</v>
+      </c>
+      <c r="S93" s="18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A94" s="18">
+        <v>96</v>
+      </c>
+      <c r="B94" s="24" t="s">
+        <v>233</v>
+      </c>
+      <c r="C94" s="24"/>
+      <c r="D94" s="24"/>
+      <c r="E94" s="24">
+        <v>1253692.1100000001</v>
+      </c>
+      <c r="F94" s="25">
+        <v>5035264.49</v>
+      </c>
+      <c r="G94" s="24"/>
+      <c r="H94" s="24"/>
+      <c r="I94" s="24"/>
+      <c r="J94" s="25"/>
+      <c r="K94" s="25"/>
+      <c r="L94" s="24"/>
+      <c r="M94" s="24"/>
+      <c r="N94" s="24"/>
+      <c r="O94" s="24">
+        <v>994457</v>
+      </c>
+      <c r="P94" s="24">
+        <v>6961196</v>
+      </c>
+      <c r="Q94" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="R94" s="18">
+        <v>13</v>
+      </c>
+      <c r="S94" s="18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95" spans="1:19" s="39" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="35">
+        <v>97</v>
+      </c>
+      <c r="B95" s="36" t="s">
+        <v>235</v>
+      </c>
+      <c r="C95" s="36"/>
+      <c r="D95" s="36"/>
+      <c r="E95" s="36">
+        <v>1831376.254</v>
+      </c>
+      <c r="F95" s="36">
+        <v>1360415.54</v>
+      </c>
+      <c r="G95" s="36"/>
+      <c r="H95" s="36"/>
+      <c r="I95" s="36"/>
+      <c r="J95" s="36">
+        <v>455742.37</v>
+      </c>
+      <c r="L95" s="36"/>
+      <c r="M95" s="36"/>
+      <c r="N95" s="36"/>
+      <c r="O95" s="36">
+        <v>455942</v>
+      </c>
+      <c r="P95" s="36">
+        <v>3191592</v>
+      </c>
+      <c r="Q95" s="38" t="s">
+        <v>236</v>
+      </c>
+      <c r="R95" s="35">
+        <v>7</v>
+      </c>
+      <c r="S95" s="35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A96" s="18">
+        <v>98</v>
+      </c>
+      <c r="B96" s="24" t="s">
+        <v>237</v>
+      </c>
+      <c r="C96" s="24"/>
+      <c r="D96" s="24"/>
+      <c r="E96" s="24">
+        <v>5389926.9299999997</v>
+      </c>
+      <c r="F96" s="24">
+        <v>1782400.4</v>
+      </c>
+      <c r="G96" s="24"/>
+      <c r="H96" s="24"/>
+      <c r="I96" s="24"/>
+      <c r="J96" s="24"/>
+      <c r="K96" s="24"/>
+      <c r="L96" s="24"/>
+      <c r="M96" s="24"/>
+      <c r="N96" s="24"/>
+      <c r="O96" s="24">
+        <v>896541</v>
+      </c>
+      <c r="P96" s="24">
+        <v>6275786</v>
+      </c>
+      <c r="Q96" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="R96" s="18">
+        <v>5</v>
+      </c>
+      <c r="S96" s="18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A97" s="18">
+        <v>99</v>
+      </c>
+      <c r="B97" s="24" t="s">
+        <v>238</v>
+      </c>
+      <c r="C97" s="24"/>
+      <c r="D97" s="24"/>
+      <c r="E97" s="24"/>
+      <c r="F97" s="24"/>
+      <c r="G97" s="24"/>
+      <c r="H97" s="24"/>
+      <c r="I97" s="24"/>
+      <c r="J97" s="24">
+        <v>3499306</v>
+      </c>
+      <c r="K97" s="24"/>
+      <c r="L97" s="24"/>
+      <c r="M97" s="24"/>
+      <c r="N97" s="24"/>
+      <c r="O97" s="24">
+        <v>437413</v>
+      </c>
+      <c r="P97" s="24">
+        <v>3061893</v>
+      </c>
+      <c r="Q97" s="19" t="s">
+        <v>239</v>
+      </c>
+      <c r="R97" s="18">
+        <v>6</v>
+      </c>
+      <c r="S97" s="18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A98" s="18">
+        <v>100</v>
+      </c>
+      <c r="B98" s="24" t="s">
+        <v>240</v>
+      </c>
+      <c r="C98" s="24"/>
+      <c r="D98" s="24"/>
+      <c r="E98" s="24"/>
+      <c r="F98" s="24"/>
+      <c r="G98" s="24"/>
+      <c r="H98" s="24">
+        <v>20826914</v>
+      </c>
+      <c r="I98" s="24"/>
+      <c r="J98" s="24"/>
+      <c r="K98" s="24"/>
+      <c r="L98" s="24"/>
+      <c r="M98" s="24"/>
+      <c r="N98" s="24"/>
+      <c r="O98" s="24">
+        <v>2603364</v>
+      </c>
+      <c r="P98" s="24">
+        <v>18223550</v>
+      </c>
+      <c r="Q98" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="R98" s="18">
+        <v>6</v>
+      </c>
+      <c r="S98" s="18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A99" s="18">
+        <v>101</v>
+      </c>
+      <c r="B99" s="24" t="s">
+        <v>241</v>
+      </c>
+      <c r="C99" s="24"/>
+      <c r="D99" s="24"/>
+      <c r="E99" s="24"/>
+      <c r="F99" s="24"/>
+      <c r="G99" s="24">
+        <v>3669874</v>
+      </c>
+      <c r="H99" s="24"/>
+      <c r="I99" s="24"/>
+      <c r="J99" s="24"/>
+      <c r="K99" s="24"/>
+      <c r="L99" s="24"/>
+      <c r="M99" s="24"/>
+      <c r="N99" s="24"/>
+      <c r="O99" s="24">
+        <v>458734</v>
+      </c>
+      <c r="P99" s="24">
+        <v>3211140</v>
+      </c>
+      <c r="Q99" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="R99" s="18">
+        <v>5</v>
+      </c>
+      <c r="S99" s="18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A100" s="18">
+        <v>102</v>
+      </c>
+      <c r="B100" s="20" t="s">
+        <v>242</v>
+      </c>
+      <c r="C100" s="20"/>
+      <c r="D100" s="20"/>
+      <c r="E100" s="20"/>
+      <c r="F100" s="20"/>
+      <c r="G100" s="20"/>
+      <c r="H100" s="20">
+        <v>24327546</v>
+      </c>
+      <c r="I100" s="20"/>
+      <c r="J100" s="20"/>
+      <c r="K100" s="20"/>
+      <c r="L100" s="20"/>
+      <c r="M100" s="20"/>
+      <c r="N100" s="20"/>
+      <c r="O100" s="20">
+        <v>3040943</v>
+      </c>
+      <c r="P100" s="20">
+        <v>21286603</v>
+      </c>
+      <c r="Q100" s="19" t="s">
+        <v>243</v>
+      </c>
+      <c r="R100" s="18">
+        <v>6</v>
+      </c>
+      <c r="S100" s="18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="C101" s="1"/>
+      <c r="D101" s="1"/>
+      <c r="E101" s="1"/>
+      <c r="F101" s="1"/>
+      <c r="G101" s="1"/>
+      <c r="H101" s="1"/>
+      <c r="I101" s="1"/>
+      <c r="J101" s="1"/>
+      <c r="K101" s="1"/>
+      <c r="L101" s="1"/>
+      <c r="M101" s="1"/>
+      <c r="N101" s="1"/>
+      <c r="O101" s="1"/>
+      <c r="P101" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Civilworks cost/IPC Distribution.xlsx
+++ b/Civilworks cost/IPC Distribution.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19965" windowHeight="7665" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19965" windowHeight="7665"/>
   </bookViews>
   <sheets>
     <sheet name="Package_wise_str_df" sheetId="13" r:id="rId1"/>
@@ -1362,8 +1362,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L51"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S13" sqref="S13"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7044,11 +7044,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T94"/>
+  <dimension ref="A1:T95"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G48" sqref="G48"/>
+    <sheetView showGridLines="0" topLeftCell="J1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P95" sqref="P95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10698,6 +10698,12 @@
       </c>
       <c r="T94" s="44"/>
     </row>
+    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="P95" s="4">
+        <f>SUM(P2:P94)</f>
+        <v>959411665.38999975</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -10708,9 +10714,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T93"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="K1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N8" sqref="N8"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11489,7 +11495,7 @@
       </c>
       <c r="T18" s="44"/>
     </row>
-    <row r="19" spans="1:20" s="21" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="20">
         <v>18</v>
       </c>
@@ -11529,7 +11535,7 @@
       </c>
       <c r="T19" s="44"/>
     </row>
-    <row r="20" spans="1:20" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="32">
         <v>19</v>
       </c>

--- a/Civilworks cost/IPC Distribution.xlsx
+++ b/Civilworks cost/IPC Distribution.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19965" windowHeight="7665"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19968" windowHeight="7668"/>
   </bookViews>
   <sheets>
     <sheet name="Package_wise_str_df" sheetId="13" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="957" uniqueCount="258">
   <si>
     <t>O&amp;M During Construction</t>
   </si>
@@ -1360,24 +1360,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L51"/>
+  <dimension ref="A1:M51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R6" sqref="R6"/>
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="18.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="1" max="2" width="18.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" customWidth="1"/>
     <col min="9" max="9" width="10" customWidth="1"/>
-    <col min="10" max="10" width="8.7109375" customWidth="1"/>
-    <col min="11" max="11" width="10.140625" customWidth="1"/>
-    <col min="12" max="12" width="14.140625" customWidth="1"/>
+    <col min="10" max="10" width="8.6640625" customWidth="1"/>
+    <col min="11" max="11" width="10.109375" customWidth="1"/>
+    <col min="12" max="12" width="14.109375" customWidth="1"/>
+    <col min="13" max="13" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="11" customFormat="1" ht="28.9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="11" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="50" t="s">
         <v>254</v>
       </c>
@@ -1414,8 +1415,11 @@
       <c r="L1" s="50" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="M1" s="50" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="51" t="s">
         <v>113</v>
       </c>
@@ -1452,8 +1456,11 @@
       <c r="L2" s="51">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="M2" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="51" t="s">
         <v>114</v>
       </c>
@@ -1490,8 +1497,11 @@
       <c r="L3" s="51">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="M3" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="51" t="s">
         <v>115</v>
       </c>
@@ -1528,8 +1538,11 @@
       <c r="L4" s="51">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="M4" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="51" t="s">
         <v>116</v>
       </c>
@@ -1566,8 +1579,11 @@
       <c r="L5" s="51">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="M5" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="51" t="s">
         <v>80</v>
       </c>
@@ -1604,8 +1620,11 @@
       <c r="L6" s="51">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="M6" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="51" t="s">
         <v>86</v>
       </c>
@@ -1642,8 +1661,11 @@
       <c r="L7" s="51">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="M7" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="51" t="s">
         <v>117</v>
       </c>
@@ -1680,8 +1702,11 @@
       <c r="L8" s="51">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="M8" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="51" t="s">
         <v>118</v>
       </c>
@@ -1718,8 +1743,11 @@
       <c r="L9" s="51">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="M9" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="51" t="s">
         <v>119</v>
       </c>
@@ -1756,8 +1784,11 @@
       <c r="L10" s="51">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="M10" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="51" t="s">
         <v>120</v>
       </c>
@@ -1794,8 +1825,11 @@
       <c r="L11" s="51">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="M11" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="51" t="s">
         <v>79</v>
       </c>
@@ -1832,8 +1866,11 @@
       <c r="L12" s="51">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="M12" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="51" t="s">
         <v>121</v>
       </c>
@@ -1870,8 +1907,11 @@
       <c r="L13" s="51">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="M13" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="51" t="s">
         <v>122</v>
       </c>
@@ -1908,8 +1948,11 @@
       <c r="L14" s="51">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="M14" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="51" t="s">
         <v>123</v>
       </c>
@@ -1946,8 +1989,11 @@
       <c r="L15" s="51">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="M15" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="51" t="s">
         <v>124</v>
       </c>
@@ -1984,8 +2030,11 @@
       <c r="L16" s="51">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="M16" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="51" t="s">
         <v>91</v>
       </c>
@@ -2022,8 +2071,11 @@
       <c r="L17" s="51">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="M17" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="51" t="s">
         <v>125</v>
       </c>
@@ -2060,8 +2112,11 @@
       <c r="L18" s="51">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="M18" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="51" t="s">
         <v>126</v>
       </c>
@@ -2098,8 +2153,11 @@
       <c r="L19" s="51">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="M19" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="51" t="s">
         <v>127</v>
       </c>
@@ -2136,8 +2194,11 @@
       <c r="L20" s="51">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="M20" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="51" t="s">
         <v>128</v>
       </c>
@@ -2174,8 +2235,11 @@
       <c r="L21" s="51">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="M21" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="51" t="s">
         <v>76</v>
       </c>
@@ -2212,8 +2276,11 @@
       <c r="L22" s="51">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="M22" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="51" t="s">
         <v>82</v>
       </c>
@@ -2250,8 +2317,11 @@
       <c r="L23" s="51">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="M23" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="51" t="s">
         <v>129</v>
       </c>
@@ -2288,8 +2358,11 @@
       <c r="L24" s="51">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="M24" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="51" t="s">
         <v>130</v>
       </c>
@@ -2326,8 +2399,11 @@
       <c r="L25" s="51">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="M25" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="51" t="s">
         <v>131</v>
       </c>
@@ -2364,8 +2440,11 @@
       <c r="L26" s="51">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="M26" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="51" t="s">
         <v>132</v>
       </c>
@@ -2402,8 +2481,11 @@
       <c r="L27" s="51">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="M27" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="48" t="s">
         <v>135</v>
       </c>
@@ -2440,8 +2522,11 @@
       <c r="L28" s="48">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="M28" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="48" t="s">
         <v>136</v>
       </c>
@@ -2478,8 +2563,11 @@
       <c r="L29" s="48">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M29" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="48" t="s">
         <v>137</v>
       </c>
@@ -2516,8 +2604,11 @@
       <c r="L30" s="48">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M30" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="48" t="s">
         <v>138</v>
       </c>
@@ -2554,8 +2645,11 @@
       <c r="L31" s="48">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M31" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="48" t="s">
         <v>139</v>
       </c>
@@ -2592,8 +2686,11 @@
       <c r="L32" s="48">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M32" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="48" t="s">
         <v>140</v>
       </c>
@@ -2630,8 +2727,11 @@
       <c r="L33" s="48">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M33" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="48" t="s">
         <v>141</v>
       </c>
@@ -2668,8 +2768,11 @@
       <c r="L34" s="48">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M34" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="48" t="s">
         <v>85</v>
       </c>
@@ -2706,8 +2809,11 @@
       <c r="L35" s="48">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M35" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="52" t="s">
         <v>77</v>
       </c>
@@ -2744,8 +2850,11 @@
       <c r="L36" s="52">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M36" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="52" t="s">
         <v>83</v>
       </c>
@@ -2782,8 +2891,11 @@
       <c r="L37" s="52">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M37" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" s="52" t="s">
         <v>142</v>
       </c>
@@ -2820,8 +2932,11 @@
       <c r="L38" s="52">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M38" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" s="52" t="s">
         <v>143</v>
       </c>
@@ -2858,8 +2973,11 @@
       <c r="L39" s="52">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M39" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" s="52" t="s">
         <v>81</v>
       </c>
@@ -2896,8 +3014,11 @@
       <c r="L40" s="52">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M40" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" s="52" t="s">
         <v>144</v>
       </c>
@@ -2934,8 +3055,11 @@
       <c r="L41" s="52">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M41" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" s="48" t="s">
         <v>90</v>
       </c>
@@ -2972,8 +3096,11 @@
       <c r="L42" s="48">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M42" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" s="48" t="s">
         <v>84</v>
       </c>
@@ -3010,8 +3137,11 @@
       <c r="L43" s="48">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M43" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" s="48" t="s">
         <v>88</v>
       </c>
@@ -3048,8 +3178,11 @@
       <c r="L44" s="48">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M44" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" s="48" t="s">
         <v>87</v>
       </c>
@@ -3086,8 +3219,11 @@
       <c r="L45" s="48">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M45" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" s="48" t="s">
         <v>89</v>
       </c>
@@ -3124,8 +3260,11 @@
       <c r="L46" s="48">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:12" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M46" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="48" t="s">
         <v>133</v>
       </c>
@@ -3162,8 +3301,11 @@
       <c r="L47" s="48">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M47" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" s="53" t="s">
         <v>146</v>
       </c>
@@ -3200,8 +3342,11 @@
       <c r="L48" s="53">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M48" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" s="53" t="s">
         <v>147</v>
       </c>
@@ -3238,8 +3383,11 @@
       <c r="L49" s="53">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M49" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50" s="53" t="s">
         <v>148</v>
       </c>
@@ -3276,8 +3424,11 @@
       <c r="L50" s="53">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M50" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51" s="53" t="s">
         <v>78</v>
       </c>
@@ -3313,6 +3464,9 @@
       </c>
       <c r="L51" s="53">
         <v>1</v>
+      </c>
+      <c r="M51" s="50">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3329,14 +3483,14 @@
       <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" customWidth="1"/>
-    <col min="2" max="21" width="9.7109375" customWidth="1"/>
-    <col min="22" max="22" width="10.28515625" customWidth="1"/>
+    <col min="1" max="1" width="23.88671875" customWidth="1"/>
+    <col min="2" max="21" width="9.6640625" customWidth="1"/>
+    <col min="22" max="22" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>92</v>
       </c>
@@ -3404,7 +3558,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
         <v>113</v>
       </c>
@@ -3430,7 +3584,7 @@
       <c r="U2" s="6"/>
       <c r="V2" s="6"/>
     </row>
-    <row r="3" spans="1:22" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>114</v>
       </c>
@@ -3456,7 +3610,7 @@
       <c r="U3" s="6"/>
       <c r="V3" s="6"/>
     </row>
-    <row r="4" spans="1:22" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>115</v>
       </c>
@@ -3482,7 +3636,7 @@
       <c r="U4" s="6"/>
       <c r="V4" s="6"/>
     </row>
-    <row r="5" spans="1:22" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
         <v>116</v>
       </c>
@@ -3508,7 +3662,7 @@
       <c r="U5" s="6"/>
       <c r="V5" s="6"/>
     </row>
-    <row r="6" spans="1:22" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" s="18" t="s">
         <v>80</v>
       </c>
@@ -3534,7 +3688,7 @@
       <c r="U6" s="6"/>
       <c r="V6" s="6"/>
     </row>
-    <row r="7" spans="1:22" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" s="18" t="s">
         <v>86</v>
       </c>
@@ -3560,7 +3714,7 @@
       <c r="U7" s="6"/>
       <c r="V7" s="6"/>
     </row>
-    <row r="8" spans="1:22" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" s="18" t="s">
         <v>117</v>
       </c>
@@ -3586,7 +3740,7 @@
       <c r="U8" s="6"/>
       <c r="V8" s="6"/>
     </row>
-    <row r="9" spans="1:22" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" s="18" t="s">
         <v>118</v>
       </c>
@@ -3612,7 +3766,7 @@
       <c r="U9" s="6"/>
       <c r="V9" s="6"/>
     </row>
-    <row r="10" spans="1:22" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" s="18" t="s">
         <v>119</v>
       </c>
@@ -3638,7 +3792,7 @@
       <c r="U10" s="6"/>
       <c r="V10" s="6"/>
     </row>
-    <row r="11" spans="1:22" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" s="18" t="s">
         <v>120</v>
       </c>
@@ -3664,7 +3818,7 @@
       <c r="U11" s="6"/>
       <c r="V11" s="6"/>
     </row>
-    <row r="12" spans="1:22" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" s="18" t="s">
         <v>79</v>
       </c>
@@ -3690,7 +3844,7 @@
       <c r="U12" s="6"/>
       <c r="V12" s="6"/>
     </row>
-    <row r="13" spans="1:22" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13" s="18" t="s">
         <v>121</v>
       </c>
@@ -3716,7 +3870,7 @@
       <c r="U13" s="6"/>
       <c r="V13" s="6"/>
     </row>
-    <row r="14" spans="1:22" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14" s="18" t="s">
         <v>122</v>
       </c>
@@ -3742,7 +3896,7 @@
       <c r="U14" s="6"/>
       <c r="V14" s="6"/>
     </row>
-    <row r="15" spans="1:22" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" s="18" t="s">
         <v>123</v>
       </c>
@@ -3768,7 +3922,7 @@
       <c r="U15" s="6"/>
       <c r="V15" s="6"/>
     </row>
-    <row r="16" spans="1:22" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" s="18" t="s">
         <v>124</v>
       </c>
@@ -3794,7 +3948,7 @@
       <c r="U16" s="6"/>
       <c r="V16" s="6"/>
     </row>
-    <row r="17" spans="1:22" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A17" s="18" t="s">
         <v>91</v>
       </c>
@@ -3820,7 +3974,7 @@
       <c r="U17" s="6"/>
       <c r="V17" s="6"/>
     </row>
-    <row r="18" spans="1:22" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A18" s="18" t="s">
         <v>125</v>
       </c>
@@ -3846,7 +4000,7 @@
       <c r="U18" s="6"/>
       <c r="V18" s="6"/>
     </row>
-    <row r="19" spans="1:22" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A19" s="18" t="s">
         <v>126</v>
       </c>
@@ -3872,7 +4026,7 @@
       <c r="U19" s="6"/>
       <c r="V19" s="6"/>
     </row>
-    <row r="20" spans="1:22" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A20" s="18" t="s">
         <v>127</v>
       </c>
@@ -3898,7 +4052,7 @@
       <c r="U20" s="6"/>
       <c r="V20" s="6"/>
     </row>
-    <row r="21" spans="1:22" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A21" s="18" t="s">
         <v>128</v>
       </c>
@@ -3924,7 +4078,7 @@
       <c r="U21" s="6"/>
       <c r="V21" s="6"/>
     </row>
-    <row r="22" spans="1:22" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A22" s="18" t="s">
         <v>76</v>
       </c>
@@ -3950,7 +4104,7 @@
       <c r="U22" s="6"/>
       <c r="V22" s="6"/>
     </row>
-    <row r="23" spans="1:22" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A23" s="18" t="s">
         <v>82</v>
       </c>
@@ -3976,7 +4130,7 @@
       <c r="U23" s="6"/>
       <c r="V23" s="6"/>
     </row>
-    <row r="24" spans="1:22" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A24" s="18" t="s">
         <v>129</v>
       </c>
@@ -4002,7 +4156,7 @@
       <c r="U24" s="6"/>
       <c r="V24" s="6"/>
     </row>
-    <row r="25" spans="1:22" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A25" s="18" t="s">
         <v>130</v>
       </c>
@@ -4028,7 +4182,7 @@
       <c r="U25" s="6"/>
       <c r="V25" s="6"/>
     </row>
-    <row r="26" spans="1:22" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A26" s="18" t="s">
         <v>131</v>
       </c>
@@ -4054,7 +4208,7 @@
       <c r="U26" s="6"/>
       <c r="V26" s="6"/>
     </row>
-    <row r="27" spans="1:22" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A27" s="18" t="s">
         <v>132</v>
       </c>
@@ -4080,7 +4234,7 @@
       <c r="U27" s="6"/>
       <c r="V27" s="6"/>
     </row>
-    <row r="28" spans="1:22" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A28" s="19" t="s">
         <v>146</v>
       </c>
@@ -4106,7 +4260,7 @@
       <c r="U28" s="6"/>
       <c r="V28" s="6"/>
     </row>
-    <row r="29" spans="1:22" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A29" s="19" t="s">
         <v>147</v>
       </c>
@@ -4132,7 +4286,7 @@
       <c r="U29" s="6"/>
       <c r="V29" s="6"/>
     </row>
-    <row r="30" spans="1:22" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A30" s="19" t="s">
         <v>148</v>
       </c>
@@ -4158,7 +4312,7 @@
       <c r="U30" s="6"/>
       <c r="V30" s="6"/>
     </row>
-    <row r="31" spans="1:22" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A31" s="19" t="s">
         <v>78</v>
       </c>
@@ -4184,7 +4338,7 @@
       <c r="U31" s="6"/>
       <c r="V31" s="6"/>
     </row>
-    <row r="32" spans="1:22" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A32" s="18" t="s">
         <v>90</v>
       </c>
@@ -4210,7 +4364,7 @@
       <c r="U32" s="6"/>
       <c r="V32" s="6"/>
     </row>
-    <row r="33" spans="1:22" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A33" s="18" t="s">
         <v>84</v>
       </c>
@@ -4236,7 +4390,7 @@
       <c r="U33" s="6"/>
       <c r="V33" s="6"/>
     </row>
-    <row r="34" spans="1:22" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A34" s="18" t="s">
         <v>88</v>
       </c>
@@ -4262,7 +4416,7 @@
       <c r="U34" s="6"/>
       <c r="V34" s="6"/>
     </row>
-    <row r="35" spans="1:22" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A35" s="18" t="s">
         <v>87</v>
       </c>
@@ -4288,7 +4442,7 @@
       <c r="U35" s="6"/>
       <c r="V35" s="6"/>
     </row>
-    <row r="36" spans="1:22" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A36" s="18" t="s">
         <v>89</v>
       </c>
@@ -4314,7 +4468,7 @@
       <c r="U36" s="6"/>
       <c r="V36" s="6"/>
     </row>
-    <row r="37" spans="1:22" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A37" s="18" t="s">
         <v>133</v>
       </c>
@@ -4340,7 +4494,7 @@
       <c r="U37" s="6"/>
       <c r="V37" s="6"/>
     </row>
-    <row r="38" spans="1:22" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A38" s="18" t="s">
         <v>134</v>
       </c>
@@ -4366,7 +4520,7 @@
       <c r="U38" s="6"/>
       <c r="V38" s="6"/>
     </row>
-    <row r="39" spans="1:22" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A39" s="18" t="s">
         <v>135</v>
       </c>
@@ -4392,7 +4546,7 @@
       <c r="U39" s="6"/>
       <c r="V39" s="6"/>
     </row>
-    <row r="40" spans="1:22" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A40" s="18" t="s">
         <v>136</v>
       </c>
@@ -4418,7 +4572,7 @@
       <c r="U40" s="6"/>
       <c r="V40" s="6"/>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A41" s="18" t="s">
         <v>137</v>
       </c>
@@ -4444,7 +4598,7 @@
       <c r="U41" s="6"/>
       <c r="V41" s="6"/>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A42" s="18" t="s">
         <v>138</v>
       </c>
@@ -4470,7 +4624,7 @@
       <c r="U42" s="6"/>
       <c r="V42" s="6"/>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A43" s="18" t="s">
         <v>139</v>
       </c>
@@ -4496,7 +4650,7 @@
       <c r="U43" s="6"/>
       <c r="V43" s="6"/>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A44" s="18" t="s">
         <v>140</v>
       </c>
@@ -4522,7 +4676,7 @@
       <c r="U44" s="6"/>
       <c r="V44" s="6"/>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A45" s="18" t="s">
         <v>141</v>
       </c>
@@ -4548,7 +4702,7 @@
       <c r="U45" s="6"/>
       <c r="V45" s="6"/>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A46" s="18" t="s">
         <v>85</v>
       </c>
@@ -4574,7 +4728,7 @@
       <c r="U46" s="6"/>
       <c r="V46" s="6"/>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A47" s="18" t="s">
         <v>77</v>
       </c>
@@ -4600,7 +4754,7 @@
       <c r="U47" s="6"/>
       <c r="V47" s="6"/>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A48" s="18" t="s">
         <v>83</v>
       </c>
@@ -4626,7 +4780,7 @@
       <c r="U48" s="6"/>
       <c r="V48" s="6"/>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A49" s="18" t="s">
         <v>142</v>
       </c>
@@ -4652,7 +4806,7 @@
       <c r="U49" s="6"/>
       <c r="V49" s="6"/>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A50" s="18" t="s">
         <v>143</v>
       </c>
@@ -4678,7 +4832,7 @@
       <c r="U50" s="6"/>
       <c r="V50" s="6"/>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A51" s="18" t="s">
         <v>81</v>
       </c>
@@ -4704,7 +4858,7 @@
       <c r="U51" s="6"/>
       <c r="V51" s="6"/>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A52" s="18" t="s">
         <v>144</v>
       </c>
@@ -4730,7 +4884,7 @@
       <c r="U52" s="6"/>
       <c r="V52" s="6"/>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A53" s="25" t="s">
         <v>74</v>
       </c>
@@ -4756,7 +4910,7 @@
       <c r="U53" s="6"/>
       <c r="V53" s="6"/>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A54" s="25" t="s">
         <v>75</v>
       </c>
@@ -4782,7 +4936,7 @@
       <c r="U54" s="6"/>
       <c r="V54" s="6"/>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A55" s="25" t="s">
         <v>145</v>
       </c>
@@ -4821,13 +4975,13 @@
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.7109375" customWidth="1"/>
-    <col min="2" max="13" width="9.7109375" customWidth="1"/>
+    <col min="1" max="1" width="24.6640625" customWidth="1"/>
+    <col min="2" max="13" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>92</v>
       </c>
@@ -5055,134 +5209,134 @@
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
     </row>
-    <row r="13" spans="1:13" s="27" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="26"/>
     </row>
-    <row r="14" spans="1:13" s="27" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="26"/>
     </row>
-    <row r="15" spans="1:13" s="27" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="26"/>
     </row>
-    <row r="16" spans="1:13" s="27" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="26"/>
     </row>
-    <row r="17" spans="1:3" s="27" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="26"/>
     </row>
-    <row r="18" spans="1:3" s="27" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="26"/>
     </row>
-    <row r="19" spans="1:3" s="27" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="26"/>
     </row>
-    <row r="20" spans="1:3" s="27" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="26"/>
     </row>
-    <row r="21" spans="1:3" s="27" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="26"/>
     </row>
-    <row r="22" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="26"/>
     </row>
-    <row r="23" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="26"/>
     </row>
-    <row r="24" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="26"/>
     </row>
-    <row r="25" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="26"/>
     </row>
-    <row r="26" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="26"/>
     </row>
-    <row r="27" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="26"/>
     </row>
-    <row r="28" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="28"/>
     </row>
-    <row r="29" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="28"/>
       <c r="C29" s="28"/>
     </row>
-    <row r="30" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="28"/>
     </row>
-    <row r="31" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="28"/>
     </row>
-    <row r="32" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="26"/>
     </row>
-    <row r="33" spans="1:1" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" s="27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="26"/>
     </row>
-    <row r="34" spans="1:1" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" s="27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="26"/>
     </row>
-    <row r="35" spans="1:1" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" s="27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="26"/>
     </row>
-    <row r="36" spans="1:1" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" s="27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="26"/>
     </row>
-    <row r="37" spans="1:1" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" s="27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="26"/>
     </row>
-    <row r="38" spans="1:1" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" s="27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="26"/>
     </row>
-    <row r="39" spans="1:1" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" s="27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="26"/>
     </row>
-    <row r="40" spans="1:1" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" s="27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="26"/>
     </row>
-    <row r="41" spans="1:1" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" s="27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="26"/>
     </row>
-    <row r="42" spans="1:1" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" s="27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="26"/>
     </row>
-    <row r="43" spans="1:1" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" s="27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="26"/>
     </row>
-    <row r="44" spans="1:1" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" s="27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="26"/>
     </row>
-    <row r="45" spans="1:1" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" s="27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="26"/>
     </row>
-    <row r="46" spans="1:1" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" s="27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="26"/>
     </row>
-    <row r="47" spans="1:1" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" s="27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="26"/>
     </row>
-    <row r="48" spans="1:1" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" s="27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="26"/>
     </row>
-    <row r="49" spans="1:1" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" s="27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="26"/>
     </row>
-    <row r="50" spans="1:1" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" s="27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="26"/>
     </row>
-    <row r="51" spans="1:1" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" s="27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="26"/>
     </row>
-    <row r="52" spans="1:1" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" s="27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="26"/>
     </row>
-    <row r="53" spans="1:1" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" s="27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="29"/>
     </row>
-    <row r="54" spans="1:1" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" s="27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="29"/>
     </row>
-    <row r="55" spans="1:1" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" s="27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="29"/>
     </row>
   </sheetData>
@@ -5195,13 +5349,13 @@
   <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" customWidth="1"/>
-    <col min="2" max="13" width="9.7109375" customWidth="1"/>
+    <col min="1" max="1" width="17.88671875" customWidth="1"/>
+    <col min="2" max="13" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
@@ -5445,11 +5599,11 @@
       <selection activeCell="D2" sqref="D2:D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="18.28515625" customWidth="1"/>
-    <col min="3" max="3" width="97.5703125" customWidth="1"/>
-    <col min="4" max="4" width="52.85546875" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" customWidth="1"/>
+    <col min="3" max="3" width="97.5546875" customWidth="1"/>
+    <col min="4" max="4" width="52.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -5644,26 +5798,26 @@
       <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="20.140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="20.109375" style="3" customWidth="1"/>
     <col min="3" max="3" width="16" style="3" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" customWidth="1"/>
-    <col min="8" max="8" width="22.85546875" customWidth="1"/>
-    <col min="9" max="9" width="19.42578125" customWidth="1"/>
-    <col min="12" max="12" width="19.42578125" customWidth="1"/>
-    <col min="13" max="13" width="25.140625" style="3" customWidth="1"/>
-    <col min="14" max="14" width="26.28515625" customWidth="1"/>
-    <col min="15" max="15" width="17.7109375" style="3" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" customWidth="1"/>
-    <col min="17" max="17" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.28515625" style="4" customWidth="1"/>
-    <col min="19" max="19" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.28515625" customWidth="1"/>
-    <col min="21" max="21" width="16.5703125" customWidth="1"/>
+    <col min="5" max="5" width="17.109375" customWidth="1"/>
+    <col min="8" max="8" width="22.88671875" customWidth="1"/>
+    <col min="9" max="9" width="19.44140625" customWidth="1"/>
+    <col min="12" max="12" width="19.44140625" customWidth="1"/>
+    <col min="13" max="13" width="25.109375" style="3" customWidth="1"/>
+    <col min="14" max="14" width="26.33203125" customWidth="1"/>
+    <col min="15" max="15" width="17.6640625" style="3" customWidth="1"/>
+    <col min="16" max="16" width="14.88671875" customWidth="1"/>
+    <col min="17" max="17" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.33203125" style="4" customWidth="1"/>
+    <col min="19" max="19" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.33203125" customWidth="1"/>
+    <col min="21" max="21" width="16.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B1" s="5">
         <v>7146.0320000000002</v>
       </c>
@@ -5679,7 +5833,7 @@
       <c r="O1" s="5"/>
       <c r="P1" s="1"/>
     </row>
-    <row r="2" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B2" s="5">
         <v>2175338.3840000001</v>
       </c>
@@ -5705,7 +5859,7 @@
       <c r="O2" s="5"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B3" s="5">
         <v>442686.37599999999</v>
       </c>
@@ -5729,7 +5883,7 @@
       <c r="O3" s="5"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B4" s="5">
         <v>25927.940999999999</v>
       </c>
@@ -5756,7 +5910,7 @@
       <c r="O4" s="5"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -5791,7 +5945,7 @@
       <c r="O5" s="5"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B6" s="5"/>
       <c r="C6" s="5">
         <v>769684.61699999997</v>
@@ -5816,7 +5970,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C7" s="5">
         <v>776580.14399999997</v>
       </c>
@@ -5840,7 +5994,7 @@
         <v>12285185.104948564</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C8" s="5">
         <f>SUM(C1:C7)</f>
         <v>2491596.338</v>
@@ -5864,7 +6018,7 @@
         <v>901800.89505143708</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="E9" s="5">
         <f>B6+C8</f>
         <v>2491596.338</v>
@@ -5886,12 +6040,12 @@
         <v>15070841</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="L12" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="L13" s="3" t="s">
         <v>29</v>
       </c>
@@ -5908,7 +6062,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="L14" s="8">
         <v>5478066.2400000002</v>
       </c>
@@ -5934,7 +6088,7 @@
         <v>4313977.0977821741</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="L15" s="8"/>
       <c r="M15" s="5">
         <v>315745.96999999997</v>
@@ -5959,7 +6113,7 @@
         <v>5197670.9022178268</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="K16" t="s">
         <v>14</v>
       </c>
@@ -5985,7 +6139,7 @@
       </c>
       <c r="S16" s="3"/>
     </row>
-    <row r="17" spans="11:19" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="11:19" x14ac:dyDescent="0.3">
       <c r="K17" t="s">
         <v>30</v>
       </c>
@@ -5995,18 +6149,18 @@
         <v>12078283.359999999</v>
       </c>
     </row>
-    <row r="18" spans="11:19" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="18" spans="11:19" x14ac:dyDescent="0.3">
       <c r="L18" s="3"/>
     </row>
-    <row r="19" spans="11:19" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="19" spans="11:19" x14ac:dyDescent="0.3">
       <c r="L19" s="3"/>
     </row>
-    <row r="20" spans="11:19" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="20" spans="11:19" x14ac:dyDescent="0.3">
       <c r="L20" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="11:19" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="21" spans="11:19" x14ac:dyDescent="0.3">
       <c r="L21" s="3" t="s">
         <v>29</v>
       </c>
@@ -6023,7 +6177,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="11:19" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="22" spans="11:19" x14ac:dyDescent="0.3">
       <c r="L22" s="3">
         <v>5478066.2400000002</v>
       </c>
@@ -6048,7 +6202,7 @@
         <v>479330.43588387553</v>
       </c>
     </row>
-    <row r="23" spans="11:19" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="23" spans="11:19" x14ac:dyDescent="0.3">
       <c r="L23" s="3"/>
       <c r="M23" s="3">
         <v>315745.96999999997</v>
@@ -6071,7 +6225,7 @@
         <v>577518.56411612465</v>
       </c>
     </row>
-    <row r="24" spans="11:19" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="24" spans="11:19" x14ac:dyDescent="0.3">
       <c r="K24" t="s">
         <v>14</v>
       </c>
@@ -6097,7 +6251,7 @@
         <v>1207828.0000000002</v>
       </c>
     </row>
-    <row r="25" spans="11:19" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="25" spans="11:19" x14ac:dyDescent="0.3">
       <c r="K25" t="s">
         <v>30</v>
       </c>
@@ -6105,12 +6259,12 @@
         <v>12078283.359999999</v>
       </c>
     </row>
-    <row r="35" spans="14:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="35" spans="14:21" x14ac:dyDescent="0.3">
       <c r="N35" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="14:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="36" spans="14:21" x14ac:dyDescent="0.3">
       <c r="N36" t="s">
         <v>29</v>
       </c>
@@ -6118,7 +6272,7 @@
         <v>5923319.2699999996</v>
       </c>
     </row>
-    <row r="37" spans="14:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="37" spans="14:21" x14ac:dyDescent="0.3">
       <c r="N37" t="s">
         <v>33</v>
       </c>
@@ -6126,7 +6280,7 @@
         <v>317931.49</v>
       </c>
     </row>
-    <row r="38" spans="14:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="38" spans="14:21" x14ac:dyDescent="0.3">
       <c r="N38" t="s">
         <v>14</v>
       </c>
@@ -6144,7 +6298,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="39" spans="14:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="39" spans="14:21" x14ac:dyDescent="0.3">
       <c r="N39" t="s">
         <v>34</v>
       </c>
@@ -6171,7 +6325,7 @@
         <v>5386258.0510686319</v>
       </c>
     </row>
-    <row r="40" spans="14:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="40" spans="14:21" x14ac:dyDescent="0.3">
       <c r="N40" t="s">
         <v>35</v>
       </c>
@@ -6198,7 +6352,7 @@
         <v>6037755.4941627374</v>
       </c>
     </row>
-    <row r="41" spans="14:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="41" spans="14:21" x14ac:dyDescent="0.3">
       <c r="N41" t="s">
         <v>36</v>
       </c>
@@ -6225,7 +6379,7 @@
         <v>4823437.4547686297</v>
       </c>
     </row>
-    <row r="42" spans="14:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="42" spans="14:21" x14ac:dyDescent="0.3">
       <c r="N42" t="s">
         <v>37</v>
       </c>
@@ -6249,7 +6403,7 @@
         <v>16247450.999999998</v>
       </c>
     </row>
-    <row r="43" spans="14:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="43" spans="14:21" x14ac:dyDescent="0.3">
       <c r="N43" t="s">
         <v>14</v>
       </c>
@@ -6258,7 +6412,7 @@
         <v>12585254.568999998</v>
       </c>
     </row>
-    <row r="44" spans="14:21" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="44" spans="14:21" x14ac:dyDescent="0.3">
       <c r="N44" t="s">
         <v>30</v>
       </c>
@@ -6267,7 +6421,7 @@
         <v>18826505.328999996</v>
       </c>
     </row>
-    <row r="48" spans="14:21" x14ac:dyDescent="0.25">
+    <row r="48" spans="14:21" x14ac:dyDescent="0.3">
       <c r="N48" t="s">
         <v>41</v>
       </c>
@@ -6275,7 +6429,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="49" spans="14:20" x14ac:dyDescent="0.25">
+    <row r="49" spans="14:20" x14ac:dyDescent="0.3">
       <c r="N49" t="s">
         <v>42</v>
       </c>
@@ -6295,7 +6449,7 @@
         <v>4142488.1873903489</v>
       </c>
     </row>
-    <row r="50" spans="14:20" x14ac:dyDescent="0.25">
+    <row r="50" spans="14:20" x14ac:dyDescent="0.3">
       <c r="N50" t="s">
         <v>43</v>
       </c>
@@ -6315,7 +6469,7 @@
         <v>3815450.8126096507</v>
       </c>
     </row>
-    <row r="51" spans="14:20" x14ac:dyDescent="0.25">
+    <row r="51" spans="14:20" x14ac:dyDescent="0.3">
       <c r="O51" s="3">
         <f>SUM(O49:O50)</f>
         <v>9094786.5099999998</v>
@@ -6337,7 +6491,7 @@
         <v>9094787</v>
       </c>
     </row>
-    <row r="54" spans="14:20" x14ac:dyDescent="0.25">
+    <row r="54" spans="14:20" x14ac:dyDescent="0.3">
       <c r="N54" t="s">
         <v>44</v>
       </c>
@@ -6345,7 +6499,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="55" spans="14:20" x14ac:dyDescent="0.25">
+    <row r="55" spans="14:20" x14ac:dyDescent="0.3">
       <c r="N55" t="s">
         <v>42</v>
       </c>
@@ -6362,7 +6516,7 @@
         <v>4142488.1873903489</v>
       </c>
     </row>
-    <row r="56" spans="14:20" x14ac:dyDescent="0.25">
+    <row r="56" spans="14:20" x14ac:dyDescent="0.3">
       <c r="N56" t="s">
         <v>43</v>
       </c>
@@ -6379,7 +6533,7 @@
         <v>3815450.8126096507</v>
       </c>
     </row>
-    <row r="57" spans="14:20" x14ac:dyDescent="0.25">
+    <row r="57" spans="14:20" x14ac:dyDescent="0.3">
       <c r="P57">
         <v>1</v>
       </c>
@@ -6393,7 +6547,7 @@
         <v>9094787</v>
       </c>
     </row>
-    <row r="58" spans="14:20" x14ac:dyDescent="0.25">
+    <row r="58" spans="14:20" x14ac:dyDescent="0.3">
       <c r="N58" t="s">
         <v>45</v>
       </c>
@@ -6407,7 +6561,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="59" spans="14:20" x14ac:dyDescent="0.25">
+    <row r="59" spans="14:20" x14ac:dyDescent="0.3">
       <c r="N59" t="s">
         <v>18</v>
       </c>
@@ -6434,7 +6588,7 @@
         <v>4989638.1726636579</v>
       </c>
     </row>
-    <row r="60" spans="14:20" x14ac:dyDescent="0.25">
+    <row r="60" spans="14:20" x14ac:dyDescent="0.3">
       <c r="N60" t="s">
         <v>43</v>
       </c>
@@ -6461,7 +6615,7 @@
         <v>5464314.8273363421</v>
       </c>
     </row>
-    <row r="61" spans="14:20" x14ac:dyDescent="0.25">
+    <row r="61" spans="14:20" x14ac:dyDescent="0.3">
       <c r="N61" t="s">
         <v>46</v>
       </c>
@@ -6481,7 +6635,7 @@
         <v>10453953</v>
       </c>
     </row>
-    <row r="62" spans="14:20" x14ac:dyDescent="0.25">
+    <row r="62" spans="14:20" x14ac:dyDescent="0.3">
       <c r="N62" t="s">
         <v>43</v>
       </c>
@@ -6490,13 +6644,13 @@
         <v>6244931.3999999994</v>
       </c>
     </row>
-    <row r="63" spans="14:20" x14ac:dyDescent="0.25">
+    <row r="63" spans="14:20" x14ac:dyDescent="0.3">
       <c r="O63" s="3">
         <f>SUM(O59,O62)</f>
         <v>11947375.18</v>
       </c>
     </row>
-    <row r="65" spans="14:20" x14ac:dyDescent="0.25">
+    <row r="65" spans="14:20" x14ac:dyDescent="0.3">
       <c r="N65" t="s">
         <v>47</v>
       </c>
@@ -6510,7 +6664,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="66" spans="14:20" x14ac:dyDescent="0.25">
+    <row r="66" spans="14:20" x14ac:dyDescent="0.3">
       <c r="N66" t="s">
         <v>38</v>
       </c>
@@ -6533,7 +6687,7 @@
         <v>4989638.1726636579</v>
       </c>
     </row>
-    <row r="67" spans="14:20" x14ac:dyDescent="0.25">
+    <row r="67" spans="14:20" x14ac:dyDescent="0.3">
       <c r="N67" t="s">
         <v>43</v>
       </c>
@@ -6554,7 +6708,7 @@
         <v>5464314.8273363421</v>
       </c>
     </row>
-    <row r="68" spans="14:20" x14ac:dyDescent="0.25">
+    <row r="68" spans="14:20" x14ac:dyDescent="0.3">
       <c r="N68" t="s">
         <v>46</v>
       </c>
@@ -6571,7 +6725,7 @@
         <v>10453953</v>
       </c>
     </row>
-    <row r="69" spans="14:20" x14ac:dyDescent="0.25">
+    <row r="69" spans="14:20" x14ac:dyDescent="0.3">
       <c r="N69" t="s">
         <v>43</v>
       </c>
@@ -6579,7 +6733,7 @@
         <v>6244931.3999999994</v>
       </c>
     </row>
-    <row r="70" spans="14:20" x14ac:dyDescent="0.25">
+    <row r="70" spans="14:20" x14ac:dyDescent="0.3">
       <c r="O70" s="5">
         <v>11947375.18</v>
       </c>
@@ -6597,18 +6751,18 @@
       <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.7109375" customWidth="1"/>
-    <col min="2" max="2" width="6.140625" customWidth="1"/>
-    <col min="3" max="3" width="5.42578125" customWidth="1"/>
-    <col min="4" max="4" width="3.85546875" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="19.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.6640625" customWidth="1"/>
+    <col min="2" max="2" width="6.109375" customWidth="1"/>
+    <col min="3" max="3" width="5.44140625" customWidth="1"/>
+    <col min="4" max="4" width="3.88671875" customWidth="1"/>
+    <col min="5" max="5" width="15.44140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.5546875" style="1" customWidth="1"/>
     <col min="9" max="9" width="13" style="1" customWidth="1"/>
-    <col min="10" max="10" width="13.28515625" customWidth="1"/>
-    <col min="13" max="13" width="10.85546875" customWidth="1"/>
-    <col min="14" max="14" width="15.85546875" customWidth="1"/>
+    <col min="10" max="10" width="13.33203125" customWidth="1"/>
+    <col min="13" max="13" width="10.88671875" customWidth="1"/>
+    <col min="14" max="14" width="15.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="5:9" x14ac:dyDescent="0.3">
@@ -6798,12 +6952,12 @@
       <selection activeCell="A2" sqref="A2:N9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.28515625" customWidth="1"/>
-    <col min="2" max="2" width="28.85546875" customWidth="1"/>
-    <col min="9" max="9" width="21.140625" customWidth="1"/>
-    <col min="13" max="13" width="13.5703125" customWidth="1"/>
+    <col min="1" max="1" width="33.33203125" customWidth="1"/>
+    <col min="2" max="2" width="28.88671875" customWidth="1"/>
+    <col min="9" max="9" width="21.109375" customWidth="1"/>
+    <col min="13" max="13" width="13.5546875" customWidth="1"/>
     <col min="14" max="14" width="12" customWidth="1"/>
   </cols>
   <sheetData>
@@ -7046,34 +7200,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T95"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="J1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P95" sqref="P95"/>
+    <sheetView showGridLines="0" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.5703125" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" customWidth="1"/>
-    <col min="9" max="9" width="17.140625" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1"/>
-    <col min="11" max="11" width="14.140625" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" style="21" customWidth="1"/>
-    <col min="13" max="13" width="11.85546875" customWidth="1"/>
-    <col min="14" max="14" width="10.28515625" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" customWidth="1"/>
-    <col min="16" max="16" width="16.42578125" customWidth="1"/>
-    <col min="17" max="17" width="12.28515625" customWidth="1"/>
-    <col min="18" max="20" width="9.140625" style="1"/>
+    <col min="3" max="11" width="15.5546875" customWidth="1"/>
+    <col min="12" max="12" width="15.5546875" style="21" customWidth="1"/>
+    <col min="13" max="13" width="15.5546875" customWidth="1"/>
+    <col min="14" max="14" width="6" customWidth="1"/>
+    <col min="15" max="15" width="14.44140625" customWidth="1"/>
+    <col min="16" max="16" width="16.44140625" customWidth="1"/>
+    <col min="17" max="17" width="12.33203125" customWidth="1"/>
+    <col min="18" max="20" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="11" customFormat="1" ht="28.9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" s="11" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="23" t="s">
         <v>70</v>
       </c>
@@ -7133,7 +7279,7 @@
       </c>
       <c r="T1" s="23"/>
     </row>
-    <row r="2" spans="1:20" s="21" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="20">
         <v>1</v>
       </c>
@@ -7171,7 +7317,7 @@
       </c>
       <c r="T2" s="44"/>
     </row>
-    <row r="3" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="20">
         <v>2</v>
       </c>
@@ -7211,7 +7357,7 @@
       </c>
       <c r="T3" s="44"/>
     </row>
-    <row r="4" spans="1:20" s="21" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="20">
         <v>3</v>
       </c>
@@ -7249,7 +7395,7 @@
       </c>
       <c r="T4" s="44"/>
     </row>
-    <row r="5" spans="1:20" s="21" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="20">
         <v>4</v>
       </c>
@@ -7289,7 +7435,7 @@
       </c>
       <c r="T5" s="44"/>
     </row>
-    <row r="6" spans="1:20" s="21" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="20">
         <v>5</v>
       </c>
@@ -7331,7 +7477,7 @@
       </c>
       <c r="T6" s="44"/>
     </row>
-    <row r="7" spans="1:20" s="21" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="20">
         <v>6</v>
       </c>
@@ -7371,7 +7517,7 @@
       </c>
       <c r="T7" s="44"/>
     </row>
-    <row r="8" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="20">
         <v>7</v>
       </c>
@@ -7407,7 +7553,7 @@
       </c>
       <c r="T8" s="44"/>
     </row>
-    <row r="9" spans="1:20" s="21" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="20">
         <v>8</v>
       </c>
@@ -7447,7 +7593,7 @@
       </c>
       <c r="T9" s="44"/>
     </row>
-    <row r="10" spans="1:20" s="21" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="20">
         <v>9</v>
       </c>
@@ -7485,7 +7631,7 @@
       </c>
       <c r="T10" s="44"/>
     </row>
-    <row r="11" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="20">
         <v>10</v>
       </c>
@@ -7522,7 +7668,7 @@
       </c>
       <c r="T11" s="44"/>
     </row>
-    <row r="12" spans="1:20" s="21" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="20">
         <v>11</v>
       </c>
@@ -7562,7 +7708,7 @@
       </c>
       <c r="T12" s="44"/>
     </row>
-    <row r="13" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="20">
         <v>12</v>
       </c>
@@ -7600,7 +7746,7 @@
       </c>
       <c r="T13" s="44"/>
     </row>
-    <row r="14" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="20">
         <v>13</v>
       </c>
@@ -7637,7 +7783,7 @@
       </c>
       <c r="T14" s="44"/>
     </row>
-    <row r="15" spans="1:20" s="21" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="20">
         <v>14</v>
       </c>
@@ -7675,7 +7821,7 @@
       </c>
       <c r="T15" s="44"/>
     </row>
-    <row r="16" spans="1:20" s="21" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="20">
         <v>15</v>
       </c>
@@ -7713,7 +7859,7 @@
       </c>
       <c r="T16" s="44"/>
     </row>
-    <row r="17" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="20">
         <v>16</v>
       </c>
@@ -7750,7 +7896,7 @@
       </c>
       <c r="T17" s="44"/>
     </row>
-    <row r="18" spans="1:20" s="21" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="20">
         <v>17</v>
       </c>
@@ -7788,7 +7934,7 @@
       </c>
       <c r="T18" s="44"/>
     </row>
-    <row r="19" spans="1:20" s="21" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="20">
         <v>18</v>
       </c>
@@ -7826,7 +7972,7 @@
       </c>
       <c r="T19" s="44"/>
     </row>
-    <row r="20" spans="1:20" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="32">
         <v>19</v>
       </c>
@@ -7865,7 +8011,7 @@
       </c>
       <c r="T20" s="44"/>
     </row>
-    <row r="21" spans="1:20" s="21" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="20">
         <v>20</v>
       </c>
@@ -7903,7 +8049,7 @@
       </c>
       <c r="T21" s="44"/>
     </row>
-    <row r="22" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="20">
         <v>21</v>
       </c>
@@ -7940,7 +8086,7 @@
       </c>
       <c r="T22" s="44"/>
     </row>
-    <row r="23" spans="1:20" s="21" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="20">
         <v>22</v>
       </c>
@@ -7978,7 +8124,7 @@
       </c>
       <c r="T23" s="44"/>
     </row>
-    <row r="24" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="20">
         <v>23</v>
       </c>
@@ -8017,7 +8163,7 @@
       </c>
       <c r="T24" s="44"/>
     </row>
-    <row r="25" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="20">
         <v>24</v>
       </c>
@@ -8054,7 +8200,7 @@
       </c>
       <c r="T25" s="44"/>
     </row>
-    <row r="26" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="20">
         <v>25</v>
       </c>
@@ -8091,7 +8237,7 @@
       </c>
       <c r="T26" s="44"/>
     </row>
-    <row r="27" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="20">
         <v>26</v>
       </c>
@@ -8129,7 +8275,7 @@
       </c>
       <c r="T27" s="44"/>
     </row>
-    <row r="28" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="20">
         <v>27</v>
       </c>
@@ -8167,7 +8313,7 @@
       </c>
       <c r="T28" s="44"/>
     </row>
-    <row r="29" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="20">
         <v>28</v>
       </c>
@@ -8206,7 +8352,7 @@
       </c>
       <c r="T29" s="44"/>
     </row>
-    <row r="30" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="20">
         <v>29</v>
       </c>
@@ -8244,7 +8390,7 @@
       </c>
       <c r="T30" s="44"/>
     </row>
-    <row r="31" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="20">
         <v>30</v>
       </c>
@@ -8282,7 +8428,7 @@
       </c>
       <c r="T31" s="44"/>
     </row>
-    <row r="32" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="20">
         <v>31</v>
       </c>
@@ -8320,7 +8466,7 @@
       </c>
       <c r="T32" s="44"/>
     </row>
-    <row r="33" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="20">
         <v>32</v>
       </c>
@@ -8358,7 +8504,7 @@
       </c>
       <c r="T33" s="44"/>
     </row>
-    <row r="34" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="20">
         <v>33</v>
       </c>
@@ -8396,7 +8542,7 @@
       </c>
       <c r="T34" s="44"/>
     </row>
-    <row r="35" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="20">
         <v>34</v>
       </c>
@@ -8434,7 +8580,7 @@
       </c>
       <c r="T35" s="44"/>
     </row>
-    <row r="36" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="20">
         <v>35</v>
       </c>
@@ -8472,7 +8618,7 @@
       </c>
       <c r="T36" s="44"/>
     </row>
-    <row r="37" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="20">
         <v>36</v>
       </c>
@@ -8510,7 +8656,7 @@
       </c>
       <c r="T37" s="44"/>
     </row>
-    <row r="38" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="20">
         <v>37</v>
       </c>
@@ -8547,7 +8693,7 @@
       </c>
       <c r="T38" s="44"/>
     </row>
-    <row r="39" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="20">
         <v>38</v>
       </c>
@@ -8585,7 +8731,7 @@
       </c>
       <c r="T39" s="44"/>
     </row>
-    <row r="40" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="20">
         <v>39</v>
       </c>
@@ -8621,7 +8767,7 @@
       </c>
       <c r="T40" s="44"/>
     </row>
-    <row r="41" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="20">
         <v>40</v>
       </c>
@@ -8659,7 +8805,7 @@
       </c>
       <c r="T41" s="44"/>
     </row>
-    <row r="42" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="20">
         <v>41</v>
       </c>
@@ -8698,7 +8844,7 @@
       </c>
       <c r="T42" s="44"/>
     </row>
-    <row r="43" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="20">
         <v>42</v>
       </c>
@@ -8736,7 +8882,7 @@
       </c>
       <c r="T43" s="44"/>
     </row>
-    <row r="44" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="20">
         <v>43</v>
       </c>
@@ -8773,7 +8919,7 @@
       </c>
       <c r="T44" s="44"/>
     </row>
-    <row r="45" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="20">
         <v>44</v>
       </c>
@@ -8811,7 +8957,7 @@
       </c>
       <c r="T45" s="44"/>
     </row>
-    <row r="46" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="20">
         <v>45</v>
       </c>
@@ -8849,7 +8995,7 @@
       </c>
       <c r="T46" s="44"/>
     </row>
-    <row r="47" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="20">
         <v>46</v>
       </c>
@@ -8888,7 +9034,7 @@
       </c>
       <c r="T47" s="44"/>
     </row>
-    <row r="48" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="20">
         <v>47</v>
       </c>
@@ -8926,7 +9072,7 @@
       </c>
       <c r="T48" s="44"/>
     </row>
-    <row r="49" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="20">
         <v>48</v>
       </c>
@@ -8964,7 +9110,7 @@
       </c>
       <c r="T49" s="44"/>
     </row>
-    <row r="50" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="20">
         <v>49</v>
       </c>
@@ -9003,7 +9149,7 @@
       </c>
       <c r="T50" s="44"/>
     </row>
-    <row r="51" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="20">
         <v>50</v>
       </c>
@@ -9040,7 +9186,7 @@
       </c>
       <c r="T51" s="44"/>
     </row>
-    <row r="52" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="20">
         <v>51</v>
       </c>
@@ -9078,7 +9224,7 @@
       </c>
       <c r="T52" s="44"/>
     </row>
-    <row r="53" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="20">
         <v>52</v>
       </c>
@@ -9118,7 +9264,7 @@
       </c>
       <c r="T53" s="44"/>
     </row>
-    <row r="54" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="20">
         <v>53</v>
       </c>
@@ -9156,7 +9302,7 @@
       </c>
       <c r="T54" s="44"/>
     </row>
-    <row r="55" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="20">
         <v>54</v>
       </c>
@@ -9194,7 +9340,7 @@
       </c>
       <c r="T55" s="44"/>
     </row>
-    <row r="56" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="20">
         <v>55</v>
       </c>
@@ -9234,7 +9380,7 @@
       </c>
       <c r="T56" s="44"/>
     </row>
-    <row r="57" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="20">
         <v>56</v>
       </c>
@@ -9274,7 +9420,7 @@
       </c>
       <c r="T57" s="44"/>
     </row>
-    <row r="58" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="20">
         <v>57</v>
       </c>
@@ -9312,7 +9458,7 @@
       </c>
       <c r="T58" s="44"/>
     </row>
-    <row r="59" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="20">
         <v>58</v>
       </c>
@@ -9352,7 +9498,7 @@
       </c>
       <c r="T59" s="44"/>
     </row>
-    <row r="60" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="20">
         <v>59</v>
       </c>
@@ -9389,7 +9535,7 @@
       </c>
       <c r="T60" s="44"/>
     </row>
-    <row r="61" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="20">
         <v>60</v>
       </c>
@@ -9429,7 +9575,7 @@
       </c>
       <c r="T61" s="44"/>
     </row>
-    <row r="62" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="20">
         <v>61</v>
       </c>
@@ -9466,7 +9612,7 @@
       </c>
       <c r="T62" s="44"/>
     </row>
-    <row r="63" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="20">
         <v>62</v>
       </c>
@@ -9504,7 +9650,7 @@
       </c>
       <c r="T63" s="44"/>
     </row>
-    <row r="64" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="20">
         <v>63</v>
       </c>
@@ -9541,7 +9687,7 @@
       </c>
       <c r="T64" s="44"/>
     </row>
-    <row r="65" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" s="20">
         <v>65</v>
       </c>
@@ -9579,7 +9725,7 @@
       </c>
       <c r="T65" s="44"/>
     </row>
-    <row r="66" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A66" s="20">
         <v>66</v>
       </c>
@@ -9616,7 +9762,7 @@
       </c>
       <c r="T66" s="44"/>
     </row>
-    <row r="67" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="20">
         <v>67</v>
       </c>
@@ -9654,7 +9800,7 @@
       </c>
       <c r="T67" s="44"/>
     </row>
-    <row r="68" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" s="20">
         <v>68</v>
       </c>
@@ -9692,7 +9838,7 @@
       </c>
       <c r="T68" s="44"/>
     </row>
-    <row r="69" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="20">
         <v>69</v>
       </c>
@@ -9730,7 +9876,7 @@
       </c>
       <c r="T69" s="44"/>
     </row>
-    <row r="70" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" s="20">
         <v>70</v>
       </c>
@@ -9768,7 +9914,7 @@
       </c>
       <c r="T70" s="44"/>
     </row>
-    <row r="71" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A71" s="41">
         <v>71</v>
       </c>
@@ -9806,7 +9952,7 @@
       </c>
       <c r="T71" s="44"/>
     </row>
-    <row r="72" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A72" s="20">
         <v>72</v>
       </c>
@@ -9844,7 +9990,7 @@
       </c>
       <c r="T72" s="44"/>
     </row>
-    <row r="73" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A73" s="20">
         <v>73</v>
       </c>
@@ -9882,7 +10028,7 @@
       </c>
       <c r="T73" s="44"/>
     </row>
-    <row r="74" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A74" s="20">
         <v>74</v>
       </c>
@@ -9919,7 +10065,7 @@
       </c>
       <c r="T74" s="44"/>
     </row>
-    <row r="75" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A75" s="20">
         <v>75</v>
       </c>
@@ -9957,7 +10103,7 @@
       </c>
       <c r="T75" s="44"/>
     </row>
-    <row r="76" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A76" s="20">
         <v>76</v>
       </c>
@@ -9994,7 +10140,7 @@
       </c>
       <c r="T76" s="44"/>
     </row>
-    <row r="77" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A77" s="48">
         <v>77</v>
       </c>
@@ -10032,7 +10178,7 @@
       </c>
       <c r="T77" s="44"/>
     </row>
-    <row r="78" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A78" s="48">
         <v>78</v>
       </c>
@@ -10072,7 +10218,7 @@
       </c>
       <c r="T78" s="44"/>
     </row>
-    <row r="79" spans="1:20" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:20" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A79" s="20">
         <v>79</v>
       </c>
@@ -10110,7 +10256,7 @@
       </c>
       <c r="T79" s="44"/>
     </row>
-    <row r="80" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A80" s="20">
         <v>80</v>
       </c>
@@ -10149,7 +10295,7 @@
       </c>
       <c r="T80" s="44"/>
     </row>
-    <row r="81" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A81" s="20">
         <v>81</v>
       </c>
@@ -10187,7 +10333,7 @@
       </c>
       <c r="T81" s="44"/>
     </row>
-    <row r="82" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A82" s="20">
         <v>82</v>
       </c>
@@ -10227,7 +10373,7 @@
       </c>
       <c r="T82" s="44"/>
     </row>
-    <row r="83" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A83" s="20">
         <v>83</v>
       </c>
@@ -10267,7 +10413,7 @@
       </c>
       <c r="T83" s="44"/>
     </row>
-    <row r="84" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A84" s="20">
         <v>84</v>
       </c>
@@ -10305,7 +10451,7 @@
       </c>
       <c r="T84" s="44"/>
     </row>
-    <row r="85" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A85" s="20">
         <v>85</v>
       </c>
@@ -10343,7 +10489,7 @@
       </c>
       <c r="T85" s="44"/>
     </row>
-    <row r="86" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A86" s="20">
         <v>86</v>
       </c>
@@ -10383,7 +10529,7 @@
       </c>
       <c r="T86" s="44"/>
     </row>
-    <row r="87" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A87" s="20">
         <v>87</v>
       </c>
@@ -10421,7 +10567,7 @@
       </c>
       <c r="T87" s="44"/>
     </row>
-    <row r="88" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A88" s="20">
         <v>88</v>
       </c>
@@ -10461,7 +10607,7 @@
       </c>
       <c r="T88" s="44"/>
     </row>
-    <row r="89" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A89" s="20">
         <v>89</v>
       </c>
@@ -10499,7 +10645,7 @@
       </c>
       <c r="T89" s="44"/>
     </row>
-    <row r="90" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A90" s="20">
         <v>90</v>
       </c>
@@ -10541,7 +10687,7 @@
       </c>
       <c r="T90" s="44"/>
     </row>
-    <row r="91" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A91" s="20">
         <v>91</v>
       </c>
@@ -10579,7 +10725,7 @@
       </c>
       <c r="T91" s="44"/>
     </row>
-    <row r="92" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A92" s="20">
         <v>92</v>
       </c>
@@ -10619,7 +10765,7 @@
       </c>
       <c r="T92" s="44"/>
     </row>
-    <row r="93" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A93" s="20">
         <v>93</v>
       </c>
@@ -10656,7 +10802,7 @@
       </c>
       <c r="T93" s="44"/>
     </row>
-    <row r="94" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A94" s="20">
         <v>94</v>
       </c>
@@ -10698,11 +10844,8 @@
       </c>
       <c r="T94" s="44"/>
     </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="P95" s="4">
-        <f>SUM(P2:P94)</f>
-        <v>959411665.38999975</v>
-      </c>
+    <row r="95" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="P95" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10712,36 +10855,36 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T93"/>
+  <dimension ref="A1:T94"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
+    <sheetView showGridLines="0" topLeftCell="J1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N94" sqref="N94:P94"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" customWidth="1"/>
-    <col min="5" max="5" width="16.5703125" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" customWidth="1"/>
-    <col min="9" max="9" width="17.140625" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1"/>
-    <col min="11" max="11" width="14.140625" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" style="21" customWidth="1"/>
-    <col min="13" max="13" width="11.85546875" customWidth="1"/>
-    <col min="14" max="14" width="12" style="3" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" customWidth="1"/>
-    <col min="16" max="16" width="16.42578125" customWidth="1"/>
-    <col min="17" max="17" width="12.28515625" customWidth="1"/>
-    <col min="18" max="20" width="8.85546875" style="1"/>
+    <col min="4" max="4" width="10.88671875" customWidth="1"/>
+    <col min="5" max="5" width="16.5546875" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" customWidth="1"/>
+    <col min="9" max="9" width="17.109375" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1"/>
+    <col min="11" max="11" width="14.109375" customWidth="1"/>
+    <col min="12" max="12" width="13.44140625" style="21" customWidth="1"/>
+    <col min="13" max="13" width="11.88671875" customWidth="1"/>
+    <col min="14" max="14" width="15.6640625" style="3" customWidth="1"/>
+    <col min="15" max="15" width="14.44140625" customWidth="1"/>
+    <col min="16" max="16" width="16.44140625" customWidth="1"/>
+    <col min="17" max="17" width="12.33203125" customWidth="1"/>
+    <col min="18" max="20" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="11" customFormat="1" ht="28.9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" s="11" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="23" t="s">
         <v>70</v>
       </c>
@@ -10801,7 +10944,7 @@
       </c>
       <c r="T1" s="23"/>
     </row>
-    <row r="2" spans="1:20" s="21" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="20">
         <v>1</v>
       </c>
@@ -10841,7 +10984,7 @@
       </c>
       <c r="T2" s="44"/>
     </row>
-    <row r="3" spans="1:20" s="21" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="20">
         <v>2</v>
       </c>
@@ -10883,7 +11026,7 @@
       </c>
       <c r="T3" s="44"/>
     </row>
-    <row r="4" spans="1:20" s="21" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="20">
         <v>3</v>
       </c>
@@ -10923,7 +11066,7 @@
       </c>
       <c r="T4" s="44"/>
     </row>
-    <row r="5" spans="1:20" s="21" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="20">
         <v>4</v>
       </c>
@@ -10965,7 +11108,7 @@
       </c>
       <c r="T5" s="44"/>
     </row>
-    <row r="6" spans="1:20" s="21" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="20">
         <v>5</v>
       </c>
@@ -11009,7 +11152,7 @@
       </c>
       <c r="T6" s="44"/>
     </row>
-    <row r="7" spans="1:20" s="21" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="20">
         <v>6</v>
       </c>
@@ -11051,7 +11194,7 @@
       </c>
       <c r="T7" s="44"/>
     </row>
-    <row r="8" spans="1:20" s="21" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="20">
         <v>7</v>
       </c>
@@ -11091,7 +11234,7 @@
       </c>
       <c r="T8" s="44"/>
     </row>
-    <row r="9" spans="1:20" s="21" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="20">
         <v>8</v>
       </c>
@@ -11133,7 +11276,7 @@
       </c>
       <c r="T9" s="44"/>
     </row>
-    <row r="10" spans="1:20" s="21" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="20">
         <v>9</v>
       </c>
@@ -11173,7 +11316,7 @@
       </c>
       <c r="T10" s="44"/>
     </row>
-    <row r="11" spans="1:20" s="21" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="20">
         <v>10</v>
       </c>
@@ -11213,7 +11356,7 @@
       </c>
       <c r="T11" s="44"/>
     </row>
-    <row r="12" spans="1:20" s="21" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="20">
         <v>11</v>
       </c>
@@ -11255,7 +11398,7 @@
       </c>
       <c r="T12" s="44"/>
     </row>
-    <row r="13" spans="1:20" s="21" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="20">
         <v>12</v>
       </c>
@@ -11295,7 +11438,7 @@
       </c>
       <c r="T13" s="44"/>
     </row>
-    <row r="14" spans="1:20" s="21" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="20">
         <v>13</v>
       </c>
@@ -11335,7 +11478,7 @@
       </c>
       <c r="T14" s="44"/>
     </row>
-    <row r="15" spans="1:20" s="21" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="20">
         <v>14</v>
       </c>
@@ -11375,7 +11518,7 @@
       </c>
       <c r="T15" s="44"/>
     </row>
-    <row r="16" spans="1:20" s="21" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="20">
         <v>15</v>
       </c>
@@ -11415,7 +11558,7 @@
       </c>
       <c r="T16" s="44"/>
     </row>
-    <row r="17" spans="1:20" s="21" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="20">
         <v>16</v>
       </c>
@@ -11455,7 +11598,7 @@
       </c>
       <c r="T17" s="44"/>
     </row>
-    <row r="18" spans="1:20" s="21" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="20">
         <v>17</v>
       </c>
@@ -11495,7 +11638,7 @@
       </c>
       <c r="T18" s="44"/>
     </row>
-    <row r="19" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="20">
         <v>18</v>
       </c>
@@ -11535,7 +11678,7 @@
       </c>
       <c r="T19" s="44"/>
     </row>
-    <row r="20" spans="1:20" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="32">
         <v>19</v>
       </c>
@@ -11575,7 +11718,7 @@
       </c>
       <c r="T20" s="44"/>
     </row>
-    <row r="21" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="20">
         <v>20</v>
       </c>
@@ -11615,7 +11758,7 @@
       </c>
       <c r="T21" s="44"/>
     </row>
-    <row r="22" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="20">
         <v>21</v>
       </c>
@@ -11655,7 +11798,7 @@
       </c>
       <c r="T22" s="44"/>
     </row>
-    <row r="23" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="20">
         <v>22</v>
       </c>
@@ -11695,7 +11838,7 @@
       </c>
       <c r="T23" s="44"/>
     </row>
-    <row r="24" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="20">
         <v>23</v>
       </c>
@@ -11737,7 +11880,7 @@
       </c>
       <c r="T24" s="44"/>
     </row>
-    <row r="25" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="20">
         <v>24</v>
       </c>
@@ -11777,7 +11920,7 @@
       </c>
       <c r="T25" s="44"/>
     </row>
-    <row r="26" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="20">
         <v>25</v>
       </c>
@@ -11817,7 +11960,7 @@
       </c>
       <c r="T26" s="44"/>
     </row>
-    <row r="27" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="20">
         <v>26</v>
       </c>
@@ -11857,7 +12000,7 @@
       </c>
       <c r="T27" s="44"/>
     </row>
-    <row r="28" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="20">
         <v>27</v>
       </c>
@@ -11897,7 +12040,7 @@
       </c>
       <c r="T28" s="44"/>
     </row>
-    <row r="29" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="20">
         <v>28</v>
       </c>
@@ -11937,7 +12080,7 @@
       </c>
       <c r="T29" s="44"/>
     </row>
-    <row r="30" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="20">
         <v>29</v>
       </c>
@@ -11977,7 +12120,7 @@
       </c>
       <c r="T30" s="44"/>
     </row>
-    <row r="31" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="20">
         <v>30</v>
       </c>
@@ -12017,7 +12160,7 @@
       </c>
       <c r="T31" s="44"/>
     </row>
-    <row r="32" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="20">
         <v>31</v>
       </c>
@@ -12057,7 +12200,7 @@
       </c>
       <c r="T32" s="44"/>
     </row>
-    <row r="33" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="20">
         <v>32</v>
       </c>
@@ -12097,7 +12240,7 @@
       </c>
       <c r="T33" s="44"/>
     </row>
-    <row r="34" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="20">
         <v>33</v>
       </c>
@@ -12137,7 +12280,7 @@
       </c>
       <c r="T34" s="44"/>
     </row>
-    <row r="35" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="20">
         <v>34</v>
       </c>
@@ -12177,7 +12320,7 @@
       </c>
       <c r="T35" s="44"/>
     </row>
-    <row r="36" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="20">
         <v>35</v>
       </c>
@@ -12217,7 +12360,7 @@
       </c>
       <c r="T36" s="44"/>
     </row>
-    <row r="37" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="20">
         <v>36</v>
       </c>
@@ -12257,7 +12400,7 @@
       </c>
       <c r="T37" s="44"/>
     </row>
-    <row r="38" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="20">
         <v>37</v>
       </c>
@@ -12297,7 +12440,7 @@
       </c>
       <c r="T38" s="44"/>
     </row>
-    <row r="39" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="20">
         <v>38</v>
       </c>
@@ -12337,7 +12480,7 @@
       </c>
       <c r="T39" s="44"/>
     </row>
-    <row r="40" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="20">
         <v>39</v>
       </c>
@@ -12377,7 +12520,7 @@
       </c>
       <c r="T40" s="44"/>
     </row>
-    <row r="41" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="20">
         <v>40</v>
       </c>
@@ -12417,7 +12560,7 @@
       </c>
       <c r="T41" s="44"/>
     </row>
-    <row r="42" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="20">
         <v>41</v>
       </c>
@@ -12459,7 +12602,7 @@
       </c>
       <c r="T42" s="44"/>
     </row>
-    <row r="43" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="20">
         <v>42</v>
       </c>
@@ -12499,7 +12642,7 @@
       </c>
       <c r="T43" s="44"/>
     </row>
-    <row r="44" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="20">
         <v>43</v>
       </c>
@@ -12539,7 +12682,7 @@
       </c>
       <c r="T44" s="44"/>
     </row>
-    <row r="45" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="20">
         <v>44</v>
       </c>
@@ -12579,7 +12722,7 @@
       </c>
       <c r="T45" s="44"/>
     </row>
-    <row r="46" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="20">
         <v>45</v>
       </c>
@@ -12619,7 +12762,7 @@
       </c>
       <c r="T46" s="44"/>
     </row>
-    <row r="47" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="20">
         <v>46</v>
       </c>
@@ -12661,7 +12804,7 @@
       </c>
       <c r="T47" s="44"/>
     </row>
-    <row r="48" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="20">
         <v>47</v>
       </c>
@@ -12701,7 +12844,7 @@
       </c>
       <c r="T48" s="44"/>
     </row>
-    <row r="49" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="20">
         <v>48</v>
       </c>
@@ -12741,7 +12884,7 @@
       </c>
       <c r="T49" s="44"/>
     </row>
-    <row r="50" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="20">
         <v>49</v>
       </c>
@@ -12783,7 +12926,7 @@
       </c>
       <c r="T50" s="44"/>
     </row>
-    <row r="51" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="20">
         <v>50</v>
       </c>
@@ -12823,7 +12966,7 @@
       </c>
       <c r="T51" s="44"/>
     </row>
-    <row r="52" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="20">
         <v>51</v>
       </c>
@@ -12863,7 +13006,7 @@
       </c>
       <c r="T52" s="44"/>
     </row>
-    <row r="53" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="20">
         <v>52</v>
       </c>
@@ -12905,7 +13048,7 @@
       </c>
       <c r="T53" s="44"/>
     </row>
-    <row r="54" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="20">
         <v>53</v>
       </c>
@@ -12945,7 +13088,7 @@
       </c>
       <c r="T54" s="44"/>
     </row>
-    <row r="55" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="20">
         <v>54</v>
       </c>
@@ -12985,7 +13128,7 @@
       </c>
       <c r="T55" s="44"/>
     </row>
-    <row r="56" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="20">
         <v>55</v>
       </c>
@@ -13027,7 +13170,7 @@
       </c>
       <c r="T56" s="44"/>
     </row>
-    <row r="57" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="20">
         <v>56</v>
       </c>
@@ -13069,7 +13212,7 @@
       </c>
       <c r="T57" s="44"/>
     </row>
-    <row r="58" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="20">
         <v>57</v>
       </c>
@@ -13109,7 +13252,7 @@
       </c>
       <c r="T58" s="44"/>
     </row>
-    <row r="59" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="20">
         <v>58</v>
       </c>
@@ -13151,7 +13294,7 @@
       </c>
       <c r="T59" s="44"/>
     </row>
-    <row r="60" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="20">
         <v>59</v>
       </c>
@@ -13191,7 +13334,7 @@
       </c>
       <c r="T60" s="44"/>
     </row>
-    <row r="61" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="20">
         <v>60</v>
       </c>
@@ -13233,7 +13376,7 @@
       </c>
       <c r="T61" s="44"/>
     </row>
-    <row r="62" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="20">
         <v>61</v>
       </c>
@@ -13273,7 +13416,7 @@
       </c>
       <c r="T62" s="44"/>
     </row>
-    <row r="63" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="20">
         <v>62</v>
       </c>
@@ -13313,7 +13456,7 @@
       </c>
       <c r="T63" s="44"/>
     </row>
-    <row r="64" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="20">
         <v>63</v>
       </c>
@@ -13353,7 +13496,7 @@
       </c>
       <c r="T64" s="44"/>
     </row>
-    <row r="65" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" s="20">
         <v>65</v>
       </c>
@@ -13393,7 +13536,7 @@
       </c>
       <c r="T65" s="44"/>
     </row>
-    <row r="66" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A66" s="20">
         <v>66</v>
       </c>
@@ -13433,7 +13576,7 @@
       </c>
       <c r="T66" s="44"/>
     </row>
-    <row r="67" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="20">
         <v>67</v>
       </c>
@@ -13473,7 +13616,7 @@
       </c>
       <c r="T67" s="44"/>
     </row>
-    <row r="68" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" s="20">
         <v>68</v>
       </c>
@@ -13513,7 +13656,7 @@
       </c>
       <c r="T68" s="44"/>
     </row>
-    <row r="69" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="20">
         <v>69</v>
       </c>
@@ -13553,7 +13696,7 @@
       </c>
       <c r="T69" s="44"/>
     </row>
-    <row r="70" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" s="20">
         <v>70</v>
       </c>
@@ -13593,7 +13736,7 @@
       </c>
       <c r="T70" s="44"/>
     </row>
-    <row r="71" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A71" s="41">
         <v>71</v>
       </c>
@@ -13633,7 +13776,7 @@
       </c>
       <c r="T71" s="44"/>
     </row>
-    <row r="72" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A72" s="20">
         <v>72</v>
       </c>
@@ -13673,7 +13816,7 @@
       </c>
       <c r="T72" s="44"/>
     </row>
-    <row r="73" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A73" s="20">
         <v>73</v>
       </c>
@@ -13713,7 +13856,7 @@
       </c>
       <c r="T73" s="44"/>
     </row>
-    <row r="74" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A74" s="20">
         <v>74</v>
       </c>
@@ -13753,7 +13896,7 @@
       </c>
       <c r="T74" s="44"/>
     </row>
-    <row r="75" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A75" s="20">
         <v>75</v>
       </c>
@@ -13793,7 +13936,7 @@
       </c>
       <c r="T75" s="44"/>
     </row>
-    <row r="76" spans="1:20" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:20" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A76" s="20">
         <v>79</v>
       </c>
@@ -13833,7 +13976,7 @@
       </c>
       <c r="T76" s="44"/>
     </row>
-    <row r="77" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A77" s="20">
         <v>80</v>
       </c>
@@ -13875,7 +14018,7 @@
       </c>
       <c r="T77" s="44"/>
     </row>
-    <row r="78" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A78" s="20">
         <v>81</v>
       </c>
@@ -13915,7 +14058,7 @@
       </c>
       <c r="T78" s="44"/>
     </row>
-    <row r="79" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A79" s="20">
         <v>82</v>
       </c>
@@ -13957,7 +14100,7 @@
       </c>
       <c r="T79" s="44"/>
     </row>
-    <row r="80" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A80" s="20">
         <v>83</v>
       </c>
@@ -13999,7 +14142,7 @@
       </c>
       <c r="T80" s="44"/>
     </row>
-    <row r="81" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A81" s="20">
         <v>84</v>
       </c>
@@ -14039,7 +14182,7 @@
       </c>
       <c r="T81" s="44"/>
     </row>
-    <row r="82" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A82" s="20">
         <v>85</v>
       </c>
@@ -14079,7 +14222,7 @@
       </c>
       <c r="T82" s="44"/>
     </row>
-    <row r="83" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A83" s="20">
         <v>86</v>
       </c>
@@ -14121,7 +14264,7 @@
       </c>
       <c r="T83" s="44"/>
     </row>
-    <row r="84" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A84" s="20">
         <v>87</v>
       </c>
@@ -14161,7 +14304,7 @@
       </c>
       <c r="T84" s="44"/>
     </row>
-    <row r="85" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A85" s="20">
         <v>88</v>
       </c>
@@ -14203,7 +14346,7 @@
       </c>
       <c r="T85" s="44"/>
     </row>
-    <row r="86" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A86" s="20">
         <v>89</v>
       </c>
@@ -14243,7 +14386,7 @@
       </c>
       <c r="T86" s="44"/>
     </row>
-    <row r="87" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A87" s="20">
         <v>90</v>
       </c>
@@ -14287,7 +14430,7 @@
       </c>
       <c r="T87" s="44"/>
     </row>
-    <row r="88" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A88" s="20">
         <v>91</v>
       </c>
@@ -14327,7 +14470,7 @@
       </c>
       <c r="T88" s="44"/>
     </row>
-    <row r="89" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A89" s="20">
         <v>92</v>
       </c>
@@ -14369,7 +14512,7 @@
       </c>
       <c r="T89" s="44"/>
     </row>
-    <row r="90" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A90" s="20">
         <v>93</v>
       </c>
@@ -14409,7 +14552,7 @@
       </c>
       <c r="T90" s="44"/>
     </row>
-    <row r="91" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A91" s="20">
         <v>94</v>
       </c>
@@ -14453,7 +14596,7 @@
       </c>
       <c r="T91" s="44"/>
     </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A92" s="48">
         <v>77</v>
       </c>
@@ -14492,7 +14635,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A93" s="48">
         <v>78</v>
       </c>
@@ -14532,6 +14675,10 @@
       <c r="S93" s="48">
         <v>6</v>
       </c>
+    </row>
+    <row r="94" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="O94" s="3"/>
+      <c r="P94" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14541,36 +14688,36 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T93"/>
+  <dimension ref="A1:T94"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N2" sqref="N2:P93"/>
+      <selection pane="bottomLeft" activeCell="V14" sqref="V14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="16.5703125" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="17.140625" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="14.140625" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" style="21" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="11.85546875" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="12" style="3" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" customWidth="1"/>
-    <col min="16" max="16" width="16.42578125" customWidth="1"/>
-    <col min="17" max="17" width="12.28515625" customWidth="1"/>
-    <col min="18" max="20" width="8.85546875" style="1"/>
+    <col min="4" max="4" width="10.88671875" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5546875" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="17.109375" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="14.109375" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="13.44140625" style="21" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="11.88671875" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="14.88671875" style="3" customWidth="1"/>
+    <col min="15" max="15" width="14.44140625" customWidth="1"/>
+    <col min="16" max="16" width="16.44140625" customWidth="1"/>
+    <col min="17" max="17" width="12.33203125" customWidth="1"/>
+    <col min="18" max="20" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="11" customFormat="1" ht="28.9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" s="11" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="23" t="s">
         <v>70</v>
       </c>
@@ -14630,7 +14777,7 @@
       </c>
       <c r="T1" s="23"/>
     </row>
-    <row r="2" spans="1:20" s="21" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="20">
         <v>1</v>
       </c>
@@ -14670,7 +14817,7 @@
       </c>
       <c r="T2" s="44"/>
     </row>
-    <row r="3" spans="1:20" s="21" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="20">
         <v>2</v>
       </c>
@@ -14714,7 +14861,7 @@
       </c>
       <c r="T3" s="44"/>
     </row>
-    <row r="4" spans="1:20" s="21" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="20">
         <v>3</v>
       </c>
@@ -14756,7 +14903,7 @@
       </c>
       <c r="T4" s="44"/>
     </row>
-    <row r="5" spans="1:20" s="21" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="20">
         <v>4</v>
       </c>
@@ -14800,7 +14947,7 @@
       </c>
       <c r="T5" s="44"/>
     </row>
-    <row r="6" spans="1:20" s="21" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="20">
         <v>5</v>
       </c>
@@ -14846,7 +14993,7 @@
       </c>
       <c r="T6" s="44"/>
     </row>
-    <row r="7" spans="1:20" s="21" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="20">
         <v>6</v>
       </c>
@@ -14890,7 +15037,7 @@
       </c>
       <c r="T7" s="44"/>
     </row>
-    <row r="8" spans="1:20" s="21" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="20">
         <v>7</v>
       </c>
@@ -14932,7 +15079,7 @@
       </c>
       <c r="T8" s="44"/>
     </row>
-    <row r="9" spans="1:20" s="21" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="20">
         <v>8</v>
       </c>
@@ -14976,7 +15123,7 @@
       </c>
       <c r="T9" s="44"/>
     </row>
-    <row r="10" spans="1:20" s="21" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="20">
         <v>9</v>
       </c>
@@ -15018,7 +15165,7 @@
       </c>
       <c r="T10" s="44"/>
     </row>
-    <row r="11" spans="1:20" s="21" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="20">
         <v>10</v>
       </c>
@@ -15060,7 +15207,7 @@
       </c>
       <c r="T11" s="44"/>
     </row>
-    <row r="12" spans="1:20" s="21" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="20">
         <v>11</v>
       </c>
@@ -15104,7 +15251,7 @@
       </c>
       <c r="T12" s="44"/>
     </row>
-    <row r="13" spans="1:20" s="21" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="20">
         <v>12</v>
       </c>
@@ -15146,7 +15293,7 @@
       </c>
       <c r="T13" s="44"/>
     </row>
-    <row r="14" spans="1:20" s="21" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="20">
         <v>13</v>
       </c>
@@ -15188,7 +15335,7 @@
       </c>
       <c r="T14" s="44"/>
     </row>
-    <row r="15" spans="1:20" s="21" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="20">
         <v>14</v>
       </c>
@@ -15230,7 +15377,7 @@
       </c>
       <c r="T15" s="44"/>
     </row>
-    <row r="16" spans="1:20" s="21" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="20">
         <v>15</v>
       </c>
@@ -15272,7 +15419,7 @@
       </c>
       <c r="T16" s="44"/>
     </row>
-    <row r="17" spans="1:20" s="21" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="20">
         <v>16</v>
       </c>
@@ -15314,7 +15461,7 @@
       </c>
       <c r="T17" s="44"/>
     </row>
-    <row r="18" spans="1:20" s="21" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="20">
         <v>17</v>
       </c>
@@ -15356,7 +15503,7 @@
       </c>
       <c r="T18" s="44"/>
     </row>
-    <row r="19" spans="1:20" s="21" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="20">
         <v>18</v>
       </c>
@@ -15398,7 +15545,7 @@
       </c>
       <c r="T19" s="44"/>
     </row>
-    <row r="20" spans="1:20" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="32">
         <v>19</v>
       </c>
@@ -15440,7 +15587,7 @@
       </c>
       <c r="T20" s="44"/>
     </row>
-    <row r="21" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="20">
         <v>20</v>
       </c>
@@ -15482,7 +15629,7 @@
       </c>
       <c r="T21" s="44"/>
     </row>
-    <row r="22" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="20">
         <v>21</v>
       </c>
@@ -15524,7 +15671,7 @@
       </c>
       <c r="T22" s="44"/>
     </row>
-    <row r="23" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="20">
         <v>22</v>
       </c>
@@ -15566,7 +15713,7 @@
       </c>
       <c r="T23" s="44"/>
     </row>
-    <row r="24" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="20">
         <v>23</v>
       </c>
@@ -15610,7 +15757,7 @@
       </c>
       <c r="T24" s="44"/>
     </row>
-    <row r="25" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="20">
         <v>24</v>
       </c>
@@ -15652,7 +15799,7 @@
       </c>
       <c r="T25" s="44"/>
     </row>
-    <row r="26" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="20">
         <v>25</v>
       </c>
@@ -15694,7 +15841,7 @@
       </c>
       <c r="T26" s="44"/>
     </row>
-    <row r="27" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="20">
         <v>26</v>
       </c>
@@ -15736,7 +15883,7 @@
       </c>
       <c r="T27" s="44"/>
     </row>
-    <row r="28" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="20">
         <v>27</v>
       </c>
@@ -15778,7 +15925,7 @@
       </c>
       <c r="T28" s="44"/>
     </row>
-    <row r="29" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="20">
         <v>28</v>
       </c>
@@ -15820,7 +15967,7 @@
       </c>
       <c r="T29" s="44"/>
     </row>
-    <row r="30" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="20">
         <v>29</v>
       </c>
@@ -15862,7 +16009,7 @@
       </c>
       <c r="T30" s="44"/>
     </row>
-    <row r="31" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="20">
         <v>30</v>
       </c>
@@ -15904,7 +16051,7 @@
       </c>
       <c r="T31" s="44"/>
     </row>
-    <row r="32" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="20">
         <v>31</v>
       </c>
@@ -15946,7 +16093,7 @@
       </c>
       <c r="T32" s="44"/>
     </row>
-    <row r="33" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="20">
         <v>32</v>
       </c>
@@ -15988,7 +16135,7 @@
       </c>
       <c r="T33" s="44"/>
     </row>
-    <row r="34" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="20">
         <v>33</v>
       </c>
@@ -16030,7 +16177,7 @@
       </c>
       <c r="T34" s="44"/>
     </row>
-    <row r="35" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="20">
         <v>34</v>
       </c>
@@ -16072,7 +16219,7 @@
       </c>
       <c r="T35" s="44"/>
     </row>
-    <row r="36" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="20">
         <v>35</v>
       </c>
@@ -16114,7 +16261,7 @@
       </c>
       <c r="T36" s="44"/>
     </row>
-    <row r="37" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="20">
         <v>36</v>
       </c>
@@ -16156,7 +16303,7 @@
       </c>
       <c r="T37" s="44"/>
     </row>
-    <row r="38" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="20">
         <v>37</v>
       </c>
@@ -16198,7 +16345,7 @@
       </c>
       <c r="T38" s="44"/>
     </row>
-    <row r="39" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="20">
         <v>38</v>
       </c>
@@ -16240,7 +16387,7 @@
       </c>
       <c r="T39" s="44"/>
     </row>
-    <row r="40" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="20">
         <v>39</v>
       </c>
@@ -16282,7 +16429,7 @@
       </c>
       <c r="T40" s="44"/>
     </row>
-    <row r="41" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="20">
         <v>40</v>
       </c>
@@ -16324,7 +16471,7 @@
       </c>
       <c r="T41" s="44"/>
     </row>
-    <row r="42" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="20">
         <v>41</v>
       </c>
@@ -16368,7 +16515,7 @@
       </c>
       <c r="T42" s="44"/>
     </row>
-    <row r="43" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="20">
         <v>42</v>
       </c>
@@ -16410,7 +16557,7 @@
       </c>
       <c r="T43" s="44"/>
     </row>
-    <row r="44" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="20">
         <v>43</v>
       </c>
@@ -16452,7 +16599,7 @@
       </c>
       <c r="T44" s="44"/>
     </row>
-    <row r="45" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="20">
         <v>44</v>
       </c>
@@ -16494,7 +16641,7 @@
       </c>
       <c r="T45" s="44"/>
     </row>
-    <row r="46" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="20">
         <v>45</v>
       </c>
@@ -16536,7 +16683,7 @@
       </c>
       <c r="T46" s="44"/>
     </row>
-    <row r="47" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="20">
         <v>46</v>
       </c>
@@ -16580,7 +16727,7 @@
       </c>
       <c r="T47" s="44"/>
     </row>
-    <row r="48" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="20">
         <v>47</v>
       </c>
@@ -16622,7 +16769,7 @@
       </c>
       <c r="T48" s="44"/>
     </row>
-    <row r="49" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="20">
         <v>48</v>
       </c>
@@ -16664,7 +16811,7 @@
       </c>
       <c r="T49" s="44"/>
     </row>
-    <row r="50" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="20">
         <v>49</v>
       </c>
@@ -16708,7 +16855,7 @@
       </c>
       <c r="T50" s="44"/>
     </row>
-    <row r="51" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="20">
         <v>50</v>
       </c>
@@ -16750,7 +16897,7 @@
       </c>
       <c r="T51" s="44"/>
     </row>
-    <row r="52" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="20">
         <v>51</v>
       </c>
@@ -16792,7 +16939,7 @@
       </c>
       <c r="T52" s="44"/>
     </row>
-    <row r="53" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="20">
         <v>52</v>
       </c>
@@ -16836,7 +16983,7 @@
       </c>
       <c r="T53" s="44"/>
     </row>
-    <row r="54" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="20">
         <v>53</v>
       </c>
@@ -16878,7 +17025,7 @@
       </c>
       <c r="T54" s="44"/>
     </row>
-    <row r="55" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="20">
         <v>54</v>
       </c>
@@ -16920,7 +17067,7 @@
       </c>
       <c r="T55" s="44"/>
     </row>
-    <row r="56" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="20">
         <v>55</v>
       </c>
@@ -16964,7 +17111,7 @@
       </c>
       <c r="T56" s="44"/>
     </row>
-    <row r="57" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="20">
         <v>56</v>
       </c>
@@ -17008,7 +17155,7 @@
       </c>
       <c r="T57" s="44"/>
     </row>
-    <row r="58" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="20">
         <v>57</v>
       </c>
@@ -17050,7 +17197,7 @@
       </c>
       <c r="T58" s="44"/>
     </row>
-    <row r="59" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="20">
         <v>58</v>
       </c>
@@ -17094,7 +17241,7 @@
       </c>
       <c r="T59" s="44"/>
     </row>
-    <row r="60" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="20">
         <v>59</v>
       </c>
@@ -17136,7 +17283,7 @@
       </c>
       <c r="T60" s="44"/>
     </row>
-    <row r="61" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="20">
         <v>60</v>
       </c>
@@ -17180,7 +17327,7 @@
       </c>
       <c r="T61" s="44"/>
     </row>
-    <row r="62" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="20">
         <v>61</v>
       </c>
@@ -17222,7 +17369,7 @@
       </c>
       <c r="T62" s="44"/>
     </row>
-    <row r="63" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="20">
         <v>62</v>
       </c>
@@ -17264,7 +17411,7 @@
       </c>
       <c r="T63" s="44"/>
     </row>
-    <row r="64" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="20">
         <v>63</v>
       </c>
@@ -17306,7 +17453,7 @@
       </c>
       <c r="T64" s="44"/>
     </row>
-    <row r="65" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" s="20">
         <v>65</v>
       </c>
@@ -17348,7 +17495,7 @@
       </c>
       <c r="T65" s="44"/>
     </row>
-    <row r="66" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A66" s="20">
         <v>66</v>
       </c>
@@ -17390,7 +17537,7 @@
       </c>
       <c r="T66" s="44"/>
     </row>
-    <row r="67" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="20">
         <v>67</v>
       </c>
@@ -17432,7 +17579,7 @@
       </c>
       <c r="T67" s="44"/>
     </row>
-    <row r="68" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" s="20">
         <v>68</v>
       </c>
@@ -17474,7 +17621,7 @@
       </c>
       <c r="T68" s="44"/>
     </row>
-    <row r="69" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="20">
         <v>69</v>
       </c>
@@ -17516,7 +17663,7 @@
       </c>
       <c r="T69" s="44"/>
     </row>
-    <row r="70" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" s="20">
         <v>70</v>
       </c>
@@ -17558,7 +17705,7 @@
       </c>
       <c r="T70" s="44"/>
     </row>
-    <row r="71" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A71" s="41">
         <v>71</v>
       </c>
@@ -17600,7 +17747,7 @@
       </c>
       <c r="T71" s="44"/>
     </row>
-    <row r="72" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A72" s="20">
         <v>72</v>
       </c>
@@ -17642,7 +17789,7 @@
       </c>
       <c r="T72" s="44"/>
     </row>
-    <row r="73" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A73" s="20">
         <v>73</v>
       </c>
@@ -17684,7 +17831,7 @@
       </c>
       <c r="T73" s="44"/>
     </row>
-    <row r="74" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A74" s="20">
         <v>74</v>
       </c>
@@ -17726,7 +17873,7 @@
       </c>
       <c r="T74" s="44"/>
     </row>
-    <row r="75" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A75" s="20">
         <v>75</v>
       </c>
@@ -17768,7 +17915,7 @@
       </c>
       <c r="T75" s="44"/>
     </row>
-    <row r="76" spans="1:20" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:20" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A76" s="20">
         <v>79</v>
       </c>
@@ -17810,7 +17957,7 @@
       </c>
       <c r="T76" s="44"/>
     </row>
-    <row r="77" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A77" s="20">
         <v>80</v>
       </c>
@@ -17854,7 +18001,7 @@
       </c>
       <c r="T77" s="44"/>
     </row>
-    <row r="78" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A78" s="20">
         <v>81</v>
       </c>
@@ -17896,7 +18043,7 @@
       </c>
       <c r="T78" s="44"/>
     </row>
-    <row r="79" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A79" s="20">
         <v>82</v>
       </c>
@@ -17940,7 +18087,7 @@
       </c>
       <c r="T79" s="44"/>
     </row>
-    <row r="80" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A80" s="20">
         <v>83</v>
       </c>
@@ -17984,7 +18131,7 @@
       </c>
       <c r="T80" s="44"/>
     </row>
-    <row r="81" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A81" s="20">
         <v>84</v>
       </c>
@@ -18026,7 +18173,7 @@
       </c>
       <c r="T81" s="44"/>
     </row>
-    <row r="82" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A82" s="20">
         <v>85</v>
       </c>
@@ -18068,7 +18215,7 @@
       </c>
       <c r="T82" s="44"/>
     </row>
-    <row r="83" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A83" s="20">
         <v>86</v>
       </c>
@@ -18112,7 +18259,7 @@
       </c>
       <c r="T83" s="44"/>
     </row>
-    <row r="84" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A84" s="20">
         <v>87</v>
       </c>
@@ -18154,7 +18301,7 @@
       </c>
       <c r="T84" s="44"/>
     </row>
-    <row r="85" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A85" s="20">
         <v>88</v>
       </c>
@@ -18198,7 +18345,7 @@
       </c>
       <c r="T85" s="44"/>
     </row>
-    <row r="86" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A86" s="20">
         <v>89</v>
       </c>
@@ -18240,7 +18387,7 @@
       </c>
       <c r="T86" s="44"/>
     </row>
-    <row r="87" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A87" s="20">
         <v>90</v>
       </c>
@@ -18286,7 +18433,7 @@
       </c>
       <c r="T87" s="44"/>
     </row>
-    <row r="88" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A88" s="20">
         <v>91</v>
       </c>
@@ -18328,7 +18475,7 @@
       </c>
       <c r="T88" s="44"/>
     </row>
-    <row r="89" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A89" s="20">
         <v>92</v>
       </c>
@@ -18372,7 +18519,7 @@
       </c>
       <c r="T89" s="44"/>
     </row>
-    <row r="90" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A90" s="20">
         <v>93</v>
       </c>
@@ -18414,7 +18561,7 @@
       </c>
       <c r="T90" s="44"/>
     </row>
-    <row r="91" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A91" s="20">
         <v>94</v>
       </c>
@@ -18460,7 +18607,7 @@
       </c>
       <c r="T91" s="44"/>
     </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A92" s="48">
         <v>77</v>
       </c>
@@ -18501,7 +18648,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A93" s="48">
         <v>78</v>
       </c>
@@ -18542,6 +18689,20 @@
       </c>
       <c r="S93" s="48">
         <v>6</v>
+      </c>
+    </row>
+    <row r="94" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="N94" s="5">
+        <f>SUM(N2:N93)</f>
+        <v>10340568.130000001</v>
+      </c>
+      <c r="O94" s="9">
+        <f>SUM(O2:O93)</f>
+        <v>1447679.5382000003</v>
+      </c>
+      <c r="P94" s="9">
+        <f>SUM(P2:P93)</f>
+        <v>8892888.5918000005</v>
       </c>
     </row>
   </sheetData>
@@ -18556,7 +18717,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Civilworks cost/IPC Distribution.xlsx
+++ b/Civilworks cost/IPC Distribution.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19965" windowHeight="7635"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19965" windowHeight="7635" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Package_wise_str_df" sheetId="13" r:id="rId1"/>
@@ -1365,7 +1365,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="O12" sqref="O11:O12"/>
     </sheetView>
   </sheetViews>
@@ -7201,11 +7201,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T94"/>
+  <dimension ref="A1:T95"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M1" sqref="M1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O95" sqref="O95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10855,6 +10855,12 @@
       </c>
       <c r="T94" s="44"/>
     </row>
+    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="P95" s="4">
+        <f>SUM(P2:P94)</f>
+        <v>959411665.38999975</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -10863,11 +10869,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T93"/>
+  <dimension ref="A1:T94"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B93" sqref="B93"/>
+      <selection pane="bottomLeft" activeCell="O94" sqref="O94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14685,6 +14691,12 @@
         <v>6</v>
       </c>
       <c r="T93" s="44"/>
+    </row>
+    <row r="94" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="P94" s="4">
+        <f>SUM(P2:P93)</f>
+        <v>8892888.5917999987</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
